--- a/WIP/Documents/Report 4/UT/WS_Unit Test Case_DonationDAL_v1.0.xlsx
+++ b/WIP/Documents/Report 4/UT/WS_Unit Test Case_DonationDAL_v1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="886" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="886" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Guidleline" sheetId="1" r:id="rId1"/>
@@ -641,24 +641,15 @@
     <t>Database not exist Donation with userId = "19"</t>
   </si>
   <si>
-    <t xml:space="preserve">Database exist 30 row of Donation </t>
-  </si>
-  <si>
     <t>top=</t>
   </si>
   <si>
     <t>Return &lt;List&gt;DonationDTO from Database</t>
   </si>
   <si>
-    <t>Database Donation exist 20 row with UserId="3"</t>
-  </si>
-  <si>
     <t>return Sum(DonatedMoney) in Donation</t>
   </si>
   <si>
-    <t>Database Donation exist 10 row with UserId="5"</t>
-  </si>
-  <si>
     <t>Database Donation exist 0 row with UserId="4"</t>
   </si>
   <si>
@@ -669,6 +660,15 @@
   </si>
   <si>
     <t xml:space="preserve">return (int)numberEvent = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database exist 30 rows of Donation </t>
+  </si>
+  <si>
+    <t>Database Donation exist 20 rows with UserId="3"</t>
+  </si>
+  <si>
+    <t>Database Donation exist 10 rows with UserId="5"</t>
   </si>
 </sst>
 </file>
@@ -2795,6 +2795,9 @@
     <xf numFmtId="3" fontId="32" fillId="27" borderId="26" xfId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="67" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="28" fillId="24" borderId="33" xfId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2856,6 +2859,90 @@
     <xf numFmtId="14" fontId="38" fillId="24" borderId="10" xfId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="30" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="25" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="26" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="65" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="66" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="61" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="54" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="42" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="60" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="55" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="81" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="82" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="83" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="30" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="25" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="26" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="67" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="50" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="51" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="52" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="67" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="49" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="48" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="47" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="56" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="53" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="24" borderId="62" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2886,12 +2973,6 @@
     <xf numFmtId="0" fontId="32" fillId="24" borderId="68" xfId="77" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="67" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="24" borderId="72" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2916,84 +2997,6 @@
     <xf numFmtId="0" fontId="34" fillId="24" borderId="71" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="50" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="51" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="52" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="67" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="49" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="48" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="47" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="56" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="53" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="30" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="25" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="26" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="65" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="66" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="61" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="54" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="42" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="60" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="55" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="81" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="82" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="83" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="30" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="25" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="26" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="27" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3002,9 +3005,6 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="29" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="67" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="90">
@@ -5373,7 +5373,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
   <cols>
@@ -5896,136 +5898,136 @@
       <c r="B1" s="71"/>
     </row>
     <row r="2" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A2" s="193" t="s">
+      <c r="A2" s="222" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="194"/>
-      <c r="C2" s="195" t="s">
+      <c r="B2" s="223"/>
+      <c r="C2" s="224" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="196"/>
-      <c r="E2" s="197" t="s">
+      <c r="D2" s="225"/>
+      <c r="E2" s="226" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="198"/>
-      <c r="G2" s="198"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="200" t="str">
+      <c r="F2" s="227"/>
+      <c r="G2" s="227"/>
+      <c r="H2" s="228"/>
+      <c r="I2" s="229" t="str">
         <f>C2</f>
         <v>GetNumberEventDonatedInByUsingUserId</v>
       </c>
-      <c r="J2" s="201"/>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="201"/>
-      <c r="N2" s="201"/>
-      <c r="O2" s="201"/>
-      <c r="P2" s="201"/>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="202"/>
+      <c r="J2" s="230"/>
+      <c r="K2" s="230"/>
+      <c r="L2" s="230"/>
+      <c r="M2" s="230"/>
+      <c r="N2" s="230"/>
+      <c r="O2" s="230"/>
+      <c r="P2" s="230"/>
+      <c r="Q2" s="230"/>
+      <c r="R2" s="231"/>
       <c r="T2" s="73"/>
     </row>
     <row r="3" spans="1:20" ht="30" customHeight="1">
-      <c r="A3" s="203" t="s">
+      <c r="A3" s="210" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="204"/>
-      <c r="C3" s="205" t="str">
+      <c r="B3" s="211"/>
+      <c r="C3" s="232" t="str">
         <f>Cover!F4</f>
         <v>TuanhaSE03108</v>
       </c>
-      <c r="D3" s="206"/>
-      <c r="E3" s="207" t="s">
+      <c r="D3" s="233"/>
+      <c r="E3" s="234" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="208"/>
-      <c r="G3" s="208"/>
-      <c r="H3" s="209"/>
-      <c r="I3" s="210" t="str">
+      <c r="F3" s="235"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="237" t="str">
         <f>C3</f>
         <v>TuanhaSE03108</v>
       </c>
-      <c r="J3" s="211"/>
-      <c r="K3" s="211"/>
-      <c r="L3" s="211"/>
-      <c r="M3" s="211"/>
-      <c r="N3" s="211"/>
-      <c r="O3" s="211"/>
-      <c r="P3" s="211"/>
-      <c r="Q3" s="211"/>
-      <c r="R3" s="212"/>
+      <c r="J3" s="238"/>
+      <c r="K3" s="238"/>
+      <c r="L3" s="238"/>
+      <c r="M3" s="238"/>
+      <c r="N3" s="238"/>
+      <c r="O3" s="238"/>
+      <c r="P3" s="238"/>
+      <c r="Q3" s="238"/>
+      <c r="R3" s="239"/>
     </row>
     <row r="4" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A4" s="203" t="s">
+      <c r="A4" s="210" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="204"/>
-      <c r="C4" s="213"/>
-      <c r="D4" s="213"/>
-      <c r="E4" s="214"/>
-      <c r="F4" s="214"/>
-      <c r="G4" s="214"/>
-      <c r="H4" s="214"/>
-      <c r="I4" s="213"/>
-      <c r="J4" s="213"/>
-      <c r="K4" s="213"/>
-      <c r="L4" s="213"/>
-      <c r="M4" s="213"/>
-      <c r="N4" s="213"/>
-      <c r="O4" s="213"/>
-      <c r="P4" s="213"/>
-      <c r="Q4" s="213"/>
-      <c r="R4" s="215"/>
+      <c r="B4" s="211"/>
+      <c r="C4" s="212"/>
+      <c r="D4" s="212"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="213"/>
+      <c r="G4" s="213"/>
+      <c r="H4" s="213"/>
+      <c r="I4" s="212"/>
+      <c r="J4" s="212"/>
+      <c r="K4" s="212"/>
+      <c r="L4" s="212"/>
+      <c r="M4" s="212"/>
+      <c r="N4" s="212"/>
+      <c r="O4" s="212"/>
+      <c r="P4" s="212"/>
+      <c r="Q4" s="212"/>
+      <c r="R4" s="214"/>
     </row>
     <row r="5" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A5" s="216" t="s">
+      <c r="A5" s="215" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="217"/>
-      <c r="C5" s="218" t="s">
+      <c r="B5" s="216"/>
+      <c r="C5" s="217" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="219"/>
-      <c r="E5" s="220" t="s">
+      <c r="D5" s="218"/>
+      <c r="E5" s="219" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="219"/>
-      <c r="G5" s="219"/>
-      <c r="H5" s="221"/>
-      <c r="I5" s="219" t="s">
+      <c r="F5" s="218"/>
+      <c r="G5" s="218"/>
+      <c r="H5" s="220"/>
+      <c r="I5" s="218" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="219"/>
-      <c r="K5" s="219"/>
-      <c r="L5" s="220" t="s">
+      <c r="J5" s="218"/>
+      <c r="K5" s="218"/>
+      <c r="L5" s="219" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="219"/>
-      <c r="N5" s="219"/>
-      <c r="O5" s="219"/>
-      <c r="P5" s="219"/>
-      <c r="Q5" s="219"/>
-      <c r="R5" s="222"/>
+      <c r="M5" s="218"/>
+      <c r="N5" s="218"/>
+      <c r="O5" s="218"/>
+      <c r="P5" s="218"/>
+      <c r="Q5" s="218"/>
+      <c r="R5" s="221"/>
       <c r="T5" s="73"/>
     </row>
     <row r="6" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="226">
+      <c r="A6" s="197">
         <f>COUNTIF(E23:HM23,"P")</f>
         <v>3</v>
       </c>
-      <c r="B6" s="227"/>
-      <c r="C6" s="228">
+      <c r="B6" s="198"/>
+      <c r="C6" s="199">
         <f>COUNTIF(E23:HO23,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="229"/>
-      <c r="E6" s="230">
+      <c r="D6" s="200"/>
+      <c r="E6" s="201">
         <f>SUM(L6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="229"/>
-      <c r="G6" s="229"/>
-      <c r="H6" s="231"/>
+      <c r="F6" s="200"/>
+      <c r="G6" s="200"/>
+      <c r="H6" s="202"/>
       <c r="I6" s="117">
         <f>COUNTIF(E22:HM22,"N")</f>
         <v>0</v>
@@ -6038,16 +6040,16 @@
         <f>COUNTIF(E22:HM22,"B")</f>
         <v>0</v>
       </c>
-      <c r="L6" s="230">
+      <c r="L6" s="201">
         <f>COUNTA(E8:P8)</f>
         <v>3</v>
       </c>
-      <c r="M6" s="229"/>
-      <c r="N6" s="229"/>
-      <c r="O6" s="229"/>
-      <c r="P6" s="229"/>
-      <c r="Q6" s="229"/>
-      <c r="R6" s="232"/>
+      <c r="M6" s="200"/>
+      <c r="N6" s="200"/>
+      <c r="O6" s="200"/>
+      <c r="P6" s="200"/>
+      <c r="Q6" s="200"/>
+      <c r="R6" s="203"/>
       <c r="S6" s="118"/>
     </row>
     <row r="7" spans="1:20" ht="11.25" thickBot="1"/>
@@ -6063,7 +6065,7 @@
         <v>110</v>
       </c>
       <c r="G8" s="145" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H8" s="145"/>
       <c r="I8" s="145"/>
@@ -6083,7 +6085,7 @@
         <v>104</v>
       </c>
       <c r="B9" s="139" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C9" s="140"/>
       <c r="D9" s="141"/>
@@ -6111,7 +6113,7 @@
     <row r="10" spans="1:20" ht="13.5" customHeight="1">
       <c r="A10" s="135"/>
       <c r="B10" s="139" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C10" s="140"/>
       <c r="D10" s="141"/>
@@ -6139,7 +6141,7 @@
     <row r="11" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
       <c r="A11" s="135"/>
       <c r="B11" s="139" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C11" s="140"/>
       <c r="D11" s="141"/>
@@ -6169,7 +6171,7 @@
         <v>50</v>
       </c>
       <c r="B12" s="139" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C12" s="140"/>
       <c r="D12" s="141"/>
@@ -6307,7 +6309,7 @@
     <row r="18" spans="1:18">
       <c r="A18" s="136"/>
       <c r="B18" s="130" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C18" s="131"/>
       <c r="D18" s="132"/>
@@ -6402,11 +6404,11 @@
       <c r="A22" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="233" t="s">
+      <c r="B22" s="204" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="234"/>
-      <c r="D22" s="235"/>
+      <c r="C22" s="205"/>
+      <c r="D22" s="206"/>
       <c r="E22" s="157" t="s">
         <v>36</v>
       </c>
@@ -6430,11 +6432,11 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="136"/>
-      <c r="B23" s="236" t="s">
+      <c r="B23" s="207" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="237"/>
-      <c r="D23" s="238"/>
+      <c r="C23" s="208"/>
+      <c r="D23" s="209"/>
       <c r="E23" s="134" t="s">
         <v>38</v>
       </c>
@@ -6458,11 +6460,11 @@
     </row>
     <row r="24" spans="1:18" ht="54">
       <c r="A24" s="136"/>
-      <c r="B24" s="223" t="s">
+      <c r="B24" s="194" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="224"/>
-      <c r="D24" s="225"/>
+      <c r="C24" s="195"/>
+      <c r="D24" s="196"/>
       <c r="E24" s="133">
         <v>42594</v>
       </c>
@@ -6569,20 +6571,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="L6:R6"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:R4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:R5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:H2"/>
@@ -6591,6 +6579,20 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I3:R3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:R4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:R5"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="L6:R6"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVM983063:WVZ983063 JA23:JN23 SW23:TJ23 ACS23:ADF23 AMO23:ANB23 AWK23:AWX23 BGG23:BGT23 BQC23:BQP23 BZY23:CAL23 CJU23:CKH23 CTQ23:CUD23 DDM23:DDZ23 DNI23:DNV23 DXE23:DXR23 EHA23:EHN23 EQW23:ERJ23 FAS23:FBF23 FKO23:FLB23 FUK23:FUX23 GEG23:GET23 GOC23:GOP23 GXY23:GYL23 HHU23:HIH23 HRQ23:HSD23 IBM23:IBZ23 ILI23:ILV23 IVE23:IVR23 JFA23:JFN23 JOW23:JPJ23 JYS23:JZF23 KIO23:KJB23 KSK23:KSX23 LCG23:LCT23 LMC23:LMP23 LVY23:LWL23 MFU23:MGH23 MPQ23:MQD23 MZM23:MZZ23 NJI23:NJV23 NTE23:NTR23 ODA23:ODN23 OMW23:ONJ23 OWS23:OXF23 PGO23:PHB23 PQK23:PQX23 QAG23:QAT23 QKC23:QKP23 QTY23:QUL23 RDU23:REH23 RNQ23:ROD23 RXM23:RXZ23 SHI23:SHV23 SRE23:SRR23 TBA23:TBN23 TKW23:TLJ23 TUS23:TVF23 UEO23:UFB23 UOK23:UOX23 UYG23:UYT23 VIC23:VIP23 VRY23:VSL23 WBU23:WCH23 WLQ23:WMD23 WVM23:WVZ23 E65559:R65559 JA65559:JN65559 SW65559:TJ65559 ACS65559:ADF65559 AMO65559:ANB65559 AWK65559:AWX65559 BGG65559:BGT65559 BQC65559:BQP65559 BZY65559:CAL65559 CJU65559:CKH65559 CTQ65559:CUD65559 DDM65559:DDZ65559 DNI65559:DNV65559 DXE65559:DXR65559 EHA65559:EHN65559 EQW65559:ERJ65559 FAS65559:FBF65559 FKO65559:FLB65559 FUK65559:FUX65559 GEG65559:GET65559 GOC65559:GOP65559 GXY65559:GYL65559 HHU65559:HIH65559 HRQ65559:HSD65559 IBM65559:IBZ65559 ILI65559:ILV65559 IVE65559:IVR65559 JFA65559:JFN65559 JOW65559:JPJ65559 JYS65559:JZF65559 KIO65559:KJB65559 KSK65559:KSX65559 LCG65559:LCT65559 LMC65559:LMP65559 LVY65559:LWL65559 MFU65559:MGH65559 MPQ65559:MQD65559 MZM65559:MZZ65559 NJI65559:NJV65559 NTE65559:NTR65559 ODA65559:ODN65559 OMW65559:ONJ65559 OWS65559:OXF65559 PGO65559:PHB65559 PQK65559:PQX65559 QAG65559:QAT65559 QKC65559:QKP65559 QTY65559:QUL65559 RDU65559:REH65559 RNQ65559:ROD65559 RXM65559:RXZ65559 SHI65559:SHV65559 SRE65559:SRR65559 TBA65559:TBN65559 TKW65559:TLJ65559 TUS65559:TVF65559 UEO65559:UFB65559 UOK65559:UOX65559 UYG65559:UYT65559 VIC65559:VIP65559 VRY65559:VSL65559 WBU65559:WCH65559 WLQ65559:WMD65559 WVM65559:WVZ65559 E131095:R131095 JA131095:JN131095 SW131095:TJ131095 ACS131095:ADF131095 AMO131095:ANB131095 AWK131095:AWX131095 BGG131095:BGT131095 BQC131095:BQP131095 BZY131095:CAL131095 CJU131095:CKH131095 CTQ131095:CUD131095 DDM131095:DDZ131095 DNI131095:DNV131095 DXE131095:DXR131095 EHA131095:EHN131095 EQW131095:ERJ131095 FAS131095:FBF131095 FKO131095:FLB131095 FUK131095:FUX131095 GEG131095:GET131095 GOC131095:GOP131095 GXY131095:GYL131095 HHU131095:HIH131095 HRQ131095:HSD131095 IBM131095:IBZ131095 ILI131095:ILV131095 IVE131095:IVR131095 JFA131095:JFN131095 JOW131095:JPJ131095 JYS131095:JZF131095 KIO131095:KJB131095 KSK131095:KSX131095 LCG131095:LCT131095 LMC131095:LMP131095 LVY131095:LWL131095 MFU131095:MGH131095 MPQ131095:MQD131095 MZM131095:MZZ131095 NJI131095:NJV131095 NTE131095:NTR131095 ODA131095:ODN131095 OMW131095:ONJ131095 OWS131095:OXF131095 PGO131095:PHB131095 PQK131095:PQX131095 QAG131095:QAT131095 QKC131095:QKP131095 QTY131095:QUL131095 RDU131095:REH131095 RNQ131095:ROD131095 RXM131095:RXZ131095 SHI131095:SHV131095 SRE131095:SRR131095 TBA131095:TBN131095 TKW131095:TLJ131095 TUS131095:TVF131095 UEO131095:UFB131095 UOK131095:UOX131095 UYG131095:UYT131095 VIC131095:VIP131095 VRY131095:VSL131095 WBU131095:WCH131095 WLQ131095:WMD131095 WVM131095:WVZ131095 E196631:R196631 JA196631:JN196631 SW196631:TJ196631 ACS196631:ADF196631 AMO196631:ANB196631 AWK196631:AWX196631 BGG196631:BGT196631 BQC196631:BQP196631 BZY196631:CAL196631 CJU196631:CKH196631 CTQ196631:CUD196631 DDM196631:DDZ196631 DNI196631:DNV196631 DXE196631:DXR196631 EHA196631:EHN196631 EQW196631:ERJ196631 FAS196631:FBF196631 FKO196631:FLB196631 FUK196631:FUX196631 GEG196631:GET196631 GOC196631:GOP196631 GXY196631:GYL196631 HHU196631:HIH196631 HRQ196631:HSD196631 IBM196631:IBZ196631 ILI196631:ILV196631 IVE196631:IVR196631 JFA196631:JFN196631 JOW196631:JPJ196631 JYS196631:JZF196631 KIO196631:KJB196631 KSK196631:KSX196631 LCG196631:LCT196631 LMC196631:LMP196631 LVY196631:LWL196631 MFU196631:MGH196631 MPQ196631:MQD196631 MZM196631:MZZ196631 NJI196631:NJV196631 NTE196631:NTR196631 ODA196631:ODN196631 OMW196631:ONJ196631 OWS196631:OXF196631 PGO196631:PHB196631 PQK196631:PQX196631 QAG196631:QAT196631 QKC196631:QKP196631 QTY196631:QUL196631 RDU196631:REH196631 RNQ196631:ROD196631 RXM196631:RXZ196631 SHI196631:SHV196631 SRE196631:SRR196631 TBA196631:TBN196631 TKW196631:TLJ196631 TUS196631:TVF196631 UEO196631:UFB196631 UOK196631:UOX196631 UYG196631:UYT196631 VIC196631:VIP196631 VRY196631:VSL196631 WBU196631:WCH196631 WLQ196631:WMD196631 WVM196631:WVZ196631 E262167:R262167 JA262167:JN262167 SW262167:TJ262167 ACS262167:ADF262167 AMO262167:ANB262167 AWK262167:AWX262167 BGG262167:BGT262167 BQC262167:BQP262167 BZY262167:CAL262167 CJU262167:CKH262167 CTQ262167:CUD262167 DDM262167:DDZ262167 DNI262167:DNV262167 DXE262167:DXR262167 EHA262167:EHN262167 EQW262167:ERJ262167 FAS262167:FBF262167 FKO262167:FLB262167 FUK262167:FUX262167 GEG262167:GET262167 GOC262167:GOP262167 GXY262167:GYL262167 HHU262167:HIH262167 HRQ262167:HSD262167 IBM262167:IBZ262167 ILI262167:ILV262167 IVE262167:IVR262167 JFA262167:JFN262167 JOW262167:JPJ262167 JYS262167:JZF262167 KIO262167:KJB262167 KSK262167:KSX262167 LCG262167:LCT262167 LMC262167:LMP262167 LVY262167:LWL262167 MFU262167:MGH262167 MPQ262167:MQD262167 MZM262167:MZZ262167 NJI262167:NJV262167 NTE262167:NTR262167 ODA262167:ODN262167 OMW262167:ONJ262167 OWS262167:OXF262167 PGO262167:PHB262167 PQK262167:PQX262167 QAG262167:QAT262167 QKC262167:QKP262167 QTY262167:QUL262167 RDU262167:REH262167 RNQ262167:ROD262167 RXM262167:RXZ262167 SHI262167:SHV262167 SRE262167:SRR262167 TBA262167:TBN262167 TKW262167:TLJ262167 TUS262167:TVF262167 UEO262167:UFB262167 UOK262167:UOX262167 UYG262167:UYT262167 VIC262167:VIP262167 VRY262167:VSL262167 WBU262167:WCH262167 WLQ262167:WMD262167 WVM262167:WVZ262167 E327703:R327703 JA327703:JN327703 SW327703:TJ327703 ACS327703:ADF327703 AMO327703:ANB327703 AWK327703:AWX327703 BGG327703:BGT327703 BQC327703:BQP327703 BZY327703:CAL327703 CJU327703:CKH327703 CTQ327703:CUD327703 DDM327703:DDZ327703 DNI327703:DNV327703 DXE327703:DXR327703 EHA327703:EHN327703 EQW327703:ERJ327703 FAS327703:FBF327703 FKO327703:FLB327703 FUK327703:FUX327703 GEG327703:GET327703 GOC327703:GOP327703 GXY327703:GYL327703 HHU327703:HIH327703 HRQ327703:HSD327703 IBM327703:IBZ327703 ILI327703:ILV327703 IVE327703:IVR327703 JFA327703:JFN327703 JOW327703:JPJ327703 JYS327703:JZF327703 KIO327703:KJB327703 KSK327703:KSX327703 LCG327703:LCT327703 LMC327703:LMP327703 LVY327703:LWL327703 MFU327703:MGH327703 MPQ327703:MQD327703 MZM327703:MZZ327703 NJI327703:NJV327703 NTE327703:NTR327703 ODA327703:ODN327703 OMW327703:ONJ327703 OWS327703:OXF327703 PGO327703:PHB327703 PQK327703:PQX327703 QAG327703:QAT327703 QKC327703:QKP327703 QTY327703:QUL327703 RDU327703:REH327703 RNQ327703:ROD327703 RXM327703:RXZ327703 SHI327703:SHV327703 SRE327703:SRR327703 TBA327703:TBN327703 TKW327703:TLJ327703 TUS327703:TVF327703 UEO327703:UFB327703 UOK327703:UOX327703 UYG327703:UYT327703 VIC327703:VIP327703 VRY327703:VSL327703 WBU327703:WCH327703 WLQ327703:WMD327703 WVM327703:WVZ327703 E393239:R393239 JA393239:JN393239 SW393239:TJ393239 ACS393239:ADF393239 AMO393239:ANB393239 AWK393239:AWX393239 BGG393239:BGT393239 BQC393239:BQP393239 BZY393239:CAL393239 CJU393239:CKH393239 CTQ393239:CUD393239 DDM393239:DDZ393239 DNI393239:DNV393239 DXE393239:DXR393239 EHA393239:EHN393239 EQW393239:ERJ393239 FAS393239:FBF393239 FKO393239:FLB393239 FUK393239:FUX393239 GEG393239:GET393239 GOC393239:GOP393239 GXY393239:GYL393239 HHU393239:HIH393239 HRQ393239:HSD393239 IBM393239:IBZ393239 ILI393239:ILV393239 IVE393239:IVR393239 JFA393239:JFN393239 JOW393239:JPJ393239 JYS393239:JZF393239 KIO393239:KJB393239 KSK393239:KSX393239 LCG393239:LCT393239 LMC393239:LMP393239 LVY393239:LWL393239 MFU393239:MGH393239 MPQ393239:MQD393239 MZM393239:MZZ393239 NJI393239:NJV393239 NTE393239:NTR393239 ODA393239:ODN393239 OMW393239:ONJ393239 OWS393239:OXF393239 PGO393239:PHB393239 PQK393239:PQX393239 QAG393239:QAT393239 QKC393239:QKP393239 QTY393239:QUL393239 RDU393239:REH393239 RNQ393239:ROD393239 RXM393239:RXZ393239 SHI393239:SHV393239 SRE393239:SRR393239 TBA393239:TBN393239 TKW393239:TLJ393239 TUS393239:TVF393239 UEO393239:UFB393239 UOK393239:UOX393239 UYG393239:UYT393239 VIC393239:VIP393239 VRY393239:VSL393239 WBU393239:WCH393239 WLQ393239:WMD393239 WVM393239:WVZ393239 E458775:R458775 JA458775:JN458775 SW458775:TJ458775 ACS458775:ADF458775 AMO458775:ANB458775 AWK458775:AWX458775 BGG458775:BGT458775 BQC458775:BQP458775 BZY458775:CAL458775 CJU458775:CKH458775 CTQ458775:CUD458775 DDM458775:DDZ458775 DNI458775:DNV458775 DXE458775:DXR458775 EHA458775:EHN458775 EQW458775:ERJ458775 FAS458775:FBF458775 FKO458775:FLB458775 FUK458775:FUX458775 GEG458775:GET458775 GOC458775:GOP458775 GXY458775:GYL458775 HHU458775:HIH458775 HRQ458775:HSD458775 IBM458775:IBZ458775 ILI458775:ILV458775 IVE458775:IVR458775 JFA458775:JFN458775 JOW458775:JPJ458775 JYS458775:JZF458775 KIO458775:KJB458775 KSK458775:KSX458775 LCG458775:LCT458775 LMC458775:LMP458775 LVY458775:LWL458775 MFU458775:MGH458775 MPQ458775:MQD458775 MZM458775:MZZ458775 NJI458775:NJV458775 NTE458775:NTR458775 ODA458775:ODN458775 OMW458775:ONJ458775 OWS458775:OXF458775 PGO458775:PHB458775 PQK458775:PQX458775 QAG458775:QAT458775 QKC458775:QKP458775 QTY458775:QUL458775 RDU458775:REH458775 RNQ458775:ROD458775 RXM458775:RXZ458775 SHI458775:SHV458775 SRE458775:SRR458775 TBA458775:TBN458775 TKW458775:TLJ458775 TUS458775:TVF458775 UEO458775:UFB458775 UOK458775:UOX458775 UYG458775:UYT458775 VIC458775:VIP458775 VRY458775:VSL458775 WBU458775:WCH458775 WLQ458775:WMD458775 WVM458775:WVZ458775 E524311:R524311 JA524311:JN524311 SW524311:TJ524311 ACS524311:ADF524311 AMO524311:ANB524311 AWK524311:AWX524311 BGG524311:BGT524311 BQC524311:BQP524311 BZY524311:CAL524311 CJU524311:CKH524311 CTQ524311:CUD524311 DDM524311:DDZ524311 DNI524311:DNV524311 DXE524311:DXR524311 EHA524311:EHN524311 EQW524311:ERJ524311 FAS524311:FBF524311 FKO524311:FLB524311 FUK524311:FUX524311 GEG524311:GET524311 GOC524311:GOP524311 GXY524311:GYL524311 HHU524311:HIH524311 HRQ524311:HSD524311 IBM524311:IBZ524311 ILI524311:ILV524311 IVE524311:IVR524311 JFA524311:JFN524311 JOW524311:JPJ524311 JYS524311:JZF524311 KIO524311:KJB524311 KSK524311:KSX524311 LCG524311:LCT524311 LMC524311:LMP524311 LVY524311:LWL524311 MFU524311:MGH524311 MPQ524311:MQD524311 MZM524311:MZZ524311 NJI524311:NJV524311 NTE524311:NTR524311 ODA524311:ODN524311 OMW524311:ONJ524311 OWS524311:OXF524311 PGO524311:PHB524311 PQK524311:PQX524311 QAG524311:QAT524311 QKC524311:QKP524311 QTY524311:QUL524311 RDU524311:REH524311 RNQ524311:ROD524311 RXM524311:RXZ524311 SHI524311:SHV524311 SRE524311:SRR524311 TBA524311:TBN524311 TKW524311:TLJ524311 TUS524311:TVF524311 UEO524311:UFB524311 UOK524311:UOX524311 UYG524311:UYT524311 VIC524311:VIP524311 VRY524311:VSL524311 WBU524311:WCH524311 WLQ524311:WMD524311 WVM524311:WVZ524311 E589847:R589847 JA589847:JN589847 SW589847:TJ589847 ACS589847:ADF589847 AMO589847:ANB589847 AWK589847:AWX589847 BGG589847:BGT589847 BQC589847:BQP589847 BZY589847:CAL589847 CJU589847:CKH589847 CTQ589847:CUD589847 DDM589847:DDZ589847 DNI589847:DNV589847 DXE589847:DXR589847 EHA589847:EHN589847 EQW589847:ERJ589847 FAS589847:FBF589847 FKO589847:FLB589847 FUK589847:FUX589847 GEG589847:GET589847 GOC589847:GOP589847 GXY589847:GYL589847 HHU589847:HIH589847 HRQ589847:HSD589847 IBM589847:IBZ589847 ILI589847:ILV589847 IVE589847:IVR589847 JFA589847:JFN589847 JOW589847:JPJ589847 JYS589847:JZF589847 KIO589847:KJB589847 KSK589847:KSX589847 LCG589847:LCT589847 LMC589847:LMP589847 LVY589847:LWL589847 MFU589847:MGH589847 MPQ589847:MQD589847 MZM589847:MZZ589847 NJI589847:NJV589847 NTE589847:NTR589847 ODA589847:ODN589847 OMW589847:ONJ589847 OWS589847:OXF589847 PGO589847:PHB589847 PQK589847:PQX589847 QAG589847:QAT589847 QKC589847:QKP589847 QTY589847:QUL589847 RDU589847:REH589847 RNQ589847:ROD589847 RXM589847:RXZ589847 SHI589847:SHV589847 SRE589847:SRR589847 TBA589847:TBN589847 TKW589847:TLJ589847 TUS589847:TVF589847 UEO589847:UFB589847 UOK589847:UOX589847 UYG589847:UYT589847 VIC589847:VIP589847 VRY589847:VSL589847 WBU589847:WCH589847 WLQ589847:WMD589847 WVM589847:WVZ589847 E655383:R655383 JA655383:JN655383 SW655383:TJ655383 ACS655383:ADF655383 AMO655383:ANB655383 AWK655383:AWX655383 BGG655383:BGT655383 BQC655383:BQP655383 BZY655383:CAL655383 CJU655383:CKH655383 CTQ655383:CUD655383 DDM655383:DDZ655383 DNI655383:DNV655383 DXE655383:DXR655383 EHA655383:EHN655383 EQW655383:ERJ655383 FAS655383:FBF655383 FKO655383:FLB655383 FUK655383:FUX655383 GEG655383:GET655383 GOC655383:GOP655383 GXY655383:GYL655383 HHU655383:HIH655383 HRQ655383:HSD655383 IBM655383:IBZ655383 ILI655383:ILV655383 IVE655383:IVR655383 JFA655383:JFN655383 JOW655383:JPJ655383 JYS655383:JZF655383 KIO655383:KJB655383 KSK655383:KSX655383 LCG655383:LCT655383 LMC655383:LMP655383 LVY655383:LWL655383 MFU655383:MGH655383 MPQ655383:MQD655383 MZM655383:MZZ655383 NJI655383:NJV655383 NTE655383:NTR655383 ODA655383:ODN655383 OMW655383:ONJ655383 OWS655383:OXF655383 PGO655383:PHB655383 PQK655383:PQX655383 QAG655383:QAT655383 QKC655383:QKP655383 QTY655383:QUL655383 RDU655383:REH655383 RNQ655383:ROD655383 RXM655383:RXZ655383 SHI655383:SHV655383 SRE655383:SRR655383 TBA655383:TBN655383 TKW655383:TLJ655383 TUS655383:TVF655383 UEO655383:UFB655383 UOK655383:UOX655383 UYG655383:UYT655383 VIC655383:VIP655383 VRY655383:VSL655383 WBU655383:WCH655383 WLQ655383:WMD655383 WVM655383:WVZ655383 E720919:R720919 JA720919:JN720919 SW720919:TJ720919 ACS720919:ADF720919 AMO720919:ANB720919 AWK720919:AWX720919 BGG720919:BGT720919 BQC720919:BQP720919 BZY720919:CAL720919 CJU720919:CKH720919 CTQ720919:CUD720919 DDM720919:DDZ720919 DNI720919:DNV720919 DXE720919:DXR720919 EHA720919:EHN720919 EQW720919:ERJ720919 FAS720919:FBF720919 FKO720919:FLB720919 FUK720919:FUX720919 GEG720919:GET720919 GOC720919:GOP720919 GXY720919:GYL720919 HHU720919:HIH720919 HRQ720919:HSD720919 IBM720919:IBZ720919 ILI720919:ILV720919 IVE720919:IVR720919 JFA720919:JFN720919 JOW720919:JPJ720919 JYS720919:JZF720919 KIO720919:KJB720919 KSK720919:KSX720919 LCG720919:LCT720919 LMC720919:LMP720919 LVY720919:LWL720919 MFU720919:MGH720919 MPQ720919:MQD720919 MZM720919:MZZ720919 NJI720919:NJV720919 NTE720919:NTR720919 ODA720919:ODN720919 OMW720919:ONJ720919 OWS720919:OXF720919 PGO720919:PHB720919 PQK720919:PQX720919 QAG720919:QAT720919 QKC720919:QKP720919 QTY720919:QUL720919 RDU720919:REH720919 RNQ720919:ROD720919 RXM720919:RXZ720919 SHI720919:SHV720919 SRE720919:SRR720919 TBA720919:TBN720919 TKW720919:TLJ720919 TUS720919:TVF720919 UEO720919:UFB720919 UOK720919:UOX720919 UYG720919:UYT720919 VIC720919:VIP720919 VRY720919:VSL720919 WBU720919:WCH720919 WLQ720919:WMD720919 WVM720919:WVZ720919 E786455:R786455 JA786455:JN786455 SW786455:TJ786455 ACS786455:ADF786455 AMO786455:ANB786455 AWK786455:AWX786455 BGG786455:BGT786455 BQC786455:BQP786455 BZY786455:CAL786455 CJU786455:CKH786455 CTQ786455:CUD786455 DDM786455:DDZ786455 DNI786455:DNV786455 DXE786455:DXR786455 EHA786455:EHN786455 EQW786455:ERJ786455 FAS786455:FBF786455 FKO786455:FLB786455 FUK786455:FUX786455 GEG786455:GET786455 GOC786455:GOP786455 GXY786455:GYL786455 HHU786455:HIH786455 HRQ786455:HSD786455 IBM786455:IBZ786455 ILI786455:ILV786455 IVE786455:IVR786455 JFA786455:JFN786455 JOW786455:JPJ786455 JYS786455:JZF786455 KIO786455:KJB786455 KSK786455:KSX786455 LCG786455:LCT786455 LMC786455:LMP786455 LVY786455:LWL786455 MFU786455:MGH786455 MPQ786455:MQD786455 MZM786455:MZZ786455 NJI786455:NJV786455 NTE786455:NTR786455 ODA786455:ODN786455 OMW786455:ONJ786455 OWS786455:OXF786455 PGO786455:PHB786455 PQK786455:PQX786455 QAG786455:QAT786455 QKC786455:QKP786455 QTY786455:QUL786455 RDU786455:REH786455 RNQ786455:ROD786455 RXM786455:RXZ786455 SHI786455:SHV786455 SRE786455:SRR786455 TBA786455:TBN786455 TKW786455:TLJ786455 TUS786455:TVF786455 UEO786455:UFB786455 UOK786455:UOX786455 UYG786455:UYT786455 VIC786455:VIP786455 VRY786455:VSL786455 WBU786455:WCH786455 WLQ786455:WMD786455 WVM786455:WVZ786455 E851991:R851991 JA851991:JN851991 SW851991:TJ851991 ACS851991:ADF851991 AMO851991:ANB851991 AWK851991:AWX851991 BGG851991:BGT851991 BQC851991:BQP851991 BZY851991:CAL851991 CJU851991:CKH851991 CTQ851991:CUD851991 DDM851991:DDZ851991 DNI851991:DNV851991 DXE851991:DXR851991 EHA851991:EHN851991 EQW851991:ERJ851991 FAS851991:FBF851991 FKO851991:FLB851991 FUK851991:FUX851991 GEG851991:GET851991 GOC851991:GOP851991 GXY851991:GYL851991 HHU851991:HIH851991 HRQ851991:HSD851991 IBM851991:IBZ851991 ILI851991:ILV851991 IVE851991:IVR851991 JFA851991:JFN851991 JOW851991:JPJ851991 JYS851991:JZF851991 KIO851991:KJB851991 KSK851991:KSX851991 LCG851991:LCT851991 LMC851991:LMP851991 LVY851991:LWL851991 MFU851991:MGH851991 MPQ851991:MQD851991 MZM851991:MZZ851991 NJI851991:NJV851991 NTE851991:NTR851991 ODA851991:ODN851991 OMW851991:ONJ851991 OWS851991:OXF851991 PGO851991:PHB851991 PQK851991:PQX851991 QAG851991:QAT851991 QKC851991:QKP851991 QTY851991:QUL851991 RDU851991:REH851991 RNQ851991:ROD851991 RXM851991:RXZ851991 SHI851991:SHV851991 SRE851991:SRR851991 TBA851991:TBN851991 TKW851991:TLJ851991 TUS851991:TVF851991 UEO851991:UFB851991 UOK851991:UOX851991 UYG851991:UYT851991 VIC851991:VIP851991 VRY851991:VSL851991 WBU851991:WCH851991 WLQ851991:WMD851991 WVM851991:WVZ851991 E917527:R917527 JA917527:JN917527 SW917527:TJ917527 ACS917527:ADF917527 AMO917527:ANB917527 AWK917527:AWX917527 BGG917527:BGT917527 BQC917527:BQP917527 BZY917527:CAL917527 CJU917527:CKH917527 CTQ917527:CUD917527 DDM917527:DDZ917527 DNI917527:DNV917527 DXE917527:DXR917527 EHA917527:EHN917527 EQW917527:ERJ917527 FAS917527:FBF917527 FKO917527:FLB917527 FUK917527:FUX917527 GEG917527:GET917527 GOC917527:GOP917527 GXY917527:GYL917527 HHU917527:HIH917527 HRQ917527:HSD917527 IBM917527:IBZ917527 ILI917527:ILV917527 IVE917527:IVR917527 JFA917527:JFN917527 JOW917527:JPJ917527 JYS917527:JZF917527 KIO917527:KJB917527 KSK917527:KSX917527 LCG917527:LCT917527 LMC917527:LMP917527 LVY917527:LWL917527 MFU917527:MGH917527 MPQ917527:MQD917527 MZM917527:MZZ917527 NJI917527:NJV917527 NTE917527:NTR917527 ODA917527:ODN917527 OMW917527:ONJ917527 OWS917527:OXF917527 PGO917527:PHB917527 PQK917527:PQX917527 QAG917527:QAT917527 QKC917527:QKP917527 QTY917527:QUL917527 RDU917527:REH917527 RNQ917527:ROD917527 RXM917527:RXZ917527 SHI917527:SHV917527 SRE917527:SRR917527 TBA917527:TBN917527 TKW917527:TLJ917527 TUS917527:TVF917527 UEO917527:UFB917527 UOK917527:UOX917527 UYG917527:UYT917527 VIC917527:VIP917527 VRY917527:VSL917527 WBU917527:WCH917527 WLQ917527:WMD917527 WVM917527:WVZ917527 E983063:R983063 JA983063:JN983063 SW983063:TJ983063 ACS983063:ADF983063 AMO983063:ANB983063 AWK983063:AWX983063 BGG983063:BGT983063 BQC983063:BQP983063 BZY983063:CAL983063 CJU983063:CKH983063 CTQ983063:CUD983063 DDM983063:DDZ983063 DNI983063:DNV983063 DXE983063:DXR983063 EHA983063:EHN983063 EQW983063:ERJ983063 FAS983063:FBF983063 FKO983063:FLB983063 FUK983063:FUX983063 GEG983063:GET983063 GOC983063:GOP983063 GXY983063:GYL983063 HHU983063:HIH983063 HRQ983063:HSD983063 IBM983063:IBZ983063 ILI983063:ILV983063 IVE983063:IVR983063 JFA983063:JFN983063 JOW983063:JPJ983063 JYS983063:JZF983063 KIO983063:KJB983063 KSK983063:KSX983063 LCG983063:LCT983063 LMC983063:LMP983063 LVY983063:LWL983063 MFU983063:MGH983063 MPQ983063:MQD983063 MZM983063:MZZ983063 NJI983063:NJV983063 NTE983063:NTR983063 ODA983063:ODN983063 OMW983063:ONJ983063 OWS983063:OXF983063 PGO983063:PHB983063 PQK983063:PQX983063 QAG983063:QAT983063 QKC983063:QKP983063 QTY983063:QUL983063 RDU983063:REH983063 RNQ983063:ROD983063 RXM983063:RXZ983063 SHI983063:SHV983063 SRE983063:SRR983063 TBA983063:TBN983063 TKW983063:TLJ983063 TUS983063:TVF983063 UEO983063:UFB983063 UOK983063:UOX983063 UYG983063:UYT983063 VIC983063:VIP983063 VRY983063:VSL983063 WBU983063:WCH983063 WLQ983063:WMD983063 E23:R23">
@@ -6656,48 +6658,48 @@
       <c r="G3" s="25"/>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A4" s="173" t="s">
+      <c r="A4" s="174" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="173"/>
-      <c r="C4" s="173"/>
-      <c r="D4" s="173"/>
-      <c r="E4" s="174" t="str">
+      <c r="B4" s="174"/>
+      <c r="C4" s="174"/>
+      <c r="D4" s="174"/>
+      <c r="E4" s="175" t="str">
         <f>Cover!B4</f>
         <v>WingS</v>
       </c>
-      <c r="F4" s="175"/>
-      <c r="G4" s="175"/>
-      <c r="H4" s="176"/>
+      <c r="F4" s="176"/>
+      <c r="G4" s="176"/>
+      <c r="H4" s="177"/>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A5" s="173" t="s">
+      <c r="A5" s="174" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="173"/>
-      <c r="C5" s="173"/>
-      <c r="D5" s="173"/>
-      <c r="E5" s="174" t="str">
+      <c r="B5" s="174"/>
+      <c r="C5" s="174"/>
+      <c r="D5" s="174"/>
+      <c r="E5" s="175" t="str">
         <f>Cover!B5</f>
         <v>WS</v>
       </c>
-      <c r="F5" s="175"/>
-      <c r="G5" s="175"/>
-      <c r="H5" s="176"/>
+      <c r="F5" s="176"/>
+      <c r="G5" s="176"/>
+      <c r="H5" s="177"/>
     </row>
     <row r="6" spans="1:8" s="26" customFormat="1" ht="80.25" customHeight="1">
-      <c r="A6" s="172" t="s">
+      <c r="A6" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="172"/>
-      <c r="C6" s="172"/>
-      <c r="D6" s="172"/>
-      <c r="E6" s="177" t="s">
+      <c r="B6" s="173"/>
+      <c r="C6" s="173"/>
+      <c r="D6" s="173"/>
+      <c r="E6" s="178" t="s">
         <v>106</v>
       </c>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="179"/>
+      <c r="F6" s="179"/>
+      <c r="G6" s="179"/>
+      <c r="H6" s="180"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="27"/>
@@ -6931,13 +6933,13 @@
       <c r="A2" s="99" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="183" t="s">
+      <c r="B2" s="184" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="185"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="186"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="100"/>
@@ -6951,11 +6953,11 @@
       <c r="A4" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="180" t="s">
+      <c r="B4" s="181" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="180"/>
-      <c r="D4" s="180"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
       <c r="E4" s="90" t="s">
         <v>1</v>
       </c>
@@ -6967,11 +6969,11 @@
       <c r="A5" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="180" t="s">
+      <c r="B5" s="181" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="180"/>
-      <c r="D5" s="180"/>
+      <c r="C5" s="181"/>
+      <c r="D5" s="181"/>
       <c r="E5" s="90" t="s">
         <v>3</v>
       </c>
@@ -6980,15 +6982,15 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="181" t="s">
+      <c r="A6" s="182" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="182" t="str">
+      <c r="B6" s="183" t="str">
         <f>B5&amp;"_UnitTestCase_DonationDAL_v1.0.xls"</f>
         <v>WS_UnitTestCase_DonationDAL_v1.0.xls</v>
       </c>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
+      <c r="C6" s="183"/>
+      <c r="D6" s="183"/>
       <c r="E6" s="90" t="s">
         <v>5</v>
       </c>
@@ -6997,10 +6999,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A7" s="181"/>
-      <c r="B7" s="182"/>
-      <c r="C7" s="182"/>
-      <c r="D7" s="182"/>
+      <c r="A7" s="182"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
       <c r="E7" s="90" t="s">
         <v>6</v>
       </c>
@@ -7237,17 +7239,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A2" s="187" t="s">
+      <c r="A2" s="188" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="188"/>
+      <c r="I2" s="188"/>
     </row>
     <row r="3" spans="1:10" ht="14.25" customHeight="1">
       <c r="A3" s="51"/>
@@ -7264,80 +7266,80 @@
       <c r="A4" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="188" t="str">
+      <c r="B4" s="189" t="str">
         <f>Cover!B4</f>
         <v>WingS</v>
       </c>
-      <c r="C4" s="188"/>
-      <c r="D4" s="189" t="s">
+      <c r="C4" s="189"/>
+      <c r="D4" s="190" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="189"/>
-      <c r="F4" s="174" t="str">
+      <c r="E4" s="190"/>
+      <c r="F4" s="175" t="str">
         <f>Cover!F4</f>
         <v>TuanhaSE03108</v>
       </c>
-      <c r="G4" s="175"/>
-      <c r="H4" s="175"/>
-      <c r="I4" s="176"/>
+      <c r="G4" s="176"/>
+      <c r="H4" s="176"/>
+      <c r="I4" s="177"/>
     </row>
     <row r="5" spans="1:10" ht="13.5" customHeight="1">
       <c r="A5" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="188" t="str">
+      <c r="B5" s="189" t="str">
         <f>Cover!B5</f>
         <v>WS</v>
       </c>
-      <c r="C5" s="188"/>
-      <c r="D5" s="189" t="s">
+      <c r="C5" s="189"/>
+      <c r="D5" s="190" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="189"/>
-      <c r="F5" s="174" t="str">
+      <c r="E5" s="190"/>
+      <c r="F5" s="175" t="str">
         <f>Cover!F4</f>
         <v>TuanhaSE03108</v>
       </c>
-      <c r="G5" s="175"/>
-      <c r="H5" s="175"/>
-      <c r="I5" s="176"/>
+      <c r="G5" s="176"/>
+      <c r="H5" s="176"/>
+      <c r="I5" s="177"/>
     </row>
     <row r="6" spans="1:10" ht="12.75" customHeight="1">
       <c r="A6" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="188" t="str">
+      <c r="B6" s="189" t="str">
         <f>B5&amp;"_"&amp;"Test Report"&amp;"_"&amp;"v1.0"</f>
         <v>WS_Test Report_v1.0</v>
       </c>
-      <c r="C6" s="188"/>
-      <c r="D6" s="189" t="s">
+      <c r="C6" s="189"/>
+      <c r="D6" s="190" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="189"/>
-      <c r="F6" s="190">
+      <c r="E6" s="190"/>
+      <c r="F6" s="191">
         <f>Cover!F6</f>
         <v>42594</v>
       </c>
-      <c r="G6" s="191"/>
-      <c r="H6" s="191"/>
-      <c r="I6" s="192"/>
+      <c r="G6" s="192"/>
+      <c r="H6" s="192"/>
+      <c r="I6" s="193"/>
       <c r="J6" s="63"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
       <c r="A7" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="186" t="s">
+      <c r="B7" s="187" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="186"/>
-      <c r="D7" s="186"/>
-      <c r="E7" s="186"/>
-      <c r="F7" s="186"/>
-      <c r="G7" s="186"/>
-      <c r="H7" s="186"/>
-      <c r="I7" s="186"/>
+      <c r="C7" s="187"/>
+      <c r="D7" s="187"/>
+      <c r="E7" s="187"/>
+      <c r="F7" s="187"/>
+      <c r="G7" s="187"/>
+      <c r="H7" s="187"/>
+      <c r="I7" s="187"/>
     </row>
     <row r="8" spans="1:10" ht="14.25" customHeight="1">
       <c r="A8" s="54"/>
@@ -7405,7 +7407,7 @@
       <c r="A12" s="62">
         <v>1</v>
       </c>
-      <c r="B12" s="242" t="str">
+      <c r="B12" s="172" t="str">
         <f>FunctionList!D11</f>
         <v>GetFullInformationOfDonation</v>
       </c>
@@ -7442,7 +7444,7 @@
       <c r="A13" s="62">
         <v>2</v>
       </c>
-      <c r="B13" s="242" t="str">
+      <c r="B13" s="172" t="str">
         <f>FunctionList!D12</f>
         <v>GetLastDonateInformation</v>
       </c>
@@ -7479,7 +7481,7 @@
       <c r="A14" s="62">
         <v>3</v>
       </c>
-      <c r="B14" s="242" t="str">
+      <c r="B14" s="172" t="str">
         <f>FunctionList!D13</f>
         <v>GetTopRecentlyDonator</v>
       </c>
@@ -7516,7 +7518,7 @@
       <c r="A15" s="62">
         <v>4</v>
       </c>
-      <c r="B15" s="242" t="str">
+      <c r="B15" s="172" t="str">
         <f>FunctionList!D10</f>
         <v>AddNewDonation</v>
       </c>
@@ -7553,7 +7555,7 @@
       <c r="A16" s="62">
         <v>5</v>
       </c>
-      <c r="B16" s="242" t="str">
+      <c r="B16" s="172" t="str">
         <f>FunctionList!D15</f>
         <v>GetNumberEventDonatedInByUsingUserId</v>
       </c>
@@ -7590,7 +7592,7 @@
       <c r="A17" s="62">
         <v>6</v>
       </c>
-      <c r="B17" s="242" t="str">
+      <c r="B17" s="172" t="str">
         <f>FunctionList!D14</f>
         <v>GetTotalMoneyDonatedInByUsingUserId</v>
       </c>
@@ -8316,136 +8318,136 @@
       <c r="B1" s="71"/>
     </row>
     <row r="2" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A2" s="193" t="s">
+      <c r="A2" s="222" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="194"/>
-      <c r="C2" s="195" t="s">
+      <c r="B2" s="223"/>
+      <c r="C2" s="224" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="196"/>
-      <c r="E2" s="197" t="s">
+      <c r="D2" s="225"/>
+      <c r="E2" s="226" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="198"/>
-      <c r="G2" s="198"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="200" t="str">
+      <c r="F2" s="227"/>
+      <c r="G2" s="227"/>
+      <c r="H2" s="228"/>
+      <c r="I2" s="229" t="str">
         <f>C2</f>
         <v>AddNewDonation</v>
       </c>
-      <c r="J2" s="201"/>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="201"/>
-      <c r="N2" s="201"/>
-      <c r="O2" s="201"/>
-      <c r="P2" s="201"/>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="202"/>
+      <c r="J2" s="230"/>
+      <c r="K2" s="230"/>
+      <c r="L2" s="230"/>
+      <c r="M2" s="230"/>
+      <c r="N2" s="230"/>
+      <c r="O2" s="230"/>
+      <c r="P2" s="230"/>
+      <c r="Q2" s="230"/>
+      <c r="R2" s="231"/>
       <c r="T2" s="73"/>
     </row>
     <row r="3" spans="1:20" ht="30" customHeight="1">
-      <c r="A3" s="203" t="s">
+      <c r="A3" s="210" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="204"/>
-      <c r="C3" s="205" t="str">
+      <c r="B3" s="211"/>
+      <c r="C3" s="232" t="str">
         <f>Cover!F4</f>
         <v>TuanhaSE03108</v>
       </c>
-      <c r="D3" s="206"/>
-      <c r="E3" s="207" t="s">
+      <c r="D3" s="233"/>
+      <c r="E3" s="234" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="208"/>
-      <c r="G3" s="208"/>
-      <c r="H3" s="209"/>
-      <c r="I3" s="210" t="str">
+      <c r="F3" s="235"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="237" t="str">
         <f>C3</f>
         <v>TuanhaSE03108</v>
       </c>
-      <c r="J3" s="211"/>
-      <c r="K3" s="211"/>
-      <c r="L3" s="211"/>
-      <c r="M3" s="211"/>
-      <c r="N3" s="211"/>
-      <c r="O3" s="211"/>
-      <c r="P3" s="211"/>
-      <c r="Q3" s="211"/>
-      <c r="R3" s="212"/>
+      <c r="J3" s="238"/>
+      <c r="K3" s="238"/>
+      <c r="L3" s="238"/>
+      <c r="M3" s="238"/>
+      <c r="N3" s="238"/>
+      <c r="O3" s="238"/>
+      <c r="P3" s="238"/>
+      <c r="Q3" s="238"/>
+      <c r="R3" s="239"/>
     </row>
     <row r="4" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A4" s="203" t="s">
+      <c r="A4" s="210" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="204"/>
-      <c r="C4" s="213"/>
-      <c r="D4" s="213"/>
-      <c r="E4" s="214"/>
-      <c r="F4" s="214"/>
-      <c r="G4" s="214"/>
-      <c r="H4" s="214"/>
-      <c r="I4" s="213"/>
-      <c r="J4" s="213"/>
-      <c r="K4" s="213"/>
-      <c r="L4" s="213"/>
-      <c r="M4" s="213"/>
-      <c r="N4" s="213"/>
-      <c r="O4" s="213"/>
-      <c r="P4" s="213"/>
-      <c r="Q4" s="213"/>
-      <c r="R4" s="215"/>
+      <c r="B4" s="211"/>
+      <c r="C4" s="212"/>
+      <c r="D4" s="212"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="213"/>
+      <c r="G4" s="213"/>
+      <c r="H4" s="213"/>
+      <c r="I4" s="212"/>
+      <c r="J4" s="212"/>
+      <c r="K4" s="212"/>
+      <c r="L4" s="212"/>
+      <c r="M4" s="212"/>
+      <c r="N4" s="212"/>
+      <c r="O4" s="212"/>
+      <c r="P4" s="212"/>
+      <c r="Q4" s="212"/>
+      <c r="R4" s="214"/>
     </row>
     <row r="5" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A5" s="216" t="s">
+      <c r="A5" s="215" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="217"/>
-      <c r="C5" s="218" t="s">
+      <c r="B5" s="216"/>
+      <c r="C5" s="217" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="219"/>
-      <c r="E5" s="220" t="s">
+      <c r="D5" s="218"/>
+      <c r="E5" s="219" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="219"/>
-      <c r="G5" s="219"/>
-      <c r="H5" s="221"/>
-      <c r="I5" s="219" t="s">
+      <c r="F5" s="218"/>
+      <c r="G5" s="218"/>
+      <c r="H5" s="220"/>
+      <c r="I5" s="218" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="219"/>
-      <c r="K5" s="219"/>
-      <c r="L5" s="220" t="s">
+      <c r="J5" s="218"/>
+      <c r="K5" s="218"/>
+      <c r="L5" s="219" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="219"/>
-      <c r="N5" s="219"/>
-      <c r="O5" s="219"/>
-      <c r="P5" s="219"/>
-      <c r="Q5" s="219"/>
-      <c r="R5" s="222"/>
+      <c r="M5" s="218"/>
+      <c r="N5" s="218"/>
+      <c r="O5" s="218"/>
+      <c r="P5" s="218"/>
+      <c r="Q5" s="218"/>
+      <c r="R5" s="221"/>
       <c r="T5" s="73"/>
     </row>
     <row r="6" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="226">
+      <c r="A6" s="197">
         <f>COUNTIF(E19:HM19,"P")</f>
         <v>2</v>
       </c>
-      <c r="B6" s="227"/>
-      <c r="C6" s="228">
+      <c r="B6" s="198"/>
+      <c r="C6" s="199">
         <f>COUNTIF(E19:HO19,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="229"/>
-      <c r="E6" s="230">
+      <c r="D6" s="200"/>
+      <c r="E6" s="201">
         <f>SUM(L6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="229"/>
-      <c r="G6" s="229"/>
-      <c r="H6" s="231"/>
+      <c r="F6" s="200"/>
+      <c r="G6" s="200"/>
+      <c r="H6" s="202"/>
       <c r="I6" s="117">
         <f>COUNTIF(E18:HM18,"N")</f>
         <v>0</v>
@@ -8458,16 +8460,16 @@
         <f>COUNTIF(E18:HM18,"B")</f>
         <v>0</v>
       </c>
-      <c r="L6" s="230">
+      <c r="L6" s="201">
         <f>COUNTA(E8:P8)</f>
         <v>2</v>
       </c>
-      <c r="M6" s="229"/>
-      <c r="N6" s="229"/>
-      <c r="O6" s="229"/>
-      <c r="P6" s="229"/>
-      <c r="Q6" s="229"/>
-      <c r="R6" s="232"/>
+      <c r="M6" s="200"/>
+      <c r="N6" s="200"/>
+      <c r="O6" s="200"/>
+      <c r="P6" s="200"/>
+      <c r="Q6" s="200"/>
+      <c r="R6" s="203"/>
       <c r="S6" s="118"/>
     </row>
     <row r="7" spans="1:20" ht="11.25" thickBot="1"/>
@@ -8709,11 +8711,11 @@
       <c r="A18" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="233" t="s">
+      <c r="B18" s="204" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="234"/>
-      <c r="D18" s="235"/>
+      <c r="C18" s="205"/>
+      <c r="D18" s="206"/>
       <c r="E18" s="157" t="s">
         <v>36</v>
       </c>
@@ -8735,11 +8737,11 @@
     </row>
     <row r="19" spans="1:18" ht="13.5" customHeight="1">
       <c r="A19" s="136"/>
-      <c r="B19" s="236" t="s">
+      <c r="B19" s="207" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="237"/>
-      <c r="D19" s="238"/>
+      <c r="C19" s="208"/>
+      <c r="D19" s="209"/>
       <c r="E19" s="134" t="s">
         <v>38</v>
       </c>
@@ -8761,11 +8763,11 @@
     </row>
     <row r="20" spans="1:18" ht="64.5" customHeight="1">
       <c r="A20" s="136"/>
-      <c r="B20" s="223" t="s">
+      <c r="B20" s="194" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="224"/>
-      <c r="D20" s="225"/>
+      <c r="C20" s="195"/>
+      <c r="D20" s="196"/>
       <c r="E20" s="133">
         <v>42594</v>
       </c>
@@ -8880,20 +8882,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="L6:R6"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:R4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:R5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:H2"/>
@@ -8902,6 +8890,20 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I3:R3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:R4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:R5"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="L6:R6"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E19:R19 JA19:JN19 SW19:TJ19 ACS19:ADF19 AMO19:ANB19 AWK19:AWX19 BGG19:BGT19 BQC19:BQP19 BZY19:CAL19 CJU19:CKH19 CTQ19:CUD19 DDM19:DDZ19 DNI19:DNV19 DXE19:DXR19 EHA19:EHN19 EQW19:ERJ19 FAS19:FBF19 FKO19:FLB19 FUK19:FUX19 GEG19:GET19 GOC19:GOP19 GXY19:GYL19 HHU19:HIH19 HRQ19:HSD19 IBM19:IBZ19 ILI19:ILV19 IVE19:IVR19 JFA19:JFN19 JOW19:JPJ19 JYS19:JZF19 KIO19:KJB19 KSK19:KSX19 LCG19:LCT19 LMC19:LMP19 LVY19:LWL19 MFU19:MGH19 MPQ19:MQD19 MZM19:MZZ19 NJI19:NJV19 NTE19:NTR19 ODA19:ODN19 OMW19:ONJ19 OWS19:OXF19 PGO19:PHB19 PQK19:PQX19 QAG19:QAT19 QKC19:QKP19 QTY19:QUL19 RDU19:REH19 RNQ19:ROD19 RXM19:RXZ19 SHI19:SHV19 SRE19:SRR19 TBA19:TBN19 TKW19:TLJ19 TUS19:TVF19 UEO19:UFB19 UOK19:UOX19 UYG19:UYT19 VIC19:VIP19 VRY19:VSL19 WBU19:WCH19 WLQ19:WMD19 WVM19:WVZ19 E65555:R65555 JA65555:JN65555 SW65555:TJ65555 ACS65555:ADF65555 AMO65555:ANB65555 AWK65555:AWX65555 BGG65555:BGT65555 BQC65555:BQP65555 BZY65555:CAL65555 CJU65555:CKH65555 CTQ65555:CUD65555 DDM65555:DDZ65555 DNI65555:DNV65555 DXE65555:DXR65555 EHA65555:EHN65555 EQW65555:ERJ65555 FAS65555:FBF65555 FKO65555:FLB65555 FUK65555:FUX65555 GEG65555:GET65555 GOC65555:GOP65555 GXY65555:GYL65555 HHU65555:HIH65555 HRQ65555:HSD65555 IBM65555:IBZ65555 ILI65555:ILV65555 IVE65555:IVR65555 JFA65555:JFN65555 JOW65555:JPJ65555 JYS65555:JZF65555 KIO65555:KJB65555 KSK65555:KSX65555 LCG65555:LCT65555 LMC65555:LMP65555 LVY65555:LWL65555 MFU65555:MGH65555 MPQ65555:MQD65555 MZM65555:MZZ65555 NJI65555:NJV65555 NTE65555:NTR65555 ODA65555:ODN65555 OMW65555:ONJ65555 OWS65555:OXF65555 PGO65555:PHB65555 PQK65555:PQX65555 QAG65555:QAT65555 QKC65555:QKP65555 QTY65555:QUL65555 RDU65555:REH65555 RNQ65555:ROD65555 RXM65555:RXZ65555 SHI65555:SHV65555 SRE65555:SRR65555 TBA65555:TBN65555 TKW65555:TLJ65555 TUS65555:TVF65555 UEO65555:UFB65555 UOK65555:UOX65555 UYG65555:UYT65555 VIC65555:VIP65555 VRY65555:VSL65555 WBU65555:WCH65555 WLQ65555:WMD65555 WVM65555:WVZ65555 E131091:R131091 JA131091:JN131091 SW131091:TJ131091 ACS131091:ADF131091 AMO131091:ANB131091 AWK131091:AWX131091 BGG131091:BGT131091 BQC131091:BQP131091 BZY131091:CAL131091 CJU131091:CKH131091 CTQ131091:CUD131091 DDM131091:DDZ131091 DNI131091:DNV131091 DXE131091:DXR131091 EHA131091:EHN131091 EQW131091:ERJ131091 FAS131091:FBF131091 FKO131091:FLB131091 FUK131091:FUX131091 GEG131091:GET131091 GOC131091:GOP131091 GXY131091:GYL131091 HHU131091:HIH131091 HRQ131091:HSD131091 IBM131091:IBZ131091 ILI131091:ILV131091 IVE131091:IVR131091 JFA131091:JFN131091 JOW131091:JPJ131091 JYS131091:JZF131091 KIO131091:KJB131091 KSK131091:KSX131091 LCG131091:LCT131091 LMC131091:LMP131091 LVY131091:LWL131091 MFU131091:MGH131091 MPQ131091:MQD131091 MZM131091:MZZ131091 NJI131091:NJV131091 NTE131091:NTR131091 ODA131091:ODN131091 OMW131091:ONJ131091 OWS131091:OXF131091 PGO131091:PHB131091 PQK131091:PQX131091 QAG131091:QAT131091 QKC131091:QKP131091 QTY131091:QUL131091 RDU131091:REH131091 RNQ131091:ROD131091 RXM131091:RXZ131091 SHI131091:SHV131091 SRE131091:SRR131091 TBA131091:TBN131091 TKW131091:TLJ131091 TUS131091:TVF131091 UEO131091:UFB131091 UOK131091:UOX131091 UYG131091:UYT131091 VIC131091:VIP131091 VRY131091:VSL131091 WBU131091:WCH131091 WLQ131091:WMD131091 WVM131091:WVZ131091 E196627:R196627 JA196627:JN196627 SW196627:TJ196627 ACS196627:ADF196627 AMO196627:ANB196627 AWK196627:AWX196627 BGG196627:BGT196627 BQC196627:BQP196627 BZY196627:CAL196627 CJU196627:CKH196627 CTQ196627:CUD196627 DDM196627:DDZ196627 DNI196627:DNV196627 DXE196627:DXR196627 EHA196627:EHN196627 EQW196627:ERJ196627 FAS196627:FBF196627 FKO196627:FLB196627 FUK196627:FUX196627 GEG196627:GET196627 GOC196627:GOP196627 GXY196627:GYL196627 HHU196627:HIH196627 HRQ196627:HSD196627 IBM196627:IBZ196627 ILI196627:ILV196627 IVE196627:IVR196627 JFA196627:JFN196627 JOW196627:JPJ196627 JYS196627:JZF196627 KIO196627:KJB196627 KSK196627:KSX196627 LCG196627:LCT196627 LMC196627:LMP196627 LVY196627:LWL196627 MFU196627:MGH196627 MPQ196627:MQD196627 MZM196627:MZZ196627 NJI196627:NJV196627 NTE196627:NTR196627 ODA196627:ODN196627 OMW196627:ONJ196627 OWS196627:OXF196627 PGO196627:PHB196627 PQK196627:PQX196627 QAG196627:QAT196627 QKC196627:QKP196627 QTY196627:QUL196627 RDU196627:REH196627 RNQ196627:ROD196627 RXM196627:RXZ196627 SHI196627:SHV196627 SRE196627:SRR196627 TBA196627:TBN196627 TKW196627:TLJ196627 TUS196627:TVF196627 UEO196627:UFB196627 UOK196627:UOX196627 UYG196627:UYT196627 VIC196627:VIP196627 VRY196627:VSL196627 WBU196627:WCH196627 WLQ196627:WMD196627 WVM196627:WVZ196627 E262163:R262163 JA262163:JN262163 SW262163:TJ262163 ACS262163:ADF262163 AMO262163:ANB262163 AWK262163:AWX262163 BGG262163:BGT262163 BQC262163:BQP262163 BZY262163:CAL262163 CJU262163:CKH262163 CTQ262163:CUD262163 DDM262163:DDZ262163 DNI262163:DNV262163 DXE262163:DXR262163 EHA262163:EHN262163 EQW262163:ERJ262163 FAS262163:FBF262163 FKO262163:FLB262163 FUK262163:FUX262163 GEG262163:GET262163 GOC262163:GOP262163 GXY262163:GYL262163 HHU262163:HIH262163 HRQ262163:HSD262163 IBM262163:IBZ262163 ILI262163:ILV262163 IVE262163:IVR262163 JFA262163:JFN262163 JOW262163:JPJ262163 JYS262163:JZF262163 KIO262163:KJB262163 KSK262163:KSX262163 LCG262163:LCT262163 LMC262163:LMP262163 LVY262163:LWL262163 MFU262163:MGH262163 MPQ262163:MQD262163 MZM262163:MZZ262163 NJI262163:NJV262163 NTE262163:NTR262163 ODA262163:ODN262163 OMW262163:ONJ262163 OWS262163:OXF262163 PGO262163:PHB262163 PQK262163:PQX262163 QAG262163:QAT262163 QKC262163:QKP262163 QTY262163:QUL262163 RDU262163:REH262163 RNQ262163:ROD262163 RXM262163:RXZ262163 SHI262163:SHV262163 SRE262163:SRR262163 TBA262163:TBN262163 TKW262163:TLJ262163 TUS262163:TVF262163 UEO262163:UFB262163 UOK262163:UOX262163 UYG262163:UYT262163 VIC262163:VIP262163 VRY262163:VSL262163 WBU262163:WCH262163 WLQ262163:WMD262163 WVM262163:WVZ262163 E327699:R327699 JA327699:JN327699 SW327699:TJ327699 ACS327699:ADF327699 AMO327699:ANB327699 AWK327699:AWX327699 BGG327699:BGT327699 BQC327699:BQP327699 BZY327699:CAL327699 CJU327699:CKH327699 CTQ327699:CUD327699 DDM327699:DDZ327699 DNI327699:DNV327699 DXE327699:DXR327699 EHA327699:EHN327699 EQW327699:ERJ327699 FAS327699:FBF327699 FKO327699:FLB327699 FUK327699:FUX327699 GEG327699:GET327699 GOC327699:GOP327699 GXY327699:GYL327699 HHU327699:HIH327699 HRQ327699:HSD327699 IBM327699:IBZ327699 ILI327699:ILV327699 IVE327699:IVR327699 JFA327699:JFN327699 JOW327699:JPJ327699 JYS327699:JZF327699 KIO327699:KJB327699 KSK327699:KSX327699 LCG327699:LCT327699 LMC327699:LMP327699 LVY327699:LWL327699 MFU327699:MGH327699 MPQ327699:MQD327699 MZM327699:MZZ327699 NJI327699:NJV327699 NTE327699:NTR327699 ODA327699:ODN327699 OMW327699:ONJ327699 OWS327699:OXF327699 PGO327699:PHB327699 PQK327699:PQX327699 QAG327699:QAT327699 QKC327699:QKP327699 QTY327699:QUL327699 RDU327699:REH327699 RNQ327699:ROD327699 RXM327699:RXZ327699 SHI327699:SHV327699 SRE327699:SRR327699 TBA327699:TBN327699 TKW327699:TLJ327699 TUS327699:TVF327699 UEO327699:UFB327699 UOK327699:UOX327699 UYG327699:UYT327699 VIC327699:VIP327699 VRY327699:VSL327699 WBU327699:WCH327699 WLQ327699:WMD327699 WVM327699:WVZ327699 E393235:R393235 JA393235:JN393235 SW393235:TJ393235 ACS393235:ADF393235 AMO393235:ANB393235 AWK393235:AWX393235 BGG393235:BGT393235 BQC393235:BQP393235 BZY393235:CAL393235 CJU393235:CKH393235 CTQ393235:CUD393235 DDM393235:DDZ393235 DNI393235:DNV393235 DXE393235:DXR393235 EHA393235:EHN393235 EQW393235:ERJ393235 FAS393235:FBF393235 FKO393235:FLB393235 FUK393235:FUX393235 GEG393235:GET393235 GOC393235:GOP393235 GXY393235:GYL393235 HHU393235:HIH393235 HRQ393235:HSD393235 IBM393235:IBZ393235 ILI393235:ILV393235 IVE393235:IVR393235 JFA393235:JFN393235 JOW393235:JPJ393235 JYS393235:JZF393235 KIO393235:KJB393235 KSK393235:KSX393235 LCG393235:LCT393235 LMC393235:LMP393235 LVY393235:LWL393235 MFU393235:MGH393235 MPQ393235:MQD393235 MZM393235:MZZ393235 NJI393235:NJV393235 NTE393235:NTR393235 ODA393235:ODN393235 OMW393235:ONJ393235 OWS393235:OXF393235 PGO393235:PHB393235 PQK393235:PQX393235 QAG393235:QAT393235 QKC393235:QKP393235 QTY393235:QUL393235 RDU393235:REH393235 RNQ393235:ROD393235 RXM393235:RXZ393235 SHI393235:SHV393235 SRE393235:SRR393235 TBA393235:TBN393235 TKW393235:TLJ393235 TUS393235:TVF393235 UEO393235:UFB393235 UOK393235:UOX393235 UYG393235:UYT393235 VIC393235:VIP393235 VRY393235:VSL393235 WBU393235:WCH393235 WLQ393235:WMD393235 WVM393235:WVZ393235 E458771:R458771 JA458771:JN458771 SW458771:TJ458771 ACS458771:ADF458771 AMO458771:ANB458771 AWK458771:AWX458771 BGG458771:BGT458771 BQC458771:BQP458771 BZY458771:CAL458771 CJU458771:CKH458771 CTQ458771:CUD458771 DDM458771:DDZ458771 DNI458771:DNV458771 DXE458771:DXR458771 EHA458771:EHN458771 EQW458771:ERJ458771 FAS458771:FBF458771 FKO458771:FLB458771 FUK458771:FUX458771 GEG458771:GET458771 GOC458771:GOP458771 GXY458771:GYL458771 HHU458771:HIH458771 HRQ458771:HSD458771 IBM458771:IBZ458771 ILI458771:ILV458771 IVE458771:IVR458771 JFA458771:JFN458771 JOW458771:JPJ458771 JYS458771:JZF458771 KIO458771:KJB458771 KSK458771:KSX458771 LCG458771:LCT458771 LMC458771:LMP458771 LVY458771:LWL458771 MFU458771:MGH458771 MPQ458771:MQD458771 MZM458771:MZZ458771 NJI458771:NJV458771 NTE458771:NTR458771 ODA458771:ODN458771 OMW458771:ONJ458771 OWS458771:OXF458771 PGO458771:PHB458771 PQK458771:PQX458771 QAG458771:QAT458771 QKC458771:QKP458771 QTY458771:QUL458771 RDU458771:REH458771 RNQ458771:ROD458771 RXM458771:RXZ458771 SHI458771:SHV458771 SRE458771:SRR458771 TBA458771:TBN458771 TKW458771:TLJ458771 TUS458771:TVF458771 UEO458771:UFB458771 UOK458771:UOX458771 UYG458771:UYT458771 VIC458771:VIP458771 VRY458771:VSL458771 WBU458771:WCH458771 WLQ458771:WMD458771 WVM458771:WVZ458771 E524307:R524307 JA524307:JN524307 SW524307:TJ524307 ACS524307:ADF524307 AMO524307:ANB524307 AWK524307:AWX524307 BGG524307:BGT524307 BQC524307:BQP524307 BZY524307:CAL524307 CJU524307:CKH524307 CTQ524307:CUD524307 DDM524307:DDZ524307 DNI524307:DNV524307 DXE524307:DXR524307 EHA524307:EHN524307 EQW524307:ERJ524307 FAS524307:FBF524307 FKO524307:FLB524307 FUK524307:FUX524307 GEG524307:GET524307 GOC524307:GOP524307 GXY524307:GYL524307 HHU524307:HIH524307 HRQ524307:HSD524307 IBM524307:IBZ524307 ILI524307:ILV524307 IVE524307:IVR524307 JFA524307:JFN524307 JOW524307:JPJ524307 JYS524307:JZF524307 KIO524307:KJB524307 KSK524307:KSX524307 LCG524307:LCT524307 LMC524307:LMP524307 LVY524307:LWL524307 MFU524307:MGH524307 MPQ524307:MQD524307 MZM524307:MZZ524307 NJI524307:NJV524307 NTE524307:NTR524307 ODA524307:ODN524307 OMW524307:ONJ524307 OWS524307:OXF524307 PGO524307:PHB524307 PQK524307:PQX524307 QAG524307:QAT524307 QKC524307:QKP524307 QTY524307:QUL524307 RDU524307:REH524307 RNQ524307:ROD524307 RXM524307:RXZ524307 SHI524307:SHV524307 SRE524307:SRR524307 TBA524307:TBN524307 TKW524307:TLJ524307 TUS524307:TVF524307 UEO524307:UFB524307 UOK524307:UOX524307 UYG524307:UYT524307 VIC524307:VIP524307 VRY524307:VSL524307 WBU524307:WCH524307 WLQ524307:WMD524307 WVM524307:WVZ524307 E589843:R589843 JA589843:JN589843 SW589843:TJ589843 ACS589843:ADF589843 AMO589843:ANB589843 AWK589843:AWX589843 BGG589843:BGT589843 BQC589843:BQP589843 BZY589843:CAL589843 CJU589843:CKH589843 CTQ589843:CUD589843 DDM589843:DDZ589843 DNI589843:DNV589843 DXE589843:DXR589843 EHA589843:EHN589843 EQW589843:ERJ589843 FAS589843:FBF589843 FKO589843:FLB589843 FUK589843:FUX589843 GEG589843:GET589843 GOC589843:GOP589843 GXY589843:GYL589843 HHU589843:HIH589843 HRQ589843:HSD589843 IBM589843:IBZ589843 ILI589843:ILV589843 IVE589843:IVR589843 JFA589843:JFN589843 JOW589843:JPJ589843 JYS589843:JZF589843 KIO589843:KJB589843 KSK589843:KSX589843 LCG589843:LCT589843 LMC589843:LMP589843 LVY589843:LWL589843 MFU589843:MGH589843 MPQ589843:MQD589843 MZM589843:MZZ589843 NJI589843:NJV589843 NTE589843:NTR589843 ODA589843:ODN589843 OMW589843:ONJ589843 OWS589843:OXF589843 PGO589843:PHB589843 PQK589843:PQX589843 QAG589843:QAT589843 QKC589843:QKP589843 QTY589843:QUL589843 RDU589843:REH589843 RNQ589843:ROD589843 RXM589843:RXZ589843 SHI589843:SHV589843 SRE589843:SRR589843 TBA589843:TBN589843 TKW589843:TLJ589843 TUS589843:TVF589843 UEO589843:UFB589843 UOK589843:UOX589843 UYG589843:UYT589843 VIC589843:VIP589843 VRY589843:VSL589843 WBU589843:WCH589843 WLQ589843:WMD589843 WVM589843:WVZ589843 E655379:R655379 JA655379:JN655379 SW655379:TJ655379 ACS655379:ADF655379 AMO655379:ANB655379 AWK655379:AWX655379 BGG655379:BGT655379 BQC655379:BQP655379 BZY655379:CAL655379 CJU655379:CKH655379 CTQ655379:CUD655379 DDM655379:DDZ655379 DNI655379:DNV655379 DXE655379:DXR655379 EHA655379:EHN655379 EQW655379:ERJ655379 FAS655379:FBF655379 FKO655379:FLB655379 FUK655379:FUX655379 GEG655379:GET655379 GOC655379:GOP655379 GXY655379:GYL655379 HHU655379:HIH655379 HRQ655379:HSD655379 IBM655379:IBZ655379 ILI655379:ILV655379 IVE655379:IVR655379 JFA655379:JFN655379 JOW655379:JPJ655379 JYS655379:JZF655379 KIO655379:KJB655379 KSK655379:KSX655379 LCG655379:LCT655379 LMC655379:LMP655379 LVY655379:LWL655379 MFU655379:MGH655379 MPQ655379:MQD655379 MZM655379:MZZ655379 NJI655379:NJV655379 NTE655379:NTR655379 ODA655379:ODN655379 OMW655379:ONJ655379 OWS655379:OXF655379 PGO655379:PHB655379 PQK655379:PQX655379 QAG655379:QAT655379 QKC655379:QKP655379 QTY655379:QUL655379 RDU655379:REH655379 RNQ655379:ROD655379 RXM655379:RXZ655379 SHI655379:SHV655379 SRE655379:SRR655379 TBA655379:TBN655379 TKW655379:TLJ655379 TUS655379:TVF655379 UEO655379:UFB655379 UOK655379:UOX655379 UYG655379:UYT655379 VIC655379:VIP655379 VRY655379:VSL655379 WBU655379:WCH655379 WLQ655379:WMD655379 WVM655379:WVZ655379 E720915:R720915 JA720915:JN720915 SW720915:TJ720915 ACS720915:ADF720915 AMO720915:ANB720915 AWK720915:AWX720915 BGG720915:BGT720915 BQC720915:BQP720915 BZY720915:CAL720915 CJU720915:CKH720915 CTQ720915:CUD720915 DDM720915:DDZ720915 DNI720915:DNV720915 DXE720915:DXR720915 EHA720915:EHN720915 EQW720915:ERJ720915 FAS720915:FBF720915 FKO720915:FLB720915 FUK720915:FUX720915 GEG720915:GET720915 GOC720915:GOP720915 GXY720915:GYL720915 HHU720915:HIH720915 HRQ720915:HSD720915 IBM720915:IBZ720915 ILI720915:ILV720915 IVE720915:IVR720915 JFA720915:JFN720915 JOW720915:JPJ720915 JYS720915:JZF720915 KIO720915:KJB720915 KSK720915:KSX720915 LCG720915:LCT720915 LMC720915:LMP720915 LVY720915:LWL720915 MFU720915:MGH720915 MPQ720915:MQD720915 MZM720915:MZZ720915 NJI720915:NJV720915 NTE720915:NTR720915 ODA720915:ODN720915 OMW720915:ONJ720915 OWS720915:OXF720915 PGO720915:PHB720915 PQK720915:PQX720915 QAG720915:QAT720915 QKC720915:QKP720915 QTY720915:QUL720915 RDU720915:REH720915 RNQ720915:ROD720915 RXM720915:RXZ720915 SHI720915:SHV720915 SRE720915:SRR720915 TBA720915:TBN720915 TKW720915:TLJ720915 TUS720915:TVF720915 UEO720915:UFB720915 UOK720915:UOX720915 UYG720915:UYT720915 VIC720915:VIP720915 VRY720915:VSL720915 WBU720915:WCH720915 WLQ720915:WMD720915 WVM720915:WVZ720915 E786451:R786451 JA786451:JN786451 SW786451:TJ786451 ACS786451:ADF786451 AMO786451:ANB786451 AWK786451:AWX786451 BGG786451:BGT786451 BQC786451:BQP786451 BZY786451:CAL786451 CJU786451:CKH786451 CTQ786451:CUD786451 DDM786451:DDZ786451 DNI786451:DNV786451 DXE786451:DXR786451 EHA786451:EHN786451 EQW786451:ERJ786451 FAS786451:FBF786451 FKO786451:FLB786451 FUK786451:FUX786451 GEG786451:GET786451 GOC786451:GOP786451 GXY786451:GYL786451 HHU786451:HIH786451 HRQ786451:HSD786451 IBM786451:IBZ786451 ILI786451:ILV786451 IVE786451:IVR786451 JFA786451:JFN786451 JOW786451:JPJ786451 JYS786451:JZF786451 KIO786451:KJB786451 KSK786451:KSX786451 LCG786451:LCT786451 LMC786451:LMP786451 LVY786451:LWL786451 MFU786451:MGH786451 MPQ786451:MQD786451 MZM786451:MZZ786451 NJI786451:NJV786451 NTE786451:NTR786451 ODA786451:ODN786451 OMW786451:ONJ786451 OWS786451:OXF786451 PGO786451:PHB786451 PQK786451:PQX786451 QAG786451:QAT786451 QKC786451:QKP786451 QTY786451:QUL786451 RDU786451:REH786451 RNQ786451:ROD786451 RXM786451:RXZ786451 SHI786451:SHV786451 SRE786451:SRR786451 TBA786451:TBN786451 TKW786451:TLJ786451 TUS786451:TVF786451 UEO786451:UFB786451 UOK786451:UOX786451 UYG786451:UYT786451 VIC786451:VIP786451 VRY786451:VSL786451 WBU786451:WCH786451 WLQ786451:WMD786451 WVM786451:WVZ786451 E851987:R851987 JA851987:JN851987 SW851987:TJ851987 ACS851987:ADF851987 AMO851987:ANB851987 AWK851987:AWX851987 BGG851987:BGT851987 BQC851987:BQP851987 BZY851987:CAL851987 CJU851987:CKH851987 CTQ851987:CUD851987 DDM851987:DDZ851987 DNI851987:DNV851987 DXE851987:DXR851987 EHA851987:EHN851987 EQW851987:ERJ851987 FAS851987:FBF851987 FKO851987:FLB851987 FUK851987:FUX851987 GEG851987:GET851987 GOC851987:GOP851987 GXY851987:GYL851987 HHU851987:HIH851987 HRQ851987:HSD851987 IBM851987:IBZ851987 ILI851987:ILV851987 IVE851987:IVR851987 JFA851987:JFN851987 JOW851987:JPJ851987 JYS851987:JZF851987 KIO851987:KJB851987 KSK851987:KSX851987 LCG851987:LCT851987 LMC851987:LMP851987 LVY851987:LWL851987 MFU851987:MGH851987 MPQ851987:MQD851987 MZM851987:MZZ851987 NJI851987:NJV851987 NTE851987:NTR851987 ODA851987:ODN851987 OMW851987:ONJ851987 OWS851987:OXF851987 PGO851987:PHB851987 PQK851987:PQX851987 QAG851987:QAT851987 QKC851987:QKP851987 QTY851987:QUL851987 RDU851987:REH851987 RNQ851987:ROD851987 RXM851987:RXZ851987 SHI851987:SHV851987 SRE851987:SRR851987 TBA851987:TBN851987 TKW851987:TLJ851987 TUS851987:TVF851987 UEO851987:UFB851987 UOK851987:UOX851987 UYG851987:UYT851987 VIC851987:VIP851987 VRY851987:VSL851987 WBU851987:WCH851987 WLQ851987:WMD851987 WVM851987:WVZ851987 E917523:R917523 JA917523:JN917523 SW917523:TJ917523 ACS917523:ADF917523 AMO917523:ANB917523 AWK917523:AWX917523 BGG917523:BGT917523 BQC917523:BQP917523 BZY917523:CAL917523 CJU917523:CKH917523 CTQ917523:CUD917523 DDM917523:DDZ917523 DNI917523:DNV917523 DXE917523:DXR917523 EHA917523:EHN917523 EQW917523:ERJ917523 FAS917523:FBF917523 FKO917523:FLB917523 FUK917523:FUX917523 GEG917523:GET917523 GOC917523:GOP917523 GXY917523:GYL917523 HHU917523:HIH917523 HRQ917523:HSD917523 IBM917523:IBZ917523 ILI917523:ILV917523 IVE917523:IVR917523 JFA917523:JFN917523 JOW917523:JPJ917523 JYS917523:JZF917523 KIO917523:KJB917523 KSK917523:KSX917523 LCG917523:LCT917523 LMC917523:LMP917523 LVY917523:LWL917523 MFU917523:MGH917523 MPQ917523:MQD917523 MZM917523:MZZ917523 NJI917523:NJV917523 NTE917523:NTR917523 ODA917523:ODN917523 OMW917523:ONJ917523 OWS917523:OXF917523 PGO917523:PHB917523 PQK917523:PQX917523 QAG917523:QAT917523 QKC917523:QKP917523 QTY917523:QUL917523 RDU917523:REH917523 RNQ917523:ROD917523 RXM917523:RXZ917523 SHI917523:SHV917523 SRE917523:SRR917523 TBA917523:TBN917523 TKW917523:TLJ917523 TUS917523:TVF917523 UEO917523:UFB917523 UOK917523:UOX917523 UYG917523:UYT917523 VIC917523:VIP917523 VRY917523:VSL917523 WBU917523:WCH917523 WLQ917523:WMD917523 WVM917523:WVZ917523 E983059:R983059 JA983059:JN983059 SW983059:TJ983059 ACS983059:ADF983059 AMO983059:ANB983059 AWK983059:AWX983059 BGG983059:BGT983059 BQC983059:BQP983059 BZY983059:CAL983059 CJU983059:CKH983059 CTQ983059:CUD983059 DDM983059:DDZ983059 DNI983059:DNV983059 DXE983059:DXR983059 EHA983059:EHN983059 EQW983059:ERJ983059 FAS983059:FBF983059 FKO983059:FLB983059 FUK983059:FUX983059 GEG983059:GET983059 GOC983059:GOP983059 GXY983059:GYL983059 HHU983059:HIH983059 HRQ983059:HSD983059 IBM983059:IBZ983059 ILI983059:ILV983059 IVE983059:IVR983059 JFA983059:JFN983059 JOW983059:JPJ983059 JYS983059:JZF983059 KIO983059:KJB983059 KSK983059:KSX983059 LCG983059:LCT983059 LMC983059:LMP983059 LVY983059:LWL983059 MFU983059:MGH983059 MPQ983059:MQD983059 MZM983059:MZZ983059 NJI983059:NJV983059 NTE983059:NTR983059 ODA983059:ODN983059 OMW983059:ONJ983059 OWS983059:OXF983059 PGO983059:PHB983059 PQK983059:PQX983059 QAG983059:QAT983059 QKC983059:QKP983059 QTY983059:QUL983059 RDU983059:REH983059 RNQ983059:ROD983059 RXM983059:RXZ983059 SHI983059:SHV983059 SRE983059:SRR983059 TBA983059:TBN983059 TKW983059:TLJ983059 TUS983059:TVF983059 UEO983059:UFB983059 UOK983059:UOX983059 UYG983059:UYT983059 VIC983059:VIP983059 VRY983059:VSL983059 WBU983059:WCH983059 WLQ983059:WMD983059 WVM983059:WVZ983059">
@@ -9455,136 +9457,136 @@
       <c r="B1" s="71"/>
     </row>
     <row r="2" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A2" s="193" t="s">
+      <c r="A2" s="222" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="194"/>
-      <c r="C2" s="195" t="s">
+      <c r="B2" s="223"/>
+      <c r="C2" s="224" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="196"/>
-      <c r="E2" s="197" t="s">
+      <c r="D2" s="225"/>
+      <c r="E2" s="226" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="198"/>
-      <c r="G2" s="198"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="200" t="str">
+      <c r="F2" s="227"/>
+      <c r="G2" s="227"/>
+      <c r="H2" s="228"/>
+      <c r="I2" s="229" t="str">
         <f>C2</f>
         <v>GetFullInformationOfDonation</v>
       </c>
-      <c r="J2" s="201"/>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="201"/>
-      <c r="N2" s="201"/>
-      <c r="O2" s="201"/>
-      <c r="P2" s="201"/>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="202"/>
+      <c r="J2" s="230"/>
+      <c r="K2" s="230"/>
+      <c r="L2" s="230"/>
+      <c r="M2" s="230"/>
+      <c r="N2" s="230"/>
+      <c r="O2" s="230"/>
+      <c r="P2" s="230"/>
+      <c r="Q2" s="230"/>
+      <c r="R2" s="231"/>
       <c r="T2" s="73"/>
     </row>
     <row r="3" spans="1:20" ht="30" customHeight="1">
-      <c r="A3" s="203" t="s">
+      <c r="A3" s="210" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="204"/>
-      <c r="C3" s="205" t="str">
+      <c r="B3" s="211"/>
+      <c r="C3" s="232" t="str">
         <f>Cover!F4</f>
         <v>TuanhaSE03108</v>
       </c>
-      <c r="D3" s="206"/>
-      <c r="E3" s="207" t="s">
+      <c r="D3" s="233"/>
+      <c r="E3" s="234" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="208"/>
-      <c r="G3" s="208"/>
-      <c r="H3" s="209"/>
-      <c r="I3" s="210" t="str">
+      <c r="F3" s="235"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="237" t="str">
         <f>C3</f>
         <v>TuanhaSE03108</v>
       </c>
-      <c r="J3" s="211"/>
-      <c r="K3" s="211"/>
-      <c r="L3" s="211"/>
-      <c r="M3" s="211"/>
-      <c r="N3" s="211"/>
-      <c r="O3" s="211"/>
-      <c r="P3" s="211"/>
-      <c r="Q3" s="211"/>
-      <c r="R3" s="212"/>
+      <c r="J3" s="238"/>
+      <c r="K3" s="238"/>
+      <c r="L3" s="238"/>
+      <c r="M3" s="238"/>
+      <c r="N3" s="238"/>
+      <c r="O3" s="238"/>
+      <c r="P3" s="238"/>
+      <c r="Q3" s="238"/>
+      <c r="R3" s="239"/>
     </row>
     <row r="4" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A4" s="203" t="s">
+      <c r="A4" s="210" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="204"/>
-      <c r="C4" s="213"/>
-      <c r="D4" s="213"/>
-      <c r="E4" s="214"/>
-      <c r="F4" s="214"/>
-      <c r="G4" s="214"/>
-      <c r="H4" s="214"/>
-      <c r="I4" s="213"/>
-      <c r="J4" s="213"/>
-      <c r="K4" s="213"/>
-      <c r="L4" s="213"/>
-      <c r="M4" s="213"/>
-      <c r="N4" s="213"/>
-      <c r="O4" s="213"/>
-      <c r="P4" s="213"/>
-      <c r="Q4" s="213"/>
-      <c r="R4" s="215"/>
+      <c r="B4" s="211"/>
+      <c r="C4" s="212"/>
+      <c r="D4" s="212"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="213"/>
+      <c r="G4" s="213"/>
+      <c r="H4" s="213"/>
+      <c r="I4" s="212"/>
+      <c r="J4" s="212"/>
+      <c r="K4" s="212"/>
+      <c r="L4" s="212"/>
+      <c r="M4" s="212"/>
+      <c r="N4" s="212"/>
+      <c r="O4" s="212"/>
+      <c r="P4" s="212"/>
+      <c r="Q4" s="212"/>
+      <c r="R4" s="214"/>
     </row>
     <row r="5" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A5" s="216" t="s">
+      <c r="A5" s="215" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="217"/>
-      <c r="C5" s="218" t="s">
+      <c r="B5" s="216"/>
+      <c r="C5" s="217" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="219"/>
-      <c r="E5" s="220" t="s">
+      <c r="D5" s="218"/>
+      <c r="E5" s="219" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="219"/>
-      <c r="G5" s="219"/>
-      <c r="H5" s="221"/>
-      <c r="I5" s="219" t="s">
+      <c r="F5" s="218"/>
+      <c r="G5" s="218"/>
+      <c r="H5" s="220"/>
+      <c r="I5" s="218" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="219"/>
-      <c r="K5" s="219"/>
-      <c r="L5" s="220" t="s">
+      <c r="J5" s="218"/>
+      <c r="K5" s="218"/>
+      <c r="L5" s="219" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="219"/>
-      <c r="N5" s="219"/>
-      <c r="O5" s="219"/>
-      <c r="P5" s="219"/>
-      <c r="Q5" s="219"/>
-      <c r="R5" s="222"/>
+      <c r="M5" s="218"/>
+      <c r="N5" s="218"/>
+      <c r="O5" s="218"/>
+      <c r="P5" s="218"/>
+      <c r="Q5" s="218"/>
+      <c r="R5" s="221"/>
       <c r="T5" s="73"/>
     </row>
     <row r="6" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="226">
+      <c r="A6" s="197">
         <f>COUNTIF(E19:HM19,"P")</f>
         <v>2</v>
       </c>
-      <c r="B6" s="227"/>
-      <c r="C6" s="228">
+      <c r="B6" s="198"/>
+      <c r="C6" s="199">
         <f>COUNTIF(E19:HO19,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="229"/>
-      <c r="E6" s="230">
+      <c r="D6" s="200"/>
+      <c r="E6" s="201">
         <f>SUM(L6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="229"/>
-      <c r="G6" s="229"/>
-      <c r="H6" s="231"/>
+      <c r="F6" s="200"/>
+      <c r="G6" s="200"/>
+      <c r="H6" s="202"/>
       <c r="I6" s="117">
         <f>COUNTIF(E18:HM18,"N")</f>
         <v>0</v>
@@ -9597,16 +9599,16 @@
         <f>COUNTIF(E18:HM18,"B")</f>
         <v>0</v>
       </c>
-      <c r="L6" s="230">
+      <c r="L6" s="201">
         <f>COUNTA(E8:P8)</f>
         <v>2</v>
       </c>
-      <c r="M6" s="229"/>
-      <c r="N6" s="229"/>
-      <c r="O6" s="229"/>
-      <c r="P6" s="229"/>
-      <c r="Q6" s="229"/>
-      <c r="R6" s="232"/>
+      <c r="M6" s="200"/>
+      <c r="N6" s="200"/>
+      <c r="O6" s="200"/>
+      <c r="P6" s="200"/>
+      <c r="Q6" s="200"/>
+      <c r="R6" s="203"/>
       <c r="S6" s="118"/>
     </row>
     <row r="7" spans="1:20" ht="11.25" thickBot="1"/>
@@ -9855,11 +9857,11 @@
       <c r="A18" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="239" t="s">
+      <c r="B18" s="240" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="240"/>
-      <c r="D18" s="241"/>
+      <c r="C18" s="241"/>
+      <c r="D18" s="242"/>
       <c r="E18" s="157" t="s">
         <v>36</v>
       </c>
@@ -9881,11 +9883,11 @@
     </row>
     <row r="19" spans="1:18" ht="13.5" customHeight="1">
       <c r="A19" s="136"/>
-      <c r="B19" s="236" t="s">
+      <c r="B19" s="207" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="237"/>
-      <c r="D19" s="238"/>
+      <c r="C19" s="208"/>
+      <c r="D19" s="209"/>
       <c r="E19" s="134" t="s">
         <v>38</v>
       </c>
@@ -9907,11 +9909,11 @@
     </row>
     <row r="20" spans="1:18" ht="60" customHeight="1">
       <c r="A20" s="136"/>
-      <c r="B20" s="223" t="s">
+      <c r="B20" s="194" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="224"/>
-      <c r="D20" s="225"/>
+      <c r="C20" s="195"/>
+      <c r="D20" s="196"/>
       <c r="E20" s="133">
         <v>42594</v>
       </c>
@@ -10040,11 +10042,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="I2:R2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:R3"/>
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="L6:R6"/>
     <mergeCell ref="A4:B4"/>
@@ -10054,14 +10059,11 @@
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="L5:R5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="I2:R2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:R3"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVM983059:WVZ983059 JA19:JN19 SW19:TJ19 ACS19:ADF19 AMO19:ANB19 AWK19:AWX19 BGG19:BGT19 BQC19:BQP19 BZY19:CAL19 CJU19:CKH19 CTQ19:CUD19 DDM19:DDZ19 DNI19:DNV19 DXE19:DXR19 EHA19:EHN19 EQW19:ERJ19 FAS19:FBF19 FKO19:FLB19 FUK19:FUX19 GEG19:GET19 GOC19:GOP19 GXY19:GYL19 HHU19:HIH19 HRQ19:HSD19 IBM19:IBZ19 ILI19:ILV19 IVE19:IVR19 JFA19:JFN19 JOW19:JPJ19 JYS19:JZF19 KIO19:KJB19 KSK19:KSX19 LCG19:LCT19 LMC19:LMP19 LVY19:LWL19 MFU19:MGH19 MPQ19:MQD19 MZM19:MZZ19 NJI19:NJV19 NTE19:NTR19 ODA19:ODN19 OMW19:ONJ19 OWS19:OXF19 PGO19:PHB19 PQK19:PQX19 QAG19:QAT19 QKC19:QKP19 QTY19:QUL19 RDU19:REH19 RNQ19:ROD19 RXM19:RXZ19 SHI19:SHV19 SRE19:SRR19 TBA19:TBN19 TKW19:TLJ19 TUS19:TVF19 UEO19:UFB19 UOK19:UOX19 UYG19:UYT19 VIC19:VIP19 VRY19:VSL19 WBU19:WCH19 WLQ19:WMD19 WVM19:WVZ19 E65555:R65555 JA65555:JN65555 SW65555:TJ65555 ACS65555:ADF65555 AMO65555:ANB65555 AWK65555:AWX65555 BGG65555:BGT65555 BQC65555:BQP65555 BZY65555:CAL65555 CJU65555:CKH65555 CTQ65555:CUD65555 DDM65555:DDZ65555 DNI65555:DNV65555 DXE65555:DXR65555 EHA65555:EHN65555 EQW65555:ERJ65555 FAS65555:FBF65555 FKO65555:FLB65555 FUK65555:FUX65555 GEG65555:GET65555 GOC65555:GOP65555 GXY65555:GYL65555 HHU65555:HIH65555 HRQ65555:HSD65555 IBM65555:IBZ65555 ILI65555:ILV65555 IVE65555:IVR65555 JFA65555:JFN65555 JOW65555:JPJ65555 JYS65555:JZF65555 KIO65555:KJB65555 KSK65555:KSX65555 LCG65555:LCT65555 LMC65555:LMP65555 LVY65555:LWL65555 MFU65555:MGH65555 MPQ65555:MQD65555 MZM65555:MZZ65555 NJI65555:NJV65555 NTE65555:NTR65555 ODA65555:ODN65555 OMW65555:ONJ65555 OWS65555:OXF65555 PGO65555:PHB65555 PQK65555:PQX65555 QAG65555:QAT65555 QKC65555:QKP65555 QTY65555:QUL65555 RDU65555:REH65555 RNQ65555:ROD65555 RXM65555:RXZ65555 SHI65555:SHV65555 SRE65555:SRR65555 TBA65555:TBN65555 TKW65555:TLJ65555 TUS65555:TVF65555 UEO65555:UFB65555 UOK65555:UOX65555 UYG65555:UYT65555 VIC65555:VIP65555 VRY65555:VSL65555 WBU65555:WCH65555 WLQ65555:WMD65555 WVM65555:WVZ65555 E131091:R131091 JA131091:JN131091 SW131091:TJ131091 ACS131091:ADF131091 AMO131091:ANB131091 AWK131091:AWX131091 BGG131091:BGT131091 BQC131091:BQP131091 BZY131091:CAL131091 CJU131091:CKH131091 CTQ131091:CUD131091 DDM131091:DDZ131091 DNI131091:DNV131091 DXE131091:DXR131091 EHA131091:EHN131091 EQW131091:ERJ131091 FAS131091:FBF131091 FKO131091:FLB131091 FUK131091:FUX131091 GEG131091:GET131091 GOC131091:GOP131091 GXY131091:GYL131091 HHU131091:HIH131091 HRQ131091:HSD131091 IBM131091:IBZ131091 ILI131091:ILV131091 IVE131091:IVR131091 JFA131091:JFN131091 JOW131091:JPJ131091 JYS131091:JZF131091 KIO131091:KJB131091 KSK131091:KSX131091 LCG131091:LCT131091 LMC131091:LMP131091 LVY131091:LWL131091 MFU131091:MGH131091 MPQ131091:MQD131091 MZM131091:MZZ131091 NJI131091:NJV131091 NTE131091:NTR131091 ODA131091:ODN131091 OMW131091:ONJ131091 OWS131091:OXF131091 PGO131091:PHB131091 PQK131091:PQX131091 QAG131091:QAT131091 QKC131091:QKP131091 QTY131091:QUL131091 RDU131091:REH131091 RNQ131091:ROD131091 RXM131091:RXZ131091 SHI131091:SHV131091 SRE131091:SRR131091 TBA131091:TBN131091 TKW131091:TLJ131091 TUS131091:TVF131091 UEO131091:UFB131091 UOK131091:UOX131091 UYG131091:UYT131091 VIC131091:VIP131091 VRY131091:VSL131091 WBU131091:WCH131091 WLQ131091:WMD131091 WVM131091:WVZ131091 E196627:R196627 JA196627:JN196627 SW196627:TJ196627 ACS196627:ADF196627 AMO196627:ANB196627 AWK196627:AWX196627 BGG196627:BGT196627 BQC196627:BQP196627 BZY196627:CAL196627 CJU196627:CKH196627 CTQ196627:CUD196627 DDM196627:DDZ196627 DNI196627:DNV196627 DXE196627:DXR196627 EHA196627:EHN196627 EQW196627:ERJ196627 FAS196627:FBF196627 FKO196627:FLB196627 FUK196627:FUX196627 GEG196627:GET196627 GOC196627:GOP196627 GXY196627:GYL196627 HHU196627:HIH196627 HRQ196627:HSD196627 IBM196627:IBZ196627 ILI196627:ILV196627 IVE196627:IVR196627 JFA196627:JFN196627 JOW196627:JPJ196627 JYS196627:JZF196627 KIO196627:KJB196627 KSK196627:KSX196627 LCG196627:LCT196627 LMC196627:LMP196627 LVY196627:LWL196627 MFU196627:MGH196627 MPQ196627:MQD196627 MZM196627:MZZ196627 NJI196627:NJV196627 NTE196627:NTR196627 ODA196627:ODN196627 OMW196627:ONJ196627 OWS196627:OXF196627 PGO196627:PHB196627 PQK196627:PQX196627 QAG196627:QAT196627 QKC196627:QKP196627 QTY196627:QUL196627 RDU196627:REH196627 RNQ196627:ROD196627 RXM196627:RXZ196627 SHI196627:SHV196627 SRE196627:SRR196627 TBA196627:TBN196627 TKW196627:TLJ196627 TUS196627:TVF196627 UEO196627:UFB196627 UOK196627:UOX196627 UYG196627:UYT196627 VIC196627:VIP196627 VRY196627:VSL196627 WBU196627:WCH196627 WLQ196627:WMD196627 WVM196627:WVZ196627 E262163:R262163 JA262163:JN262163 SW262163:TJ262163 ACS262163:ADF262163 AMO262163:ANB262163 AWK262163:AWX262163 BGG262163:BGT262163 BQC262163:BQP262163 BZY262163:CAL262163 CJU262163:CKH262163 CTQ262163:CUD262163 DDM262163:DDZ262163 DNI262163:DNV262163 DXE262163:DXR262163 EHA262163:EHN262163 EQW262163:ERJ262163 FAS262163:FBF262163 FKO262163:FLB262163 FUK262163:FUX262163 GEG262163:GET262163 GOC262163:GOP262163 GXY262163:GYL262163 HHU262163:HIH262163 HRQ262163:HSD262163 IBM262163:IBZ262163 ILI262163:ILV262163 IVE262163:IVR262163 JFA262163:JFN262163 JOW262163:JPJ262163 JYS262163:JZF262163 KIO262163:KJB262163 KSK262163:KSX262163 LCG262163:LCT262163 LMC262163:LMP262163 LVY262163:LWL262163 MFU262163:MGH262163 MPQ262163:MQD262163 MZM262163:MZZ262163 NJI262163:NJV262163 NTE262163:NTR262163 ODA262163:ODN262163 OMW262163:ONJ262163 OWS262163:OXF262163 PGO262163:PHB262163 PQK262163:PQX262163 QAG262163:QAT262163 QKC262163:QKP262163 QTY262163:QUL262163 RDU262163:REH262163 RNQ262163:ROD262163 RXM262163:RXZ262163 SHI262163:SHV262163 SRE262163:SRR262163 TBA262163:TBN262163 TKW262163:TLJ262163 TUS262163:TVF262163 UEO262163:UFB262163 UOK262163:UOX262163 UYG262163:UYT262163 VIC262163:VIP262163 VRY262163:VSL262163 WBU262163:WCH262163 WLQ262163:WMD262163 WVM262163:WVZ262163 E327699:R327699 JA327699:JN327699 SW327699:TJ327699 ACS327699:ADF327699 AMO327699:ANB327699 AWK327699:AWX327699 BGG327699:BGT327699 BQC327699:BQP327699 BZY327699:CAL327699 CJU327699:CKH327699 CTQ327699:CUD327699 DDM327699:DDZ327699 DNI327699:DNV327699 DXE327699:DXR327699 EHA327699:EHN327699 EQW327699:ERJ327699 FAS327699:FBF327699 FKO327699:FLB327699 FUK327699:FUX327699 GEG327699:GET327699 GOC327699:GOP327699 GXY327699:GYL327699 HHU327699:HIH327699 HRQ327699:HSD327699 IBM327699:IBZ327699 ILI327699:ILV327699 IVE327699:IVR327699 JFA327699:JFN327699 JOW327699:JPJ327699 JYS327699:JZF327699 KIO327699:KJB327699 KSK327699:KSX327699 LCG327699:LCT327699 LMC327699:LMP327699 LVY327699:LWL327699 MFU327699:MGH327699 MPQ327699:MQD327699 MZM327699:MZZ327699 NJI327699:NJV327699 NTE327699:NTR327699 ODA327699:ODN327699 OMW327699:ONJ327699 OWS327699:OXF327699 PGO327699:PHB327699 PQK327699:PQX327699 QAG327699:QAT327699 QKC327699:QKP327699 QTY327699:QUL327699 RDU327699:REH327699 RNQ327699:ROD327699 RXM327699:RXZ327699 SHI327699:SHV327699 SRE327699:SRR327699 TBA327699:TBN327699 TKW327699:TLJ327699 TUS327699:TVF327699 UEO327699:UFB327699 UOK327699:UOX327699 UYG327699:UYT327699 VIC327699:VIP327699 VRY327699:VSL327699 WBU327699:WCH327699 WLQ327699:WMD327699 WVM327699:WVZ327699 E393235:R393235 JA393235:JN393235 SW393235:TJ393235 ACS393235:ADF393235 AMO393235:ANB393235 AWK393235:AWX393235 BGG393235:BGT393235 BQC393235:BQP393235 BZY393235:CAL393235 CJU393235:CKH393235 CTQ393235:CUD393235 DDM393235:DDZ393235 DNI393235:DNV393235 DXE393235:DXR393235 EHA393235:EHN393235 EQW393235:ERJ393235 FAS393235:FBF393235 FKO393235:FLB393235 FUK393235:FUX393235 GEG393235:GET393235 GOC393235:GOP393235 GXY393235:GYL393235 HHU393235:HIH393235 HRQ393235:HSD393235 IBM393235:IBZ393235 ILI393235:ILV393235 IVE393235:IVR393235 JFA393235:JFN393235 JOW393235:JPJ393235 JYS393235:JZF393235 KIO393235:KJB393235 KSK393235:KSX393235 LCG393235:LCT393235 LMC393235:LMP393235 LVY393235:LWL393235 MFU393235:MGH393235 MPQ393235:MQD393235 MZM393235:MZZ393235 NJI393235:NJV393235 NTE393235:NTR393235 ODA393235:ODN393235 OMW393235:ONJ393235 OWS393235:OXF393235 PGO393235:PHB393235 PQK393235:PQX393235 QAG393235:QAT393235 QKC393235:QKP393235 QTY393235:QUL393235 RDU393235:REH393235 RNQ393235:ROD393235 RXM393235:RXZ393235 SHI393235:SHV393235 SRE393235:SRR393235 TBA393235:TBN393235 TKW393235:TLJ393235 TUS393235:TVF393235 UEO393235:UFB393235 UOK393235:UOX393235 UYG393235:UYT393235 VIC393235:VIP393235 VRY393235:VSL393235 WBU393235:WCH393235 WLQ393235:WMD393235 WVM393235:WVZ393235 E458771:R458771 JA458771:JN458771 SW458771:TJ458771 ACS458771:ADF458771 AMO458771:ANB458771 AWK458771:AWX458771 BGG458771:BGT458771 BQC458771:BQP458771 BZY458771:CAL458771 CJU458771:CKH458771 CTQ458771:CUD458771 DDM458771:DDZ458771 DNI458771:DNV458771 DXE458771:DXR458771 EHA458771:EHN458771 EQW458771:ERJ458771 FAS458771:FBF458771 FKO458771:FLB458771 FUK458771:FUX458771 GEG458771:GET458771 GOC458771:GOP458771 GXY458771:GYL458771 HHU458771:HIH458771 HRQ458771:HSD458771 IBM458771:IBZ458771 ILI458771:ILV458771 IVE458771:IVR458771 JFA458771:JFN458771 JOW458771:JPJ458771 JYS458771:JZF458771 KIO458771:KJB458771 KSK458771:KSX458771 LCG458771:LCT458771 LMC458771:LMP458771 LVY458771:LWL458771 MFU458771:MGH458771 MPQ458771:MQD458771 MZM458771:MZZ458771 NJI458771:NJV458771 NTE458771:NTR458771 ODA458771:ODN458771 OMW458771:ONJ458771 OWS458771:OXF458771 PGO458771:PHB458771 PQK458771:PQX458771 QAG458771:QAT458771 QKC458771:QKP458771 QTY458771:QUL458771 RDU458771:REH458771 RNQ458771:ROD458771 RXM458771:RXZ458771 SHI458771:SHV458771 SRE458771:SRR458771 TBA458771:TBN458771 TKW458771:TLJ458771 TUS458771:TVF458771 UEO458771:UFB458771 UOK458771:UOX458771 UYG458771:UYT458771 VIC458771:VIP458771 VRY458771:VSL458771 WBU458771:WCH458771 WLQ458771:WMD458771 WVM458771:WVZ458771 E524307:R524307 JA524307:JN524307 SW524307:TJ524307 ACS524307:ADF524307 AMO524307:ANB524307 AWK524307:AWX524307 BGG524307:BGT524307 BQC524307:BQP524307 BZY524307:CAL524307 CJU524307:CKH524307 CTQ524307:CUD524307 DDM524307:DDZ524307 DNI524307:DNV524307 DXE524307:DXR524307 EHA524307:EHN524307 EQW524307:ERJ524307 FAS524307:FBF524307 FKO524307:FLB524307 FUK524307:FUX524307 GEG524307:GET524307 GOC524307:GOP524307 GXY524307:GYL524307 HHU524307:HIH524307 HRQ524307:HSD524307 IBM524307:IBZ524307 ILI524307:ILV524307 IVE524307:IVR524307 JFA524307:JFN524307 JOW524307:JPJ524307 JYS524307:JZF524307 KIO524307:KJB524307 KSK524307:KSX524307 LCG524307:LCT524307 LMC524307:LMP524307 LVY524307:LWL524307 MFU524307:MGH524307 MPQ524307:MQD524307 MZM524307:MZZ524307 NJI524307:NJV524307 NTE524307:NTR524307 ODA524307:ODN524307 OMW524307:ONJ524307 OWS524307:OXF524307 PGO524307:PHB524307 PQK524307:PQX524307 QAG524307:QAT524307 QKC524307:QKP524307 QTY524307:QUL524307 RDU524307:REH524307 RNQ524307:ROD524307 RXM524307:RXZ524307 SHI524307:SHV524307 SRE524307:SRR524307 TBA524307:TBN524307 TKW524307:TLJ524307 TUS524307:TVF524307 UEO524307:UFB524307 UOK524307:UOX524307 UYG524307:UYT524307 VIC524307:VIP524307 VRY524307:VSL524307 WBU524307:WCH524307 WLQ524307:WMD524307 WVM524307:WVZ524307 E589843:R589843 JA589843:JN589843 SW589843:TJ589843 ACS589843:ADF589843 AMO589843:ANB589843 AWK589843:AWX589843 BGG589843:BGT589843 BQC589843:BQP589843 BZY589843:CAL589843 CJU589843:CKH589843 CTQ589843:CUD589843 DDM589843:DDZ589843 DNI589843:DNV589843 DXE589843:DXR589843 EHA589843:EHN589843 EQW589843:ERJ589843 FAS589843:FBF589843 FKO589843:FLB589843 FUK589843:FUX589843 GEG589843:GET589843 GOC589843:GOP589843 GXY589843:GYL589843 HHU589843:HIH589843 HRQ589843:HSD589843 IBM589843:IBZ589843 ILI589843:ILV589843 IVE589843:IVR589843 JFA589843:JFN589843 JOW589843:JPJ589843 JYS589843:JZF589843 KIO589843:KJB589843 KSK589843:KSX589843 LCG589843:LCT589843 LMC589843:LMP589843 LVY589843:LWL589843 MFU589843:MGH589843 MPQ589843:MQD589843 MZM589843:MZZ589843 NJI589843:NJV589843 NTE589843:NTR589843 ODA589843:ODN589843 OMW589843:ONJ589843 OWS589843:OXF589843 PGO589843:PHB589843 PQK589843:PQX589843 QAG589843:QAT589843 QKC589843:QKP589843 QTY589843:QUL589843 RDU589843:REH589843 RNQ589843:ROD589843 RXM589843:RXZ589843 SHI589843:SHV589843 SRE589843:SRR589843 TBA589843:TBN589843 TKW589843:TLJ589843 TUS589843:TVF589843 UEO589843:UFB589843 UOK589843:UOX589843 UYG589843:UYT589843 VIC589843:VIP589843 VRY589843:VSL589843 WBU589843:WCH589843 WLQ589843:WMD589843 WVM589843:WVZ589843 E655379:R655379 JA655379:JN655379 SW655379:TJ655379 ACS655379:ADF655379 AMO655379:ANB655379 AWK655379:AWX655379 BGG655379:BGT655379 BQC655379:BQP655379 BZY655379:CAL655379 CJU655379:CKH655379 CTQ655379:CUD655379 DDM655379:DDZ655379 DNI655379:DNV655379 DXE655379:DXR655379 EHA655379:EHN655379 EQW655379:ERJ655379 FAS655379:FBF655379 FKO655379:FLB655379 FUK655379:FUX655379 GEG655379:GET655379 GOC655379:GOP655379 GXY655379:GYL655379 HHU655379:HIH655379 HRQ655379:HSD655379 IBM655379:IBZ655379 ILI655379:ILV655379 IVE655379:IVR655379 JFA655379:JFN655379 JOW655379:JPJ655379 JYS655379:JZF655379 KIO655379:KJB655379 KSK655379:KSX655379 LCG655379:LCT655379 LMC655379:LMP655379 LVY655379:LWL655379 MFU655379:MGH655379 MPQ655379:MQD655379 MZM655379:MZZ655379 NJI655379:NJV655379 NTE655379:NTR655379 ODA655379:ODN655379 OMW655379:ONJ655379 OWS655379:OXF655379 PGO655379:PHB655379 PQK655379:PQX655379 QAG655379:QAT655379 QKC655379:QKP655379 QTY655379:QUL655379 RDU655379:REH655379 RNQ655379:ROD655379 RXM655379:RXZ655379 SHI655379:SHV655379 SRE655379:SRR655379 TBA655379:TBN655379 TKW655379:TLJ655379 TUS655379:TVF655379 UEO655379:UFB655379 UOK655379:UOX655379 UYG655379:UYT655379 VIC655379:VIP655379 VRY655379:VSL655379 WBU655379:WCH655379 WLQ655379:WMD655379 WVM655379:WVZ655379 E720915:R720915 JA720915:JN720915 SW720915:TJ720915 ACS720915:ADF720915 AMO720915:ANB720915 AWK720915:AWX720915 BGG720915:BGT720915 BQC720915:BQP720915 BZY720915:CAL720915 CJU720915:CKH720915 CTQ720915:CUD720915 DDM720915:DDZ720915 DNI720915:DNV720915 DXE720915:DXR720915 EHA720915:EHN720915 EQW720915:ERJ720915 FAS720915:FBF720915 FKO720915:FLB720915 FUK720915:FUX720915 GEG720915:GET720915 GOC720915:GOP720915 GXY720915:GYL720915 HHU720915:HIH720915 HRQ720915:HSD720915 IBM720915:IBZ720915 ILI720915:ILV720915 IVE720915:IVR720915 JFA720915:JFN720915 JOW720915:JPJ720915 JYS720915:JZF720915 KIO720915:KJB720915 KSK720915:KSX720915 LCG720915:LCT720915 LMC720915:LMP720915 LVY720915:LWL720915 MFU720915:MGH720915 MPQ720915:MQD720915 MZM720915:MZZ720915 NJI720915:NJV720915 NTE720915:NTR720915 ODA720915:ODN720915 OMW720915:ONJ720915 OWS720915:OXF720915 PGO720915:PHB720915 PQK720915:PQX720915 QAG720915:QAT720915 QKC720915:QKP720915 QTY720915:QUL720915 RDU720915:REH720915 RNQ720915:ROD720915 RXM720915:RXZ720915 SHI720915:SHV720915 SRE720915:SRR720915 TBA720915:TBN720915 TKW720915:TLJ720915 TUS720915:TVF720915 UEO720915:UFB720915 UOK720915:UOX720915 UYG720915:UYT720915 VIC720915:VIP720915 VRY720915:VSL720915 WBU720915:WCH720915 WLQ720915:WMD720915 WVM720915:WVZ720915 E786451:R786451 JA786451:JN786451 SW786451:TJ786451 ACS786451:ADF786451 AMO786451:ANB786451 AWK786451:AWX786451 BGG786451:BGT786451 BQC786451:BQP786451 BZY786451:CAL786451 CJU786451:CKH786451 CTQ786451:CUD786451 DDM786451:DDZ786451 DNI786451:DNV786451 DXE786451:DXR786451 EHA786451:EHN786451 EQW786451:ERJ786451 FAS786451:FBF786451 FKO786451:FLB786451 FUK786451:FUX786451 GEG786451:GET786451 GOC786451:GOP786451 GXY786451:GYL786451 HHU786451:HIH786451 HRQ786451:HSD786451 IBM786451:IBZ786451 ILI786451:ILV786451 IVE786451:IVR786451 JFA786451:JFN786451 JOW786451:JPJ786451 JYS786451:JZF786451 KIO786451:KJB786451 KSK786451:KSX786451 LCG786451:LCT786451 LMC786451:LMP786451 LVY786451:LWL786451 MFU786451:MGH786451 MPQ786451:MQD786451 MZM786451:MZZ786451 NJI786451:NJV786451 NTE786451:NTR786451 ODA786451:ODN786451 OMW786451:ONJ786451 OWS786451:OXF786451 PGO786451:PHB786451 PQK786451:PQX786451 QAG786451:QAT786451 QKC786451:QKP786451 QTY786451:QUL786451 RDU786451:REH786451 RNQ786451:ROD786451 RXM786451:RXZ786451 SHI786451:SHV786451 SRE786451:SRR786451 TBA786451:TBN786451 TKW786451:TLJ786451 TUS786451:TVF786451 UEO786451:UFB786451 UOK786451:UOX786451 UYG786451:UYT786451 VIC786451:VIP786451 VRY786451:VSL786451 WBU786451:WCH786451 WLQ786451:WMD786451 WVM786451:WVZ786451 E851987:R851987 JA851987:JN851987 SW851987:TJ851987 ACS851987:ADF851987 AMO851987:ANB851987 AWK851987:AWX851987 BGG851987:BGT851987 BQC851987:BQP851987 BZY851987:CAL851987 CJU851987:CKH851987 CTQ851987:CUD851987 DDM851987:DDZ851987 DNI851987:DNV851987 DXE851987:DXR851987 EHA851987:EHN851987 EQW851987:ERJ851987 FAS851987:FBF851987 FKO851987:FLB851987 FUK851987:FUX851987 GEG851987:GET851987 GOC851987:GOP851987 GXY851987:GYL851987 HHU851987:HIH851987 HRQ851987:HSD851987 IBM851987:IBZ851987 ILI851987:ILV851987 IVE851987:IVR851987 JFA851987:JFN851987 JOW851987:JPJ851987 JYS851987:JZF851987 KIO851987:KJB851987 KSK851987:KSX851987 LCG851987:LCT851987 LMC851987:LMP851987 LVY851987:LWL851987 MFU851987:MGH851987 MPQ851987:MQD851987 MZM851987:MZZ851987 NJI851987:NJV851987 NTE851987:NTR851987 ODA851987:ODN851987 OMW851987:ONJ851987 OWS851987:OXF851987 PGO851987:PHB851987 PQK851987:PQX851987 QAG851987:QAT851987 QKC851987:QKP851987 QTY851987:QUL851987 RDU851987:REH851987 RNQ851987:ROD851987 RXM851987:RXZ851987 SHI851987:SHV851987 SRE851987:SRR851987 TBA851987:TBN851987 TKW851987:TLJ851987 TUS851987:TVF851987 UEO851987:UFB851987 UOK851987:UOX851987 UYG851987:UYT851987 VIC851987:VIP851987 VRY851987:VSL851987 WBU851987:WCH851987 WLQ851987:WMD851987 WVM851987:WVZ851987 E917523:R917523 JA917523:JN917523 SW917523:TJ917523 ACS917523:ADF917523 AMO917523:ANB917523 AWK917523:AWX917523 BGG917523:BGT917523 BQC917523:BQP917523 BZY917523:CAL917523 CJU917523:CKH917523 CTQ917523:CUD917523 DDM917523:DDZ917523 DNI917523:DNV917523 DXE917523:DXR917523 EHA917523:EHN917523 EQW917523:ERJ917523 FAS917523:FBF917523 FKO917523:FLB917523 FUK917523:FUX917523 GEG917523:GET917523 GOC917523:GOP917523 GXY917523:GYL917523 HHU917523:HIH917523 HRQ917523:HSD917523 IBM917523:IBZ917523 ILI917523:ILV917523 IVE917523:IVR917523 JFA917523:JFN917523 JOW917523:JPJ917523 JYS917523:JZF917523 KIO917523:KJB917523 KSK917523:KSX917523 LCG917523:LCT917523 LMC917523:LMP917523 LVY917523:LWL917523 MFU917523:MGH917523 MPQ917523:MQD917523 MZM917523:MZZ917523 NJI917523:NJV917523 NTE917523:NTR917523 ODA917523:ODN917523 OMW917523:ONJ917523 OWS917523:OXF917523 PGO917523:PHB917523 PQK917523:PQX917523 QAG917523:QAT917523 QKC917523:QKP917523 QTY917523:QUL917523 RDU917523:REH917523 RNQ917523:ROD917523 RXM917523:RXZ917523 SHI917523:SHV917523 SRE917523:SRR917523 TBA917523:TBN917523 TKW917523:TLJ917523 TUS917523:TVF917523 UEO917523:UFB917523 UOK917523:UOX917523 UYG917523:UYT917523 VIC917523:VIP917523 VRY917523:VSL917523 WBU917523:WCH917523 WLQ917523:WMD917523 WVM917523:WVZ917523 E983059:R983059 JA983059:JN983059 SW983059:TJ983059 ACS983059:ADF983059 AMO983059:ANB983059 AWK983059:AWX983059 BGG983059:BGT983059 BQC983059:BQP983059 BZY983059:CAL983059 CJU983059:CKH983059 CTQ983059:CUD983059 DDM983059:DDZ983059 DNI983059:DNV983059 DXE983059:DXR983059 EHA983059:EHN983059 EQW983059:ERJ983059 FAS983059:FBF983059 FKO983059:FLB983059 FUK983059:FUX983059 GEG983059:GET983059 GOC983059:GOP983059 GXY983059:GYL983059 HHU983059:HIH983059 HRQ983059:HSD983059 IBM983059:IBZ983059 ILI983059:ILV983059 IVE983059:IVR983059 JFA983059:JFN983059 JOW983059:JPJ983059 JYS983059:JZF983059 KIO983059:KJB983059 KSK983059:KSX983059 LCG983059:LCT983059 LMC983059:LMP983059 LVY983059:LWL983059 MFU983059:MGH983059 MPQ983059:MQD983059 MZM983059:MZZ983059 NJI983059:NJV983059 NTE983059:NTR983059 ODA983059:ODN983059 OMW983059:ONJ983059 OWS983059:OXF983059 PGO983059:PHB983059 PQK983059:PQX983059 QAG983059:QAT983059 QKC983059:QKP983059 QTY983059:QUL983059 RDU983059:REH983059 RNQ983059:ROD983059 RXM983059:RXZ983059 SHI983059:SHV983059 SRE983059:SRR983059 TBA983059:TBN983059 TKW983059:TLJ983059 TUS983059:TVF983059 UEO983059:UFB983059 UOK983059:UOX983059 UYG983059:UYT983059 VIC983059:VIP983059 VRY983059:VSL983059 WBU983059:WCH983059 WLQ983059:WMD983059 E19:R19">
@@ -10086,2291 +10088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
-  <cols>
-    <col min="1" max="1" width="10.5" style="126" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="74" customWidth="1"/>
-    <col min="3" max="3" width="15.375" style="126" customWidth="1"/>
-    <col min="4" max="4" width="20.5" style="72" customWidth="1"/>
-    <col min="5" max="6" width="2.875" style="126" customWidth="1"/>
-    <col min="7" max="7" width="2.625" style="126" customWidth="1"/>
-    <col min="8" max="19" width="2.875" style="126" customWidth="1"/>
-    <col min="20" max="256" width="9" style="126"/>
-    <col min="257" max="257" width="10.5" style="126" customWidth="1"/>
-    <col min="258" max="258" width="13.375" style="126" customWidth="1"/>
-    <col min="259" max="259" width="15.375" style="126" customWidth="1"/>
-    <col min="260" max="260" width="20.5" style="126" customWidth="1"/>
-    <col min="261" max="262" width="2.875" style="126" customWidth="1"/>
-    <col min="263" max="263" width="2.625" style="126" customWidth="1"/>
-    <col min="264" max="275" width="2.875" style="126" customWidth="1"/>
-    <col min="276" max="512" width="9" style="126"/>
-    <col min="513" max="513" width="10.5" style="126" customWidth="1"/>
-    <col min="514" max="514" width="13.375" style="126" customWidth="1"/>
-    <col min="515" max="515" width="15.375" style="126" customWidth="1"/>
-    <col min="516" max="516" width="20.5" style="126" customWidth="1"/>
-    <col min="517" max="518" width="2.875" style="126" customWidth="1"/>
-    <col min="519" max="519" width="2.625" style="126" customWidth="1"/>
-    <col min="520" max="531" width="2.875" style="126" customWidth="1"/>
-    <col min="532" max="768" width="9" style="126"/>
-    <col min="769" max="769" width="10.5" style="126" customWidth="1"/>
-    <col min="770" max="770" width="13.375" style="126" customWidth="1"/>
-    <col min="771" max="771" width="15.375" style="126" customWidth="1"/>
-    <col min="772" max="772" width="20.5" style="126" customWidth="1"/>
-    <col min="773" max="774" width="2.875" style="126" customWidth="1"/>
-    <col min="775" max="775" width="2.625" style="126" customWidth="1"/>
-    <col min="776" max="787" width="2.875" style="126" customWidth="1"/>
-    <col min="788" max="1024" width="9" style="126"/>
-    <col min="1025" max="1025" width="10.5" style="126" customWidth="1"/>
-    <col min="1026" max="1026" width="13.375" style="126" customWidth="1"/>
-    <col min="1027" max="1027" width="15.375" style="126" customWidth="1"/>
-    <col min="1028" max="1028" width="20.5" style="126" customWidth="1"/>
-    <col min="1029" max="1030" width="2.875" style="126" customWidth="1"/>
-    <col min="1031" max="1031" width="2.625" style="126" customWidth="1"/>
-    <col min="1032" max="1043" width="2.875" style="126" customWidth="1"/>
-    <col min="1044" max="1280" width="9" style="126"/>
-    <col min="1281" max="1281" width="10.5" style="126" customWidth="1"/>
-    <col min="1282" max="1282" width="13.375" style="126" customWidth="1"/>
-    <col min="1283" max="1283" width="15.375" style="126" customWidth="1"/>
-    <col min="1284" max="1284" width="20.5" style="126" customWidth="1"/>
-    <col min="1285" max="1286" width="2.875" style="126" customWidth="1"/>
-    <col min="1287" max="1287" width="2.625" style="126" customWidth="1"/>
-    <col min="1288" max="1299" width="2.875" style="126" customWidth="1"/>
-    <col min="1300" max="1536" width="9" style="126"/>
-    <col min="1537" max="1537" width="10.5" style="126" customWidth="1"/>
-    <col min="1538" max="1538" width="13.375" style="126" customWidth="1"/>
-    <col min="1539" max="1539" width="15.375" style="126" customWidth="1"/>
-    <col min="1540" max="1540" width="20.5" style="126" customWidth="1"/>
-    <col min="1541" max="1542" width="2.875" style="126" customWidth="1"/>
-    <col min="1543" max="1543" width="2.625" style="126" customWidth="1"/>
-    <col min="1544" max="1555" width="2.875" style="126" customWidth="1"/>
-    <col min="1556" max="1792" width="9" style="126"/>
-    <col min="1793" max="1793" width="10.5" style="126" customWidth="1"/>
-    <col min="1794" max="1794" width="13.375" style="126" customWidth="1"/>
-    <col min="1795" max="1795" width="15.375" style="126" customWidth="1"/>
-    <col min="1796" max="1796" width="20.5" style="126" customWidth="1"/>
-    <col min="1797" max="1798" width="2.875" style="126" customWidth="1"/>
-    <col min="1799" max="1799" width="2.625" style="126" customWidth="1"/>
-    <col min="1800" max="1811" width="2.875" style="126" customWidth="1"/>
-    <col min="1812" max="2048" width="9" style="126"/>
-    <col min="2049" max="2049" width="10.5" style="126" customWidth="1"/>
-    <col min="2050" max="2050" width="13.375" style="126" customWidth="1"/>
-    <col min="2051" max="2051" width="15.375" style="126" customWidth="1"/>
-    <col min="2052" max="2052" width="20.5" style="126" customWidth="1"/>
-    <col min="2053" max="2054" width="2.875" style="126" customWidth="1"/>
-    <col min="2055" max="2055" width="2.625" style="126" customWidth="1"/>
-    <col min="2056" max="2067" width="2.875" style="126" customWidth="1"/>
-    <col min="2068" max="2304" width="9" style="126"/>
-    <col min="2305" max="2305" width="10.5" style="126" customWidth="1"/>
-    <col min="2306" max="2306" width="13.375" style="126" customWidth="1"/>
-    <col min="2307" max="2307" width="15.375" style="126" customWidth="1"/>
-    <col min="2308" max="2308" width="20.5" style="126" customWidth="1"/>
-    <col min="2309" max="2310" width="2.875" style="126" customWidth="1"/>
-    <col min="2311" max="2311" width="2.625" style="126" customWidth="1"/>
-    <col min="2312" max="2323" width="2.875" style="126" customWidth="1"/>
-    <col min="2324" max="2560" width="9" style="126"/>
-    <col min="2561" max="2561" width="10.5" style="126" customWidth="1"/>
-    <col min="2562" max="2562" width="13.375" style="126" customWidth="1"/>
-    <col min="2563" max="2563" width="15.375" style="126" customWidth="1"/>
-    <col min="2564" max="2564" width="20.5" style="126" customWidth="1"/>
-    <col min="2565" max="2566" width="2.875" style="126" customWidth="1"/>
-    <col min="2567" max="2567" width="2.625" style="126" customWidth="1"/>
-    <col min="2568" max="2579" width="2.875" style="126" customWidth="1"/>
-    <col min="2580" max="2816" width="9" style="126"/>
-    <col min="2817" max="2817" width="10.5" style="126" customWidth="1"/>
-    <col min="2818" max="2818" width="13.375" style="126" customWidth="1"/>
-    <col min="2819" max="2819" width="15.375" style="126" customWidth="1"/>
-    <col min="2820" max="2820" width="20.5" style="126" customWidth="1"/>
-    <col min="2821" max="2822" width="2.875" style="126" customWidth="1"/>
-    <col min="2823" max="2823" width="2.625" style="126" customWidth="1"/>
-    <col min="2824" max="2835" width="2.875" style="126" customWidth="1"/>
-    <col min="2836" max="3072" width="9" style="126"/>
-    <col min="3073" max="3073" width="10.5" style="126" customWidth="1"/>
-    <col min="3074" max="3074" width="13.375" style="126" customWidth="1"/>
-    <col min="3075" max="3075" width="15.375" style="126" customWidth="1"/>
-    <col min="3076" max="3076" width="20.5" style="126" customWidth="1"/>
-    <col min="3077" max="3078" width="2.875" style="126" customWidth="1"/>
-    <col min="3079" max="3079" width="2.625" style="126" customWidth="1"/>
-    <col min="3080" max="3091" width="2.875" style="126" customWidth="1"/>
-    <col min="3092" max="3328" width="9" style="126"/>
-    <col min="3329" max="3329" width="10.5" style="126" customWidth="1"/>
-    <col min="3330" max="3330" width="13.375" style="126" customWidth="1"/>
-    <col min="3331" max="3331" width="15.375" style="126" customWidth="1"/>
-    <col min="3332" max="3332" width="20.5" style="126" customWidth="1"/>
-    <col min="3333" max="3334" width="2.875" style="126" customWidth="1"/>
-    <col min="3335" max="3335" width="2.625" style="126" customWidth="1"/>
-    <col min="3336" max="3347" width="2.875" style="126" customWidth="1"/>
-    <col min="3348" max="3584" width="9" style="126"/>
-    <col min="3585" max="3585" width="10.5" style="126" customWidth="1"/>
-    <col min="3586" max="3586" width="13.375" style="126" customWidth="1"/>
-    <col min="3587" max="3587" width="15.375" style="126" customWidth="1"/>
-    <col min="3588" max="3588" width="20.5" style="126" customWidth="1"/>
-    <col min="3589" max="3590" width="2.875" style="126" customWidth="1"/>
-    <col min="3591" max="3591" width="2.625" style="126" customWidth="1"/>
-    <col min="3592" max="3603" width="2.875" style="126" customWidth="1"/>
-    <col min="3604" max="3840" width="9" style="126"/>
-    <col min="3841" max="3841" width="10.5" style="126" customWidth="1"/>
-    <col min="3842" max="3842" width="13.375" style="126" customWidth="1"/>
-    <col min="3843" max="3843" width="15.375" style="126" customWidth="1"/>
-    <col min="3844" max="3844" width="20.5" style="126" customWidth="1"/>
-    <col min="3845" max="3846" width="2.875" style="126" customWidth="1"/>
-    <col min="3847" max="3847" width="2.625" style="126" customWidth="1"/>
-    <col min="3848" max="3859" width="2.875" style="126" customWidth="1"/>
-    <col min="3860" max="4096" width="9" style="126"/>
-    <col min="4097" max="4097" width="10.5" style="126" customWidth="1"/>
-    <col min="4098" max="4098" width="13.375" style="126" customWidth="1"/>
-    <col min="4099" max="4099" width="15.375" style="126" customWidth="1"/>
-    <col min="4100" max="4100" width="20.5" style="126" customWidth="1"/>
-    <col min="4101" max="4102" width="2.875" style="126" customWidth="1"/>
-    <col min="4103" max="4103" width="2.625" style="126" customWidth="1"/>
-    <col min="4104" max="4115" width="2.875" style="126" customWidth="1"/>
-    <col min="4116" max="4352" width="9" style="126"/>
-    <col min="4353" max="4353" width="10.5" style="126" customWidth="1"/>
-    <col min="4354" max="4354" width="13.375" style="126" customWidth="1"/>
-    <col min="4355" max="4355" width="15.375" style="126" customWidth="1"/>
-    <col min="4356" max="4356" width="20.5" style="126" customWidth="1"/>
-    <col min="4357" max="4358" width="2.875" style="126" customWidth="1"/>
-    <col min="4359" max="4359" width="2.625" style="126" customWidth="1"/>
-    <col min="4360" max="4371" width="2.875" style="126" customWidth="1"/>
-    <col min="4372" max="4608" width="9" style="126"/>
-    <col min="4609" max="4609" width="10.5" style="126" customWidth="1"/>
-    <col min="4610" max="4610" width="13.375" style="126" customWidth="1"/>
-    <col min="4611" max="4611" width="15.375" style="126" customWidth="1"/>
-    <col min="4612" max="4612" width="20.5" style="126" customWidth="1"/>
-    <col min="4613" max="4614" width="2.875" style="126" customWidth="1"/>
-    <col min="4615" max="4615" width="2.625" style="126" customWidth="1"/>
-    <col min="4616" max="4627" width="2.875" style="126" customWidth="1"/>
-    <col min="4628" max="4864" width="9" style="126"/>
-    <col min="4865" max="4865" width="10.5" style="126" customWidth="1"/>
-    <col min="4866" max="4866" width="13.375" style="126" customWidth="1"/>
-    <col min="4867" max="4867" width="15.375" style="126" customWidth="1"/>
-    <col min="4868" max="4868" width="20.5" style="126" customWidth="1"/>
-    <col min="4869" max="4870" width="2.875" style="126" customWidth="1"/>
-    <col min="4871" max="4871" width="2.625" style="126" customWidth="1"/>
-    <col min="4872" max="4883" width="2.875" style="126" customWidth="1"/>
-    <col min="4884" max="5120" width="9" style="126"/>
-    <col min="5121" max="5121" width="10.5" style="126" customWidth="1"/>
-    <col min="5122" max="5122" width="13.375" style="126" customWidth="1"/>
-    <col min="5123" max="5123" width="15.375" style="126" customWidth="1"/>
-    <col min="5124" max="5124" width="20.5" style="126" customWidth="1"/>
-    <col min="5125" max="5126" width="2.875" style="126" customWidth="1"/>
-    <col min="5127" max="5127" width="2.625" style="126" customWidth="1"/>
-    <col min="5128" max="5139" width="2.875" style="126" customWidth="1"/>
-    <col min="5140" max="5376" width="9" style="126"/>
-    <col min="5377" max="5377" width="10.5" style="126" customWidth="1"/>
-    <col min="5378" max="5378" width="13.375" style="126" customWidth="1"/>
-    <col min="5379" max="5379" width="15.375" style="126" customWidth="1"/>
-    <col min="5380" max="5380" width="20.5" style="126" customWidth="1"/>
-    <col min="5381" max="5382" width="2.875" style="126" customWidth="1"/>
-    <col min="5383" max="5383" width="2.625" style="126" customWidth="1"/>
-    <col min="5384" max="5395" width="2.875" style="126" customWidth="1"/>
-    <col min="5396" max="5632" width="9" style="126"/>
-    <col min="5633" max="5633" width="10.5" style="126" customWidth="1"/>
-    <col min="5634" max="5634" width="13.375" style="126" customWidth="1"/>
-    <col min="5635" max="5635" width="15.375" style="126" customWidth="1"/>
-    <col min="5636" max="5636" width="20.5" style="126" customWidth="1"/>
-    <col min="5637" max="5638" width="2.875" style="126" customWidth="1"/>
-    <col min="5639" max="5639" width="2.625" style="126" customWidth="1"/>
-    <col min="5640" max="5651" width="2.875" style="126" customWidth="1"/>
-    <col min="5652" max="5888" width="9" style="126"/>
-    <col min="5889" max="5889" width="10.5" style="126" customWidth="1"/>
-    <col min="5890" max="5890" width="13.375" style="126" customWidth="1"/>
-    <col min="5891" max="5891" width="15.375" style="126" customWidth="1"/>
-    <col min="5892" max="5892" width="20.5" style="126" customWidth="1"/>
-    <col min="5893" max="5894" width="2.875" style="126" customWidth="1"/>
-    <col min="5895" max="5895" width="2.625" style="126" customWidth="1"/>
-    <col min="5896" max="5907" width="2.875" style="126" customWidth="1"/>
-    <col min="5908" max="6144" width="9" style="126"/>
-    <col min="6145" max="6145" width="10.5" style="126" customWidth="1"/>
-    <col min="6146" max="6146" width="13.375" style="126" customWidth="1"/>
-    <col min="6147" max="6147" width="15.375" style="126" customWidth="1"/>
-    <col min="6148" max="6148" width="20.5" style="126" customWidth="1"/>
-    <col min="6149" max="6150" width="2.875" style="126" customWidth="1"/>
-    <col min="6151" max="6151" width="2.625" style="126" customWidth="1"/>
-    <col min="6152" max="6163" width="2.875" style="126" customWidth="1"/>
-    <col min="6164" max="6400" width="9" style="126"/>
-    <col min="6401" max="6401" width="10.5" style="126" customWidth="1"/>
-    <col min="6402" max="6402" width="13.375" style="126" customWidth="1"/>
-    <col min="6403" max="6403" width="15.375" style="126" customWidth="1"/>
-    <col min="6404" max="6404" width="20.5" style="126" customWidth="1"/>
-    <col min="6405" max="6406" width="2.875" style="126" customWidth="1"/>
-    <col min="6407" max="6407" width="2.625" style="126" customWidth="1"/>
-    <col min="6408" max="6419" width="2.875" style="126" customWidth="1"/>
-    <col min="6420" max="6656" width="9" style="126"/>
-    <col min="6657" max="6657" width="10.5" style="126" customWidth="1"/>
-    <col min="6658" max="6658" width="13.375" style="126" customWidth="1"/>
-    <col min="6659" max="6659" width="15.375" style="126" customWidth="1"/>
-    <col min="6660" max="6660" width="20.5" style="126" customWidth="1"/>
-    <col min="6661" max="6662" width="2.875" style="126" customWidth="1"/>
-    <col min="6663" max="6663" width="2.625" style="126" customWidth="1"/>
-    <col min="6664" max="6675" width="2.875" style="126" customWidth="1"/>
-    <col min="6676" max="6912" width="9" style="126"/>
-    <col min="6913" max="6913" width="10.5" style="126" customWidth="1"/>
-    <col min="6914" max="6914" width="13.375" style="126" customWidth="1"/>
-    <col min="6915" max="6915" width="15.375" style="126" customWidth="1"/>
-    <col min="6916" max="6916" width="20.5" style="126" customWidth="1"/>
-    <col min="6917" max="6918" width="2.875" style="126" customWidth="1"/>
-    <col min="6919" max="6919" width="2.625" style="126" customWidth="1"/>
-    <col min="6920" max="6931" width="2.875" style="126" customWidth="1"/>
-    <col min="6932" max="7168" width="9" style="126"/>
-    <col min="7169" max="7169" width="10.5" style="126" customWidth="1"/>
-    <col min="7170" max="7170" width="13.375" style="126" customWidth="1"/>
-    <col min="7171" max="7171" width="15.375" style="126" customWidth="1"/>
-    <col min="7172" max="7172" width="20.5" style="126" customWidth="1"/>
-    <col min="7173" max="7174" width="2.875" style="126" customWidth="1"/>
-    <col min="7175" max="7175" width="2.625" style="126" customWidth="1"/>
-    <col min="7176" max="7187" width="2.875" style="126" customWidth="1"/>
-    <col min="7188" max="7424" width="9" style="126"/>
-    <col min="7425" max="7425" width="10.5" style="126" customWidth="1"/>
-    <col min="7426" max="7426" width="13.375" style="126" customWidth="1"/>
-    <col min="7427" max="7427" width="15.375" style="126" customWidth="1"/>
-    <col min="7428" max="7428" width="20.5" style="126" customWidth="1"/>
-    <col min="7429" max="7430" width="2.875" style="126" customWidth="1"/>
-    <col min="7431" max="7431" width="2.625" style="126" customWidth="1"/>
-    <col min="7432" max="7443" width="2.875" style="126" customWidth="1"/>
-    <col min="7444" max="7680" width="9" style="126"/>
-    <col min="7681" max="7681" width="10.5" style="126" customWidth="1"/>
-    <col min="7682" max="7682" width="13.375" style="126" customWidth="1"/>
-    <col min="7683" max="7683" width="15.375" style="126" customWidth="1"/>
-    <col min="7684" max="7684" width="20.5" style="126" customWidth="1"/>
-    <col min="7685" max="7686" width="2.875" style="126" customWidth="1"/>
-    <col min="7687" max="7687" width="2.625" style="126" customWidth="1"/>
-    <col min="7688" max="7699" width="2.875" style="126" customWidth="1"/>
-    <col min="7700" max="7936" width="9" style="126"/>
-    <col min="7937" max="7937" width="10.5" style="126" customWidth="1"/>
-    <col min="7938" max="7938" width="13.375" style="126" customWidth="1"/>
-    <col min="7939" max="7939" width="15.375" style="126" customWidth="1"/>
-    <col min="7940" max="7940" width="20.5" style="126" customWidth="1"/>
-    <col min="7941" max="7942" width="2.875" style="126" customWidth="1"/>
-    <col min="7943" max="7943" width="2.625" style="126" customWidth="1"/>
-    <col min="7944" max="7955" width="2.875" style="126" customWidth="1"/>
-    <col min="7956" max="8192" width="9" style="126"/>
-    <col min="8193" max="8193" width="10.5" style="126" customWidth="1"/>
-    <col min="8194" max="8194" width="13.375" style="126" customWidth="1"/>
-    <col min="8195" max="8195" width="15.375" style="126" customWidth="1"/>
-    <col min="8196" max="8196" width="20.5" style="126" customWidth="1"/>
-    <col min="8197" max="8198" width="2.875" style="126" customWidth="1"/>
-    <col min="8199" max="8199" width="2.625" style="126" customWidth="1"/>
-    <col min="8200" max="8211" width="2.875" style="126" customWidth="1"/>
-    <col min="8212" max="8448" width="9" style="126"/>
-    <col min="8449" max="8449" width="10.5" style="126" customWidth="1"/>
-    <col min="8450" max="8450" width="13.375" style="126" customWidth="1"/>
-    <col min="8451" max="8451" width="15.375" style="126" customWidth="1"/>
-    <col min="8452" max="8452" width="20.5" style="126" customWidth="1"/>
-    <col min="8453" max="8454" width="2.875" style="126" customWidth="1"/>
-    <col min="8455" max="8455" width="2.625" style="126" customWidth="1"/>
-    <col min="8456" max="8467" width="2.875" style="126" customWidth="1"/>
-    <col min="8468" max="8704" width="9" style="126"/>
-    <col min="8705" max="8705" width="10.5" style="126" customWidth="1"/>
-    <col min="8706" max="8706" width="13.375" style="126" customWidth="1"/>
-    <col min="8707" max="8707" width="15.375" style="126" customWidth="1"/>
-    <col min="8708" max="8708" width="20.5" style="126" customWidth="1"/>
-    <col min="8709" max="8710" width="2.875" style="126" customWidth="1"/>
-    <col min="8711" max="8711" width="2.625" style="126" customWidth="1"/>
-    <col min="8712" max="8723" width="2.875" style="126" customWidth="1"/>
-    <col min="8724" max="8960" width="9" style="126"/>
-    <col min="8961" max="8961" width="10.5" style="126" customWidth="1"/>
-    <col min="8962" max="8962" width="13.375" style="126" customWidth="1"/>
-    <col min="8963" max="8963" width="15.375" style="126" customWidth="1"/>
-    <col min="8964" max="8964" width="20.5" style="126" customWidth="1"/>
-    <col min="8965" max="8966" width="2.875" style="126" customWidth="1"/>
-    <col min="8967" max="8967" width="2.625" style="126" customWidth="1"/>
-    <col min="8968" max="8979" width="2.875" style="126" customWidth="1"/>
-    <col min="8980" max="9216" width="9" style="126"/>
-    <col min="9217" max="9217" width="10.5" style="126" customWidth="1"/>
-    <col min="9218" max="9218" width="13.375" style="126" customWidth="1"/>
-    <col min="9219" max="9219" width="15.375" style="126" customWidth="1"/>
-    <col min="9220" max="9220" width="20.5" style="126" customWidth="1"/>
-    <col min="9221" max="9222" width="2.875" style="126" customWidth="1"/>
-    <col min="9223" max="9223" width="2.625" style="126" customWidth="1"/>
-    <col min="9224" max="9235" width="2.875" style="126" customWidth="1"/>
-    <col min="9236" max="9472" width="9" style="126"/>
-    <col min="9473" max="9473" width="10.5" style="126" customWidth="1"/>
-    <col min="9474" max="9474" width="13.375" style="126" customWidth="1"/>
-    <col min="9475" max="9475" width="15.375" style="126" customWidth="1"/>
-    <col min="9476" max="9476" width="20.5" style="126" customWidth="1"/>
-    <col min="9477" max="9478" width="2.875" style="126" customWidth="1"/>
-    <col min="9479" max="9479" width="2.625" style="126" customWidth="1"/>
-    <col min="9480" max="9491" width="2.875" style="126" customWidth="1"/>
-    <col min="9492" max="9728" width="9" style="126"/>
-    <col min="9729" max="9729" width="10.5" style="126" customWidth="1"/>
-    <col min="9730" max="9730" width="13.375" style="126" customWidth="1"/>
-    <col min="9731" max="9731" width="15.375" style="126" customWidth="1"/>
-    <col min="9732" max="9732" width="20.5" style="126" customWidth="1"/>
-    <col min="9733" max="9734" width="2.875" style="126" customWidth="1"/>
-    <col min="9735" max="9735" width="2.625" style="126" customWidth="1"/>
-    <col min="9736" max="9747" width="2.875" style="126" customWidth="1"/>
-    <col min="9748" max="9984" width="9" style="126"/>
-    <col min="9985" max="9985" width="10.5" style="126" customWidth="1"/>
-    <col min="9986" max="9986" width="13.375" style="126" customWidth="1"/>
-    <col min="9987" max="9987" width="15.375" style="126" customWidth="1"/>
-    <col min="9988" max="9988" width="20.5" style="126" customWidth="1"/>
-    <col min="9989" max="9990" width="2.875" style="126" customWidth="1"/>
-    <col min="9991" max="9991" width="2.625" style="126" customWidth="1"/>
-    <col min="9992" max="10003" width="2.875" style="126" customWidth="1"/>
-    <col min="10004" max="10240" width="9" style="126"/>
-    <col min="10241" max="10241" width="10.5" style="126" customWidth="1"/>
-    <col min="10242" max="10242" width="13.375" style="126" customWidth="1"/>
-    <col min="10243" max="10243" width="15.375" style="126" customWidth="1"/>
-    <col min="10244" max="10244" width="20.5" style="126" customWidth="1"/>
-    <col min="10245" max="10246" width="2.875" style="126" customWidth="1"/>
-    <col min="10247" max="10247" width="2.625" style="126" customWidth="1"/>
-    <col min="10248" max="10259" width="2.875" style="126" customWidth="1"/>
-    <col min="10260" max="10496" width="9" style="126"/>
-    <col min="10497" max="10497" width="10.5" style="126" customWidth="1"/>
-    <col min="10498" max="10498" width="13.375" style="126" customWidth="1"/>
-    <col min="10499" max="10499" width="15.375" style="126" customWidth="1"/>
-    <col min="10500" max="10500" width="20.5" style="126" customWidth="1"/>
-    <col min="10501" max="10502" width="2.875" style="126" customWidth="1"/>
-    <col min="10503" max="10503" width="2.625" style="126" customWidth="1"/>
-    <col min="10504" max="10515" width="2.875" style="126" customWidth="1"/>
-    <col min="10516" max="10752" width="9" style="126"/>
-    <col min="10753" max="10753" width="10.5" style="126" customWidth="1"/>
-    <col min="10754" max="10754" width="13.375" style="126" customWidth="1"/>
-    <col min="10755" max="10755" width="15.375" style="126" customWidth="1"/>
-    <col min="10756" max="10756" width="20.5" style="126" customWidth="1"/>
-    <col min="10757" max="10758" width="2.875" style="126" customWidth="1"/>
-    <col min="10759" max="10759" width="2.625" style="126" customWidth="1"/>
-    <col min="10760" max="10771" width="2.875" style="126" customWidth="1"/>
-    <col min="10772" max="11008" width="9" style="126"/>
-    <col min="11009" max="11009" width="10.5" style="126" customWidth="1"/>
-    <col min="11010" max="11010" width="13.375" style="126" customWidth="1"/>
-    <col min="11011" max="11011" width="15.375" style="126" customWidth="1"/>
-    <col min="11012" max="11012" width="20.5" style="126" customWidth="1"/>
-    <col min="11013" max="11014" width="2.875" style="126" customWidth="1"/>
-    <col min="11015" max="11015" width="2.625" style="126" customWidth="1"/>
-    <col min="11016" max="11027" width="2.875" style="126" customWidth="1"/>
-    <col min="11028" max="11264" width="9" style="126"/>
-    <col min="11265" max="11265" width="10.5" style="126" customWidth="1"/>
-    <col min="11266" max="11266" width="13.375" style="126" customWidth="1"/>
-    <col min="11267" max="11267" width="15.375" style="126" customWidth="1"/>
-    <col min="11268" max="11268" width="20.5" style="126" customWidth="1"/>
-    <col min="11269" max="11270" width="2.875" style="126" customWidth="1"/>
-    <col min="11271" max="11271" width="2.625" style="126" customWidth="1"/>
-    <col min="11272" max="11283" width="2.875" style="126" customWidth="1"/>
-    <col min="11284" max="11520" width="9" style="126"/>
-    <col min="11521" max="11521" width="10.5" style="126" customWidth="1"/>
-    <col min="11522" max="11522" width="13.375" style="126" customWidth="1"/>
-    <col min="11523" max="11523" width="15.375" style="126" customWidth="1"/>
-    <col min="11524" max="11524" width="20.5" style="126" customWidth="1"/>
-    <col min="11525" max="11526" width="2.875" style="126" customWidth="1"/>
-    <col min="11527" max="11527" width="2.625" style="126" customWidth="1"/>
-    <col min="11528" max="11539" width="2.875" style="126" customWidth="1"/>
-    <col min="11540" max="11776" width="9" style="126"/>
-    <col min="11777" max="11777" width="10.5" style="126" customWidth="1"/>
-    <col min="11778" max="11778" width="13.375" style="126" customWidth="1"/>
-    <col min="11779" max="11779" width="15.375" style="126" customWidth="1"/>
-    <col min="11780" max="11780" width="20.5" style="126" customWidth="1"/>
-    <col min="11781" max="11782" width="2.875" style="126" customWidth="1"/>
-    <col min="11783" max="11783" width="2.625" style="126" customWidth="1"/>
-    <col min="11784" max="11795" width="2.875" style="126" customWidth="1"/>
-    <col min="11796" max="12032" width="9" style="126"/>
-    <col min="12033" max="12033" width="10.5" style="126" customWidth="1"/>
-    <col min="12034" max="12034" width="13.375" style="126" customWidth="1"/>
-    <col min="12035" max="12035" width="15.375" style="126" customWidth="1"/>
-    <col min="12036" max="12036" width="20.5" style="126" customWidth="1"/>
-    <col min="12037" max="12038" width="2.875" style="126" customWidth="1"/>
-    <col min="12039" max="12039" width="2.625" style="126" customWidth="1"/>
-    <col min="12040" max="12051" width="2.875" style="126" customWidth="1"/>
-    <col min="12052" max="12288" width="9" style="126"/>
-    <col min="12289" max="12289" width="10.5" style="126" customWidth="1"/>
-    <col min="12290" max="12290" width="13.375" style="126" customWidth="1"/>
-    <col min="12291" max="12291" width="15.375" style="126" customWidth="1"/>
-    <col min="12292" max="12292" width="20.5" style="126" customWidth="1"/>
-    <col min="12293" max="12294" width="2.875" style="126" customWidth="1"/>
-    <col min="12295" max="12295" width="2.625" style="126" customWidth="1"/>
-    <col min="12296" max="12307" width="2.875" style="126" customWidth="1"/>
-    <col min="12308" max="12544" width="9" style="126"/>
-    <col min="12545" max="12545" width="10.5" style="126" customWidth="1"/>
-    <col min="12546" max="12546" width="13.375" style="126" customWidth="1"/>
-    <col min="12547" max="12547" width="15.375" style="126" customWidth="1"/>
-    <col min="12548" max="12548" width="20.5" style="126" customWidth="1"/>
-    <col min="12549" max="12550" width="2.875" style="126" customWidth="1"/>
-    <col min="12551" max="12551" width="2.625" style="126" customWidth="1"/>
-    <col min="12552" max="12563" width="2.875" style="126" customWidth="1"/>
-    <col min="12564" max="12800" width="9" style="126"/>
-    <col min="12801" max="12801" width="10.5" style="126" customWidth="1"/>
-    <col min="12802" max="12802" width="13.375" style="126" customWidth="1"/>
-    <col min="12803" max="12803" width="15.375" style="126" customWidth="1"/>
-    <col min="12804" max="12804" width="20.5" style="126" customWidth="1"/>
-    <col min="12805" max="12806" width="2.875" style="126" customWidth="1"/>
-    <col min="12807" max="12807" width="2.625" style="126" customWidth="1"/>
-    <col min="12808" max="12819" width="2.875" style="126" customWidth="1"/>
-    <col min="12820" max="13056" width="9" style="126"/>
-    <col min="13057" max="13057" width="10.5" style="126" customWidth="1"/>
-    <col min="13058" max="13058" width="13.375" style="126" customWidth="1"/>
-    <col min="13059" max="13059" width="15.375" style="126" customWidth="1"/>
-    <col min="13060" max="13060" width="20.5" style="126" customWidth="1"/>
-    <col min="13061" max="13062" width="2.875" style="126" customWidth="1"/>
-    <col min="13063" max="13063" width="2.625" style="126" customWidth="1"/>
-    <col min="13064" max="13075" width="2.875" style="126" customWidth="1"/>
-    <col min="13076" max="13312" width="9" style="126"/>
-    <col min="13313" max="13313" width="10.5" style="126" customWidth="1"/>
-    <col min="13314" max="13314" width="13.375" style="126" customWidth="1"/>
-    <col min="13315" max="13315" width="15.375" style="126" customWidth="1"/>
-    <col min="13316" max="13316" width="20.5" style="126" customWidth="1"/>
-    <col min="13317" max="13318" width="2.875" style="126" customWidth="1"/>
-    <col min="13319" max="13319" width="2.625" style="126" customWidth="1"/>
-    <col min="13320" max="13331" width="2.875" style="126" customWidth="1"/>
-    <col min="13332" max="13568" width="9" style="126"/>
-    <col min="13569" max="13569" width="10.5" style="126" customWidth="1"/>
-    <col min="13570" max="13570" width="13.375" style="126" customWidth="1"/>
-    <col min="13571" max="13571" width="15.375" style="126" customWidth="1"/>
-    <col min="13572" max="13572" width="20.5" style="126" customWidth="1"/>
-    <col min="13573" max="13574" width="2.875" style="126" customWidth="1"/>
-    <col min="13575" max="13575" width="2.625" style="126" customWidth="1"/>
-    <col min="13576" max="13587" width="2.875" style="126" customWidth="1"/>
-    <col min="13588" max="13824" width="9" style="126"/>
-    <col min="13825" max="13825" width="10.5" style="126" customWidth="1"/>
-    <col min="13826" max="13826" width="13.375" style="126" customWidth="1"/>
-    <col min="13827" max="13827" width="15.375" style="126" customWidth="1"/>
-    <col min="13828" max="13828" width="20.5" style="126" customWidth="1"/>
-    <col min="13829" max="13830" width="2.875" style="126" customWidth="1"/>
-    <col min="13831" max="13831" width="2.625" style="126" customWidth="1"/>
-    <col min="13832" max="13843" width="2.875" style="126" customWidth="1"/>
-    <col min="13844" max="14080" width="9" style="126"/>
-    <col min="14081" max="14081" width="10.5" style="126" customWidth="1"/>
-    <col min="14082" max="14082" width="13.375" style="126" customWidth="1"/>
-    <col min="14083" max="14083" width="15.375" style="126" customWidth="1"/>
-    <col min="14084" max="14084" width="20.5" style="126" customWidth="1"/>
-    <col min="14085" max="14086" width="2.875" style="126" customWidth="1"/>
-    <col min="14087" max="14087" width="2.625" style="126" customWidth="1"/>
-    <col min="14088" max="14099" width="2.875" style="126" customWidth="1"/>
-    <col min="14100" max="14336" width="9" style="126"/>
-    <col min="14337" max="14337" width="10.5" style="126" customWidth="1"/>
-    <col min="14338" max="14338" width="13.375" style="126" customWidth="1"/>
-    <col min="14339" max="14339" width="15.375" style="126" customWidth="1"/>
-    <col min="14340" max="14340" width="20.5" style="126" customWidth="1"/>
-    <col min="14341" max="14342" width="2.875" style="126" customWidth="1"/>
-    <col min="14343" max="14343" width="2.625" style="126" customWidth="1"/>
-    <col min="14344" max="14355" width="2.875" style="126" customWidth="1"/>
-    <col min="14356" max="14592" width="9" style="126"/>
-    <col min="14593" max="14593" width="10.5" style="126" customWidth="1"/>
-    <col min="14594" max="14594" width="13.375" style="126" customWidth="1"/>
-    <col min="14595" max="14595" width="15.375" style="126" customWidth="1"/>
-    <col min="14596" max="14596" width="20.5" style="126" customWidth="1"/>
-    <col min="14597" max="14598" width="2.875" style="126" customWidth="1"/>
-    <col min="14599" max="14599" width="2.625" style="126" customWidth="1"/>
-    <col min="14600" max="14611" width="2.875" style="126" customWidth="1"/>
-    <col min="14612" max="14848" width="9" style="126"/>
-    <col min="14849" max="14849" width="10.5" style="126" customWidth="1"/>
-    <col min="14850" max="14850" width="13.375" style="126" customWidth="1"/>
-    <col min="14851" max="14851" width="15.375" style="126" customWidth="1"/>
-    <col min="14852" max="14852" width="20.5" style="126" customWidth="1"/>
-    <col min="14853" max="14854" width="2.875" style="126" customWidth="1"/>
-    <col min="14855" max="14855" width="2.625" style="126" customWidth="1"/>
-    <col min="14856" max="14867" width="2.875" style="126" customWidth="1"/>
-    <col min="14868" max="15104" width="9" style="126"/>
-    <col min="15105" max="15105" width="10.5" style="126" customWidth="1"/>
-    <col min="15106" max="15106" width="13.375" style="126" customWidth="1"/>
-    <col min="15107" max="15107" width="15.375" style="126" customWidth="1"/>
-    <col min="15108" max="15108" width="20.5" style="126" customWidth="1"/>
-    <col min="15109" max="15110" width="2.875" style="126" customWidth="1"/>
-    <col min="15111" max="15111" width="2.625" style="126" customWidth="1"/>
-    <col min="15112" max="15123" width="2.875" style="126" customWidth="1"/>
-    <col min="15124" max="15360" width="9" style="126"/>
-    <col min="15361" max="15361" width="10.5" style="126" customWidth="1"/>
-    <col min="15362" max="15362" width="13.375" style="126" customWidth="1"/>
-    <col min="15363" max="15363" width="15.375" style="126" customWidth="1"/>
-    <col min="15364" max="15364" width="20.5" style="126" customWidth="1"/>
-    <col min="15365" max="15366" width="2.875" style="126" customWidth="1"/>
-    <col min="15367" max="15367" width="2.625" style="126" customWidth="1"/>
-    <col min="15368" max="15379" width="2.875" style="126" customWidth="1"/>
-    <col min="15380" max="15616" width="9" style="126"/>
-    <col min="15617" max="15617" width="10.5" style="126" customWidth="1"/>
-    <col min="15618" max="15618" width="13.375" style="126" customWidth="1"/>
-    <col min="15619" max="15619" width="15.375" style="126" customWidth="1"/>
-    <col min="15620" max="15620" width="20.5" style="126" customWidth="1"/>
-    <col min="15621" max="15622" width="2.875" style="126" customWidth="1"/>
-    <col min="15623" max="15623" width="2.625" style="126" customWidth="1"/>
-    <col min="15624" max="15635" width="2.875" style="126" customWidth="1"/>
-    <col min="15636" max="15872" width="9" style="126"/>
-    <col min="15873" max="15873" width="10.5" style="126" customWidth="1"/>
-    <col min="15874" max="15874" width="13.375" style="126" customWidth="1"/>
-    <col min="15875" max="15875" width="15.375" style="126" customWidth="1"/>
-    <col min="15876" max="15876" width="20.5" style="126" customWidth="1"/>
-    <col min="15877" max="15878" width="2.875" style="126" customWidth="1"/>
-    <col min="15879" max="15879" width="2.625" style="126" customWidth="1"/>
-    <col min="15880" max="15891" width="2.875" style="126" customWidth="1"/>
-    <col min="15892" max="16128" width="9" style="126"/>
-    <col min="16129" max="16129" width="10.5" style="126" customWidth="1"/>
-    <col min="16130" max="16130" width="13.375" style="126" customWidth="1"/>
-    <col min="16131" max="16131" width="15.375" style="126" customWidth="1"/>
-    <col min="16132" max="16132" width="20.5" style="126" customWidth="1"/>
-    <col min="16133" max="16134" width="2.875" style="126" customWidth="1"/>
-    <col min="16135" max="16135" width="2.625" style="126" customWidth="1"/>
-    <col min="16136" max="16147" width="2.875" style="126" customWidth="1"/>
-    <col min="16148" max="16384" width="9" style="126"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A1" s="70"/>
-      <c r="B1" s="71"/>
-    </row>
-    <row r="2" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A2" s="193" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="194"/>
-      <c r="C2" s="195" t="s">
-        <v>117</v>
-      </c>
-      <c r="D2" s="196"/>
-      <c r="E2" s="197" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="198"/>
-      <c r="G2" s="198"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="200" t="str">
-        <f>C2</f>
-        <v>GetLastDonateInformation</v>
-      </c>
-      <c r="J2" s="201"/>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="201"/>
-      <c r="N2" s="201"/>
-      <c r="O2" s="201"/>
-      <c r="P2" s="201"/>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="202"/>
-      <c r="T2" s="73"/>
-    </row>
-    <row r="3" spans="1:20" ht="30" customHeight="1">
-      <c r="A3" s="203" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="204"/>
-      <c r="C3" s="205" t="str">
-        <f>Cover!F4</f>
-        <v>TuanhaSE03108</v>
-      </c>
-      <c r="D3" s="206"/>
-      <c r="E3" s="207" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="208"/>
-      <c r="G3" s="208"/>
-      <c r="H3" s="209"/>
-      <c r="I3" s="210" t="str">
-        <f>C3</f>
-        <v>TuanhaSE03108</v>
-      </c>
-      <c r="J3" s="211"/>
-      <c r="K3" s="211"/>
-      <c r="L3" s="211"/>
-      <c r="M3" s="211"/>
-      <c r="N3" s="211"/>
-      <c r="O3" s="211"/>
-      <c r="P3" s="211"/>
-      <c r="Q3" s="211"/>
-      <c r="R3" s="212"/>
-    </row>
-    <row r="4" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A4" s="203" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="204"/>
-      <c r="C4" s="213"/>
-      <c r="D4" s="213"/>
-      <c r="E4" s="214"/>
-      <c r="F4" s="214"/>
-      <c r="G4" s="214"/>
-      <c r="H4" s="214"/>
-      <c r="I4" s="213"/>
-      <c r="J4" s="213"/>
-      <c r="K4" s="213"/>
-      <c r="L4" s="213"/>
-      <c r="M4" s="213"/>
-      <c r="N4" s="213"/>
-      <c r="O4" s="213"/>
-      <c r="P4" s="213"/>
-      <c r="Q4" s="213"/>
-      <c r="R4" s="215"/>
-    </row>
-    <row r="5" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A5" s="216" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="217"/>
-      <c r="C5" s="218" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="219"/>
-      <c r="E5" s="220" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="219"/>
-      <c r="G5" s="219"/>
-      <c r="H5" s="221"/>
-      <c r="I5" s="219" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" s="219"/>
-      <c r="K5" s="219"/>
-      <c r="L5" s="220" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="219"/>
-      <c r="N5" s="219"/>
-      <c r="O5" s="219"/>
-      <c r="P5" s="219"/>
-      <c r="Q5" s="219"/>
-      <c r="R5" s="222"/>
-      <c r="T5" s="73"/>
-    </row>
-    <row r="6" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="226">
-        <f>COUNTIF(E20:HM20,"P")</f>
-        <v>2</v>
-      </c>
-      <c r="B6" s="227"/>
-      <c r="C6" s="228">
-        <f>COUNTIF(E20:HO20,"F")</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="229"/>
-      <c r="E6" s="230">
-        <f>SUM(L6,- A6,- C6)</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="229"/>
-      <c r="G6" s="229"/>
-      <c r="H6" s="231"/>
-      <c r="I6" s="117">
-        <f>COUNTIF(E19:HM19,"N")</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="117">
-        <f>COUNTIF(E19:HM19,"A")</f>
-        <v>2</v>
-      </c>
-      <c r="K6" s="117">
-        <f>COUNTIF(E19:HM19,"B")</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="230">
-        <f>COUNTA(E8:P8)</f>
-        <v>2</v>
-      </c>
-      <c r="M6" s="229"/>
-      <c r="N6" s="229"/>
-      <c r="O6" s="229"/>
-      <c r="P6" s="229"/>
-      <c r="Q6" s="229"/>
-      <c r="R6" s="232"/>
-      <c r="S6" s="118"/>
-    </row>
-    <row r="7" spans="1:20" ht="11.25" thickBot="1"/>
-    <row r="8" spans="1:20" ht="46.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A8" s="146"/>
-      <c r="B8" s="142"/>
-      <c r="C8" s="143"/>
-      <c r="D8" s="144"/>
-      <c r="E8" s="145" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="145" t="s">
-        <v>110</v>
-      </c>
-      <c r="G8" s="145"/>
-      <c r="H8" s="145"/>
-      <c r="I8" s="145"/>
-      <c r="J8" s="145"/>
-      <c r="K8" s="145"/>
-      <c r="L8" s="145"/>
-      <c r="M8" s="145"/>
-      <c r="N8" s="145"/>
-      <c r="O8" s="145"/>
-      <c r="P8" s="145"/>
-      <c r="Q8" s="145"/>
-      <c r="R8" s="158"/>
-      <c r="S8" s="118"/>
-    </row>
-    <row r="9" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A9" s="135" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" s="139" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" s="140"/>
-      <c r="D9" s="141"/>
-      <c r="E9" s="134" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="134" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="134"/>
-      <c r="H9" s="147"/>
-      <c r="I9" s="147"/>
-      <c r="J9" s="147"/>
-      <c r="K9" s="147"/>
-      <c r="L9" s="147"/>
-      <c r="M9" s="149"/>
-      <c r="N9" s="149"/>
-      <c r="O9" s="149"/>
-      <c r="P9" s="149"/>
-      <c r="Q9" s="149"/>
-      <c r="R9" s="147"/>
-    </row>
-    <row r="10" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A10" s="135"/>
-      <c r="B10" s="139" t="s">
-        <v>131</v>
-      </c>
-      <c r="C10" s="140"/>
-      <c r="D10" s="141"/>
-      <c r="E10" s="148" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="148" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="148"/>
-      <c r="H10" s="147"/>
-      <c r="I10" s="147"/>
-      <c r="J10" s="147"/>
-      <c r="K10" s="147"/>
-      <c r="L10" s="147"/>
-      <c r="M10" s="149"/>
-      <c r="N10" s="149"/>
-      <c r="O10" s="149"/>
-      <c r="P10" s="149"/>
-      <c r="Q10" s="149"/>
-      <c r="R10" s="147"/>
-    </row>
-    <row r="11" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A11" s="138" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="166" t="s">
-        <v>128</v>
-      </c>
-      <c r="C11" s="140"/>
-      <c r="D11" s="141"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="147"/>
-      <c r="G11" s="147"/>
-      <c r="H11" s="147"/>
-      <c r="I11" s="147"/>
-      <c r="J11" s="147"/>
-      <c r="K11" s="147"/>
-      <c r="L11" s="147"/>
-      <c r="M11" s="149"/>
-      <c r="N11" s="149"/>
-      <c r="O11" s="149"/>
-      <c r="P11" s="149"/>
-      <c r="Q11" s="149"/>
-      <c r="R11" s="147"/>
-    </row>
-    <row r="12" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A12" s="135"/>
-      <c r="B12" s="139"/>
-      <c r="C12" s="140"/>
-      <c r="D12" s="141">
-        <v>3</v>
-      </c>
-      <c r="E12" s="148" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="148"/>
-      <c r="G12" s="147"/>
-      <c r="H12" s="147"/>
-      <c r="I12" s="147"/>
-      <c r="J12" s="147"/>
-      <c r="K12" s="147"/>
-      <c r="L12" s="147"/>
-      <c r="M12" s="149"/>
-      <c r="N12" s="149"/>
-      <c r="O12" s="149"/>
-      <c r="P12" s="149"/>
-      <c r="Q12" s="149"/>
-      <c r="R12" s="147"/>
-    </row>
-    <row r="13" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A13" s="135"/>
-      <c r="B13" s="139"/>
-      <c r="C13" s="140"/>
-      <c r="D13" s="141">
-        <v>19</v>
-      </c>
-      <c r="E13" s="148"/>
-      <c r="F13" s="148" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" s="147"/>
-      <c r="I13" s="147"/>
-      <c r="J13" s="147"/>
-      <c r="K13" s="147"/>
-      <c r="L13" s="147"/>
-      <c r="M13" s="149"/>
-      <c r="N13" s="149"/>
-      <c r="O13" s="149"/>
-      <c r="P13" s="149"/>
-      <c r="Q13" s="149"/>
-      <c r="R13" s="147"/>
-    </row>
-    <row r="14" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A14" s="135"/>
-      <c r="B14" s="159"/>
-      <c r="C14" s="160"/>
-      <c r="D14" s="161"/>
-      <c r="E14" s="162"/>
-      <c r="F14" s="162"/>
-      <c r="G14" s="162"/>
-      <c r="H14" s="162"/>
-      <c r="I14" s="162"/>
-      <c r="J14" s="162"/>
-      <c r="K14" s="162"/>
-      <c r="L14" s="162"/>
-      <c r="M14" s="163"/>
-      <c r="N14" s="163"/>
-      <c r="O14" s="163"/>
-      <c r="P14" s="163"/>
-      <c r="Q14" s="163"/>
-      <c r="R14" s="162"/>
-    </row>
-    <row r="15" spans="1:20" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A15" s="137" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="127"/>
-      <c r="C15" s="128"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="148"/>
-      <c r="F15" s="148"/>
-      <c r="G15" s="148"/>
-      <c r="H15" s="148"/>
-      <c r="I15" s="148"/>
-      <c r="J15" s="148"/>
-      <c r="K15" s="148"/>
-      <c r="L15" s="148"/>
-      <c r="M15" s="151"/>
-      <c r="N15" s="151"/>
-      <c r="O15" s="151"/>
-      <c r="P15" s="151"/>
-      <c r="Q15" s="151"/>
-      <c r="R15" s="148"/>
-    </row>
-    <row r="16" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A16" s="136"/>
-      <c r="B16" s="130" t="s">
-        <v>113</v>
-      </c>
-      <c r="C16" s="131"/>
-      <c r="D16" s="132"/>
-      <c r="E16" s="148"/>
-      <c r="F16" s="148" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16" s="134"/>
-      <c r="H16" s="134"/>
-      <c r="I16" s="134"/>
-      <c r="J16" s="134"/>
-      <c r="K16" s="134"/>
-      <c r="L16" s="134"/>
-      <c r="M16" s="150"/>
-      <c r="N16" s="150"/>
-      <c r="O16" s="150"/>
-      <c r="P16" s="150"/>
-      <c r="Q16" s="150"/>
-      <c r="R16" s="134"/>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="136"/>
-      <c r="B17" s="130" t="s">
-        <v>129</v>
-      </c>
-      <c r="C17" s="131"/>
-      <c r="D17" s="132"/>
-      <c r="E17" s="148" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="148"/>
-      <c r="G17" s="134"/>
-      <c r="H17" s="134"/>
-      <c r="I17" s="134"/>
-      <c r="J17" s="134"/>
-      <c r="K17" s="134"/>
-      <c r="L17" s="134"/>
-      <c r="M17" s="150"/>
-      <c r="N17" s="150"/>
-      <c r="O17" s="150"/>
-      <c r="P17" s="150"/>
-      <c r="Q17" s="150"/>
-      <c r="R17" s="134"/>
-    </row>
-    <row r="18" spans="1:18" ht="11.25" thickBot="1">
-      <c r="A18" s="136"/>
-      <c r="B18" s="127"/>
-      <c r="C18" s="164"/>
-      <c r="D18" s="165"/>
-      <c r="E18" s="152"/>
-      <c r="F18" s="152"/>
-      <c r="G18" s="152"/>
-      <c r="H18" s="152"/>
-      <c r="I18" s="152"/>
-      <c r="J18" s="152"/>
-      <c r="K18" s="152"/>
-      <c r="L18" s="152"/>
-      <c r="M18" s="155"/>
-      <c r="N18" s="155"/>
-      <c r="O18" s="155"/>
-      <c r="P18" s="155"/>
-      <c r="Q18" s="155"/>
-      <c r="R18" s="156"/>
-    </row>
-    <row r="19" spans="1:18" ht="11.25" thickTop="1">
-      <c r="A19" s="137" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="233" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="234"/>
-      <c r="D19" s="235"/>
-      <c r="E19" s="157" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="157" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="157"/>
-      <c r="H19" s="157"/>
-      <c r="I19" s="157"/>
-      <c r="J19" s="157"/>
-      <c r="K19" s="157"/>
-      <c r="L19" s="157"/>
-      <c r="M19" s="157"/>
-      <c r="N19" s="157"/>
-      <c r="O19" s="157"/>
-      <c r="P19" s="157"/>
-      <c r="Q19" s="157"/>
-      <c r="R19" s="157"/>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="A20" s="136"/>
-      <c r="B20" s="236" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="237"/>
-      <c r="D20" s="238"/>
-      <c r="E20" s="134" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="134" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="134"/>
-      <c r="H20" s="134"/>
-      <c r="I20" s="134"/>
-      <c r="J20" s="134"/>
-      <c r="K20" s="134"/>
-      <c r="L20" s="134"/>
-      <c r="M20" s="134"/>
-      <c r="N20" s="134"/>
-      <c r="O20" s="134"/>
-      <c r="P20" s="134"/>
-      <c r="Q20" s="134"/>
-      <c r="R20" s="134"/>
-    </row>
-    <row r="21" spans="1:18" ht="54">
-      <c r="A21" s="136"/>
-      <c r="B21" s="223" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="224"/>
-      <c r="D21" s="225"/>
-      <c r="E21" s="133">
-        <v>42594</v>
-      </c>
-      <c r="F21" s="133">
-        <v>42594</v>
-      </c>
-      <c r="G21" s="133"/>
-      <c r="H21" s="133"/>
-      <c r="I21" s="133"/>
-      <c r="J21" s="133"/>
-      <c r="K21" s="133"/>
-      <c r="L21" s="133"/>
-      <c r="M21" s="133"/>
-      <c r="N21" s="133"/>
-      <c r="O21" s="133"/>
-      <c r="P21" s="133"/>
-      <c r="Q21" s="133"/>
-      <c r="R21" s="133"/>
-    </row>
-    <row r="22" spans="1:18">
-      <c r="A22" s="96"/>
-    </row>
-    <row r="33" s="126" customFormat="1"/>
-    <row r="34" s="126" customFormat="1"/>
-    <row r="35" s="126" customFormat="1"/>
-    <row r="36" s="126" customFormat="1"/>
-    <row r="37" s="126" customFormat="1"/>
-    <row r="38" s="126" customFormat="1"/>
-    <row r="39" s="126" customFormat="1"/>
-    <row r="40" s="126" customFormat="1"/>
-    <row r="41" s="126" customFormat="1"/>
-    <row r="42" s="126" customFormat="1"/>
-    <row r="43" s="126" customFormat="1"/>
-    <row r="44" s="126" customFormat="1"/>
-    <row r="45" s="126" customFormat="1"/>
-    <row r="46" s="126" customFormat="1"/>
-    <row r="47" s="126" customFormat="1"/>
-    <row r="48" s="126" customFormat="1"/>
-    <row r="49" s="126" customFormat="1"/>
-    <row r="50" s="126" customFormat="1"/>
-    <row r="51" s="126" customFormat="1"/>
-    <row r="52" s="126" customFormat="1"/>
-  </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="L6:R6"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:R4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:R5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="I2:R2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:R3"/>
-  </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E19:R19 JA19:JN19 SW19:TJ19 ACS19:ADF19 AMO19:ANB19 AWK19:AWX19 BGG19:BGT19 BQC19:BQP19 BZY19:CAL19 CJU19:CKH19 CTQ19:CUD19 DDM19:DDZ19 DNI19:DNV19 DXE19:DXR19 EHA19:EHN19 EQW19:ERJ19 FAS19:FBF19 FKO19:FLB19 FUK19:FUX19 GEG19:GET19 GOC19:GOP19 GXY19:GYL19 HHU19:HIH19 HRQ19:HSD19 IBM19:IBZ19 ILI19:ILV19 IVE19:IVR19 JFA19:JFN19 JOW19:JPJ19 JYS19:JZF19 KIO19:KJB19 KSK19:KSX19 LCG19:LCT19 LMC19:LMP19 LVY19:LWL19 MFU19:MGH19 MPQ19:MQD19 MZM19:MZZ19 NJI19:NJV19 NTE19:NTR19 ODA19:ODN19 OMW19:ONJ19 OWS19:OXF19 PGO19:PHB19 PQK19:PQX19 QAG19:QAT19 QKC19:QKP19 QTY19:QUL19 RDU19:REH19 RNQ19:ROD19 RXM19:RXZ19 SHI19:SHV19 SRE19:SRR19 TBA19:TBN19 TKW19:TLJ19 TUS19:TVF19 UEO19:UFB19 UOK19:UOX19 UYG19:UYT19 VIC19:VIP19 VRY19:VSL19 WBU19:WCH19 WLQ19:WMD19 WVM19:WVZ19 E65555:R65555 JA65555:JN65555 SW65555:TJ65555 ACS65555:ADF65555 AMO65555:ANB65555 AWK65555:AWX65555 BGG65555:BGT65555 BQC65555:BQP65555 BZY65555:CAL65555 CJU65555:CKH65555 CTQ65555:CUD65555 DDM65555:DDZ65555 DNI65555:DNV65555 DXE65555:DXR65555 EHA65555:EHN65555 EQW65555:ERJ65555 FAS65555:FBF65555 FKO65555:FLB65555 FUK65555:FUX65555 GEG65555:GET65555 GOC65555:GOP65555 GXY65555:GYL65555 HHU65555:HIH65555 HRQ65555:HSD65555 IBM65555:IBZ65555 ILI65555:ILV65555 IVE65555:IVR65555 JFA65555:JFN65555 JOW65555:JPJ65555 JYS65555:JZF65555 KIO65555:KJB65555 KSK65555:KSX65555 LCG65555:LCT65555 LMC65555:LMP65555 LVY65555:LWL65555 MFU65555:MGH65555 MPQ65555:MQD65555 MZM65555:MZZ65555 NJI65555:NJV65555 NTE65555:NTR65555 ODA65555:ODN65555 OMW65555:ONJ65555 OWS65555:OXF65555 PGO65555:PHB65555 PQK65555:PQX65555 QAG65555:QAT65555 QKC65555:QKP65555 QTY65555:QUL65555 RDU65555:REH65555 RNQ65555:ROD65555 RXM65555:RXZ65555 SHI65555:SHV65555 SRE65555:SRR65555 TBA65555:TBN65555 TKW65555:TLJ65555 TUS65555:TVF65555 UEO65555:UFB65555 UOK65555:UOX65555 UYG65555:UYT65555 VIC65555:VIP65555 VRY65555:VSL65555 WBU65555:WCH65555 WLQ65555:WMD65555 WVM65555:WVZ65555 E131091:R131091 JA131091:JN131091 SW131091:TJ131091 ACS131091:ADF131091 AMO131091:ANB131091 AWK131091:AWX131091 BGG131091:BGT131091 BQC131091:BQP131091 BZY131091:CAL131091 CJU131091:CKH131091 CTQ131091:CUD131091 DDM131091:DDZ131091 DNI131091:DNV131091 DXE131091:DXR131091 EHA131091:EHN131091 EQW131091:ERJ131091 FAS131091:FBF131091 FKO131091:FLB131091 FUK131091:FUX131091 GEG131091:GET131091 GOC131091:GOP131091 GXY131091:GYL131091 HHU131091:HIH131091 HRQ131091:HSD131091 IBM131091:IBZ131091 ILI131091:ILV131091 IVE131091:IVR131091 JFA131091:JFN131091 JOW131091:JPJ131091 JYS131091:JZF131091 KIO131091:KJB131091 KSK131091:KSX131091 LCG131091:LCT131091 LMC131091:LMP131091 LVY131091:LWL131091 MFU131091:MGH131091 MPQ131091:MQD131091 MZM131091:MZZ131091 NJI131091:NJV131091 NTE131091:NTR131091 ODA131091:ODN131091 OMW131091:ONJ131091 OWS131091:OXF131091 PGO131091:PHB131091 PQK131091:PQX131091 QAG131091:QAT131091 QKC131091:QKP131091 QTY131091:QUL131091 RDU131091:REH131091 RNQ131091:ROD131091 RXM131091:RXZ131091 SHI131091:SHV131091 SRE131091:SRR131091 TBA131091:TBN131091 TKW131091:TLJ131091 TUS131091:TVF131091 UEO131091:UFB131091 UOK131091:UOX131091 UYG131091:UYT131091 VIC131091:VIP131091 VRY131091:VSL131091 WBU131091:WCH131091 WLQ131091:WMD131091 WVM131091:WVZ131091 E196627:R196627 JA196627:JN196627 SW196627:TJ196627 ACS196627:ADF196627 AMO196627:ANB196627 AWK196627:AWX196627 BGG196627:BGT196627 BQC196627:BQP196627 BZY196627:CAL196627 CJU196627:CKH196627 CTQ196627:CUD196627 DDM196627:DDZ196627 DNI196627:DNV196627 DXE196627:DXR196627 EHA196627:EHN196627 EQW196627:ERJ196627 FAS196627:FBF196627 FKO196627:FLB196627 FUK196627:FUX196627 GEG196627:GET196627 GOC196627:GOP196627 GXY196627:GYL196627 HHU196627:HIH196627 HRQ196627:HSD196627 IBM196627:IBZ196627 ILI196627:ILV196627 IVE196627:IVR196627 JFA196627:JFN196627 JOW196627:JPJ196627 JYS196627:JZF196627 KIO196627:KJB196627 KSK196627:KSX196627 LCG196627:LCT196627 LMC196627:LMP196627 LVY196627:LWL196627 MFU196627:MGH196627 MPQ196627:MQD196627 MZM196627:MZZ196627 NJI196627:NJV196627 NTE196627:NTR196627 ODA196627:ODN196627 OMW196627:ONJ196627 OWS196627:OXF196627 PGO196627:PHB196627 PQK196627:PQX196627 QAG196627:QAT196627 QKC196627:QKP196627 QTY196627:QUL196627 RDU196627:REH196627 RNQ196627:ROD196627 RXM196627:RXZ196627 SHI196627:SHV196627 SRE196627:SRR196627 TBA196627:TBN196627 TKW196627:TLJ196627 TUS196627:TVF196627 UEO196627:UFB196627 UOK196627:UOX196627 UYG196627:UYT196627 VIC196627:VIP196627 VRY196627:VSL196627 WBU196627:WCH196627 WLQ196627:WMD196627 WVM196627:WVZ196627 E262163:R262163 JA262163:JN262163 SW262163:TJ262163 ACS262163:ADF262163 AMO262163:ANB262163 AWK262163:AWX262163 BGG262163:BGT262163 BQC262163:BQP262163 BZY262163:CAL262163 CJU262163:CKH262163 CTQ262163:CUD262163 DDM262163:DDZ262163 DNI262163:DNV262163 DXE262163:DXR262163 EHA262163:EHN262163 EQW262163:ERJ262163 FAS262163:FBF262163 FKO262163:FLB262163 FUK262163:FUX262163 GEG262163:GET262163 GOC262163:GOP262163 GXY262163:GYL262163 HHU262163:HIH262163 HRQ262163:HSD262163 IBM262163:IBZ262163 ILI262163:ILV262163 IVE262163:IVR262163 JFA262163:JFN262163 JOW262163:JPJ262163 JYS262163:JZF262163 KIO262163:KJB262163 KSK262163:KSX262163 LCG262163:LCT262163 LMC262163:LMP262163 LVY262163:LWL262163 MFU262163:MGH262163 MPQ262163:MQD262163 MZM262163:MZZ262163 NJI262163:NJV262163 NTE262163:NTR262163 ODA262163:ODN262163 OMW262163:ONJ262163 OWS262163:OXF262163 PGO262163:PHB262163 PQK262163:PQX262163 QAG262163:QAT262163 QKC262163:QKP262163 QTY262163:QUL262163 RDU262163:REH262163 RNQ262163:ROD262163 RXM262163:RXZ262163 SHI262163:SHV262163 SRE262163:SRR262163 TBA262163:TBN262163 TKW262163:TLJ262163 TUS262163:TVF262163 UEO262163:UFB262163 UOK262163:UOX262163 UYG262163:UYT262163 VIC262163:VIP262163 VRY262163:VSL262163 WBU262163:WCH262163 WLQ262163:WMD262163 WVM262163:WVZ262163 E327699:R327699 JA327699:JN327699 SW327699:TJ327699 ACS327699:ADF327699 AMO327699:ANB327699 AWK327699:AWX327699 BGG327699:BGT327699 BQC327699:BQP327699 BZY327699:CAL327699 CJU327699:CKH327699 CTQ327699:CUD327699 DDM327699:DDZ327699 DNI327699:DNV327699 DXE327699:DXR327699 EHA327699:EHN327699 EQW327699:ERJ327699 FAS327699:FBF327699 FKO327699:FLB327699 FUK327699:FUX327699 GEG327699:GET327699 GOC327699:GOP327699 GXY327699:GYL327699 HHU327699:HIH327699 HRQ327699:HSD327699 IBM327699:IBZ327699 ILI327699:ILV327699 IVE327699:IVR327699 JFA327699:JFN327699 JOW327699:JPJ327699 JYS327699:JZF327699 KIO327699:KJB327699 KSK327699:KSX327699 LCG327699:LCT327699 LMC327699:LMP327699 LVY327699:LWL327699 MFU327699:MGH327699 MPQ327699:MQD327699 MZM327699:MZZ327699 NJI327699:NJV327699 NTE327699:NTR327699 ODA327699:ODN327699 OMW327699:ONJ327699 OWS327699:OXF327699 PGO327699:PHB327699 PQK327699:PQX327699 QAG327699:QAT327699 QKC327699:QKP327699 QTY327699:QUL327699 RDU327699:REH327699 RNQ327699:ROD327699 RXM327699:RXZ327699 SHI327699:SHV327699 SRE327699:SRR327699 TBA327699:TBN327699 TKW327699:TLJ327699 TUS327699:TVF327699 UEO327699:UFB327699 UOK327699:UOX327699 UYG327699:UYT327699 VIC327699:VIP327699 VRY327699:VSL327699 WBU327699:WCH327699 WLQ327699:WMD327699 WVM327699:WVZ327699 E393235:R393235 JA393235:JN393235 SW393235:TJ393235 ACS393235:ADF393235 AMO393235:ANB393235 AWK393235:AWX393235 BGG393235:BGT393235 BQC393235:BQP393235 BZY393235:CAL393235 CJU393235:CKH393235 CTQ393235:CUD393235 DDM393235:DDZ393235 DNI393235:DNV393235 DXE393235:DXR393235 EHA393235:EHN393235 EQW393235:ERJ393235 FAS393235:FBF393235 FKO393235:FLB393235 FUK393235:FUX393235 GEG393235:GET393235 GOC393235:GOP393235 GXY393235:GYL393235 HHU393235:HIH393235 HRQ393235:HSD393235 IBM393235:IBZ393235 ILI393235:ILV393235 IVE393235:IVR393235 JFA393235:JFN393235 JOW393235:JPJ393235 JYS393235:JZF393235 KIO393235:KJB393235 KSK393235:KSX393235 LCG393235:LCT393235 LMC393235:LMP393235 LVY393235:LWL393235 MFU393235:MGH393235 MPQ393235:MQD393235 MZM393235:MZZ393235 NJI393235:NJV393235 NTE393235:NTR393235 ODA393235:ODN393235 OMW393235:ONJ393235 OWS393235:OXF393235 PGO393235:PHB393235 PQK393235:PQX393235 QAG393235:QAT393235 QKC393235:QKP393235 QTY393235:QUL393235 RDU393235:REH393235 RNQ393235:ROD393235 RXM393235:RXZ393235 SHI393235:SHV393235 SRE393235:SRR393235 TBA393235:TBN393235 TKW393235:TLJ393235 TUS393235:TVF393235 UEO393235:UFB393235 UOK393235:UOX393235 UYG393235:UYT393235 VIC393235:VIP393235 VRY393235:VSL393235 WBU393235:WCH393235 WLQ393235:WMD393235 WVM393235:WVZ393235 E458771:R458771 JA458771:JN458771 SW458771:TJ458771 ACS458771:ADF458771 AMO458771:ANB458771 AWK458771:AWX458771 BGG458771:BGT458771 BQC458771:BQP458771 BZY458771:CAL458771 CJU458771:CKH458771 CTQ458771:CUD458771 DDM458771:DDZ458771 DNI458771:DNV458771 DXE458771:DXR458771 EHA458771:EHN458771 EQW458771:ERJ458771 FAS458771:FBF458771 FKO458771:FLB458771 FUK458771:FUX458771 GEG458771:GET458771 GOC458771:GOP458771 GXY458771:GYL458771 HHU458771:HIH458771 HRQ458771:HSD458771 IBM458771:IBZ458771 ILI458771:ILV458771 IVE458771:IVR458771 JFA458771:JFN458771 JOW458771:JPJ458771 JYS458771:JZF458771 KIO458771:KJB458771 KSK458771:KSX458771 LCG458771:LCT458771 LMC458771:LMP458771 LVY458771:LWL458771 MFU458771:MGH458771 MPQ458771:MQD458771 MZM458771:MZZ458771 NJI458771:NJV458771 NTE458771:NTR458771 ODA458771:ODN458771 OMW458771:ONJ458771 OWS458771:OXF458771 PGO458771:PHB458771 PQK458771:PQX458771 QAG458771:QAT458771 QKC458771:QKP458771 QTY458771:QUL458771 RDU458771:REH458771 RNQ458771:ROD458771 RXM458771:RXZ458771 SHI458771:SHV458771 SRE458771:SRR458771 TBA458771:TBN458771 TKW458771:TLJ458771 TUS458771:TVF458771 UEO458771:UFB458771 UOK458771:UOX458771 UYG458771:UYT458771 VIC458771:VIP458771 VRY458771:VSL458771 WBU458771:WCH458771 WLQ458771:WMD458771 WVM458771:WVZ458771 E524307:R524307 JA524307:JN524307 SW524307:TJ524307 ACS524307:ADF524307 AMO524307:ANB524307 AWK524307:AWX524307 BGG524307:BGT524307 BQC524307:BQP524307 BZY524307:CAL524307 CJU524307:CKH524307 CTQ524307:CUD524307 DDM524307:DDZ524307 DNI524307:DNV524307 DXE524307:DXR524307 EHA524307:EHN524307 EQW524307:ERJ524307 FAS524307:FBF524307 FKO524307:FLB524307 FUK524307:FUX524307 GEG524307:GET524307 GOC524307:GOP524307 GXY524307:GYL524307 HHU524307:HIH524307 HRQ524307:HSD524307 IBM524307:IBZ524307 ILI524307:ILV524307 IVE524307:IVR524307 JFA524307:JFN524307 JOW524307:JPJ524307 JYS524307:JZF524307 KIO524307:KJB524307 KSK524307:KSX524307 LCG524307:LCT524307 LMC524307:LMP524307 LVY524307:LWL524307 MFU524307:MGH524307 MPQ524307:MQD524307 MZM524307:MZZ524307 NJI524307:NJV524307 NTE524307:NTR524307 ODA524307:ODN524307 OMW524307:ONJ524307 OWS524307:OXF524307 PGO524307:PHB524307 PQK524307:PQX524307 QAG524307:QAT524307 QKC524307:QKP524307 QTY524307:QUL524307 RDU524307:REH524307 RNQ524307:ROD524307 RXM524307:RXZ524307 SHI524307:SHV524307 SRE524307:SRR524307 TBA524307:TBN524307 TKW524307:TLJ524307 TUS524307:TVF524307 UEO524307:UFB524307 UOK524307:UOX524307 UYG524307:UYT524307 VIC524307:VIP524307 VRY524307:VSL524307 WBU524307:WCH524307 WLQ524307:WMD524307 WVM524307:WVZ524307 E589843:R589843 JA589843:JN589843 SW589843:TJ589843 ACS589843:ADF589843 AMO589843:ANB589843 AWK589843:AWX589843 BGG589843:BGT589843 BQC589843:BQP589843 BZY589843:CAL589843 CJU589843:CKH589843 CTQ589843:CUD589843 DDM589843:DDZ589843 DNI589843:DNV589843 DXE589843:DXR589843 EHA589843:EHN589843 EQW589843:ERJ589843 FAS589843:FBF589843 FKO589843:FLB589843 FUK589843:FUX589843 GEG589843:GET589843 GOC589843:GOP589843 GXY589843:GYL589843 HHU589843:HIH589843 HRQ589843:HSD589843 IBM589843:IBZ589843 ILI589843:ILV589843 IVE589843:IVR589843 JFA589843:JFN589843 JOW589843:JPJ589843 JYS589843:JZF589843 KIO589843:KJB589843 KSK589843:KSX589843 LCG589843:LCT589843 LMC589843:LMP589843 LVY589843:LWL589843 MFU589843:MGH589843 MPQ589843:MQD589843 MZM589843:MZZ589843 NJI589843:NJV589843 NTE589843:NTR589843 ODA589843:ODN589843 OMW589843:ONJ589843 OWS589843:OXF589843 PGO589843:PHB589843 PQK589843:PQX589843 QAG589843:QAT589843 QKC589843:QKP589843 QTY589843:QUL589843 RDU589843:REH589843 RNQ589843:ROD589843 RXM589843:RXZ589843 SHI589843:SHV589843 SRE589843:SRR589843 TBA589843:TBN589843 TKW589843:TLJ589843 TUS589843:TVF589843 UEO589843:UFB589843 UOK589843:UOX589843 UYG589843:UYT589843 VIC589843:VIP589843 VRY589843:VSL589843 WBU589843:WCH589843 WLQ589843:WMD589843 WVM589843:WVZ589843 E655379:R655379 JA655379:JN655379 SW655379:TJ655379 ACS655379:ADF655379 AMO655379:ANB655379 AWK655379:AWX655379 BGG655379:BGT655379 BQC655379:BQP655379 BZY655379:CAL655379 CJU655379:CKH655379 CTQ655379:CUD655379 DDM655379:DDZ655379 DNI655379:DNV655379 DXE655379:DXR655379 EHA655379:EHN655379 EQW655379:ERJ655379 FAS655379:FBF655379 FKO655379:FLB655379 FUK655379:FUX655379 GEG655379:GET655379 GOC655379:GOP655379 GXY655379:GYL655379 HHU655379:HIH655379 HRQ655379:HSD655379 IBM655379:IBZ655379 ILI655379:ILV655379 IVE655379:IVR655379 JFA655379:JFN655379 JOW655379:JPJ655379 JYS655379:JZF655379 KIO655379:KJB655379 KSK655379:KSX655379 LCG655379:LCT655379 LMC655379:LMP655379 LVY655379:LWL655379 MFU655379:MGH655379 MPQ655379:MQD655379 MZM655379:MZZ655379 NJI655379:NJV655379 NTE655379:NTR655379 ODA655379:ODN655379 OMW655379:ONJ655379 OWS655379:OXF655379 PGO655379:PHB655379 PQK655379:PQX655379 QAG655379:QAT655379 QKC655379:QKP655379 QTY655379:QUL655379 RDU655379:REH655379 RNQ655379:ROD655379 RXM655379:RXZ655379 SHI655379:SHV655379 SRE655379:SRR655379 TBA655379:TBN655379 TKW655379:TLJ655379 TUS655379:TVF655379 UEO655379:UFB655379 UOK655379:UOX655379 UYG655379:UYT655379 VIC655379:VIP655379 VRY655379:VSL655379 WBU655379:WCH655379 WLQ655379:WMD655379 WVM655379:WVZ655379 E720915:R720915 JA720915:JN720915 SW720915:TJ720915 ACS720915:ADF720915 AMO720915:ANB720915 AWK720915:AWX720915 BGG720915:BGT720915 BQC720915:BQP720915 BZY720915:CAL720915 CJU720915:CKH720915 CTQ720915:CUD720915 DDM720915:DDZ720915 DNI720915:DNV720915 DXE720915:DXR720915 EHA720915:EHN720915 EQW720915:ERJ720915 FAS720915:FBF720915 FKO720915:FLB720915 FUK720915:FUX720915 GEG720915:GET720915 GOC720915:GOP720915 GXY720915:GYL720915 HHU720915:HIH720915 HRQ720915:HSD720915 IBM720915:IBZ720915 ILI720915:ILV720915 IVE720915:IVR720915 JFA720915:JFN720915 JOW720915:JPJ720915 JYS720915:JZF720915 KIO720915:KJB720915 KSK720915:KSX720915 LCG720915:LCT720915 LMC720915:LMP720915 LVY720915:LWL720915 MFU720915:MGH720915 MPQ720915:MQD720915 MZM720915:MZZ720915 NJI720915:NJV720915 NTE720915:NTR720915 ODA720915:ODN720915 OMW720915:ONJ720915 OWS720915:OXF720915 PGO720915:PHB720915 PQK720915:PQX720915 QAG720915:QAT720915 QKC720915:QKP720915 QTY720915:QUL720915 RDU720915:REH720915 RNQ720915:ROD720915 RXM720915:RXZ720915 SHI720915:SHV720915 SRE720915:SRR720915 TBA720915:TBN720915 TKW720915:TLJ720915 TUS720915:TVF720915 UEO720915:UFB720915 UOK720915:UOX720915 UYG720915:UYT720915 VIC720915:VIP720915 VRY720915:VSL720915 WBU720915:WCH720915 WLQ720915:WMD720915 WVM720915:WVZ720915 E786451:R786451 JA786451:JN786451 SW786451:TJ786451 ACS786451:ADF786451 AMO786451:ANB786451 AWK786451:AWX786451 BGG786451:BGT786451 BQC786451:BQP786451 BZY786451:CAL786451 CJU786451:CKH786451 CTQ786451:CUD786451 DDM786451:DDZ786451 DNI786451:DNV786451 DXE786451:DXR786451 EHA786451:EHN786451 EQW786451:ERJ786451 FAS786451:FBF786451 FKO786451:FLB786451 FUK786451:FUX786451 GEG786451:GET786451 GOC786451:GOP786451 GXY786451:GYL786451 HHU786451:HIH786451 HRQ786451:HSD786451 IBM786451:IBZ786451 ILI786451:ILV786451 IVE786451:IVR786451 JFA786451:JFN786451 JOW786451:JPJ786451 JYS786451:JZF786451 KIO786451:KJB786451 KSK786451:KSX786451 LCG786451:LCT786451 LMC786451:LMP786451 LVY786451:LWL786451 MFU786451:MGH786451 MPQ786451:MQD786451 MZM786451:MZZ786451 NJI786451:NJV786451 NTE786451:NTR786451 ODA786451:ODN786451 OMW786451:ONJ786451 OWS786451:OXF786451 PGO786451:PHB786451 PQK786451:PQX786451 QAG786451:QAT786451 QKC786451:QKP786451 QTY786451:QUL786451 RDU786451:REH786451 RNQ786451:ROD786451 RXM786451:RXZ786451 SHI786451:SHV786451 SRE786451:SRR786451 TBA786451:TBN786451 TKW786451:TLJ786451 TUS786451:TVF786451 UEO786451:UFB786451 UOK786451:UOX786451 UYG786451:UYT786451 VIC786451:VIP786451 VRY786451:VSL786451 WBU786451:WCH786451 WLQ786451:WMD786451 WVM786451:WVZ786451 E851987:R851987 JA851987:JN851987 SW851987:TJ851987 ACS851987:ADF851987 AMO851987:ANB851987 AWK851987:AWX851987 BGG851987:BGT851987 BQC851987:BQP851987 BZY851987:CAL851987 CJU851987:CKH851987 CTQ851987:CUD851987 DDM851987:DDZ851987 DNI851987:DNV851987 DXE851987:DXR851987 EHA851987:EHN851987 EQW851987:ERJ851987 FAS851987:FBF851987 FKO851987:FLB851987 FUK851987:FUX851987 GEG851987:GET851987 GOC851987:GOP851987 GXY851987:GYL851987 HHU851987:HIH851987 HRQ851987:HSD851987 IBM851987:IBZ851987 ILI851987:ILV851987 IVE851987:IVR851987 JFA851987:JFN851987 JOW851987:JPJ851987 JYS851987:JZF851987 KIO851987:KJB851987 KSK851987:KSX851987 LCG851987:LCT851987 LMC851987:LMP851987 LVY851987:LWL851987 MFU851987:MGH851987 MPQ851987:MQD851987 MZM851987:MZZ851987 NJI851987:NJV851987 NTE851987:NTR851987 ODA851987:ODN851987 OMW851987:ONJ851987 OWS851987:OXF851987 PGO851987:PHB851987 PQK851987:PQX851987 QAG851987:QAT851987 QKC851987:QKP851987 QTY851987:QUL851987 RDU851987:REH851987 RNQ851987:ROD851987 RXM851987:RXZ851987 SHI851987:SHV851987 SRE851987:SRR851987 TBA851987:TBN851987 TKW851987:TLJ851987 TUS851987:TVF851987 UEO851987:UFB851987 UOK851987:UOX851987 UYG851987:UYT851987 VIC851987:VIP851987 VRY851987:VSL851987 WBU851987:WCH851987 WLQ851987:WMD851987 WVM851987:WVZ851987 E917523:R917523 JA917523:JN917523 SW917523:TJ917523 ACS917523:ADF917523 AMO917523:ANB917523 AWK917523:AWX917523 BGG917523:BGT917523 BQC917523:BQP917523 BZY917523:CAL917523 CJU917523:CKH917523 CTQ917523:CUD917523 DDM917523:DDZ917523 DNI917523:DNV917523 DXE917523:DXR917523 EHA917523:EHN917523 EQW917523:ERJ917523 FAS917523:FBF917523 FKO917523:FLB917523 FUK917523:FUX917523 GEG917523:GET917523 GOC917523:GOP917523 GXY917523:GYL917523 HHU917523:HIH917523 HRQ917523:HSD917523 IBM917523:IBZ917523 ILI917523:ILV917523 IVE917523:IVR917523 JFA917523:JFN917523 JOW917523:JPJ917523 JYS917523:JZF917523 KIO917523:KJB917523 KSK917523:KSX917523 LCG917523:LCT917523 LMC917523:LMP917523 LVY917523:LWL917523 MFU917523:MGH917523 MPQ917523:MQD917523 MZM917523:MZZ917523 NJI917523:NJV917523 NTE917523:NTR917523 ODA917523:ODN917523 OMW917523:ONJ917523 OWS917523:OXF917523 PGO917523:PHB917523 PQK917523:PQX917523 QAG917523:QAT917523 QKC917523:QKP917523 QTY917523:QUL917523 RDU917523:REH917523 RNQ917523:ROD917523 RXM917523:RXZ917523 SHI917523:SHV917523 SRE917523:SRR917523 TBA917523:TBN917523 TKW917523:TLJ917523 TUS917523:TVF917523 UEO917523:UFB917523 UOK917523:UOX917523 UYG917523:UYT917523 VIC917523:VIP917523 VRY917523:VSL917523 WBU917523:WCH917523 WLQ917523:WMD917523 WVM917523:WVZ917523 E983059:R983059 JA983059:JN983059 SW983059:TJ983059 ACS983059:ADF983059 AMO983059:ANB983059 AWK983059:AWX983059 BGG983059:BGT983059 BQC983059:BQP983059 BZY983059:CAL983059 CJU983059:CKH983059 CTQ983059:CUD983059 DDM983059:DDZ983059 DNI983059:DNV983059 DXE983059:DXR983059 EHA983059:EHN983059 EQW983059:ERJ983059 FAS983059:FBF983059 FKO983059:FLB983059 FUK983059:FUX983059 GEG983059:GET983059 GOC983059:GOP983059 GXY983059:GYL983059 HHU983059:HIH983059 HRQ983059:HSD983059 IBM983059:IBZ983059 ILI983059:ILV983059 IVE983059:IVR983059 JFA983059:JFN983059 JOW983059:JPJ983059 JYS983059:JZF983059 KIO983059:KJB983059 KSK983059:KSX983059 LCG983059:LCT983059 LMC983059:LMP983059 LVY983059:LWL983059 MFU983059:MGH983059 MPQ983059:MQD983059 MZM983059:MZZ983059 NJI983059:NJV983059 NTE983059:NTR983059 ODA983059:ODN983059 OMW983059:ONJ983059 OWS983059:OXF983059 PGO983059:PHB983059 PQK983059:PQX983059 QAG983059:QAT983059 QKC983059:QKP983059 QTY983059:QUL983059 RDU983059:REH983059 RNQ983059:ROD983059 RXM983059:RXZ983059 SHI983059:SHV983059 SRE983059:SRR983059 TBA983059:TBN983059 TKW983059:TLJ983059 TUS983059:TVF983059 UEO983059:UFB983059 UOK983059:UOX983059 UYG983059:UYT983059 VIC983059:VIP983059 VRY983059:VSL983059 WBU983059:WCH983059 WLQ983059:WMD983059 WVM983059:WVZ983059">
-      <formula1>"N,A,B, "</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E20:R20 JA20:JN20 SW20:TJ20 ACS20:ADF20 AMO20:ANB20 AWK20:AWX20 BGG20:BGT20 BQC20:BQP20 BZY20:CAL20 CJU20:CKH20 CTQ20:CUD20 DDM20:DDZ20 DNI20:DNV20 DXE20:DXR20 EHA20:EHN20 EQW20:ERJ20 FAS20:FBF20 FKO20:FLB20 FUK20:FUX20 GEG20:GET20 GOC20:GOP20 GXY20:GYL20 HHU20:HIH20 HRQ20:HSD20 IBM20:IBZ20 ILI20:ILV20 IVE20:IVR20 JFA20:JFN20 JOW20:JPJ20 JYS20:JZF20 KIO20:KJB20 KSK20:KSX20 LCG20:LCT20 LMC20:LMP20 LVY20:LWL20 MFU20:MGH20 MPQ20:MQD20 MZM20:MZZ20 NJI20:NJV20 NTE20:NTR20 ODA20:ODN20 OMW20:ONJ20 OWS20:OXF20 PGO20:PHB20 PQK20:PQX20 QAG20:QAT20 QKC20:QKP20 QTY20:QUL20 RDU20:REH20 RNQ20:ROD20 RXM20:RXZ20 SHI20:SHV20 SRE20:SRR20 TBA20:TBN20 TKW20:TLJ20 TUS20:TVF20 UEO20:UFB20 UOK20:UOX20 UYG20:UYT20 VIC20:VIP20 VRY20:VSL20 WBU20:WCH20 WLQ20:WMD20 WVM20:WVZ20 E65556:R65556 JA65556:JN65556 SW65556:TJ65556 ACS65556:ADF65556 AMO65556:ANB65556 AWK65556:AWX65556 BGG65556:BGT65556 BQC65556:BQP65556 BZY65556:CAL65556 CJU65556:CKH65556 CTQ65556:CUD65556 DDM65556:DDZ65556 DNI65556:DNV65556 DXE65556:DXR65556 EHA65556:EHN65556 EQW65556:ERJ65556 FAS65556:FBF65556 FKO65556:FLB65556 FUK65556:FUX65556 GEG65556:GET65556 GOC65556:GOP65556 GXY65556:GYL65556 HHU65556:HIH65556 HRQ65556:HSD65556 IBM65556:IBZ65556 ILI65556:ILV65556 IVE65556:IVR65556 JFA65556:JFN65556 JOW65556:JPJ65556 JYS65556:JZF65556 KIO65556:KJB65556 KSK65556:KSX65556 LCG65556:LCT65556 LMC65556:LMP65556 LVY65556:LWL65556 MFU65556:MGH65556 MPQ65556:MQD65556 MZM65556:MZZ65556 NJI65556:NJV65556 NTE65556:NTR65556 ODA65556:ODN65556 OMW65556:ONJ65556 OWS65556:OXF65556 PGO65556:PHB65556 PQK65556:PQX65556 QAG65556:QAT65556 QKC65556:QKP65556 QTY65556:QUL65556 RDU65556:REH65556 RNQ65556:ROD65556 RXM65556:RXZ65556 SHI65556:SHV65556 SRE65556:SRR65556 TBA65556:TBN65556 TKW65556:TLJ65556 TUS65556:TVF65556 UEO65556:UFB65556 UOK65556:UOX65556 UYG65556:UYT65556 VIC65556:VIP65556 VRY65556:VSL65556 WBU65556:WCH65556 WLQ65556:WMD65556 WVM65556:WVZ65556 E131092:R131092 JA131092:JN131092 SW131092:TJ131092 ACS131092:ADF131092 AMO131092:ANB131092 AWK131092:AWX131092 BGG131092:BGT131092 BQC131092:BQP131092 BZY131092:CAL131092 CJU131092:CKH131092 CTQ131092:CUD131092 DDM131092:DDZ131092 DNI131092:DNV131092 DXE131092:DXR131092 EHA131092:EHN131092 EQW131092:ERJ131092 FAS131092:FBF131092 FKO131092:FLB131092 FUK131092:FUX131092 GEG131092:GET131092 GOC131092:GOP131092 GXY131092:GYL131092 HHU131092:HIH131092 HRQ131092:HSD131092 IBM131092:IBZ131092 ILI131092:ILV131092 IVE131092:IVR131092 JFA131092:JFN131092 JOW131092:JPJ131092 JYS131092:JZF131092 KIO131092:KJB131092 KSK131092:KSX131092 LCG131092:LCT131092 LMC131092:LMP131092 LVY131092:LWL131092 MFU131092:MGH131092 MPQ131092:MQD131092 MZM131092:MZZ131092 NJI131092:NJV131092 NTE131092:NTR131092 ODA131092:ODN131092 OMW131092:ONJ131092 OWS131092:OXF131092 PGO131092:PHB131092 PQK131092:PQX131092 QAG131092:QAT131092 QKC131092:QKP131092 QTY131092:QUL131092 RDU131092:REH131092 RNQ131092:ROD131092 RXM131092:RXZ131092 SHI131092:SHV131092 SRE131092:SRR131092 TBA131092:TBN131092 TKW131092:TLJ131092 TUS131092:TVF131092 UEO131092:UFB131092 UOK131092:UOX131092 UYG131092:UYT131092 VIC131092:VIP131092 VRY131092:VSL131092 WBU131092:WCH131092 WLQ131092:WMD131092 WVM131092:WVZ131092 E196628:R196628 JA196628:JN196628 SW196628:TJ196628 ACS196628:ADF196628 AMO196628:ANB196628 AWK196628:AWX196628 BGG196628:BGT196628 BQC196628:BQP196628 BZY196628:CAL196628 CJU196628:CKH196628 CTQ196628:CUD196628 DDM196628:DDZ196628 DNI196628:DNV196628 DXE196628:DXR196628 EHA196628:EHN196628 EQW196628:ERJ196628 FAS196628:FBF196628 FKO196628:FLB196628 FUK196628:FUX196628 GEG196628:GET196628 GOC196628:GOP196628 GXY196628:GYL196628 HHU196628:HIH196628 HRQ196628:HSD196628 IBM196628:IBZ196628 ILI196628:ILV196628 IVE196628:IVR196628 JFA196628:JFN196628 JOW196628:JPJ196628 JYS196628:JZF196628 KIO196628:KJB196628 KSK196628:KSX196628 LCG196628:LCT196628 LMC196628:LMP196628 LVY196628:LWL196628 MFU196628:MGH196628 MPQ196628:MQD196628 MZM196628:MZZ196628 NJI196628:NJV196628 NTE196628:NTR196628 ODA196628:ODN196628 OMW196628:ONJ196628 OWS196628:OXF196628 PGO196628:PHB196628 PQK196628:PQX196628 QAG196628:QAT196628 QKC196628:QKP196628 QTY196628:QUL196628 RDU196628:REH196628 RNQ196628:ROD196628 RXM196628:RXZ196628 SHI196628:SHV196628 SRE196628:SRR196628 TBA196628:TBN196628 TKW196628:TLJ196628 TUS196628:TVF196628 UEO196628:UFB196628 UOK196628:UOX196628 UYG196628:UYT196628 VIC196628:VIP196628 VRY196628:VSL196628 WBU196628:WCH196628 WLQ196628:WMD196628 WVM196628:WVZ196628 E262164:R262164 JA262164:JN262164 SW262164:TJ262164 ACS262164:ADF262164 AMO262164:ANB262164 AWK262164:AWX262164 BGG262164:BGT262164 BQC262164:BQP262164 BZY262164:CAL262164 CJU262164:CKH262164 CTQ262164:CUD262164 DDM262164:DDZ262164 DNI262164:DNV262164 DXE262164:DXR262164 EHA262164:EHN262164 EQW262164:ERJ262164 FAS262164:FBF262164 FKO262164:FLB262164 FUK262164:FUX262164 GEG262164:GET262164 GOC262164:GOP262164 GXY262164:GYL262164 HHU262164:HIH262164 HRQ262164:HSD262164 IBM262164:IBZ262164 ILI262164:ILV262164 IVE262164:IVR262164 JFA262164:JFN262164 JOW262164:JPJ262164 JYS262164:JZF262164 KIO262164:KJB262164 KSK262164:KSX262164 LCG262164:LCT262164 LMC262164:LMP262164 LVY262164:LWL262164 MFU262164:MGH262164 MPQ262164:MQD262164 MZM262164:MZZ262164 NJI262164:NJV262164 NTE262164:NTR262164 ODA262164:ODN262164 OMW262164:ONJ262164 OWS262164:OXF262164 PGO262164:PHB262164 PQK262164:PQX262164 QAG262164:QAT262164 QKC262164:QKP262164 QTY262164:QUL262164 RDU262164:REH262164 RNQ262164:ROD262164 RXM262164:RXZ262164 SHI262164:SHV262164 SRE262164:SRR262164 TBA262164:TBN262164 TKW262164:TLJ262164 TUS262164:TVF262164 UEO262164:UFB262164 UOK262164:UOX262164 UYG262164:UYT262164 VIC262164:VIP262164 VRY262164:VSL262164 WBU262164:WCH262164 WLQ262164:WMD262164 WVM262164:WVZ262164 E327700:R327700 JA327700:JN327700 SW327700:TJ327700 ACS327700:ADF327700 AMO327700:ANB327700 AWK327700:AWX327700 BGG327700:BGT327700 BQC327700:BQP327700 BZY327700:CAL327700 CJU327700:CKH327700 CTQ327700:CUD327700 DDM327700:DDZ327700 DNI327700:DNV327700 DXE327700:DXR327700 EHA327700:EHN327700 EQW327700:ERJ327700 FAS327700:FBF327700 FKO327700:FLB327700 FUK327700:FUX327700 GEG327700:GET327700 GOC327700:GOP327700 GXY327700:GYL327700 HHU327700:HIH327700 HRQ327700:HSD327700 IBM327700:IBZ327700 ILI327700:ILV327700 IVE327700:IVR327700 JFA327700:JFN327700 JOW327700:JPJ327700 JYS327700:JZF327700 KIO327700:KJB327700 KSK327700:KSX327700 LCG327700:LCT327700 LMC327700:LMP327700 LVY327700:LWL327700 MFU327700:MGH327700 MPQ327700:MQD327700 MZM327700:MZZ327700 NJI327700:NJV327700 NTE327700:NTR327700 ODA327700:ODN327700 OMW327700:ONJ327700 OWS327700:OXF327700 PGO327700:PHB327700 PQK327700:PQX327700 QAG327700:QAT327700 QKC327700:QKP327700 QTY327700:QUL327700 RDU327700:REH327700 RNQ327700:ROD327700 RXM327700:RXZ327700 SHI327700:SHV327700 SRE327700:SRR327700 TBA327700:TBN327700 TKW327700:TLJ327700 TUS327700:TVF327700 UEO327700:UFB327700 UOK327700:UOX327700 UYG327700:UYT327700 VIC327700:VIP327700 VRY327700:VSL327700 WBU327700:WCH327700 WLQ327700:WMD327700 WVM327700:WVZ327700 E393236:R393236 JA393236:JN393236 SW393236:TJ393236 ACS393236:ADF393236 AMO393236:ANB393236 AWK393236:AWX393236 BGG393236:BGT393236 BQC393236:BQP393236 BZY393236:CAL393236 CJU393236:CKH393236 CTQ393236:CUD393236 DDM393236:DDZ393236 DNI393236:DNV393236 DXE393236:DXR393236 EHA393236:EHN393236 EQW393236:ERJ393236 FAS393236:FBF393236 FKO393236:FLB393236 FUK393236:FUX393236 GEG393236:GET393236 GOC393236:GOP393236 GXY393236:GYL393236 HHU393236:HIH393236 HRQ393236:HSD393236 IBM393236:IBZ393236 ILI393236:ILV393236 IVE393236:IVR393236 JFA393236:JFN393236 JOW393236:JPJ393236 JYS393236:JZF393236 KIO393236:KJB393236 KSK393236:KSX393236 LCG393236:LCT393236 LMC393236:LMP393236 LVY393236:LWL393236 MFU393236:MGH393236 MPQ393236:MQD393236 MZM393236:MZZ393236 NJI393236:NJV393236 NTE393236:NTR393236 ODA393236:ODN393236 OMW393236:ONJ393236 OWS393236:OXF393236 PGO393236:PHB393236 PQK393236:PQX393236 QAG393236:QAT393236 QKC393236:QKP393236 QTY393236:QUL393236 RDU393236:REH393236 RNQ393236:ROD393236 RXM393236:RXZ393236 SHI393236:SHV393236 SRE393236:SRR393236 TBA393236:TBN393236 TKW393236:TLJ393236 TUS393236:TVF393236 UEO393236:UFB393236 UOK393236:UOX393236 UYG393236:UYT393236 VIC393236:VIP393236 VRY393236:VSL393236 WBU393236:WCH393236 WLQ393236:WMD393236 WVM393236:WVZ393236 E458772:R458772 JA458772:JN458772 SW458772:TJ458772 ACS458772:ADF458772 AMO458772:ANB458772 AWK458772:AWX458772 BGG458772:BGT458772 BQC458772:BQP458772 BZY458772:CAL458772 CJU458772:CKH458772 CTQ458772:CUD458772 DDM458772:DDZ458772 DNI458772:DNV458772 DXE458772:DXR458772 EHA458772:EHN458772 EQW458772:ERJ458772 FAS458772:FBF458772 FKO458772:FLB458772 FUK458772:FUX458772 GEG458772:GET458772 GOC458772:GOP458772 GXY458772:GYL458772 HHU458772:HIH458772 HRQ458772:HSD458772 IBM458772:IBZ458772 ILI458772:ILV458772 IVE458772:IVR458772 JFA458772:JFN458772 JOW458772:JPJ458772 JYS458772:JZF458772 KIO458772:KJB458772 KSK458772:KSX458772 LCG458772:LCT458772 LMC458772:LMP458772 LVY458772:LWL458772 MFU458772:MGH458772 MPQ458772:MQD458772 MZM458772:MZZ458772 NJI458772:NJV458772 NTE458772:NTR458772 ODA458772:ODN458772 OMW458772:ONJ458772 OWS458772:OXF458772 PGO458772:PHB458772 PQK458772:PQX458772 QAG458772:QAT458772 QKC458772:QKP458772 QTY458772:QUL458772 RDU458772:REH458772 RNQ458772:ROD458772 RXM458772:RXZ458772 SHI458772:SHV458772 SRE458772:SRR458772 TBA458772:TBN458772 TKW458772:TLJ458772 TUS458772:TVF458772 UEO458772:UFB458772 UOK458772:UOX458772 UYG458772:UYT458772 VIC458772:VIP458772 VRY458772:VSL458772 WBU458772:WCH458772 WLQ458772:WMD458772 WVM458772:WVZ458772 E524308:R524308 JA524308:JN524308 SW524308:TJ524308 ACS524308:ADF524308 AMO524308:ANB524308 AWK524308:AWX524308 BGG524308:BGT524308 BQC524308:BQP524308 BZY524308:CAL524308 CJU524308:CKH524308 CTQ524308:CUD524308 DDM524308:DDZ524308 DNI524308:DNV524308 DXE524308:DXR524308 EHA524308:EHN524308 EQW524308:ERJ524308 FAS524308:FBF524308 FKO524308:FLB524308 FUK524308:FUX524308 GEG524308:GET524308 GOC524308:GOP524308 GXY524308:GYL524308 HHU524308:HIH524308 HRQ524308:HSD524308 IBM524308:IBZ524308 ILI524308:ILV524308 IVE524308:IVR524308 JFA524308:JFN524308 JOW524308:JPJ524308 JYS524308:JZF524308 KIO524308:KJB524308 KSK524308:KSX524308 LCG524308:LCT524308 LMC524308:LMP524308 LVY524308:LWL524308 MFU524308:MGH524308 MPQ524308:MQD524308 MZM524308:MZZ524308 NJI524308:NJV524308 NTE524308:NTR524308 ODA524308:ODN524308 OMW524308:ONJ524308 OWS524308:OXF524308 PGO524308:PHB524308 PQK524308:PQX524308 QAG524308:QAT524308 QKC524308:QKP524308 QTY524308:QUL524308 RDU524308:REH524308 RNQ524308:ROD524308 RXM524308:RXZ524308 SHI524308:SHV524308 SRE524308:SRR524308 TBA524308:TBN524308 TKW524308:TLJ524308 TUS524308:TVF524308 UEO524308:UFB524308 UOK524308:UOX524308 UYG524308:UYT524308 VIC524308:VIP524308 VRY524308:VSL524308 WBU524308:WCH524308 WLQ524308:WMD524308 WVM524308:WVZ524308 E589844:R589844 JA589844:JN589844 SW589844:TJ589844 ACS589844:ADF589844 AMO589844:ANB589844 AWK589844:AWX589844 BGG589844:BGT589844 BQC589844:BQP589844 BZY589844:CAL589844 CJU589844:CKH589844 CTQ589844:CUD589844 DDM589844:DDZ589844 DNI589844:DNV589844 DXE589844:DXR589844 EHA589844:EHN589844 EQW589844:ERJ589844 FAS589844:FBF589844 FKO589844:FLB589844 FUK589844:FUX589844 GEG589844:GET589844 GOC589844:GOP589844 GXY589844:GYL589844 HHU589844:HIH589844 HRQ589844:HSD589844 IBM589844:IBZ589844 ILI589844:ILV589844 IVE589844:IVR589844 JFA589844:JFN589844 JOW589844:JPJ589844 JYS589844:JZF589844 KIO589844:KJB589844 KSK589844:KSX589844 LCG589844:LCT589844 LMC589844:LMP589844 LVY589844:LWL589844 MFU589844:MGH589844 MPQ589844:MQD589844 MZM589844:MZZ589844 NJI589844:NJV589844 NTE589844:NTR589844 ODA589844:ODN589844 OMW589844:ONJ589844 OWS589844:OXF589844 PGO589844:PHB589844 PQK589844:PQX589844 QAG589844:QAT589844 QKC589844:QKP589844 QTY589844:QUL589844 RDU589844:REH589844 RNQ589844:ROD589844 RXM589844:RXZ589844 SHI589844:SHV589844 SRE589844:SRR589844 TBA589844:TBN589844 TKW589844:TLJ589844 TUS589844:TVF589844 UEO589844:UFB589844 UOK589844:UOX589844 UYG589844:UYT589844 VIC589844:VIP589844 VRY589844:VSL589844 WBU589844:WCH589844 WLQ589844:WMD589844 WVM589844:WVZ589844 E655380:R655380 JA655380:JN655380 SW655380:TJ655380 ACS655380:ADF655380 AMO655380:ANB655380 AWK655380:AWX655380 BGG655380:BGT655380 BQC655380:BQP655380 BZY655380:CAL655380 CJU655380:CKH655380 CTQ655380:CUD655380 DDM655380:DDZ655380 DNI655380:DNV655380 DXE655380:DXR655380 EHA655380:EHN655380 EQW655380:ERJ655380 FAS655380:FBF655380 FKO655380:FLB655380 FUK655380:FUX655380 GEG655380:GET655380 GOC655380:GOP655380 GXY655380:GYL655380 HHU655380:HIH655380 HRQ655380:HSD655380 IBM655380:IBZ655380 ILI655380:ILV655380 IVE655380:IVR655380 JFA655380:JFN655380 JOW655380:JPJ655380 JYS655380:JZF655380 KIO655380:KJB655380 KSK655380:KSX655380 LCG655380:LCT655380 LMC655380:LMP655380 LVY655380:LWL655380 MFU655380:MGH655380 MPQ655380:MQD655380 MZM655380:MZZ655380 NJI655380:NJV655380 NTE655380:NTR655380 ODA655380:ODN655380 OMW655380:ONJ655380 OWS655380:OXF655380 PGO655380:PHB655380 PQK655380:PQX655380 QAG655380:QAT655380 QKC655380:QKP655380 QTY655380:QUL655380 RDU655380:REH655380 RNQ655380:ROD655380 RXM655380:RXZ655380 SHI655380:SHV655380 SRE655380:SRR655380 TBA655380:TBN655380 TKW655380:TLJ655380 TUS655380:TVF655380 UEO655380:UFB655380 UOK655380:UOX655380 UYG655380:UYT655380 VIC655380:VIP655380 VRY655380:VSL655380 WBU655380:WCH655380 WLQ655380:WMD655380 WVM655380:WVZ655380 E720916:R720916 JA720916:JN720916 SW720916:TJ720916 ACS720916:ADF720916 AMO720916:ANB720916 AWK720916:AWX720916 BGG720916:BGT720916 BQC720916:BQP720916 BZY720916:CAL720916 CJU720916:CKH720916 CTQ720916:CUD720916 DDM720916:DDZ720916 DNI720916:DNV720916 DXE720916:DXR720916 EHA720916:EHN720916 EQW720916:ERJ720916 FAS720916:FBF720916 FKO720916:FLB720916 FUK720916:FUX720916 GEG720916:GET720916 GOC720916:GOP720916 GXY720916:GYL720916 HHU720916:HIH720916 HRQ720916:HSD720916 IBM720916:IBZ720916 ILI720916:ILV720916 IVE720916:IVR720916 JFA720916:JFN720916 JOW720916:JPJ720916 JYS720916:JZF720916 KIO720916:KJB720916 KSK720916:KSX720916 LCG720916:LCT720916 LMC720916:LMP720916 LVY720916:LWL720916 MFU720916:MGH720916 MPQ720916:MQD720916 MZM720916:MZZ720916 NJI720916:NJV720916 NTE720916:NTR720916 ODA720916:ODN720916 OMW720916:ONJ720916 OWS720916:OXF720916 PGO720916:PHB720916 PQK720916:PQX720916 QAG720916:QAT720916 QKC720916:QKP720916 QTY720916:QUL720916 RDU720916:REH720916 RNQ720916:ROD720916 RXM720916:RXZ720916 SHI720916:SHV720916 SRE720916:SRR720916 TBA720916:TBN720916 TKW720916:TLJ720916 TUS720916:TVF720916 UEO720916:UFB720916 UOK720916:UOX720916 UYG720916:UYT720916 VIC720916:VIP720916 VRY720916:VSL720916 WBU720916:WCH720916 WLQ720916:WMD720916 WVM720916:WVZ720916 E786452:R786452 JA786452:JN786452 SW786452:TJ786452 ACS786452:ADF786452 AMO786452:ANB786452 AWK786452:AWX786452 BGG786452:BGT786452 BQC786452:BQP786452 BZY786452:CAL786452 CJU786452:CKH786452 CTQ786452:CUD786452 DDM786452:DDZ786452 DNI786452:DNV786452 DXE786452:DXR786452 EHA786452:EHN786452 EQW786452:ERJ786452 FAS786452:FBF786452 FKO786452:FLB786452 FUK786452:FUX786452 GEG786452:GET786452 GOC786452:GOP786452 GXY786452:GYL786452 HHU786452:HIH786452 HRQ786452:HSD786452 IBM786452:IBZ786452 ILI786452:ILV786452 IVE786452:IVR786452 JFA786452:JFN786452 JOW786452:JPJ786452 JYS786452:JZF786452 KIO786452:KJB786452 KSK786452:KSX786452 LCG786452:LCT786452 LMC786452:LMP786452 LVY786452:LWL786452 MFU786452:MGH786452 MPQ786452:MQD786452 MZM786452:MZZ786452 NJI786452:NJV786452 NTE786452:NTR786452 ODA786452:ODN786452 OMW786452:ONJ786452 OWS786452:OXF786452 PGO786452:PHB786452 PQK786452:PQX786452 QAG786452:QAT786452 QKC786452:QKP786452 QTY786452:QUL786452 RDU786452:REH786452 RNQ786452:ROD786452 RXM786452:RXZ786452 SHI786452:SHV786452 SRE786452:SRR786452 TBA786452:TBN786452 TKW786452:TLJ786452 TUS786452:TVF786452 UEO786452:UFB786452 UOK786452:UOX786452 UYG786452:UYT786452 VIC786452:VIP786452 VRY786452:VSL786452 WBU786452:WCH786452 WLQ786452:WMD786452 WVM786452:WVZ786452 E851988:R851988 JA851988:JN851988 SW851988:TJ851988 ACS851988:ADF851988 AMO851988:ANB851988 AWK851988:AWX851988 BGG851988:BGT851988 BQC851988:BQP851988 BZY851988:CAL851988 CJU851988:CKH851988 CTQ851988:CUD851988 DDM851988:DDZ851988 DNI851988:DNV851988 DXE851988:DXR851988 EHA851988:EHN851988 EQW851988:ERJ851988 FAS851988:FBF851988 FKO851988:FLB851988 FUK851988:FUX851988 GEG851988:GET851988 GOC851988:GOP851988 GXY851988:GYL851988 HHU851988:HIH851988 HRQ851988:HSD851988 IBM851988:IBZ851988 ILI851988:ILV851988 IVE851988:IVR851988 JFA851988:JFN851988 JOW851988:JPJ851988 JYS851988:JZF851988 KIO851988:KJB851988 KSK851988:KSX851988 LCG851988:LCT851988 LMC851988:LMP851988 LVY851988:LWL851988 MFU851988:MGH851988 MPQ851988:MQD851988 MZM851988:MZZ851988 NJI851988:NJV851988 NTE851988:NTR851988 ODA851988:ODN851988 OMW851988:ONJ851988 OWS851988:OXF851988 PGO851988:PHB851988 PQK851988:PQX851988 QAG851988:QAT851988 QKC851988:QKP851988 QTY851988:QUL851988 RDU851988:REH851988 RNQ851988:ROD851988 RXM851988:RXZ851988 SHI851988:SHV851988 SRE851988:SRR851988 TBA851988:TBN851988 TKW851988:TLJ851988 TUS851988:TVF851988 UEO851988:UFB851988 UOK851988:UOX851988 UYG851988:UYT851988 VIC851988:VIP851988 VRY851988:VSL851988 WBU851988:WCH851988 WLQ851988:WMD851988 WVM851988:WVZ851988 E917524:R917524 JA917524:JN917524 SW917524:TJ917524 ACS917524:ADF917524 AMO917524:ANB917524 AWK917524:AWX917524 BGG917524:BGT917524 BQC917524:BQP917524 BZY917524:CAL917524 CJU917524:CKH917524 CTQ917524:CUD917524 DDM917524:DDZ917524 DNI917524:DNV917524 DXE917524:DXR917524 EHA917524:EHN917524 EQW917524:ERJ917524 FAS917524:FBF917524 FKO917524:FLB917524 FUK917524:FUX917524 GEG917524:GET917524 GOC917524:GOP917524 GXY917524:GYL917524 HHU917524:HIH917524 HRQ917524:HSD917524 IBM917524:IBZ917524 ILI917524:ILV917524 IVE917524:IVR917524 JFA917524:JFN917524 JOW917524:JPJ917524 JYS917524:JZF917524 KIO917524:KJB917524 KSK917524:KSX917524 LCG917524:LCT917524 LMC917524:LMP917524 LVY917524:LWL917524 MFU917524:MGH917524 MPQ917524:MQD917524 MZM917524:MZZ917524 NJI917524:NJV917524 NTE917524:NTR917524 ODA917524:ODN917524 OMW917524:ONJ917524 OWS917524:OXF917524 PGO917524:PHB917524 PQK917524:PQX917524 QAG917524:QAT917524 QKC917524:QKP917524 QTY917524:QUL917524 RDU917524:REH917524 RNQ917524:ROD917524 RXM917524:RXZ917524 SHI917524:SHV917524 SRE917524:SRR917524 TBA917524:TBN917524 TKW917524:TLJ917524 TUS917524:TVF917524 UEO917524:UFB917524 UOK917524:UOX917524 UYG917524:UYT917524 VIC917524:VIP917524 VRY917524:VSL917524 WBU917524:WCH917524 WLQ917524:WMD917524 WVM917524:WVZ917524 E983060:R983060 JA983060:JN983060 SW983060:TJ983060 ACS983060:ADF983060 AMO983060:ANB983060 AWK983060:AWX983060 BGG983060:BGT983060 BQC983060:BQP983060 BZY983060:CAL983060 CJU983060:CKH983060 CTQ983060:CUD983060 DDM983060:DDZ983060 DNI983060:DNV983060 DXE983060:DXR983060 EHA983060:EHN983060 EQW983060:ERJ983060 FAS983060:FBF983060 FKO983060:FLB983060 FUK983060:FUX983060 GEG983060:GET983060 GOC983060:GOP983060 GXY983060:GYL983060 HHU983060:HIH983060 HRQ983060:HSD983060 IBM983060:IBZ983060 ILI983060:ILV983060 IVE983060:IVR983060 JFA983060:JFN983060 JOW983060:JPJ983060 JYS983060:JZF983060 KIO983060:KJB983060 KSK983060:KSX983060 LCG983060:LCT983060 LMC983060:LMP983060 LVY983060:LWL983060 MFU983060:MGH983060 MPQ983060:MQD983060 MZM983060:MZZ983060 NJI983060:NJV983060 NTE983060:NTR983060 ODA983060:ODN983060 OMW983060:ONJ983060 OWS983060:OXF983060 PGO983060:PHB983060 PQK983060:PQX983060 QAG983060:QAT983060 QKC983060:QKP983060 QTY983060:QUL983060 RDU983060:REH983060 RNQ983060:ROD983060 RXM983060:RXZ983060 SHI983060:SHV983060 SRE983060:SRR983060 TBA983060:TBN983060 TKW983060:TLJ983060 TUS983060:TVF983060 UEO983060:UFB983060 UOK983060:UOX983060 UYG983060:UYT983060 VIC983060:VIP983060 VRY983060:VSL983060 WBU983060:WCH983060 WLQ983060:WMD983060 WVM983060:WVZ983060">
-      <formula1>"P,F, "</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>"O, "</xm:f>
-          </x14:formula1>
-          <xm:sqref>E9:G10 JA9:JC10 SW9:SY10 ACS9:ACU10 AMO9:AMQ10 AWK9:AWM10 BGG9:BGI10 BQC9:BQE10 BZY9:CAA10 CJU9:CJW10 CTQ9:CTS10 DDM9:DDO10 DNI9:DNK10 DXE9:DXG10 EHA9:EHC10 EQW9:EQY10 FAS9:FAU10 FKO9:FKQ10 FUK9:FUM10 GEG9:GEI10 GOC9:GOE10 GXY9:GYA10 HHU9:HHW10 HRQ9:HRS10 IBM9:IBO10 ILI9:ILK10 IVE9:IVG10 JFA9:JFC10 JOW9:JOY10 JYS9:JYU10 KIO9:KIQ10 KSK9:KSM10 LCG9:LCI10 LMC9:LME10 LVY9:LWA10 MFU9:MFW10 MPQ9:MPS10 MZM9:MZO10 NJI9:NJK10 NTE9:NTG10 ODA9:ODC10 OMW9:OMY10 OWS9:OWU10 PGO9:PGQ10 PQK9:PQM10 QAG9:QAI10 QKC9:QKE10 QTY9:QUA10 RDU9:RDW10 RNQ9:RNS10 RXM9:RXO10 SHI9:SHK10 SRE9:SRG10 TBA9:TBC10 TKW9:TKY10 TUS9:TUU10 UEO9:UEQ10 UOK9:UOM10 UYG9:UYI10 VIC9:VIE10 VRY9:VSA10 WBU9:WBW10 WLQ9:WLS10 WVM9:WVO10 E65541:G65542 JA65541:JC65542 SW65541:SY65542 ACS65541:ACU65542 AMO65541:AMQ65542 AWK65541:AWM65542 BGG65541:BGI65542 BQC65541:BQE65542 BZY65541:CAA65542 CJU65541:CJW65542 CTQ65541:CTS65542 DDM65541:DDO65542 DNI65541:DNK65542 DXE65541:DXG65542 EHA65541:EHC65542 EQW65541:EQY65542 FAS65541:FAU65542 FKO65541:FKQ65542 FUK65541:FUM65542 GEG65541:GEI65542 GOC65541:GOE65542 GXY65541:GYA65542 HHU65541:HHW65542 HRQ65541:HRS65542 IBM65541:IBO65542 ILI65541:ILK65542 IVE65541:IVG65542 JFA65541:JFC65542 JOW65541:JOY65542 JYS65541:JYU65542 KIO65541:KIQ65542 KSK65541:KSM65542 LCG65541:LCI65542 LMC65541:LME65542 LVY65541:LWA65542 MFU65541:MFW65542 MPQ65541:MPS65542 MZM65541:MZO65542 NJI65541:NJK65542 NTE65541:NTG65542 ODA65541:ODC65542 OMW65541:OMY65542 OWS65541:OWU65542 PGO65541:PGQ65542 PQK65541:PQM65542 QAG65541:QAI65542 QKC65541:QKE65542 QTY65541:QUA65542 RDU65541:RDW65542 RNQ65541:RNS65542 RXM65541:RXO65542 SHI65541:SHK65542 SRE65541:SRG65542 TBA65541:TBC65542 TKW65541:TKY65542 TUS65541:TUU65542 UEO65541:UEQ65542 UOK65541:UOM65542 UYG65541:UYI65542 VIC65541:VIE65542 VRY65541:VSA65542 WBU65541:WBW65542 WLQ65541:WLS65542 WVM65541:WVO65542 E131077:G131078 JA131077:JC131078 SW131077:SY131078 ACS131077:ACU131078 AMO131077:AMQ131078 AWK131077:AWM131078 BGG131077:BGI131078 BQC131077:BQE131078 BZY131077:CAA131078 CJU131077:CJW131078 CTQ131077:CTS131078 DDM131077:DDO131078 DNI131077:DNK131078 DXE131077:DXG131078 EHA131077:EHC131078 EQW131077:EQY131078 FAS131077:FAU131078 FKO131077:FKQ131078 FUK131077:FUM131078 GEG131077:GEI131078 GOC131077:GOE131078 GXY131077:GYA131078 HHU131077:HHW131078 HRQ131077:HRS131078 IBM131077:IBO131078 ILI131077:ILK131078 IVE131077:IVG131078 JFA131077:JFC131078 JOW131077:JOY131078 JYS131077:JYU131078 KIO131077:KIQ131078 KSK131077:KSM131078 LCG131077:LCI131078 LMC131077:LME131078 LVY131077:LWA131078 MFU131077:MFW131078 MPQ131077:MPS131078 MZM131077:MZO131078 NJI131077:NJK131078 NTE131077:NTG131078 ODA131077:ODC131078 OMW131077:OMY131078 OWS131077:OWU131078 PGO131077:PGQ131078 PQK131077:PQM131078 QAG131077:QAI131078 QKC131077:QKE131078 QTY131077:QUA131078 RDU131077:RDW131078 RNQ131077:RNS131078 RXM131077:RXO131078 SHI131077:SHK131078 SRE131077:SRG131078 TBA131077:TBC131078 TKW131077:TKY131078 TUS131077:TUU131078 UEO131077:UEQ131078 UOK131077:UOM131078 UYG131077:UYI131078 VIC131077:VIE131078 VRY131077:VSA131078 WBU131077:WBW131078 WLQ131077:WLS131078 WVM131077:WVO131078 E196613:G196614 JA196613:JC196614 SW196613:SY196614 ACS196613:ACU196614 AMO196613:AMQ196614 AWK196613:AWM196614 BGG196613:BGI196614 BQC196613:BQE196614 BZY196613:CAA196614 CJU196613:CJW196614 CTQ196613:CTS196614 DDM196613:DDO196614 DNI196613:DNK196614 DXE196613:DXG196614 EHA196613:EHC196614 EQW196613:EQY196614 FAS196613:FAU196614 FKO196613:FKQ196614 FUK196613:FUM196614 GEG196613:GEI196614 GOC196613:GOE196614 GXY196613:GYA196614 HHU196613:HHW196614 HRQ196613:HRS196614 IBM196613:IBO196614 ILI196613:ILK196614 IVE196613:IVG196614 JFA196613:JFC196614 JOW196613:JOY196614 JYS196613:JYU196614 KIO196613:KIQ196614 KSK196613:KSM196614 LCG196613:LCI196614 LMC196613:LME196614 LVY196613:LWA196614 MFU196613:MFW196614 MPQ196613:MPS196614 MZM196613:MZO196614 NJI196613:NJK196614 NTE196613:NTG196614 ODA196613:ODC196614 OMW196613:OMY196614 OWS196613:OWU196614 PGO196613:PGQ196614 PQK196613:PQM196614 QAG196613:QAI196614 QKC196613:QKE196614 QTY196613:QUA196614 RDU196613:RDW196614 RNQ196613:RNS196614 RXM196613:RXO196614 SHI196613:SHK196614 SRE196613:SRG196614 TBA196613:TBC196614 TKW196613:TKY196614 TUS196613:TUU196614 UEO196613:UEQ196614 UOK196613:UOM196614 UYG196613:UYI196614 VIC196613:VIE196614 VRY196613:VSA196614 WBU196613:WBW196614 WLQ196613:WLS196614 WVM196613:WVO196614 E262149:G262150 JA262149:JC262150 SW262149:SY262150 ACS262149:ACU262150 AMO262149:AMQ262150 AWK262149:AWM262150 BGG262149:BGI262150 BQC262149:BQE262150 BZY262149:CAA262150 CJU262149:CJW262150 CTQ262149:CTS262150 DDM262149:DDO262150 DNI262149:DNK262150 DXE262149:DXG262150 EHA262149:EHC262150 EQW262149:EQY262150 FAS262149:FAU262150 FKO262149:FKQ262150 FUK262149:FUM262150 GEG262149:GEI262150 GOC262149:GOE262150 GXY262149:GYA262150 HHU262149:HHW262150 HRQ262149:HRS262150 IBM262149:IBO262150 ILI262149:ILK262150 IVE262149:IVG262150 JFA262149:JFC262150 JOW262149:JOY262150 JYS262149:JYU262150 KIO262149:KIQ262150 KSK262149:KSM262150 LCG262149:LCI262150 LMC262149:LME262150 LVY262149:LWA262150 MFU262149:MFW262150 MPQ262149:MPS262150 MZM262149:MZO262150 NJI262149:NJK262150 NTE262149:NTG262150 ODA262149:ODC262150 OMW262149:OMY262150 OWS262149:OWU262150 PGO262149:PGQ262150 PQK262149:PQM262150 QAG262149:QAI262150 QKC262149:QKE262150 QTY262149:QUA262150 RDU262149:RDW262150 RNQ262149:RNS262150 RXM262149:RXO262150 SHI262149:SHK262150 SRE262149:SRG262150 TBA262149:TBC262150 TKW262149:TKY262150 TUS262149:TUU262150 UEO262149:UEQ262150 UOK262149:UOM262150 UYG262149:UYI262150 VIC262149:VIE262150 VRY262149:VSA262150 WBU262149:WBW262150 WLQ262149:WLS262150 WVM262149:WVO262150 E327685:G327686 JA327685:JC327686 SW327685:SY327686 ACS327685:ACU327686 AMO327685:AMQ327686 AWK327685:AWM327686 BGG327685:BGI327686 BQC327685:BQE327686 BZY327685:CAA327686 CJU327685:CJW327686 CTQ327685:CTS327686 DDM327685:DDO327686 DNI327685:DNK327686 DXE327685:DXG327686 EHA327685:EHC327686 EQW327685:EQY327686 FAS327685:FAU327686 FKO327685:FKQ327686 FUK327685:FUM327686 GEG327685:GEI327686 GOC327685:GOE327686 GXY327685:GYA327686 HHU327685:HHW327686 HRQ327685:HRS327686 IBM327685:IBO327686 ILI327685:ILK327686 IVE327685:IVG327686 JFA327685:JFC327686 JOW327685:JOY327686 JYS327685:JYU327686 KIO327685:KIQ327686 KSK327685:KSM327686 LCG327685:LCI327686 LMC327685:LME327686 LVY327685:LWA327686 MFU327685:MFW327686 MPQ327685:MPS327686 MZM327685:MZO327686 NJI327685:NJK327686 NTE327685:NTG327686 ODA327685:ODC327686 OMW327685:OMY327686 OWS327685:OWU327686 PGO327685:PGQ327686 PQK327685:PQM327686 QAG327685:QAI327686 QKC327685:QKE327686 QTY327685:QUA327686 RDU327685:RDW327686 RNQ327685:RNS327686 RXM327685:RXO327686 SHI327685:SHK327686 SRE327685:SRG327686 TBA327685:TBC327686 TKW327685:TKY327686 TUS327685:TUU327686 UEO327685:UEQ327686 UOK327685:UOM327686 UYG327685:UYI327686 VIC327685:VIE327686 VRY327685:VSA327686 WBU327685:WBW327686 WLQ327685:WLS327686 WVM327685:WVO327686 E393221:G393222 JA393221:JC393222 SW393221:SY393222 ACS393221:ACU393222 AMO393221:AMQ393222 AWK393221:AWM393222 BGG393221:BGI393222 BQC393221:BQE393222 BZY393221:CAA393222 CJU393221:CJW393222 CTQ393221:CTS393222 DDM393221:DDO393222 DNI393221:DNK393222 DXE393221:DXG393222 EHA393221:EHC393222 EQW393221:EQY393222 FAS393221:FAU393222 FKO393221:FKQ393222 FUK393221:FUM393222 GEG393221:GEI393222 GOC393221:GOE393222 GXY393221:GYA393222 HHU393221:HHW393222 HRQ393221:HRS393222 IBM393221:IBO393222 ILI393221:ILK393222 IVE393221:IVG393222 JFA393221:JFC393222 JOW393221:JOY393222 JYS393221:JYU393222 KIO393221:KIQ393222 KSK393221:KSM393222 LCG393221:LCI393222 LMC393221:LME393222 LVY393221:LWA393222 MFU393221:MFW393222 MPQ393221:MPS393222 MZM393221:MZO393222 NJI393221:NJK393222 NTE393221:NTG393222 ODA393221:ODC393222 OMW393221:OMY393222 OWS393221:OWU393222 PGO393221:PGQ393222 PQK393221:PQM393222 QAG393221:QAI393222 QKC393221:QKE393222 QTY393221:QUA393222 RDU393221:RDW393222 RNQ393221:RNS393222 RXM393221:RXO393222 SHI393221:SHK393222 SRE393221:SRG393222 TBA393221:TBC393222 TKW393221:TKY393222 TUS393221:TUU393222 UEO393221:UEQ393222 UOK393221:UOM393222 UYG393221:UYI393222 VIC393221:VIE393222 VRY393221:VSA393222 WBU393221:WBW393222 WLQ393221:WLS393222 WVM393221:WVO393222 E458757:G458758 JA458757:JC458758 SW458757:SY458758 ACS458757:ACU458758 AMO458757:AMQ458758 AWK458757:AWM458758 BGG458757:BGI458758 BQC458757:BQE458758 BZY458757:CAA458758 CJU458757:CJW458758 CTQ458757:CTS458758 DDM458757:DDO458758 DNI458757:DNK458758 DXE458757:DXG458758 EHA458757:EHC458758 EQW458757:EQY458758 FAS458757:FAU458758 FKO458757:FKQ458758 FUK458757:FUM458758 GEG458757:GEI458758 GOC458757:GOE458758 GXY458757:GYA458758 HHU458757:HHW458758 HRQ458757:HRS458758 IBM458757:IBO458758 ILI458757:ILK458758 IVE458757:IVG458758 JFA458757:JFC458758 JOW458757:JOY458758 JYS458757:JYU458758 KIO458757:KIQ458758 KSK458757:KSM458758 LCG458757:LCI458758 LMC458757:LME458758 LVY458757:LWA458758 MFU458757:MFW458758 MPQ458757:MPS458758 MZM458757:MZO458758 NJI458757:NJK458758 NTE458757:NTG458758 ODA458757:ODC458758 OMW458757:OMY458758 OWS458757:OWU458758 PGO458757:PGQ458758 PQK458757:PQM458758 QAG458757:QAI458758 QKC458757:QKE458758 QTY458757:QUA458758 RDU458757:RDW458758 RNQ458757:RNS458758 RXM458757:RXO458758 SHI458757:SHK458758 SRE458757:SRG458758 TBA458757:TBC458758 TKW458757:TKY458758 TUS458757:TUU458758 UEO458757:UEQ458758 UOK458757:UOM458758 UYG458757:UYI458758 VIC458757:VIE458758 VRY458757:VSA458758 WBU458757:WBW458758 WLQ458757:WLS458758 WVM458757:WVO458758 E524293:G524294 JA524293:JC524294 SW524293:SY524294 ACS524293:ACU524294 AMO524293:AMQ524294 AWK524293:AWM524294 BGG524293:BGI524294 BQC524293:BQE524294 BZY524293:CAA524294 CJU524293:CJW524294 CTQ524293:CTS524294 DDM524293:DDO524294 DNI524293:DNK524294 DXE524293:DXG524294 EHA524293:EHC524294 EQW524293:EQY524294 FAS524293:FAU524294 FKO524293:FKQ524294 FUK524293:FUM524294 GEG524293:GEI524294 GOC524293:GOE524294 GXY524293:GYA524294 HHU524293:HHW524294 HRQ524293:HRS524294 IBM524293:IBO524294 ILI524293:ILK524294 IVE524293:IVG524294 JFA524293:JFC524294 JOW524293:JOY524294 JYS524293:JYU524294 KIO524293:KIQ524294 KSK524293:KSM524294 LCG524293:LCI524294 LMC524293:LME524294 LVY524293:LWA524294 MFU524293:MFW524294 MPQ524293:MPS524294 MZM524293:MZO524294 NJI524293:NJK524294 NTE524293:NTG524294 ODA524293:ODC524294 OMW524293:OMY524294 OWS524293:OWU524294 PGO524293:PGQ524294 PQK524293:PQM524294 QAG524293:QAI524294 QKC524293:QKE524294 QTY524293:QUA524294 RDU524293:RDW524294 RNQ524293:RNS524294 RXM524293:RXO524294 SHI524293:SHK524294 SRE524293:SRG524294 TBA524293:TBC524294 TKW524293:TKY524294 TUS524293:TUU524294 UEO524293:UEQ524294 UOK524293:UOM524294 UYG524293:UYI524294 VIC524293:VIE524294 VRY524293:VSA524294 WBU524293:WBW524294 WLQ524293:WLS524294 WVM524293:WVO524294 E589829:G589830 JA589829:JC589830 SW589829:SY589830 ACS589829:ACU589830 AMO589829:AMQ589830 AWK589829:AWM589830 BGG589829:BGI589830 BQC589829:BQE589830 BZY589829:CAA589830 CJU589829:CJW589830 CTQ589829:CTS589830 DDM589829:DDO589830 DNI589829:DNK589830 DXE589829:DXG589830 EHA589829:EHC589830 EQW589829:EQY589830 FAS589829:FAU589830 FKO589829:FKQ589830 FUK589829:FUM589830 GEG589829:GEI589830 GOC589829:GOE589830 GXY589829:GYA589830 HHU589829:HHW589830 HRQ589829:HRS589830 IBM589829:IBO589830 ILI589829:ILK589830 IVE589829:IVG589830 JFA589829:JFC589830 JOW589829:JOY589830 JYS589829:JYU589830 KIO589829:KIQ589830 KSK589829:KSM589830 LCG589829:LCI589830 LMC589829:LME589830 LVY589829:LWA589830 MFU589829:MFW589830 MPQ589829:MPS589830 MZM589829:MZO589830 NJI589829:NJK589830 NTE589829:NTG589830 ODA589829:ODC589830 OMW589829:OMY589830 OWS589829:OWU589830 PGO589829:PGQ589830 PQK589829:PQM589830 QAG589829:QAI589830 QKC589829:QKE589830 QTY589829:QUA589830 RDU589829:RDW589830 RNQ589829:RNS589830 RXM589829:RXO589830 SHI589829:SHK589830 SRE589829:SRG589830 TBA589829:TBC589830 TKW589829:TKY589830 TUS589829:TUU589830 UEO589829:UEQ589830 UOK589829:UOM589830 UYG589829:UYI589830 VIC589829:VIE589830 VRY589829:VSA589830 WBU589829:WBW589830 WLQ589829:WLS589830 WVM589829:WVO589830 E655365:G655366 JA655365:JC655366 SW655365:SY655366 ACS655365:ACU655366 AMO655365:AMQ655366 AWK655365:AWM655366 BGG655365:BGI655366 BQC655365:BQE655366 BZY655365:CAA655366 CJU655365:CJW655366 CTQ655365:CTS655366 DDM655365:DDO655366 DNI655365:DNK655366 DXE655365:DXG655366 EHA655365:EHC655366 EQW655365:EQY655366 FAS655365:FAU655366 FKO655365:FKQ655366 FUK655365:FUM655366 GEG655365:GEI655366 GOC655365:GOE655366 GXY655365:GYA655366 HHU655365:HHW655366 HRQ655365:HRS655366 IBM655365:IBO655366 ILI655365:ILK655366 IVE655365:IVG655366 JFA655365:JFC655366 JOW655365:JOY655366 JYS655365:JYU655366 KIO655365:KIQ655366 KSK655365:KSM655366 LCG655365:LCI655366 LMC655365:LME655366 LVY655365:LWA655366 MFU655365:MFW655366 MPQ655365:MPS655366 MZM655365:MZO655366 NJI655365:NJK655366 NTE655365:NTG655366 ODA655365:ODC655366 OMW655365:OMY655366 OWS655365:OWU655366 PGO655365:PGQ655366 PQK655365:PQM655366 QAG655365:QAI655366 QKC655365:QKE655366 QTY655365:QUA655366 RDU655365:RDW655366 RNQ655365:RNS655366 RXM655365:RXO655366 SHI655365:SHK655366 SRE655365:SRG655366 TBA655365:TBC655366 TKW655365:TKY655366 TUS655365:TUU655366 UEO655365:UEQ655366 UOK655365:UOM655366 UYG655365:UYI655366 VIC655365:VIE655366 VRY655365:VSA655366 WBU655365:WBW655366 WLQ655365:WLS655366 WVM655365:WVO655366 E720901:G720902 JA720901:JC720902 SW720901:SY720902 ACS720901:ACU720902 AMO720901:AMQ720902 AWK720901:AWM720902 BGG720901:BGI720902 BQC720901:BQE720902 BZY720901:CAA720902 CJU720901:CJW720902 CTQ720901:CTS720902 DDM720901:DDO720902 DNI720901:DNK720902 DXE720901:DXG720902 EHA720901:EHC720902 EQW720901:EQY720902 FAS720901:FAU720902 FKO720901:FKQ720902 FUK720901:FUM720902 GEG720901:GEI720902 GOC720901:GOE720902 GXY720901:GYA720902 HHU720901:HHW720902 HRQ720901:HRS720902 IBM720901:IBO720902 ILI720901:ILK720902 IVE720901:IVG720902 JFA720901:JFC720902 JOW720901:JOY720902 JYS720901:JYU720902 KIO720901:KIQ720902 KSK720901:KSM720902 LCG720901:LCI720902 LMC720901:LME720902 LVY720901:LWA720902 MFU720901:MFW720902 MPQ720901:MPS720902 MZM720901:MZO720902 NJI720901:NJK720902 NTE720901:NTG720902 ODA720901:ODC720902 OMW720901:OMY720902 OWS720901:OWU720902 PGO720901:PGQ720902 PQK720901:PQM720902 QAG720901:QAI720902 QKC720901:QKE720902 QTY720901:QUA720902 RDU720901:RDW720902 RNQ720901:RNS720902 RXM720901:RXO720902 SHI720901:SHK720902 SRE720901:SRG720902 TBA720901:TBC720902 TKW720901:TKY720902 TUS720901:TUU720902 UEO720901:UEQ720902 UOK720901:UOM720902 UYG720901:UYI720902 VIC720901:VIE720902 VRY720901:VSA720902 WBU720901:WBW720902 WLQ720901:WLS720902 WVM720901:WVO720902 E786437:G786438 JA786437:JC786438 SW786437:SY786438 ACS786437:ACU786438 AMO786437:AMQ786438 AWK786437:AWM786438 BGG786437:BGI786438 BQC786437:BQE786438 BZY786437:CAA786438 CJU786437:CJW786438 CTQ786437:CTS786438 DDM786437:DDO786438 DNI786437:DNK786438 DXE786437:DXG786438 EHA786437:EHC786438 EQW786437:EQY786438 FAS786437:FAU786438 FKO786437:FKQ786438 FUK786437:FUM786438 GEG786437:GEI786438 GOC786437:GOE786438 GXY786437:GYA786438 HHU786437:HHW786438 HRQ786437:HRS786438 IBM786437:IBO786438 ILI786437:ILK786438 IVE786437:IVG786438 JFA786437:JFC786438 JOW786437:JOY786438 JYS786437:JYU786438 KIO786437:KIQ786438 KSK786437:KSM786438 LCG786437:LCI786438 LMC786437:LME786438 LVY786437:LWA786438 MFU786437:MFW786438 MPQ786437:MPS786438 MZM786437:MZO786438 NJI786437:NJK786438 NTE786437:NTG786438 ODA786437:ODC786438 OMW786437:OMY786438 OWS786437:OWU786438 PGO786437:PGQ786438 PQK786437:PQM786438 QAG786437:QAI786438 QKC786437:QKE786438 QTY786437:QUA786438 RDU786437:RDW786438 RNQ786437:RNS786438 RXM786437:RXO786438 SHI786437:SHK786438 SRE786437:SRG786438 TBA786437:TBC786438 TKW786437:TKY786438 TUS786437:TUU786438 UEO786437:UEQ786438 UOK786437:UOM786438 UYG786437:UYI786438 VIC786437:VIE786438 VRY786437:VSA786438 WBU786437:WBW786438 WLQ786437:WLS786438 WVM786437:WVO786438 E851973:G851974 JA851973:JC851974 SW851973:SY851974 ACS851973:ACU851974 AMO851973:AMQ851974 AWK851973:AWM851974 BGG851973:BGI851974 BQC851973:BQE851974 BZY851973:CAA851974 CJU851973:CJW851974 CTQ851973:CTS851974 DDM851973:DDO851974 DNI851973:DNK851974 DXE851973:DXG851974 EHA851973:EHC851974 EQW851973:EQY851974 FAS851973:FAU851974 FKO851973:FKQ851974 FUK851973:FUM851974 GEG851973:GEI851974 GOC851973:GOE851974 GXY851973:GYA851974 HHU851973:HHW851974 HRQ851973:HRS851974 IBM851973:IBO851974 ILI851973:ILK851974 IVE851973:IVG851974 JFA851973:JFC851974 JOW851973:JOY851974 JYS851973:JYU851974 KIO851973:KIQ851974 KSK851973:KSM851974 LCG851973:LCI851974 LMC851973:LME851974 LVY851973:LWA851974 MFU851973:MFW851974 MPQ851973:MPS851974 MZM851973:MZO851974 NJI851973:NJK851974 NTE851973:NTG851974 ODA851973:ODC851974 OMW851973:OMY851974 OWS851973:OWU851974 PGO851973:PGQ851974 PQK851973:PQM851974 QAG851973:QAI851974 QKC851973:QKE851974 QTY851973:QUA851974 RDU851973:RDW851974 RNQ851973:RNS851974 RXM851973:RXO851974 SHI851973:SHK851974 SRE851973:SRG851974 TBA851973:TBC851974 TKW851973:TKY851974 TUS851973:TUU851974 UEO851973:UEQ851974 UOK851973:UOM851974 UYG851973:UYI851974 VIC851973:VIE851974 VRY851973:VSA851974 WBU851973:WBW851974 WLQ851973:WLS851974 WVM851973:WVO851974 E917509:G917510 JA917509:JC917510 SW917509:SY917510 ACS917509:ACU917510 AMO917509:AMQ917510 AWK917509:AWM917510 BGG917509:BGI917510 BQC917509:BQE917510 BZY917509:CAA917510 CJU917509:CJW917510 CTQ917509:CTS917510 DDM917509:DDO917510 DNI917509:DNK917510 DXE917509:DXG917510 EHA917509:EHC917510 EQW917509:EQY917510 FAS917509:FAU917510 FKO917509:FKQ917510 FUK917509:FUM917510 GEG917509:GEI917510 GOC917509:GOE917510 GXY917509:GYA917510 HHU917509:HHW917510 HRQ917509:HRS917510 IBM917509:IBO917510 ILI917509:ILK917510 IVE917509:IVG917510 JFA917509:JFC917510 JOW917509:JOY917510 JYS917509:JYU917510 KIO917509:KIQ917510 KSK917509:KSM917510 LCG917509:LCI917510 LMC917509:LME917510 LVY917509:LWA917510 MFU917509:MFW917510 MPQ917509:MPS917510 MZM917509:MZO917510 NJI917509:NJK917510 NTE917509:NTG917510 ODA917509:ODC917510 OMW917509:OMY917510 OWS917509:OWU917510 PGO917509:PGQ917510 PQK917509:PQM917510 QAG917509:QAI917510 QKC917509:QKE917510 QTY917509:QUA917510 RDU917509:RDW917510 RNQ917509:RNS917510 RXM917509:RXO917510 SHI917509:SHK917510 SRE917509:SRG917510 TBA917509:TBC917510 TKW917509:TKY917510 TUS917509:TUU917510 UEO917509:UEQ917510 UOK917509:UOM917510 UYG917509:UYI917510 VIC917509:VIE917510 VRY917509:VSA917510 WBU917509:WBW917510 WLQ917509:WLS917510 WVM917509:WVO917510 E983045:G983046 JA983045:JC983046 SW983045:SY983046 ACS983045:ACU983046 AMO983045:AMQ983046 AWK983045:AWM983046 BGG983045:BGI983046 BQC983045:BQE983046 BZY983045:CAA983046 CJU983045:CJW983046 CTQ983045:CTS983046 DDM983045:DDO983046 DNI983045:DNK983046 DXE983045:DXG983046 EHA983045:EHC983046 EQW983045:EQY983046 FAS983045:FAU983046 FKO983045:FKQ983046 FUK983045:FUM983046 GEG983045:GEI983046 GOC983045:GOE983046 GXY983045:GYA983046 HHU983045:HHW983046 HRQ983045:HRS983046 IBM983045:IBO983046 ILI983045:ILK983046 IVE983045:IVG983046 JFA983045:JFC983046 JOW983045:JOY983046 JYS983045:JYU983046 KIO983045:KIQ983046 KSK983045:KSM983046 LCG983045:LCI983046 LMC983045:LME983046 LVY983045:LWA983046 MFU983045:MFW983046 MPQ983045:MPS983046 MZM983045:MZO983046 NJI983045:NJK983046 NTE983045:NTG983046 ODA983045:ODC983046 OMW983045:OMY983046 OWS983045:OWU983046 PGO983045:PGQ983046 PQK983045:PQM983046 QAG983045:QAI983046 QKC983045:QKE983046 QTY983045:QUA983046 RDU983045:RDW983046 RNQ983045:RNS983046 RXM983045:RXO983046 SHI983045:SHK983046 SRE983045:SRG983046 TBA983045:TBC983046 TKW983045:TKY983046 TUS983045:TUU983046 UEO983045:UEQ983046 UOK983045:UOM983046 UYG983045:UYI983046 VIC983045:VIE983046 VRY983045:VSA983046 WBU983045:WBW983046 WLQ983045:WLS983046 WVM983045:WVO983046 JA11:JN11 SW11:TJ11 ACS11:ADF11 AMO11:ANB11 AWK11:AWX11 BGG11:BGT11 BQC11:BQP11 BZY11:CAL11 CJU11:CKH11 CTQ11:CUD11 DDM11:DDZ11 DNI11:DNV11 DXE11:DXR11 EHA11:EHN11 EQW11:ERJ11 FAS11:FBF11 FKO11:FLB11 FUK11:FUX11 GEG11:GET11 GOC11:GOP11 GXY11:GYL11 HHU11:HIH11 HRQ11:HSD11 IBM11:IBZ11 ILI11:ILV11 IVE11:IVR11 JFA11:JFN11 JOW11:JPJ11 JYS11:JZF11 KIO11:KJB11 KSK11:KSX11 LCG11:LCT11 LMC11:LMP11 LVY11:LWL11 MFU11:MGH11 MPQ11:MQD11 MZM11:MZZ11 NJI11:NJV11 NTE11:NTR11 ODA11:ODN11 OMW11:ONJ11 OWS11:OXF11 PGO11:PHB11 PQK11:PQX11 QAG11:QAT11 QKC11:QKP11 QTY11:QUL11 RDU11:REH11 RNQ11:ROD11 RXM11:RXZ11 SHI11:SHV11 SRE11:SRR11 TBA11:TBN11 TKW11:TLJ11 TUS11:TVF11 UEO11:UFB11 UOK11:UOX11 UYG11:UYT11 VIC11:VIP11 VRY11:VSL11 WBU11:WCH11 WLQ11:WMD11 WVM11:WVZ11 E65543:R65544 JA65543:JN65544 SW65543:TJ65544 ACS65543:ADF65544 AMO65543:ANB65544 AWK65543:AWX65544 BGG65543:BGT65544 BQC65543:BQP65544 BZY65543:CAL65544 CJU65543:CKH65544 CTQ65543:CUD65544 DDM65543:DDZ65544 DNI65543:DNV65544 DXE65543:DXR65544 EHA65543:EHN65544 EQW65543:ERJ65544 FAS65543:FBF65544 FKO65543:FLB65544 FUK65543:FUX65544 GEG65543:GET65544 GOC65543:GOP65544 GXY65543:GYL65544 HHU65543:HIH65544 HRQ65543:HSD65544 IBM65543:IBZ65544 ILI65543:ILV65544 IVE65543:IVR65544 JFA65543:JFN65544 JOW65543:JPJ65544 JYS65543:JZF65544 KIO65543:KJB65544 KSK65543:KSX65544 LCG65543:LCT65544 LMC65543:LMP65544 LVY65543:LWL65544 MFU65543:MGH65544 MPQ65543:MQD65544 MZM65543:MZZ65544 NJI65543:NJV65544 NTE65543:NTR65544 ODA65543:ODN65544 OMW65543:ONJ65544 OWS65543:OXF65544 PGO65543:PHB65544 PQK65543:PQX65544 QAG65543:QAT65544 QKC65543:QKP65544 QTY65543:QUL65544 RDU65543:REH65544 RNQ65543:ROD65544 RXM65543:RXZ65544 SHI65543:SHV65544 SRE65543:SRR65544 TBA65543:TBN65544 TKW65543:TLJ65544 TUS65543:TVF65544 UEO65543:UFB65544 UOK65543:UOX65544 UYG65543:UYT65544 VIC65543:VIP65544 VRY65543:VSL65544 WBU65543:WCH65544 WLQ65543:WMD65544 WVM65543:WVZ65544 E131079:R131080 JA131079:JN131080 SW131079:TJ131080 ACS131079:ADF131080 AMO131079:ANB131080 AWK131079:AWX131080 BGG131079:BGT131080 BQC131079:BQP131080 BZY131079:CAL131080 CJU131079:CKH131080 CTQ131079:CUD131080 DDM131079:DDZ131080 DNI131079:DNV131080 DXE131079:DXR131080 EHA131079:EHN131080 EQW131079:ERJ131080 FAS131079:FBF131080 FKO131079:FLB131080 FUK131079:FUX131080 GEG131079:GET131080 GOC131079:GOP131080 GXY131079:GYL131080 HHU131079:HIH131080 HRQ131079:HSD131080 IBM131079:IBZ131080 ILI131079:ILV131080 IVE131079:IVR131080 JFA131079:JFN131080 JOW131079:JPJ131080 JYS131079:JZF131080 KIO131079:KJB131080 KSK131079:KSX131080 LCG131079:LCT131080 LMC131079:LMP131080 LVY131079:LWL131080 MFU131079:MGH131080 MPQ131079:MQD131080 MZM131079:MZZ131080 NJI131079:NJV131080 NTE131079:NTR131080 ODA131079:ODN131080 OMW131079:ONJ131080 OWS131079:OXF131080 PGO131079:PHB131080 PQK131079:PQX131080 QAG131079:QAT131080 QKC131079:QKP131080 QTY131079:QUL131080 RDU131079:REH131080 RNQ131079:ROD131080 RXM131079:RXZ131080 SHI131079:SHV131080 SRE131079:SRR131080 TBA131079:TBN131080 TKW131079:TLJ131080 TUS131079:TVF131080 UEO131079:UFB131080 UOK131079:UOX131080 UYG131079:UYT131080 VIC131079:VIP131080 VRY131079:VSL131080 WBU131079:WCH131080 WLQ131079:WMD131080 WVM131079:WVZ131080 E196615:R196616 JA196615:JN196616 SW196615:TJ196616 ACS196615:ADF196616 AMO196615:ANB196616 AWK196615:AWX196616 BGG196615:BGT196616 BQC196615:BQP196616 BZY196615:CAL196616 CJU196615:CKH196616 CTQ196615:CUD196616 DDM196615:DDZ196616 DNI196615:DNV196616 DXE196615:DXR196616 EHA196615:EHN196616 EQW196615:ERJ196616 FAS196615:FBF196616 FKO196615:FLB196616 FUK196615:FUX196616 GEG196615:GET196616 GOC196615:GOP196616 GXY196615:GYL196616 HHU196615:HIH196616 HRQ196615:HSD196616 IBM196615:IBZ196616 ILI196615:ILV196616 IVE196615:IVR196616 JFA196615:JFN196616 JOW196615:JPJ196616 JYS196615:JZF196616 KIO196615:KJB196616 KSK196615:KSX196616 LCG196615:LCT196616 LMC196615:LMP196616 LVY196615:LWL196616 MFU196615:MGH196616 MPQ196615:MQD196616 MZM196615:MZZ196616 NJI196615:NJV196616 NTE196615:NTR196616 ODA196615:ODN196616 OMW196615:ONJ196616 OWS196615:OXF196616 PGO196615:PHB196616 PQK196615:PQX196616 QAG196615:QAT196616 QKC196615:QKP196616 QTY196615:QUL196616 RDU196615:REH196616 RNQ196615:ROD196616 RXM196615:RXZ196616 SHI196615:SHV196616 SRE196615:SRR196616 TBA196615:TBN196616 TKW196615:TLJ196616 TUS196615:TVF196616 UEO196615:UFB196616 UOK196615:UOX196616 UYG196615:UYT196616 VIC196615:VIP196616 VRY196615:VSL196616 WBU196615:WCH196616 WLQ196615:WMD196616 WVM196615:WVZ196616 E262151:R262152 JA262151:JN262152 SW262151:TJ262152 ACS262151:ADF262152 AMO262151:ANB262152 AWK262151:AWX262152 BGG262151:BGT262152 BQC262151:BQP262152 BZY262151:CAL262152 CJU262151:CKH262152 CTQ262151:CUD262152 DDM262151:DDZ262152 DNI262151:DNV262152 DXE262151:DXR262152 EHA262151:EHN262152 EQW262151:ERJ262152 FAS262151:FBF262152 FKO262151:FLB262152 FUK262151:FUX262152 GEG262151:GET262152 GOC262151:GOP262152 GXY262151:GYL262152 HHU262151:HIH262152 HRQ262151:HSD262152 IBM262151:IBZ262152 ILI262151:ILV262152 IVE262151:IVR262152 JFA262151:JFN262152 JOW262151:JPJ262152 JYS262151:JZF262152 KIO262151:KJB262152 KSK262151:KSX262152 LCG262151:LCT262152 LMC262151:LMP262152 LVY262151:LWL262152 MFU262151:MGH262152 MPQ262151:MQD262152 MZM262151:MZZ262152 NJI262151:NJV262152 NTE262151:NTR262152 ODA262151:ODN262152 OMW262151:ONJ262152 OWS262151:OXF262152 PGO262151:PHB262152 PQK262151:PQX262152 QAG262151:QAT262152 QKC262151:QKP262152 QTY262151:QUL262152 RDU262151:REH262152 RNQ262151:ROD262152 RXM262151:RXZ262152 SHI262151:SHV262152 SRE262151:SRR262152 TBA262151:TBN262152 TKW262151:TLJ262152 TUS262151:TVF262152 UEO262151:UFB262152 UOK262151:UOX262152 UYG262151:UYT262152 VIC262151:VIP262152 VRY262151:VSL262152 WBU262151:WCH262152 WLQ262151:WMD262152 WVM262151:WVZ262152 E327687:R327688 JA327687:JN327688 SW327687:TJ327688 ACS327687:ADF327688 AMO327687:ANB327688 AWK327687:AWX327688 BGG327687:BGT327688 BQC327687:BQP327688 BZY327687:CAL327688 CJU327687:CKH327688 CTQ327687:CUD327688 DDM327687:DDZ327688 DNI327687:DNV327688 DXE327687:DXR327688 EHA327687:EHN327688 EQW327687:ERJ327688 FAS327687:FBF327688 FKO327687:FLB327688 FUK327687:FUX327688 GEG327687:GET327688 GOC327687:GOP327688 GXY327687:GYL327688 HHU327687:HIH327688 HRQ327687:HSD327688 IBM327687:IBZ327688 ILI327687:ILV327688 IVE327687:IVR327688 JFA327687:JFN327688 JOW327687:JPJ327688 JYS327687:JZF327688 KIO327687:KJB327688 KSK327687:KSX327688 LCG327687:LCT327688 LMC327687:LMP327688 LVY327687:LWL327688 MFU327687:MGH327688 MPQ327687:MQD327688 MZM327687:MZZ327688 NJI327687:NJV327688 NTE327687:NTR327688 ODA327687:ODN327688 OMW327687:ONJ327688 OWS327687:OXF327688 PGO327687:PHB327688 PQK327687:PQX327688 QAG327687:QAT327688 QKC327687:QKP327688 QTY327687:QUL327688 RDU327687:REH327688 RNQ327687:ROD327688 RXM327687:RXZ327688 SHI327687:SHV327688 SRE327687:SRR327688 TBA327687:TBN327688 TKW327687:TLJ327688 TUS327687:TVF327688 UEO327687:UFB327688 UOK327687:UOX327688 UYG327687:UYT327688 VIC327687:VIP327688 VRY327687:VSL327688 WBU327687:WCH327688 WLQ327687:WMD327688 WVM327687:WVZ327688 E393223:R393224 JA393223:JN393224 SW393223:TJ393224 ACS393223:ADF393224 AMO393223:ANB393224 AWK393223:AWX393224 BGG393223:BGT393224 BQC393223:BQP393224 BZY393223:CAL393224 CJU393223:CKH393224 CTQ393223:CUD393224 DDM393223:DDZ393224 DNI393223:DNV393224 DXE393223:DXR393224 EHA393223:EHN393224 EQW393223:ERJ393224 FAS393223:FBF393224 FKO393223:FLB393224 FUK393223:FUX393224 GEG393223:GET393224 GOC393223:GOP393224 GXY393223:GYL393224 HHU393223:HIH393224 HRQ393223:HSD393224 IBM393223:IBZ393224 ILI393223:ILV393224 IVE393223:IVR393224 JFA393223:JFN393224 JOW393223:JPJ393224 JYS393223:JZF393224 KIO393223:KJB393224 KSK393223:KSX393224 LCG393223:LCT393224 LMC393223:LMP393224 LVY393223:LWL393224 MFU393223:MGH393224 MPQ393223:MQD393224 MZM393223:MZZ393224 NJI393223:NJV393224 NTE393223:NTR393224 ODA393223:ODN393224 OMW393223:ONJ393224 OWS393223:OXF393224 PGO393223:PHB393224 PQK393223:PQX393224 QAG393223:QAT393224 QKC393223:QKP393224 QTY393223:QUL393224 RDU393223:REH393224 RNQ393223:ROD393224 RXM393223:RXZ393224 SHI393223:SHV393224 SRE393223:SRR393224 TBA393223:TBN393224 TKW393223:TLJ393224 TUS393223:TVF393224 UEO393223:UFB393224 UOK393223:UOX393224 UYG393223:UYT393224 VIC393223:VIP393224 VRY393223:VSL393224 WBU393223:WCH393224 WLQ393223:WMD393224 WVM393223:WVZ393224 E458759:R458760 JA458759:JN458760 SW458759:TJ458760 ACS458759:ADF458760 AMO458759:ANB458760 AWK458759:AWX458760 BGG458759:BGT458760 BQC458759:BQP458760 BZY458759:CAL458760 CJU458759:CKH458760 CTQ458759:CUD458760 DDM458759:DDZ458760 DNI458759:DNV458760 DXE458759:DXR458760 EHA458759:EHN458760 EQW458759:ERJ458760 FAS458759:FBF458760 FKO458759:FLB458760 FUK458759:FUX458760 GEG458759:GET458760 GOC458759:GOP458760 GXY458759:GYL458760 HHU458759:HIH458760 HRQ458759:HSD458760 IBM458759:IBZ458760 ILI458759:ILV458760 IVE458759:IVR458760 JFA458759:JFN458760 JOW458759:JPJ458760 JYS458759:JZF458760 KIO458759:KJB458760 KSK458759:KSX458760 LCG458759:LCT458760 LMC458759:LMP458760 LVY458759:LWL458760 MFU458759:MGH458760 MPQ458759:MQD458760 MZM458759:MZZ458760 NJI458759:NJV458760 NTE458759:NTR458760 ODA458759:ODN458760 OMW458759:ONJ458760 OWS458759:OXF458760 PGO458759:PHB458760 PQK458759:PQX458760 QAG458759:QAT458760 QKC458759:QKP458760 QTY458759:QUL458760 RDU458759:REH458760 RNQ458759:ROD458760 RXM458759:RXZ458760 SHI458759:SHV458760 SRE458759:SRR458760 TBA458759:TBN458760 TKW458759:TLJ458760 TUS458759:TVF458760 UEO458759:UFB458760 UOK458759:UOX458760 UYG458759:UYT458760 VIC458759:VIP458760 VRY458759:VSL458760 WBU458759:WCH458760 WLQ458759:WMD458760 WVM458759:WVZ458760 E524295:R524296 JA524295:JN524296 SW524295:TJ524296 ACS524295:ADF524296 AMO524295:ANB524296 AWK524295:AWX524296 BGG524295:BGT524296 BQC524295:BQP524296 BZY524295:CAL524296 CJU524295:CKH524296 CTQ524295:CUD524296 DDM524295:DDZ524296 DNI524295:DNV524296 DXE524295:DXR524296 EHA524295:EHN524296 EQW524295:ERJ524296 FAS524295:FBF524296 FKO524295:FLB524296 FUK524295:FUX524296 GEG524295:GET524296 GOC524295:GOP524296 GXY524295:GYL524296 HHU524295:HIH524296 HRQ524295:HSD524296 IBM524295:IBZ524296 ILI524295:ILV524296 IVE524295:IVR524296 JFA524295:JFN524296 JOW524295:JPJ524296 JYS524295:JZF524296 KIO524295:KJB524296 KSK524295:KSX524296 LCG524295:LCT524296 LMC524295:LMP524296 LVY524295:LWL524296 MFU524295:MGH524296 MPQ524295:MQD524296 MZM524295:MZZ524296 NJI524295:NJV524296 NTE524295:NTR524296 ODA524295:ODN524296 OMW524295:ONJ524296 OWS524295:OXF524296 PGO524295:PHB524296 PQK524295:PQX524296 QAG524295:QAT524296 QKC524295:QKP524296 QTY524295:QUL524296 RDU524295:REH524296 RNQ524295:ROD524296 RXM524295:RXZ524296 SHI524295:SHV524296 SRE524295:SRR524296 TBA524295:TBN524296 TKW524295:TLJ524296 TUS524295:TVF524296 UEO524295:UFB524296 UOK524295:UOX524296 UYG524295:UYT524296 VIC524295:VIP524296 VRY524295:VSL524296 WBU524295:WCH524296 WLQ524295:WMD524296 WVM524295:WVZ524296 E589831:R589832 JA589831:JN589832 SW589831:TJ589832 ACS589831:ADF589832 AMO589831:ANB589832 AWK589831:AWX589832 BGG589831:BGT589832 BQC589831:BQP589832 BZY589831:CAL589832 CJU589831:CKH589832 CTQ589831:CUD589832 DDM589831:DDZ589832 DNI589831:DNV589832 DXE589831:DXR589832 EHA589831:EHN589832 EQW589831:ERJ589832 FAS589831:FBF589832 FKO589831:FLB589832 FUK589831:FUX589832 GEG589831:GET589832 GOC589831:GOP589832 GXY589831:GYL589832 HHU589831:HIH589832 HRQ589831:HSD589832 IBM589831:IBZ589832 ILI589831:ILV589832 IVE589831:IVR589832 JFA589831:JFN589832 JOW589831:JPJ589832 JYS589831:JZF589832 KIO589831:KJB589832 KSK589831:KSX589832 LCG589831:LCT589832 LMC589831:LMP589832 LVY589831:LWL589832 MFU589831:MGH589832 MPQ589831:MQD589832 MZM589831:MZZ589832 NJI589831:NJV589832 NTE589831:NTR589832 ODA589831:ODN589832 OMW589831:ONJ589832 OWS589831:OXF589832 PGO589831:PHB589832 PQK589831:PQX589832 QAG589831:QAT589832 QKC589831:QKP589832 QTY589831:QUL589832 RDU589831:REH589832 RNQ589831:ROD589832 RXM589831:RXZ589832 SHI589831:SHV589832 SRE589831:SRR589832 TBA589831:TBN589832 TKW589831:TLJ589832 TUS589831:TVF589832 UEO589831:UFB589832 UOK589831:UOX589832 UYG589831:UYT589832 VIC589831:VIP589832 VRY589831:VSL589832 WBU589831:WCH589832 WLQ589831:WMD589832 WVM589831:WVZ589832 E655367:R655368 JA655367:JN655368 SW655367:TJ655368 ACS655367:ADF655368 AMO655367:ANB655368 AWK655367:AWX655368 BGG655367:BGT655368 BQC655367:BQP655368 BZY655367:CAL655368 CJU655367:CKH655368 CTQ655367:CUD655368 DDM655367:DDZ655368 DNI655367:DNV655368 DXE655367:DXR655368 EHA655367:EHN655368 EQW655367:ERJ655368 FAS655367:FBF655368 FKO655367:FLB655368 FUK655367:FUX655368 GEG655367:GET655368 GOC655367:GOP655368 GXY655367:GYL655368 HHU655367:HIH655368 HRQ655367:HSD655368 IBM655367:IBZ655368 ILI655367:ILV655368 IVE655367:IVR655368 JFA655367:JFN655368 JOW655367:JPJ655368 JYS655367:JZF655368 KIO655367:KJB655368 KSK655367:KSX655368 LCG655367:LCT655368 LMC655367:LMP655368 LVY655367:LWL655368 MFU655367:MGH655368 MPQ655367:MQD655368 MZM655367:MZZ655368 NJI655367:NJV655368 NTE655367:NTR655368 ODA655367:ODN655368 OMW655367:ONJ655368 OWS655367:OXF655368 PGO655367:PHB655368 PQK655367:PQX655368 QAG655367:QAT655368 QKC655367:QKP655368 QTY655367:QUL655368 RDU655367:REH655368 RNQ655367:ROD655368 RXM655367:RXZ655368 SHI655367:SHV655368 SRE655367:SRR655368 TBA655367:TBN655368 TKW655367:TLJ655368 TUS655367:TVF655368 UEO655367:UFB655368 UOK655367:UOX655368 UYG655367:UYT655368 VIC655367:VIP655368 VRY655367:VSL655368 WBU655367:WCH655368 WLQ655367:WMD655368 WVM655367:WVZ655368 E720903:R720904 JA720903:JN720904 SW720903:TJ720904 ACS720903:ADF720904 AMO720903:ANB720904 AWK720903:AWX720904 BGG720903:BGT720904 BQC720903:BQP720904 BZY720903:CAL720904 CJU720903:CKH720904 CTQ720903:CUD720904 DDM720903:DDZ720904 DNI720903:DNV720904 DXE720903:DXR720904 EHA720903:EHN720904 EQW720903:ERJ720904 FAS720903:FBF720904 FKO720903:FLB720904 FUK720903:FUX720904 GEG720903:GET720904 GOC720903:GOP720904 GXY720903:GYL720904 HHU720903:HIH720904 HRQ720903:HSD720904 IBM720903:IBZ720904 ILI720903:ILV720904 IVE720903:IVR720904 JFA720903:JFN720904 JOW720903:JPJ720904 JYS720903:JZF720904 KIO720903:KJB720904 KSK720903:KSX720904 LCG720903:LCT720904 LMC720903:LMP720904 LVY720903:LWL720904 MFU720903:MGH720904 MPQ720903:MQD720904 MZM720903:MZZ720904 NJI720903:NJV720904 NTE720903:NTR720904 ODA720903:ODN720904 OMW720903:ONJ720904 OWS720903:OXF720904 PGO720903:PHB720904 PQK720903:PQX720904 QAG720903:QAT720904 QKC720903:QKP720904 QTY720903:QUL720904 RDU720903:REH720904 RNQ720903:ROD720904 RXM720903:RXZ720904 SHI720903:SHV720904 SRE720903:SRR720904 TBA720903:TBN720904 TKW720903:TLJ720904 TUS720903:TVF720904 UEO720903:UFB720904 UOK720903:UOX720904 UYG720903:UYT720904 VIC720903:VIP720904 VRY720903:VSL720904 WBU720903:WCH720904 WLQ720903:WMD720904 WVM720903:WVZ720904 E786439:R786440 JA786439:JN786440 SW786439:TJ786440 ACS786439:ADF786440 AMO786439:ANB786440 AWK786439:AWX786440 BGG786439:BGT786440 BQC786439:BQP786440 BZY786439:CAL786440 CJU786439:CKH786440 CTQ786439:CUD786440 DDM786439:DDZ786440 DNI786439:DNV786440 DXE786439:DXR786440 EHA786439:EHN786440 EQW786439:ERJ786440 FAS786439:FBF786440 FKO786439:FLB786440 FUK786439:FUX786440 GEG786439:GET786440 GOC786439:GOP786440 GXY786439:GYL786440 HHU786439:HIH786440 HRQ786439:HSD786440 IBM786439:IBZ786440 ILI786439:ILV786440 IVE786439:IVR786440 JFA786439:JFN786440 JOW786439:JPJ786440 JYS786439:JZF786440 KIO786439:KJB786440 KSK786439:KSX786440 LCG786439:LCT786440 LMC786439:LMP786440 LVY786439:LWL786440 MFU786439:MGH786440 MPQ786439:MQD786440 MZM786439:MZZ786440 NJI786439:NJV786440 NTE786439:NTR786440 ODA786439:ODN786440 OMW786439:ONJ786440 OWS786439:OXF786440 PGO786439:PHB786440 PQK786439:PQX786440 QAG786439:QAT786440 QKC786439:QKP786440 QTY786439:QUL786440 RDU786439:REH786440 RNQ786439:ROD786440 RXM786439:RXZ786440 SHI786439:SHV786440 SRE786439:SRR786440 TBA786439:TBN786440 TKW786439:TLJ786440 TUS786439:TVF786440 UEO786439:UFB786440 UOK786439:UOX786440 UYG786439:UYT786440 VIC786439:VIP786440 VRY786439:VSL786440 WBU786439:WCH786440 WLQ786439:WMD786440 WVM786439:WVZ786440 E851975:R851976 JA851975:JN851976 SW851975:TJ851976 ACS851975:ADF851976 AMO851975:ANB851976 AWK851975:AWX851976 BGG851975:BGT851976 BQC851975:BQP851976 BZY851975:CAL851976 CJU851975:CKH851976 CTQ851975:CUD851976 DDM851975:DDZ851976 DNI851975:DNV851976 DXE851975:DXR851976 EHA851975:EHN851976 EQW851975:ERJ851976 FAS851975:FBF851976 FKO851975:FLB851976 FUK851975:FUX851976 GEG851975:GET851976 GOC851975:GOP851976 GXY851975:GYL851976 HHU851975:HIH851976 HRQ851975:HSD851976 IBM851975:IBZ851976 ILI851975:ILV851976 IVE851975:IVR851976 JFA851975:JFN851976 JOW851975:JPJ851976 JYS851975:JZF851976 KIO851975:KJB851976 KSK851975:KSX851976 LCG851975:LCT851976 LMC851975:LMP851976 LVY851975:LWL851976 MFU851975:MGH851976 MPQ851975:MQD851976 MZM851975:MZZ851976 NJI851975:NJV851976 NTE851975:NTR851976 ODA851975:ODN851976 OMW851975:ONJ851976 OWS851975:OXF851976 PGO851975:PHB851976 PQK851975:PQX851976 QAG851975:QAT851976 QKC851975:QKP851976 QTY851975:QUL851976 RDU851975:REH851976 RNQ851975:ROD851976 RXM851975:RXZ851976 SHI851975:SHV851976 SRE851975:SRR851976 TBA851975:TBN851976 TKW851975:TLJ851976 TUS851975:TVF851976 UEO851975:UFB851976 UOK851975:UOX851976 UYG851975:UYT851976 VIC851975:VIP851976 VRY851975:VSL851976 WBU851975:WCH851976 WLQ851975:WMD851976 WVM851975:WVZ851976 E917511:R917512 JA917511:JN917512 SW917511:TJ917512 ACS917511:ADF917512 AMO917511:ANB917512 AWK917511:AWX917512 BGG917511:BGT917512 BQC917511:BQP917512 BZY917511:CAL917512 CJU917511:CKH917512 CTQ917511:CUD917512 DDM917511:DDZ917512 DNI917511:DNV917512 DXE917511:DXR917512 EHA917511:EHN917512 EQW917511:ERJ917512 FAS917511:FBF917512 FKO917511:FLB917512 FUK917511:FUX917512 GEG917511:GET917512 GOC917511:GOP917512 GXY917511:GYL917512 HHU917511:HIH917512 HRQ917511:HSD917512 IBM917511:IBZ917512 ILI917511:ILV917512 IVE917511:IVR917512 JFA917511:JFN917512 JOW917511:JPJ917512 JYS917511:JZF917512 KIO917511:KJB917512 KSK917511:KSX917512 LCG917511:LCT917512 LMC917511:LMP917512 LVY917511:LWL917512 MFU917511:MGH917512 MPQ917511:MQD917512 MZM917511:MZZ917512 NJI917511:NJV917512 NTE917511:NTR917512 ODA917511:ODN917512 OMW917511:ONJ917512 OWS917511:OXF917512 PGO917511:PHB917512 PQK917511:PQX917512 QAG917511:QAT917512 QKC917511:QKP917512 QTY917511:QUL917512 RDU917511:REH917512 RNQ917511:ROD917512 RXM917511:RXZ917512 SHI917511:SHV917512 SRE917511:SRR917512 TBA917511:TBN917512 TKW917511:TLJ917512 TUS917511:TVF917512 UEO917511:UFB917512 UOK917511:UOX917512 UYG917511:UYT917512 VIC917511:VIP917512 VRY917511:VSL917512 WBU917511:WCH917512 WLQ917511:WMD917512 WVM917511:WVZ917512 E983047:R983048 JA983047:JN983048 SW983047:TJ983048 ACS983047:ADF983048 AMO983047:ANB983048 AWK983047:AWX983048 BGG983047:BGT983048 BQC983047:BQP983048 BZY983047:CAL983048 CJU983047:CKH983048 CTQ983047:CUD983048 DDM983047:DDZ983048 DNI983047:DNV983048 DXE983047:DXR983048 EHA983047:EHN983048 EQW983047:ERJ983048 FAS983047:FBF983048 FKO983047:FLB983048 FUK983047:FUX983048 GEG983047:GET983048 GOC983047:GOP983048 GXY983047:GYL983048 HHU983047:HIH983048 HRQ983047:HSD983048 IBM983047:IBZ983048 ILI983047:ILV983048 IVE983047:IVR983048 JFA983047:JFN983048 JOW983047:JPJ983048 JYS983047:JZF983048 KIO983047:KJB983048 KSK983047:KSX983048 LCG983047:LCT983048 LMC983047:LMP983048 LVY983047:LWL983048 MFU983047:MGH983048 MPQ983047:MQD983048 MZM983047:MZZ983048 NJI983047:NJV983048 NTE983047:NTR983048 ODA983047:ODN983048 OMW983047:ONJ983048 OWS983047:OXF983048 PGO983047:PHB983048 PQK983047:PQX983048 QAG983047:QAT983048 QKC983047:QKP983048 QTY983047:QUL983048 RDU983047:REH983048 RNQ983047:ROD983048 RXM983047:RXZ983048 SHI983047:SHV983048 SRE983047:SRR983048 TBA983047:TBN983048 TKW983047:TLJ983048 TUS983047:TVF983048 UEO983047:UFB983048 UOK983047:UOX983048 UYG983047:UYT983048 VIC983047:VIP983048 VRY983047:VSL983048 WBU983047:WCH983048 WLQ983047:WMD983048 WVM983047:WVZ983048 E11:R12 JC12:JN12 SY12:TJ12 ACU12:ADF12 AMQ12:ANB12 AWM12:AWX12 BGI12:BGT12 BQE12:BQP12 CAA12:CAL12 CJW12:CKH12 CTS12:CUD12 DDO12:DDZ12 DNK12:DNV12 DXG12:DXR12 EHC12:EHN12 EQY12:ERJ12 FAU12:FBF12 FKQ12:FLB12 FUM12:FUX12 GEI12:GET12 GOE12:GOP12 GYA12:GYL12 HHW12:HIH12 HRS12:HSD12 IBO12:IBZ12 ILK12:ILV12 IVG12:IVR12 JFC12:JFN12 JOY12:JPJ12 JYU12:JZF12 KIQ12:KJB12 KSM12:KSX12 LCI12:LCT12 LME12:LMP12 LWA12:LWL12 MFW12:MGH12 MPS12:MQD12 MZO12:MZZ12 NJK12:NJV12 NTG12:NTR12 ODC12:ODN12 OMY12:ONJ12 OWU12:OXF12 PGQ12:PHB12 PQM12:PQX12 QAI12:QAT12 QKE12:QKP12 QUA12:QUL12 RDW12:REH12 RNS12:ROD12 RXO12:RXZ12 SHK12:SHV12 SRG12:SRR12 TBC12:TBN12 TKY12:TLJ12 TUU12:TVF12 UEQ12:UFB12 UOM12:UOX12 UYI12:UYT12 VIE12:VIP12 VSA12:VSL12 WBW12:WCH12 WLS12:WMD12 WVO12:WVZ12 G65545:R65545 JC65545:JN65545 SY65545:TJ65545 ACU65545:ADF65545 AMQ65545:ANB65545 AWM65545:AWX65545 BGI65545:BGT65545 BQE65545:BQP65545 CAA65545:CAL65545 CJW65545:CKH65545 CTS65545:CUD65545 DDO65545:DDZ65545 DNK65545:DNV65545 DXG65545:DXR65545 EHC65545:EHN65545 EQY65545:ERJ65545 FAU65545:FBF65545 FKQ65545:FLB65545 FUM65545:FUX65545 GEI65545:GET65545 GOE65545:GOP65545 GYA65545:GYL65545 HHW65545:HIH65545 HRS65545:HSD65545 IBO65545:IBZ65545 ILK65545:ILV65545 IVG65545:IVR65545 JFC65545:JFN65545 JOY65545:JPJ65545 JYU65545:JZF65545 KIQ65545:KJB65545 KSM65545:KSX65545 LCI65545:LCT65545 LME65545:LMP65545 LWA65545:LWL65545 MFW65545:MGH65545 MPS65545:MQD65545 MZO65545:MZZ65545 NJK65545:NJV65545 NTG65545:NTR65545 ODC65545:ODN65545 OMY65545:ONJ65545 OWU65545:OXF65545 PGQ65545:PHB65545 PQM65545:PQX65545 QAI65545:QAT65545 QKE65545:QKP65545 QUA65545:QUL65545 RDW65545:REH65545 RNS65545:ROD65545 RXO65545:RXZ65545 SHK65545:SHV65545 SRG65545:SRR65545 TBC65545:TBN65545 TKY65545:TLJ65545 TUU65545:TVF65545 UEQ65545:UFB65545 UOM65545:UOX65545 UYI65545:UYT65545 VIE65545:VIP65545 VSA65545:VSL65545 WBW65545:WCH65545 WLS65545:WMD65545 WVO65545:WVZ65545 G131081:R131081 JC131081:JN131081 SY131081:TJ131081 ACU131081:ADF131081 AMQ131081:ANB131081 AWM131081:AWX131081 BGI131081:BGT131081 BQE131081:BQP131081 CAA131081:CAL131081 CJW131081:CKH131081 CTS131081:CUD131081 DDO131081:DDZ131081 DNK131081:DNV131081 DXG131081:DXR131081 EHC131081:EHN131081 EQY131081:ERJ131081 FAU131081:FBF131081 FKQ131081:FLB131081 FUM131081:FUX131081 GEI131081:GET131081 GOE131081:GOP131081 GYA131081:GYL131081 HHW131081:HIH131081 HRS131081:HSD131081 IBO131081:IBZ131081 ILK131081:ILV131081 IVG131081:IVR131081 JFC131081:JFN131081 JOY131081:JPJ131081 JYU131081:JZF131081 KIQ131081:KJB131081 KSM131081:KSX131081 LCI131081:LCT131081 LME131081:LMP131081 LWA131081:LWL131081 MFW131081:MGH131081 MPS131081:MQD131081 MZO131081:MZZ131081 NJK131081:NJV131081 NTG131081:NTR131081 ODC131081:ODN131081 OMY131081:ONJ131081 OWU131081:OXF131081 PGQ131081:PHB131081 PQM131081:PQX131081 QAI131081:QAT131081 QKE131081:QKP131081 QUA131081:QUL131081 RDW131081:REH131081 RNS131081:ROD131081 RXO131081:RXZ131081 SHK131081:SHV131081 SRG131081:SRR131081 TBC131081:TBN131081 TKY131081:TLJ131081 TUU131081:TVF131081 UEQ131081:UFB131081 UOM131081:UOX131081 UYI131081:UYT131081 VIE131081:VIP131081 VSA131081:VSL131081 WBW131081:WCH131081 WLS131081:WMD131081 WVO131081:WVZ131081 G196617:R196617 JC196617:JN196617 SY196617:TJ196617 ACU196617:ADF196617 AMQ196617:ANB196617 AWM196617:AWX196617 BGI196617:BGT196617 BQE196617:BQP196617 CAA196617:CAL196617 CJW196617:CKH196617 CTS196617:CUD196617 DDO196617:DDZ196617 DNK196617:DNV196617 DXG196617:DXR196617 EHC196617:EHN196617 EQY196617:ERJ196617 FAU196617:FBF196617 FKQ196617:FLB196617 FUM196617:FUX196617 GEI196617:GET196617 GOE196617:GOP196617 GYA196617:GYL196617 HHW196617:HIH196617 HRS196617:HSD196617 IBO196617:IBZ196617 ILK196617:ILV196617 IVG196617:IVR196617 JFC196617:JFN196617 JOY196617:JPJ196617 JYU196617:JZF196617 KIQ196617:KJB196617 KSM196617:KSX196617 LCI196617:LCT196617 LME196617:LMP196617 LWA196617:LWL196617 MFW196617:MGH196617 MPS196617:MQD196617 MZO196617:MZZ196617 NJK196617:NJV196617 NTG196617:NTR196617 ODC196617:ODN196617 OMY196617:ONJ196617 OWU196617:OXF196617 PGQ196617:PHB196617 PQM196617:PQX196617 QAI196617:QAT196617 QKE196617:QKP196617 QUA196617:QUL196617 RDW196617:REH196617 RNS196617:ROD196617 RXO196617:RXZ196617 SHK196617:SHV196617 SRG196617:SRR196617 TBC196617:TBN196617 TKY196617:TLJ196617 TUU196617:TVF196617 UEQ196617:UFB196617 UOM196617:UOX196617 UYI196617:UYT196617 VIE196617:VIP196617 VSA196617:VSL196617 WBW196617:WCH196617 WLS196617:WMD196617 WVO196617:WVZ196617 G262153:R262153 JC262153:JN262153 SY262153:TJ262153 ACU262153:ADF262153 AMQ262153:ANB262153 AWM262153:AWX262153 BGI262153:BGT262153 BQE262153:BQP262153 CAA262153:CAL262153 CJW262153:CKH262153 CTS262153:CUD262153 DDO262153:DDZ262153 DNK262153:DNV262153 DXG262153:DXR262153 EHC262153:EHN262153 EQY262153:ERJ262153 FAU262153:FBF262153 FKQ262153:FLB262153 FUM262153:FUX262153 GEI262153:GET262153 GOE262153:GOP262153 GYA262153:GYL262153 HHW262153:HIH262153 HRS262153:HSD262153 IBO262153:IBZ262153 ILK262153:ILV262153 IVG262153:IVR262153 JFC262153:JFN262153 JOY262153:JPJ262153 JYU262153:JZF262153 KIQ262153:KJB262153 KSM262153:KSX262153 LCI262153:LCT262153 LME262153:LMP262153 LWA262153:LWL262153 MFW262153:MGH262153 MPS262153:MQD262153 MZO262153:MZZ262153 NJK262153:NJV262153 NTG262153:NTR262153 ODC262153:ODN262153 OMY262153:ONJ262153 OWU262153:OXF262153 PGQ262153:PHB262153 PQM262153:PQX262153 QAI262153:QAT262153 QKE262153:QKP262153 QUA262153:QUL262153 RDW262153:REH262153 RNS262153:ROD262153 RXO262153:RXZ262153 SHK262153:SHV262153 SRG262153:SRR262153 TBC262153:TBN262153 TKY262153:TLJ262153 TUU262153:TVF262153 UEQ262153:UFB262153 UOM262153:UOX262153 UYI262153:UYT262153 VIE262153:VIP262153 VSA262153:VSL262153 WBW262153:WCH262153 WLS262153:WMD262153 WVO262153:WVZ262153 G327689:R327689 JC327689:JN327689 SY327689:TJ327689 ACU327689:ADF327689 AMQ327689:ANB327689 AWM327689:AWX327689 BGI327689:BGT327689 BQE327689:BQP327689 CAA327689:CAL327689 CJW327689:CKH327689 CTS327689:CUD327689 DDO327689:DDZ327689 DNK327689:DNV327689 DXG327689:DXR327689 EHC327689:EHN327689 EQY327689:ERJ327689 FAU327689:FBF327689 FKQ327689:FLB327689 FUM327689:FUX327689 GEI327689:GET327689 GOE327689:GOP327689 GYA327689:GYL327689 HHW327689:HIH327689 HRS327689:HSD327689 IBO327689:IBZ327689 ILK327689:ILV327689 IVG327689:IVR327689 JFC327689:JFN327689 JOY327689:JPJ327689 JYU327689:JZF327689 KIQ327689:KJB327689 KSM327689:KSX327689 LCI327689:LCT327689 LME327689:LMP327689 LWA327689:LWL327689 MFW327689:MGH327689 MPS327689:MQD327689 MZO327689:MZZ327689 NJK327689:NJV327689 NTG327689:NTR327689 ODC327689:ODN327689 OMY327689:ONJ327689 OWU327689:OXF327689 PGQ327689:PHB327689 PQM327689:PQX327689 QAI327689:QAT327689 QKE327689:QKP327689 QUA327689:QUL327689 RDW327689:REH327689 RNS327689:ROD327689 RXO327689:RXZ327689 SHK327689:SHV327689 SRG327689:SRR327689 TBC327689:TBN327689 TKY327689:TLJ327689 TUU327689:TVF327689 UEQ327689:UFB327689 UOM327689:UOX327689 UYI327689:UYT327689 VIE327689:VIP327689 VSA327689:VSL327689 WBW327689:WCH327689 WLS327689:WMD327689 WVO327689:WVZ327689 G393225:R393225 JC393225:JN393225 SY393225:TJ393225 ACU393225:ADF393225 AMQ393225:ANB393225 AWM393225:AWX393225 BGI393225:BGT393225 BQE393225:BQP393225 CAA393225:CAL393225 CJW393225:CKH393225 CTS393225:CUD393225 DDO393225:DDZ393225 DNK393225:DNV393225 DXG393225:DXR393225 EHC393225:EHN393225 EQY393225:ERJ393225 FAU393225:FBF393225 FKQ393225:FLB393225 FUM393225:FUX393225 GEI393225:GET393225 GOE393225:GOP393225 GYA393225:GYL393225 HHW393225:HIH393225 HRS393225:HSD393225 IBO393225:IBZ393225 ILK393225:ILV393225 IVG393225:IVR393225 JFC393225:JFN393225 JOY393225:JPJ393225 JYU393225:JZF393225 KIQ393225:KJB393225 KSM393225:KSX393225 LCI393225:LCT393225 LME393225:LMP393225 LWA393225:LWL393225 MFW393225:MGH393225 MPS393225:MQD393225 MZO393225:MZZ393225 NJK393225:NJV393225 NTG393225:NTR393225 ODC393225:ODN393225 OMY393225:ONJ393225 OWU393225:OXF393225 PGQ393225:PHB393225 PQM393225:PQX393225 QAI393225:QAT393225 QKE393225:QKP393225 QUA393225:QUL393225 RDW393225:REH393225 RNS393225:ROD393225 RXO393225:RXZ393225 SHK393225:SHV393225 SRG393225:SRR393225 TBC393225:TBN393225 TKY393225:TLJ393225 TUU393225:TVF393225 UEQ393225:UFB393225 UOM393225:UOX393225 UYI393225:UYT393225 VIE393225:VIP393225 VSA393225:VSL393225 WBW393225:WCH393225 WLS393225:WMD393225 WVO393225:WVZ393225 G458761:R458761 JC458761:JN458761 SY458761:TJ458761 ACU458761:ADF458761 AMQ458761:ANB458761 AWM458761:AWX458761 BGI458761:BGT458761 BQE458761:BQP458761 CAA458761:CAL458761 CJW458761:CKH458761 CTS458761:CUD458761 DDO458761:DDZ458761 DNK458761:DNV458761 DXG458761:DXR458761 EHC458761:EHN458761 EQY458761:ERJ458761 FAU458761:FBF458761 FKQ458761:FLB458761 FUM458761:FUX458761 GEI458761:GET458761 GOE458761:GOP458761 GYA458761:GYL458761 HHW458761:HIH458761 HRS458761:HSD458761 IBO458761:IBZ458761 ILK458761:ILV458761 IVG458761:IVR458761 JFC458761:JFN458761 JOY458761:JPJ458761 JYU458761:JZF458761 KIQ458761:KJB458761 KSM458761:KSX458761 LCI458761:LCT458761 LME458761:LMP458761 LWA458761:LWL458761 MFW458761:MGH458761 MPS458761:MQD458761 MZO458761:MZZ458761 NJK458761:NJV458761 NTG458761:NTR458761 ODC458761:ODN458761 OMY458761:ONJ458761 OWU458761:OXF458761 PGQ458761:PHB458761 PQM458761:PQX458761 QAI458761:QAT458761 QKE458761:QKP458761 QUA458761:QUL458761 RDW458761:REH458761 RNS458761:ROD458761 RXO458761:RXZ458761 SHK458761:SHV458761 SRG458761:SRR458761 TBC458761:TBN458761 TKY458761:TLJ458761 TUU458761:TVF458761 UEQ458761:UFB458761 UOM458761:UOX458761 UYI458761:UYT458761 VIE458761:VIP458761 VSA458761:VSL458761 WBW458761:WCH458761 WLS458761:WMD458761 WVO458761:WVZ458761 G524297:R524297 JC524297:JN524297 SY524297:TJ524297 ACU524297:ADF524297 AMQ524297:ANB524297 AWM524297:AWX524297 BGI524297:BGT524297 BQE524297:BQP524297 CAA524297:CAL524297 CJW524297:CKH524297 CTS524297:CUD524297 DDO524297:DDZ524297 DNK524297:DNV524297 DXG524297:DXR524297 EHC524297:EHN524297 EQY524297:ERJ524297 FAU524297:FBF524297 FKQ524297:FLB524297 FUM524297:FUX524297 GEI524297:GET524297 GOE524297:GOP524297 GYA524297:GYL524297 HHW524297:HIH524297 HRS524297:HSD524297 IBO524297:IBZ524297 ILK524297:ILV524297 IVG524297:IVR524297 JFC524297:JFN524297 JOY524297:JPJ524297 JYU524297:JZF524297 KIQ524297:KJB524297 KSM524297:KSX524297 LCI524297:LCT524297 LME524297:LMP524297 LWA524297:LWL524297 MFW524297:MGH524297 MPS524297:MQD524297 MZO524297:MZZ524297 NJK524297:NJV524297 NTG524297:NTR524297 ODC524297:ODN524297 OMY524297:ONJ524297 OWU524297:OXF524297 PGQ524297:PHB524297 PQM524297:PQX524297 QAI524297:QAT524297 QKE524297:QKP524297 QUA524297:QUL524297 RDW524297:REH524297 RNS524297:ROD524297 RXO524297:RXZ524297 SHK524297:SHV524297 SRG524297:SRR524297 TBC524297:TBN524297 TKY524297:TLJ524297 TUU524297:TVF524297 UEQ524297:UFB524297 UOM524297:UOX524297 UYI524297:UYT524297 VIE524297:VIP524297 VSA524297:VSL524297 WBW524297:WCH524297 WLS524297:WMD524297 WVO524297:WVZ524297 G589833:R589833 JC589833:JN589833 SY589833:TJ589833 ACU589833:ADF589833 AMQ589833:ANB589833 AWM589833:AWX589833 BGI589833:BGT589833 BQE589833:BQP589833 CAA589833:CAL589833 CJW589833:CKH589833 CTS589833:CUD589833 DDO589833:DDZ589833 DNK589833:DNV589833 DXG589833:DXR589833 EHC589833:EHN589833 EQY589833:ERJ589833 FAU589833:FBF589833 FKQ589833:FLB589833 FUM589833:FUX589833 GEI589833:GET589833 GOE589833:GOP589833 GYA589833:GYL589833 HHW589833:HIH589833 HRS589833:HSD589833 IBO589833:IBZ589833 ILK589833:ILV589833 IVG589833:IVR589833 JFC589833:JFN589833 JOY589833:JPJ589833 JYU589833:JZF589833 KIQ589833:KJB589833 KSM589833:KSX589833 LCI589833:LCT589833 LME589833:LMP589833 LWA589833:LWL589833 MFW589833:MGH589833 MPS589833:MQD589833 MZO589833:MZZ589833 NJK589833:NJV589833 NTG589833:NTR589833 ODC589833:ODN589833 OMY589833:ONJ589833 OWU589833:OXF589833 PGQ589833:PHB589833 PQM589833:PQX589833 QAI589833:QAT589833 QKE589833:QKP589833 QUA589833:QUL589833 RDW589833:REH589833 RNS589833:ROD589833 RXO589833:RXZ589833 SHK589833:SHV589833 SRG589833:SRR589833 TBC589833:TBN589833 TKY589833:TLJ589833 TUU589833:TVF589833 UEQ589833:UFB589833 UOM589833:UOX589833 UYI589833:UYT589833 VIE589833:VIP589833 VSA589833:VSL589833 WBW589833:WCH589833 WLS589833:WMD589833 WVO589833:WVZ589833 G655369:R655369 JC655369:JN655369 SY655369:TJ655369 ACU655369:ADF655369 AMQ655369:ANB655369 AWM655369:AWX655369 BGI655369:BGT655369 BQE655369:BQP655369 CAA655369:CAL655369 CJW655369:CKH655369 CTS655369:CUD655369 DDO655369:DDZ655369 DNK655369:DNV655369 DXG655369:DXR655369 EHC655369:EHN655369 EQY655369:ERJ655369 FAU655369:FBF655369 FKQ655369:FLB655369 FUM655369:FUX655369 GEI655369:GET655369 GOE655369:GOP655369 GYA655369:GYL655369 HHW655369:HIH655369 HRS655369:HSD655369 IBO655369:IBZ655369 ILK655369:ILV655369 IVG655369:IVR655369 JFC655369:JFN655369 JOY655369:JPJ655369 JYU655369:JZF655369 KIQ655369:KJB655369 KSM655369:KSX655369 LCI655369:LCT655369 LME655369:LMP655369 LWA655369:LWL655369 MFW655369:MGH655369 MPS655369:MQD655369 MZO655369:MZZ655369 NJK655369:NJV655369 NTG655369:NTR655369 ODC655369:ODN655369 OMY655369:ONJ655369 OWU655369:OXF655369 PGQ655369:PHB655369 PQM655369:PQX655369 QAI655369:QAT655369 QKE655369:QKP655369 QUA655369:QUL655369 RDW655369:REH655369 RNS655369:ROD655369 RXO655369:RXZ655369 SHK655369:SHV655369 SRG655369:SRR655369 TBC655369:TBN655369 TKY655369:TLJ655369 TUU655369:TVF655369 UEQ655369:UFB655369 UOM655369:UOX655369 UYI655369:UYT655369 VIE655369:VIP655369 VSA655369:VSL655369 WBW655369:WCH655369 WLS655369:WMD655369 WVO655369:WVZ655369 G720905:R720905 JC720905:JN720905 SY720905:TJ720905 ACU720905:ADF720905 AMQ720905:ANB720905 AWM720905:AWX720905 BGI720905:BGT720905 BQE720905:BQP720905 CAA720905:CAL720905 CJW720905:CKH720905 CTS720905:CUD720905 DDO720905:DDZ720905 DNK720905:DNV720905 DXG720905:DXR720905 EHC720905:EHN720905 EQY720905:ERJ720905 FAU720905:FBF720905 FKQ720905:FLB720905 FUM720905:FUX720905 GEI720905:GET720905 GOE720905:GOP720905 GYA720905:GYL720905 HHW720905:HIH720905 HRS720905:HSD720905 IBO720905:IBZ720905 ILK720905:ILV720905 IVG720905:IVR720905 JFC720905:JFN720905 JOY720905:JPJ720905 JYU720905:JZF720905 KIQ720905:KJB720905 KSM720905:KSX720905 LCI720905:LCT720905 LME720905:LMP720905 LWA720905:LWL720905 MFW720905:MGH720905 MPS720905:MQD720905 MZO720905:MZZ720905 NJK720905:NJV720905 NTG720905:NTR720905 ODC720905:ODN720905 OMY720905:ONJ720905 OWU720905:OXF720905 PGQ720905:PHB720905 PQM720905:PQX720905 QAI720905:QAT720905 QKE720905:QKP720905 QUA720905:QUL720905 RDW720905:REH720905 RNS720905:ROD720905 RXO720905:RXZ720905 SHK720905:SHV720905 SRG720905:SRR720905 TBC720905:TBN720905 TKY720905:TLJ720905 TUU720905:TVF720905 UEQ720905:UFB720905 UOM720905:UOX720905 UYI720905:UYT720905 VIE720905:VIP720905 VSA720905:VSL720905 WBW720905:WCH720905 WLS720905:WMD720905 WVO720905:WVZ720905 G786441:R786441 JC786441:JN786441 SY786441:TJ786441 ACU786441:ADF786441 AMQ786441:ANB786441 AWM786441:AWX786441 BGI786441:BGT786441 BQE786441:BQP786441 CAA786441:CAL786441 CJW786441:CKH786441 CTS786441:CUD786441 DDO786441:DDZ786441 DNK786441:DNV786441 DXG786441:DXR786441 EHC786441:EHN786441 EQY786441:ERJ786441 FAU786441:FBF786441 FKQ786441:FLB786441 FUM786441:FUX786441 GEI786441:GET786441 GOE786441:GOP786441 GYA786441:GYL786441 HHW786441:HIH786441 HRS786441:HSD786441 IBO786441:IBZ786441 ILK786441:ILV786441 IVG786441:IVR786441 JFC786441:JFN786441 JOY786441:JPJ786441 JYU786441:JZF786441 KIQ786441:KJB786441 KSM786441:KSX786441 LCI786441:LCT786441 LME786441:LMP786441 LWA786441:LWL786441 MFW786441:MGH786441 MPS786441:MQD786441 MZO786441:MZZ786441 NJK786441:NJV786441 NTG786441:NTR786441 ODC786441:ODN786441 OMY786441:ONJ786441 OWU786441:OXF786441 PGQ786441:PHB786441 PQM786441:PQX786441 QAI786441:QAT786441 QKE786441:QKP786441 QUA786441:QUL786441 RDW786441:REH786441 RNS786441:ROD786441 RXO786441:RXZ786441 SHK786441:SHV786441 SRG786441:SRR786441 TBC786441:TBN786441 TKY786441:TLJ786441 TUU786441:TVF786441 UEQ786441:UFB786441 UOM786441:UOX786441 UYI786441:UYT786441 VIE786441:VIP786441 VSA786441:VSL786441 WBW786441:WCH786441 WLS786441:WMD786441 WVO786441:WVZ786441 G851977:R851977 JC851977:JN851977 SY851977:TJ851977 ACU851977:ADF851977 AMQ851977:ANB851977 AWM851977:AWX851977 BGI851977:BGT851977 BQE851977:BQP851977 CAA851977:CAL851977 CJW851977:CKH851977 CTS851977:CUD851977 DDO851977:DDZ851977 DNK851977:DNV851977 DXG851977:DXR851977 EHC851977:EHN851977 EQY851977:ERJ851977 FAU851977:FBF851977 FKQ851977:FLB851977 FUM851977:FUX851977 GEI851977:GET851977 GOE851977:GOP851977 GYA851977:GYL851977 HHW851977:HIH851977 HRS851977:HSD851977 IBO851977:IBZ851977 ILK851977:ILV851977 IVG851977:IVR851977 JFC851977:JFN851977 JOY851977:JPJ851977 JYU851977:JZF851977 KIQ851977:KJB851977 KSM851977:KSX851977 LCI851977:LCT851977 LME851977:LMP851977 LWA851977:LWL851977 MFW851977:MGH851977 MPS851977:MQD851977 MZO851977:MZZ851977 NJK851977:NJV851977 NTG851977:NTR851977 ODC851977:ODN851977 OMY851977:ONJ851977 OWU851977:OXF851977 PGQ851977:PHB851977 PQM851977:PQX851977 QAI851977:QAT851977 QKE851977:QKP851977 QUA851977:QUL851977 RDW851977:REH851977 RNS851977:ROD851977 RXO851977:RXZ851977 SHK851977:SHV851977 SRG851977:SRR851977 TBC851977:TBN851977 TKY851977:TLJ851977 TUU851977:TVF851977 UEQ851977:UFB851977 UOM851977:UOX851977 UYI851977:UYT851977 VIE851977:VIP851977 VSA851977:VSL851977 WBW851977:WCH851977 WLS851977:WMD851977 WVO851977:WVZ851977 G917513:R917513 JC917513:JN917513 SY917513:TJ917513 ACU917513:ADF917513 AMQ917513:ANB917513 AWM917513:AWX917513 BGI917513:BGT917513 BQE917513:BQP917513 CAA917513:CAL917513 CJW917513:CKH917513 CTS917513:CUD917513 DDO917513:DDZ917513 DNK917513:DNV917513 DXG917513:DXR917513 EHC917513:EHN917513 EQY917513:ERJ917513 FAU917513:FBF917513 FKQ917513:FLB917513 FUM917513:FUX917513 GEI917513:GET917513 GOE917513:GOP917513 GYA917513:GYL917513 HHW917513:HIH917513 HRS917513:HSD917513 IBO917513:IBZ917513 ILK917513:ILV917513 IVG917513:IVR917513 JFC917513:JFN917513 JOY917513:JPJ917513 JYU917513:JZF917513 KIQ917513:KJB917513 KSM917513:KSX917513 LCI917513:LCT917513 LME917513:LMP917513 LWA917513:LWL917513 MFW917513:MGH917513 MPS917513:MQD917513 MZO917513:MZZ917513 NJK917513:NJV917513 NTG917513:NTR917513 ODC917513:ODN917513 OMY917513:ONJ917513 OWU917513:OXF917513 PGQ917513:PHB917513 PQM917513:PQX917513 QAI917513:QAT917513 QKE917513:QKP917513 QUA917513:QUL917513 RDW917513:REH917513 RNS917513:ROD917513 RXO917513:RXZ917513 SHK917513:SHV917513 SRG917513:SRR917513 TBC917513:TBN917513 TKY917513:TLJ917513 TUU917513:TVF917513 UEQ917513:UFB917513 UOM917513:UOX917513 UYI917513:UYT917513 VIE917513:VIP917513 VSA917513:VSL917513 WBW917513:WCH917513 WLS917513:WMD917513 WVO917513:WVZ917513 G983049:R983049 JC983049:JN983049 SY983049:TJ983049 ACU983049:ADF983049 AMQ983049:ANB983049 AWM983049:AWX983049 BGI983049:BGT983049 BQE983049:BQP983049 CAA983049:CAL983049 CJW983049:CKH983049 CTS983049:CUD983049 DDO983049:DDZ983049 DNK983049:DNV983049 DXG983049:DXR983049 EHC983049:EHN983049 EQY983049:ERJ983049 FAU983049:FBF983049 FKQ983049:FLB983049 FUM983049:FUX983049 GEI983049:GET983049 GOE983049:GOP983049 GYA983049:GYL983049 HHW983049:HIH983049 HRS983049:HSD983049 IBO983049:IBZ983049 ILK983049:ILV983049 IVG983049:IVR983049 JFC983049:JFN983049 JOY983049:JPJ983049 JYU983049:JZF983049 KIQ983049:KJB983049 KSM983049:KSX983049 LCI983049:LCT983049 LME983049:LMP983049 LWA983049:LWL983049 MFW983049:MGH983049 MPS983049:MQD983049 MZO983049:MZZ983049 NJK983049:NJV983049 NTG983049:NTR983049 ODC983049:ODN983049 OMY983049:ONJ983049 OWU983049:OXF983049 PGQ983049:PHB983049 PQM983049:PQX983049 QAI983049:QAT983049 QKE983049:QKP983049 QUA983049:QUL983049 RDW983049:REH983049 RNS983049:ROD983049 RXO983049:RXZ983049 SHK983049:SHV983049 SRG983049:SRR983049 TBC983049:TBN983049 TKY983049:TLJ983049 TUU983049:TVF983049 UEQ983049:UFB983049 UOM983049:UOX983049 UYI983049:UYT983049 VIE983049:VIP983049 VSA983049:VSL983049 WBW983049:WCH983049 WLS983049:WMD983049 WVO983049:WVZ983049 H13:R13 JD13:JN13 SZ13:TJ13 ACV13:ADF13 AMR13:ANB13 AWN13:AWX13 BGJ13:BGT13 BQF13:BQP13 CAB13:CAL13 CJX13:CKH13 CTT13:CUD13 DDP13:DDZ13 DNL13:DNV13 DXH13:DXR13 EHD13:EHN13 EQZ13:ERJ13 FAV13:FBF13 FKR13:FLB13 FUN13:FUX13 GEJ13:GET13 GOF13:GOP13 GYB13:GYL13 HHX13:HIH13 HRT13:HSD13 IBP13:IBZ13 ILL13:ILV13 IVH13:IVR13 JFD13:JFN13 JOZ13:JPJ13 JYV13:JZF13 KIR13:KJB13 KSN13:KSX13 LCJ13:LCT13 LMF13:LMP13 LWB13:LWL13 MFX13:MGH13 MPT13:MQD13 MZP13:MZZ13 NJL13:NJV13 NTH13:NTR13 ODD13:ODN13 OMZ13:ONJ13 OWV13:OXF13 PGR13:PHB13 PQN13:PQX13 QAJ13:QAT13 QKF13:QKP13 QUB13:QUL13 RDX13:REH13 RNT13:ROD13 RXP13:RXZ13 SHL13:SHV13 SRH13:SRR13 TBD13:TBN13 TKZ13:TLJ13 TUV13:TVF13 UER13:UFB13 UON13:UOX13 UYJ13:UYT13 VIF13:VIP13 VSB13:VSL13 WBX13:WCH13 WLT13:WMD13 WVP13:WVZ13 H65546:R65546 JD65546:JN65546 SZ65546:TJ65546 ACV65546:ADF65546 AMR65546:ANB65546 AWN65546:AWX65546 BGJ65546:BGT65546 BQF65546:BQP65546 CAB65546:CAL65546 CJX65546:CKH65546 CTT65546:CUD65546 DDP65546:DDZ65546 DNL65546:DNV65546 DXH65546:DXR65546 EHD65546:EHN65546 EQZ65546:ERJ65546 FAV65546:FBF65546 FKR65546:FLB65546 FUN65546:FUX65546 GEJ65546:GET65546 GOF65546:GOP65546 GYB65546:GYL65546 HHX65546:HIH65546 HRT65546:HSD65546 IBP65546:IBZ65546 ILL65546:ILV65546 IVH65546:IVR65546 JFD65546:JFN65546 JOZ65546:JPJ65546 JYV65546:JZF65546 KIR65546:KJB65546 KSN65546:KSX65546 LCJ65546:LCT65546 LMF65546:LMP65546 LWB65546:LWL65546 MFX65546:MGH65546 MPT65546:MQD65546 MZP65546:MZZ65546 NJL65546:NJV65546 NTH65546:NTR65546 ODD65546:ODN65546 OMZ65546:ONJ65546 OWV65546:OXF65546 PGR65546:PHB65546 PQN65546:PQX65546 QAJ65546:QAT65546 QKF65546:QKP65546 QUB65546:QUL65546 RDX65546:REH65546 RNT65546:ROD65546 RXP65546:RXZ65546 SHL65546:SHV65546 SRH65546:SRR65546 TBD65546:TBN65546 TKZ65546:TLJ65546 TUV65546:TVF65546 UER65546:UFB65546 UON65546:UOX65546 UYJ65546:UYT65546 VIF65546:VIP65546 VSB65546:VSL65546 WBX65546:WCH65546 WLT65546:WMD65546 WVP65546:WVZ65546 H131082:R131082 JD131082:JN131082 SZ131082:TJ131082 ACV131082:ADF131082 AMR131082:ANB131082 AWN131082:AWX131082 BGJ131082:BGT131082 BQF131082:BQP131082 CAB131082:CAL131082 CJX131082:CKH131082 CTT131082:CUD131082 DDP131082:DDZ131082 DNL131082:DNV131082 DXH131082:DXR131082 EHD131082:EHN131082 EQZ131082:ERJ131082 FAV131082:FBF131082 FKR131082:FLB131082 FUN131082:FUX131082 GEJ131082:GET131082 GOF131082:GOP131082 GYB131082:GYL131082 HHX131082:HIH131082 HRT131082:HSD131082 IBP131082:IBZ131082 ILL131082:ILV131082 IVH131082:IVR131082 JFD131082:JFN131082 JOZ131082:JPJ131082 JYV131082:JZF131082 KIR131082:KJB131082 KSN131082:KSX131082 LCJ131082:LCT131082 LMF131082:LMP131082 LWB131082:LWL131082 MFX131082:MGH131082 MPT131082:MQD131082 MZP131082:MZZ131082 NJL131082:NJV131082 NTH131082:NTR131082 ODD131082:ODN131082 OMZ131082:ONJ131082 OWV131082:OXF131082 PGR131082:PHB131082 PQN131082:PQX131082 QAJ131082:QAT131082 QKF131082:QKP131082 QUB131082:QUL131082 RDX131082:REH131082 RNT131082:ROD131082 RXP131082:RXZ131082 SHL131082:SHV131082 SRH131082:SRR131082 TBD131082:TBN131082 TKZ131082:TLJ131082 TUV131082:TVF131082 UER131082:UFB131082 UON131082:UOX131082 UYJ131082:UYT131082 VIF131082:VIP131082 VSB131082:VSL131082 WBX131082:WCH131082 WLT131082:WMD131082 WVP131082:WVZ131082 H196618:R196618 JD196618:JN196618 SZ196618:TJ196618 ACV196618:ADF196618 AMR196618:ANB196618 AWN196618:AWX196618 BGJ196618:BGT196618 BQF196618:BQP196618 CAB196618:CAL196618 CJX196618:CKH196618 CTT196618:CUD196618 DDP196618:DDZ196618 DNL196618:DNV196618 DXH196618:DXR196618 EHD196618:EHN196618 EQZ196618:ERJ196618 FAV196618:FBF196618 FKR196618:FLB196618 FUN196618:FUX196618 GEJ196618:GET196618 GOF196618:GOP196618 GYB196618:GYL196618 HHX196618:HIH196618 HRT196618:HSD196618 IBP196618:IBZ196618 ILL196618:ILV196618 IVH196618:IVR196618 JFD196618:JFN196618 JOZ196618:JPJ196618 JYV196618:JZF196618 KIR196618:KJB196618 KSN196618:KSX196618 LCJ196618:LCT196618 LMF196618:LMP196618 LWB196618:LWL196618 MFX196618:MGH196618 MPT196618:MQD196618 MZP196618:MZZ196618 NJL196618:NJV196618 NTH196618:NTR196618 ODD196618:ODN196618 OMZ196618:ONJ196618 OWV196618:OXF196618 PGR196618:PHB196618 PQN196618:PQX196618 QAJ196618:QAT196618 QKF196618:QKP196618 QUB196618:QUL196618 RDX196618:REH196618 RNT196618:ROD196618 RXP196618:RXZ196618 SHL196618:SHV196618 SRH196618:SRR196618 TBD196618:TBN196618 TKZ196618:TLJ196618 TUV196618:TVF196618 UER196618:UFB196618 UON196618:UOX196618 UYJ196618:UYT196618 VIF196618:VIP196618 VSB196618:VSL196618 WBX196618:WCH196618 WLT196618:WMD196618 WVP196618:WVZ196618 H262154:R262154 JD262154:JN262154 SZ262154:TJ262154 ACV262154:ADF262154 AMR262154:ANB262154 AWN262154:AWX262154 BGJ262154:BGT262154 BQF262154:BQP262154 CAB262154:CAL262154 CJX262154:CKH262154 CTT262154:CUD262154 DDP262154:DDZ262154 DNL262154:DNV262154 DXH262154:DXR262154 EHD262154:EHN262154 EQZ262154:ERJ262154 FAV262154:FBF262154 FKR262154:FLB262154 FUN262154:FUX262154 GEJ262154:GET262154 GOF262154:GOP262154 GYB262154:GYL262154 HHX262154:HIH262154 HRT262154:HSD262154 IBP262154:IBZ262154 ILL262154:ILV262154 IVH262154:IVR262154 JFD262154:JFN262154 JOZ262154:JPJ262154 JYV262154:JZF262154 KIR262154:KJB262154 KSN262154:KSX262154 LCJ262154:LCT262154 LMF262154:LMP262154 LWB262154:LWL262154 MFX262154:MGH262154 MPT262154:MQD262154 MZP262154:MZZ262154 NJL262154:NJV262154 NTH262154:NTR262154 ODD262154:ODN262154 OMZ262154:ONJ262154 OWV262154:OXF262154 PGR262154:PHB262154 PQN262154:PQX262154 QAJ262154:QAT262154 QKF262154:QKP262154 QUB262154:QUL262154 RDX262154:REH262154 RNT262154:ROD262154 RXP262154:RXZ262154 SHL262154:SHV262154 SRH262154:SRR262154 TBD262154:TBN262154 TKZ262154:TLJ262154 TUV262154:TVF262154 UER262154:UFB262154 UON262154:UOX262154 UYJ262154:UYT262154 VIF262154:VIP262154 VSB262154:VSL262154 WBX262154:WCH262154 WLT262154:WMD262154 WVP262154:WVZ262154 H327690:R327690 JD327690:JN327690 SZ327690:TJ327690 ACV327690:ADF327690 AMR327690:ANB327690 AWN327690:AWX327690 BGJ327690:BGT327690 BQF327690:BQP327690 CAB327690:CAL327690 CJX327690:CKH327690 CTT327690:CUD327690 DDP327690:DDZ327690 DNL327690:DNV327690 DXH327690:DXR327690 EHD327690:EHN327690 EQZ327690:ERJ327690 FAV327690:FBF327690 FKR327690:FLB327690 FUN327690:FUX327690 GEJ327690:GET327690 GOF327690:GOP327690 GYB327690:GYL327690 HHX327690:HIH327690 HRT327690:HSD327690 IBP327690:IBZ327690 ILL327690:ILV327690 IVH327690:IVR327690 JFD327690:JFN327690 JOZ327690:JPJ327690 JYV327690:JZF327690 KIR327690:KJB327690 KSN327690:KSX327690 LCJ327690:LCT327690 LMF327690:LMP327690 LWB327690:LWL327690 MFX327690:MGH327690 MPT327690:MQD327690 MZP327690:MZZ327690 NJL327690:NJV327690 NTH327690:NTR327690 ODD327690:ODN327690 OMZ327690:ONJ327690 OWV327690:OXF327690 PGR327690:PHB327690 PQN327690:PQX327690 QAJ327690:QAT327690 QKF327690:QKP327690 QUB327690:QUL327690 RDX327690:REH327690 RNT327690:ROD327690 RXP327690:RXZ327690 SHL327690:SHV327690 SRH327690:SRR327690 TBD327690:TBN327690 TKZ327690:TLJ327690 TUV327690:TVF327690 UER327690:UFB327690 UON327690:UOX327690 UYJ327690:UYT327690 VIF327690:VIP327690 VSB327690:VSL327690 WBX327690:WCH327690 WLT327690:WMD327690 WVP327690:WVZ327690 H393226:R393226 JD393226:JN393226 SZ393226:TJ393226 ACV393226:ADF393226 AMR393226:ANB393226 AWN393226:AWX393226 BGJ393226:BGT393226 BQF393226:BQP393226 CAB393226:CAL393226 CJX393226:CKH393226 CTT393226:CUD393226 DDP393226:DDZ393226 DNL393226:DNV393226 DXH393226:DXR393226 EHD393226:EHN393226 EQZ393226:ERJ393226 FAV393226:FBF393226 FKR393226:FLB393226 FUN393226:FUX393226 GEJ393226:GET393226 GOF393226:GOP393226 GYB393226:GYL393226 HHX393226:HIH393226 HRT393226:HSD393226 IBP393226:IBZ393226 ILL393226:ILV393226 IVH393226:IVR393226 JFD393226:JFN393226 JOZ393226:JPJ393226 JYV393226:JZF393226 KIR393226:KJB393226 KSN393226:KSX393226 LCJ393226:LCT393226 LMF393226:LMP393226 LWB393226:LWL393226 MFX393226:MGH393226 MPT393226:MQD393226 MZP393226:MZZ393226 NJL393226:NJV393226 NTH393226:NTR393226 ODD393226:ODN393226 OMZ393226:ONJ393226 OWV393226:OXF393226 PGR393226:PHB393226 PQN393226:PQX393226 QAJ393226:QAT393226 QKF393226:QKP393226 QUB393226:QUL393226 RDX393226:REH393226 RNT393226:ROD393226 RXP393226:RXZ393226 SHL393226:SHV393226 SRH393226:SRR393226 TBD393226:TBN393226 TKZ393226:TLJ393226 TUV393226:TVF393226 UER393226:UFB393226 UON393226:UOX393226 UYJ393226:UYT393226 VIF393226:VIP393226 VSB393226:VSL393226 WBX393226:WCH393226 WLT393226:WMD393226 WVP393226:WVZ393226 H458762:R458762 JD458762:JN458762 SZ458762:TJ458762 ACV458762:ADF458762 AMR458762:ANB458762 AWN458762:AWX458762 BGJ458762:BGT458762 BQF458762:BQP458762 CAB458762:CAL458762 CJX458762:CKH458762 CTT458762:CUD458762 DDP458762:DDZ458762 DNL458762:DNV458762 DXH458762:DXR458762 EHD458762:EHN458762 EQZ458762:ERJ458762 FAV458762:FBF458762 FKR458762:FLB458762 FUN458762:FUX458762 GEJ458762:GET458762 GOF458762:GOP458762 GYB458762:GYL458762 HHX458762:HIH458762 HRT458762:HSD458762 IBP458762:IBZ458762 ILL458762:ILV458762 IVH458762:IVR458762 JFD458762:JFN458762 JOZ458762:JPJ458762 JYV458762:JZF458762 KIR458762:KJB458762 KSN458762:KSX458762 LCJ458762:LCT458762 LMF458762:LMP458762 LWB458762:LWL458762 MFX458762:MGH458762 MPT458762:MQD458762 MZP458762:MZZ458762 NJL458762:NJV458762 NTH458762:NTR458762 ODD458762:ODN458762 OMZ458762:ONJ458762 OWV458762:OXF458762 PGR458762:PHB458762 PQN458762:PQX458762 QAJ458762:QAT458762 QKF458762:QKP458762 QUB458762:QUL458762 RDX458762:REH458762 RNT458762:ROD458762 RXP458762:RXZ458762 SHL458762:SHV458762 SRH458762:SRR458762 TBD458762:TBN458762 TKZ458762:TLJ458762 TUV458762:TVF458762 UER458762:UFB458762 UON458762:UOX458762 UYJ458762:UYT458762 VIF458762:VIP458762 VSB458762:VSL458762 WBX458762:WCH458762 WLT458762:WMD458762 WVP458762:WVZ458762 H524298:R524298 JD524298:JN524298 SZ524298:TJ524298 ACV524298:ADF524298 AMR524298:ANB524298 AWN524298:AWX524298 BGJ524298:BGT524298 BQF524298:BQP524298 CAB524298:CAL524298 CJX524298:CKH524298 CTT524298:CUD524298 DDP524298:DDZ524298 DNL524298:DNV524298 DXH524298:DXR524298 EHD524298:EHN524298 EQZ524298:ERJ524298 FAV524298:FBF524298 FKR524298:FLB524298 FUN524298:FUX524298 GEJ524298:GET524298 GOF524298:GOP524298 GYB524298:GYL524298 HHX524298:HIH524298 HRT524298:HSD524298 IBP524298:IBZ524298 ILL524298:ILV524298 IVH524298:IVR524298 JFD524298:JFN524298 JOZ524298:JPJ524298 JYV524298:JZF524298 KIR524298:KJB524298 KSN524298:KSX524298 LCJ524298:LCT524298 LMF524298:LMP524298 LWB524298:LWL524298 MFX524298:MGH524298 MPT524298:MQD524298 MZP524298:MZZ524298 NJL524298:NJV524298 NTH524298:NTR524298 ODD524298:ODN524298 OMZ524298:ONJ524298 OWV524298:OXF524298 PGR524298:PHB524298 PQN524298:PQX524298 QAJ524298:QAT524298 QKF524298:QKP524298 QUB524298:QUL524298 RDX524298:REH524298 RNT524298:ROD524298 RXP524298:RXZ524298 SHL524298:SHV524298 SRH524298:SRR524298 TBD524298:TBN524298 TKZ524298:TLJ524298 TUV524298:TVF524298 UER524298:UFB524298 UON524298:UOX524298 UYJ524298:UYT524298 VIF524298:VIP524298 VSB524298:VSL524298 WBX524298:WCH524298 WLT524298:WMD524298 WVP524298:WVZ524298 H589834:R589834 JD589834:JN589834 SZ589834:TJ589834 ACV589834:ADF589834 AMR589834:ANB589834 AWN589834:AWX589834 BGJ589834:BGT589834 BQF589834:BQP589834 CAB589834:CAL589834 CJX589834:CKH589834 CTT589834:CUD589834 DDP589834:DDZ589834 DNL589834:DNV589834 DXH589834:DXR589834 EHD589834:EHN589834 EQZ589834:ERJ589834 FAV589834:FBF589834 FKR589834:FLB589834 FUN589834:FUX589834 GEJ589834:GET589834 GOF589834:GOP589834 GYB589834:GYL589834 HHX589834:HIH589834 HRT589834:HSD589834 IBP589834:IBZ589834 ILL589834:ILV589834 IVH589834:IVR589834 JFD589834:JFN589834 JOZ589834:JPJ589834 JYV589834:JZF589834 KIR589834:KJB589834 KSN589834:KSX589834 LCJ589834:LCT589834 LMF589834:LMP589834 LWB589834:LWL589834 MFX589834:MGH589834 MPT589834:MQD589834 MZP589834:MZZ589834 NJL589834:NJV589834 NTH589834:NTR589834 ODD589834:ODN589834 OMZ589834:ONJ589834 OWV589834:OXF589834 PGR589834:PHB589834 PQN589834:PQX589834 QAJ589834:QAT589834 QKF589834:QKP589834 QUB589834:QUL589834 RDX589834:REH589834 RNT589834:ROD589834 RXP589834:RXZ589834 SHL589834:SHV589834 SRH589834:SRR589834 TBD589834:TBN589834 TKZ589834:TLJ589834 TUV589834:TVF589834 UER589834:UFB589834 UON589834:UOX589834 UYJ589834:UYT589834 VIF589834:VIP589834 VSB589834:VSL589834 WBX589834:WCH589834 WLT589834:WMD589834 WVP589834:WVZ589834 H655370:R655370 JD655370:JN655370 SZ655370:TJ655370 ACV655370:ADF655370 AMR655370:ANB655370 AWN655370:AWX655370 BGJ655370:BGT655370 BQF655370:BQP655370 CAB655370:CAL655370 CJX655370:CKH655370 CTT655370:CUD655370 DDP655370:DDZ655370 DNL655370:DNV655370 DXH655370:DXR655370 EHD655370:EHN655370 EQZ655370:ERJ655370 FAV655370:FBF655370 FKR655370:FLB655370 FUN655370:FUX655370 GEJ655370:GET655370 GOF655370:GOP655370 GYB655370:GYL655370 HHX655370:HIH655370 HRT655370:HSD655370 IBP655370:IBZ655370 ILL655370:ILV655370 IVH655370:IVR655370 JFD655370:JFN655370 JOZ655370:JPJ655370 JYV655370:JZF655370 KIR655370:KJB655370 KSN655370:KSX655370 LCJ655370:LCT655370 LMF655370:LMP655370 LWB655370:LWL655370 MFX655370:MGH655370 MPT655370:MQD655370 MZP655370:MZZ655370 NJL655370:NJV655370 NTH655370:NTR655370 ODD655370:ODN655370 OMZ655370:ONJ655370 OWV655370:OXF655370 PGR655370:PHB655370 PQN655370:PQX655370 QAJ655370:QAT655370 QKF655370:QKP655370 QUB655370:QUL655370 RDX655370:REH655370 RNT655370:ROD655370 RXP655370:RXZ655370 SHL655370:SHV655370 SRH655370:SRR655370 TBD655370:TBN655370 TKZ655370:TLJ655370 TUV655370:TVF655370 UER655370:UFB655370 UON655370:UOX655370 UYJ655370:UYT655370 VIF655370:VIP655370 VSB655370:VSL655370 WBX655370:WCH655370 WLT655370:WMD655370 WVP655370:WVZ655370 H720906:R720906 JD720906:JN720906 SZ720906:TJ720906 ACV720906:ADF720906 AMR720906:ANB720906 AWN720906:AWX720906 BGJ720906:BGT720906 BQF720906:BQP720906 CAB720906:CAL720906 CJX720906:CKH720906 CTT720906:CUD720906 DDP720906:DDZ720906 DNL720906:DNV720906 DXH720906:DXR720906 EHD720906:EHN720906 EQZ720906:ERJ720906 FAV720906:FBF720906 FKR720906:FLB720906 FUN720906:FUX720906 GEJ720906:GET720906 GOF720906:GOP720906 GYB720906:GYL720906 HHX720906:HIH720906 HRT720906:HSD720906 IBP720906:IBZ720906 ILL720906:ILV720906 IVH720906:IVR720906 JFD720906:JFN720906 JOZ720906:JPJ720906 JYV720906:JZF720906 KIR720906:KJB720906 KSN720906:KSX720906 LCJ720906:LCT720906 LMF720906:LMP720906 LWB720906:LWL720906 MFX720906:MGH720906 MPT720906:MQD720906 MZP720906:MZZ720906 NJL720906:NJV720906 NTH720906:NTR720906 ODD720906:ODN720906 OMZ720906:ONJ720906 OWV720906:OXF720906 PGR720906:PHB720906 PQN720906:PQX720906 QAJ720906:QAT720906 QKF720906:QKP720906 QUB720906:QUL720906 RDX720906:REH720906 RNT720906:ROD720906 RXP720906:RXZ720906 SHL720906:SHV720906 SRH720906:SRR720906 TBD720906:TBN720906 TKZ720906:TLJ720906 TUV720906:TVF720906 UER720906:UFB720906 UON720906:UOX720906 UYJ720906:UYT720906 VIF720906:VIP720906 VSB720906:VSL720906 WBX720906:WCH720906 WLT720906:WMD720906 WVP720906:WVZ720906 H786442:R786442 JD786442:JN786442 SZ786442:TJ786442 ACV786442:ADF786442 AMR786442:ANB786442 AWN786442:AWX786442 BGJ786442:BGT786442 BQF786442:BQP786442 CAB786442:CAL786442 CJX786442:CKH786442 CTT786442:CUD786442 DDP786442:DDZ786442 DNL786442:DNV786442 DXH786442:DXR786442 EHD786442:EHN786442 EQZ786442:ERJ786442 FAV786442:FBF786442 FKR786442:FLB786442 FUN786442:FUX786442 GEJ786442:GET786442 GOF786442:GOP786442 GYB786442:GYL786442 HHX786442:HIH786442 HRT786442:HSD786442 IBP786442:IBZ786442 ILL786442:ILV786442 IVH786442:IVR786442 JFD786442:JFN786442 JOZ786442:JPJ786442 JYV786442:JZF786442 KIR786442:KJB786442 KSN786442:KSX786442 LCJ786442:LCT786442 LMF786442:LMP786442 LWB786442:LWL786442 MFX786442:MGH786442 MPT786442:MQD786442 MZP786442:MZZ786442 NJL786442:NJV786442 NTH786442:NTR786442 ODD786442:ODN786442 OMZ786442:ONJ786442 OWV786442:OXF786442 PGR786442:PHB786442 PQN786442:PQX786442 QAJ786442:QAT786442 QKF786442:QKP786442 QUB786442:QUL786442 RDX786442:REH786442 RNT786442:ROD786442 RXP786442:RXZ786442 SHL786442:SHV786442 SRH786442:SRR786442 TBD786442:TBN786442 TKZ786442:TLJ786442 TUV786442:TVF786442 UER786442:UFB786442 UON786442:UOX786442 UYJ786442:UYT786442 VIF786442:VIP786442 VSB786442:VSL786442 WBX786442:WCH786442 WLT786442:WMD786442 WVP786442:WVZ786442 H851978:R851978 JD851978:JN851978 SZ851978:TJ851978 ACV851978:ADF851978 AMR851978:ANB851978 AWN851978:AWX851978 BGJ851978:BGT851978 BQF851978:BQP851978 CAB851978:CAL851978 CJX851978:CKH851978 CTT851978:CUD851978 DDP851978:DDZ851978 DNL851978:DNV851978 DXH851978:DXR851978 EHD851978:EHN851978 EQZ851978:ERJ851978 FAV851978:FBF851978 FKR851978:FLB851978 FUN851978:FUX851978 GEJ851978:GET851978 GOF851978:GOP851978 GYB851978:GYL851978 HHX851978:HIH851978 HRT851978:HSD851978 IBP851978:IBZ851978 ILL851978:ILV851978 IVH851978:IVR851978 JFD851978:JFN851978 JOZ851978:JPJ851978 JYV851978:JZF851978 KIR851978:KJB851978 KSN851978:KSX851978 LCJ851978:LCT851978 LMF851978:LMP851978 LWB851978:LWL851978 MFX851978:MGH851978 MPT851978:MQD851978 MZP851978:MZZ851978 NJL851978:NJV851978 NTH851978:NTR851978 ODD851978:ODN851978 OMZ851978:ONJ851978 OWV851978:OXF851978 PGR851978:PHB851978 PQN851978:PQX851978 QAJ851978:QAT851978 QKF851978:QKP851978 QUB851978:QUL851978 RDX851978:REH851978 RNT851978:ROD851978 RXP851978:RXZ851978 SHL851978:SHV851978 SRH851978:SRR851978 TBD851978:TBN851978 TKZ851978:TLJ851978 TUV851978:TVF851978 UER851978:UFB851978 UON851978:UOX851978 UYJ851978:UYT851978 VIF851978:VIP851978 VSB851978:VSL851978 WBX851978:WCH851978 WLT851978:WMD851978 WVP851978:WVZ851978 H917514:R917514 JD917514:JN917514 SZ917514:TJ917514 ACV917514:ADF917514 AMR917514:ANB917514 AWN917514:AWX917514 BGJ917514:BGT917514 BQF917514:BQP917514 CAB917514:CAL917514 CJX917514:CKH917514 CTT917514:CUD917514 DDP917514:DDZ917514 DNL917514:DNV917514 DXH917514:DXR917514 EHD917514:EHN917514 EQZ917514:ERJ917514 FAV917514:FBF917514 FKR917514:FLB917514 FUN917514:FUX917514 GEJ917514:GET917514 GOF917514:GOP917514 GYB917514:GYL917514 HHX917514:HIH917514 HRT917514:HSD917514 IBP917514:IBZ917514 ILL917514:ILV917514 IVH917514:IVR917514 JFD917514:JFN917514 JOZ917514:JPJ917514 JYV917514:JZF917514 KIR917514:KJB917514 KSN917514:KSX917514 LCJ917514:LCT917514 LMF917514:LMP917514 LWB917514:LWL917514 MFX917514:MGH917514 MPT917514:MQD917514 MZP917514:MZZ917514 NJL917514:NJV917514 NTH917514:NTR917514 ODD917514:ODN917514 OMZ917514:ONJ917514 OWV917514:OXF917514 PGR917514:PHB917514 PQN917514:PQX917514 QAJ917514:QAT917514 QKF917514:QKP917514 QUB917514:QUL917514 RDX917514:REH917514 RNT917514:ROD917514 RXP917514:RXZ917514 SHL917514:SHV917514 SRH917514:SRR917514 TBD917514:TBN917514 TKZ917514:TLJ917514 TUV917514:TVF917514 UER917514:UFB917514 UON917514:UOX917514 UYJ917514:UYT917514 VIF917514:VIP917514 VSB917514:VSL917514 WBX917514:WCH917514 WLT917514:WMD917514 WVP917514:WVZ917514 H983050:R983050 JD983050:JN983050 SZ983050:TJ983050 ACV983050:ADF983050 AMR983050:ANB983050 AWN983050:AWX983050 BGJ983050:BGT983050 BQF983050:BQP983050 CAB983050:CAL983050 CJX983050:CKH983050 CTT983050:CUD983050 DDP983050:DDZ983050 DNL983050:DNV983050 DXH983050:DXR983050 EHD983050:EHN983050 EQZ983050:ERJ983050 FAV983050:FBF983050 FKR983050:FLB983050 FUN983050:FUX983050 GEJ983050:GET983050 GOF983050:GOP983050 GYB983050:GYL983050 HHX983050:HIH983050 HRT983050:HSD983050 IBP983050:IBZ983050 ILL983050:ILV983050 IVH983050:IVR983050 JFD983050:JFN983050 JOZ983050:JPJ983050 JYV983050:JZF983050 KIR983050:KJB983050 KSN983050:KSX983050 LCJ983050:LCT983050 LMF983050:LMP983050 LWB983050:LWL983050 MFX983050:MGH983050 MPT983050:MQD983050 MZP983050:MZZ983050 NJL983050:NJV983050 NTH983050:NTR983050 ODD983050:ODN983050 OMZ983050:ONJ983050 OWV983050:OXF983050 PGR983050:PHB983050 PQN983050:PQX983050 QAJ983050:QAT983050 QKF983050:QKP983050 QUB983050:QUL983050 RDX983050:REH983050 RNT983050:ROD983050 RXP983050:RXZ983050 SHL983050:SHV983050 SRH983050:SRR983050 TBD983050:TBN983050 TKZ983050:TLJ983050 TUV983050:TVF983050 UER983050:UFB983050 UON983050:UOX983050 UYJ983050:UYT983050 VIF983050:VIP983050 VSB983050:VSL983050 WBX983050:WCH983050 WLT983050:WMD983050 WVP983050:WVZ983050 F13 JB13 SX13 ACT13 AMP13 AWL13 BGH13 BQD13 BZZ13 CJV13 CTR13 DDN13 DNJ13 DXF13 EHB13 EQX13 FAT13 FKP13 FUL13 GEH13 GOD13 GXZ13 HHV13 HRR13 IBN13 ILJ13 IVF13 JFB13 JOX13 JYT13 KIP13 KSL13 LCH13 LMD13 LVZ13 MFV13 MPR13 MZN13 NJJ13 NTF13 ODB13 OMX13 OWT13 PGP13 PQL13 QAH13 QKD13 QTZ13 RDV13 RNR13 RXN13 SHJ13 SRF13 TBB13 TKX13 TUT13 UEP13 UOL13 UYH13 VID13 VRZ13 WBV13 WLR13 WVN13 F65546 JB65546 SX65546 ACT65546 AMP65546 AWL65546 BGH65546 BQD65546 BZZ65546 CJV65546 CTR65546 DDN65546 DNJ65546 DXF65546 EHB65546 EQX65546 FAT65546 FKP65546 FUL65546 GEH65546 GOD65546 GXZ65546 HHV65546 HRR65546 IBN65546 ILJ65546 IVF65546 JFB65546 JOX65546 JYT65546 KIP65546 KSL65546 LCH65546 LMD65546 LVZ65546 MFV65546 MPR65546 MZN65546 NJJ65546 NTF65546 ODB65546 OMX65546 OWT65546 PGP65546 PQL65546 QAH65546 QKD65546 QTZ65546 RDV65546 RNR65546 RXN65546 SHJ65546 SRF65546 TBB65546 TKX65546 TUT65546 UEP65546 UOL65546 UYH65546 VID65546 VRZ65546 WBV65546 WLR65546 WVN65546 F131082 JB131082 SX131082 ACT131082 AMP131082 AWL131082 BGH131082 BQD131082 BZZ131082 CJV131082 CTR131082 DDN131082 DNJ131082 DXF131082 EHB131082 EQX131082 FAT131082 FKP131082 FUL131082 GEH131082 GOD131082 GXZ131082 HHV131082 HRR131082 IBN131082 ILJ131082 IVF131082 JFB131082 JOX131082 JYT131082 KIP131082 KSL131082 LCH131082 LMD131082 LVZ131082 MFV131082 MPR131082 MZN131082 NJJ131082 NTF131082 ODB131082 OMX131082 OWT131082 PGP131082 PQL131082 QAH131082 QKD131082 QTZ131082 RDV131082 RNR131082 RXN131082 SHJ131082 SRF131082 TBB131082 TKX131082 TUT131082 UEP131082 UOL131082 UYH131082 VID131082 VRZ131082 WBV131082 WLR131082 WVN131082 F196618 JB196618 SX196618 ACT196618 AMP196618 AWL196618 BGH196618 BQD196618 BZZ196618 CJV196618 CTR196618 DDN196618 DNJ196618 DXF196618 EHB196618 EQX196618 FAT196618 FKP196618 FUL196618 GEH196618 GOD196618 GXZ196618 HHV196618 HRR196618 IBN196618 ILJ196618 IVF196618 JFB196618 JOX196618 JYT196618 KIP196618 KSL196618 LCH196618 LMD196618 LVZ196618 MFV196618 MPR196618 MZN196618 NJJ196618 NTF196618 ODB196618 OMX196618 OWT196618 PGP196618 PQL196618 QAH196618 QKD196618 QTZ196618 RDV196618 RNR196618 RXN196618 SHJ196618 SRF196618 TBB196618 TKX196618 TUT196618 UEP196618 UOL196618 UYH196618 VID196618 VRZ196618 WBV196618 WLR196618 WVN196618 F262154 JB262154 SX262154 ACT262154 AMP262154 AWL262154 BGH262154 BQD262154 BZZ262154 CJV262154 CTR262154 DDN262154 DNJ262154 DXF262154 EHB262154 EQX262154 FAT262154 FKP262154 FUL262154 GEH262154 GOD262154 GXZ262154 HHV262154 HRR262154 IBN262154 ILJ262154 IVF262154 JFB262154 JOX262154 JYT262154 KIP262154 KSL262154 LCH262154 LMD262154 LVZ262154 MFV262154 MPR262154 MZN262154 NJJ262154 NTF262154 ODB262154 OMX262154 OWT262154 PGP262154 PQL262154 QAH262154 QKD262154 QTZ262154 RDV262154 RNR262154 RXN262154 SHJ262154 SRF262154 TBB262154 TKX262154 TUT262154 UEP262154 UOL262154 UYH262154 VID262154 VRZ262154 WBV262154 WLR262154 WVN262154 F327690 JB327690 SX327690 ACT327690 AMP327690 AWL327690 BGH327690 BQD327690 BZZ327690 CJV327690 CTR327690 DDN327690 DNJ327690 DXF327690 EHB327690 EQX327690 FAT327690 FKP327690 FUL327690 GEH327690 GOD327690 GXZ327690 HHV327690 HRR327690 IBN327690 ILJ327690 IVF327690 JFB327690 JOX327690 JYT327690 KIP327690 KSL327690 LCH327690 LMD327690 LVZ327690 MFV327690 MPR327690 MZN327690 NJJ327690 NTF327690 ODB327690 OMX327690 OWT327690 PGP327690 PQL327690 QAH327690 QKD327690 QTZ327690 RDV327690 RNR327690 RXN327690 SHJ327690 SRF327690 TBB327690 TKX327690 TUT327690 UEP327690 UOL327690 UYH327690 VID327690 VRZ327690 WBV327690 WLR327690 WVN327690 F393226 JB393226 SX393226 ACT393226 AMP393226 AWL393226 BGH393226 BQD393226 BZZ393226 CJV393226 CTR393226 DDN393226 DNJ393226 DXF393226 EHB393226 EQX393226 FAT393226 FKP393226 FUL393226 GEH393226 GOD393226 GXZ393226 HHV393226 HRR393226 IBN393226 ILJ393226 IVF393226 JFB393226 JOX393226 JYT393226 KIP393226 KSL393226 LCH393226 LMD393226 LVZ393226 MFV393226 MPR393226 MZN393226 NJJ393226 NTF393226 ODB393226 OMX393226 OWT393226 PGP393226 PQL393226 QAH393226 QKD393226 QTZ393226 RDV393226 RNR393226 RXN393226 SHJ393226 SRF393226 TBB393226 TKX393226 TUT393226 UEP393226 UOL393226 UYH393226 VID393226 VRZ393226 WBV393226 WLR393226 WVN393226 F458762 JB458762 SX458762 ACT458762 AMP458762 AWL458762 BGH458762 BQD458762 BZZ458762 CJV458762 CTR458762 DDN458762 DNJ458762 DXF458762 EHB458762 EQX458762 FAT458762 FKP458762 FUL458762 GEH458762 GOD458762 GXZ458762 HHV458762 HRR458762 IBN458762 ILJ458762 IVF458762 JFB458762 JOX458762 JYT458762 KIP458762 KSL458762 LCH458762 LMD458762 LVZ458762 MFV458762 MPR458762 MZN458762 NJJ458762 NTF458762 ODB458762 OMX458762 OWT458762 PGP458762 PQL458762 QAH458762 QKD458762 QTZ458762 RDV458762 RNR458762 RXN458762 SHJ458762 SRF458762 TBB458762 TKX458762 TUT458762 UEP458762 UOL458762 UYH458762 VID458762 VRZ458762 WBV458762 WLR458762 WVN458762 F524298 JB524298 SX524298 ACT524298 AMP524298 AWL524298 BGH524298 BQD524298 BZZ524298 CJV524298 CTR524298 DDN524298 DNJ524298 DXF524298 EHB524298 EQX524298 FAT524298 FKP524298 FUL524298 GEH524298 GOD524298 GXZ524298 HHV524298 HRR524298 IBN524298 ILJ524298 IVF524298 JFB524298 JOX524298 JYT524298 KIP524298 KSL524298 LCH524298 LMD524298 LVZ524298 MFV524298 MPR524298 MZN524298 NJJ524298 NTF524298 ODB524298 OMX524298 OWT524298 PGP524298 PQL524298 QAH524298 QKD524298 QTZ524298 RDV524298 RNR524298 RXN524298 SHJ524298 SRF524298 TBB524298 TKX524298 TUT524298 UEP524298 UOL524298 UYH524298 VID524298 VRZ524298 WBV524298 WLR524298 WVN524298 F589834 JB589834 SX589834 ACT589834 AMP589834 AWL589834 BGH589834 BQD589834 BZZ589834 CJV589834 CTR589834 DDN589834 DNJ589834 DXF589834 EHB589834 EQX589834 FAT589834 FKP589834 FUL589834 GEH589834 GOD589834 GXZ589834 HHV589834 HRR589834 IBN589834 ILJ589834 IVF589834 JFB589834 JOX589834 JYT589834 KIP589834 KSL589834 LCH589834 LMD589834 LVZ589834 MFV589834 MPR589834 MZN589834 NJJ589834 NTF589834 ODB589834 OMX589834 OWT589834 PGP589834 PQL589834 QAH589834 QKD589834 QTZ589834 RDV589834 RNR589834 RXN589834 SHJ589834 SRF589834 TBB589834 TKX589834 TUT589834 UEP589834 UOL589834 UYH589834 VID589834 VRZ589834 WBV589834 WLR589834 WVN589834 F655370 JB655370 SX655370 ACT655370 AMP655370 AWL655370 BGH655370 BQD655370 BZZ655370 CJV655370 CTR655370 DDN655370 DNJ655370 DXF655370 EHB655370 EQX655370 FAT655370 FKP655370 FUL655370 GEH655370 GOD655370 GXZ655370 HHV655370 HRR655370 IBN655370 ILJ655370 IVF655370 JFB655370 JOX655370 JYT655370 KIP655370 KSL655370 LCH655370 LMD655370 LVZ655370 MFV655370 MPR655370 MZN655370 NJJ655370 NTF655370 ODB655370 OMX655370 OWT655370 PGP655370 PQL655370 QAH655370 QKD655370 QTZ655370 RDV655370 RNR655370 RXN655370 SHJ655370 SRF655370 TBB655370 TKX655370 TUT655370 UEP655370 UOL655370 UYH655370 VID655370 VRZ655370 WBV655370 WLR655370 WVN655370 F720906 JB720906 SX720906 ACT720906 AMP720906 AWL720906 BGH720906 BQD720906 BZZ720906 CJV720906 CTR720906 DDN720906 DNJ720906 DXF720906 EHB720906 EQX720906 FAT720906 FKP720906 FUL720906 GEH720906 GOD720906 GXZ720906 HHV720906 HRR720906 IBN720906 ILJ720906 IVF720906 JFB720906 JOX720906 JYT720906 KIP720906 KSL720906 LCH720906 LMD720906 LVZ720906 MFV720906 MPR720906 MZN720906 NJJ720906 NTF720906 ODB720906 OMX720906 OWT720906 PGP720906 PQL720906 QAH720906 QKD720906 QTZ720906 RDV720906 RNR720906 RXN720906 SHJ720906 SRF720906 TBB720906 TKX720906 TUT720906 UEP720906 UOL720906 UYH720906 VID720906 VRZ720906 WBV720906 WLR720906 WVN720906 F786442 JB786442 SX786442 ACT786442 AMP786442 AWL786442 BGH786442 BQD786442 BZZ786442 CJV786442 CTR786442 DDN786442 DNJ786442 DXF786442 EHB786442 EQX786442 FAT786442 FKP786442 FUL786442 GEH786442 GOD786442 GXZ786442 HHV786442 HRR786442 IBN786442 ILJ786442 IVF786442 JFB786442 JOX786442 JYT786442 KIP786442 KSL786442 LCH786442 LMD786442 LVZ786442 MFV786442 MPR786442 MZN786442 NJJ786442 NTF786442 ODB786442 OMX786442 OWT786442 PGP786442 PQL786442 QAH786442 QKD786442 QTZ786442 RDV786442 RNR786442 RXN786442 SHJ786442 SRF786442 TBB786442 TKX786442 TUT786442 UEP786442 UOL786442 UYH786442 VID786442 VRZ786442 WBV786442 WLR786442 WVN786442 F851978 JB851978 SX851978 ACT851978 AMP851978 AWL851978 BGH851978 BQD851978 BZZ851978 CJV851978 CTR851978 DDN851978 DNJ851978 DXF851978 EHB851978 EQX851978 FAT851978 FKP851978 FUL851978 GEH851978 GOD851978 GXZ851978 HHV851978 HRR851978 IBN851978 ILJ851978 IVF851978 JFB851978 JOX851978 JYT851978 KIP851978 KSL851978 LCH851978 LMD851978 LVZ851978 MFV851978 MPR851978 MZN851978 NJJ851978 NTF851978 ODB851978 OMX851978 OWT851978 PGP851978 PQL851978 QAH851978 QKD851978 QTZ851978 RDV851978 RNR851978 RXN851978 SHJ851978 SRF851978 TBB851978 TKX851978 TUT851978 UEP851978 UOL851978 UYH851978 VID851978 VRZ851978 WBV851978 WLR851978 WVN851978 F917514 JB917514 SX917514 ACT917514 AMP917514 AWL917514 BGH917514 BQD917514 BZZ917514 CJV917514 CTR917514 DDN917514 DNJ917514 DXF917514 EHB917514 EQX917514 FAT917514 FKP917514 FUL917514 GEH917514 GOD917514 GXZ917514 HHV917514 HRR917514 IBN917514 ILJ917514 IVF917514 JFB917514 JOX917514 JYT917514 KIP917514 KSL917514 LCH917514 LMD917514 LVZ917514 MFV917514 MPR917514 MZN917514 NJJ917514 NTF917514 ODB917514 OMX917514 OWT917514 PGP917514 PQL917514 QAH917514 QKD917514 QTZ917514 RDV917514 RNR917514 RXN917514 SHJ917514 SRF917514 TBB917514 TKX917514 TUT917514 UEP917514 UOL917514 UYH917514 VID917514 VRZ917514 WBV917514 WLR917514 WVN917514 F983050 JB983050 SX983050 ACT983050 AMP983050 AWL983050 BGH983050 BQD983050 BZZ983050 CJV983050 CTR983050 DDN983050 DNJ983050 DXF983050 EHB983050 EQX983050 FAT983050 FKP983050 FUL983050 GEH983050 GOD983050 GXZ983050 HHV983050 HRR983050 IBN983050 ILJ983050 IVF983050 JFB983050 JOX983050 JYT983050 KIP983050 KSL983050 LCH983050 LMD983050 LVZ983050 MFV983050 MPR983050 MZN983050 NJJ983050 NTF983050 ODB983050 OMX983050 OWT983050 PGP983050 PQL983050 QAH983050 QKD983050 QTZ983050 RDV983050 RNR983050 RXN983050 SHJ983050 SRF983050 TBB983050 TKX983050 TUT983050 UEP983050 UOL983050 UYH983050 VID983050 VRZ983050 WBV983050 WLR983050 WVN983050 E65551:E65553 JA65551:JA65553 SW65551:SW65553 ACS65551:ACS65553 AMO65551:AMO65553 AWK65551:AWK65553 BGG65551:BGG65553 BQC65551:BQC65553 BZY65551:BZY65553 CJU65551:CJU65553 CTQ65551:CTQ65553 DDM65551:DDM65553 DNI65551:DNI65553 DXE65551:DXE65553 EHA65551:EHA65553 EQW65551:EQW65553 FAS65551:FAS65553 FKO65551:FKO65553 FUK65551:FUK65553 GEG65551:GEG65553 GOC65551:GOC65553 GXY65551:GXY65553 HHU65551:HHU65553 HRQ65551:HRQ65553 IBM65551:IBM65553 ILI65551:ILI65553 IVE65551:IVE65553 JFA65551:JFA65553 JOW65551:JOW65553 JYS65551:JYS65553 KIO65551:KIO65553 KSK65551:KSK65553 LCG65551:LCG65553 LMC65551:LMC65553 LVY65551:LVY65553 MFU65551:MFU65553 MPQ65551:MPQ65553 MZM65551:MZM65553 NJI65551:NJI65553 NTE65551:NTE65553 ODA65551:ODA65553 OMW65551:OMW65553 OWS65551:OWS65553 PGO65551:PGO65553 PQK65551:PQK65553 QAG65551:QAG65553 QKC65551:QKC65553 QTY65551:QTY65553 RDU65551:RDU65553 RNQ65551:RNQ65553 RXM65551:RXM65553 SHI65551:SHI65553 SRE65551:SRE65553 TBA65551:TBA65553 TKW65551:TKW65553 TUS65551:TUS65553 UEO65551:UEO65553 UOK65551:UOK65553 UYG65551:UYG65553 VIC65551:VIC65553 VRY65551:VRY65553 WBU65551:WBU65553 WLQ65551:WLQ65553 WVM65551:WVM65553 E131087:E131089 JA131087:JA131089 SW131087:SW131089 ACS131087:ACS131089 AMO131087:AMO131089 AWK131087:AWK131089 BGG131087:BGG131089 BQC131087:BQC131089 BZY131087:BZY131089 CJU131087:CJU131089 CTQ131087:CTQ131089 DDM131087:DDM131089 DNI131087:DNI131089 DXE131087:DXE131089 EHA131087:EHA131089 EQW131087:EQW131089 FAS131087:FAS131089 FKO131087:FKO131089 FUK131087:FUK131089 GEG131087:GEG131089 GOC131087:GOC131089 GXY131087:GXY131089 HHU131087:HHU131089 HRQ131087:HRQ131089 IBM131087:IBM131089 ILI131087:ILI131089 IVE131087:IVE131089 JFA131087:JFA131089 JOW131087:JOW131089 JYS131087:JYS131089 KIO131087:KIO131089 KSK131087:KSK131089 LCG131087:LCG131089 LMC131087:LMC131089 LVY131087:LVY131089 MFU131087:MFU131089 MPQ131087:MPQ131089 MZM131087:MZM131089 NJI131087:NJI131089 NTE131087:NTE131089 ODA131087:ODA131089 OMW131087:OMW131089 OWS131087:OWS131089 PGO131087:PGO131089 PQK131087:PQK131089 QAG131087:QAG131089 QKC131087:QKC131089 QTY131087:QTY131089 RDU131087:RDU131089 RNQ131087:RNQ131089 RXM131087:RXM131089 SHI131087:SHI131089 SRE131087:SRE131089 TBA131087:TBA131089 TKW131087:TKW131089 TUS131087:TUS131089 UEO131087:UEO131089 UOK131087:UOK131089 UYG131087:UYG131089 VIC131087:VIC131089 VRY131087:VRY131089 WBU131087:WBU131089 WLQ131087:WLQ131089 WVM131087:WVM131089 E196623:E196625 JA196623:JA196625 SW196623:SW196625 ACS196623:ACS196625 AMO196623:AMO196625 AWK196623:AWK196625 BGG196623:BGG196625 BQC196623:BQC196625 BZY196623:BZY196625 CJU196623:CJU196625 CTQ196623:CTQ196625 DDM196623:DDM196625 DNI196623:DNI196625 DXE196623:DXE196625 EHA196623:EHA196625 EQW196623:EQW196625 FAS196623:FAS196625 FKO196623:FKO196625 FUK196623:FUK196625 GEG196623:GEG196625 GOC196623:GOC196625 GXY196623:GXY196625 HHU196623:HHU196625 HRQ196623:HRQ196625 IBM196623:IBM196625 ILI196623:ILI196625 IVE196623:IVE196625 JFA196623:JFA196625 JOW196623:JOW196625 JYS196623:JYS196625 KIO196623:KIO196625 KSK196623:KSK196625 LCG196623:LCG196625 LMC196623:LMC196625 LVY196623:LVY196625 MFU196623:MFU196625 MPQ196623:MPQ196625 MZM196623:MZM196625 NJI196623:NJI196625 NTE196623:NTE196625 ODA196623:ODA196625 OMW196623:OMW196625 OWS196623:OWS196625 PGO196623:PGO196625 PQK196623:PQK196625 QAG196623:QAG196625 QKC196623:QKC196625 QTY196623:QTY196625 RDU196623:RDU196625 RNQ196623:RNQ196625 RXM196623:RXM196625 SHI196623:SHI196625 SRE196623:SRE196625 TBA196623:TBA196625 TKW196623:TKW196625 TUS196623:TUS196625 UEO196623:UEO196625 UOK196623:UOK196625 UYG196623:UYG196625 VIC196623:VIC196625 VRY196623:VRY196625 WBU196623:WBU196625 WLQ196623:WLQ196625 WVM196623:WVM196625 E262159:E262161 JA262159:JA262161 SW262159:SW262161 ACS262159:ACS262161 AMO262159:AMO262161 AWK262159:AWK262161 BGG262159:BGG262161 BQC262159:BQC262161 BZY262159:BZY262161 CJU262159:CJU262161 CTQ262159:CTQ262161 DDM262159:DDM262161 DNI262159:DNI262161 DXE262159:DXE262161 EHA262159:EHA262161 EQW262159:EQW262161 FAS262159:FAS262161 FKO262159:FKO262161 FUK262159:FUK262161 GEG262159:GEG262161 GOC262159:GOC262161 GXY262159:GXY262161 HHU262159:HHU262161 HRQ262159:HRQ262161 IBM262159:IBM262161 ILI262159:ILI262161 IVE262159:IVE262161 JFA262159:JFA262161 JOW262159:JOW262161 JYS262159:JYS262161 KIO262159:KIO262161 KSK262159:KSK262161 LCG262159:LCG262161 LMC262159:LMC262161 LVY262159:LVY262161 MFU262159:MFU262161 MPQ262159:MPQ262161 MZM262159:MZM262161 NJI262159:NJI262161 NTE262159:NTE262161 ODA262159:ODA262161 OMW262159:OMW262161 OWS262159:OWS262161 PGO262159:PGO262161 PQK262159:PQK262161 QAG262159:QAG262161 QKC262159:QKC262161 QTY262159:QTY262161 RDU262159:RDU262161 RNQ262159:RNQ262161 RXM262159:RXM262161 SHI262159:SHI262161 SRE262159:SRE262161 TBA262159:TBA262161 TKW262159:TKW262161 TUS262159:TUS262161 UEO262159:UEO262161 UOK262159:UOK262161 UYG262159:UYG262161 VIC262159:VIC262161 VRY262159:VRY262161 WBU262159:WBU262161 WLQ262159:WLQ262161 WVM262159:WVM262161 E327695:E327697 JA327695:JA327697 SW327695:SW327697 ACS327695:ACS327697 AMO327695:AMO327697 AWK327695:AWK327697 BGG327695:BGG327697 BQC327695:BQC327697 BZY327695:BZY327697 CJU327695:CJU327697 CTQ327695:CTQ327697 DDM327695:DDM327697 DNI327695:DNI327697 DXE327695:DXE327697 EHA327695:EHA327697 EQW327695:EQW327697 FAS327695:FAS327697 FKO327695:FKO327697 FUK327695:FUK327697 GEG327695:GEG327697 GOC327695:GOC327697 GXY327695:GXY327697 HHU327695:HHU327697 HRQ327695:HRQ327697 IBM327695:IBM327697 ILI327695:ILI327697 IVE327695:IVE327697 JFA327695:JFA327697 JOW327695:JOW327697 JYS327695:JYS327697 KIO327695:KIO327697 KSK327695:KSK327697 LCG327695:LCG327697 LMC327695:LMC327697 LVY327695:LVY327697 MFU327695:MFU327697 MPQ327695:MPQ327697 MZM327695:MZM327697 NJI327695:NJI327697 NTE327695:NTE327697 ODA327695:ODA327697 OMW327695:OMW327697 OWS327695:OWS327697 PGO327695:PGO327697 PQK327695:PQK327697 QAG327695:QAG327697 QKC327695:QKC327697 QTY327695:QTY327697 RDU327695:RDU327697 RNQ327695:RNQ327697 RXM327695:RXM327697 SHI327695:SHI327697 SRE327695:SRE327697 TBA327695:TBA327697 TKW327695:TKW327697 TUS327695:TUS327697 UEO327695:UEO327697 UOK327695:UOK327697 UYG327695:UYG327697 VIC327695:VIC327697 VRY327695:VRY327697 WBU327695:WBU327697 WLQ327695:WLQ327697 WVM327695:WVM327697 E393231:E393233 JA393231:JA393233 SW393231:SW393233 ACS393231:ACS393233 AMO393231:AMO393233 AWK393231:AWK393233 BGG393231:BGG393233 BQC393231:BQC393233 BZY393231:BZY393233 CJU393231:CJU393233 CTQ393231:CTQ393233 DDM393231:DDM393233 DNI393231:DNI393233 DXE393231:DXE393233 EHA393231:EHA393233 EQW393231:EQW393233 FAS393231:FAS393233 FKO393231:FKO393233 FUK393231:FUK393233 GEG393231:GEG393233 GOC393231:GOC393233 GXY393231:GXY393233 HHU393231:HHU393233 HRQ393231:HRQ393233 IBM393231:IBM393233 ILI393231:ILI393233 IVE393231:IVE393233 JFA393231:JFA393233 JOW393231:JOW393233 JYS393231:JYS393233 KIO393231:KIO393233 KSK393231:KSK393233 LCG393231:LCG393233 LMC393231:LMC393233 LVY393231:LVY393233 MFU393231:MFU393233 MPQ393231:MPQ393233 MZM393231:MZM393233 NJI393231:NJI393233 NTE393231:NTE393233 ODA393231:ODA393233 OMW393231:OMW393233 OWS393231:OWS393233 PGO393231:PGO393233 PQK393231:PQK393233 QAG393231:QAG393233 QKC393231:QKC393233 QTY393231:QTY393233 RDU393231:RDU393233 RNQ393231:RNQ393233 RXM393231:RXM393233 SHI393231:SHI393233 SRE393231:SRE393233 TBA393231:TBA393233 TKW393231:TKW393233 TUS393231:TUS393233 UEO393231:UEO393233 UOK393231:UOK393233 UYG393231:UYG393233 VIC393231:VIC393233 VRY393231:VRY393233 WBU393231:WBU393233 WLQ393231:WLQ393233 WVM393231:WVM393233 E458767:E458769 JA458767:JA458769 SW458767:SW458769 ACS458767:ACS458769 AMO458767:AMO458769 AWK458767:AWK458769 BGG458767:BGG458769 BQC458767:BQC458769 BZY458767:BZY458769 CJU458767:CJU458769 CTQ458767:CTQ458769 DDM458767:DDM458769 DNI458767:DNI458769 DXE458767:DXE458769 EHA458767:EHA458769 EQW458767:EQW458769 FAS458767:FAS458769 FKO458767:FKO458769 FUK458767:FUK458769 GEG458767:GEG458769 GOC458767:GOC458769 GXY458767:GXY458769 HHU458767:HHU458769 HRQ458767:HRQ458769 IBM458767:IBM458769 ILI458767:ILI458769 IVE458767:IVE458769 JFA458767:JFA458769 JOW458767:JOW458769 JYS458767:JYS458769 KIO458767:KIO458769 KSK458767:KSK458769 LCG458767:LCG458769 LMC458767:LMC458769 LVY458767:LVY458769 MFU458767:MFU458769 MPQ458767:MPQ458769 MZM458767:MZM458769 NJI458767:NJI458769 NTE458767:NTE458769 ODA458767:ODA458769 OMW458767:OMW458769 OWS458767:OWS458769 PGO458767:PGO458769 PQK458767:PQK458769 QAG458767:QAG458769 QKC458767:QKC458769 QTY458767:QTY458769 RDU458767:RDU458769 RNQ458767:RNQ458769 RXM458767:RXM458769 SHI458767:SHI458769 SRE458767:SRE458769 TBA458767:TBA458769 TKW458767:TKW458769 TUS458767:TUS458769 UEO458767:UEO458769 UOK458767:UOK458769 UYG458767:UYG458769 VIC458767:VIC458769 VRY458767:VRY458769 WBU458767:WBU458769 WLQ458767:WLQ458769 WVM458767:WVM458769 E524303:E524305 JA524303:JA524305 SW524303:SW524305 ACS524303:ACS524305 AMO524303:AMO524305 AWK524303:AWK524305 BGG524303:BGG524305 BQC524303:BQC524305 BZY524303:BZY524305 CJU524303:CJU524305 CTQ524303:CTQ524305 DDM524303:DDM524305 DNI524303:DNI524305 DXE524303:DXE524305 EHA524303:EHA524305 EQW524303:EQW524305 FAS524303:FAS524305 FKO524303:FKO524305 FUK524303:FUK524305 GEG524303:GEG524305 GOC524303:GOC524305 GXY524303:GXY524305 HHU524303:HHU524305 HRQ524303:HRQ524305 IBM524303:IBM524305 ILI524303:ILI524305 IVE524303:IVE524305 JFA524303:JFA524305 JOW524303:JOW524305 JYS524303:JYS524305 KIO524303:KIO524305 KSK524303:KSK524305 LCG524303:LCG524305 LMC524303:LMC524305 LVY524303:LVY524305 MFU524303:MFU524305 MPQ524303:MPQ524305 MZM524303:MZM524305 NJI524303:NJI524305 NTE524303:NTE524305 ODA524303:ODA524305 OMW524303:OMW524305 OWS524303:OWS524305 PGO524303:PGO524305 PQK524303:PQK524305 QAG524303:QAG524305 QKC524303:QKC524305 QTY524303:QTY524305 RDU524303:RDU524305 RNQ524303:RNQ524305 RXM524303:RXM524305 SHI524303:SHI524305 SRE524303:SRE524305 TBA524303:TBA524305 TKW524303:TKW524305 TUS524303:TUS524305 UEO524303:UEO524305 UOK524303:UOK524305 UYG524303:UYG524305 VIC524303:VIC524305 VRY524303:VRY524305 WBU524303:WBU524305 WLQ524303:WLQ524305 WVM524303:WVM524305 E589839:E589841 JA589839:JA589841 SW589839:SW589841 ACS589839:ACS589841 AMO589839:AMO589841 AWK589839:AWK589841 BGG589839:BGG589841 BQC589839:BQC589841 BZY589839:BZY589841 CJU589839:CJU589841 CTQ589839:CTQ589841 DDM589839:DDM589841 DNI589839:DNI589841 DXE589839:DXE589841 EHA589839:EHA589841 EQW589839:EQW589841 FAS589839:FAS589841 FKO589839:FKO589841 FUK589839:FUK589841 GEG589839:GEG589841 GOC589839:GOC589841 GXY589839:GXY589841 HHU589839:HHU589841 HRQ589839:HRQ589841 IBM589839:IBM589841 ILI589839:ILI589841 IVE589839:IVE589841 JFA589839:JFA589841 JOW589839:JOW589841 JYS589839:JYS589841 KIO589839:KIO589841 KSK589839:KSK589841 LCG589839:LCG589841 LMC589839:LMC589841 LVY589839:LVY589841 MFU589839:MFU589841 MPQ589839:MPQ589841 MZM589839:MZM589841 NJI589839:NJI589841 NTE589839:NTE589841 ODA589839:ODA589841 OMW589839:OMW589841 OWS589839:OWS589841 PGO589839:PGO589841 PQK589839:PQK589841 QAG589839:QAG589841 QKC589839:QKC589841 QTY589839:QTY589841 RDU589839:RDU589841 RNQ589839:RNQ589841 RXM589839:RXM589841 SHI589839:SHI589841 SRE589839:SRE589841 TBA589839:TBA589841 TKW589839:TKW589841 TUS589839:TUS589841 UEO589839:UEO589841 UOK589839:UOK589841 UYG589839:UYG589841 VIC589839:VIC589841 VRY589839:VRY589841 WBU589839:WBU589841 WLQ589839:WLQ589841 WVM589839:WVM589841 E655375:E655377 JA655375:JA655377 SW655375:SW655377 ACS655375:ACS655377 AMO655375:AMO655377 AWK655375:AWK655377 BGG655375:BGG655377 BQC655375:BQC655377 BZY655375:BZY655377 CJU655375:CJU655377 CTQ655375:CTQ655377 DDM655375:DDM655377 DNI655375:DNI655377 DXE655375:DXE655377 EHA655375:EHA655377 EQW655375:EQW655377 FAS655375:FAS655377 FKO655375:FKO655377 FUK655375:FUK655377 GEG655375:GEG655377 GOC655375:GOC655377 GXY655375:GXY655377 HHU655375:HHU655377 HRQ655375:HRQ655377 IBM655375:IBM655377 ILI655375:ILI655377 IVE655375:IVE655377 JFA655375:JFA655377 JOW655375:JOW655377 JYS655375:JYS655377 KIO655375:KIO655377 KSK655375:KSK655377 LCG655375:LCG655377 LMC655375:LMC655377 LVY655375:LVY655377 MFU655375:MFU655377 MPQ655375:MPQ655377 MZM655375:MZM655377 NJI655375:NJI655377 NTE655375:NTE655377 ODA655375:ODA655377 OMW655375:OMW655377 OWS655375:OWS655377 PGO655375:PGO655377 PQK655375:PQK655377 QAG655375:QAG655377 QKC655375:QKC655377 QTY655375:QTY655377 RDU655375:RDU655377 RNQ655375:RNQ655377 RXM655375:RXM655377 SHI655375:SHI655377 SRE655375:SRE655377 TBA655375:TBA655377 TKW655375:TKW655377 TUS655375:TUS655377 UEO655375:UEO655377 UOK655375:UOK655377 UYG655375:UYG655377 VIC655375:VIC655377 VRY655375:VRY655377 WBU655375:WBU655377 WLQ655375:WLQ655377 WVM655375:WVM655377 E720911:E720913 JA720911:JA720913 SW720911:SW720913 ACS720911:ACS720913 AMO720911:AMO720913 AWK720911:AWK720913 BGG720911:BGG720913 BQC720911:BQC720913 BZY720911:BZY720913 CJU720911:CJU720913 CTQ720911:CTQ720913 DDM720911:DDM720913 DNI720911:DNI720913 DXE720911:DXE720913 EHA720911:EHA720913 EQW720911:EQW720913 FAS720911:FAS720913 FKO720911:FKO720913 FUK720911:FUK720913 GEG720911:GEG720913 GOC720911:GOC720913 GXY720911:GXY720913 HHU720911:HHU720913 HRQ720911:HRQ720913 IBM720911:IBM720913 ILI720911:ILI720913 IVE720911:IVE720913 JFA720911:JFA720913 JOW720911:JOW720913 JYS720911:JYS720913 KIO720911:KIO720913 KSK720911:KSK720913 LCG720911:LCG720913 LMC720911:LMC720913 LVY720911:LVY720913 MFU720911:MFU720913 MPQ720911:MPQ720913 MZM720911:MZM720913 NJI720911:NJI720913 NTE720911:NTE720913 ODA720911:ODA720913 OMW720911:OMW720913 OWS720911:OWS720913 PGO720911:PGO720913 PQK720911:PQK720913 QAG720911:QAG720913 QKC720911:QKC720913 QTY720911:QTY720913 RDU720911:RDU720913 RNQ720911:RNQ720913 RXM720911:RXM720913 SHI720911:SHI720913 SRE720911:SRE720913 TBA720911:TBA720913 TKW720911:TKW720913 TUS720911:TUS720913 UEO720911:UEO720913 UOK720911:UOK720913 UYG720911:UYG720913 VIC720911:VIC720913 VRY720911:VRY720913 WBU720911:WBU720913 WLQ720911:WLQ720913 WVM720911:WVM720913 E786447:E786449 JA786447:JA786449 SW786447:SW786449 ACS786447:ACS786449 AMO786447:AMO786449 AWK786447:AWK786449 BGG786447:BGG786449 BQC786447:BQC786449 BZY786447:BZY786449 CJU786447:CJU786449 CTQ786447:CTQ786449 DDM786447:DDM786449 DNI786447:DNI786449 DXE786447:DXE786449 EHA786447:EHA786449 EQW786447:EQW786449 FAS786447:FAS786449 FKO786447:FKO786449 FUK786447:FUK786449 GEG786447:GEG786449 GOC786447:GOC786449 GXY786447:GXY786449 HHU786447:HHU786449 HRQ786447:HRQ786449 IBM786447:IBM786449 ILI786447:ILI786449 IVE786447:IVE786449 JFA786447:JFA786449 JOW786447:JOW786449 JYS786447:JYS786449 KIO786447:KIO786449 KSK786447:KSK786449 LCG786447:LCG786449 LMC786447:LMC786449 LVY786447:LVY786449 MFU786447:MFU786449 MPQ786447:MPQ786449 MZM786447:MZM786449 NJI786447:NJI786449 NTE786447:NTE786449 ODA786447:ODA786449 OMW786447:OMW786449 OWS786447:OWS786449 PGO786447:PGO786449 PQK786447:PQK786449 QAG786447:QAG786449 QKC786447:QKC786449 QTY786447:QTY786449 RDU786447:RDU786449 RNQ786447:RNQ786449 RXM786447:RXM786449 SHI786447:SHI786449 SRE786447:SRE786449 TBA786447:TBA786449 TKW786447:TKW786449 TUS786447:TUS786449 UEO786447:UEO786449 UOK786447:UOK786449 UYG786447:UYG786449 VIC786447:VIC786449 VRY786447:VRY786449 WBU786447:WBU786449 WLQ786447:WLQ786449 WVM786447:WVM786449 E851983:E851985 JA851983:JA851985 SW851983:SW851985 ACS851983:ACS851985 AMO851983:AMO851985 AWK851983:AWK851985 BGG851983:BGG851985 BQC851983:BQC851985 BZY851983:BZY851985 CJU851983:CJU851985 CTQ851983:CTQ851985 DDM851983:DDM851985 DNI851983:DNI851985 DXE851983:DXE851985 EHA851983:EHA851985 EQW851983:EQW851985 FAS851983:FAS851985 FKO851983:FKO851985 FUK851983:FUK851985 GEG851983:GEG851985 GOC851983:GOC851985 GXY851983:GXY851985 HHU851983:HHU851985 HRQ851983:HRQ851985 IBM851983:IBM851985 ILI851983:ILI851985 IVE851983:IVE851985 JFA851983:JFA851985 JOW851983:JOW851985 JYS851983:JYS851985 KIO851983:KIO851985 KSK851983:KSK851985 LCG851983:LCG851985 LMC851983:LMC851985 LVY851983:LVY851985 MFU851983:MFU851985 MPQ851983:MPQ851985 MZM851983:MZM851985 NJI851983:NJI851985 NTE851983:NTE851985 ODA851983:ODA851985 OMW851983:OMW851985 OWS851983:OWS851985 PGO851983:PGO851985 PQK851983:PQK851985 QAG851983:QAG851985 QKC851983:QKC851985 QTY851983:QTY851985 RDU851983:RDU851985 RNQ851983:RNQ851985 RXM851983:RXM851985 SHI851983:SHI851985 SRE851983:SRE851985 TBA851983:TBA851985 TKW851983:TKW851985 TUS851983:TUS851985 UEO851983:UEO851985 UOK851983:UOK851985 UYG851983:UYG851985 VIC851983:VIC851985 VRY851983:VRY851985 WBU851983:WBU851985 WLQ851983:WLQ851985 WVM851983:WVM851985 E917519:E917521 JA917519:JA917521 SW917519:SW917521 ACS917519:ACS917521 AMO917519:AMO917521 AWK917519:AWK917521 BGG917519:BGG917521 BQC917519:BQC917521 BZY917519:BZY917521 CJU917519:CJU917521 CTQ917519:CTQ917521 DDM917519:DDM917521 DNI917519:DNI917521 DXE917519:DXE917521 EHA917519:EHA917521 EQW917519:EQW917521 FAS917519:FAS917521 FKO917519:FKO917521 FUK917519:FUK917521 GEG917519:GEG917521 GOC917519:GOC917521 GXY917519:GXY917521 HHU917519:HHU917521 HRQ917519:HRQ917521 IBM917519:IBM917521 ILI917519:ILI917521 IVE917519:IVE917521 JFA917519:JFA917521 JOW917519:JOW917521 JYS917519:JYS917521 KIO917519:KIO917521 KSK917519:KSK917521 LCG917519:LCG917521 LMC917519:LMC917521 LVY917519:LVY917521 MFU917519:MFU917521 MPQ917519:MPQ917521 MZM917519:MZM917521 NJI917519:NJI917521 NTE917519:NTE917521 ODA917519:ODA917521 OMW917519:OMW917521 OWS917519:OWS917521 PGO917519:PGO917521 PQK917519:PQK917521 QAG917519:QAG917521 QKC917519:QKC917521 QTY917519:QTY917521 RDU917519:RDU917521 RNQ917519:RNQ917521 RXM917519:RXM917521 SHI917519:SHI917521 SRE917519:SRE917521 TBA917519:TBA917521 TKW917519:TKW917521 TUS917519:TUS917521 UEO917519:UEO917521 UOK917519:UOK917521 UYG917519:UYG917521 VIC917519:VIC917521 VRY917519:VRY917521 WBU917519:WBU917521 WLQ917519:WLQ917521 WVM917519:WVM917521 E983055:E983057 JA983055:JA983057 SW983055:SW983057 ACS983055:ACS983057 AMO983055:AMO983057 AWK983055:AWK983057 BGG983055:BGG983057 BQC983055:BQC983057 BZY983055:BZY983057 CJU983055:CJU983057 CTQ983055:CTQ983057 DDM983055:DDM983057 DNI983055:DNI983057 DXE983055:DXE983057 EHA983055:EHA983057 EQW983055:EQW983057 FAS983055:FAS983057 FKO983055:FKO983057 FUK983055:FUK983057 GEG983055:GEG983057 GOC983055:GOC983057 GXY983055:GXY983057 HHU983055:HHU983057 HRQ983055:HRQ983057 IBM983055:IBM983057 ILI983055:ILI983057 IVE983055:IVE983057 JFA983055:JFA983057 JOW983055:JOW983057 JYS983055:JYS983057 KIO983055:KIO983057 KSK983055:KSK983057 LCG983055:LCG983057 LMC983055:LMC983057 LVY983055:LVY983057 MFU983055:MFU983057 MPQ983055:MPQ983057 MZM983055:MZM983057 NJI983055:NJI983057 NTE983055:NTE983057 ODA983055:ODA983057 OMW983055:OMW983057 OWS983055:OWS983057 PGO983055:PGO983057 PQK983055:PQK983057 QAG983055:QAG983057 QKC983055:QKC983057 QTY983055:QTY983057 RDU983055:RDU983057 RNQ983055:RNQ983057 RXM983055:RXM983057 SHI983055:SHI983057 SRE983055:SRE983057 TBA983055:TBA983057 TKW983055:TKW983057 TUS983055:TUS983057 UEO983055:UEO983057 UOK983055:UOK983057 UYG983055:UYG983057 VIC983055:VIC983057 VRY983055:VRY983057 WBU983055:WBU983057 WLQ983055:WLQ983057 WVM983055:WVM983057 F65547:R65553 JB65547:JN65553 SX65547:TJ65553 ACT65547:ADF65553 AMP65547:ANB65553 AWL65547:AWX65553 BGH65547:BGT65553 BQD65547:BQP65553 BZZ65547:CAL65553 CJV65547:CKH65553 CTR65547:CUD65553 DDN65547:DDZ65553 DNJ65547:DNV65553 DXF65547:DXR65553 EHB65547:EHN65553 EQX65547:ERJ65553 FAT65547:FBF65553 FKP65547:FLB65553 FUL65547:FUX65553 GEH65547:GET65553 GOD65547:GOP65553 GXZ65547:GYL65553 HHV65547:HIH65553 HRR65547:HSD65553 IBN65547:IBZ65553 ILJ65547:ILV65553 IVF65547:IVR65553 JFB65547:JFN65553 JOX65547:JPJ65553 JYT65547:JZF65553 KIP65547:KJB65553 KSL65547:KSX65553 LCH65547:LCT65553 LMD65547:LMP65553 LVZ65547:LWL65553 MFV65547:MGH65553 MPR65547:MQD65553 MZN65547:MZZ65553 NJJ65547:NJV65553 NTF65547:NTR65553 ODB65547:ODN65553 OMX65547:ONJ65553 OWT65547:OXF65553 PGP65547:PHB65553 PQL65547:PQX65553 QAH65547:QAT65553 QKD65547:QKP65553 QTZ65547:QUL65553 RDV65547:REH65553 RNR65547:ROD65553 RXN65547:RXZ65553 SHJ65547:SHV65553 SRF65547:SRR65553 TBB65547:TBN65553 TKX65547:TLJ65553 TUT65547:TVF65553 UEP65547:UFB65553 UOL65547:UOX65553 UYH65547:UYT65553 VID65547:VIP65553 VRZ65547:VSL65553 WBV65547:WCH65553 WLR65547:WMD65553 WVN65547:WVZ65553 F131083:R131089 JB131083:JN131089 SX131083:TJ131089 ACT131083:ADF131089 AMP131083:ANB131089 AWL131083:AWX131089 BGH131083:BGT131089 BQD131083:BQP131089 BZZ131083:CAL131089 CJV131083:CKH131089 CTR131083:CUD131089 DDN131083:DDZ131089 DNJ131083:DNV131089 DXF131083:DXR131089 EHB131083:EHN131089 EQX131083:ERJ131089 FAT131083:FBF131089 FKP131083:FLB131089 FUL131083:FUX131089 GEH131083:GET131089 GOD131083:GOP131089 GXZ131083:GYL131089 HHV131083:HIH131089 HRR131083:HSD131089 IBN131083:IBZ131089 ILJ131083:ILV131089 IVF131083:IVR131089 JFB131083:JFN131089 JOX131083:JPJ131089 JYT131083:JZF131089 KIP131083:KJB131089 KSL131083:KSX131089 LCH131083:LCT131089 LMD131083:LMP131089 LVZ131083:LWL131089 MFV131083:MGH131089 MPR131083:MQD131089 MZN131083:MZZ131089 NJJ131083:NJV131089 NTF131083:NTR131089 ODB131083:ODN131089 OMX131083:ONJ131089 OWT131083:OXF131089 PGP131083:PHB131089 PQL131083:PQX131089 QAH131083:QAT131089 QKD131083:QKP131089 QTZ131083:QUL131089 RDV131083:REH131089 RNR131083:ROD131089 RXN131083:RXZ131089 SHJ131083:SHV131089 SRF131083:SRR131089 TBB131083:TBN131089 TKX131083:TLJ131089 TUT131083:TVF131089 UEP131083:UFB131089 UOL131083:UOX131089 UYH131083:UYT131089 VID131083:VIP131089 VRZ131083:VSL131089 WBV131083:WCH131089 WLR131083:WMD131089 WVN131083:WVZ131089 F196619:R196625 JB196619:JN196625 SX196619:TJ196625 ACT196619:ADF196625 AMP196619:ANB196625 AWL196619:AWX196625 BGH196619:BGT196625 BQD196619:BQP196625 BZZ196619:CAL196625 CJV196619:CKH196625 CTR196619:CUD196625 DDN196619:DDZ196625 DNJ196619:DNV196625 DXF196619:DXR196625 EHB196619:EHN196625 EQX196619:ERJ196625 FAT196619:FBF196625 FKP196619:FLB196625 FUL196619:FUX196625 GEH196619:GET196625 GOD196619:GOP196625 GXZ196619:GYL196625 HHV196619:HIH196625 HRR196619:HSD196625 IBN196619:IBZ196625 ILJ196619:ILV196625 IVF196619:IVR196625 JFB196619:JFN196625 JOX196619:JPJ196625 JYT196619:JZF196625 KIP196619:KJB196625 KSL196619:KSX196625 LCH196619:LCT196625 LMD196619:LMP196625 LVZ196619:LWL196625 MFV196619:MGH196625 MPR196619:MQD196625 MZN196619:MZZ196625 NJJ196619:NJV196625 NTF196619:NTR196625 ODB196619:ODN196625 OMX196619:ONJ196625 OWT196619:OXF196625 PGP196619:PHB196625 PQL196619:PQX196625 QAH196619:QAT196625 QKD196619:QKP196625 QTZ196619:QUL196625 RDV196619:REH196625 RNR196619:ROD196625 RXN196619:RXZ196625 SHJ196619:SHV196625 SRF196619:SRR196625 TBB196619:TBN196625 TKX196619:TLJ196625 TUT196619:TVF196625 UEP196619:UFB196625 UOL196619:UOX196625 UYH196619:UYT196625 VID196619:VIP196625 VRZ196619:VSL196625 WBV196619:WCH196625 WLR196619:WMD196625 WVN196619:WVZ196625 F262155:R262161 JB262155:JN262161 SX262155:TJ262161 ACT262155:ADF262161 AMP262155:ANB262161 AWL262155:AWX262161 BGH262155:BGT262161 BQD262155:BQP262161 BZZ262155:CAL262161 CJV262155:CKH262161 CTR262155:CUD262161 DDN262155:DDZ262161 DNJ262155:DNV262161 DXF262155:DXR262161 EHB262155:EHN262161 EQX262155:ERJ262161 FAT262155:FBF262161 FKP262155:FLB262161 FUL262155:FUX262161 GEH262155:GET262161 GOD262155:GOP262161 GXZ262155:GYL262161 HHV262155:HIH262161 HRR262155:HSD262161 IBN262155:IBZ262161 ILJ262155:ILV262161 IVF262155:IVR262161 JFB262155:JFN262161 JOX262155:JPJ262161 JYT262155:JZF262161 KIP262155:KJB262161 KSL262155:KSX262161 LCH262155:LCT262161 LMD262155:LMP262161 LVZ262155:LWL262161 MFV262155:MGH262161 MPR262155:MQD262161 MZN262155:MZZ262161 NJJ262155:NJV262161 NTF262155:NTR262161 ODB262155:ODN262161 OMX262155:ONJ262161 OWT262155:OXF262161 PGP262155:PHB262161 PQL262155:PQX262161 QAH262155:QAT262161 QKD262155:QKP262161 QTZ262155:QUL262161 RDV262155:REH262161 RNR262155:ROD262161 RXN262155:RXZ262161 SHJ262155:SHV262161 SRF262155:SRR262161 TBB262155:TBN262161 TKX262155:TLJ262161 TUT262155:TVF262161 UEP262155:UFB262161 UOL262155:UOX262161 UYH262155:UYT262161 VID262155:VIP262161 VRZ262155:VSL262161 WBV262155:WCH262161 WLR262155:WMD262161 WVN262155:WVZ262161 F327691:R327697 JB327691:JN327697 SX327691:TJ327697 ACT327691:ADF327697 AMP327691:ANB327697 AWL327691:AWX327697 BGH327691:BGT327697 BQD327691:BQP327697 BZZ327691:CAL327697 CJV327691:CKH327697 CTR327691:CUD327697 DDN327691:DDZ327697 DNJ327691:DNV327697 DXF327691:DXR327697 EHB327691:EHN327697 EQX327691:ERJ327697 FAT327691:FBF327697 FKP327691:FLB327697 FUL327691:FUX327697 GEH327691:GET327697 GOD327691:GOP327697 GXZ327691:GYL327697 HHV327691:HIH327697 HRR327691:HSD327697 IBN327691:IBZ327697 ILJ327691:ILV327697 IVF327691:IVR327697 JFB327691:JFN327697 JOX327691:JPJ327697 JYT327691:JZF327697 KIP327691:KJB327697 KSL327691:KSX327697 LCH327691:LCT327697 LMD327691:LMP327697 LVZ327691:LWL327697 MFV327691:MGH327697 MPR327691:MQD327697 MZN327691:MZZ327697 NJJ327691:NJV327697 NTF327691:NTR327697 ODB327691:ODN327697 OMX327691:ONJ327697 OWT327691:OXF327697 PGP327691:PHB327697 PQL327691:PQX327697 QAH327691:QAT327697 QKD327691:QKP327697 QTZ327691:QUL327697 RDV327691:REH327697 RNR327691:ROD327697 RXN327691:RXZ327697 SHJ327691:SHV327697 SRF327691:SRR327697 TBB327691:TBN327697 TKX327691:TLJ327697 TUT327691:TVF327697 UEP327691:UFB327697 UOL327691:UOX327697 UYH327691:UYT327697 VID327691:VIP327697 VRZ327691:VSL327697 WBV327691:WCH327697 WLR327691:WMD327697 WVN327691:WVZ327697 F393227:R393233 JB393227:JN393233 SX393227:TJ393233 ACT393227:ADF393233 AMP393227:ANB393233 AWL393227:AWX393233 BGH393227:BGT393233 BQD393227:BQP393233 BZZ393227:CAL393233 CJV393227:CKH393233 CTR393227:CUD393233 DDN393227:DDZ393233 DNJ393227:DNV393233 DXF393227:DXR393233 EHB393227:EHN393233 EQX393227:ERJ393233 FAT393227:FBF393233 FKP393227:FLB393233 FUL393227:FUX393233 GEH393227:GET393233 GOD393227:GOP393233 GXZ393227:GYL393233 HHV393227:HIH393233 HRR393227:HSD393233 IBN393227:IBZ393233 ILJ393227:ILV393233 IVF393227:IVR393233 JFB393227:JFN393233 JOX393227:JPJ393233 JYT393227:JZF393233 KIP393227:KJB393233 KSL393227:KSX393233 LCH393227:LCT393233 LMD393227:LMP393233 LVZ393227:LWL393233 MFV393227:MGH393233 MPR393227:MQD393233 MZN393227:MZZ393233 NJJ393227:NJV393233 NTF393227:NTR393233 ODB393227:ODN393233 OMX393227:ONJ393233 OWT393227:OXF393233 PGP393227:PHB393233 PQL393227:PQX393233 QAH393227:QAT393233 QKD393227:QKP393233 QTZ393227:QUL393233 RDV393227:REH393233 RNR393227:ROD393233 RXN393227:RXZ393233 SHJ393227:SHV393233 SRF393227:SRR393233 TBB393227:TBN393233 TKX393227:TLJ393233 TUT393227:TVF393233 UEP393227:UFB393233 UOL393227:UOX393233 UYH393227:UYT393233 VID393227:VIP393233 VRZ393227:VSL393233 WBV393227:WCH393233 WLR393227:WMD393233 WVN393227:WVZ393233 F458763:R458769 JB458763:JN458769 SX458763:TJ458769 ACT458763:ADF458769 AMP458763:ANB458769 AWL458763:AWX458769 BGH458763:BGT458769 BQD458763:BQP458769 BZZ458763:CAL458769 CJV458763:CKH458769 CTR458763:CUD458769 DDN458763:DDZ458769 DNJ458763:DNV458769 DXF458763:DXR458769 EHB458763:EHN458769 EQX458763:ERJ458769 FAT458763:FBF458769 FKP458763:FLB458769 FUL458763:FUX458769 GEH458763:GET458769 GOD458763:GOP458769 GXZ458763:GYL458769 HHV458763:HIH458769 HRR458763:HSD458769 IBN458763:IBZ458769 ILJ458763:ILV458769 IVF458763:IVR458769 JFB458763:JFN458769 JOX458763:JPJ458769 JYT458763:JZF458769 KIP458763:KJB458769 KSL458763:KSX458769 LCH458763:LCT458769 LMD458763:LMP458769 LVZ458763:LWL458769 MFV458763:MGH458769 MPR458763:MQD458769 MZN458763:MZZ458769 NJJ458763:NJV458769 NTF458763:NTR458769 ODB458763:ODN458769 OMX458763:ONJ458769 OWT458763:OXF458769 PGP458763:PHB458769 PQL458763:PQX458769 QAH458763:QAT458769 QKD458763:QKP458769 QTZ458763:QUL458769 RDV458763:REH458769 RNR458763:ROD458769 RXN458763:RXZ458769 SHJ458763:SHV458769 SRF458763:SRR458769 TBB458763:TBN458769 TKX458763:TLJ458769 TUT458763:TVF458769 UEP458763:UFB458769 UOL458763:UOX458769 UYH458763:UYT458769 VID458763:VIP458769 VRZ458763:VSL458769 WBV458763:WCH458769 WLR458763:WMD458769 WVN458763:WVZ458769 F524299:R524305 JB524299:JN524305 SX524299:TJ524305 ACT524299:ADF524305 AMP524299:ANB524305 AWL524299:AWX524305 BGH524299:BGT524305 BQD524299:BQP524305 BZZ524299:CAL524305 CJV524299:CKH524305 CTR524299:CUD524305 DDN524299:DDZ524305 DNJ524299:DNV524305 DXF524299:DXR524305 EHB524299:EHN524305 EQX524299:ERJ524305 FAT524299:FBF524305 FKP524299:FLB524305 FUL524299:FUX524305 GEH524299:GET524305 GOD524299:GOP524305 GXZ524299:GYL524305 HHV524299:HIH524305 HRR524299:HSD524305 IBN524299:IBZ524305 ILJ524299:ILV524305 IVF524299:IVR524305 JFB524299:JFN524305 JOX524299:JPJ524305 JYT524299:JZF524305 KIP524299:KJB524305 KSL524299:KSX524305 LCH524299:LCT524305 LMD524299:LMP524305 LVZ524299:LWL524305 MFV524299:MGH524305 MPR524299:MQD524305 MZN524299:MZZ524305 NJJ524299:NJV524305 NTF524299:NTR524305 ODB524299:ODN524305 OMX524299:ONJ524305 OWT524299:OXF524305 PGP524299:PHB524305 PQL524299:PQX524305 QAH524299:QAT524305 QKD524299:QKP524305 QTZ524299:QUL524305 RDV524299:REH524305 RNR524299:ROD524305 RXN524299:RXZ524305 SHJ524299:SHV524305 SRF524299:SRR524305 TBB524299:TBN524305 TKX524299:TLJ524305 TUT524299:TVF524305 UEP524299:UFB524305 UOL524299:UOX524305 UYH524299:UYT524305 VID524299:VIP524305 VRZ524299:VSL524305 WBV524299:WCH524305 WLR524299:WMD524305 WVN524299:WVZ524305 F589835:R589841 JB589835:JN589841 SX589835:TJ589841 ACT589835:ADF589841 AMP589835:ANB589841 AWL589835:AWX589841 BGH589835:BGT589841 BQD589835:BQP589841 BZZ589835:CAL589841 CJV589835:CKH589841 CTR589835:CUD589841 DDN589835:DDZ589841 DNJ589835:DNV589841 DXF589835:DXR589841 EHB589835:EHN589841 EQX589835:ERJ589841 FAT589835:FBF589841 FKP589835:FLB589841 FUL589835:FUX589841 GEH589835:GET589841 GOD589835:GOP589841 GXZ589835:GYL589841 HHV589835:HIH589841 HRR589835:HSD589841 IBN589835:IBZ589841 ILJ589835:ILV589841 IVF589835:IVR589841 JFB589835:JFN589841 JOX589835:JPJ589841 JYT589835:JZF589841 KIP589835:KJB589841 KSL589835:KSX589841 LCH589835:LCT589841 LMD589835:LMP589841 LVZ589835:LWL589841 MFV589835:MGH589841 MPR589835:MQD589841 MZN589835:MZZ589841 NJJ589835:NJV589841 NTF589835:NTR589841 ODB589835:ODN589841 OMX589835:ONJ589841 OWT589835:OXF589841 PGP589835:PHB589841 PQL589835:PQX589841 QAH589835:QAT589841 QKD589835:QKP589841 QTZ589835:QUL589841 RDV589835:REH589841 RNR589835:ROD589841 RXN589835:RXZ589841 SHJ589835:SHV589841 SRF589835:SRR589841 TBB589835:TBN589841 TKX589835:TLJ589841 TUT589835:TVF589841 UEP589835:UFB589841 UOL589835:UOX589841 UYH589835:UYT589841 VID589835:VIP589841 VRZ589835:VSL589841 WBV589835:WCH589841 WLR589835:WMD589841 WVN589835:WVZ589841 F655371:R655377 JB655371:JN655377 SX655371:TJ655377 ACT655371:ADF655377 AMP655371:ANB655377 AWL655371:AWX655377 BGH655371:BGT655377 BQD655371:BQP655377 BZZ655371:CAL655377 CJV655371:CKH655377 CTR655371:CUD655377 DDN655371:DDZ655377 DNJ655371:DNV655377 DXF655371:DXR655377 EHB655371:EHN655377 EQX655371:ERJ655377 FAT655371:FBF655377 FKP655371:FLB655377 FUL655371:FUX655377 GEH655371:GET655377 GOD655371:GOP655377 GXZ655371:GYL655377 HHV655371:HIH655377 HRR655371:HSD655377 IBN655371:IBZ655377 ILJ655371:ILV655377 IVF655371:IVR655377 JFB655371:JFN655377 JOX655371:JPJ655377 JYT655371:JZF655377 KIP655371:KJB655377 KSL655371:KSX655377 LCH655371:LCT655377 LMD655371:LMP655377 LVZ655371:LWL655377 MFV655371:MGH655377 MPR655371:MQD655377 MZN655371:MZZ655377 NJJ655371:NJV655377 NTF655371:NTR655377 ODB655371:ODN655377 OMX655371:ONJ655377 OWT655371:OXF655377 PGP655371:PHB655377 PQL655371:PQX655377 QAH655371:QAT655377 QKD655371:QKP655377 QTZ655371:QUL655377 RDV655371:REH655377 RNR655371:ROD655377 RXN655371:RXZ655377 SHJ655371:SHV655377 SRF655371:SRR655377 TBB655371:TBN655377 TKX655371:TLJ655377 TUT655371:TVF655377 UEP655371:UFB655377 UOL655371:UOX655377 UYH655371:UYT655377 VID655371:VIP655377 VRZ655371:VSL655377 WBV655371:WCH655377 WLR655371:WMD655377 WVN655371:WVZ655377 F720907:R720913 JB720907:JN720913 SX720907:TJ720913 ACT720907:ADF720913 AMP720907:ANB720913 AWL720907:AWX720913 BGH720907:BGT720913 BQD720907:BQP720913 BZZ720907:CAL720913 CJV720907:CKH720913 CTR720907:CUD720913 DDN720907:DDZ720913 DNJ720907:DNV720913 DXF720907:DXR720913 EHB720907:EHN720913 EQX720907:ERJ720913 FAT720907:FBF720913 FKP720907:FLB720913 FUL720907:FUX720913 GEH720907:GET720913 GOD720907:GOP720913 GXZ720907:GYL720913 HHV720907:HIH720913 HRR720907:HSD720913 IBN720907:IBZ720913 ILJ720907:ILV720913 IVF720907:IVR720913 JFB720907:JFN720913 JOX720907:JPJ720913 JYT720907:JZF720913 KIP720907:KJB720913 KSL720907:KSX720913 LCH720907:LCT720913 LMD720907:LMP720913 LVZ720907:LWL720913 MFV720907:MGH720913 MPR720907:MQD720913 MZN720907:MZZ720913 NJJ720907:NJV720913 NTF720907:NTR720913 ODB720907:ODN720913 OMX720907:ONJ720913 OWT720907:OXF720913 PGP720907:PHB720913 PQL720907:PQX720913 QAH720907:QAT720913 QKD720907:QKP720913 QTZ720907:QUL720913 RDV720907:REH720913 RNR720907:ROD720913 RXN720907:RXZ720913 SHJ720907:SHV720913 SRF720907:SRR720913 TBB720907:TBN720913 TKX720907:TLJ720913 TUT720907:TVF720913 UEP720907:UFB720913 UOL720907:UOX720913 UYH720907:UYT720913 VID720907:VIP720913 VRZ720907:VSL720913 WBV720907:WCH720913 WLR720907:WMD720913 WVN720907:WVZ720913 F786443:R786449 JB786443:JN786449 SX786443:TJ786449 ACT786443:ADF786449 AMP786443:ANB786449 AWL786443:AWX786449 BGH786443:BGT786449 BQD786443:BQP786449 BZZ786443:CAL786449 CJV786443:CKH786449 CTR786443:CUD786449 DDN786443:DDZ786449 DNJ786443:DNV786449 DXF786443:DXR786449 EHB786443:EHN786449 EQX786443:ERJ786449 FAT786443:FBF786449 FKP786443:FLB786449 FUL786443:FUX786449 GEH786443:GET786449 GOD786443:GOP786449 GXZ786443:GYL786449 HHV786443:HIH786449 HRR786443:HSD786449 IBN786443:IBZ786449 ILJ786443:ILV786449 IVF786443:IVR786449 JFB786443:JFN786449 JOX786443:JPJ786449 JYT786443:JZF786449 KIP786443:KJB786449 KSL786443:KSX786449 LCH786443:LCT786449 LMD786443:LMP786449 LVZ786443:LWL786449 MFV786443:MGH786449 MPR786443:MQD786449 MZN786443:MZZ786449 NJJ786443:NJV786449 NTF786443:NTR786449 ODB786443:ODN786449 OMX786443:ONJ786449 OWT786443:OXF786449 PGP786443:PHB786449 PQL786443:PQX786449 QAH786443:QAT786449 QKD786443:QKP786449 QTZ786443:QUL786449 RDV786443:REH786449 RNR786443:ROD786449 RXN786443:RXZ786449 SHJ786443:SHV786449 SRF786443:SRR786449 TBB786443:TBN786449 TKX786443:TLJ786449 TUT786443:TVF786449 UEP786443:UFB786449 UOL786443:UOX786449 UYH786443:UYT786449 VID786443:VIP786449 VRZ786443:VSL786449 WBV786443:WCH786449 WLR786443:WMD786449 WVN786443:WVZ786449 F851979:R851985 JB851979:JN851985 SX851979:TJ851985 ACT851979:ADF851985 AMP851979:ANB851985 AWL851979:AWX851985 BGH851979:BGT851985 BQD851979:BQP851985 BZZ851979:CAL851985 CJV851979:CKH851985 CTR851979:CUD851985 DDN851979:DDZ851985 DNJ851979:DNV851985 DXF851979:DXR851985 EHB851979:EHN851985 EQX851979:ERJ851985 FAT851979:FBF851985 FKP851979:FLB851985 FUL851979:FUX851985 GEH851979:GET851985 GOD851979:GOP851985 GXZ851979:GYL851985 HHV851979:HIH851985 HRR851979:HSD851985 IBN851979:IBZ851985 ILJ851979:ILV851985 IVF851979:IVR851985 JFB851979:JFN851985 JOX851979:JPJ851985 JYT851979:JZF851985 KIP851979:KJB851985 KSL851979:KSX851985 LCH851979:LCT851985 LMD851979:LMP851985 LVZ851979:LWL851985 MFV851979:MGH851985 MPR851979:MQD851985 MZN851979:MZZ851985 NJJ851979:NJV851985 NTF851979:NTR851985 ODB851979:ODN851985 OMX851979:ONJ851985 OWT851979:OXF851985 PGP851979:PHB851985 PQL851979:PQX851985 QAH851979:QAT851985 QKD851979:QKP851985 QTZ851979:QUL851985 RDV851979:REH851985 RNR851979:ROD851985 RXN851979:RXZ851985 SHJ851979:SHV851985 SRF851979:SRR851985 TBB851979:TBN851985 TKX851979:TLJ851985 TUT851979:TVF851985 UEP851979:UFB851985 UOL851979:UOX851985 UYH851979:UYT851985 VID851979:VIP851985 VRZ851979:VSL851985 WBV851979:WCH851985 WLR851979:WMD851985 WVN851979:WVZ851985 F917515:R917521 JB917515:JN917521 SX917515:TJ917521 ACT917515:ADF917521 AMP917515:ANB917521 AWL917515:AWX917521 BGH917515:BGT917521 BQD917515:BQP917521 BZZ917515:CAL917521 CJV917515:CKH917521 CTR917515:CUD917521 DDN917515:DDZ917521 DNJ917515:DNV917521 DXF917515:DXR917521 EHB917515:EHN917521 EQX917515:ERJ917521 FAT917515:FBF917521 FKP917515:FLB917521 FUL917515:FUX917521 GEH917515:GET917521 GOD917515:GOP917521 GXZ917515:GYL917521 HHV917515:HIH917521 HRR917515:HSD917521 IBN917515:IBZ917521 ILJ917515:ILV917521 IVF917515:IVR917521 JFB917515:JFN917521 JOX917515:JPJ917521 JYT917515:JZF917521 KIP917515:KJB917521 KSL917515:KSX917521 LCH917515:LCT917521 LMD917515:LMP917521 LVZ917515:LWL917521 MFV917515:MGH917521 MPR917515:MQD917521 MZN917515:MZZ917521 NJJ917515:NJV917521 NTF917515:NTR917521 ODB917515:ODN917521 OMX917515:ONJ917521 OWT917515:OXF917521 PGP917515:PHB917521 PQL917515:PQX917521 QAH917515:QAT917521 QKD917515:QKP917521 QTZ917515:QUL917521 RDV917515:REH917521 RNR917515:ROD917521 RXN917515:RXZ917521 SHJ917515:SHV917521 SRF917515:SRR917521 TBB917515:TBN917521 TKX917515:TLJ917521 TUT917515:TVF917521 UEP917515:UFB917521 UOL917515:UOX917521 UYH917515:UYT917521 VID917515:VIP917521 VRZ917515:VSL917521 WBV917515:WCH917521 WLR917515:WMD917521 WVN917515:WVZ917521 F983051:R983057 JB983051:JN983057 SX983051:TJ983057 ACT983051:ADF983057 AMP983051:ANB983057 AWL983051:AWX983057 BGH983051:BGT983057 BQD983051:BQP983057 BZZ983051:CAL983057 CJV983051:CKH983057 CTR983051:CUD983057 DDN983051:DDZ983057 DNJ983051:DNV983057 DXF983051:DXR983057 EHB983051:EHN983057 EQX983051:ERJ983057 FAT983051:FBF983057 FKP983051:FLB983057 FUL983051:FUX983057 GEH983051:GET983057 GOD983051:GOP983057 GXZ983051:GYL983057 HHV983051:HIH983057 HRR983051:HSD983057 IBN983051:IBZ983057 ILJ983051:ILV983057 IVF983051:IVR983057 JFB983051:JFN983057 JOX983051:JPJ983057 JYT983051:JZF983057 KIP983051:KJB983057 KSL983051:KSX983057 LCH983051:LCT983057 LMD983051:LMP983057 LVZ983051:LWL983057 MFV983051:MGH983057 MPR983051:MQD983057 MZN983051:MZZ983057 NJJ983051:NJV983057 NTF983051:NTR983057 ODB983051:ODN983057 OMX983051:ONJ983057 OWT983051:OXF983057 PGP983051:PHB983057 PQL983051:PQX983057 QAH983051:QAT983057 QKD983051:QKP983057 QTZ983051:QUL983057 RDV983051:REH983057 RNR983051:ROD983057 RXN983051:RXZ983057 SHJ983051:SHV983057 SRF983051:SRR983057 TBB983051:TBN983057 TKX983051:TLJ983057 TUT983051:TVF983057 UEP983051:UFB983057 UOL983051:UOX983057 UYH983051:UYT983057 VID983051:VIP983057 VRZ983051:VSL983057 WBV983051:WCH983057 WLR983051:WMD983057 WVN983051:WVZ983057 E65545:E65549 JA65545:JA65549 SW65545:SW65549 ACS65545:ACS65549 AMO65545:AMO65549 AWK65545:AWK65549 BGG65545:BGG65549 BQC65545:BQC65549 BZY65545:BZY65549 CJU65545:CJU65549 CTQ65545:CTQ65549 DDM65545:DDM65549 DNI65545:DNI65549 DXE65545:DXE65549 EHA65545:EHA65549 EQW65545:EQW65549 FAS65545:FAS65549 FKO65545:FKO65549 FUK65545:FUK65549 GEG65545:GEG65549 GOC65545:GOC65549 GXY65545:GXY65549 HHU65545:HHU65549 HRQ65545:HRQ65549 IBM65545:IBM65549 ILI65545:ILI65549 IVE65545:IVE65549 JFA65545:JFA65549 JOW65545:JOW65549 JYS65545:JYS65549 KIO65545:KIO65549 KSK65545:KSK65549 LCG65545:LCG65549 LMC65545:LMC65549 LVY65545:LVY65549 MFU65545:MFU65549 MPQ65545:MPQ65549 MZM65545:MZM65549 NJI65545:NJI65549 NTE65545:NTE65549 ODA65545:ODA65549 OMW65545:OMW65549 OWS65545:OWS65549 PGO65545:PGO65549 PQK65545:PQK65549 QAG65545:QAG65549 QKC65545:QKC65549 QTY65545:QTY65549 RDU65545:RDU65549 RNQ65545:RNQ65549 RXM65545:RXM65549 SHI65545:SHI65549 SRE65545:SRE65549 TBA65545:TBA65549 TKW65545:TKW65549 TUS65545:TUS65549 UEO65545:UEO65549 UOK65545:UOK65549 UYG65545:UYG65549 VIC65545:VIC65549 VRY65545:VRY65549 WBU65545:WBU65549 WLQ65545:WLQ65549 WVM65545:WVM65549 E131081:E131085 JA131081:JA131085 SW131081:SW131085 ACS131081:ACS131085 AMO131081:AMO131085 AWK131081:AWK131085 BGG131081:BGG131085 BQC131081:BQC131085 BZY131081:BZY131085 CJU131081:CJU131085 CTQ131081:CTQ131085 DDM131081:DDM131085 DNI131081:DNI131085 DXE131081:DXE131085 EHA131081:EHA131085 EQW131081:EQW131085 FAS131081:FAS131085 FKO131081:FKO131085 FUK131081:FUK131085 GEG131081:GEG131085 GOC131081:GOC131085 GXY131081:GXY131085 HHU131081:HHU131085 HRQ131081:HRQ131085 IBM131081:IBM131085 ILI131081:ILI131085 IVE131081:IVE131085 JFA131081:JFA131085 JOW131081:JOW131085 JYS131081:JYS131085 KIO131081:KIO131085 KSK131081:KSK131085 LCG131081:LCG131085 LMC131081:LMC131085 LVY131081:LVY131085 MFU131081:MFU131085 MPQ131081:MPQ131085 MZM131081:MZM131085 NJI131081:NJI131085 NTE131081:NTE131085 ODA131081:ODA131085 OMW131081:OMW131085 OWS131081:OWS131085 PGO131081:PGO131085 PQK131081:PQK131085 QAG131081:QAG131085 QKC131081:QKC131085 QTY131081:QTY131085 RDU131081:RDU131085 RNQ131081:RNQ131085 RXM131081:RXM131085 SHI131081:SHI131085 SRE131081:SRE131085 TBA131081:TBA131085 TKW131081:TKW131085 TUS131081:TUS131085 UEO131081:UEO131085 UOK131081:UOK131085 UYG131081:UYG131085 VIC131081:VIC131085 VRY131081:VRY131085 WBU131081:WBU131085 WLQ131081:WLQ131085 WVM131081:WVM131085 E196617:E196621 JA196617:JA196621 SW196617:SW196621 ACS196617:ACS196621 AMO196617:AMO196621 AWK196617:AWK196621 BGG196617:BGG196621 BQC196617:BQC196621 BZY196617:BZY196621 CJU196617:CJU196621 CTQ196617:CTQ196621 DDM196617:DDM196621 DNI196617:DNI196621 DXE196617:DXE196621 EHA196617:EHA196621 EQW196617:EQW196621 FAS196617:FAS196621 FKO196617:FKO196621 FUK196617:FUK196621 GEG196617:GEG196621 GOC196617:GOC196621 GXY196617:GXY196621 HHU196617:HHU196621 HRQ196617:HRQ196621 IBM196617:IBM196621 ILI196617:ILI196621 IVE196617:IVE196621 JFA196617:JFA196621 JOW196617:JOW196621 JYS196617:JYS196621 KIO196617:KIO196621 KSK196617:KSK196621 LCG196617:LCG196621 LMC196617:LMC196621 LVY196617:LVY196621 MFU196617:MFU196621 MPQ196617:MPQ196621 MZM196617:MZM196621 NJI196617:NJI196621 NTE196617:NTE196621 ODA196617:ODA196621 OMW196617:OMW196621 OWS196617:OWS196621 PGO196617:PGO196621 PQK196617:PQK196621 QAG196617:QAG196621 QKC196617:QKC196621 QTY196617:QTY196621 RDU196617:RDU196621 RNQ196617:RNQ196621 RXM196617:RXM196621 SHI196617:SHI196621 SRE196617:SRE196621 TBA196617:TBA196621 TKW196617:TKW196621 TUS196617:TUS196621 UEO196617:UEO196621 UOK196617:UOK196621 UYG196617:UYG196621 VIC196617:VIC196621 VRY196617:VRY196621 WBU196617:WBU196621 WLQ196617:WLQ196621 WVM196617:WVM196621 E262153:E262157 JA262153:JA262157 SW262153:SW262157 ACS262153:ACS262157 AMO262153:AMO262157 AWK262153:AWK262157 BGG262153:BGG262157 BQC262153:BQC262157 BZY262153:BZY262157 CJU262153:CJU262157 CTQ262153:CTQ262157 DDM262153:DDM262157 DNI262153:DNI262157 DXE262153:DXE262157 EHA262153:EHA262157 EQW262153:EQW262157 FAS262153:FAS262157 FKO262153:FKO262157 FUK262153:FUK262157 GEG262153:GEG262157 GOC262153:GOC262157 GXY262153:GXY262157 HHU262153:HHU262157 HRQ262153:HRQ262157 IBM262153:IBM262157 ILI262153:ILI262157 IVE262153:IVE262157 JFA262153:JFA262157 JOW262153:JOW262157 JYS262153:JYS262157 KIO262153:KIO262157 KSK262153:KSK262157 LCG262153:LCG262157 LMC262153:LMC262157 LVY262153:LVY262157 MFU262153:MFU262157 MPQ262153:MPQ262157 MZM262153:MZM262157 NJI262153:NJI262157 NTE262153:NTE262157 ODA262153:ODA262157 OMW262153:OMW262157 OWS262153:OWS262157 PGO262153:PGO262157 PQK262153:PQK262157 QAG262153:QAG262157 QKC262153:QKC262157 QTY262153:QTY262157 RDU262153:RDU262157 RNQ262153:RNQ262157 RXM262153:RXM262157 SHI262153:SHI262157 SRE262153:SRE262157 TBA262153:TBA262157 TKW262153:TKW262157 TUS262153:TUS262157 UEO262153:UEO262157 UOK262153:UOK262157 UYG262153:UYG262157 VIC262153:VIC262157 VRY262153:VRY262157 WBU262153:WBU262157 WLQ262153:WLQ262157 WVM262153:WVM262157 E327689:E327693 JA327689:JA327693 SW327689:SW327693 ACS327689:ACS327693 AMO327689:AMO327693 AWK327689:AWK327693 BGG327689:BGG327693 BQC327689:BQC327693 BZY327689:BZY327693 CJU327689:CJU327693 CTQ327689:CTQ327693 DDM327689:DDM327693 DNI327689:DNI327693 DXE327689:DXE327693 EHA327689:EHA327693 EQW327689:EQW327693 FAS327689:FAS327693 FKO327689:FKO327693 FUK327689:FUK327693 GEG327689:GEG327693 GOC327689:GOC327693 GXY327689:GXY327693 HHU327689:HHU327693 HRQ327689:HRQ327693 IBM327689:IBM327693 ILI327689:ILI327693 IVE327689:IVE327693 JFA327689:JFA327693 JOW327689:JOW327693 JYS327689:JYS327693 KIO327689:KIO327693 KSK327689:KSK327693 LCG327689:LCG327693 LMC327689:LMC327693 LVY327689:LVY327693 MFU327689:MFU327693 MPQ327689:MPQ327693 MZM327689:MZM327693 NJI327689:NJI327693 NTE327689:NTE327693 ODA327689:ODA327693 OMW327689:OMW327693 OWS327689:OWS327693 PGO327689:PGO327693 PQK327689:PQK327693 QAG327689:QAG327693 QKC327689:QKC327693 QTY327689:QTY327693 RDU327689:RDU327693 RNQ327689:RNQ327693 RXM327689:RXM327693 SHI327689:SHI327693 SRE327689:SRE327693 TBA327689:TBA327693 TKW327689:TKW327693 TUS327689:TUS327693 UEO327689:UEO327693 UOK327689:UOK327693 UYG327689:UYG327693 VIC327689:VIC327693 VRY327689:VRY327693 WBU327689:WBU327693 WLQ327689:WLQ327693 WVM327689:WVM327693 E393225:E393229 JA393225:JA393229 SW393225:SW393229 ACS393225:ACS393229 AMO393225:AMO393229 AWK393225:AWK393229 BGG393225:BGG393229 BQC393225:BQC393229 BZY393225:BZY393229 CJU393225:CJU393229 CTQ393225:CTQ393229 DDM393225:DDM393229 DNI393225:DNI393229 DXE393225:DXE393229 EHA393225:EHA393229 EQW393225:EQW393229 FAS393225:FAS393229 FKO393225:FKO393229 FUK393225:FUK393229 GEG393225:GEG393229 GOC393225:GOC393229 GXY393225:GXY393229 HHU393225:HHU393229 HRQ393225:HRQ393229 IBM393225:IBM393229 ILI393225:ILI393229 IVE393225:IVE393229 JFA393225:JFA393229 JOW393225:JOW393229 JYS393225:JYS393229 KIO393225:KIO393229 KSK393225:KSK393229 LCG393225:LCG393229 LMC393225:LMC393229 LVY393225:LVY393229 MFU393225:MFU393229 MPQ393225:MPQ393229 MZM393225:MZM393229 NJI393225:NJI393229 NTE393225:NTE393229 ODA393225:ODA393229 OMW393225:OMW393229 OWS393225:OWS393229 PGO393225:PGO393229 PQK393225:PQK393229 QAG393225:QAG393229 QKC393225:QKC393229 QTY393225:QTY393229 RDU393225:RDU393229 RNQ393225:RNQ393229 RXM393225:RXM393229 SHI393225:SHI393229 SRE393225:SRE393229 TBA393225:TBA393229 TKW393225:TKW393229 TUS393225:TUS393229 UEO393225:UEO393229 UOK393225:UOK393229 UYG393225:UYG393229 VIC393225:VIC393229 VRY393225:VRY393229 WBU393225:WBU393229 WLQ393225:WLQ393229 WVM393225:WVM393229 E458761:E458765 JA458761:JA458765 SW458761:SW458765 ACS458761:ACS458765 AMO458761:AMO458765 AWK458761:AWK458765 BGG458761:BGG458765 BQC458761:BQC458765 BZY458761:BZY458765 CJU458761:CJU458765 CTQ458761:CTQ458765 DDM458761:DDM458765 DNI458761:DNI458765 DXE458761:DXE458765 EHA458761:EHA458765 EQW458761:EQW458765 FAS458761:FAS458765 FKO458761:FKO458765 FUK458761:FUK458765 GEG458761:GEG458765 GOC458761:GOC458765 GXY458761:GXY458765 HHU458761:HHU458765 HRQ458761:HRQ458765 IBM458761:IBM458765 ILI458761:ILI458765 IVE458761:IVE458765 JFA458761:JFA458765 JOW458761:JOW458765 JYS458761:JYS458765 KIO458761:KIO458765 KSK458761:KSK458765 LCG458761:LCG458765 LMC458761:LMC458765 LVY458761:LVY458765 MFU458761:MFU458765 MPQ458761:MPQ458765 MZM458761:MZM458765 NJI458761:NJI458765 NTE458761:NTE458765 ODA458761:ODA458765 OMW458761:OMW458765 OWS458761:OWS458765 PGO458761:PGO458765 PQK458761:PQK458765 QAG458761:QAG458765 QKC458761:QKC458765 QTY458761:QTY458765 RDU458761:RDU458765 RNQ458761:RNQ458765 RXM458761:RXM458765 SHI458761:SHI458765 SRE458761:SRE458765 TBA458761:TBA458765 TKW458761:TKW458765 TUS458761:TUS458765 UEO458761:UEO458765 UOK458761:UOK458765 UYG458761:UYG458765 VIC458761:VIC458765 VRY458761:VRY458765 WBU458761:WBU458765 WLQ458761:WLQ458765 WVM458761:WVM458765 E524297:E524301 JA524297:JA524301 SW524297:SW524301 ACS524297:ACS524301 AMO524297:AMO524301 AWK524297:AWK524301 BGG524297:BGG524301 BQC524297:BQC524301 BZY524297:BZY524301 CJU524297:CJU524301 CTQ524297:CTQ524301 DDM524297:DDM524301 DNI524297:DNI524301 DXE524297:DXE524301 EHA524297:EHA524301 EQW524297:EQW524301 FAS524297:FAS524301 FKO524297:FKO524301 FUK524297:FUK524301 GEG524297:GEG524301 GOC524297:GOC524301 GXY524297:GXY524301 HHU524297:HHU524301 HRQ524297:HRQ524301 IBM524297:IBM524301 ILI524297:ILI524301 IVE524297:IVE524301 JFA524297:JFA524301 JOW524297:JOW524301 JYS524297:JYS524301 KIO524297:KIO524301 KSK524297:KSK524301 LCG524297:LCG524301 LMC524297:LMC524301 LVY524297:LVY524301 MFU524297:MFU524301 MPQ524297:MPQ524301 MZM524297:MZM524301 NJI524297:NJI524301 NTE524297:NTE524301 ODA524297:ODA524301 OMW524297:OMW524301 OWS524297:OWS524301 PGO524297:PGO524301 PQK524297:PQK524301 QAG524297:QAG524301 QKC524297:QKC524301 QTY524297:QTY524301 RDU524297:RDU524301 RNQ524297:RNQ524301 RXM524297:RXM524301 SHI524297:SHI524301 SRE524297:SRE524301 TBA524297:TBA524301 TKW524297:TKW524301 TUS524297:TUS524301 UEO524297:UEO524301 UOK524297:UOK524301 UYG524297:UYG524301 VIC524297:VIC524301 VRY524297:VRY524301 WBU524297:WBU524301 WLQ524297:WLQ524301 WVM524297:WVM524301 E589833:E589837 JA589833:JA589837 SW589833:SW589837 ACS589833:ACS589837 AMO589833:AMO589837 AWK589833:AWK589837 BGG589833:BGG589837 BQC589833:BQC589837 BZY589833:BZY589837 CJU589833:CJU589837 CTQ589833:CTQ589837 DDM589833:DDM589837 DNI589833:DNI589837 DXE589833:DXE589837 EHA589833:EHA589837 EQW589833:EQW589837 FAS589833:FAS589837 FKO589833:FKO589837 FUK589833:FUK589837 GEG589833:GEG589837 GOC589833:GOC589837 GXY589833:GXY589837 HHU589833:HHU589837 HRQ589833:HRQ589837 IBM589833:IBM589837 ILI589833:ILI589837 IVE589833:IVE589837 JFA589833:JFA589837 JOW589833:JOW589837 JYS589833:JYS589837 KIO589833:KIO589837 KSK589833:KSK589837 LCG589833:LCG589837 LMC589833:LMC589837 LVY589833:LVY589837 MFU589833:MFU589837 MPQ589833:MPQ589837 MZM589833:MZM589837 NJI589833:NJI589837 NTE589833:NTE589837 ODA589833:ODA589837 OMW589833:OMW589837 OWS589833:OWS589837 PGO589833:PGO589837 PQK589833:PQK589837 QAG589833:QAG589837 QKC589833:QKC589837 QTY589833:QTY589837 RDU589833:RDU589837 RNQ589833:RNQ589837 RXM589833:RXM589837 SHI589833:SHI589837 SRE589833:SRE589837 TBA589833:TBA589837 TKW589833:TKW589837 TUS589833:TUS589837 UEO589833:UEO589837 UOK589833:UOK589837 UYG589833:UYG589837 VIC589833:VIC589837 VRY589833:VRY589837 WBU589833:WBU589837 WLQ589833:WLQ589837 WVM589833:WVM589837 E655369:E655373 JA655369:JA655373 SW655369:SW655373 ACS655369:ACS655373 AMO655369:AMO655373 AWK655369:AWK655373 BGG655369:BGG655373 BQC655369:BQC655373 BZY655369:BZY655373 CJU655369:CJU655373 CTQ655369:CTQ655373 DDM655369:DDM655373 DNI655369:DNI655373 DXE655369:DXE655373 EHA655369:EHA655373 EQW655369:EQW655373 FAS655369:FAS655373 FKO655369:FKO655373 FUK655369:FUK655373 GEG655369:GEG655373 GOC655369:GOC655373 GXY655369:GXY655373 HHU655369:HHU655373 HRQ655369:HRQ655373 IBM655369:IBM655373 ILI655369:ILI655373 IVE655369:IVE655373 JFA655369:JFA655373 JOW655369:JOW655373 JYS655369:JYS655373 KIO655369:KIO655373 KSK655369:KSK655373 LCG655369:LCG655373 LMC655369:LMC655373 LVY655369:LVY655373 MFU655369:MFU655373 MPQ655369:MPQ655373 MZM655369:MZM655373 NJI655369:NJI655373 NTE655369:NTE655373 ODA655369:ODA655373 OMW655369:OMW655373 OWS655369:OWS655373 PGO655369:PGO655373 PQK655369:PQK655373 QAG655369:QAG655373 QKC655369:QKC655373 QTY655369:QTY655373 RDU655369:RDU655373 RNQ655369:RNQ655373 RXM655369:RXM655373 SHI655369:SHI655373 SRE655369:SRE655373 TBA655369:TBA655373 TKW655369:TKW655373 TUS655369:TUS655373 UEO655369:UEO655373 UOK655369:UOK655373 UYG655369:UYG655373 VIC655369:VIC655373 VRY655369:VRY655373 WBU655369:WBU655373 WLQ655369:WLQ655373 WVM655369:WVM655373 E720905:E720909 JA720905:JA720909 SW720905:SW720909 ACS720905:ACS720909 AMO720905:AMO720909 AWK720905:AWK720909 BGG720905:BGG720909 BQC720905:BQC720909 BZY720905:BZY720909 CJU720905:CJU720909 CTQ720905:CTQ720909 DDM720905:DDM720909 DNI720905:DNI720909 DXE720905:DXE720909 EHA720905:EHA720909 EQW720905:EQW720909 FAS720905:FAS720909 FKO720905:FKO720909 FUK720905:FUK720909 GEG720905:GEG720909 GOC720905:GOC720909 GXY720905:GXY720909 HHU720905:HHU720909 HRQ720905:HRQ720909 IBM720905:IBM720909 ILI720905:ILI720909 IVE720905:IVE720909 JFA720905:JFA720909 JOW720905:JOW720909 JYS720905:JYS720909 KIO720905:KIO720909 KSK720905:KSK720909 LCG720905:LCG720909 LMC720905:LMC720909 LVY720905:LVY720909 MFU720905:MFU720909 MPQ720905:MPQ720909 MZM720905:MZM720909 NJI720905:NJI720909 NTE720905:NTE720909 ODA720905:ODA720909 OMW720905:OMW720909 OWS720905:OWS720909 PGO720905:PGO720909 PQK720905:PQK720909 QAG720905:QAG720909 QKC720905:QKC720909 QTY720905:QTY720909 RDU720905:RDU720909 RNQ720905:RNQ720909 RXM720905:RXM720909 SHI720905:SHI720909 SRE720905:SRE720909 TBA720905:TBA720909 TKW720905:TKW720909 TUS720905:TUS720909 UEO720905:UEO720909 UOK720905:UOK720909 UYG720905:UYG720909 VIC720905:VIC720909 VRY720905:VRY720909 WBU720905:WBU720909 WLQ720905:WLQ720909 WVM720905:WVM720909 E786441:E786445 JA786441:JA786445 SW786441:SW786445 ACS786441:ACS786445 AMO786441:AMO786445 AWK786441:AWK786445 BGG786441:BGG786445 BQC786441:BQC786445 BZY786441:BZY786445 CJU786441:CJU786445 CTQ786441:CTQ786445 DDM786441:DDM786445 DNI786441:DNI786445 DXE786441:DXE786445 EHA786441:EHA786445 EQW786441:EQW786445 FAS786441:FAS786445 FKO786441:FKO786445 FUK786441:FUK786445 GEG786441:GEG786445 GOC786441:GOC786445 GXY786441:GXY786445 HHU786441:HHU786445 HRQ786441:HRQ786445 IBM786441:IBM786445 ILI786441:ILI786445 IVE786441:IVE786445 JFA786441:JFA786445 JOW786441:JOW786445 JYS786441:JYS786445 KIO786441:KIO786445 KSK786441:KSK786445 LCG786441:LCG786445 LMC786441:LMC786445 LVY786441:LVY786445 MFU786441:MFU786445 MPQ786441:MPQ786445 MZM786441:MZM786445 NJI786441:NJI786445 NTE786441:NTE786445 ODA786441:ODA786445 OMW786441:OMW786445 OWS786441:OWS786445 PGO786441:PGO786445 PQK786441:PQK786445 QAG786441:QAG786445 QKC786441:QKC786445 QTY786441:QTY786445 RDU786441:RDU786445 RNQ786441:RNQ786445 RXM786441:RXM786445 SHI786441:SHI786445 SRE786441:SRE786445 TBA786441:TBA786445 TKW786441:TKW786445 TUS786441:TUS786445 UEO786441:UEO786445 UOK786441:UOK786445 UYG786441:UYG786445 VIC786441:VIC786445 VRY786441:VRY786445 WBU786441:WBU786445 WLQ786441:WLQ786445 WVM786441:WVM786445 E851977:E851981 JA851977:JA851981 SW851977:SW851981 ACS851977:ACS851981 AMO851977:AMO851981 AWK851977:AWK851981 BGG851977:BGG851981 BQC851977:BQC851981 BZY851977:BZY851981 CJU851977:CJU851981 CTQ851977:CTQ851981 DDM851977:DDM851981 DNI851977:DNI851981 DXE851977:DXE851981 EHA851977:EHA851981 EQW851977:EQW851981 FAS851977:FAS851981 FKO851977:FKO851981 FUK851977:FUK851981 GEG851977:GEG851981 GOC851977:GOC851981 GXY851977:GXY851981 HHU851977:HHU851981 HRQ851977:HRQ851981 IBM851977:IBM851981 ILI851977:ILI851981 IVE851977:IVE851981 JFA851977:JFA851981 JOW851977:JOW851981 JYS851977:JYS851981 KIO851977:KIO851981 KSK851977:KSK851981 LCG851977:LCG851981 LMC851977:LMC851981 LVY851977:LVY851981 MFU851977:MFU851981 MPQ851977:MPQ851981 MZM851977:MZM851981 NJI851977:NJI851981 NTE851977:NTE851981 ODA851977:ODA851981 OMW851977:OMW851981 OWS851977:OWS851981 PGO851977:PGO851981 PQK851977:PQK851981 QAG851977:QAG851981 QKC851977:QKC851981 QTY851977:QTY851981 RDU851977:RDU851981 RNQ851977:RNQ851981 RXM851977:RXM851981 SHI851977:SHI851981 SRE851977:SRE851981 TBA851977:TBA851981 TKW851977:TKW851981 TUS851977:TUS851981 UEO851977:UEO851981 UOK851977:UOK851981 UYG851977:UYG851981 VIC851977:VIC851981 VRY851977:VRY851981 WBU851977:WBU851981 WLQ851977:WLQ851981 WVM851977:WVM851981 E917513:E917517 JA917513:JA917517 SW917513:SW917517 ACS917513:ACS917517 AMO917513:AMO917517 AWK917513:AWK917517 BGG917513:BGG917517 BQC917513:BQC917517 BZY917513:BZY917517 CJU917513:CJU917517 CTQ917513:CTQ917517 DDM917513:DDM917517 DNI917513:DNI917517 DXE917513:DXE917517 EHA917513:EHA917517 EQW917513:EQW917517 FAS917513:FAS917517 FKO917513:FKO917517 FUK917513:FUK917517 GEG917513:GEG917517 GOC917513:GOC917517 GXY917513:GXY917517 HHU917513:HHU917517 HRQ917513:HRQ917517 IBM917513:IBM917517 ILI917513:ILI917517 IVE917513:IVE917517 JFA917513:JFA917517 JOW917513:JOW917517 JYS917513:JYS917517 KIO917513:KIO917517 KSK917513:KSK917517 LCG917513:LCG917517 LMC917513:LMC917517 LVY917513:LVY917517 MFU917513:MFU917517 MPQ917513:MPQ917517 MZM917513:MZM917517 NJI917513:NJI917517 NTE917513:NTE917517 ODA917513:ODA917517 OMW917513:OMW917517 OWS917513:OWS917517 PGO917513:PGO917517 PQK917513:PQK917517 QAG917513:QAG917517 QKC917513:QKC917517 QTY917513:QTY917517 RDU917513:RDU917517 RNQ917513:RNQ917517 RXM917513:RXM917517 SHI917513:SHI917517 SRE917513:SRE917517 TBA917513:TBA917517 TKW917513:TKW917517 TUS917513:TUS917517 UEO917513:UEO917517 UOK917513:UOK917517 UYG917513:UYG917517 VIC917513:VIC917517 VRY917513:VRY917517 WBU917513:WBU917517 WLQ917513:WLQ917517 WVM917513:WVM917517 E983049:E983053 JA983049:JA983053 SW983049:SW983053 ACS983049:ACS983053 AMO983049:AMO983053 AWK983049:AWK983053 BGG983049:BGG983053 BQC983049:BQC983053 BZY983049:BZY983053 CJU983049:CJU983053 CTQ983049:CTQ983053 DDM983049:DDM983053 DNI983049:DNI983053 DXE983049:DXE983053 EHA983049:EHA983053 EQW983049:EQW983053 FAS983049:FAS983053 FKO983049:FKO983053 FUK983049:FUK983053 GEG983049:GEG983053 GOC983049:GOC983053 GXY983049:GXY983053 HHU983049:HHU983053 HRQ983049:HRQ983053 IBM983049:IBM983053 ILI983049:ILI983053 IVE983049:IVE983053 JFA983049:JFA983053 JOW983049:JOW983053 JYS983049:JYS983053 KIO983049:KIO983053 KSK983049:KSK983053 LCG983049:LCG983053 LMC983049:LMC983053 LVY983049:LVY983053 MFU983049:MFU983053 MPQ983049:MPQ983053 MZM983049:MZM983053 NJI983049:NJI983053 NTE983049:NTE983053 ODA983049:ODA983053 OMW983049:OMW983053 OWS983049:OWS983053 PGO983049:PGO983053 PQK983049:PQK983053 QAG983049:QAG983053 QKC983049:QKC983053 QTY983049:QTY983053 RDU983049:RDU983053 RNQ983049:RNQ983053 RXM983049:RXM983053 SHI983049:SHI983053 SRE983049:SRE983053 TBA983049:TBA983053 TKW983049:TKW983053 TUS983049:TUS983053 UEO983049:UEO983053 UOK983049:UOK983053 UYG983049:UYG983053 VIC983049:VIC983053 VRY983049:VRY983053 WBU983049:WBU983053 WLQ983049:WLQ983053 WVM983049:WVM983053 E18:R18 E65554:R65554 JA65554:JN65554 SW65554:TJ65554 ACS65554:ADF65554 AMO65554:ANB65554 AWK65554:AWX65554 BGG65554:BGT65554 BQC65554:BQP65554 BZY65554:CAL65554 CJU65554:CKH65554 CTQ65554:CUD65554 DDM65554:DDZ65554 DNI65554:DNV65554 DXE65554:DXR65554 EHA65554:EHN65554 EQW65554:ERJ65554 FAS65554:FBF65554 FKO65554:FLB65554 FUK65554:FUX65554 GEG65554:GET65554 GOC65554:GOP65554 GXY65554:GYL65554 HHU65554:HIH65554 HRQ65554:HSD65554 IBM65554:IBZ65554 ILI65554:ILV65554 IVE65554:IVR65554 JFA65554:JFN65554 JOW65554:JPJ65554 JYS65554:JZF65554 KIO65554:KJB65554 KSK65554:KSX65554 LCG65554:LCT65554 LMC65554:LMP65554 LVY65554:LWL65554 MFU65554:MGH65554 MPQ65554:MQD65554 MZM65554:MZZ65554 NJI65554:NJV65554 NTE65554:NTR65554 ODA65554:ODN65554 OMW65554:ONJ65554 OWS65554:OXF65554 PGO65554:PHB65554 PQK65554:PQX65554 QAG65554:QAT65554 QKC65554:QKP65554 QTY65554:QUL65554 RDU65554:REH65554 RNQ65554:ROD65554 RXM65554:RXZ65554 SHI65554:SHV65554 SRE65554:SRR65554 TBA65554:TBN65554 TKW65554:TLJ65554 TUS65554:TVF65554 UEO65554:UFB65554 UOK65554:UOX65554 UYG65554:UYT65554 VIC65554:VIP65554 VRY65554:VSL65554 WBU65554:WCH65554 WLQ65554:WMD65554 WVM65554:WVZ65554 E131090:R131090 JA131090:JN131090 SW131090:TJ131090 ACS131090:ADF131090 AMO131090:ANB131090 AWK131090:AWX131090 BGG131090:BGT131090 BQC131090:BQP131090 BZY131090:CAL131090 CJU131090:CKH131090 CTQ131090:CUD131090 DDM131090:DDZ131090 DNI131090:DNV131090 DXE131090:DXR131090 EHA131090:EHN131090 EQW131090:ERJ131090 FAS131090:FBF131090 FKO131090:FLB131090 FUK131090:FUX131090 GEG131090:GET131090 GOC131090:GOP131090 GXY131090:GYL131090 HHU131090:HIH131090 HRQ131090:HSD131090 IBM131090:IBZ131090 ILI131090:ILV131090 IVE131090:IVR131090 JFA131090:JFN131090 JOW131090:JPJ131090 JYS131090:JZF131090 KIO131090:KJB131090 KSK131090:KSX131090 LCG131090:LCT131090 LMC131090:LMP131090 LVY131090:LWL131090 MFU131090:MGH131090 MPQ131090:MQD131090 MZM131090:MZZ131090 NJI131090:NJV131090 NTE131090:NTR131090 ODA131090:ODN131090 OMW131090:ONJ131090 OWS131090:OXF131090 PGO131090:PHB131090 PQK131090:PQX131090 QAG131090:QAT131090 QKC131090:QKP131090 QTY131090:QUL131090 RDU131090:REH131090 RNQ131090:ROD131090 RXM131090:RXZ131090 SHI131090:SHV131090 SRE131090:SRR131090 TBA131090:TBN131090 TKW131090:TLJ131090 TUS131090:TVF131090 UEO131090:UFB131090 UOK131090:UOX131090 UYG131090:UYT131090 VIC131090:VIP131090 VRY131090:VSL131090 WBU131090:WCH131090 WLQ131090:WMD131090 WVM131090:WVZ131090 E196626:R196626 JA196626:JN196626 SW196626:TJ196626 ACS196626:ADF196626 AMO196626:ANB196626 AWK196626:AWX196626 BGG196626:BGT196626 BQC196626:BQP196626 BZY196626:CAL196626 CJU196626:CKH196626 CTQ196626:CUD196626 DDM196626:DDZ196626 DNI196626:DNV196626 DXE196626:DXR196626 EHA196626:EHN196626 EQW196626:ERJ196626 FAS196626:FBF196626 FKO196626:FLB196626 FUK196626:FUX196626 GEG196626:GET196626 GOC196626:GOP196626 GXY196626:GYL196626 HHU196626:HIH196626 HRQ196626:HSD196626 IBM196626:IBZ196626 ILI196626:ILV196626 IVE196626:IVR196626 JFA196626:JFN196626 JOW196626:JPJ196626 JYS196626:JZF196626 KIO196626:KJB196626 KSK196626:KSX196626 LCG196626:LCT196626 LMC196626:LMP196626 LVY196626:LWL196626 MFU196626:MGH196626 MPQ196626:MQD196626 MZM196626:MZZ196626 NJI196626:NJV196626 NTE196626:NTR196626 ODA196626:ODN196626 OMW196626:ONJ196626 OWS196626:OXF196626 PGO196626:PHB196626 PQK196626:PQX196626 QAG196626:QAT196626 QKC196626:QKP196626 QTY196626:QUL196626 RDU196626:REH196626 RNQ196626:ROD196626 RXM196626:RXZ196626 SHI196626:SHV196626 SRE196626:SRR196626 TBA196626:TBN196626 TKW196626:TLJ196626 TUS196626:TVF196626 UEO196626:UFB196626 UOK196626:UOX196626 UYG196626:UYT196626 VIC196626:VIP196626 VRY196626:VSL196626 WBU196626:WCH196626 WLQ196626:WMD196626 WVM196626:WVZ196626 E262162:R262162 JA262162:JN262162 SW262162:TJ262162 ACS262162:ADF262162 AMO262162:ANB262162 AWK262162:AWX262162 BGG262162:BGT262162 BQC262162:BQP262162 BZY262162:CAL262162 CJU262162:CKH262162 CTQ262162:CUD262162 DDM262162:DDZ262162 DNI262162:DNV262162 DXE262162:DXR262162 EHA262162:EHN262162 EQW262162:ERJ262162 FAS262162:FBF262162 FKO262162:FLB262162 FUK262162:FUX262162 GEG262162:GET262162 GOC262162:GOP262162 GXY262162:GYL262162 HHU262162:HIH262162 HRQ262162:HSD262162 IBM262162:IBZ262162 ILI262162:ILV262162 IVE262162:IVR262162 JFA262162:JFN262162 JOW262162:JPJ262162 JYS262162:JZF262162 KIO262162:KJB262162 KSK262162:KSX262162 LCG262162:LCT262162 LMC262162:LMP262162 LVY262162:LWL262162 MFU262162:MGH262162 MPQ262162:MQD262162 MZM262162:MZZ262162 NJI262162:NJV262162 NTE262162:NTR262162 ODA262162:ODN262162 OMW262162:ONJ262162 OWS262162:OXF262162 PGO262162:PHB262162 PQK262162:PQX262162 QAG262162:QAT262162 QKC262162:QKP262162 QTY262162:QUL262162 RDU262162:REH262162 RNQ262162:ROD262162 RXM262162:RXZ262162 SHI262162:SHV262162 SRE262162:SRR262162 TBA262162:TBN262162 TKW262162:TLJ262162 TUS262162:TVF262162 UEO262162:UFB262162 UOK262162:UOX262162 UYG262162:UYT262162 VIC262162:VIP262162 VRY262162:VSL262162 WBU262162:WCH262162 WLQ262162:WMD262162 WVM262162:WVZ262162 E327698:R327698 JA327698:JN327698 SW327698:TJ327698 ACS327698:ADF327698 AMO327698:ANB327698 AWK327698:AWX327698 BGG327698:BGT327698 BQC327698:BQP327698 BZY327698:CAL327698 CJU327698:CKH327698 CTQ327698:CUD327698 DDM327698:DDZ327698 DNI327698:DNV327698 DXE327698:DXR327698 EHA327698:EHN327698 EQW327698:ERJ327698 FAS327698:FBF327698 FKO327698:FLB327698 FUK327698:FUX327698 GEG327698:GET327698 GOC327698:GOP327698 GXY327698:GYL327698 HHU327698:HIH327698 HRQ327698:HSD327698 IBM327698:IBZ327698 ILI327698:ILV327698 IVE327698:IVR327698 JFA327698:JFN327698 JOW327698:JPJ327698 JYS327698:JZF327698 KIO327698:KJB327698 KSK327698:KSX327698 LCG327698:LCT327698 LMC327698:LMP327698 LVY327698:LWL327698 MFU327698:MGH327698 MPQ327698:MQD327698 MZM327698:MZZ327698 NJI327698:NJV327698 NTE327698:NTR327698 ODA327698:ODN327698 OMW327698:ONJ327698 OWS327698:OXF327698 PGO327698:PHB327698 PQK327698:PQX327698 QAG327698:QAT327698 QKC327698:QKP327698 QTY327698:QUL327698 RDU327698:REH327698 RNQ327698:ROD327698 RXM327698:RXZ327698 SHI327698:SHV327698 SRE327698:SRR327698 TBA327698:TBN327698 TKW327698:TLJ327698 TUS327698:TVF327698 UEO327698:UFB327698 UOK327698:UOX327698 UYG327698:UYT327698 VIC327698:VIP327698 VRY327698:VSL327698 WBU327698:WCH327698 WLQ327698:WMD327698 WVM327698:WVZ327698 E393234:R393234 JA393234:JN393234 SW393234:TJ393234 ACS393234:ADF393234 AMO393234:ANB393234 AWK393234:AWX393234 BGG393234:BGT393234 BQC393234:BQP393234 BZY393234:CAL393234 CJU393234:CKH393234 CTQ393234:CUD393234 DDM393234:DDZ393234 DNI393234:DNV393234 DXE393234:DXR393234 EHA393234:EHN393234 EQW393234:ERJ393234 FAS393234:FBF393234 FKO393234:FLB393234 FUK393234:FUX393234 GEG393234:GET393234 GOC393234:GOP393234 GXY393234:GYL393234 HHU393234:HIH393234 HRQ393234:HSD393234 IBM393234:IBZ393234 ILI393234:ILV393234 IVE393234:IVR393234 JFA393234:JFN393234 JOW393234:JPJ393234 JYS393234:JZF393234 KIO393234:KJB393234 KSK393234:KSX393234 LCG393234:LCT393234 LMC393234:LMP393234 LVY393234:LWL393234 MFU393234:MGH393234 MPQ393234:MQD393234 MZM393234:MZZ393234 NJI393234:NJV393234 NTE393234:NTR393234 ODA393234:ODN393234 OMW393234:ONJ393234 OWS393234:OXF393234 PGO393234:PHB393234 PQK393234:PQX393234 QAG393234:QAT393234 QKC393234:QKP393234 QTY393234:QUL393234 RDU393234:REH393234 RNQ393234:ROD393234 RXM393234:RXZ393234 SHI393234:SHV393234 SRE393234:SRR393234 TBA393234:TBN393234 TKW393234:TLJ393234 TUS393234:TVF393234 UEO393234:UFB393234 UOK393234:UOX393234 UYG393234:UYT393234 VIC393234:VIP393234 VRY393234:VSL393234 WBU393234:WCH393234 WLQ393234:WMD393234 WVM393234:WVZ393234 E458770:R458770 JA458770:JN458770 SW458770:TJ458770 ACS458770:ADF458770 AMO458770:ANB458770 AWK458770:AWX458770 BGG458770:BGT458770 BQC458770:BQP458770 BZY458770:CAL458770 CJU458770:CKH458770 CTQ458770:CUD458770 DDM458770:DDZ458770 DNI458770:DNV458770 DXE458770:DXR458770 EHA458770:EHN458770 EQW458770:ERJ458770 FAS458770:FBF458770 FKO458770:FLB458770 FUK458770:FUX458770 GEG458770:GET458770 GOC458770:GOP458770 GXY458770:GYL458770 HHU458770:HIH458770 HRQ458770:HSD458770 IBM458770:IBZ458770 ILI458770:ILV458770 IVE458770:IVR458770 JFA458770:JFN458770 JOW458770:JPJ458770 JYS458770:JZF458770 KIO458770:KJB458770 KSK458770:KSX458770 LCG458770:LCT458770 LMC458770:LMP458770 LVY458770:LWL458770 MFU458770:MGH458770 MPQ458770:MQD458770 MZM458770:MZZ458770 NJI458770:NJV458770 NTE458770:NTR458770 ODA458770:ODN458770 OMW458770:ONJ458770 OWS458770:OXF458770 PGO458770:PHB458770 PQK458770:PQX458770 QAG458770:QAT458770 QKC458770:QKP458770 QTY458770:QUL458770 RDU458770:REH458770 RNQ458770:ROD458770 RXM458770:RXZ458770 SHI458770:SHV458770 SRE458770:SRR458770 TBA458770:TBN458770 TKW458770:TLJ458770 TUS458770:TVF458770 UEO458770:UFB458770 UOK458770:UOX458770 UYG458770:UYT458770 VIC458770:VIP458770 VRY458770:VSL458770 WBU458770:WCH458770 WLQ458770:WMD458770 WVM458770:WVZ458770 E524306:R524306 JA524306:JN524306 SW524306:TJ524306 ACS524306:ADF524306 AMO524306:ANB524306 AWK524306:AWX524306 BGG524306:BGT524306 BQC524306:BQP524306 BZY524306:CAL524306 CJU524306:CKH524306 CTQ524306:CUD524306 DDM524306:DDZ524306 DNI524306:DNV524306 DXE524306:DXR524306 EHA524306:EHN524306 EQW524306:ERJ524306 FAS524306:FBF524306 FKO524306:FLB524306 FUK524306:FUX524306 GEG524306:GET524306 GOC524306:GOP524306 GXY524306:GYL524306 HHU524306:HIH524306 HRQ524306:HSD524306 IBM524306:IBZ524306 ILI524306:ILV524306 IVE524306:IVR524306 JFA524306:JFN524306 JOW524306:JPJ524306 JYS524306:JZF524306 KIO524306:KJB524306 KSK524306:KSX524306 LCG524306:LCT524306 LMC524306:LMP524306 LVY524306:LWL524306 MFU524306:MGH524306 MPQ524306:MQD524306 MZM524306:MZZ524306 NJI524306:NJV524306 NTE524306:NTR524306 ODA524306:ODN524306 OMW524306:ONJ524306 OWS524306:OXF524306 PGO524306:PHB524306 PQK524306:PQX524306 QAG524306:QAT524306 QKC524306:QKP524306 QTY524306:QUL524306 RDU524306:REH524306 RNQ524306:ROD524306 RXM524306:RXZ524306 SHI524306:SHV524306 SRE524306:SRR524306 TBA524306:TBN524306 TKW524306:TLJ524306 TUS524306:TVF524306 UEO524306:UFB524306 UOK524306:UOX524306 UYG524306:UYT524306 VIC524306:VIP524306 VRY524306:VSL524306 WBU524306:WCH524306 WLQ524306:WMD524306 WVM524306:WVZ524306 E589842:R589842 JA589842:JN589842 SW589842:TJ589842 ACS589842:ADF589842 AMO589842:ANB589842 AWK589842:AWX589842 BGG589842:BGT589842 BQC589842:BQP589842 BZY589842:CAL589842 CJU589842:CKH589842 CTQ589842:CUD589842 DDM589842:DDZ589842 DNI589842:DNV589842 DXE589842:DXR589842 EHA589842:EHN589842 EQW589842:ERJ589842 FAS589842:FBF589842 FKO589842:FLB589842 FUK589842:FUX589842 GEG589842:GET589842 GOC589842:GOP589842 GXY589842:GYL589842 HHU589842:HIH589842 HRQ589842:HSD589842 IBM589842:IBZ589842 ILI589842:ILV589842 IVE589842:IVR589842 JFA589842:JFN589842 JOW589842:JPJ589842 JYS589842:JZF589842 KIO589842:KJB589842 KSK589842:KSX589842 LCG589842:LCT589842 LMC589842:LMP589842 LVY589842:LWL589842 MFU589842:MGH589842 MPQ589842:MQD589842 MZM589842:MZZ589842 NJI589842:NJV589842 NTE589842:NTR589842 ODA589842:ODN589842 OMW589842:ONJ589842 OWS589842:OXF589842 PGO589842:PHB589842 PQK589842:PQX589842 QAG589842:QAT589842 QKC589842:QKP589842 QTY589842:QUL589842 RDU589842:REH589842 RNQ589842:ROD589842 RXM589842:RXZ589842 SHI589842:SHV589842 SRE589842:SRR589842 TBA589842:TBN589842 TKW589842:TLJ589842 TUS589842:TVF589842 UEO589842:UFB589842 UOK589842:UOX589842 UYG589842:UYT589842 VIC589842:VIP589842 VRY589842:VSL589842 WBU589842:WCH589842 WLQ589842:WMD589842 WVM589842:WVZ589842 E655378:R655378 JA655378:JN655378 SW655378:TJ655378 ACS655378:ADF655378 AMO655378:ANB655378 AWK655378:AWX655378 BGG655378:BGT655378 BQC655378:BQP655378 BZY655378:CAL655378 CJU655378:CKH655378 CTQ655378:CUD655378 DDM655378:DDZ655378 DNI655378:DNV655378 DXE655378:DXR655378 EHA655378:EHN655378 EQW655378:ERJ655378 FAS655378:FBF655378 FKO655378:FLB655378 FUK655378:FUX655378 GEG655378:GET655378 GOC655378:GOP655378 GXY655378:GYL655378 HHU655378:HIH655378 HRQ655378:HSD655378 IBM655378:IBZ655378 ILI655378:ILV655378 IVE655378:IVR655378 JFA655378:JFN655378 JOW655378:JPJ655378 JYS655378:JZF655378 KIO655378:KJB655378 KSK655378:KSX655378 LCG655378:LCT655378 LMC655378:LMP655378 LVY655378:LWL655378 MFU655378:MGH655378 MPQ655378:MQD655378 MZM655378:MZZ655378 NJI655378:NJV655378 NTE655378:NTR655378 ODA655378:ODN655378 OMW655378:ONJ655378 OWS655378:OXF655378 PGO655378:PHB655378 PQK655378:PQX655378 QAG655378:QAT655378 QKC655378:QKP655378 QTY655378:QUL655378 RDU655378:REH655378 RNQ655378:ROD655378 RXM655378:RXZ655378 SHI655378:SHV655378 SRE655378:SRR655378 TBA655378:TBN655378 TKW655378:TLJ655378 TUS655378:TVF655378 UEO655378:UFB655378 UOK655378:UOX655378 UYG655378:UYT655378 VIC655378:VIP655378 VRY655378:VSL655378 WBU655378:WCH655378 WLQ655378:WMD655378 WVM655378:WVZ655378 E720914:R720914 JA720914:JN720914 SW720914:TJ720914 ACS720914:ADF720914 AMO720914:ANB720914 AWK720914:AWX720914 BGG720914:BGT720914 BQC720914:BQP720914 BZY720914:CAL720914 CJU720914:CKH720914 CTQ720914:CUD720914 DDM720914:DDZ720914 DNI720914:DNV720914 DXE720914:DXR720914 EHA720914:EHN720914 EQW720914:ERJ720914 FAS720914:FBF720914 FKO720914:FLB720914 FUK720914:FUX720914 GEG720914:GET720914 GOC720914:GOP720914 GXY720914:GYL720914 HHU720914:HIH720914 HRQ720914:HSD720914 IBM720914:IBZ720914 ILI720914:ILV720914 IVE720914:IVR720914 JFA720914:JFN720914 JOW720914:JPJ720914 JYS720914:JZF720914 KIO720914:KJB720914 KSK720914:KSX720914 LCG720914:LCT720914 LMC720914:LMP720914 LVY720914:LWL720914 MFU720914:MGH720914 MPQ720914:MQD720914 MZM720914:MZZ720914 NJI720914:NJV720914 NTE720914:NTR720914 ODA720914:ODN720914 OMW720914:ONJ720914 OWS720914:OXF720914 PGO720914:PHB720914 PQK720914:PQX720914 QAG720914:QAT720914 QKC720914:QKP720914 QTY720914:QUL720914 RDU720914:REH720914 RNQ720914:ROD720914 RXM720914:RXZ720914 SHI720914:SHV720914 SRE720914:SRR720914 TBA720914:TBN720914 TKW720914:TLJ720914 TUS720914:TVF720914 UEO720914:UFB720914 UOK720914:UOX720914 UYG720914:UYT720914 VIC720914:VIP720914 VRY720914:VSL720914 WBU720914:WCH720914 WLQ720914:WMD720914 WVM720914:WVZ720914 E786450:R786450 JA786450:JN786450 SW786450:TJ786450 ACS786450:ADF786450 AMO786450:ANB786450 AWK786450:AWX786450 BGG786450:BGT786450 BQC786450:BQP786450 BZY786450:CAL786450 CJU786450:CKH786450 CTQ786450:CUD786450 DDM786450:DDZ786450 DNI786450:DNV786450 DXE786450:DXR786450 EHA786450:EHN786450 EQW786450:ERJ786450 FAS786450:FBF786450 FKO786450:FLB786450 FUK786450:FUX786450 GEG786450:GET786450 GOC786450:GOP786450 GXY786450:GYL786450 HHU786450:HIH786450 HRQ786450:HSD786450 IBM786450:IBZ786450 ILI786450:ILV786450 IVE786450:IVR786450 JFA786450:JFN786450 JOW786450:JPJ786450 JYS786450:JZF786450 KIO786450:KJB786450 KSK786450:KSX786450 LCG786450:LCT786450 LMC786450:LMP786450 LVY786450:LWL786450 MFU786450:MGH786450 MPQ786450:MQD786450 MZM786450:MZZ786450 NJI786450:NJV786450 NTE786450:NTR786450 ODA786450:ODN786450 OMW786450:ONJ786450 OWS786450:OXF786450 PGO786450:PHB786450 PQK786450:PQX786450 QAG786450:QAT786450 QKC786450:QKP786450 QTY786450:QUL786450 RDU786450:REH786450 RNQ786450:ROD786450 RXM786450:RXZ786450 SHI786450:SHV786450 SRE786450:SRR786450 TBA786450:TBN786450 TKW786450:TLJ786450 TUS786450:TVF786450 UEO786450:UFB786450 UOK786450:UOX786450 UYG786450:UYT786450 VIC786450:VIP786450 VRY786450:VSL786450 WBU786450:WCH786450 WLQ786450:WMD786450 WVM786450:WVZ786450 E851986:R851986 JA851986:JN851986 SW851986:TJ851986 ACS851986:ADF851986 AMO851986:ANB851986 AWK851986:AWX851986 BGG851986:BGT851986 BQC851986:BQP851986 BZY851986:CAL851986 CJU851986:CKH851986 CTQ851986:CUD851986 DDM851986:DDZ851986 DNI851986:DNV851986 DXE851986:DXR851986 EHA851986:EHN851986 EQW851986:ERJ851986 FAS851986:FBF851986 FKO851986:FLB851986 FUK851986:FUX851986 GEG851986:GET851986 GOC851986:GOP851986 GXY851986:GYL851986 HHU851986:HIH851986 HRQ851986:HSD851986 IBM851986:IBZ851986 ILI851986:ILV851986 IVE851986:IVR851986 JFA851986:JFN851986 JOW851986:JPJ851986 JYS851986:JZF851986 KIO851986:KJB851986 KSK851986:KSX851986 LCG851986:LCT851986 LMC851986:LMP851986 LVY851986:LWL851986 MFU851986:MGH851986 MPQ851986:MQD851986 MZM851986:MZZ851986 NJI851986:NJV851986 NTE851986:NTR851986 ODA851986:ODN851986 OMW851986:ONJ851986 OWS851986:OXF851986 PGO851986:PHB851986 PQK851986:PQX851986 QAG851986:QAT851986 QKC851986:QKP851986 QTY851986:QUL851986 RDU851986:REH851986 RNQ851986:ROD851986 RXM851986:RXZ851986 SHI851986:SHV851986 SRE851986:SRR851986 TBA851986:TBN851986 TKW851986:TLJ851986 TUS851986:TVF851986 UEO851986:UFB851986 UOK851986:UOX851986 UYG851986:UYT851986 VIC851986:VIP851986 VRY851986:VSL851986 WBU851986:WCH851986 WLQ851986:WMD851986 WVM851986:WVZ851986 E917522:R917522 JA917522:JN917522 SW917522:TJ917522 ACS917522:ADF917522 AMO917522:ANB917522 AWK917522:AWX917522 BGG917522:BGT917522 BQC917522:BQP917522 BZY917522:CAL917522 CJU917522:CKH917522 CTQ917522:CUD917522 DDM917522:DDZ917522 DNI917522:DNV917522 DXE917522:DXR917522 EHA917522:EHN917522 EQW917522:ERJ917522 FAS917522:FBF917522 FKO917522:FLB917522 FUK917522:FUX917522 GEG917522:GET917522 GOC917522:GOP917522 GXY917522:GYL917522 HHU917522:HIH917522 HRQ917522:HSD917522 IBM917522:IBZ917522 ILI917522:ILV917522 IVE917522:IVR917522 JFA917522:JFN917522 JOW917522:JPJ917522 JYS917522:JZF917522 KIO917522:KJB917522 KSK917522:KSX917522 LCG917522:LCT917522 LMC917522:LMP917522 LVY917522:LWL917522 MFU917522:MGH917522 MPQ917522:MQD917522 MZM917522:MZZ917522 NJI917522:NJV917522 NTE917522:NTR917522 ODA917522:ODN917522 OMW917522:ONJ917522 OWS917522:OXF917522 PGO917522:PHB917522 PQK917522:PQX917522 QAG917522:QAT917522 QKC917522:QKP917522 QTY917522:QUL917522 RDU917522:REH917522 RNQ917522:ROD917522 RXM917522:RXZ917522 SHI917522:SHV917522 SRE917522:SRR917522 TBA917522:TBN917522 TKW917522:TLJ917522 TUS917522:TVF917522 UEO917522:UFB917522 UOK917522:UOX917522 UYG917522:UYT917522 VIC917522:VIP917522 VRY917522:VSL917522 WBU917522:WCH917522 WLQ917522:WMD917522 WVM917522:WVZ917522 E983058:R983058 JA983058:JN983058 SW983058:TJ983058 ACS983058:ADF983058 AMO983058:ANB983058 AWK983058:AWX983058 BGG983058:BGT983058 BQC983058:BQP983058 BZY983058:CAL983058 CJU983058:CKH983058 CTQ983058:CUD983058 DDM983058:DDZ983058 DNI983058:DNV983058 DXE983058:DXR983058 EHA983058:EHN983058 EQW983058:ERJ983058 FAS983058:FBF983058 FKO983058:FLB983058 FUK983058:FUX983058 GEG983058:GET983058 GOC983058:GOP983058 GXY983058:GYL983058 HHU983058:HIH983058 HRQ983058:HSD983058 IBM983058:IBZ983058 ILI983058:ILV983058 IVE983058:IVR983058 JFA983058:JFN983058 JOW983058:JPJ983058 JYS983058:JZF983058 KIO983058:KJB983058 KSK983058:KSX983058 LCG983058:LCT983058 LMC983058:LMP983058 LVY983058:LWL983058 MFU983058:MGH983058 MPQ983058:MQD983058 MZM983058:MZZ983058 NJI983058:NJV983058 NTE983058:NTR983058 ODA983058:ODN983058 OMW983058:ONJ983058 OWS983058:OXF983058 PGO983058:PHB983058 PQK983058:PQX983058 QAG983058:QAT983058 QKC983058:QKP983058 QTY983058:QUL983058 RDU983058:REH983058 RNQ983058:ROD983058 RXM983058:RXZ983058 SHI983058:SHV983058 SRE983058:SRR983058 TBA983058:TBN983058 TKW983058:TLJ983058 TUS983058:TVF983058 UEO983058:UFB983058 UOK983058:UOX983058 UYG983058:UYT983058 VIC983058:VIP983058 VRY983058:VSL983058 WBU983058:WCH983058 WLQ983058:WMD983058 WVM983058:WVZ983058 WVM12:WVM15 WLQ12:WLQ15 WBU12:WBU15 VRY12:VRY15 VIC12:VIC15 UYG12:UYG15 UOK12:UOK15 UEO12:UEO15 TUS12:TUS15 TKW12:TKW15 TBA12:TBA15 SRE12:SRE15 SHI12:SHI15 RXM12:RXM15 RNQ12:RNQ15 RDU12:RDU15 QTY12:QTY15 QKC12:QKC15 QAG12:QAG15 PQK12:PQK15 PGO12:PGO15 OWS12:OWS15 OMW12:OMW15 ODA12:ODA15 NTE12:NTE15 NJI12:NJI15 MZM12:MZM15 MPQ12:MPQ15 MFU12:MFU15 LVY12:LVY15 LMC12:LMC15 LCG12:LCG15 KSK12:KSK15 KIO12:KIO15 JYS12:JYS15 JOW12:JOW15 JFA12:JFA15 IVE12:IVE15 ILI12:ILI15 IBM12:IBM15 HRQ12:HRQ15 HHU12:HHU15 GXY12:GXY15 GOC12:GOC15 GEG12:GEG15 FUK12:FUK15 FKO12:FKO15 FAS12:FAS15 EQW12:EQW15 EHA12:EHA15 DXE12:DXE15 DNI12:DNI15 DDM12:DDM15 CTQ12:CTQ15 CJU12:CJU15 BZY12:BZY15 BQC12:BQC15 BGG12:BGG15 AWK12:AWK15 AMO12:AMO15 ACS12:ACS15 SW12:SW15 JA12:JA15 F14:R17 JB14:JN16 SX14:TJ16 ACT14:ADF16 AMP14:ANB16 AWL14:AWX16 BGH14:BGT16 BQD14:BQP16 BZZ14:CAL16 CJV14:CKH16 CTR14:CUD16 DDN14:DDZ16 DNJ14:DNV16 DXF14:DXR16 EHB14:EHN16 EQX14:ERJ16 FAT14:FBF16 FKP14:FLB16 FUL14:FUX16 GEH14:GET16 GOD14:GOP16 GXZ14:GYL16 HHV14:HIH16 HRR14:HSD16 IBN14:IBZ16 ILJ14:ILV16 IVF14:IVR16 JFB14:JFN16 JOX14:JPJ16 JYT14:JZF16 KIP14:KJB16 KSL14:KSX16 LCH14:LCT16 LMD14:LMP16 LVZ14:LWL16 MFV14:MGH16 MPR14:MQD16 MZN14:MZZ16 NJJ14:NJV16 NTF14:NTR16 ODB14:ODN16 OMX14:ONJ16 OWT14:OXF16 PGP14:PHB16 PQL14:PQX16 QAH14:QAT16 QKD14:QKP16 QTZ14:QUL16 RDV14:REH16 RNR14:ROD16 RXN14:RXZ16 SHJ14:SHV16 SRF14:SRR16 TBB14:TBN16 TKX14:TLJ16 TUT14:TVF16 UEP14:UFB16 UOL14:UOX16 UYH14:UYT16 VID14:VIP16 VRZ14:VSL16 WBV14:WCH16 WLR14:WMD16 WVN14:WVZ16 JA17:JN18 WVM17:WVZ18 WLQ17:WMD18 WBU17:WCH18 VRY17:VSL18 VIC17:VIP18 UYG17:UYT18 UOK17:UOX18 UEO17:UFB18 TUS17:TVF18 TKW17:TLJ18 TBA17:TBN18 SRE17:SRR18 SHI17:SHV18 RXM17:RXZ18 RNQ17:ROD18 RDU17:REH18 QTY17:QUL18 QKC17:QKP18 QAG17:QAT18 PQK17:PQX18 PGO17:PHB18 OWS17:OXF18 OMW17:ONJ18 ODA17:ODN18 NTE17:NTR18 NJI17:NJV18 MZM17:MZZ18 MPQ17:MQD18 MFU17:MGH18 LVY17:LWL18 LMC17:LMP18 LCG17:LCT18 KSK17:KSX18 KIO17:KJB18 JYS17:JZF18 JOW17:JPJ18 JFA17:JFN18 IVE17:IVR18 ILI17:ILV18 IBM17:IBZ18 HRQ17:HSD18 HHU17:HIH18 GXY17:GYL18 GOC17:GOP18 GEG17:GET18 FUK17:FUX18 FKO17:FLB18 FAS17:FBF18 EQW17:ERJ18 EHA17:EHN18 DXE17:DXR18 DNI17:DNV18 DDM17:DDZ18 CTQ17:CUD18 CJU17:CKH18 BZY17:CAL18 BQC17:BQP18 BGG17:BGT18 AWK17:AWX18 AMO17:ANB18 ACS17:ADF18 SW17:TJ18 E13:E17</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
-  <cols>
-    <col min="1" max="1" width="10.5" style="126" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="74" customWidth="1"/>
-    <col min="3" max="3" width="15.375" style="126" customWidth="1"/>
-    <col min="4" max="4" width="36.125" style="72" customWidth="1"/>
-    <col min="5" max="6" width="2.875" style="126" customWidth="1"/>
-    <col min="7" max="7" width="2.625" style="126" customWidth="1"/>
-    <col min="8" max="19" width="2.875" style="126" customWidth="1"/>
-    <col min="20" max="256" width="9" style="126"/>
-    <col min="257" max="257" width="10.5" style="126" customWidth="1"/>
-    <col min="258" max="258" width="13.375" style="126" customWidth="1"/>
-    <col min="259" max="259" width="15.375" style="126" customWidth="1"/>
-    <col min="260" max="260" width="20.5" style="126" customWidth="1"/>
-    <col min="261" max="262" width="2.875" style="126" customWidth="1"/>
-    <col min="263" max="263" width="2.625" style="126" customWidth="1"/>
-    <col min="264" max="275" width="2.875" style="126" customWidth="1"/>
-    <col min="276" max="512" width="9" style="126"/>
-    <col min="513" max="513" width="10.5" style="126" customWidth="1"/>
-    <col min="514" max="514" width="13.375" style="126" customWidth="1"/>
-    <col min="515" max="515" width="15.375" style="126" customWidth="1"/>
-    <col min="516" max="516" width="20.5" style="126" customWidth="1"/>
-    <col min="517" max="518" width="2.875" style="126" customWidth="1"/>
-    <col min="519" max="519" width="2.625" style="126" customWidth="1"/>
-    <col min="520" max="531" width="2.875" style="126" customWidth="1"/>
-    <col min="532" max="768" width="9" style="126"/>
-    <col min="769" max="769" width="10.5" style="126" customWidth="1"/>
-    <col min="770" max="770" width="13.375" style="126" customWidth="1"/>
-    <col min="771" max="771" width="15.375" style="126" customWidth="1"/>
-    <col min="772" max="772" width="20.5" style="126" customWidth="1"/>
-    <col min="773" max="774" width="2.875" style="126" customWidth="1"/>
-    <col min="775" max="775" width="2.625" style="126" customWidth="1"/>
-    <col min="776" max="787" width="2.875" style="126" customWidth="1"/>
-    <col min="788" max="1024" width="9" style="126"/>
-    <col min="1025" max="1025" width="10.5" style="126" customWidth="1"/>
-    <col min="1026" max="1026" width="13.375" style="126" customWidth="1"/>
-    <col min="1027" max="1027" width="15.375" style="126" customWidth="1"/>
-    <col min="1028" max="1028" width="20.5" style="126" customWidth="1"/>
-    <col min="1029" max="1030" width="2.875" style="126" customWidth="1"/>
-    <col min="1031" max="1031" width="2.625" style="126" customWidth="1"/>
-    <col min="1032" max="1043" width="2.875" style="126" customWidth="1"/>
-    <col min="1044" max="1280" width="9" style="126"/>
-    <col min="1281" max="1281" width="10.5" style="126" customWidth="1"/>
-    <col min="1282" max="1282" width="13.375" style="126" customWidth="1"/>
-    <col min="1283" max="1283" width="15.375" style="126" customWidth="1"/>
-    <col min="1284" max="1284" width="20.5" style="126" customWidth="1"/>
-    <col min="1285" max="1286" width="2.875" style="126" customWidth="1"/>
-    <col min="1287" max="1287" width="2.625" style="126" customWidth="1"/>
-    <col min="1288" max="1299" width="2.875" style="126" customWidth="1"/>
-    <col min="1300" max="1536" width="9" style="126"/>
-    <col min="1537" max="1537" width="10.5" style="126" customWidth="1"/>
-    <col min="1538" max="1538" width="13.375" style="126" customWidth="1"/>
-    <col min="1539" max="1539" width="15.375" style="126" customWidth="1"/>
-    <col min="1540" max="1540" width="20.5" style="126" customWidth="1"/>
-    <col min="1541" max="1542" width="2.875" style="126" customWidth="1"/>
-    <col min="1543" max="1543" width="2.625" style="126" customWidth="1"/>
-    <col min="1544" max="1555" width="2.875" style="126" customWidth="1"/>
-    <col min="1556" max="1792" width="9" style="126"/>
-    <col min="1793" max="1793" width="10.5" style="126" customWidth="1"/>
-    <col min="1794" max="1794" width="13.375" style="126" customWidth="1"/>
-    <col min="1795" max="1795" width="15.375" style="126" customWidth="1"/>
-    <col min="1796" max="1796" width="20.5" style="126" customWidth="1"/>
-    <col min="1797" max="1798" width="2.875" style="126" customWidth="1"/>
-    <col min="1799" max="1799" width="2.625" style="126" customWidth="1"/>
-    <col min="1800" max="1811" width="2.875" style="126" customWidth="1"/>
-    <col min="1812" max="2048" width="9" style="126"/>
-    <col min="2049" max="2049" width="10.5" style="126" customWidth="1"/>
-    <col min="2050" max="2050" width="13.375" style="126" customWidth="1"/>
-    <col min="2051" max="2051" width="15.375" style="126" customWidth="1"/>
-    <col min="2052" max="2052" width="20.5" style="126" customWidth="1"/>
-    <col min="2053" max="2054" width="2.875" style="126" customWidth="1"/>
-    <col min="2055" max="2055" width="2.625" style="126" customWidth="1"/>
-    <col min="2056" max="2067" width="2.875" style="126" customWidth="1"/>
-    <col min="2068" max="2304" width="9" style="126"/>
-    <col min="2305" max="2305" width="10.5" style="126" customWidth="1"/>
-    <col min="2306" max="2306" width="13.375" style="126" customWidth="1"/>
-    <col min="2307" max="2307" width="15.375" style="126" customWidth="1"/>
-    <col min="2308" max="2308" width="20.5" style="126" customWidth="1"/>
-    <col min="2309" max="2310" width="2.875" style="126" customWidth="1"/>
-    <col min="2311" max="2311" width="2.625" style="126" customWidth="1"/>
-    <col min="2312" max="2323" width="2.875" style="126" customWidth="1"/>
-    <col min="2324" max="2560" width="9" style="126"/>
-    <col min="2561" max="2561" width="10.5" style="126" customWidth="1"/>
-    <col min="2562" max="2562" width="13.375" style="126" customWidth="1"/>
-    <col min="2563" max="2563" width="15.375" style="126" customWidth="1"/>
-    <col min="2564" max="2564" width="20.5" style="126" customWidth="1"/>
-    <col min="2565" max="2566" width="2.875" style="126" customWidth="1"/>
-    <col min="2567" max="2567" width="2.625" style="126" customWidth="1"/>
-    <col min="2568" max="2579" width="2.875" style="126" customWidth="1"/>
-    <col min="2580" max="2816" width="9" style="126"/>
-    <col min="2817" max="2817" width="10.5" style="126" customWidth="1"/>
-    <col min="2818" max="2818" width="13.375" style="126" customWidth="1"/>
-    <col min="2819" max="2819" width="15.375" style="126" customWidth="1"/>
-    <col min="2820" max="2820" width="20.5" style="126" customWidth="1"/>
-    <col min="2821" max="2822" width="2.875" style="126" customWidth="1"/>
-    <col min="2823" max="2823" width="2.625" style="126" customWidth="1"/>
-    <col min="2824" max="2835" width="2.875" style="126" customWidth="1"/>
-    <col min="2836" max="3072" width="9" style="126"/>
-    <col min="3073" max="3073" width="10.5" style="126" customWidth="1"/>
-    <col min="3074" max="3074" width="13.375" style="126" customWidth="1"/>
-    <col min="3075" max="3075" width="15.375" style="126" customWidth="1"/>
-    <col min="3076" max="3076" width="20.5" style="126" customWidth="1"/>
-    <col min="3077" max="3078" width="2.875" style="126" customWidth="1"/>
-    <col min="3079" max="3079" width="2.625" style="126" customWidth="1"/>
-    <col min="3080" max="3091" width="2.875" style="126" customWidth="1"/>
-    <col min="3092" max="3328" width="9" style="126"/>
-    <col min="3329" max="3329" width="10.5" style="126" customWidth="1"/>
-    <col min="3330" max="3330" width="13.375" style="126" customWidth="1"/>
-    <col min="3331" max="3331" width="15.375" style="126" customWidth="1"/>
-    <col min="3332" max="3332" width="20.5" style="126" customWidth="1"/>
-    <col min="3333" max="3334" width="2.875" style="126" customWidth="1"/>
-    <col min="3335" max="3335" width="2.625" style="126" customWidth="1"/>
-    <col min="3336" max="3347" width="2.875" style="126" customWidth="1"/>
-    <col min="3348" max="3584" width="9" style="126"/>
-    <col min="3585" max="3585" width="10.5" style="126" customWidth="1"/>
-    <col min="3586" max="3586" width="13.375" style="126" customWidth="1"/>
-    <col min="3587" max="3587" width="15.375" style="126" customWidth="1"/>
-    <col min="3588" max="3588" width="20.5" style="126" customWidth="1"/>
-    <col min="3589" max="3590" width="2.875" style="126" customWidth="1"/>
-    <col min="3591" max="3591" width="2.625" style="126" customWidth="1"/>
-    <col min="3592" max="3603" width="2.875" style="126" customWidth="1"/>
-    <col min="3604" max="3840" width="9" style="126"/>
-    <col min="3841" max="3841" width="10.5" style="126" customWidth="1"/>
-    <col min="3842" max="3842" width="13.375" style="126" customWidth="1"/>
-    <col min="3843" max="3843" width="15.375" style="126" customWidth="1"/>
-    <col min="3844" max="3844" width="20.5" style="126" customWidth="1"/>
-    <col min="3845" max="3846" width="2.875" style="126" customWidth="1"/>
-    <col min="3847" max="3847" width="2.625" style="126" customWidth="1"/>
-    <col min="3848" max="3859" width="2.875" style="126" customWidth="1"/>
-    <col min="3860" max="4096" width="9" style="126"/>
-    <col min="4097" max="4097" width="10.5" style="126" customWidth="1"/>
-    <col min="4098" max="4098" width="13.375" style="126" customWidth="1"/>
-    <col min="4099" max="4099" width="15.375" style="126" customWidth="1"/>
-    <col min="4100" max="4100" width="20.5" style="126" customWidth="1"/>
-    <col min="4101" max="4102" width="2.875" style="126" customWidth="1"/>
-    <col min="4103" max="4103" width="2.625" style="126" customWidth="1"/>
-    <col min="4104" max="4115" width="2.875" style="126" customWidth="1"/>
-    <col min="4116" max="4352" width="9" style="126"/>
-    <col min="4353" max="4353" width="10.5" style="126" customWidth="1"/>
-    <col min="4354" max="4354" width="13.375" style="126" customWidth="1"/>
-    <col min="4355" max="4355" width="15.375" style="126" customWidth="1"/>
-    <col min="4356" max="4356" width="20.5" style="126" customWidth="1"/>
-    <col min="4357" max="4358" width="2.875" style="126" customWidth="1"/>
-    <col min="4359" max="4359" width="2.625" style="126" customWidth="1"/>
-    <col min="4360" max="4371" width="2.875" style="126" customWidth="1"/>
-    <col min="4372" max="4608" width="9" style="126"/>
-    <col min="4609" max="4609" width="10.5" style="126" customWidth="1"/>
-    <col min="4610" max="4610" width="13.375" style="126" customWidth="1"/>
-    <col min="4611" max="4611" width="15.375" style="126" customWidth="1"/>
-    <col min="4612" max="4612" width="20.5" style="126" customWidth="1"/>
-    <col min="4613" max="4614" width="2.875" style="126" customWidth="1"/>
-    <col min="4615" max="4615" width="2.625" style="126" customWidth="1"/>
-    <col min="4616" max="4627" width="2.875" style="126" customWidth="1"/>
-    <col min="4628" max="4864" width="9" style="126"/>
-    <col min="4865" max="4865" width="10.5" style="126" customWidth="1"/>
-    <col min="4866" max="4866" width="13.375" style="126" customWidth="1"/>
-    <col min="4867" max="4867" width="15.375" style="126" customWidth="1"/>
-    <col min="4868" max="4868" width="20.5" style="126" customWidth="1"/>
-    <col min="4869" max="4870" width="2.875" style="126" customWidth="1"/>
-    <col min="4871" max="4871" width="2.625" style="126" customWidth="1"/>
-    <col min="4872" max="4883" width="2.875" style="126" customWidth="1"/>
-    <col min="4884" max="5120" width="9" style="126"/>
-    <col min="5121" max="5121" width="10.5" style="126" customWidth="1"/>
-    <col min="5122" max="5122" width="13.375" style="126" customWidth="1"/>
-    <col min="5123" max="5123" width="15.375" style="126" customWidth="1"/>
-    <col min="5124" max="5124" width="20.5" style="126" customWidth="1"/>
-    <col min="5125" max="5126" width="2.875" style="126" customWidth="1"/>
-    <col min="5127" max="5127" width="2.625" style="126" customWidth="1"/>
-    <col min="5128" max="5139" width="2.875" style="126" customWidth="1"/>
-    <col min="5140" max="5376" width="9" style="126"/>
-    <col min="5377" max="5377" width="10.5" style="126" customWidth="1"/>
-    <col min="5378" max="5378" width="13.375" style="126" customWidth="1"/>
-    <col min="5379" max="5379" width="15.375" style="126" customWidth="1"/>
-    <col min="5380" max="5380" width="20.5" style="126" customWidth="1"/>
-    <col min="5381" max="5382" width="2.875" style="126" customWidth="1"/>
-    <col min="5383" max="5383" width="2.625" style="126" customWidth="1"/>
-    <col min="5384" max="5395" width="2.875" style="126" customWidth="1"/>
-    <col min="5396" max="5632" width="9" style="126"/>
-    <col min="5633" max="5633" width="10.5" style="126" customWidth="1"/>
-    <col min="5634" max="5634" width="13.375" style="126" customWidth="1"/>
-    <col min="5635" max="5635" width="15.375" style="126" customWidth="1"/>
-    <col min="5636" max="5636" width="20.5" style="126" customWidth="1"/>
-    <col min="5637" max="5638" width="2.875" style="126" customWidth="1"/>
-    <col min="5639" max="5639" width="2.625" style="126" customWidth="1"/>
-    <col min="5640" max="5651" width="2.875" style="126" customWidth="1"/>
-    <col min="5652" max="5888" width="9" style="126"/>
-    <col min="5889" max="5889" width="10.5" style="126" customWidth="1"/>
-    <col min="5890" max="5890" width="13.375" style="126" customWidth="1"/>
-    <col min="5891" max="5891" width="15.375" style="126" customWidth="1"/>
-    <col min="5892" max="5892" width="20.5" style="126" customWidth="1"/>
-    <col min="5893" max="5894" width="2.875" style="126" customWidth="1"/>
-    <col min="5895" max="5895" width="2.625" style="126" customWidth="1"/>
-    <col min="5896" max="5907" width="2.875" style="126" customWidth="1"/>
-    <col min="5908" max="6144" width="9" style="126"/>
-    <col min="6145" max="6145" width="10.5" style="126" customWidth="1"/>
-    <col min="6146" max="6146" width="13.375" style="126" customWidth="1"/>
-    <col min="6147" max="6147" width="15.375" style="126" customWidth="1"/>
-    <col min="6148" max="6148" width="20.5" style="126" customWidth="1"/>
-    <col min="6149" max="6150" width="2.875" style="126" customWidth="1"/>
-    <col min="6151" max="6151" width="2.625" style="126" customWidth="1"/>
-    <col min="6152" max="6163" width="2.875" style="126" customWidth="1"/>
-    <col min="6164" max="6400" width="9" style="126"/>
-    <col min="6401" max="6401" width="10.5" style="126" customWidth="1"/>
-    <col min="6402" max="6402" width="13.375" style="126" customWidth="1"/>
-    <col min="6403" max="6403" width="15.375" style="126" customWidth="1"/>
-    <col min="6404" max="6404" width="20.5" style="126" customWidth="1"/>
-    <col min="6405" max="6406" width="2.875" style="126" customWidth="1"/>
-    <col min="6407" max="6407" width="2.625" style="126" customWidth="1"/>
-    <col min="6408" max="6419" width="2.875" style="126" customWidth="1"/>
-    <col min="6420" max="6656" width="9" style="126"/>
-    <col min="6657" max="6657" width="10.5" style="126" customWidth="1"/>
-    <col min="6658" max="6658" width="13.375" style="126" customWidth="1"/>
-    <col min="6659" max="6659" width="15.375" style="126" customWidth="1"/>
-    <col min="6660" max="6660" width="20.5" style="126" customWidth="1"/>
-    <col min="6661" max="6662" width="2.875" style="126" customWidth="1"/>
-    <col min="6663" max="6663" width="2.625" style="126" customWidth="1"/>
-    <col min="6664" max="6675" width="2.875" style="126" customWidth="1"/>
-    <col min="6676" max="6912" width="9" style="126"/>
-    <col min="6913" max="6913" width="10.5" style="126" customWidth="1"/>
-    <col min="6914" max="6914" width="13.375" style="126" customWidth="1"/>
-    <col min="6915" max="6915" width="15.375" style="126" customWidth="1"/>
-    <col min="6916" max="6916" width="20.5" style="126" customWidth="1"/>
-    <col min="6917" max="6918" width="2.875" style="126" customWidth="1"/>
-    <col min="6919" max="6919" width="2.625" style="126" customWidth="1"/>
-    <col min="6920" max="6931" width="2.875" style="126" customWidth="1"/>
-    <col min="6932" max="7168" width="9" style="126"/>
-    <col min="7169" max="7169" width="10.5" style="126" customWidth="1"/>
-    <col min="7170" max="7170" width="13.375" style="126" customWidth="1"/>
-    <col min="7171" max="7171" width="15.375" style="126" customWidth="1"/>
-    <col min="7172" max="7172" width="20.5" style="126" customWidth="1"/>
-    <col min="7173" max="7174" width="2.875" style="126" customWidth="1"/>
-    <col min="7175" max="7175" width="2.625" style="126" customWidth="1"/>
-    <col min="7176" max="7187" width="2.875" style="126" customWidth="1"/>
-    <col min="7188" max="7424" width="9" style="126"/>
-    <col min="7425" max="7425" width="10.5" style="126" customWidth="1"/>
-    <col min="7426" max="7426" width="13.375" style="126" customWidth="1"/>
-    <col min="7427" max="7427" width="15.375" style="126" customWidth="1"/>
-    <col min="7428" max="7428" width="20.5" style="126" customWidth="1"/>
-    <col min="7429" max="7430" width="2.875" style="126" customWidth="1"/>
-    <col min="7431" max="7431" width="2.625" style="126" customWidth="1"/>
-    <col min="7432" max="7443" width="2.875" style="126" customWidth="1"/>
-    <col min="7444" max="7680" width="9" style="126"/>
-    <col min="7681" max="7681" width="10.5" style="126" customWidth="1"/>
-    <col min="7682" max="7682" width="13.375" style="126" customWidth="1"/>
-    <col min="7683" max="7683" width="15.375" style="126" customWidth="1"/>
-    <col min="7684" max="7684" width="20.5" style="126" customWidth="1"/>
-    <col min="7685" max="7686" width="2.875" style="126" customWidth="1"/>
-    <col min="7687" max="7687" width="2.625" style="126" customWidth="1"/>
-    <col min="7688" max="7699" width="2.875" style="126" customWidth="1"/>
-    <col min="7700" max="7936" width="9" style="126"/>
-    <col min="7937" max="7937" width="10.5" style="126" customWidth="1"/>
-    <col min="7938" max="7938" width="13.375" style="126" customWidth="1"/>
-    <col min="7939" max="7939" width="15.375" style="126" customWidth="1"/>
-    <col min="7940" max="7940" width="20.5" style="126" customWidth="1"/>
-    <col min="7941" max="7942" width="2.875" style="126" customWidth="1"/>
-    <col min="7943" max="7943" width="2.625" style="126" customWidth="1"/>
-    <col min="7944" max="7955" width="2.875" style="126" customWidth="1"/>
-    <col min="7956" max="8192" width="9" style="126"/>
-    <col min="8193" max="8193" width="10.5" style="126" customWidth="1"/>
-    <col min="8194" max="8194" width="13.375" style="126" customWidth="1"/>
-    <col min="8195" max="8195" width="15.375" style="126" customWidth="1"/>
-    <col min="8196" max="8196" width="20.5" style="126" customWidth="1"/>
-    <col min="8197" max="8198" width="2.875" style="126" customWidth="1"/>
-    <col min="8199" max="8199" width="2.625" style="126" customWidth="1"/>
-    <col min="8200" max="8211" width="2.875" style="126" customWidth="1"/>
-    <col min="8212" max="8448" width="9" style="126"/>
-    <col min="8449" max="8449" width="10.5" style="126" customWidth="1"/>
-    <col min="8450" max="8450" width="13.375" style="126" customWidth="1"/>
-    <col min="8451" max="8451" width="15.375" style="126" customWidth="1"/>
-    <col min="8452" max="8452" width="20.5" style="126" customWidth="1"/>
-    <col min="8453" max="8454" width="2.875" style="126" customWidth="1"/>
-    <col min="8455" max="8455" width="2.625" style="126" customWidth="1"/>
-    <col min="8456" max="8467" width="2.875" style="126" customWidth="1"/>
-    <col min="8468" max="8704" width="9" style="126"/>
-    <col min="8705" max="8705" width="10.5" style="126" customWidth="1"/>
-    <col min="8706" max="8706" width="13.375" style="126" customWidth="1"/>
-    <col min="8707" max="8707" width="15.375" style="126" customWidth="1"/>
-    <col min="8708" max="8708" width="20.5" style="126" customWidth="1"/>
-    <col min="8709" max="8710" width="2.875" style="126" customWidth="1"/>
-    <col min="8711" max="8711" width="2.625" style="126" customWidth="1"/>
-    <col min="8712" max="8723" width="2.875" style="126" customWidth="1"/>
-    <col min="8724" max="8960" width="9" style="126"/>
-    <col min="8961" max="8961" width="10.5" style="126" customWidth="1"/>
-    <col min="8962" max="8962" width="13.375" style="126" customWidth="1"/>
-    <col min="8963" max="8963" width="15.375" style="126" customWidth="1"/>
-    <col min="8964" max="8964" width="20.5" style="126" customWidth="1"/>
-    <col min="8965" max="8966" width="2.875" style="126" customWidth="1"/>
-    <col min="8967" max="8967" width="2.625" style="126" customWidth="1"/>
-    <col min="8968" max="8979" width="2.875" style="126" customWidth="1"/>
-    <col min="8980" max="9216" width="9" style="126"/>
-    <col min="9217" max="9217" width="10.5" style="126" customWidth="1"/>
-    <col min="9218" max="9218" width="13.375" style="126" customWidth="1"/>
-    <col min="9219" max="9219" width="15.375" style="126" customWidth="1"/>
-    <col min="9220" max="9220" width="20.5" style="126" customWidth="1"/>
-    <col min="9221" max="9222" width="2.875" style="126" customWidth="1"/>
-    <col min="9223" max="9223" width="2.625" style="126" customWidth="1"/>
-    <col min="9224" max="9235" width="2.875" style="126" customWidth="1"/>
-    <col min="9236" max="9472" width="9" style="126"/>
-    <col min="9473" max="9473" width="10.5" style="126" customWidth="1"/>
-    <col min="9474" max="9474" width="13.375" style="126" customWidth="1"/>
-    <col min="9475" max="9475" width="15.375" style="126" customWidth="1"/>
-    <col min="9476" max="9476" width="20.5" style="126" customWidth="1"/>
-    <col min="9477" max="9478" width="2.875" style="126" customWidth="1"/>
-    <col min="9479" max="9479" width="2.625" style="126" customWidth="1"/>
-    <col min="9480" max="9491" width="2.875" style="126" customWidth="1"/>
-    <col min="9492" max="9728" width="9" style="126"/>
-    <col min="9729" max="9729" width="10.5" style="126" customWidth="1"/>
-    <col min="9730" max="9730" width="13.375" style="126" customWidth="1"/>
-    <col min="9731" max="9731" width="15.375" style="126" customWidth="1"/>
-    <col min="9732" max="9732" width="20.5" style="126" customWidth="1"/>
-    <col min="9733" max="9734" width="2.875" style="126" customWidth="1"/>
-    <col min="9735" max="9735" width="2.625" style="126" customWidth="1"/>
-    <col min="9736" max="9747" width="2.875" style="126" customWidth="1"/>
-    <col min="9748" max="9984" width="9" style="126"/>
-    <col min="9985" max="9985" width="10.5" style="126" customWidth="1"/>
-    <col min="9986" max="9986" width="13.375" style="126" customWidth="1"/>
-    <col min="9987" max="9987" width="15.375" style="126" customWidth="1"/>
-    <col min="9988" max="9988" width="20.5" style="126" customWidth="1"/>
-    <col min="9989" max="9990" width="2.875" style="126" customWidth="1"/>
-    <col min="9991" max="9991" width="2.625" style="126" customWidth="1"/>
-    <col min="9992" max="10003" width="2.875" style="126" customWidth="1"/>
-    <col min="10004" max="10240" width="9" style="126"/>
-    <col min="10241" max="10241" width="10.5" style="126" customWidth="1"/>
-    <col min="10242" max="10242" width="13.375" style="126" customWidth="1"/>
-    <col min="10243" max="10243" width="15.375" style="126" customWidth="1"/>
-    <col min="10244" max="10244" width="20.5" style="126" customWidth="1"/>
-    <col min="10245" max="10246" width="2.875" style="126" customWidth="1"/>
-    <col min="10247" max="10247" width="2.625" style="126" customWidth="1"/>
-    <col min="10248" max="10259" width="2.875" style="126" customWidth="1"/>
-    <col min="10260" max="10496" width="9" style="126"/>
-    <col min="10497" max="10497" width="10.5" style="126" customWidth="1"/>
-    <col min="10498" max="10498" width="13.375" style="126" customWidth="1"/>
-    <col min="10499" max="10499" width="15.375" style="126" customWidth="1"/>
-    <col min="10500" max="10500" width="20.5" style="126" customWidth="1"/>
-    <col min="10501" max="10502" width="2.875" style="126" customWidth="1"/>
-    <col min="10503" max="10503" width="2.625" style="126" customWidth="1"/>
-    <col min="10504" max="10515" width="2.875" style="126" customWidth="1"/>
-    <col min="10516" max="10752" width="9" style="126"/>
-    <col min="10753" max="10753" width="10.5" style="126" customWidth="1"/>
-    <col min="10754" max="10754" width="13.375" style="126" customWidth="1"/>
-    <col min="10755" max="10755" width="15.375" style="126" customWidth="1"/>
-    <col min="10756" max="10756" width="20.5" style="126" customWidth="1"/>
-    <col min="10757" max="10758" width="2.875" style="126" customWidth="1"/>
-    <col min="10759" max="10759" width="2.625" style="126" customWidth="1"/>
-    <col min="10760" max="10771" width="2.875" style="126" customWidth="1"/>
-    <col min="10772" max="11008" width="9" style="126"/>
-    <col min="11009" max="11009" width="10.5" style="126" customWidth="1"/>
-    <col min="11010" max="11010" width="13.375" style="126" customWidth="1"/>
-    <col min="11011" max="11011" width="15.375" style="126" customWidth="1"/>
-    <col min="11012" max="11012" width="20.5" style="126" customWidth="1"/>
-    <col min="11013" max="11014" width="2.875" style="126" customWidth="1"/>
-    <col min="11015" max="11015" width="2.625" style="126" customWidth="1"/>
-    <col min="11016" max="11027" width="2.875" style="126" customWidth="1"/>
-    <col min="11028" max="11264" width="9" style="126"/>
-    <col min="11265" max="11265" width="10.5" style="126" customWidth="1"/>
-    <col min="11266" max="11266" width="13.375" style="126" customWidth="1"/>
-    <col min="11267" max="11267" width="15.375" style="126" customWidth="1"/>
-    <col min="11268" max="11268" width="20.5" style="126" customWidth="1"/>
-    <col min="11269" max="11270" width="2.875" style="126" customWidth="1"/>
-    <col min="11271" max="11271" width="2.625" style="126" customWidth="1"/>
-    <col min="11272" max="11283" width="2.875" style="126" customWidth="1"/>
-    <col min="11284" max="11520" width="9" style="126"/>
-    <col min="11521" max="11521" width="10.5" style="126" customWidth="1"/>
-    <col min="11522" max="11522" width="13.375" style="126" customWidth="1"/>
-    <col min="11523" max="11523" width="15.375" style="126" customWidth="1"/>
-    <col min="11524" max="11524" width="20.5" style="126" customWidth="1"/>
-    <col min="11525" max="11526" width="2.875" style="126" customWidth="1"/>
-    <col min="11527" max="11527" width="2.625" style="126" customWidth="1"/>
-    <col min="11528" max="11539" width="2.875" style="126" customWidth="1"/>
-    <col min="11540" max="11776" width="9" style="126"/>
-    <col min="11777" max="11777" width="10.5" style="126" customWidth="1"/>
-    <col min="11778" max="11778" width="13.375" style="126" customWidth="1"/>
-    <col min="11779" max="11779" width="15.375" style="126" customWidth="1"/>
-    <col min="11780" max="11780" width="20.5" style="126" customWidth="1"/>
-    <col min="11781" max="11782" width="2.875" style="126" customWidth="1"/>
-    <col min="11783" max="11783" width="2.625" style="126" customWidth="1"/>
-    <col min="11784" max="11795" width="2.875" style="126" customWidth="1"/>
-    <col min="11796" max="12032" width="9" style="126"/>
-    <col min="12033" max="12033" width="10.5" style="126" customWidth="1"/>
-    <col min="12034" max="12034" width="13.375" style="126" customWidth="1"/>
-    <col min="12035" max="12035" width="15.375" style="126" customWidth="1"/>
-    <col min="12036" max="12036" width="20.5" style="126" customWidth="1"/>
-    <col min="12037" max="12038" width="2.875" style="126" customWidth="1"/>
-    <col min="12039" max="12039" width="2.625" style="126" customWidth="1"/>
-    <col min="12040" max="12051" width="2.875" style="126" customWidth="1"/>
-    <col min="12052" max="12288" width="9" style="126"/>
-    <col min="12289" max="12289" width="10.5" style="126" customWidth="1"/>
-    <col min="12290" max="12290" width="13.375" style="126" customWidth="1"/>
-    <col min="12291" max="12291" width="15.375" style="126" customWidth="1"/>
-    <col min="12292" max="12292" width="20.5" style="126" customWidth="1"/>
-    <col min="12293" max="12294" width="2.875" style="126" customWidth="1"/>
-    <col min="12295" max="12295" width="2.625" style="126" customWidth="1"/>
-    <col min="12296" max="12307" width="2.875" style="126" customWidth="1"/>
-    <col min="12308" max="12544" width="9" style="126"/>
-    <col min="12545" max="12545" width="10.5" style="126" customWidth="1"/>
-    <col min="12546" max="12546" width="13.375" style="126" customWidth="1"/>
-    <col min="12547" max="12547" width="15.375" style="126" customWidth="1"/>
-    <col min="12548" max="12548" width="20.5" style="126" customWidth="1"/>
-    <col min="12549" max="12550" width="2.875" style="126" customWidth="1"/>
-    <col min="12551" max="12551" width="2.625" style="126" customWidth="1"/>
-    <col min="12552" max="12563" width="2.875" style="126" customWidth="1"/>
-    <col min="12564" max="12800" width="9" style="126"/>
-    <col min="12801" max="12801" width="10.5" style="126" customWidth="1"/>
-    <col min="12802" max="12802" width="13.375" style="126" customWidth="1"/>
-    <col min="12803" max="12803" width="15.375" style="126" customWidth="1"/>
-    <col min="12804" max="12804" width="20.5" style="126" customWidth="1"/>
-    <col min="12805" max="12806" width="2.875" style="126" customWidth="1"/>
-    <col min="12807" max="12807" width="2.625" style="126" customWidth="1"/>
-    <col min="12808" max="12819" width="2.875" style="126" customWidth="1"/>
-    <col min="12820" max="13056" width="9" style="126"/>
-    <col min="13057" max="13057" width="10.5" style="126" customWidth="1"/>
-    <col min="13058" max="13058" width="13.375" style="126" customWidth="1"/>
-    <col min="13059" max="13059" width="15.375" style="126" customWidth="1"/>
-    <col min="13060" max="13060" width="20.5" style="126" customWidth="1"/>
-    <col min="13061" max="13062" width="2.875" style="126" customWidth="1"/>
-    <col min="13063" max="13063" width="2.625" style="126" customWidth="1"/>
-    <col min="13064" max="13075" width="2.875" style="126" customWidth="1"/>
-    <col min="13076" max="13312" width="9" style="126"/>
-    <col min="13313" max="13313" width="10.5" style="126" customWidth="1"/>
-    <col min="13314" max="13314" width="13.375" style="126" customWidth="1"/>
-    <col min="13315" max="13315" width="15.375" style="126" customWidth="1"/>
-    <col min="13316" max="13316" width="20.5" style="126" customWidth="1"/>
-    <col min="13317" max="13318" width="2.875" style="126" customWidth="1"/>
-    <col min="13319" max="13319" width="2.625" style="126" customWidth="1"/>
-    <col min="13320" max="13331" width="2.875" style="126" customWidth="1"/>
-    <col min="13332" max="13568" width="9" style="126"/>
-    <col min="13569" max="13569" width="10.5" style="126" customWidth="1"/>
-    <col min="13570" max="13570" width="13.375" style="126" customWidth="1"/>
-    <col min="13571" max="13571" width="15.375" style="126" customWidth="1"/>
-    <col min="13572" max="13572" width="20.5" style="126" customWidth="1"/>
-    <col min="13573" max="13574" width="2.875" style="126" customWidth="1"/>
-    <col min="13575" max="13575" width="2.625" style="126" customWidth="1"/>
-    <col min="13576" max="13587" width="2.875" style="126" customWidth="1"/>
-    <col min="13588" max="13824" width="9" style="126"/>
-    <col min="13825" max="13825" width="10.5" style="126" customWidth="1"/>
-    <col min="13826" max="13826" width="13.375" style="126" customWidth="1"/>
-    <col min="13827" max="13827" width="15.375" style="126" customWidth="1"/>
-    <col min="13828" max="13828" width="20.5" style="126" customWidth="1"/>
-    <col min="13829" max="13830" width="2.875" style="126" customWidth="1"/>
-    <col min="13831" max="13831" width="2.625" style="126" customWidth="1"/>
-    <col min="13832" max="13843" width="2.875" style="126" customWidth="1"/>
-    <col min="13844" max="14080" width="9" style="126"/>
-    <col min="14081" max="14081" width="10.5" style="126" customWidth="1"/>
-    <col min="14082" max="14082" width="13.375" style="126" customWidth="1"/>
-    <col min="14083" max="14083" width="15.375" style="126" customWidth="1"/>
-    <col min="14084" max="14084" width="20.5" style="126" customWidth="1"/>
-    <col min="14085" max="14086" width="2.875" style="126" customWidth="1"/>
-    <col min="14087" max="14087" width="2.625" style="126" customWidth="1"/>
-    <col min="14088" max="14099" width="2.875" style="126" customWidth="1"/>
-    <col min="14100" max="14336" width="9" style="126"/>
-    <col min="14337" max="14337" width="10.5" style="126" customWidth="1"/>
-    <col min="14338" max="14338" width="13.375" style="126" customWidth="1"/>
-    <col min="14339" max="14339" width="15.375" style="126" customWidth="1"/>
-    <col min="14340" max="14340" width="20.5" style="126" customWidth="1"/>
-    <col min="14341" max="14342" width="2.875" style="126" customWidth="1"/>
-    <col min="14343" max="14343" width="2.625" style="126" customWidth="1"/>
-    <col min="14344" max="14355" width="2.875" style="126" customWidth="1"/>
-    <col min="14356" max="14592" width="9" style="126"/>
-    <col min="14593" max="14593" width="10.5" style="126" customWidth="1"/>
-    <col min="14594" max="14594" width="13.375" style="126" customWidth="1"/>
-    <col min="14595" max="14595" width="15.375" style="126" customWidth="1"/>
-    <col min="14596" max="14596" width="20.5" style="126" customWidth="1"/>
-    <col min="14597" max="14598" width="2.875" style="126" customWidth="1"/>
-    <col min="14599" max="14599" width="2.625" style="126" customWidth="1"/>
-    <col min="14600" max="14611" width="2.875" style="126" customWidth="1"/>
-    <col min="14612" max="14848" width="9" style="126"/>
-    <col min="14849" max="14849" width="10.5" style="126" customWidth="1"/>
-    <col min="14850" max="14850" width="13.375" style="126" customWidth="1"/>
-    <col min="14851" max="14851" width="15.375" style="126" customWidth="1"/>
-    <col min="14852" max="14852" width="20.5" style="126" customWidth="1"/>
-    <col min="14853" max="14854" width="2.875" style="126" customWidth="1"/>
-    <col min="14855" max="14855" width="2.625" style="126" customWidth="1"/>
-    <col min="14856" max="14867" width="2.875" style="126" customWidth="1"/>
-    <col min="14868" max="15104" width="9" style="126"/>
-    <col min="15105" max="15105" width="10.5" style="126" customWidth="1"/>
-    <col min="15106" max="15106" width="13.375" style="126" customWidth="1"/>
-    <col min="15107" max="15107" width="15.375" style="126" customWidth="1"/>
-    <col min="15108" max="15108" width="20.5" style="126" customWidth="1"/>
-    <col min="15109" max="15110" width="2.875" style="126" customWidth="1"/>
-    <col min="15111" max="15111" width="2.625" style="126" customWidth="1"/>
-    <col min="15112" max="15123" width="2.875" style="126" customWidth="1"/>
-    <col min="15124" max="15360" width="9" style="126"/>
-    <col min="15361" max="15361" width="10.5" style="126" customWidth="1"/>
-    <col min="15362" max="15362" width="13.375" style="126" customWidth="1"/>
-    <col min="15363" max="15363" width="15.375" style="126" customWidth="1"/>
-    <col min="15364" max="15364" width="20.5" style="126" customWidth="1"/>
-    <col min="15365" max="15366" width="2.875" style="126" customWidth="1"/>
-    <col min="15367" max="15367" width="2.625" style="126" customWidth="1"/>
-    <col min="15368" max="15379" width="2.875" style="126" customWidth="1"/>
-    <col min="15380" max="15616" width="9" style="126"/>
-    <col min="15617" max="15617" width="10.5" style="126" customWidth="1"/>
-    <col min="15618" max="15618" width="13.375" style="126" customWidth="1"/>
-    <col min="15619" max="15619" width="15.375" style="126" customWidth="1"/>
-    <col min="15620" max="15620" width="20.5" style="126" customWidth="1"/>
-    <col min="15621" max="15622" width="2.875" style="126" customWidth="1"/>
-    <col min="15623" max="15623" width="2.625" style="126" customWidth="1"/>
-    <col min="15624" max="15635" width="2.875" style="126" customWidth="1"/>
-    <col min="15636" max="15872" width="9" style="126"/>
-    <col min="15873" max="15873" width="10.5" style="126" customWidth="1"/>
-    <col min="15874" max="15874" width="13.375" style="126" customWidth="1"/>
-    <col min="15875" max="15875" width="15.375" style="126" customWidth="1"/>
-    <col min="15876" max="15876" width="20.5" style="126" customWidth="1"/>
-    <col min="15877" max="15878" width="2.875" style="126" customWidth="1"/>
-    <col min="15879" max="15879" width="2.625" style="126" customWidth="1"/>
-    <col min="15880" max="15891" width="2.875" style="126" customWidth="1"/>
-    <col min="15892" max="16128" width="9" style="126"/>
-    <col min="16129" max="16129" width="10.5" style="126" customWidth="1"/>
-    <col min="16130" max="16130" width="13.375" style="126" customWidth="1"/>
-    <col min="16131" max="16131" width="15.375" style="126" customWidth="1"/>
-    <col min="16132" max="16132" width="20.5" style="126" customWidth="1"/>
-    <col min="16133" max="16134" width="2.875" style="126" customWidth="1"/>
-    <col min="16135" max="16135" width="2.625" style="126" customWidth="1"/>
-    <col min="16136" max="16147" width="2.875" style="126" customWidth="1"/>
-    <col min="16148" max="16384" width="9" style="126"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A1" s="70"/>
-      <c r="B1" s="71"/>
-    </row>
-    <row r="2" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A2" s="193" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="194"/>
-      <c r="C2" s="195" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="196"/>
-      <c r="E2" s="197" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="198"/>
-      <c r="G2" s="198"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="200" t="str">
-        <f>C2</f>
-        <v>GetTopRecentlyDonator</v>
-      </c>
-      <c r="J2" s="201"/>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="201"/>
-      <c r="N2" s="201"/>
-      <c r="O2" s="201"/>
-      <c r="P2" s="201"/>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="202"/>
-      <c r="T2" s="73"/>
-    </row>
-    <row r="3" spans="1:20" ht="30" customHeight="1">
-      <c r="A3" s="203" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="204"/>
-      <c r="C3" s="205" t="str">
-        <f>Cover!F4</f>
-        <v>TuanhaSE03108</v>
-      </c>
-      <c r="D3" s="206"/>
-      <c r="E3" s="207" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="208"/>
-      <c r="G3" s="208"/>
-      <c r="H3" s="209"/>
-      <c r="I3" s="210" t="str">
-        <f>C3</f>
-        <v>TuanhaSE03108</v>
-      </c>
-      <c r="J3" s="211"/>
-      <c r="K3" s="211"/>
-      <c r="L3" s="211"/>
-      <c r="M3" s="211"/>
-      <c r="N3" s="211"/>
-      <c r="O3" s="211"/>
-      <c r="P3" s="211"/>
-      <c r="Q3" s="211"/>
-      <c r="R3" s="212"/>
-    </row>
-    <row r="4" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A4" s="203" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="204"/>
-      <c r="C4" s="213"/>
-      <c r="D4" s="213"/>
-      <c r="E4" s="214"/>
-      <c r="F4" s="214"/>
-      <c r="G4" s="214"/>
-      <c r="H4" s="214"/>
-      <c r="I4" s="213"/>
-      <c r="J4" s="213"/>
-      <c r="K4" s="213"/>
-      <c r="L4" s="213"/>
-      <c r="M4" s="213"/>
-      <c r="N4" s="213"/>
-      <c r="O4" s="213"/>
-      <c r="P4" s="213"/>
-      <c r="Q4" s="213"/>
-      <c r="R4" s="215"/>
-    </row>
-    <row r="5" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A5" s="216" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="217"/>
-      <c r="C5" s="218" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="219"/>
-      <c r="E5" s="220" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="219"/>
-      <c r="G5" s="219"/>
-      <c r="H5" s="221"/>
-      <c r="I5" s="219" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" s="219"/>
-      <c r="K5" s="219"/>
-      <c r="L5" s="220" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="219"/>
-      <c r="N5" s="219"/>
-      <c r="O5" s="219"/>
-      <c r="P5" s="219"/>
-      <c r="Q5" s="219"/>
-      <c r="R5" s="222"/>
-      <c r="T5" s="73"/>
-    </row>
-    <row r="6" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="226">
-        <f>COUNTIF(E21:HM21,"P")</f>
-        <v>2</v>
-      </c>
-      <c r="B6" s="227"/>
-      <c r="C6" s="228">
-        <f>COUNTIF(E21:HO21,"F")</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="229"/>
-      <c r="E6" s="230">
-        <f>SUM(L6,- A6,- C6)</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="229"/>
-      <c r="G6" s="229"/>
-      <c r="H6" s="231"/>
-      <c r="I6" s="117">
-        <f>COUNTIF(E20:HM20,"N")</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="117">
-        <f>COUNTIF(E20:HM20,"A")</f>
-        <v>2</v>
-      </c>
-      <c r="K6" s="117">
-        <f>COUNTIF(E20:HM20,"B")</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="230">
-        <f>COUNTA(E8:P8)</f>
-        <v>2</v>
-      </c>
-      <c r="M6" s="229"/>
-      <c r="N6" s="229"/>
-      <c r="O6" s="229"/>
-      <c r="P6" s="229"/>
-      <c r="Q6" s="229"/>
-      <c r="R6" s="232"/>
-      <c r="S6" s="118"/>
-    </row>
-    <row r="7" spans="1:20" ht="11.25" thickBot="1"/>
-    <row r="8" spans="1:20" ht="46.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A8" s="146"/>
-      <c r="B8" s="142"/>
-      <c r="C8" s="143"/>
-      <c r="D8" s="144"/>
-      <c r="E8" s="145" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="145" t="s">
-        <v>110</v>
-      </c>
-      <c r="G8" s="145"/>
-      <c r="H8" s="145"/>
-      <c r="I8" s="145"/>
-      <c r="J8" s="145"/>
-      <c r="K8" s="145"/>
-      <c r="L8" s="145"/>
-      <c r="M8" s="145"/>
-      <c r="N8" s="145"/>
-      <c r="O8" s="145"/>
-      <c r="P8" s="145"/>
-      <c r="Q8" s="145"/>
-      <c r="R8" s="158"/>
-      <c r="S8" s="118"/>
-    </row>
-    <row r="9" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A9" s="135" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" s="139" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" s="140"/>
-      <c r="D9" s="141"/>
-      <c r="E9" s="134" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="134" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="134"/>
-      <c r="H9" s="134"/>
-      <c r="I9" s="134"/>
-      <c r="J9" s="134"/>
-      <c r="K9" s="134"/>
-      <c r="L9" s="147"/>
-      <c r="M9" s="149"/>
-      <c r="N9" s="149"/>
-      <c r="O9" s="149"/>
-      <c r="P9" s="149"/>
-      <c r="Q9" s="149"/>
-      <c r="R9" s="147"/>
-    </row>
-    <row r="10" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A10" s="135"/>
-      <c r="B10" s="139"/>
-      <c r="C10" s="140"/>
-      <c r="D10" s="141"/>
-      <c r="E10" s="148"/>
-      <c r="F10" s="148"/>
-      <c r="G10" s="148"/>
-      <c r="H10" s="148"/>
-      <c r="I10" s="148"/>
-      <c r="J10" s="148"/>
-      <c r="K10" s="148"/>
-      <c r="L10" s="147"/>
-      <c r="M10" s="149"/>
-      <c r="N10" s="149"/>
-      <c r="O10" s="149"/>
-      <c r="P10" s="149"/>
-      <c r="Q10" s="149"/>
-      <c r="R10" s="147"/>
-    </row>
-    <row r="11" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A11" s="138" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="166" t="s">
-        <v>133</v>
-      </c>
-      <c r="C11" s="125"/>
-      <c r="D11" s="141"/>
-      <c r="E11" s="148"/>
-      <c r="F11" s="148"/>
-      <c r="G11" s="148"/>
-      <c r="H11" s="148"/>
-      <c r="I11" s="147"/>
-      <c r="J11" s="147"/>
-      <c r="K11" s="147"/>
-      <c r="L11" s="147"/>
-      <c r="M11" s="149"/>
-      <c r="N11" s="149"/>
-      <c r="O11" s="149"/>
-      <c r="P11" s="149"/>
-      <c r="Q11" s="149"/>
-      <c r="R11" s="147"/>
-    </row>
-    <row r="12" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A12" s="135"/>
-      <c r="B12" s="125"/>
-      <c r="C12" s="125"/>
-      <c r="D12" s="141">
-        <v>5</v>
-      </c>
-      <c r="E12" s="134" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="148"/>
-      <c r="G12" s="148"/>
-      <c r="H12" s="148"/>
-      <c r="I12" s="147"/>
-      <c r="J12" s="147"/>
-      <c r="K12" s="147"/>
-      <c r="L12" s="147"/>
-      <c r="M12" s="149"/>
-      <c r="N12" s="149"/>
-      <c r="O12" s="149"/>
-      <c r="P12" s="149"/>
-      <c r="Q12" s="149"/>
-      <c r="R12" s="147"/>
-    </row>
-    <row r="13" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A13" s="135"/>
-      <c r="B13" s="170"/>
-      <c r="C13" s="140"/>
-      <c r="D13" s="141">
-        <v>10</v>
-      </c>
-      <c r="E13" s="148"/>
-      <c r="F13" s="134" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="148"/>
-      <c r="H13" s="148"/>
-      <c r="I13" s="148"/>
-      <c r="J13" s="148"/>
-      <c r="K13" s="148"/>
-      <c r="L13" s="147"/>
-      <c r="M13" s="149"/>
-      <c r="N13" s="149"/>
-      <c r="O13" s="149"/>
-      <c r="P13" s="149"/>
-      <c r="Q13" s="149"/>
-      <c r="R13" s="147"/>
-    </row>
-    <row r="14" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A14" s="137" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="127"/>
-      <c r="C14" s="128"/>
-      <c r="D14" s="129"/>
-      <c r="E14" s="148"/>
-      <c r="F14" s="148"/>
-      <c r="G14" s="148"/>
-      <c r="H14" s="148"/>
-      <c r="I14" s="148"/>
-      <c r="J14" s="148"/>
-      <c r="K14" s="148"/>
-      <c r="L14" s="148"/>
-      <c r="M14" s="151"/>
-      <c r="N14" s="151"/>
-      <c r="O14" s="151"/>
-      <c r="P14" s="151"/>
-      <c r="Q14" s="151"/>
-      <c r="R14" s="148"/>
-    </row>
-    <row r="15" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A15" s="136"/>
-      <c r="B15" s="130" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="148"/>
-      <c r="F15" s="148"/>
-      <c r="G15" s="148"/>
-      <c r="H15" s="148"/>
-      <c r="I15" s="148"/>
-      <c r="J15" s="148"/>
-      <c r="K15" s="148"/>
-      <c r="L15" s="148"/>
-      <c r="M15" s="151"/>
-      <c r="N15" s="151"/>
-      <c r="O15" s="151"/>
-      <c r="P15" s="151"/>
-      <c r="Q15" s="151"/>
-      <c r="R15" s="148"/>
-    </row>
-    <row r="16" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A16" s="136"/>
-      <c r="B16" s="130" t="s">
-        <v>134</v>
-      </c>
-      <c r="C16" s="131"/>
-      <c r="D16" s="132"/>
-      <c r="E16" s="134" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" s="134" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16" s="134"/>
-      <c r="H16" s="134"/>
-      <c r="I16" s="134"/>
-      <c r="J16" s="148"/>
-      <c r="K16" s="134"/>
-      <c r="L16" s="134"/>
-      <c r="M16" s="150"/>
-      <c r="N16" s="150"/>
-      <c r="O16" s="150"/>
-      <c r="P16" s="150"/>
-      <c r="Q16" s="150"/>
-      <c r="R16" s="134"/>
-    </row>
-    <row r="17" spans="1:18" ht="13.5" customHeight="1">
-      <c r="A17" s="136"/>
-      <c r="B17" s="130"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="132"/>
-      <c r="E17" s="134"/>
-      <c r="F17" s="134"/>
-      <c r="G17" s="134"/>
-      <c r="H17" s="134"/>
-      <c r="I17" s="134"/>
-      <c r="J17" s="134"/>
-      <c r="K17" s="134"/>
-      <c r="L17" s="134"/>
-      <c r="M17" s="150"/>
-      <c r="N17" s="150"/>
-      <c r="O17" s="150"/>
-      <c r="P17" s="150"/>
-      <c r="Q17" s="150"/>
-      <c r="R17" s="134"/>
-    </row>
-    <row r="18" spans="1:18" ht="13.5" customHeight="1">
-      <c r="A18" s="136"/>
-      <c r="B18" s="130"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="132"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="134"/>
-      <c r="G18" s="134"/>
-      <c r="H18" s="134"/>
-      <c r="I18" s="134"/>
-      <c r="J18" s="134"/>
-      <c r="K18" s="134"/>
-      <c r="L18" s="134"/>
-      <c r="M18" s="153"/>
-      <c r="N18" s="153"/>
-      <c r="O18" s="153"/>
-      <c r="P18" s="153"/>
-      <c r="Q18" s="153"/>
-      <c r="R18" s="154"/>
-    </row>
-    <row r="19" spans="1:18" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A19" s="136"/>
-      <c r="B19" s="130"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="132"/>
-      <c r="E19" s="152"/>
-      <c r="F19" s="152"/>
-      <c r="G19" s="152"/>
-      <c r="H19" s="152"/>
-      <c r="I19" s="152"/>
-      <c r="J19" s="152"/>
-      <c r="K19" s="152"/>
-      <c r="L19" s="152"/>
-      <c r="M19" s="155"/>
-      <c r="N19" s="155"/>
-      <c r="O19" s="155"/>
-      <c r="P19" s="155"/>
-      <c r="Q19" s="155"/>
-      <c r="R19" s="156"/>
-    </row>
-    <row r="20" spans="1:18" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A20" s="137" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="239" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="240"/>
-      <c r="D20" s="241"/>
-      <c r="E20" s="157" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="157" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" s="157"/>
-      <c r="H20" s="157"/>
-      <c r="I20" s="157"/>
-      <c r="J20" s="157"/>
-      <c r="K20" s="157"/>
-      <c r="L20" s="157"/>
-      <c r="M20" s="157"/>
-      <c r="N20" s="157"/>
-      <c r="O20" s="157"/>
-      <c r="P20" s="157"/>
-      <c r="Q20" s="157"/>
-      <c r="R20" s="157"/>
-    </row>
-    <row r="21" spans="1:18" ht="13.5" customHeight="1">
-      <c r="A21" s="136"/>
-      <c r="B21" s="236" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="237"/>
-      <c r="D21" s="238"/>
-      <c r="E21" s="134" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="134" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="134"/>
-      <c r="H21" s="134"/>
-      <c r="I21" s="134"/>
-      <c r="J21" s="134"/>
-      <c r="K21" s="134"/>
-      <c r="L21" s="134"/>
-      <c r="M21" s="134"/>
-      <c r="N21" s="134"/>
-      <c r="O21" s="134"/>
-      <c r="P21" s="134"/>
-      <c r="Q21" s="134"/>
-      <c r="R21" s="134"/>
-    </row>
-    <row r="22" spans="1:18" ht="64.5" customHeight="1">
-      <c r="A22" s="136"/>
-      <c r="B22" s="223" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="224"/>
-      <c r="D22" s="225"/>
-      <c r="E22" s="133">
-        <v>42594</v>
-      </c>
-      <c r="F22" s="133">
-        <v>42594</v>
-      </c>
-      <c r="G22" s="133"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="133"/>
-      <c r="J22" s="133"/>
-      <c r="K22" s="133"/>
-      <c r="L22" s="133"/>
-      <c r="M22" s="133"/>
-      <c r="N22" s="133"/>
-      <c r="O22" s="133"/>
-      <c r="P22" s="133"/>
-      <c r="Q22" s="133"/>
-      <c r="R22" s="133"/>
-    </row>
-    <row r="23" spans="1:18" ht="13.5" customHeight="1">
-      <c r="A23" s="96"/>
-    </row>
-    <row r="24" spans="1:18" ht="13.5" customHeight="1"/>
-    <row r="25" spans="1:18" ht="13.5" customHeight="1"/>
-    <row r="26" spans="1:18" ht="13.5" customHeight="1"/>
-    <row r="27" spans="1:18" ht="13.5" customHeight="1"/>
-    <row r="28" spans="1:18" ht="13.5" customHeight="1">
-      <c r="B28" s="126"/>
-      <c r="D28" s="126"/>
-    </row>
-    <row r="29" spans="1:18" ht="13.5" customHeight="1">
-      <c r="B29" s="126"/>
-      <c r="D29" s="126"/>
-    </row>
-    <row r="30" spans="1:18" ht="13.5" customHeight="1">
-      <c r="B30" s="126"/>
-      <c r="D30" s="126"/>
-    </row>
-    <row r="31" spans="1:18" ht="13.5" customHeight="1">
-      <c r="B31" s="126"/>
-      <c r="D31" s="126"/>
-    </row>
-    <row r="32" spans="1:18" ht="13.5" customHeight="1">
-      <c r="B32" s="126"/>
-      <c r="D32" s="126"/>
-    </row>
-    <row r="33" spans="2:4" ht="13.5" customHeight="1">
-      <c r="B33" s="126"/>
-      <c r="D33" s="126"/>
-    </row>
-    <row r="34" spans="2:4" ht="13.5" customHeight="1">
-      <c r="B34" s="126"/>
-      <c r="D34" s="126"/>
-    </row>
-    <row r="35" spans="2:4" ht="13.5" customHeight="1">
-      <c r="B35" s="126"/>
-      <c r="D35" s="126"/>
-    </row>
-    <row r="36" spans="2:4" ht="13.5" customHeight="1">
-      <c r="B36" s="126"/>
-      <c r="D36" s="126"/>
-    </row>
-    <row r="37" spans="2:4" ht="13.5" customHeight="1">
-      <c r="B37" s="126"/>
-      <c r="D37" s="126"/>
-    </row>
-    <row r="38" spans="2:4" ht="13.5" customHeight="1">
-      <c r="B38" s="126"/>
-      <c r="D38" s="126"/>
-    </row>
-    <row r="39" spans="2:4" ht="13.5" customHeight="1">
-      <c r="B39" s="126"/>
-      <c r="D39" s="126"/>
-    </row>
-    <row r="40" spans="2:4" ht="24" customHeight="1">
-      <c r="B40" s="126"/>
-      <c r="D40" s="126"/>
-    </row>
-    <row r="41" spans="2:4" ht="39" customHeight="1">
-      <c r="B41" s="126"/>
-      <c r="D41" s="126"/>
-    </row>
-    <row r="42" spans="2:4" ht="13.5" customHeight="1">
-      <c r="B42" s="126"/>
-      <c r="D42" s="126"/>
-    </row>
-    <row r="43" spans="2:4" ht="13.5" customHeight="1">
-      <c r="B43" s="126"/>
-      <c r="D43" s="126"/>
-    </row>
-    <row r="44" spans="2:4" ht="13.5" customHeight="1">
-      <c r="B44" s="126"/>
-      <c r="D44" s="126"/>
-    </row>
-    <row r="45" spans="2:4" ht="13.5" customHeight="1">
-      <c r="B45" s="126"/>
-      <c r="D45" s="126"/>
-    </row>
-    <row r="46" spans="2:4" ht="13.5" customHeight="1">
-      <c r="B46" s="126"/>
-      <c r="D46" s="126"/>
-    </row>
-    <row r="47" spans="2:4" ht="13.5" customHeight="1">
-      <c r="B47" s="126"/>
-      <c r="D47" s="126"/>
-    </row>
-    <row r="48" spans="2:4" ht="13.5" customHeight="1">
-      <c r="B48" s="126"/>
-      <c r="D48" s="126"/>
-    </row>
-    <row r="49" spans="2:4" ht="13.5" customHeight="1">
-      <c r="B49" s="126"/>
-      <c r="D49" s="126"/>
-    </row>
-    <row r="50" spans="2:4" ht="13.5" customHeight="1">
-      <c r="B50" s="126"/>
-      <c r="D50" s="126"/>
-    </row>
-    <row r="51" spans="2:4" ht="13.5" customHeight="1">
-      <c r="B51" s="126"/>
-      <c r="D51" s="126"/>
-    </row>
-    <row r="52" spans="2:4" ht="13.5" customHeight="1">
-      <c r="B52" s="126"/>
-      <c r="D52" s="126"/>
-    </row>
-    <row r="53" spans="2:4" ht="57" customHeight="1">
-      <c r="B53" s="126"/>
-      <c r="D53" s="126"/>
-    </row>
-  </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="I2:R2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:R3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:R4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:R5"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="L6:R6"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-  </mergeCells>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVM983061:WVZ983061 JA21:JN21 SW21:TJ21 ACS21:ADF21 AMO21:ANB21 AWK21:AWX21 BGG21:BGT21 BQC21:BQP21 BZY21:CAL21 CJU21:CKH21 CTQ21:CUD21 DDM21:DDZ21 DNI21:DNV21 DXE21:DXR21 EHA21:EHN21 EQW21:ERJ21 FAS21:FBF21 FKO21:FLB21 FUK21:FUX21 GEG21:GET21 GOC21:GOP21 GXY21:GYL21 HHU21:HIH21 HRQ21:HSD21 IBM21:IBZ21 ILI21:ILV21 IVE21:IVR21 JFA21:JFN21 JOW21:JPJ21 JYS21:JZF21 KIO21:KJB21 KSK21:KSX21 LCG21:LCT21 LMC21:LMP21 LVY21:LWL21 MFU21:MGH21 MPQ21:MQD21 MZM21:MZZ21 NJI21:NJV21 NTE21:NTR21 ODA21:ODN21 OMW21:ONJ21 OWS21:OXF21 PGO21:PHB21 PQK21:PQX21 QAG21:QAT21 QKC21:QKP21 QTY21:QUL21 RDU21:REH21 RNQ21:ROD21 RXM21:RXZ21 SHI21:SHV21 SRE21:SRR21 TBA21:TBN21 TKW21:TLJ21 TUS21:TVF21 UEO21:UFB21 UOK21:UOX21 UYG21:UYT21 VIC21:VIP21 VRY21:VSL21 WBU21:WCH21 WLQ21:WMD21 WVM21:WVZ21 E65557:R65557 JA65557:JN65557 SW65557:TJ65557 ACS65557:ADF65557 AMO65557:ANB65557 AWK65557:AWX65557 BGG65557:BGT65557 BQC65557:BQP65557 BZY65557:CAL65557 CJU65557:CKH65557 CTQ65557:CUD65557 DDM65557:DDZ65557 DNI65557:DNV65557 DXE65557:DXR65557 EHA65557:EHN65557 EQW65557:ERJ65557 FAS65557:FBF65557 FKO65557:FLB65557 FUK65557:FUX65557 GEG65557:GET65557 GOC65557:GOP65557 GXY65557:GYL65557 HHU65557:HIH65557 HRQ65557:HSD65557 IBM65557:IBZ65557 ILI65557:ILV65557 IVE65557:IVR65557 JFA65557:JFN65557 JOW65557:JPJ65557 JYS65557:JZF65557 KIO65557:KJB65557 KSK65557:KSX65557 LCG65557:LCT65557 LMC65557:LMP65557 LVY65557:LWL65557 MFU65557:MGH65557 MPQ65557:MQD65557 MZM65557:MZZ65557 NJI65557:NJV65557 NTE65557:NTR65557 ODA65557:ODN65557 OMW65557:ONJ65557 OWS65557:OXF65557 PGO65557:PHB65557 PQK65557:PQX65557 QAG65557:QAT65557 QKC65557:QKP65557 QTY65557:QUL65557 RDU65557:REH65557 RNQ65557:ROD65557 RXM65557:RXZ65557 SHI65557:SHV65557 SRE65557:SRR65557 TBA65557:TBN65557 TKW65557:TLJ65557 TUS65557:TVF65557 UEO65557:UFB65557 UOK65557:UOX65557 UYG65557:UYT65557 VIC65557:VIP65557 VRY65557:VSL65557 WBU65557:WCH65557 WLQ65557:WMD65557 WVM65557:WVZ65557 E131093:R131093 JA131093:JN131093 SW131093:TJ131093 ACS131093:ADF131093 AMO131093:ANB131093 AWK131093:AWX131093 BGG131093:BGT131093 BQC131093:BQP131093 BZY131093:CAL131093 CJU131093:CKH131093 CTQ131093:CUD131093 DDM131093:DDZ131093 DNI131093:DNV131093 DXE131093:DXR131093 EHA131093:EHN131093 EQW131093:ERJ131093 FAS131093:FBF131093 FKO131093:FLB131093 FUK131093:FUX131093 GEG131093:GET131093 GOC131093:GOP131093 GXY131093:GYL131093 HHU131093:HIH131093 HRQ131093:HSD131093 IBM131093:IBZ131093 ILI131093:ILV131093 IVE131093:IVR131093 JFA131093:JFN131093 JOW131093:JPJ131093 JYS131093:JZF131093 KIO131093:KJB131093 KSK131093:KSX131093 LCG131093:LCT131093 LMC131093:LMP131093 LVY131093:LWL131093 MFU131093:MGH131093 MPQ131093:MQD131093 MZM131093:MZZ131093 NJI131093:NJV131093 NTE131093:NTR131093 ODA131093:ODN131093 OMW131093:ONJ131093 OWS131093:OXF131093 PGO131093:PHB131093 PQK131093:PQX131093 QAG131093:QAT131093 QKC131093:QKP131093 QTY131093:QUL131093 RDU131093:REH131093 RNQ131093:ROD131093 RXM131093:RXZ131093 SHI131093:SHV131093 SRE131093:SRR131093 TBA131093:TBN131093 TKW131093:TLJ131093 TUS131093:TVF131093 UEO131093:UFB131093 UOK131093:UOX131093 UYG131093:UYT131093 VIC131093:VIP131093 VRY131093:VSL131093 WBU131093:WCH131093 WLQ131093:WMD131093 WVM131093:WVZ131093 E196629:R196629 JA196629:JN196629 SW196629:TJ196629 ACS196629:ADF196629 AMO196629:ANB196629 AWK196629:AWX196629 BGG196629:BGT196629 BQC196629:BQP196629 BZY196629:CAL196629 CJU196629:CKH196629 CTQ196629:CUD196629 DDM196629:DDZ196629 DNI196629:DNV196629 DXE196629:DXR196629 EHA196629:EHN196629 EQW196629:ERJ196629 FAS196629:FBF196629 FKO196629:FLB196629 FUK196629:FUX196629 GEG196629:GET196629 GOC196629:GOP196629 GXY196629:GYL196629 HHU196629:HIH196629 HRQ196629:HSD196629 IBM196629:IBZ196629 ILI196629:ILV196629 IVE196629:IVR196629 JFA196629:JFN196629 JOW196629:JPJ196629 JYS196629:JZF196629 KIO196629:KJB196629 KSK196629:KSX196629 LCG196629:LCT196629 LMC196629:LMP196629 LVY196629:LWL196629 MFU196629:MGH196629 MPQ196629:MQD196629 MZM196629:MZZ196629 NJI196629:NJV196629 NTE196629:NTR196629 ODA196629:ODN196629 OMW196629:ONJ196629 OWS196629:OXF196629 PGO196629:PHB196629 PQK196629:PQX196629 QAG196629:QAT196629 QKC196629:QKP196629 QTY196629:QUL196629 RDU196629:REH196629 RNQ196629:ROD196629 RXM196629:RXZ196629 SHI196629:SHV196629 SRE196629:SRR196629 TBA196629:TBN196629 TKW196629:TLJ196629 TUS196629:TVF196629 UEO196629:UFB196629 UOK196629:UOX196629 UYG196629:UYT196629 VIC196629:VIP196629 VRY196629:VSL196629 WBU196629:WCH196629 WLQ196629:WMD196629 WVM196629:WVZ196629 E262165:R262165 JA262165:JN262165 SW262165:TJ262165 ACS262165:ADF262165 AMO262165:ANB262165 AWK262165:AWX262165 BGG262165:BGT262165 BQC262165:BQP262165 BZY262165:CAL262165 CJU262165:CKH262165 CTQ262165:CUD262165 DDM262165:DDZ262165 DNI262165:DNV262165 DXE262165:DXR262165 EHA262165:EHN262165 EQW262165:ERJ262165 FAS262165:FBF262165 FKO262165:FLB262165 FUK262165:FUX262165 GEG262165:GET262165 GOC262165:GOP262165 GXY262165:GYL262165 HHU262165:HIH262165 HRQ262165:HSD262165 IBM262165:IBZ262165 ILI262165:ILV262165 IVE262165:IVR262165 JFA262165:JFN262165 JOW262165:JPJ262165 JYS262165:JZF262165 KIO262165:KJB262165 KSK262165:KSX262165 LCG262165:LCT262165 LMC262165:LMP262165 LVY262165:LWL262165 MFU262165:MGH262165 MPQ262165:MQD262165 MZM262165:MZZ262165 NJI262165:NJV262165 NTE262165:NTR262165 ODA262165:ODN262165 OMW262165:ONJ262165 OWS262165:OXF262165 PGO262165:PHB262165 PQK262165:PQX262165 QAG262165:QAT262165 QKC262165:QKP262165 QTY262165:QUL262165 RDU262165:REH262165 RNQ262165:ROD262165 RXM262165:RXZ262165 SHI262165:SHV262165 SRE262165:SRR262165 TBA262165:TBN262165 TKW262165:TLJ262165 TUS262165:TVF262165 UEO262165:UFB262165 UOK262165:UOX262165 UYG262165:UYT262165 VIC262165:VIP262165 VRY262165:VSL262165 WBU262165:WCH262165 WLQ262165:WMD262165 WVM262165:WVZ262165 E327701:R327701 JA327701:JN327701 SW327701:TJ327701 ACS327701:ADF327701 AMO327701:ANB327701 AWK327701:AWX327701 BGG327701:BGT327701 BQC327701:BQP327701 BZY327701:CAL327701 CJU327701:CKH327701 CTQ327701:CUD327701 DDM327701:DDZ327701 DNI327701:DNV327701 DXE327701:DXR327701 EHA327701:EHN327701 EQW327701:ERJ327701 FAS327701:FBF327701 FKO327701:FLB327701 FUK327701:FUX327701 GEG327701:GET327701 GOC327701:GOP327701 GXY327701:GYL327701 HHU327701:HIH327701 HRQ327701:HSD327701 IBM327701:IBZ327701 ILI327701:ILV327701 IVE327701:IVR327701 JFA327701:JFN327701 JOW327701:JPJ327701 JYS327701:JZF327701 KIO327701:KJB327701 KSK327701:KSX327701 LCG327701:LCT327701 LMC327701:LMP327701 LVY327701:LWL327701 MFU327701:MGH327701 MPQ327701:MQD327701 MZM327701:MZZ327701 NJI327701:NJV327701 NTE327701:NTR327701 ODA327701:ODN327701 OMW327701:ONJ327701 OWS327701:OXF327701 PGO327701:PHB327701 PQK327701:PQX327701 QAG327701:QAT327701 QKC327701:QKP327701 QTY327701:QUL327701 RDU327701:REH327701 RNQ327701:ROD327701 RXM327701:RXZ327701 SHI327701:SHV327701 SRE327701:SRR327701 TBA327701:TBN327701 TKW327701:TLJ327701 TUS327701:TVF327701 UEO327701:UFB327701 UOK327701:UOX327701 UYG327701:UYT327701 VIC327701:VIP327701 VRY327701:VSL327701 WBU327701:WCH327701 WLQ327701:WMD327701 WVM327701:WVZ327701 E393237:R393237 JA393237:JN393237 SW393237:TJ393237 ACS393237:ADF393237 AMO393237:ANB393237 AWK393237:AWX393237 BGG393237:BGT393237 BQC393237:BQP393237 BZY393237:CAL393237 CJU393237:CKH393237 CTQ393237:CUD393237 DDM393237:DDZ393237 DNI393237:DNV393237 DXE393237:DXR393237 EHA393237:EHN393237 EQW393237:ERJ393237 FAS393237:FBF393237 FKO393237:FLB393237 FUK393237:FUX393237 GEG393237:GET393237 GOC393237:GOP393237 GXY393237:GYL393237 HHU393237:HIH393237 HRQ393237:HSD393237 IBM393237:IBZ393237 ILI393237:ILV393237 IVE393237:IVR393237 JFA393237:JFN393237 JOW393237:JPJ393237 JYS393237:JZF393237 KIO393237:KJB393237 KSK393237:KSX393237 LCG393237:LCT393237 LMC393237:LMP393237 LVY393237:LWL393237 MFU393237:MGH393237 MPQ393237:MQD393237 MZM393237:MZZ393237 NJI393237:NJV393237 NTE393237:NTR393237 ODA393237:ODN393237 OMW393237:ONJ393237 OWS393237:OXF393237 PGO393237:PHB393237 PQK393237:PQX393237 QAG393237:QAT393237 QKC393237:QKP393237 QTY393237:QUL393237 RDU393237:REH393237 RNQ393237:ROD393237 RXM393237:RXZ393237 SHI393237:SHV393237 SRE393237:SRR393237 TBA393237:TBN393237 TKW393237:TLJ393237 TUS393237:TVF393237 UEO393237:UFB393237 UOK393237:UOX393237 UYG393237:UYT393237 VIC393237:VIP393237 VRY393237:VSL393237 WBU393237:WCH393237 WLQ393237:WMD393237 WVM393237:WVZ393237 E458773:R458773 JA458773:JN458773 SW458773:TJ458773 ACS458773:ADF458773 AMO458773:ANB458773 AWK458773:AWX458773 BGG458773:BGT458773 BQC458773:BQP458773 BZY458773:CAL458773 CJU458773:CKH458773 CTQ458773:CUD458773 DDM458773:DDZ458773 DNI458773:DNV458773 DXE458773:DXR458773 EHA458773:EHN458773 EQW458773:ERJ458773 FAS458773:FBF458773 FKO458773:FLB458773 FUK458773:FUX458773 GEG458773:GET458773 GOC458773:GOP458773 GXY458773:GYL458773 HHU458773:HIH458773 HRQ458773:HSD458773 IBM458773:IBZ458773 ILI458773:ILV458773 IVE458773:IVR458773 JFA458773:JFN458773 JOW458773:JPJ458773 JYS458773:JZF458773 KIO458773:KJB458773 KSK458773:KSX458773 LCG458773:LCT458773 LMC458773:LMP458773 LVY458773:LWL458773 MFU458773:MGH458773 MPQ458773:MQD458773 MZM458773:MZZ458773 NJI458773:NJV458773 NTE458773:NTR458773 ODA458773:ODN458773 OMW458773:ONJ458773 OWS458773:OXF458773 PGO458773:PHB458773 PQK458773:PQX458773 QAG458773:QAT458773 QKC458773:QKP458773 QTY458773:QUL458773 RDU458773:REH458773 RNQ458773:ROD458773 RXM458773:RXZ458773 SHI458773:SHV458773 SRE458773:SRR458773 TBA458773:TBN458773 TKW458773:TLJ458773 TUS458773:TVF458773 UEO458773:UFB458773 UOK458773:UOX458773 UYG458773:UYT458773 VIC458773:VIP458773 VRY458773:VSL458773 WBU458773:WCH458773 WLQ458773:WMD458773 WVM458773:WVZ458773 E524309:R524309 JA524309:JN524309 SW524309:TJ524309 ACS524309:ADF524309 AMO524309:ANB524309 AWK524309:AWX524309 BGG524309:BGT524309 BQC524309:BQP524309 BZY524309:CAL524309 CJU524309:CKH524309 CTQ524309:CUD524309 DDM524309:DDZ524309 DNI524309:DNV524309 DXE524309:DXR524309 EHA524309:EHN524309 EQW524309:ERJ524309 FAS524309:FBF524309 FKO524309:FLB524309 FUK524309:FUX524309 GEG524309:GET524309 GOC524309:GOP524309 GXY524309:GYL524309 HHU524309:HIH524309 HRQ524309:HSD524309 IBM524309:IBZ524309 ILI524309:ILV524309 IVE524309:IVR524309 JFA524309:JFN524309 JOW524309:JPJ524309 JYS524309:JZF524309 KIO524309:KJB524309 KSK524309:KSX524309 LCG524309:LCT524309 LMC524309:LMP524309 LVY524309:LWL524309 MFU524309:MGH524309 MPQ524309:MQD524309 MZM524309:MZZ524309 NJI524309:NJV524309 NTE524309:NTR524309 ODA524309:ODN524309 OMW524309:ONJ524309 OWS524309:OXF524309 PGO524309:PHB524309 PQK524309:PQX524309 QAG524309:QAT524309 QKC524309:QKP524309 QTY524309:QUL524309 RDU524309:REH524309 RNQ524309:ROD524309 RXM524309:RXZ524309 SHI524309:SHV524309 SRE524309:SRR524309 TBA524309:TBN524309 TKW524309:TLJ524309 TUS524309:TVF524309 UEO524309:UFB524309 UOK524309:UOX524309 UYG524309:UYT524309 VIC524309:VIP524309 VRY524309:VSL524309 WBU524309:WCH524309 WLQ524309:WMD524309 WVM524309:WVZ524309 E589845:R589845 JA589845:JN589845 SW589845:TJ589845 ACS589845:ADF589845 AMO589845:ANB589845 AWK589845:AWX589845 BGG589845:BGT589845 BQC589845:BQP589845 BZY589845:CAL589845 CJU589845:CKH589845 CTQ589845:CUD589845 DDM589845:DDZ589845 DNI589845:DNV589845 DXE589845:DXR589845 EHA589845:EHN589845 EQW589845:ERJ589845 FAS589845:FBF589845 FKO589845:FLB589845 FUK589845:FUX589845 GEG589845:GET589845 GOC589845:GOP589845 GXY589845:GYL589845 HHU589845:HIH589845 HRQ589845:HSD589845 IBM589845:IBZ589845 ILI589845:ILV589845 IVE589845:IVR589845 JFA589845:JFN589845 JOW589845:JPJ589845 JYS589845:JZF589845 KIO589845:KJB589845 KSK589845:KSX589845 LCG589845:LCT589845 LMC589845:LMP589845 LVY589845:LWL589845 MFU589845:MGH589845 MPQ589845:MQD589845 MZM589845:MZZ589845 NJI589845:NJV589845 NTE589845:NTR589845 ODA589845:ODN589845 OMW589845:ONJ589845 OWS589845:OXF589845 PGO589845:PHB589845 PQK589845:PQX589845 QAG589845:QAT589845 QKC589845:QKP589845 QTY589845:QUL589845 RDU589845:REH589845 RNQ589845:ROD589845 RXM589845:RXZ589845 SHI589845:SHV589845 SRE589845:SRR589845 TBA589845:TBN589845 TKW589845:TLJ589845 TUS589845:TVF589845 UEO589845:UFB589845 UOK589845:UOX589845 UYG589845:UYT589845 VIC589845:VIP589845 VRY589845:VSL589845 WBU589845:WCH589845 WLQ589845:WMD589845 WVM589845:WVZ589845 E655381:R655381 JA655381:JN655381 SW655381:TJ655381 ACS655381:ADF655381 AMO655381:ANB655381 AWK655381:AWX655381 BGG655381:BGT655381 BQC655381:BQP655381 BZY655381:CAL655381 CJU655381:CKH655381 CTQ655381:CUD655381 DDM655381:DDZ655381 DNI655381:DNV655381 DXE655381:DXR655381 EHA655381:EHN655381 EQW655381:ERJ655381 FAS655381:FBF655381 FKO655381:FLB655381 FUK655381:FUX655381 GEG655381:GET655381 GOC655381:GOP655381 GXY655381:GYL655381 HHU655381:HIH655381 HRQ655381:HSD655381 IBM655381:IBZ655381 ILI655381:ILV655381 IVE655381:IVR655381 JFA655381:JFN655381 JOW655381:JPJ655381 JYS655381:JZF655381 KIO655381:KJB655381 KSK655381:KSX655381 LCG655381:LCT655381 LMC655381:LMP655381 LVY655381:LWL655381 MFU655381:MGH655381 MPQ655381:MQD655381 MZM655381:MZZ655381 NJI655381:NJV655381 NTE655381:NTR655381 ODA655381:ODN655381 OMW655381:ONJ655381 OWS655381:OXF655381 PGO655381:PHB655381 PQK655381:PQX655381 QAG655381:QAT655381 QKC655381:QKP655381 QTY655381:QUL655381 RDU655381:REH655381 RNQ655381:ROD655381 RXM655381:RXZ655381 SHI655381:SHV655381 SRE655381:SRR655381 TBA655381:TBN655381 TKW655381:TLJ655381 TUS655381:TVF655381 UEO655381:UFB655381 UOK655381:UOX655381 UYG655381:UYT655381 VIC655381:VIP655381 VRY655381:VSL655381 WBU655381:WCH655381 WLQ655381:WMD655381 WVM655381:WVZ655381 E720917:R720917 JA720917:JN720917 SW720917:TJ720917 ACS720917:ADF720917 AMO720917:ANB720917 AWK720917:AWX720917 BGG720917:BGT720917 BQC720917:BQP720917 BZY720917:CAL720917 CJU720917:CKH720917 CTQ720917:CUD720917 DDM720917:DDZ720917 DNI720917:DNV720917 DXE720917:DXR720917 EHA720917:EHN720917 EQW720917:ERJ720917 FAS720917:FBF720917 FKO720917:FLB720917 FUK720917:FUX720917 GEG720917:GET720917 GOC720917:GOP720917 GXY720917:GYL720917 HHU720917:HIH720917 HRQ720917:HSD720917 IBM720917:IBZ720917 ILI720917:ILV720917 IVE720917:IVR720917 JFA720917:JFN720917 JOW720917:JPJ720917 JYS720917:JZF720917 KIO720917:KJB720917 KSK720917:KSX720917 LCG720917:LCT720917 LMC720917:LMP720917 LVY720917:LWL720917 MFU720917:MGH720917 MPQ720917:MQD720917 MZM720917:MZZ720917 NJI720917:NJV720917 NTE720917:NTR720917 ODA720917:ODN720917 OMW720917:ONJ720917 OWS720917:OXF720917 PGO720917:PHB720917 PQK720917:PQX720917 QAG720917:QAT720917 QKC720917:QKP720917 QTY720917:QUL720917 RDU720917:REH720917 RNQ720917:ROD720917 RXM720917:RXZ720917 SHI720917:SHV720917 SRE720917:SRR720917 TBA720917:TBN720917 TKW720917:TLJ720917 TUS720917:TVF720917 UEO720917:UFB720917 UOK720917:UOX720917 UYG720917:UYT720917 VIC720917:VIP720917 VRY720917:VSL720917 WBU720917:WCH720917 WLQ720917:WMD720917 WVM720917:WVZ720917 E786453:R786453 JA786453:JN786453 SW786453:TJ786453 ACS786453:ADF786453 AMO786453:ANB786453 AWK786453:AWX786453 BGG786453:BGT786453 BQC786453:BQP786453 BZY786453:CAL786453 CJU786453:CKH786453 CTQ786453:CUD786453 DDM786453:DDZ786453 DNI786453:DNV786453 DXE786453:DXR786453 EHA786453:EHN786453 EQW786453:ERJ786453 FAS786453:FBF786453 FKO786453:FLB786453 FUK786453:FUX786453 GEG786453:GET786453 GOC786453:GOP786453 GXY786453:GYL786453 HHU786453:HIH786453 HRQ786453:HSD786453 IBM786453:IBZ786453 ILI786453:ILV786453 IVE786453:IVR786453 JFA786453:JFN786453 JOW786453:JPJ786453 JYS786453:JZF786453 KIO786453:KJB786453 KSK786453:KSX786453 LCG786453:LCT786453 LMC786453:LMP786453 LVY786453:LWL786453 MFU786453:MGH786453 MPQ786453:MQD786453 MZM786453:MZZ786453 NJI786453:NJV786453 NTE786453:NTR786453 ODA786453:ODN786453 OMW786453:ONJ786453 OWS786453:OXF786453 PGO786453:PHB786453 PQK786453:PQX786453 QAG786453:QAT786453 QKC786453:QKP786453 QTY786453:QUL786453 RDU786453:REH786453 RNQ786453:ROD786453 RXM786453:RXZ786453 SHI786453:SHV786453 SRE786453:SRR786453 TBA786453:TBN786453 TKW786453:TLJ786453 TUS786453:TVF786453 UEO786453:UFB786453 UOK786453:UOX786453 UYG786453:UYT786453 VIC786453:VIP786453 VRY786453:VSL786453 WBU786453:WCH786453 WLQ786453:WMD786453 WVM786453:WVZ786453 E851989:R851989 JA851989:JN851989 SW851989:TJ851989 ACS851989:ADF851989 AMO851989:ANB851989 AWK851989:AWX851989 BGG851989:BGT851989 BQC851989:BQP851989 BZY851989:CAL851989 CJU851989:CKH851989 CTQ851989:CUD851989 DDM851989:DDZ851989 DNI851989:DNV851989 DXE851989:DXR851989 EHA851989:EHN851989 EQW851989:ERJ851989 FAS851989:FBF851989 FKO851989:FLB851989 FUK851989:FUX851989 GEG851989:GET851989 GOC851989:GOP851989 GXY851989:GYL851989 HHU851989:HIH851989 HRQ851989:HSD851989 IBM851989:IBZ851989 ILI851989:ILV851989 IVE851989:IVR851989 JFA851989:JFN851989 JOW851989:JPJ851989 JYS851989:JZF851989 KIO851989:KJB851989 KSK851989:KSX851989 LCG851989:LCT851989 LMC851989:LMP851989 LVY851989:LWL851989 MFU851989:MGH851989 MPQ851989:MQD851989 MZM851989:MZZ851989 NJI851989:NJV851989 NTE851989:NTR851989 ODA851989:ODN851989 OMW851989:ONJ851989 OWS851989:OXF851989 PGO851989:PHB851989 PQK851989:PQX851989 QAG851989:QAT851989 QKC851989:QKP851989 QTY851989:QUL851989 RDU851989:REH851989 RNQ851989:ROD851989 RXM851989:RXZ851989 SHI851989:SHV851989 SRE851989:SRR851989 TBA851989:TBN851989 TKW851989:TLJ851989 TUS851989:TVF851989 UEO851989:UFB851989 UOK851989:UOX851989 UYG851989:UYT851989 VIC851989:VIP851989 VRY851989:VSL851989 WBU851989:WCH851989 WLQ851989:WMD851989 WVM851989:WVZ851989 E917525:R917525 JA917525:JN917525 SW917525:TJ917525 ACS917525:ADF917525 AMO917525:ANB917525 AWK917525:AWX917525 BGG917525:BGT917525 BQC917525:BQP917525 BZY917525:CAL917525 CJU917525:CKH917525 CTQ917525:CUD917525 DDM917525:DDZ917525 DNI917525:DNV917525 DXE917525:DXR917525 EHA917525:EHN917525 EQW917525:ERJ917525 FAS917525:FBF917525 FKO917525:FLB917525 FUK917525:FUX917525 GEG917525:GET917525 GOC917525:GOP917525 GXY917525:GYL917525 HHU917525:HIH917525 HRQ917525:HSD917525 IBM917525:IBZ917525 ILI917525:ILV917525 IVE917525:IVR917525 JFA917525:JFN917525 JOW917525:JPJ917525 JYS917525:JZF917525 KIO917525:KJB917525 KSK917525:KSX917525 LCG917525:LCT917525 LMC917525:LMP917525 LVY917525:LWL917525 MFU917525:MGH917525 MPQ917525:MQD917525 MZM917525:MZZ917525 NJI917525:NJV917525 NTE917525:NTR917525 ODA917525:ODN917525 OMW917525:ONJ917525 OWS917525:OXF917525 PGO917525:PHB917525 PQK917525:PQX917525 QAG917525:QAT917525 QKC917525:QKP917525 QTY917525:QUL917525 RDU917525:REH917525 RNQ917525:ROD917525 RXM917525:RXZ917525 SHI917525:SHV917525 SRE917525:SRR917525 TBA917525:TBN917525 TKW917525:TLJ917525 TUS917525:TVF917525 UEO917525:UFB917525 UOK917525:UOX917525 UYG917525:UYT917525 VIC917525:VIP917525 VRY917525:VSL917525 WBU917525:WCH917525 WLQ917525:WMD917525 WVM917525:WVZ917525 E983061:R983061 JA983061:JN983061 SW983061:TJ983061 ACS983061:ADF983061 AMO983061:ANB983061 AWK983061:AWX983061 BGG983061:BGT983061 BQC983061:BQP983061 BZY983061:CAL983061 CJU983061:CKH983061 CTQ983061:CUD983061 DDM983061:DDZ983061 DNI983061:DNV983061 DXE983061:DXR983061 EHA983061:EHN983061 EQW983061:ERJ983061 FAS983061:FBF983061 FKO983061:FLB983061 FUK983061:FUX983061 GEG983061:GET983061 GOC983061:GOP983061 GXY983061:GYL983061 HHU983061:HIH983061 HRQ983061:HSD983061 IBM983061:IBZ983061 ILI983061:ILV983061 IVE983061:IVR983061 JFA983061:JFN983061 JOW983061:JPJ983061 JYS983061:JZF983061 KIO983061:KJB983061 KSK983061:KSX983061 LCG983061:LCT983061 LMC983061:LMP983061 LVY983061:LWL983061 MFU983061:MGH983061 MPQ983061:MQD983061 MZM983061:MZZ983061 NJI983061:NJV983061 NTE983061:NTR983061 ODA983061:ODN983061 OMW983061:ONJ983061 OWS983061:OXF983061 PGO983061:PHB983061 PQK983061:PQX983061 QAG983061:QAT983061 QKC983061:QKP983061 QTY983061:QUL983061 RDU983061:REH983061 RNQ983061:ROD983061 RXM983061:RXZ983061 SHI983061:SHV983061 SRE983061:SRR983061 TBA983061:TBN983061 TKW983061:TLJ983061 TUS983061:TVF983061 UEO983061:UFB983061 UOK983061:UOX983061 UYG983061:UYT983061 VIC983061:VIP983061 VRY983061:VSL983061 WBU983061:WCH983061 WLQ983061:WMD983061 E21:R21">
-      <formula1>"P,F, "</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVM983060:WVZ983060 JA20:JN20 SW20:TJ20 ACS20:ADF20 AMO20:ANB20 AWK20:AWX20 BGG20:BGT20 BQC20:BQP20 BZY20:CAL20 CJU20:CKH20 CTQ20:CUD20 DDM20:DDZ20 DNI20:DNV20 DXE20:DXR20 EHA20:EHN20 EQW20:ERJ20 FAS20:FBF20 FKO20:FLB20 FUK20:FUX20 GEG20:GET20 GOC20:GOP20 GXY20:GYL20 HHU20:HIH20 HRQ20:HSD20 IBM20:IBZ20 ILI20:ILV20 IVE20:IVR20 JFA20:JFN20 JOW20:JPJ20 JYS20:JZF20 KIO20:KJB20 KSK20:KSX20 LCG20:LCT20 LMC20:LMP20 LVY20:LWL20 MFU20:MGH20 MPQ20:MQD20 MZM20:MZZ20 NJI20:NJV20 NTE20:NTR20 ODA20:ODN20 OMW20:ONJ20 OWS20:OXF20 PGO20:PHB20 PQK20:PQX20 QAG20:QAT20 QKC20:QKP20 QTY20:QUL20 RDU20:REH20 RNQ20:ROD20 RXM20:RXZ20 SHI20:SHV20 SRE20:SRR20 TBA20:TBN20 TKW20:TLJ20 TUS20:TVF20 UEO20:UFB20 UOK20:UOX20 UYG20:UYT20 VIC20:VIP20 VRY20:VSL20 WBU20:WCH20 WLQ20:WMD20 WVM20:WVZ20 E65556:R65556 JA65556:JN65556 SW65556:TJ65556 ACS65556:ADF65556 AMO65556:ANB65556 AWK65556:AWX65556 BGG65556:BGT65556 BQC65556:BQP65556 BZY65556:CAL65556 CJU65556:CKH65556 CTQ65556:CUD65556 DDM65556:DDZ65556 DNI65556:DNV65556 DXE65556:DXR65556 EHA65556:EHN65556 EQW65556:ERJ65556 FAS65556:FBF65556 FKO65556:FLB65556 FUK65556:FUX65556 GEG65556:GET65556 GOC65556:GOP65556 GXY65556:GYL65556 HHU65556:HIH65556 HRQ65556:HSD65556 IBM65556:IBZ65556 ILI65556:ILV65556 IVE65556:IVR65556 JFA65556:JFN65556 JOW65556:JPJ65556 JYS65556:JZF65556 KIO65556:KJB65556 KSK65556:KSX65556 LCG65556:LCT65556 LMC65556:LMP65556 LVY65556:LWL65556 MFU65556:MGH65556 MPQ65556:MQD65556 MZM65556:MZZ65556 NJI65556:NJV65556 NTE65556:NTR65556 ODA65556:ODN65556 OMW65556:ONJ65556 OWS65556:OXF65556 PGO65556:PHB65556 PQK65556:PQX65556 QAG65556:QAT65556 QKC65556:QKP65556 QTY65556:QUL65556 RDU65556:REH65556 RNQ65556:ROD65556 RXM65556:RXZ65556 SHI65556:SHV65556 SRE65556:SRR65556 TBA65556:TBN65556 TKW65556:TLJ65556 TUS65556:TVF65556 UEO65556:UFB65556 UOK65556:UOX65556 UYG65556:UYT65556 VIC65556:VIP65556 VRY65556:VSL65556 WBU65556:WCH65556 WLQ65556:WMD65556 WVM65556:WVZ65556 E131092:R131092 JA131092:JN131092 SW131092:TJ131092 ACS131092:ADF131092 AMO131092:ANB131092 AWK131092:AWX131092 BGG131092:BGT131092 BQC131092:BQP131092 BZY131092:CAL131092 CJU131092:CKH131092 CTQ131092:CUD131092 DDM131092:DDZ131092 DNI131092:DNV131092 DXE131092:DXR131092 EHA131092:EHN131092 EQW131092:ERJ131092 FAS131092:FBF131092 FKO131092:FLB131092 FUK131092:FUX131092 GEG131092:GET131092 GOC131092:GOP131092 GXY131092:GYL131092 HHU131092:HIH131092 HRQ131092:HSD131092 IBM131092:IBZ131092 ILI131092:ILV131092 IVE131092:IVR131092 JFA131092:JFN131092 JOW131092:JPJ131092 JYS131092:JZF131092 KIO131092:KJB131092 KSK131092:KSX131092 LCG131092:LCT131092 LMC131092:LMP131092 LVY131092:LWL131092 MFU131092:MGH131092 MPQ131092:MQD131092 MZM131092:MZZ131092 NJI131092:NJV131092 NTE131092:NTR131092 ODA131092:ODN131092 OMW131092:ONJ131092 OWS131092:OXF131092 PGO131092:PHB131092 PQK131092:PQX131092 QAG131092:QAT131092 QKC131092:QKP131092 QTY131092:QUL131092 RDU131092:REH131092 RNQ131092:ROD131092 RXM131092:RXZ131092 SHI131092:SHV131092 SRE131092:SRR131092 TBA131092:TBN131092 TKW131092:TLJ131092 TUS131092:TVF131092 UEO131092:UFB131092 UOK131092:UOX131092 UYG131092:UYT131092 VIC131092:VIP131092 VRY131092:VSL131092 WBU131092:WCH131092 WLQ131092:WMD131092 WVM131092:WVZ131092 E196628:R196628 JA196628:JN196628 SW196628:TJ196628 ACS196628:ADF196628 AMO196628:ANB196628 AWK196628:AWX196628 BGG196628:BGT196628 BQC196628:BQP196628 BZY196628:CAL196628 CJU196628:CKH196628 CTQ196628:CUD196628 DDM196628:DDZ196628 DNI196628:DNV196628 DXE196628:DXR196628 EHA196628:EHN196628 EQW196628:ERJ196628 FAS196628:FBF196628 FKO196628:FLB196628 FUK196628:FUX196628 GEG196628:GET196628 GOC196628:GOP196628 GXY196628:GYL196628 HHU196628:HIH196628 HRQ196628:HSD196628 IBM196628:IBZ196628 ILI196628:ILV196628 IVE196628:IVR196628 JFA196628:JFN196628 JOW196628:JPJ196628 JYS196628:JZF196628 KIO196628:KJB196628 KSK196628:KSX196628 LCG196628:LCT196628 LMC196628:LMP196628 LVY196628:LWL196628 MFU196628:MGH196628 MPQ196628:MQD196628 MZM196628:MZZ196628 NJI196628:NJV196628 NTE196628:NTR196628 ODA196628:ODN196628 OMW196628:ONJ196628 OWS196628:OXF196628 PGO196628:PHB196628 PQK196628:PQX196628 QAG196628:QAT196628 QKC196628:QKP196628 QTY196628:QUL196628 RDU196628:REH196628 RNQ196628:ROD196628 RXM196628:RXZ196628 SHI196628:SHV196628 SRE196628:SRR196628 TBA196628:TBN196628 TKW196628:TLJ196628 TUS196628:TVF196628 UEO196628:UFB196628 UOK196628:UOX196628 UYG196628:UYT196628 VIC196628:VIP196628 VRY196628:VSL196628 WBU196628:WCH196628 WLQ196628:WMD196628 WVM196628:WVZ196628 E262164:R262164 JA262164:JN262164 SW262164:TJ262164 ACS262164:ADF262164 AMO262164:ANB262164 AWK262164:AWX262164 BGG262164:BGT262164 BQC262164:BQP262164 BZY262164:CAL262164 CJU262164:CKH262164 CTQ262164:CUD262164 DDM262164:DDZ262164 DNI262164:DNV262164 DXE262164:DXR262164 EHA262164:EHN262164 EQW262164:ERJ262164 FAS262164:FBF262164 FKO262164:FLB262164 FUK262164:FUX262164 GEG262164:GET262164 GOC262164:GOP262164 GXY262164:GYL262164 HHU262164:HIH262164 HRQ262164:HSD262164 IBM262164:IBZ262164 ILI262164:ILV262164 IVE262164:IVR262164 JFA262164:JFN262164 JOW262164:JPJ262164 JYS262164:JZF262164 KIO262164:KJB262164 KSK262164:KSX262164 LCG262164:LCT262164 LMC262164:LMP262164 LVY262164:LWL262164 MFU262164:MGH262164 MPQ262164:MQD262164 MZM262164:MZZ262164 NJI262164:NJV262164 NTE262164:NTR262164 ODA262164:ODN262164 OMW262164:ONJ262164 OWS262164:OXF262164 PGO262164:PHB262164 PQK262164:PQX262164 QAG262164:QAT262164 QKC262164:QKP262164 QTY262164:QUL262164 RDU262164:REH262164 RNQ262164:ROD262164 RXM262164:RXZ262164 SHI262164:SHV262164 SRE262164:SRR262164 TBA262164:TBN262164 TKW262164:TLJ262164 TUS262164:TVF262164 UEO262164:UFB262164 UOK262164:UOX262164 UYG262164:UYT262164 VIC262164:VIP262164 VRY262164:VSL262164 WBU262164:WCH262164 WLQ262164:WMD262164 WVM262164:WVZ262164 E327700:R327700 JA327700:JN327700 SW327700:TJ327700 ACS327700:ADF327700 AMO327700:ANB327700 AWK327700:AWX327700 BGG327700:BGT327700 BQC327700:BQP327700 BZY327700:CAL327700 CJU327700:CKH327700 CTQ327700:CUD327700 DDM327700:DDZ327700 DNI327700:DNV327700 DXE327700:DXR327700 EHA327700:EHN327700 EQW327700:ERJ327700 FAS327700:FBF327700 FKO327700:FLB327700 FUK327700:FUX327700 GEG327700:GET327700 GOC327700:GOP327700 GXY327700:GYL327700 HHU327700:HIH327700 HRQ327700:HSD327700 IBM327700:IBZ327700 ILI327700:ILV327700 IVE327700:IVR327700 JFA327700:JFN327700 JOW327700:JPJ327700 JYS327700:JZF327700 KIO327700:KJB327700 KSK327700:KSX327700 LCG327700:LCT327700 LMC327700:LMP327700 LVY327700:LWL327700 MFU327700:MGH327700 MPQ327700:MQD327700 MZM327700:MZZ327700 NJI327700:NJV327700 NTE327700:NTR327700 ODA327700:ODN327700 OMW327700:ONJ327700 OWS327700:OXF327700 PGO327700:PHB327700 PQK327700:PQX327700 QAG327700:QAT327700 QKC327700:QKP327700 QTY327700:QUL327700 RDU327700:REH327700 RNQ327700:ROD327700 RXM327700:RXZ327700 SHI327700:SHV327700 SRE327700:SRR327700 TBA327700:TBN327700 TKW327700:TLJ327700 TUS327700:TVF327700 UEO327700:UFB327700 UOK327700:UOX327700 UYG327700:UYT327700 VIC327700:VIP327700 VRY327700:VSL327700 WBU327700:WCH327700 WLQ327700:WMD327700 WVM327700:WVZ327700 E393236:R393236 JA393236:JN393236 SW393236:TJ393236 ACS393236:ADF393236 AMO393236:ANB393236 AWK393236:AWX393236 BGG393236:BGT393236 BQC393236:BQP393236 BZY393236:CAL393236 CJU393236:CKH393236 CTQ393236:CUD393236 DDM393236:DDZ393236 DNI393236:DNV393236 DXE393236:DXR393236 EHA393236:EHN393236 EQW393236:ERJ393236 FAS393236:FBF393236 FKO393236:FLB393236 FUK393236:FUX393236 GEG393236:GET393236 GOC393236:GOP393236 GXY393236:GYL393236 HHU393236:HIH393236 HRQ393236:HSD393236 IBM393236:IBZ393236 ILI393236:ILV393236 IVE393236:IVR393236 JFA393236:JFN393236 JOW393236:JPJ393236 JYS393236:JZF393236 KIO393236:KJB393236 KSK393236:KSX393236 LCG393236:LCT393236 LMC393236:LMP393236 LVY393236:LWL393236 MFU393236:MGH393236 MPQ393236:MQD393236 MZM393236:MZZ393236 NJI393236:NJV393236 NTE393236:NTR393236 ODA393236:ODN393236 OMW393236:ONJ393236 OWS393236:OXF393236 PGO393236:PHB393236 PQK393236:PQX393236 QAG393236:QAT393236 QKC393236:QKP393236 QTY393236:QUL393236 RDU393236:REH393236 RNQ393236:ROD393236 RXM393236:RXZ393236 SHI393236:SHV393236 SRE393236:SRR393236 TBA393236:TBN393236 TKW393236:TLJ393236 TUS393236:TVF393236 UEO393236:UFB393236 UOK393236:UOX393236 UYG393236:UYT393236 VIC393236:VIP393236 VRY393236:VSL393236 WBU393236:WCH393236 WLQ393236:WMD393236 WVM393236:WVZ393236 E458772:R458772 JA458772:JN458772 SW458772:TJ458772 ACS458772:ADF458772 AMO458772:ANB458772 AWK458772:AWX458772 BGG458772:BGT458772 BQC458772:BQP458772 BZY458772:CAL458772 CJU458772:CKH458772 CTQ458772:CUD458772 DDM458772:DDZ458772 DNI458772:DNV458772 DXE458772:DXR458772 EHA458772:EHN458772 EQW458772:ERJ458772 FAS458772:FBF458772 FKO458772:FLB458772 FUK458772:FUX458772 GEG458772:GET458772 GOC458772:GOP458772 GXY458772:GYL458772 HHU458772:HIH458772 HRQ458772:HSD458772 IBM458772:IBZ458772 ILI458772:ILV458772 IVE458772:IVR458772 JFA458772:JFN458772 JOW458772:JPJ458772 JYS458772:JZF458772 KIO458772:KJB458772 KSK458772:KSX458772 LCG458772:LCT458772 LMC458772:LMP458772 LVY458772:LWL458772 MFU458772:MGH458772 MPQ458772:MQD458772 MZM458772:MZZ458772 NJI458772:NJV458772 NTE458772:NTR458772 ODA458772:ODN458772 OMW458772:ONJ458772 OWS458772:OXF458772 PGO458772:PHB458772 PQK458772:PQX458772 QAG458772:QAT458772 QKC458772:QKP458772 QTY458772:QUL458772 RDU458772:REH458772 RNQ458772:ROD458772 RXM458772:RXZ458772 SHI458772:SHV458772 SRE458772:SRR458772 TBA458772:TBN458772 TKW458772:TLJ458772 TUS458772:TVF458772 UEO458772:UFB458772 UOK458772:UOX458772 UYG458772:UYT458772 VIC458772:VIP458772 VRY458772:VSL458772 WBU458772:WCH458772 WLQ458772:WMD458772 WVM458772:WVZ458772 E524308:R524308 JA524308:JN524308 SW524308:TJ524308 ACS524308:ADF524308 AMO524308:ANB524308 AWK524308:AWX524308 BGG524308:BGT524308 BQC524308:BQP524308 BZY524308:CAL524308 CJU524308:CKH524308 CTQ524308:CUD524308 DDM524308:DDZ524308 DNI524308:DNV524308 DXE524308:DXR524308 EHA524308:EHN524308 EQW524308:ERJ524308 FAS524308:FBF524308 FKO524308:FLB524308 FUK524308:FUX524308 GEG524308:GET524308 GOC524308:GOP524308 GXY524308:GYL524308 HHU524308:HIH524308 HRQ524308:HSD524308 IBM524308:IBZ524308 ILI524308:ILV524308 IVE524308:IVR524308 JFA524308:JFN524308 JOW524308:JPJ524308 JYS524308:JZF524308 KIO524308:KJB524308 KSK524308:KSX524308 LCG524308:LCT524308 LMC524308:LMP524308 LVY524308:LWL524308 MFU524308:MGH524308 MPQ524308:MQD524308 MZM524308:MZZ524308 NJI524308:NJV524308 NTE524308:NTR524308 ODA524308:ODN524308 OMW524308:ONJ524308 OWS524308:OXF524308 PGO524308:PHB524308 PQK524308:PQX524308 QAG524308:QAT524308 QKC524308:QKP524308 QTY524308:QUL524308 RDU524308:REH524308 RNQ524308:ROD524308 RXM524308:RXZ524308 SHI524308:SHV524308 SRE524308:SRR524308 TBA524308:TBN524308 TKW524308:TLJ524308 TUS524308:TVF524308 UEO524308:UFB524308 UOK524308:UOX524308 UYG524308:UYT524308 VIC524308:VIP524308 VRY524308:VSL524308 WBU524308:WCH524308 WLQ524308:WMD524308 WVM524308:WVZ524308 E589844:R589844 JA589844:JN589844 SW589844:TJ589844 ACS589844:ADF589844 AMO589844:ANB589844 AWK589844:AWX589844 BGG589844:BGT589844 BQC589844:BQP589844 BZY589844:CAL589844 CJU589844:CKH589844 CTQ589844:CUD589844 DDM589844:DDZ589844 DNI589844:DNV589844 DXE589844:DXR589844 EHA589844:EHN589844 EQW589844:ERJ589844 FAS589844:FBF589844 FKO589844:FLB589844 FUK589844:FUX589844 GEG589844:GET589844 GOC589844:GOP589844 GXY589844:GYL589844 HHU589844:HIH589844 HRQ589844:HSD589844 IBM589844:IBZ589844 ILI589844:ILV589844 IVE589844:IVR589844 JFA589844:JFN589844 JOW589844:JPJ589844 JYS589844:JZF589844 KIO589844:KJB589844 KSK589844:KSX589844 LCG589844:LCT589844 LMC589844:LMP589844 LVY589844:LWL589844 MFU589844:MGH589844 MPQ589844:MQD589844 MZM589844:MZZ589844 NJI589844:NJV589844 NTE589844:NTR589844 ODA589844:ODN589844 OMW589844:ONJ589844 OWS589844:OXF589844 PGO589844:PHB589844 PQK589844:PQX589844 QAG589844:QAT589844 QKC589844:QKP589844 QTY589844:QUL589844 RDU589844:REH589844 RNQ589844:ROD589844 RXM589844:RXZ589844 SHI589844:SHV589844 SRE589844:SRR589844 TBA589844:TBN589844 TKW589844:TLJ589844 TUS589844:TVF589844 UEO589844:UFB589844 UOK589844:UOX589844 UYG589844:UYT589844 VIC589844:VIP589844 VRY589844:VSL589844 WBU589844:WCH589844 WLQ589844:WMD589844 WVM589844:WVZ589844 E655380:R655380 JA655380:JN655380 SW655380:TJ655380 ACS655380:ADF655380 AMO655380:ANB655380 AWK655380:AWX655380 BGG655380:BGT655380 BQC655380:BQP655380 BZY655380:CAL655380 CJU655380:CKH655380 CTQ655380:CUD655380 DDM655380:DDZ655380 DNI655380:DNV655380 DXE655380:DXR655380 EHA655380:EHN655380 EQW655380:ERJ655380 FAS655380:FBF655380 FKO655380:FLB655380 FUK655380:FUX655380 GEG655380:GET655380 GOC655380:GOP655380 GXY655380:GYL655380 HHU655380:HIH655380 HRQ655380:HSD655380 IBM655380:IBZ655380 ILI655380:ILV655380 IVE655380:IVR655380 JFA655380:JFN655380 JOW655380:JPJ655380 JYS655380:JZF655380 KIO655380:KJB655380 KSK655380:KSX655380 LCG655380:LCT655380 LMC655380:LMP655380 LVY655380:LWL655380 MFU655380:MGH655380 MPQ655380:MQD655380 MZM655380:MZZ655380 NJI655380:NJV655380 NTE655380:NTR655380 ODA655380:ODN655380 OMW655380:ONJ655380 OWS655380:OXF655380 PGO655380:PHB655380 PQK655380:PQX655380 QAG655380:QAT655380 QKC655380:QKP655380 QTY655380:QUL655380 RDU655380:REH655380 RNQ655380:ROD655380 RXM655380:RXZ655380 SHI655380:SHV655380 SRE655380:SRR655380 TBA655380:TBN655380 TKW655380:TLJ655380 TUS655380:TVF655380 UEO655380:UFB655380 UOK655380:UOX655380 UYG655380:UYT655380 VIC655380:VIP655380 VRY655380:VSL655380 WBU655380:WCH655380 WLQ655380:WMD655380 WVM655380:WVZ655380 E720916:R720916 JA720916:JN720916 SW720916:TJ720916 ACS720916:ADF720916 AMO720916:ANB720916 AWK720916:AWX720916 BGG720916:BGT720916 BQC720916:BQP720916 BZY720916:CAL720916 CJU720916:CKH720916 CTQ720916:CUD720916 DDM720916:DDZ720916 DNI720916:DNV720916 DXE720916:DXR720916 EHA720916:EHN720916 EQW720916:ERJ720916 FAS720916:FBF720916 FKO720916:FLB720916 FUK720916:FUX720916 GEG720916:GET720916 GOC720916:GOP720916 GXY720916:GYL720916 HHU720916:HIH720916 HRQ720916:HSD720916 IBM720916:IBZ720916 ILI720916:ILV720916 IVE720916:IVR720916 JFA720916:JFN720916 JOW720916:JPJ720916 JYS720916:JZF720916 KIO720916:KJB720916 KSK720916:KSX720916 LCG720916:LCT720916 LMC720916:LMP720916 LVY720916:LWL720916 MFU720916:MGH720916 MPQ720916:MQD720916 MZM720916:MZZ720916 NJI720916:NJV720916 NTE720916:NTR720916 ODA720916:ODN720916 OMW720916:ONJ720916 OWS720916:OXF720916 PGO720916:PHB720916 PQK720916:PQX720916 QAG720916:QAT720916 QKC720916:QKP720916 QTY720916:QUL720916 RDU720916:REH720916 RNQ720916:ROD720916 RXM720916:RXZ720916 SHI720916:SHV720916 SRE720916:SRR720916 TBA720916:TBN720916 TKW720916:TLJ720916 TUS720916:TVF720916 UEO720916:UFB720916 UOK720916:UOX720916 UYG720916:UYT720916 VIC720916:VIP720916 VRY720916:VSL720916 WBU720916:WCH720916 WLQ720916:WMD720916 WVM720916:WVZ720916 E786452:R786452 JA786452:JN786452 SW786452:TJ786452 ACS786452:ADF786452 AMO786452:ANB786452 AWK786452:AWX786452 BGG786452:BGT786452 BQC786452:BQP786452 BZY786452:CAL786452 CJU786452:CKH786452 CTQ786452:CUD786452 DDM786452:DDZ786452 DNI786452:DNV786452 DXE786452:DXR786452 EHA786452:EHN786452 EQW786452:ERJ786452 FAS786452:FBF786452 FKO786452:FLB786452 FUK786452:FUX786452 GEG786452:GET786452 GOC786452:GOP786452 GXY786452:GYL786452 HHU786452:HIH786452 HRQ786452:HSD786452 IBM786452:IBZ786452 ILI786452:ILV786452 IVE786452:IVR786452 JFA786452:JFN786452 JOW786452:JPJ786452 JYS786452:JZF786452 KIO786452:KJB786452 KSK786452:KSX786452 LCG786452:LCT786452 LMC786452:LMP786452 LVY786452:LWL786452 MFU786452:MGH786452 MPQ786452:MQD786452 MZM786452:MZZ786452 NJI786452:NJV786452 NTE786452:NTR786452 ODA786452:ODN786452 OMW786452:ONJ786452 OWS786452:OXF786452 PGO786452:PHB786452 PQK786452:PQX786452 QAG786452:QAT786452 QKC786452:QKP786452 QTY786452:QUL786452 RDU786452:REH786452 RNQ786452:ROD786452 RXM786452:RXZ786452 SHI786452:SHV786452 SRE786452:SRR786452 TBA786452:TBN786452 TKW786452:TLJ786452 TUS786452:TVF786452 UEO786452:UFB786452 UOK786452:UOX786452 UYG786452:UYT786452 VIC786452:VIP786452 VRY786452:VSL786452 WBU786452:WCH786452 WLQ786452:WMD786452 WVM786452:WVZ786452 E851988:R851988 JA851988:JN851988 SW851988:TJ851988 ACS851988:ADF851988 AMO851988:ANB851988 AWK851988:AWX851988 BGG851988:BGT851988 BQC851988:BQP851988 BZY851988:CAL851988 CJU851988:CKH851988 CTQ851988:CUD851988 DDM851988:DDZ851988 DNI851988:DNV851988 DXE851988:DXR851988 EHA851988:EHN851988 EQW851988:ERJ851988 FAS851988:FBF851988 FKO851988:FLB851988 FUK851988:FUX851988 GEG851988:GET851988 GOC851988:GOP851988 GXY851988:GYL851988 HHU851988:HIH851988 HRQ851988:HSD851988 IBM851988:IBZ851988 ILI851988:ILV851988 IVE851988:IVR851988 JFA851988:JFN851988 JOW851988:JPJ851988 JYS851988:JZF851988 KIO851988:KJB851988 KSK851988:KSX851988 LCG851988:LCT851988 LMC851988:LMP851988 LVY851988:LWL851988 MFU851988:MGH851988 MPQ851988:MQD851988 MZM851988:MZZ851988 NJI851988:NJV851988 NTE851988:NTR851988 ODA851988:ODN851988 OMW851988:ONJ851988 OWS851988:OXF851988 PGO851988:PHB851988 PQK851988:PQX851988 QAG851988:QAT851988 QKC851988:QKP851988 QTY851988:QUL851988 RDU851988:REH851988 RNQ851988:ROD851988 RXM851988:RXZ851988 SHI851988:SHV851988 SRE851988:SRR851988 TBA851988:TBN851988 TKW851988:TLJ851988 TUS851988:TVF851988 UEO851988:UFB851988 UOK851988:UOX851988 UYG851988:UYT851988 VIC851988:VIP851988 VRY851988:VSL851988 WBU851988:WCH851988 WLQ851988:WMD851988 WVM851988:WVZ851988 E917524:R917524 JA917524:JN917524 SW917524:TJ917524 ACS917524:ADF917524 AMO917524:ANB917524 AWK917524:AWX917524 BGG917524:BGT917524 BQC917524:BQP917524 BZY917524:CAL917524 CJU917524:CKH917524 CTQ917524:CUD917524 DDM917524:DDZ917524 DNI917524:DNV917524 DXE917524:DXR917524 EHA917524:EHN917524 EQW917524:ERJ917524 FAS917524:FBF917524 FKO917524:FLB917524 FUK917524:FUX917524 GEG917524:GET917524 GOC917524:GOP917524 GXY917524:GYL917524 HHU917524:HIH917524 HRQ917524:HSD917524 IBM917524:IBZ917524 ILI917524:ILV917524 IVE917524:IVR917524 JFA917524:JFN917524 JOW917524:JPJ917524 JYS917524:JZF917524 KIO917524:KJB917524 KSK917524:KSX917524 LCG917524:LCT917524 LMC917524:LMP917524 LVY917524:LWL917524 MFU917524:MGH917524 MPQ917524:MQD917524 MZM917524:MZZ917524 NJI917524:NJV917524 NTE917524:NTR917524 ODA917524:ODN917524 OMW917524:ONJ917524 OWS917524:OXF917524 PGO917524:PHB917524 PQK917524:PQX917524 QAG917524:QAT917524 QKC917524:QKP917524 QTY917524:QUL917524 RDU917524:REH917524 RNQ917524:ROD917524 RXM917524:RXZ917524 SHI917524:SHV917524 SRE917524:SRR917524 TBA917524:TBN917524 TKW917524:TLJ917524 TUS917524:TVF917524 UEO917524:UFB917524 UOK917524:UOX917524 UYG917524:UYT917524 VIC917524:VIP917524 VRY917524:VSL917524 WBU917524:WCH917524 WLQ917524:WMD917524 WVM917524:WVZ917524 E983060:R983060 JA983060:JN983060 SW983060:TJ983060 ACS983060:ADF983060 AMO983060:ANB983060 AWK983060:AWX983060 BGG983060:BGT983060 BQC983060:BQP983060 BZY983060:CAL983060 CJU983060:CKH983060 CTQ983060:CUD983060 DDM983060:DDZ983060 DNI983060:DNV983060 DXE983060:DXR983060 EHA983060:EHN983060 EQW983060:ERJ983060 FAS983060:FBF983060 FKO983060:FLB983060 FUK983060:FUX983060 GEG983060:GET983060 GOC983060:GOP983060 GXY983060:GYL983060 HHU983060:HIH983060 HRQ983060:HSD983060 IBM983060:IBZ983060 ILI983060:ILV983060 IVE983060:IVR983060 JFA983060:JFN983060 JOW983060:JPJ983060 JYS983060:JZF983060 KIO983060:KJB983060 KSK983060:KSX983060 LCG983060:LCT983060 LMC983060:LMP983060 LVY983060:LWL983060 MFU983060:MGH983060 MPQ983060:MQD983060 MZM983060:MZZ983060 NJI983060:NJV983060 NTE983060:NTR983060 ODA983060:ODN983060 OMW983060:ONJ983060 OWS983060:OXF983060 PGO983060:PHB983060 PQK983060:PQX983060 QAG983060:QAT983060 QKC983060:QKP983060 QTY983060:QUL983060 RDU983060:REH983060 RNQ983060:ROD983060 RXM983060:RXZ983060 SHI983060:SHV983060 SRE983060:SRR983060 TBA983060:TBN983060 TKW983060:TLJ983060 TUS983060:TVF983060 UEO983060:UFB983060 UOK983060:UOX983060 UYG983060:UYT983060 VIC983060:VIP983060 VRY983060:VSL983060 WBU983060:WCH983060 WLQ983060:WMD983060 E20:R20">
-      <formula1>"N,A,B, "</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:K10 JA9:JC10 SW9:SY10 ACS9:ACU10 AMO9:AMQ10 AWK9:AWM10 BGG9:BGI10 BQC9:BQE10 BZY9:CAA10 CJU9:CJW10 CTQ9:CTS10 DDM9:DDO10 DNI9:DNK10 DXE9:DXG10 EHA9:EHC10 EQW9:EQY10 FAS9:FAU10 FKO9:FKQ10 FUK9:FUM10 GEG9:GEI10 GOC9:GOE10 GXY9:GYA10 HHU9:HHW10 HRQ9:HRS10 IBM9:IBO10 ILI9:ILK10 IVE9:IVG10 JFA9:JFC10 JOW9:JOY10 JYS9:JYU10 KIO9:KIQ10 KSK9:KSM10 LCG9:LCI10 LMC9:LME10 LVY9:LWA10 MFU9:MFW10 MPQ9:MPS10 MZM9:MZO10 NJI9:NJK10 NTE9:NTG10 ODA9:ODC10 OMW9:OMY10 OWS9:OWU10 PGO9:PGQ10 PQK9:PQM10 QAG9:QAI10 QKC9:QKE10 QTY9:QUA10 RDU9:RDW10 RNQ9:RNS10 RXM9:RXO10 SHI9:SHK10 SRE9:SRG10 TBA9:TBC10 TKW9:TKY10 TUS9:TUU10 UEO9:UEQ10 UOK9:UOM10 UYG9:UYI10 VIC9:VIE10 VRY9:VSA10 WBU9:WBW10 WLQ9:WLS10 WVM9:WVO10 E65544:G65545 JA65544:JC65545 SW65544:SY65545 ACS65544:ACU65545 AMO65544:AMQ65545 AWK65544:AWM65545 BGG65544:BGI65545 BQC65544:BQE65545 BZY65544:CAA65545 CJU65544:CJW65545 CTQ65544:CTS65545 DDM65544:DDO65545 DNI65544:DNK65545 DXE65544:DXG65545 EHA65544:EHC65545 EQW65544:EQY65545 FAS65544:FAU65545 FKO65544:FKQ65545 FUK65544:FUM65545 GEG65544:GEI65545 GOC65544:GOE65545 GXY65544:GYA65545 HHU65544:HHW65545 HRQ65544:HRS65545 IBM65544:IBO65545 ILI65544:ILK65545 IVE65544:IVG65545 JFA65544:JFC65545 JOW65544:JOY65545 JYS65544:JYU65545 KIO65544:KIQ65545 KSK65544:KSM65545 LCG65544:LCI65545 LMC65544:LME65545 LVY65544:LWA65545 MFU65544:MFW65545 MPQ65544:MPS65545 MZM65544:MZO65545 NJI65544:NJK65545 NTE65544:NTG65545 ODA65544:ODC65545 OMW65544:OMY65545 OWS65544:OWU65545 PGO65544:PGQ65545 PQK65544:PQM65545 QAG65544:QAI65545 QKC65544:QKE65545 QTY65544:QUA65545 RDU65544:RDW65545 RNQ65544:RNS65545 RXM65544:RXO65545 SHI65544:SHK65545 SRE65544:SRG65545 TBA65544:TBC65545 TKW65544:TKY65545 TUS65544:TUU65545 UEO65544:UEQ65545 UOK65544:UOM65545 UYG65544:UYI65545 VIC65544:VIE65545 VRY65544:VSA65545 WBU65544:WBW65545 WLQ65544:WLS65545 WVM65544:WVO65545 E131080:G131081 JA131080:JC131081 SW131080:SY131081 ACS131080:ACU131081 AMO131080:AMQ131081 AWK131080:AWM131081 BGG131080:BGI131081 BQC131080:BQE131081 BZY131080:CAA131081 CJU131080:CJW131081 CTQ131080:CTS131081 DDM131080:DDO131081 DNI131080:DNK131081 DXE131080:DXG131081 EHA131080:EHC131081 EQW131080:EQY131081 FAS131080:FAU131081 FKO131080:FKQ131081 FUK131080:FUM131081 GEG131080:GEI131081 GOC131080:GOE131081 GXY131080:GYA131081 HHU131080:HHW131081 HRQ131080:HRS131081 IBM131080:IBO131081 ILI131080:ILK131081 IVE131080:IVG131081 JFA131080:JFC131081 JOW131080:JOY131081 JYS131080:JYU131081 KIO131080:KIQ131081 KSK131080:KSM131081 LCG131080:LCI131081 LMC131080:LME131081 LVY131080:LWA131081 MFU131080:MFW131081 MPQ131080:MPS131081 MZM131080:MZO131081 NJI131080:NJK131081 NTE131080:NTG131081 ODA131080:ODC131081 OMW131080:OMY131081 OWS131080:OWU131081 PGO131080:PGQ131081 PQK131080:PQM131081 QAG131080:QAI131081 QKC131080:QKE131081 QTY131080:QUA131081 RDU131080:RDW131081 RNQ131080:RNS131081 RXM131080:RXO131081 SHI131080:SHK131081 SRE131080:SRG131081 TBA131080:TBC131081 TKW131080:TKY131081 TUS131080:TUU131081 UEO131080:UEQ131081 UOK131080:UOM131081 UYG131080:UYI131081 VIC131080:VIE131081 VRY131080:VSA131081 WBU131080:WBW131081 WLQ131080:WLS131081 WVM131080:WVO131081 E196616:G196617 JA196616:JC196617 SW196616:SY196617 ACS196616:ACU196617 AMO196616:AMQ196617 AWK196616:AWM196617 BGG196616:BGI196617 BQC196616:BQE196617 BZY196616:CAA196617 CJU196616:CJW196617 CTQ196616:CTS196617 DDM196616:DDO196617 DNI196616:DNK196617 DXE196616:DXG196617 EHA196616:EHC196617 EQW196616:EQY196617 FAS196616:FAU196617 FKO196616:FKQ196617 FUK196616:FUM196617 GEG196616:GEI196617 GOC196616:GOE196617 GXY196616:GYA196617 HHU196616:HHW196617 HRQ196616:HRS196617 IBM196616:IBO196617 ILI196616:ILK196617 IVE196616:IVG196617 JFA196616:JFC196617 JOW196616:JOY196617 JYS196616:JYU196617 KIO196616:KIQ196617 KSK196616:KSM196617 LCG196616:LCI196617 LMC196616:LME196617 LVY196616:LWA196617 MFU196616:MFW196617 MPQ196616:MPS196617 MZM196616:MZO196617 NJI196616:NJK196617 NTE196616:NTG196617 ODA196616:ODC196617 OMW196616:OMY196617 OWS196616:OWU196617 PGO196616:PGQ196617 PQK196616:PQM196617 QAG196616:QAI196617 QKC196616:QKE196617 QTY196616:QUA196617 RDU196616:RDW196617 RNQ196616:RNS196617 RXM196616:RXO196617 SHI196616:SHK196617 SRE196616:SRG196617 TBA196616:TBC196617 TKW196616:TKY196617 TUS196616:TUU196617 UEO196616:UEQ196617 UOK196616:UOM196617 UYG196616:UYI196617 VIC196616:VIE196617 VRY196616:VSA196617 WBU196616:WBW196617 WLQ196616:WLS196617 WVM196616:WVO196617 E262152:G262153 JA262152:JC262153 SW262152:SY262153 ACS262152:ACU262153 AMO262152:AMQ262153 AWK262152:AWM262153 BGG262152:BGI262153 BQC262152:BQE262153 BZY262152:CAA262153 CJU262152:CJW262153 CTQ262152:CTS262153 DDM262152:DDO262153 DNI262152:DNK262153 DXE262152:DXG262153 EHA262152:EHC262153 EQW262152:EQY262153 FAS262152:FAU262153 FKO262152:FKQ262153 FUK262152:FUM262153 GEG262152:GEI262153 GOC262152:GOE262153 GXY262152:GYA262153 HHU262152:HHW262153 HRQ262152:HRS262153 IBM262152:IBO262153 ILI262152:ILK262153 IVE262152:IVG262153 JFA262152:JFC262153 JOW262152:JOY262153 JYS262152:JYU262153 KIO262152:KIQ262153 KSK262152:KSM262153 LCG262152:LCI262153 LMC262152:LME262153 LVY262152:LWA262153 MFU262152:MFW262153 MPQ262152:MPS262153 MZM262152:MZO262153 NJI262152:NJK262153 NTE262152:NTG262153 ODA262152:ODC262153 OMW262152:OMY262153 OWS262152:OWU262153 PGO262152:PGQ262153 PQK262152:PQM262153 QAG262152:QAI262153 QKC262152:QKE262153 QTY262152:QUA262153 RDU262152:RDW262153 RNQ262152:RNS262153 RXM262152:RXO262153 SHI262152:SHK262153 SRE262152:SRG262153 TBA262152:TBC262153 TKW262152:TKY262153 TUS262152:TUU262153 UEO262152:UEQ262153 UOK262152:UOM262153 UYG262152:UYI262153 VIC262152:VIE262153 VRY262152:VSA262153 WBU262152:WBW262153 WLQ262152:WLS262153 WVM262152:WVO262153 E327688:G327689 JA327688:JC327689 SW327688:SY327689 ACS327688:ACU327689 AMO327688:AMQ327689 AWK327688:AWM327689 BGG327688:BGI327689 BQC327688:BQE327689 BZY327688:CAA327689 CJU327688:CJW327689 CTQ327688:CTS327689 DDM327688:DDO327689 DNI327688:DNK327689 DXE327688:DXG327689 EHA327688:EHC327689 EQW327688:EQY327689 FAS327688:FAU327689 FKO327688:FKQ327689 FUK327688:FUM327689 GEG327688:GEI327689 GOC327688:GOE327689 GXY327688:GYA327689 HHU327688:HHW327689 HRQ327688:HRS327689 IBM327688:IBO327689 ILI327688:ILK327689 IVE327688:IVG327689 JFA327688:JFC327689 JOW327688:JOY327689 JYS327688:JYU327689 KIO327688:KIQ327689 KSK327688:KSM327689 LCG327688:LCI327689 LMC327688:LME327689 LVY327688:LWA327689 MFU327688:MFW327689 MPQ327688:MPS327689 MZM327688:MZO327689 NJI327688:NJK327689 NTE327688:NTG327689 ODA327688:ODC327689 OMW327688:OMY327689 OWS327688:OWU327689 PGO327688:PGQ327689 PQK327688:PQM327689 QAG327688:QAI327689 QKC327688:QKE327689 QTY327688:QUA327689 RDU327688:RDW327689 RNQ327688:RNS327689 RXM327688:RXO327689 SHI327688:SHK327689 SRE327688:SRG327689 TBA327688:TBC327689 TKW327688:TKY327689 TUS327688:TUU327689 UEO327688:UEQ327689 UOK327688:UOM327689 UYG327688:UYI327689 VIC327688:VIE327689 VRY327688:VSA327689 WBU327688:WBW327689 WLQ327688:WLS327689 WVM327688:WVO327689 E393224:G393225 JA393224:JC393225 SW393224:SY393225 ACS393224:ACU393225 AMO393224:AMQ393225 AWK393224:AWM393225 BGG393224:BGI393225 BQC393224:BQE393225 BZY393224:CAA393225 CJU393224:CJW393225 CTQ393224:CTS393225 DDM393224:DDO393225 DNI393224:DNK393225 DXE393224:DXG393225 EHA393224:EHC393225 EQW393224:EQY393225 FAS393224:FAU393225 FKO393224:FKQ393225 FUK393224:FUM393225 GEG393224:GEI393225 GOC393224:GOE393225 GXY393224:GYA393225 HHU393224:HHW393225 HRQ393224:HRS393225 IBM393224:IBO393225 ILI393224:ILK393225 IVE393224:IVG393225 JFA393224:JFC393225 JOW393224:JOY393225 JYS393224:JYU393225 KIO393224:KIQ393225 KSK393224:KSM393225 LCG393224:LCI393225 LMC393224:LME393225 LVY393224:LWA393225 MFU393224:MFW393225 MPQ393224:MPS393225 MZM393224:MZO393225 NJI393224:NJK393225 NTE393224:NTG393225 ODA393224:ODC393225 OMW393224:OMY393225 OWS393224:OWU393225 PGO393224:PGQ393225 PQK393224:PQM393225 QAG393224:QAI393225 QKC393224:QKE393225 QTY393224:QUA393225 RDU393224:RDW393225 RNQ393224:RNS393225 RXM393224:RXO393225 SHI393224:SHK393225 SRE393224:SRG393225 TBA393224:TBC393225 TKW393224:TKY393225 TUS393224:TUU393225 UEO393224:UEQ393225 UOK393224:UOM393225 UYG393224:UYI393225 VIC393224:VIE393225 VRY393224:VSA393225 WBU393224:WBW393225 WLQ393224:WLS393225 WVM393224:WVO393225 E458760:G458761 JA458760:JC458761 SW458760:SY458761 ACS458760:ACU458761 AMO458760:AMQ458761 AWK458760:AWM458761 BGG458760:BGI458761 BQC458760:BQE458761 BZY458760:CAA458761 CJU458760:CJW458761 CTQ458760:CTS458761 DDM458760:DDO458761 DNI458760:DNK458761 DXE458760:DXG458761 EHA458760:EHC458761 EQW458760:EQY458761 FAS458760:FAU458761 FKO458760:FKQ458761 FUK458760:FUM458761 GEG458760:GEI458761 GOC458760:GOE458761 GXY458760:GYA458761 HHU458760:HHW458761 HRQ458760:HRS458761 IBM458760:IBO458761 ILI458760:ILK458761 IVE458760:IVG458761 JFA458760:JFC458761 JOW458760:JOY458761 JYS458760:JYU458761 KIO458760:KIQ458761 KSK458760:KSM458761 LCG458760:LCI458761 LMC458760:LME458761 LVY458760:LWA458761 MFU458760:MFW458761 MPQ458760:MPS458761 MZM458760:MZO458761 NJI458760:NJK458761 NTE458760:NTG458761 ODA458760:ODC458761 OMW458760:OMY458761 OWS458760:OWU458761 PGO458760:PGQ458761 PQK458760:PQM458761 QAG458760:QAI458761 QKC458760:QKE458761 QTY458760:QUA458761 RDU458760:RDW458761 RNQ458760:RNS458761 RXM458760:RXO458761 SHI458760:SHK458761 SRE458760:SRG458761 TBA458760:TBC458761 TKW458760:TKY458761 TUS458760:TUU458761 UEO458760:UEQ458761 UOK458760:UOM458761 UYG458760:UYI458761 VIC458760:VIE458761 VRY458760:VSA458761 WBU458760:WBW458761 WLQ458760:WLS458761 WVM458760:WVO458761 E524296:G524297 JA524296:JC524297 SW524296:SY524297 ACS524296:ACU524297 AMO524296:AMQ524297 AWK524296:AWM524297 BGG524296:BGI524297 BQC524296:BQE524297 BZY524296:CAA524297 CJU524296:CJW524297 CTQ524296:CTS524297 DDM524296:DDO524297 DNI524296:DNK524297 DXE524296:DXG524297 EHA524296:EHC524297 EQW524296:EQY524297 FAS524296:FAU524297 FKO524296:FKQ524297 FUK524296:FUM524297 GEG524296:GEI524297 GOC524296:GOE524297 GXY524296:GYA524297 HHU524296:HHW524297 HRQ524296:HRS524297 IBM524296:IBO524297 ILI524296:ILK524297 IVE524296:IVG524297 JFA524296:JFC524297 JOW524296:JOY524297 JYS524296:JYU524297 KIO524296:KIQ524297 KSK524296:KSM524297 LCG524296:LCI524297 LMC524296:LME524297 LVY524296:LWA524297 MFU524296:MFW524297 MPQ524296:MPS524297 MZM524296:MZO524297 NJI524296:NJK524297 NTE524296:NTG524297 ODA524296:ODC524297 OMW524296:OMY524297 OWS524296:OWU524297 PGO524296:PGQ524297 PQK524296:PQM524297 QAG524296:QAI524297 QKC524296:QKE524297 QTY524296:QUA524297 RDU524296:RDW524297 RNQ524296:RNS524297 RXM524296:RXO524297 SHI524296:SHK524297 SRE524296:SRG524297 TBA524296:TBC524297 TKW524296:TKY524297 TUS524296:TUU524297 UEO524296:UEQ524297 UOK524296:UOM524297 UYG524296:UYI524297 VIC524296:VIE524297 VRY524296:VSA524297 WBU524296:WBW524297 WLQ524296:WLS524297 WVM524296:WVO524297 E589832:G589833 JA589832:JC589833 SW589832:SY589833 ACS589832:ACU589833 AMO589832:AMQ589833 AWK589832:AWM589833 BGG589832:BGI589833 BQC589832:BQE589833 BZY589832:CAA589833 CJU589832:CJW589833 CTQ589832:CTS589833 DDM589832:DDO589833 DNI589832:DNK589833 DXE589832:DXG589833 EHA589832:EHC589833 EQW589832:EQY589833 FAS589832:FAU589833 FKO589832:FKQ589833 FUK589832:FUM589833 GEG589832:GEI589833 GOC589832:GOE589833 GXY589832:GYA589833 HHU589832:HHW589833 HRQ589832:HRS589833 IBM589832:IBO589833 ILI589832:ILK589833 IVE589832:IVG589833 JFA589832:JFC589833 JOW589832:JOY589833 JYS589832:JYU589833 KIO589832:KIQ589833 KSK589832:KSM589833 LCG589832:LCI589833 LMC589832:LME589833 LVY589832:LWA589833 MFU589832:MFW589833 MPQ589832:MPS589833 MZM589832:MZO589833 NJI589832:NJK589833 NTE589832:NTG589833 ODA589832:ODC589833 OMW589832:OMY589833 OWS589832:OWU589833 PGO589832:PGQ589833 PQK589832:PQM589833 QAG589832:QAI589833 QKC589832:QKE589833 QTY589832:QUA589833 RDU589832:RDW589833 RNQ589832:RNS589833 RXM589832:RXO589833 SHI589832:SHK589833 SRE589832:SRG589833 TBA589832:TBC589833 TKW589832:TKY589833 TUS589832:TUU589833 UEO589832:UEQ589833 UOK589832:UOM589833 UYG589832:UYI589833 VIC589832:VIE589833 VRY589832:VSA589833 WBU589832:WBW589833 WLQ589832:WLS589833 WVM589832:WVO589833 E655368:G655369 JA655368:JC655369 SW655368:SY655369 ACS655368:ACU655369 AMO655368:AMQ655369 AWK655368:AWM655369 BGG655368:BGI655369 BQC655368:BQE655369 BZY655368:CAA655369 CJU655368:CJW655369 CTQ655368:CTS655369 DDM655368:DDO655369 DNI655368:DNK655369 DXE655368:DXG655369 EHA655368:EHC655369 EQW655368:EQY655369 FAS655368:FAU655369 FKO655368:FKQ655369 FUK655368:FUM655369 GEG655368:GEI655369 GOC655368:GOE655369 GXY655368:GYA655369 HHU655368:HHW655369 HRQ655368:HRS655369 IBM655368:IBO655369 ILI655368:ILK655369 IVE655368:IVG655369 JFA655368:JFC655369 JOW655368:JOY655369 JYS655368:JYU655369 KIO655368:KIQ655369 KSK655368:KSM655369 LCG655368:LCI655369 LMC655368:LME655369 LVY655368:LWA655369 MFU655368:MFW655369 MPQ655368:MPS655369 MZM655368:MZO655369 NJI655368:NJK655369 NTE655368:NTG655369 ODA655368:ODC655369 OMW655368:OMY655369 OWS655368:OWU655369 PGO655368:PGQ655369 PQK655368:PQM655369 QAG655368:QAI655369 QKC655368:QKE655369 QTY655368:QUA655369 RDU655368:RDW655369 RNQ655368:RNS655369 RXM655368:RXO655369 SHI655368:SHK655369 SRE655368:SRG655369 TBA655368:TBC655369 TKW655368:TKY655369 TUS655368:TUU655369 UEO655368:UEQ655369 UOK655368:UOM655369 UYG655368:UYI655369 VIC655368:VIE655369 VRY655368:VSA655369 WBU655368:WBW655369 WLQ655368:WLS655369 WVM655368:WVO655369 E720904:G720905 JA720904:JC720905 SW720904:SY720905 ACS720904:ACU720905 AMO720904:AMQ720905 AWK720904:AWM720905 BGG720904:BGI720905 BQC720904:BQE720905 BZY720904:CAA720905 CJU720904:CJW720905 CTQ720904:CTS720905 DDM720904:DDO720905 DNI720904:DNK720905 DXE720904:DXG720905 EHA720904:EHC720905 EQW720904:EQY720905 FAS720904:FAU720905 FKO720904:FKQ720905 FUK720904:FUM720905 GEG720904:GEI720905 GOC720904:GOE720905 GXY720904:GYA720905 HHU720904:HHW720905 HRQ720904:HRS720905 IBM720904:IBO720905 ILI720904:ILK720905 IVE720904:IVG720905 JFA720904:JFC720905 JOW720904:JOY720905 JYS720904:JYU720905 KIO720904:KIQ720905 KSK720904:KSM720905 LCG720904:LCI720905 LMC720904:LME720905 LVY720904:LWA720905 MFU720904:MFW720905 MPQ720904:MPS720905 MZM720904:MZO720905 NJI720904:NJK720905 NTE720904:NTG720905 ODA720904:ODC720905 OMW720904:OMY720905 OWS720904:OWU720905 PGO720904:PGQ720905 PQK720904:PQM720905 QAG720904:QAI720905 QKC720904:QKE720905 QTY720904:QUA720905 RDU720904:RDW720905 RNQ720904:RNS720905 RXM720904:RXO720905 SHI720904:SHK720905 SRE720904:SRG720905 TBA720904:TBC720905 TKW720904:TKY720905 TUS720904:TUU720905 UEO720904:UEQ720905 UOK720904:UOM720905 UYG720904:UYI720905 VIC720904:VIE720905 VRY720904:VSA720905 WBU720904:WBW720905 WLQ720904:WLS720905 WVM720904:WVO720905 E786440:G786441 JA786440:JC786441 SW786440:SY786441 ACS786440:ACU786441 AMO786440:AMQ786441 AWK786440:AWM786441 BGG786440:BGI786441 BQC786440:BQE786441 BZY786440:CAA786441 CJU786440:CJW786441 CTQ786440:CTS786441 DDM786440:DDO786441 DNI786440:DNK786441 DXE786440:DXG786441 EHA786440:EHC786441 EQW786440:EQY786441 FAS786440:FAU786441 FKO786440:FKQ786441 FUK786440:FUM786441 GEG786440:GEI786441 GOC786440:GOE786441 GXY786440:GYA786441 HHU786440:HHW786441 HRQ786440:HRS786441 IBM786440:IBO786441 ILI786440:ILK786441 IVE786440:IVG786441 JFA786440:JFC786441 JOW786440:JOY786441 JYS786440:JYU786441 KIO786440:KIQ786441 KSK786440:KSM786441 LCG786440:LCI786441 LMC786440:LME786441 LVY786440:LWA786441 MFU786440:MFW786441 MPQ786440:MPS786441 MZM786440:MZO786441 NJI786440:NJK786441 NTE786440:NTG786441 ODA786440:ODC786441 OMW786440:OMY786441 OWS786440:OWU786441 PGO786440:PGQ786441 PQK786440:PQM786441 QAG786440:QAI786441 QKC786440:QKE786441 QTY786440:QUA786441 RDU786440:RDW786441 RNQ786440:RNS786441 RXM786440:RXO786441 SHI786440:SHK786441 SRE786440:SRG786441 TBA786440:TBC786441 TKW786440:TKY786441 TUS786440:TUU786441 UEO786440:UEQ786441 UOK786440:UOM786441 UYG786440:UYI786441 VIC786440:VIE786441 VRY786440:VSA786441 WBU786440:WBW786441 WLQ786440:WLS786441 WVM786440:WVO786441 E851976:G851977 JA851976:JC851977 SW851976:SY851977 ACS851976:ACU851977 AMO851976:AMQ851977 AWK851976:AWM851977 BGG851976:BGI851977 BQC851976:BQE851977 BZY851976:CAA851977 CJU851976:CJW851977 CTQ851976:CTS851977 DDM851976:DDO851977 DNI851976:DNK851977 DXE851976:DXG851977 EHA851976:EHC851977 EQW851976:EQY851977 FAS851976:FAU851977 FKO851976:FKQ851977 FUK851976:FUM851977 GEG851976:GEI851977 GOC851976:GOE851977 GXY851976:GYA851977 HHU851976:HHW851977 HRQ851976:HRS851977 IBM851976:IBO851977 ILI851976:ILK851977 IVE851976:IVG851977 JFA851976:JFC851977 JOW851976:JOY851977 JYS851976:JYU851977 KIO851976:KIQ851977 KSK851976:KSM851977 LCG851976:LCI851977 LMC851976:LME851977 LVY851976:LWA851977 MFU851976:MFW851977 MPQ851976:MPS851977 MZM851976:MZO851977 NJI851976:NJK851977 NTE851976:NTG851977 ODA851976:ODC851977 OMW851976:OMY851977 OWS851976:OWU851977 PGO851976:PGQ851977 PQK851976:PQM851977 QAG851976:QAI851977 QKC851976:QKE851977 QTY851976:QUA851977 RDU851976:RDW851977 RNQ851976:RNS851977 RXM851976:RXO851977 SHI851976:SHK851977 SRE851976:SRG851977 TBA851976:TBC851977 TKW851976:TKY851977 TUS851976:TUU851977 UEO851976:UEQ851977 UOK851976:UOM851977 UYG851976:UYI851977 VIC851976:VIE851977 VRY851976:VSA851977 WBU851976:WBW851977 WLQ851976:WLS851977 WVM851976:WVO851977 E917512:G917513 JA917512:JC917513 SW917512:SY917513 ACS917512:ACU917513 AMO917512:AMQ917513 AWK917512:AWM917513 BGG917512:BGI917513 BQC917512:BQE917513 BZY917512:CAA917513 CJU917512:CJW917513 CTQ917512:CTS917513 DDM917512:DDO917513 DNI917512:DNK917513 DXE917512:DXG917513 EHA917512:EHC917513 EQW917512:EQY917513 FAS917512:FAU917513 FKO917512:FKQ917513 FUK917512:FUM917513 GEG917512:GEI917513 GOC917512:GOE917513 GXY917512:GYA917513 HHU917512:HHW917513 HRQ917512:HRS917513 IBM917512:IBO917513 ILI917512:ILK917513 IVE917512:IVG917513 JFA917512:JFC917513 JOW917512:JOY917513 JYS917512:JYU917513 KIO917512:KIQ917513 KSK917512:KSM917513 LCG917512:LCI917513 LMC917512:LME917513 LVY917512:LWA917513 MFU917512:MFW917513 MPQ917512:MPS917513 MZM917512:MZO917513 NJI917512:NJK917513 NTE917512:NTG917513 ODA917512:ODC917513 OMW917512:OMY917513 OWS917512:OWU917513 PGO917512:PGQ917513 PQK917512:PQM917513 QAG917512:QAI917513 QKC917512:QKE917513 QTY917512:QUA917513 RDU917512:RDW917513 RNQ917512:RNS917513 RXM917512:RXO917513 SHI917512:SHK917513 SRE917512:SRG917513 TBA917512:TBC917513 TKW917512:TKY917513 TUS917512:TUU917513 UEO917512:UEQ917513 UOK917512:UOM917513 UYG917512:UYI917513 VIC917512:VIE917513 VRY917512:VSA917513 WBU917512:WBW917513 WLQ917512:WLS917513 WVM917512:WVO917513 E983048:G983049 JA983048:JC983049 SW983048:SY983049 ACS983048:ACU983049 AMO983048:AMQ983049 AWK983048:AWM983049 BGG983048:BGI983049 BQC983048:BQE983049 BZY983048:CAA983049 CJU983048:CJW983049 CTQ983048:CTS983049 DDM983048:DDO983049 DNI983048:DNK983049 DXE983048:DXG983049 EHA983048:EHC983049 EQW983048:EQY983049 FAS983048:FAU983049 FKO983048:FKQ983049 FUK983048:FUM983049 GEG983048:GEI983049 GOC983048:GOE983049 GXY983048:GYA983049 HHU983048:HHW983049 HRQ983048:HRS983049 IBM983048:IBO983049 ILI983048:ILK983049 IVE983048:IVG983049 JFA983048:JFC983049 JOW983048:JOY983049 JYS983048:JYU983049 KIO983048:KIQ983049 KSK983048:KSM983049 LCG983048:LCI983049 LMC983048:LME983049 LVY983048:LWA983049 MFU983048:MFW983049 MPQ983048:MPS983049 MZM983048:MZO983049 NJI983048:NJK983049 NTE983048:NTG983049 ODA983048:ODC983049 OMW983048:OMY983049 OWS983048:OWU983049 PGO983048:PGQ983049 PQK983048:PQM983049 QAG983048:QAI983049 QKC983048:QKE983049 QTY983048:QUA983049 RDU983048:RDW983049 RNQ983048:RNS983049 RXM983048:RXO983049 SHI983048:SHK983049 SRE983048:SRG983049 TBA983048:TBC983049 TKW983048:TKY983049 TUS983048:TUU983049 UEO983048:UEQ983049 UOK983048:UOM983049 UYG983048:UYI983049 VIC983048:VIE983049 VRY983048:VSA983049 WBU983048:WBW983049 WLQ983048:WLS983049 WVM983048:WVO983049 WVM983050:WVZ983059 E65546:R65555 JA65546:JN65555 SW65546:TJ65555 ACS65546:ADF65555 AMO65546:ANB65555 AWK65546:AWX65555 BGG65546:BGT65555 BQC65546:BQP65555 BZY65546:CAL65555 CJU65546:CKH65555 CTQ65546:CUD65555 DDM65546:DDZ65555 DNI65546:DNV65555 DXE65546:DXR65555 EHA65546:EHN65555 EQW65546:ERJ65555 FAS65546:FBF65555 FKO65546:FLB65555 FUK65546:FUX65555 GEG65546:GET65555 GOC65546:GOP65555 GXY65546:GYL65555 HHU65546:HIH65555 HRQ65546:HSD65555 IBM65546:IBZ65555 ILI65546:ILV65555 IVE65546:IVR65555 JFA65546:JFN65555 JOW65546:JPJ65555 JYS65546:JZF65555 KIO65546:KJB65555 KSK65546:KSX65555 LCG65546:LCT65555 LMC65546:LMP65555 LVY65546:LWL65555 MFU65546:MGH65555 MPQ65546:MQD65555 MZM65546:MZZ65555 NJI65546:NJV65555 NTE65546:NTR65555 ODA65546:ODN65555 OMW65546:ONJ65555 OWS65546:OXF65555 PGO65546:PHB65555 PQK65546:PQX65555 QAG65546:QAT65555 QKC65546:QKP65555 QTY65546:QUL65555 RDU65546:REH65555 RNQ65546:ROD65555 RXM65546:RXZ65555 SHI65546:SHV65555 SRE65546:SRR65555 TBA65546:TBN65555 TKW65546:TLJ65555 TUS65546:TVF65555 UEO65546:UFB65555 UOK65546:UOX65555 UYG65546:UYT65555 VIC65546:VIP65555 VRY65546:VSL65555 WBU65546:WCH65555 WLQ65546:WMD65555 WVM65546:WVZ65555 E131082:R131091 JA131082:JN131091 SW131082:TJ131091 ACS131082:ADF131091 AMO131082:ANB131091 AWK131082:AWX131091 BGG131082:BGT131091 BQC131082:BQP131091 BZY131082:CAL131091 CJU131082:CKH131091 CTQ131082:CUD131091 DDM131082:DDZ131091 DNI131082:DNV131091 DXE131082:DXR131091 EHA131082:EHN131091 EQW131082:ERJ131091 FAS131082:FBF131091 FKO131082:FLB131091 FUK131082:FUX131091 GEG131082:GET131091 GOC131082:GOP131091 GXY131082:GYL131091 HHU131082:HIH131091 HRQ131082:HSD131091 IBM131082:IBZ131091 ILI131082:ILV131091 IVE131082:IVR131091 JFA131082:JFN131091 JOW131082:JPJ131091 JYS131082:JZF131091 KIO131082:KJB131091 KSK131082:KSX131091 LCG131082:LCT131091 LMC131082:LMP131091 LVY131082:LWL131091 MFU131082:MGH131091 MPQ131082:MQD131091 MZM131082:MZZ131091 NJI131082:NJV131091 NTE131082:NTR131091 ODA131082:ODN131091 OMW131082:ONJ131091 OWS131082:OXF131091 PGO131082:PHB131091 PQK131082:PQX131091 QAG131082:QAT131091 QKC131082:QKP131091 QTY131082:QUL131091 RDU131082:REH131091 RNQ131082:ROD131091 RXM131082:RXZ131091 SHI131082:SHV131091 SRE131082:SRR131091 TBA131082:TBN131091 TKW131082:TLJ131091 TUS131082:TVF131091 UEO131082:UFB131091 UOK131082:UOX131091 UYG131082:UYT131091 VIC131082:VIP131091 VRY131082:VSL131091 WBU131082:WCH131091 WLQ131082:WMD131091 WVM131082:WVZ131091 E196618:R196627 JA196618:JN196627 SW196618:TJ196627 ACS196618:ADF196627 AMO196618:ANB196627 AWK196618:AWX196627 BGG196618:BGT196627 BQC196618:BQP196627 BZY196618:CAL196627 CJU196618:CKH196627 CTQ196618:CUD196627 DDM196618:DDZ196627 DNI196618:DNV196627 DXE196618:DXR196627 EHA196618:EHN196627 EQW196618:ERJ196627 FAS196618:FBF196627 FKO196618:FLB196627 FUK196618:FUX196627 GEG196618:GET196627 GOC196618:GOP196627 GXY196618:GYL196627 HHU196618:HIH196627 HRQ196618:HSD196627 IBM196618:IBZ196627 ILI196618:ILV196627 IVE196618:IVR196627 JFA196618:JFN196627 JOW196618:JPJ196627 JYS196618:JZF196627 KIO196618:KJB196627 KSK196618:KSX196627 LCG196618:LCT196627 LMC196618:LMP196627 LVY196618:LWL196627 MFU196618:MGH196627 MPQ196618:MQD196627 MZM196618:MZZ196627 NJI196618:NJV196627 NTE196618:NTR196627 ODA196618:ODN196627 OMW196618:ONJ196627 OWS196618:OXF196627 PGO196618:PHB196627 PQK196618:PQX196627 QAG196618:QAT196627 QKC196618:QKP196627 QTY196618:QUL196627 RDU196618:REH196627 RNQ196618:ROD196627 RXM196618:RXZ196627 SHI196618:SHV196627 SRE196618:SRR196627 TBA196618:TBN196627 TKW196618:TLJ196627 TUS196618:TVF196627 UEO196618:UFB196627 UOK196618:UOX196627 UYG196618:UYT196627 VIC196618:VIP196627 VRY196618:VSL196627 WBU196618:WCH196627 WLQ196618:WMD196627 WVM196618:WVZ196627 E262154:R262163 JA262154:JN262163 SW262154:TJ262163 ACS262154:ADF262163 AMO262154:ANB262163 AWK262154:AWX262163 BGG262154:BGT262163 BQC262154:BQP262163 BZY262154:CAL262163 CJU262154:CKH262163 CTQ262154:CUD262163 DDM262154:DDZ262163 DNI262154:DNV262163 DXE262154:DXR262163 EHA262154:EHN262163 EQW262154:ERJ262163 FAS262154:FBF262163 FKO262154:FLB262163 FUK262154:FUX262163 GEG262154:GET262163 GOC262154:GOP262163 GXY262154:GYL262163 HHU262154:HIH262163 HRQ262154:HSD262163 IBM262154:IBZ262163 ILI262154:ILV262163 IVE262154:IVR262163 JFA262154:JFN262163 JOW262154:JPJ262163 JYS262154:JZF262163 KIO262154:KJB262163 KSK262154:KSX262163 LCG262154:LCT262163 LMC262154:LMP262163 LVY262154:LWL262163 MFU262154:MGH262163 MPQ262154:MQD262163 MZM262154:MZZ262163 NJI262154:NJV262163 NTE262154:NTR262163 ODA262154:ODN262163 OMW262154:ONJ262163 OWS262154:OXF262163 PGO262154:PHB262163 PQK262154:PQX262163 QAG262154:QAT262163 QKC262154:QKP262163 QTY262154:QUL262163 RDU262154:REH262163 RNQ262154:ROD262163 RXM262154:RXZ262163 SHI262154:SHV262163 SRE262154:SRR262163 TBA262154:TBN262163 TKW262154:TLJ262163 TUS262154:TVF262163 UEO262154:UFB262163 UOK262154:UOX262163 UYG262154:UYT262163 VIC262154:VIP262163 VRY262154:VSL262163 WBU262154:WCH262163 WLQ262154:WMD262163 WVM262154:WVZ262163 E327690:R327699 JA327690:JN327699 SW327690:TJ327699 ACS327690:ADF327699 AMO327690:ANB327699 AWK327690:AWX327699 BGG327690:BGT327699 BQC327690:BQP327699 BZY327690:CAL327699 CJU327690:CKH327699 CTQ327690:CUD327699 DDM327690:DDZ327699 DNI327690:DNV327699 DXE327690:DXR327699 EHA327690:EHN327699 EQW327690:ERJ327699 FAS327690:FBF327699 FKO327690:FLB327699 FUK327690:FUX327699 GEG327690:GET327699 GOC327690:GOP327699 GXY327690:GYL327699 HHU327690:HIH327699 HRQ327690:HSD327699 IBM327690:IBZ327699 ILI327690:ILV327699 IVE327690:IVR327699 JFA327690:JFN327699 JOW327690:JPJ327699 JYS327690:JZF327699 KIO327690:KJB327699 KSK327690:KSX327699 LCG327690:LCT327699 LMC327690:LMP327699 LVY327690:LWL327699 MFU327690:MGH327699 MPQ327690:MQD327699 MZM327690:MZZ327699 NJI327690:NJV327699 NTE327690:NTR327699 ODA327690:ODN327699 OMW327690:ONJ327699 OWS327690:OXF327699 PGO327690:PHB327699 PQK327690:PQX327699 QAG327690:QAT327699 QKC327690:QKP327699 QTY327690:QUL327699 RDU327690:REH327699 RNQ327690:ROD327699 RXM327690:RXZ327699 SHI327690:SHV327699 SRE327690:SRR327699 TBA327690:TBN327699 TKW327690:TLJ327699 TUS327690:TVF327699 UEO327690:UFB327699 UOK327690:UOX327699 UYG327690:UYT327699 VIC327690:VIP327699 VRY327690:VSL327699 WBU327690:WCH327699 WLQ327690:WMD327699 WVM327690:WVZ327699 E393226:R393235 JA393226:JN393235 SW393226:TJ393235 ACS393226:ADF393235 AMO393226:ANB393235 AWK393226:AWX393235 BGG393226:BGT393235 BQC393226:BQP393235 BZY393226:CAL393235 CJU393226:CKH393235 CTQ393226:CUD393235 DDM393226:DDZ393235 DNI393226:DNV393235 DXE393226:DXR393235 EHA393226:EHN393235 EQW393226:ERJ393235 FAS393226:FBF393235 FKO393226:FLB393235 FUK393226:FUX393235 GEG393226:GET393235 GOC393226:GOP393235 GXY393226:GYL393235 HHU393226:HIH393235 HRQ393226:HSD393235 IBM393226:IBZ393235 ILI393226:ILV393235 IVE393226:IVR393235 JFA393226:JFN393235 JOW393226:JPJ393235 JYS393226:JZF393235 KIO393226:KJB393235 KSK393226:KSX393235 LCG393226:LCT393235 LMC393226:LMP393235 LVY393226:LWL393235 MFU393226:MGH393235 MPQ393226:MQD393235 MZM393226:MZZ393235 NJI393226:NJV393235 NTE393226:NTR393235 ODA393226:ODN393235 OMW393226:ONJ393235 OWS393226:OXF393235 PGO393226:PHB393235 PQK393226:PQX393235 QAG393226:QAT393235 QKC393226:QKP393235 QTY393226:QUL393235 RDU393226:REH393235 RNQ393226:ROD393235 RXM393226:RXZ393235 SHI393226:SHV393235 SRE393226:SRR393235 TBA393226:TBN393235 TKW393226:TLJ393235 TUS393226:TVF393235 UEO393226:UFB393235 UOK393226:UOX393235 UYG393226:UYT393235 VIC393226:VIP393235 VRY393226:VSL393235 WBU393226:WCH393235 WLQ393226:WMD393235 WVM393226:WVZ393235 E458762:R458771 JA458762:JN458771 SW458762:TJ458771 ACS458762:ADF458771 AMO458762:ANB458771 AWK458762:AWX458771 BGG458762:BGT458771 BQC458762:BQP458771 BZY458762:CAL458771 CJU458762:CKH458771 CTQ458762:CUD458771 DDM458762:DDZ458771 DNI458762:DNV458771 DXE458762:DXR458771 EHA458762:EHN458771 EQW458762:ERJ458771 FAS458762:FBF458771 FKO458762:FLB458771 FUK458762:FUX458771 GEG458762:GET458771 GOC458762:GOP458771 GXY458762:GYL458771 HHU458762:HIH458771 HRQ458762:HSD458771 IBM458762:IBZ458771 ILI458762:ILV458771 IVE458762:IVR458771 JFA458762:JFN458771 JOW458762:JPJ458771 JYS458762:JZF458771 KIO458762:KJB458771 KSK458762:KSX458771 LCG458762:LCT458771 LMC458762:LMP458771 LVY458762:LWL458771 MFU458762:MGH458771 MPQ458762:MQD458771 MZM458762:MZZ458771 NJI458762:NJV458771 NTE458762:NTR458771 ODA458762:ODN458771 OMW458762:ONJ458771 OWS458762:OXF458771 PGO458762:PHB458771 PQK458762:PQX458771 QAG458762:QAT458771 QKC458762:QKP458771 QTY458762:QUL458771 RDU458762:REH458771 RNQ458762:ROD458771 RXM458762:RXZ458771 SHI458762:SHV458771 SRE458762:SRR458771 TBA458762:TBN458771 TKW458762:TLJ458771 TUS458762:TVF458771 UEO458762:UFB458771 UOK458762:UOX458771 UYG458762:UYT458771 VIC458762:VIP458771 VRY458762:VSL458771 WBU458762:WCH458771 WLQ458762:WMD458771 WVM458762:WVZ458771 E524298:R524307 JA524298:JN524307 SW524298:TJ524307 ACS524298:ADF524307 AMO524298:ANB524307 AWK524298:AWX524307 BGG524298:BGT524307 BQC524298:BQP524307 BZY524298:CAL524307 CJU524298:CKH524307 CTQ524298:CUD524307 DDM524298:DDZ524307 DNI524298:DNV524307 DXE524298:DXR524307 EHA524298:EHN524307 EQW524298:ERJ524307 FAS524298:FBF524307 FKO524298:FLB524307 FUK524298:FUX524307 GEG524298:GET524307 GOC524298:GOP524307 GXY524298:GYL524307 HHU524298:HIH524307 HRQ524298:HSD524307 IBM524298:IBZ524307 ILI524298:ILV524307 IVE524298:IVR524307 JFA524298:JFN524307 JOW524298:JPJ524307 JYS524298:JZF524307 KIO524298:KJB524307 KSK524298:KSX524307 LCG524298:LCT524307 LMC524298:LMP524307 LVY524298:LWL524307 MFU524298:MGH524307 MPQ524298:MQD524307 MZM524298:MZZ524307 NJI524298:NJV524307 NTE524298:NTR524307 ODA524298:ODN524307 OMW524298:ONJ524307 OWS524298:OXF524307 PGO524298:PHB524307 PQK524298:PQX524307 QAG524298:QAT524307 QKC524298:QKP524307 QTY524298:QUL524307 RDU524298:REH524307 RNQ524298:ROD524307 RXM524298:RXZ524307 SHI524298:SHV524307 SRE524298:SRR524307 TBA524298:TBN524307 TKW524298:TLJ524307 TUS524298:TVF524307 UEO524298:UFB524307 UOK524298:UOX524307 UYG524298:UYT524307 VIC524298:VIP524307 VRY524298:VSL524307 WBU524298:WCH524307 WLQ524298:WMD524307 WVM524298:WVZ524307 E589834:R589843 JA589834:JN589843 SW589834:TJ589843 ACS589834:ADF589843 AMO589834:ANB589843 AWK589834:AWX589843 BGG589834:BGT589843 BQC589834:BQP589843 BZY589834:CAL589843 CJU589834:CKH589843 CTQ589834:CUD589843 DDM589834:DDZ589843 DNI589834:DNV589843 DXE589834:DXR589843 EHA589834:EHN589843 EQW589834:ERJ589843 FAS589834:FBF589843 FKO589834:FLB589843 FUK589834:FUX589843 GEG589834:GET589843 GOC589834:GOP589843 GXY589834:GYL589843 HHU589834:HIH589843 HRQ589834:HSD589843 IBM589834:IBZ589843 ILI589834:ILV589843 IVE589834:IVR589843 JFA589834:JFN589843 JOW589834:JPJ589843 JYS589834:JZF589843 KIO589834:KJB589843 KSK589834:KSX589843 LCG589834:LCT589843 LMC589834:LMP589843 LVY589834:LWL589843 MFU589834:MGH589843 MPQ589834:MQD589843 MZM589834:MZZ589843 NJI589834:NJV589843 NTE589834:NTR589843 ODA589834:ODN589843 OMW589834:ONJ589843 OWS589834:OXF589843 PGO589834:PHB589843 PQK589834:PQX589843 QAG589834:QAT589843 QKC589834:QKP589843 QTY589834:QUL589843 RDU589834:REH589843 RNQ589834:ROD589843 RXM589834:RXZ589843 SHI589834:SHV589843 SRE589834:SRR589843 TBA589834:TBN589843 TKW589834:TLJ589843 TUS589834:TVF589843 UEO589834:UFB589843 UOK589834:UOX589843 UYG589834:UYT589843 VIC589834:VIP589843 VRY589834:VSL589843 WBU589834:WCH589843 WLQ589834:WMD589843 WVM589834:WVZ589843 E655370:R655379 JA655370:JN655379 SW655370:TJ655379 ACS655370:ADF655379 AMO655370:ANB655379 AWK655370:AWX655379 BGG655370:BGT655379 BQC655370:BQP655379 BZY655370:CAL655379 CJU655370:CKH655379 CTQ655370:CUD655379 DDM655370:DDZ655379 DNI655370:DNV655379 DXE655370:DXR655379 EHA655370:EHN655379 EQW655370:ERJ655379 FAS655370:FBF655379 FKO655370:FLB655379 FUK655370:FUX655379 GEG655370:GET655379 GOC655370:GOP655379 GXY655370:GYL655379 HHU655370:HIH655379 HRQ655370:HSD655379 IBM655370:IBZ655379 ILI655370:ILV655379 IVE655370:IVR655379 JFA655370:JFN655379 JOW655370:JPJ655379 JYS655370:JZF655379 KIO655370:KJB655379 KSK655370:KSX655379 LCG655370:LCT655379 LMC655370:LMP655379 LVY655370:LWL655379 MFU655370:MGH655379 MPQ655370:MQD655379 MZM655370:MZZ655379 NJI655370:NJV655379 NTE655370:NTR655379 ODA655370:ODN655379 OMW655370:ONJ655379 OWS655370:OXF655379 PGO655370:PHB655379 PQK655370:PQX655379 QAG655370:QAT655379 QKC655370:QKP655379 QTY655370:QUL655379 RDU655370:REH655379 RNQ655370:ROD655379 RXM655370:RXZ655379 SHI655370:SHV655379 SRE655370:SRR655379 TBA655370:TBN655379 TKW655370:TLJ655379 TUS655370:TVF655379 UEO655370:UFB655379 UOK655370:UOX655379 UYG655370:UYT655379 VIC655370:VIP655379 VRY655370:VSL655379 WBU655370:WCH655379 WLQ655370:WMD655379 WVM655370:WVZ655379 E720906:R720915 JA720906:JN720915 SW720906:TJ720915 ACS720906:ADF720915 AMO720906:ANB720915 AWK720906:AWX720915 BGG720906:BGT720915 BQC720906:BQP720915 BZY720906:CAL720915 CJU720906:CKH720915 CTQ720906:CUD720915 DDM720906:DDZ720915 DNI720906:DNV720915 DXE720906:DXR720915 EHA720906:EHN720915 EQW720906:ERJ720915 FAS720906:FBF720915 FKO720906:FLB720915 FUK720906:FUX720915 GEG720906:GET720915 GOC720906:GOP720915 GXY720906:GYL720915 HHU720906:HIH720915 HRQ720906:HSD720915 IBM720906:IBZ720915 ILI720906:ILV720915 IVE720906:IVR720915 JFA720906:JFN720915 JOW720906:JPJ720915 JYS720906:JZF720915 KIO720906:KJB720915 KSK720906:KSX720915 LCG720906:LCT720915 LMC720906:LMP720915 LVY720906:LWL720915 MFU720906:MGH720915 MPQ720906:MQD720915 MZM720906:MZZ720915 NJI720906:NJV720915 NTE720906:NTR720915 ODA720906:ODN720915 OMW720906:ONJ720915 OWS720906:OXF720915 PGO720906:PHB720915 PQK720906:PQX720915 QAG720906:QAT720915 QKC720906:QKP720915 QTY720906:QUL720915 RDU720906:REH720915 RNQ720906:ROD720915 RXM720906:RXZ720915 SHI720906:SHV720915 SRE720906:SRR720915 TBA720906:TBN720915 TKW720906:TLJ720915 TUS720906:TVF720915 UEO720906:UFB720915 UOK720906:UOX720915 UYG720906:UYT720915 VIC720906:VIP720915 VRY720906:VSL720915 WBU720906:WCH720915 WLQ720906:WMD720915 WVM720906:WVZ720915 E786442:R786451 JA786442:JN786451 SW786442:TJ786451 ACS786442:ADF786451 AMO786442:ANB786451 AWK786442:AWX786451 BGG786442:BGT786451 BQC786442:BQP786451 BZY786442:CAL786451 CJU786442:CKH786451 CTQ786442:CUD786451 DDM786442:DDZ786451 DNI786442:DNV786451 DXE786442:DXR786451 EHA786442:EHN786451 EQW786442:ERJ786451 FAS786442:FBF786451 FKO786442:FLB786451 FUK786442:FUX786451 GEG786442:GET786451 GOC786442:GOP786451 GXY786442:GYL786451 HHU786442:HIH786451 HRQ786442:HSD786451 IBM786442:IBZ786451 ILI786442:ILV786451 IVE786442:IVR786451 JFA786442:JFN786451 JOW786442:JPJ786451 JYS786442:JZF786451 KIO786442:KJB786451 KSK786442:KSX786451 LCG786442:LCT786451 LMC786442:LMP786451 LVY786442:LWL786451 MFU786442:MGH786451 MPQ786442:MQD786451 MZM786442:MZZ786451 NJI786442:NJV786451 NTE786442:NTR786451 ODA786442:ODN786451 OMW786442:ONJ786451 OWS786442:OXF786451 PGO786442:PHB786451 PQK786442:PQX786451 QAG786442:QAT786451 QKC786442:QKP786451 QTY786442:QUL786451 RDU786442:REH786451 RNQ786442:ROD786451 RXM786442:RXZ786451 SHI786442:SHV786451 SRE786442:SRR786451 TBA786442:TBN786451 TKW786442:TLJ786451 TUS786442:TVF786451 UEO786442:UFB786451 UOK786442:UOX786451 UYG786442:UYT786451 VIC786442:VIP786451 VRY786442:VSL786451 WBU786442:WCH786451 WLQ786442:WMD786451 WVM786442:WVZ786451 E851978:R851987 JA851978:JN851987 SW851978:TJ851987 ACS851978:ADF851987 AMO851978:ANB851987 AWK851978:AWX851987 BGG851978:BGT851987 BQC851978:BQP851987 BZY851978:CAL851987 CJU851978:CKH851987 CTQ851978:CUD851987 DDM851978:DDZ851987 DNI851978:DNV851987 DXE851978:DXR851987 EHA851978:EHN851987 EQW851978:ERJ851987 FAS851978:FBF851987 FKO851978:FLB851987 FUK851978:FUX851987 GEG851978:GET851987 GOC851978:GOP851987 GXY851978:GYL851987 HHU851978:HIH851987 HRQ851978:HSD851987 IBM851978:IBZ851987 ILI851978:ILV851987 IVE851978:IVR851987 JFA851978:JFN851987 JOW851978:JPJ851987 JYS851978:JZF851987 KIO851978:KJB851987 KSK851978:KSX851987 LCG851978:LCT851987 LMC851978:LMP851987 LVY851978:LWL851987 MFU851978:MGH851987 MPQ851978:MQD851987 MZM851978:MZZ851987 NJI851978:NJV851987 NTE851978:NTR851987 ODA851978:ODN851987 OMW851978:ONJ851987 OWS851978:OXF851987 PGO851978:PHB851987 PQK851978:PQX851987 QAG851978:QAT851987 QKC851978:QKP851987 QTY851978:QUL851987 RDU851978:REH851987 RNQ851978:ROD851987 RXM851978:RXZ851987 SHI851978:SHV851987 SRE851978:SRR851987 TBA851978:TBN851987 TKW851978:TLJ851987 TUS851978:TVF851987 UEO851978:UFB851987 UOK851978:UOX851987 UYG851978:UYT851987 VIC851978:VIP851987 VRY851978:VSL851987 WBU851978:WCH851987 WLQ851978:WMD851987 WVM851978:WVZ851987 E917514:R917523 JA917514:JN917523 SW917514:TJ917523 ACS917514:ADF917523 AMO917514:ANB917523 AWK917514:AWX917523 BGG917514:BGT917523 BQC917514:BQP917523 BZY917514:CAL917523 CJU917514:CKH917523 CTQ917514:CUD917523 DDM917514:DDZ917523 DNI917514:DNV917523 DXE917514:DXR917523 EHA917514:EHN917523 EQW917514:ERJ917523 FAS917514:FBF917523 FKO917514:FLB917523 FUK917514:FUX917523 GEG917514:GET917523 GOC917514:GOP917523 GXY917514:GYL917523 HHU917514:HIH917523 HRQ917514:HSD917523 IBM917514:IBZ917523 ILI917514:ILV917523 IVE917514:IVR917523 JFA917514:JFN917523 JOW917514:JPJ917523 JYS917514:JZF917523 KIO917514:KJB917523 KSK917514:KSX917523 LCG917514:LCT917523 LMC917514:LMP917523 LVY917514:LWL917523 MFU917514:MGH917523 MPQ917514:MQD917523 MZM917514:MZZ917523 NJI917514:NJV917523 NTE917514:NTR917523 ODA917514:ODN917523 OMW917514:ONJ917523 OWS917514:OXF917523 PGO917514:PHB917523 PQK917514:PQX917523 QAG917514:QAT917523 QKC917514:QKP917523 QTY917514:QUL917523 RDU917514:REH917523 RNQ917514:ROD917523 RXM917514:RXZ917523 SHI917514:SHV917523 SRE917514:SRR917523 TBA917514:TBN917523 TKW917514:TLJ917523 TUS917514:TVF917523 UEO917514:UFB917523 UOK917514:UOX917523 UYG917514:UYT917523 VIC917514:VIP917523 VRY917514:VSL917523 WBU917514:WCH917523 WLQ917514:WMD917523 WVM917514:WVZ917523 E983050:R983059 JA983050:JN983059 SW983050:TJ983059 ACS983050:ADF983059 AMO983050:ANB983059 AWK983050:AWX983059 BGG983050:BGT983059 BQC983050:BQP983059 BZY983050:CAL983059 CJU983050:CKH983059 CTQ983050:CUD983059 DDM983050:DDZ983059 DNI983050:DNV983059 DXE983050:DXR983059 EHA983050:EHN983059 EQW983050:ERJ983059 FAS983050:FBF983059 FKO983050:FLB983059 FUK983050:FUX983059 GEG983050:GET983059 GOC983050:GOP983059 GXY983050:GYL983059 HHU983050:HIH983059 HRQ983050:HSD983059 IBM983050:IBZ983059 ILI983050:ILV983059 IVE983050:IVR983059 JFA983050:JFN983059 JOW983050:JPJ983059 JYS983050:JZF983059 KIO983050:KJB983059 KSK983050:KSX983059 LCG983050:LCT983059 LMC983050:LMP983059 LVY983050:LWL983059 MFU983050:MGH983059 MPQ983050:MQD983059 MZM983050:MZZ983059 NJI983050:NJV983059 NTE983050:NTR983059 ODA983050:ODN983059 OMW983050:ONJ983059 OWS983050:OXF983059 PGO983050:PHB983059 PQK983050:PQX983059 QAG983050:QAT983059 QKC983050:QKP983059 QTY983050:QUL983059 RDU983050:REH983059 RNQ983050:ROD983059 RXM983050:RXZ983059 SHI983050:SHV983059 SRE983050:SRR983059 TBA983050:TBN983059 TKW983050:TLJ983059 TUS983050:TVF983059 UEO983050:UFB983059 UOK983050:UOX983059 UYG983050:UYT983059 VIC983050:VIP983059 VRY983050:VSL983059 WBU983050:WCH983059 WLQ983050:WMD983059 JA11:JN19 WVM11:WVZ19 WLQ11:WMD19 WBU11:WCH19 VRY11:VSL19 VIC11:VIP19 UYG11:UYT19 UOK11:UOX19 UEO11:UFB19 TUS11:TVF19 TKW11:TLJ19 TBA11:TBN19 SRE11:SRR19 SHI11:SHV19 RXM11:RXZ19 RNQ11:ROD19 RDU11:REH19 QTY11:QUL19 QKC11:QKP19 QAG11:QAT19 PQK11:PQX19 PGO11:PHB19 OWS11:OXF19 OMW11:ONJ19 ODA11:ODN19 NTE11:NTR19 NJI11:NJV19 MZM11:MZZ19 MPQ11:MQD19 MFU11:MGH19 LVY11:LWL19 LMC11:LMP19 LCG11:LCT19 KSK11:KSX19 KIO11:KJB19 JYS11:JZF19 JOW11:JPJ19 JFA11:JFN19 IVE11:IVR19 ILI11:ILV19 IBM11:IBZ19 HRQ11:HSD19 HHU11:HIH19 GXY11:GYL19 GOC11:GOP19 GEG11:GET19 FUK11:FUX19 FKO11:FLB19 FAS11:FBF19 EQW11:ERJ19 EHA11:EHN19 DXE11:DXR19 DNI11:DNV19 DDM11:DDZ19 CTQ11:CUD19 CJU11:CKH19 BZY11:CAL19 BQC11:BQP19 BGG11:BGT19 AWK11:AWX19 AMO11:ANB19 ACS11:ADF19 SW11:TJ19 E11:R19">
-      <formula1>"O, "</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T55"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -12894,158 +10613,158 @@
       <c r="B1" s="71"/>
     </row>
     <row r="2" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A2" s="193" t="s">
+      <c r="A2" s="222" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="194"/>
-      <c r="C2" s="195" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" s="196"/>
-      <c r="E2" s="197" t="s">
+      <c r="B2" s="223"/>
+      <c r="C2" s="224" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="225"/>
+      <c r="E2" s="226" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="198"/>
-      <c r="G2" s="198"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="200" t="str">
+      <c r="F2" s="227"/>
+      <c r="G2" s="227"/>
+      <c r="H2" s="228"/>
+      <c r="I2" s="229" t="str">
         <f>C2</f>
-        <v>GetTotalMoneyDonatedInByUsingUserId</v>
-      </c>
-      <c r="J2" s="201"/>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="201"/>
-      <c r="N2" s="201"/>
-      <c r="O2" s="201"/>
-      <c r="P2" s="201"/>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="202"/>
+        <v>GetLastDonateInformation</v>
+      </c>
+      <c r="J2" s="230"/>
+      <c r="K2" s="230"/>
+      <c r="L2" s="230"/>
+      <c r="M2" s="230"/>
+      <c r="N2" s="230"/>
+      <c r="O2" s="230"/>
+      <c r="P2" s="230"/>
+      <c r="Q2" s="230"/>
+      <c r="R2" s="231"/>
       <c r="T2" s="73"/>
     </row>
     <row r="3" spans="1:20" ht="30" customHeight="1">
-      <c r="A3" s="203" t="s">
+      <c r="A3" s="210" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="204"/>
-      <c r="C3" s="205" t="str">
+      <c r="B3" s="211"/>
+      <c r="C3" s="232" t="str">
         <f>Cover!F4</f>
         <v>TuanhaSE03108</v>
       </c>
-      <c r="D3" s="206"/>
-      <c r="E3" s="207" t="s">
+      <c r="D3" s="233"/>
+      <c r="E3" s="234" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="208"/>
-      <c r="G3" s="208"/>
-      <c r="H3" s="209"/>
-      <c r="I3" s="210" t="str">
+      <c r="F3" s="235"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="237" t="str">
         <f>C3</f>
         <v>TuanhaSE03108</v>
       </c>
-      <c r="J3" s="211"/>
-      <c r="K3" s="211"/>
-      <c r="L3" s="211"/>
-      <c r="M3" s="211"/>
-      <c r="N3" s="211"/>
-      <c r="O3" s="211"/>
-      <c r="P3" s="211"/>
-      <c r="Q3" s="211"/>
-      <c r="R3" s="212"/>
+      <c r="J3" s="238"/>
+      <c r="K3" s="238"/>
+      <c r="L3" s="238"/>
+      <c r="M3" s="238"/>
+      <c r="N3" s="238"/>
+      <c r="O3" s="238"/>
+      <c r="P3" s="238"/>
+      <c r="Q3" s="238"/>
+      <c r="R3" s="239"/>
     </row>
     <row r="4" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A4" s="203" t="s">
+      <c r="A4" s="210" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="204"/>
-      <c r="C4" s="213"/>
-      <c r="D4" s="213"/>
-      <c r="E4" s="214"/>
-      <c r="F4" s="214"/>
-      <c r="G4" s="214"/>
-      <c r="H4" s="214"/>
-      <c r="I4" s="213"/>
-      <c r="J4" s="213"/>
-      <c r="K4" s="213"/>
-      <c r="L4" s="213"/>
-      <c r="M4" s="213"/>
-      <c r="N4" s="213"/>
-      <c r="O4" s="213"/>
-      <c r="P4" s="213"/>
-      <c r="Q4" s="213"/>
-      <c r="R4" s="215"/>
+      <c r="B4" s="211"/>
+      <c r="C4" s="212"/>
+      <c r="D4" s="212"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="213"/>
+      <c r="G4" s="213"/>
+      <c r="H4" s="213"/>
+      <c r="I4" s="212"/>
+      <c r="J4" s="212"/>
+      <c r="K4" s="212"/>
+      <c r="L4" s="212"/>
+      <c r="M4" s="212"/>
+      <c r="N4" s="212"/>
+      <c r="O4" s="212"/>
+      <c r="P4" s="212"/>
+      <c r="Q4" s="212"/>
+      <c r="R4" s="214"/>
     </row>
     <row r="5" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A5" s="216" t="s">
+      <c r="A5" s="215" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="217"/>
-      <c r="C5" s="218" t="s">
+      <c r="B5" s="216"/>
+      <c r="C5" s="217" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="219"/>
-      <c r="E5" s="220" t="s">
+      <c r="D5" s="218"/>
+      <c r="E5" s="219" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="219"/>
-      <c r="G5" s="219"/>
-      <c r="H5" s="221"/>
-      <c r="I5" s="219" t="s">
+      <c r="F5" s="218"/>
+      <c r="G5" s="218"/>
+      <c r="H5" s="220"/>
+      <c r="I5" s="218" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="219"/>
-      <c r="K5" s="219"/>
-      <c r="L5" s="220" t="s">
+      <c r="J5" s="218"/>
+      <c r="K5" s="218"/>
+      <c r="L5" s="219" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="219"/>
-      <c r="N5" s="219"/>
-      <c r="O5" s="219"/>
-      <c r="P5" s="219"/>
-      <c r="Q5" s="219"/>
-      <c r="R5" s="222"/>
+      <c r="M5" s="218"/>
+      <c r="N5" s="218"/>
+      <c r="O5" s="218"/>
+      <c r="P5" s="218"/>
+      <c r="Q5" s="218"/>
+      <c r="R5" s="221"/>
       <c r="T5" s="73"/>
     </row>
     <row r="6" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A6" s="226">
-        <f>COUNTIF(E23:HM23,"P")</f>
-        <v>3</v>
-      </c>
-      <c r="B6" s="227"/>
-      <c r="C6" s="228">
-        <f>COUNTIF(E23:HO23,"F")</f>
+      <c r="A6" s="197">
+        <f>COUNTIF(E20:HM20,"P")</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="198"/>
+      <c r="C6" s="199">
+        <f>COUNTIF(E20:HO20,"F")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="229"/>
-      <c r="E6" s="230">
+      <c r="D6" s="200"/>
+      <c r="E6" s="201">
         <f>SUM(L6,- A6,- C6)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="229"/>
-      <c r="G6" s="229"/>
-      <c r="H6" s="231"/>
+      <c r="F6" s="200"/>
+      <c r="G6" s="200"/>
+      <c r="H6" s="202"/>
       <c r="I6" s="117">
-        <f>COUNTIF(E22:HM22,"N")</f>
+        <f>COUNTIF(E19:HM19,"N")</f>
         <v>0</v>
       </c>
       <c r="J6" s="117">
-        <f>COUNTIF(E22:HM22,"A")</f>
-        <v>3</v>
+        <f>COUNTIF(E19:HM19,"A")</f>
+        <v>2</v>
       </c>
       <c r="K6" s="117">
-        <f>COUNTIF(E22:HM22,"B")</f>
+        <f>COUNTIF(E19:HM19,"B")</f>
         <v>0</v>
       </c>
-      <c r="L6" s="230">
+      <c r="L6" s="201">
         <f>COUNTA(E8:P8)</f>
-        <v>3</v>
-      </c>
-      <c r="M6" s="229"/>
-      <c r="N6" s="229"/>
-      <c r="O6" s="229"/>
-      <c r="P6" s="229"/>
-      <c r="Q6" s="229"/>
-      <c r="R6" s="232"/>
+        <v>2</v>
+      </c>
+      <c r="M6" s="200"/>
+      <c r="N6" s="200"/>
+      <c r="O6" s="200"/>
+      <c r="P6" s="200"/>
+      <c r="Q6" s="200"/>
+      <c r="R6" s="203"/>
       <c r="S6" s="118"/>
     </row>
     <row r="7" spans="1:20" ht="11.25" thickBot="1"/>
@@ -13060,9 +10779,7 @@
       <c r="F8" s="145" t="s">
         <v>110</v>
       </c>
-      <c r="G8" s="145" t="s">
-        <v>140</v>
-      </c>
+      <c r="G8" s="145"/>
       <c r="H8" s="145"/>
       <c r="I8" s="145"/>
       <c r="J8" s="145"/>
@@ -13081,7 +10798,7 @@
         <v>104</v>
       </c>
       <c r="B9" s="139" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C9" s="140"/>
       <c r="D9" s="141"/>
@@ -13091,9 +10808,7 @@
       <c r="F9" s="134" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="134" t="s">
-        <v>68</v>
-      </c>
+      <c r="G9" s="134"/>
       <c r="H9" s="147"/>
       <c r="I9" s="147"/>
       <c r="J9" s="147"/>
@@ -13106,22 +10821,20 @@
       <c r="Q9" s="149"/>
       <c r="R9" s="147"/>
     </row>
-    <row r="10" spans="1:20" ht="13.5" customHeight="1">
+    <row r="10" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
       <c r="A10" s="135"/>
       <c r="B10" s="139" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C10" s="140"/>
       <c r="D10" s="141"/>
-      <c r="E10" s="134" t="s">
+      <c r="E10" s="148" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="134" t="s">
+      <c r="F10" s="148" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="134" t="s">
-        <v>68</v>
-      </c>
+      <c r="G10" s="148"/>
       <c r="H10" s="147"/>
       <c r="I10" s="147"/>
       <c r="J10" s="147"/>
@@ -13134,22 +10847,18 @@
       <c r="Q10" s="149"/>
       <c r="R10" s="147"/>
     </row>
-    <row r="11" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A11" s="135"/>
-      <c r="B11" s="139" t="s">
-        <v>137</v>
+    <row r="11" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A11" s="138" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="166" t="s">
+        <v>128</v>
       </c>
       <c r="C11" s="140"/>
       <c r="D11" s="141"/>
-      <c r="E11" s="134" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="134" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="134" t="s">
-        <v>68</v>
-      </c>
+      <c r="E11" s="147"/>
+      <c r="F11" s="147"/>
+      <c r="G11" s="147"/>
       <c r="H11" s="147"/>
       <c r="I11" s="147"/>
       <c r="J11" s="147"/>
@@ -13163,11 +10872,2308 @@
       <c r="R11" s="147"/>
     </row>
     <row r="12" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A12" s="135"/>
+      <c r="B12" s="139"/>
+      <c r="C12" s="140"/>
+      <c r="D12" s="141">
+        <v>3</v>
+      </c>
+      <c r="E12" s="148" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="148"/>
+      <c r="G12" s="147"/>
+      <c r="H12" s="147"/>
+      <c r="I12" s="147"/>
+      <c r="J12" s="147"/>
+      <c r="K12" s="147"/>
+      <c r="L12" s="147"/>
+      <c r="M12" s="149"/>
+      <c r="N12" s="149"/>
+      <c r="O12" s="149"/>
+      <c r="P12" s="149"/>
+      <c r="Q12" s="149"/>
+      <c r="R12" s="147"/>
+    </row>
+    <row r="13" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A13" s="135"/>
+      <c r="B13" s="139"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="141">
+        <v>19</v>
+      </c>
+      <c r="E13" s="148"/>
+      <c r="F13" s="148" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="147"/>
+      <c r="I13" s="147"/>
+      <c r="J13" s="147"/>
+      <c r="K13" s="147"/>
+      <c r="L13" s="147"/>
+      <c r="M13" s="149"/>
+      <c r="N13" s="149"/>
+      <c r="O13" s="149"/>
+      <c r="P13" s="149"/>
+      <c r="Q13" s="149"/>
+      <c r="R13" s="147"/>
+    </row>
+    <row r="14" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A14" s="135"/>
+      <c r="B14" s="159"/>
+      <c r="C14" s="160"/>
+      <c r="D14" s="161"/>
+      <c r="E14" s="162"/>
+      <c r="F14" s="162"/>
+      <c r="G14" s="162"/>
+      <c r="H14" s="162"/>
+      <c r="I14" s="162"/>
+      <c r="J14" s="162"/>
+      <c r="K14" s="162"/>
+      <c r="L14" s="162"/>
+      <c r="M14" s="163"/>
+      <c r="N14" s="163"/>
+      <c r="O14" s="163"/>
+      <c r="P14" s="163"/>
+      <c r="Q14" s="163"/>
+      <c r="R14" s="162"/>
+    </row>
+    <row r="15" spans="1:20" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A15" s="137" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="127"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="148"/>
+      <c r="F15" s="148"/>
+      <c r="G15" s="148"/>
+      <c r="H15" s="148"/>
+      <c r="I15" s="148"/>
+      <c r="J15" s="148"/>
+      <c r="K15" s="148"/>
+      <c r="L15" s="148"/>
+      <c r="M15" s="151"/>
+      <c r="N15" s="151"/>
+      <c r="O15" s="151"/>
+      <c r="P15" s="151"/>
+      <c r="Q15" s="151"/>
+      <c r="R15" s="148"/>
+    </row>
+    <row r="16" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A16" s="136"/>
+      <c r="B16" s="130" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="131"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="148"/>
+      <c r="F16" s="148" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="134"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="134"/>
+      <c r="J16" s="134"/>
+      <c r="K16" s="134"/>
+      <c r="L16" s="134"/>
+      <c r="M16" s="150"/>
+      <c r="N16" s="150"/>
+      <c r="O16" s="150"/>
+      <c r="P16" s="150"/>
+      <c r="Q16" s="150"/>
+      <c r="R16" s="134"/>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="136"/>
+      <c r="B17" s="130" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="131"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="148" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="148"/>
+      <c r="G17" s="134"/>
+      <c r="H17" s="134"/>
+      <c r="I17" s="134"/>
+      <c r="J17" s="134"/>
+      <c r="K17" s="134"/>
+      <c r="L17" s="134"/>
+      <c r="M17" s="150"/>
+      <c r="N17" s="150"/>
+      <c r="O17" s="150"/>
+      <c r="P17" s="150"/>
+      <c r="Q17" s="150"/>
+      <c r="R17" s="134"/>
+    </row>
+    <row r="18" spans="1:18" ht="11.25" thickBot="1">
+      <c r="A18" s="136"/>
+      <c r="B18" s="127"/>
+      <c r="C18" s="164"/>
+      <c r="D18" s="165"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="152"/>
+      <c r="I18" s="152"/>
+      <c r="J18" s="152"/>
+      <c r="K18" s="152"/>
+      <c r="L18" s="152"/>
+      <c r="M18" s="155"/>
+      <c r="N18" s="155"/>
+      <c r="O18" s="155"/>
+      <c r="P18" s="155"/>
+      <c r="Q18" s="155"/>
+      <c r="R18" s="156"/>
+    </row>
+    <row r="19" spans="1:18" ht="11.25" thickTop="1">
+      <c r="A19" s="137" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="204" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="205"/>
+      <c r="D19" s="206"/>
+      <c r="E19" s="157" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="157" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="157"/>
+      <c r="H19" s="157"/>
+      <c r="I19" s="157"/>
+      <c r="J19" s="157"/>
+      <c r="K19" s="157"/>
+      <c r="L19" s="157"/>
+      <c r="M19" s="157"/>
+      <c r="N19" s="157"/>
+      <c r="O19" s="157"/>
+      <c r="P19" s="157"/>
+      <c r="Q19" s="157"/>
+      <c r="R19" s="157"/>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="136"/>
+      <c r="B20" s="207" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="208"/>
+      <c r="D20" s="209"/>
+      <c r="E20" s="134" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="134" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="134"/>
+      <c r="H20" s="134"/>
+      <c r="I20" s="134"/>
+      <c r="J20" s="134"/>
+      <c r="K20" s="134"/>
+      <c r="L20" s="134"/>
+      <c r="M20" s="134"/>
+      <c r="N20" s="134"/>
+      <c r="O20" s="134"/>
+      <c r="P20" s="134"/>
+      <c r="Q20" s="134"/>
+      <c r="R20" s="134"/>
+    </row>
+    <row r="21" spans="1:18" ht="54">
+      <c r="A21" s="136"/>
+      <c r="B21" s="194" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="195"/>
+      <c r="D21" s="196"/>
+      <c r="E21" s="133">
+        <v>42594</v>
+      </c>
+      <c r="F21" s="133">
+        <v>42594</v>
+      </c>
+      <c r="G21" s="133"/>
+      <c r="H21" s="133"/>
+      <c r="I21" s="133"/>
+      <c r="J21" s="133"/>
+      <c r="K21" s="133"/>
+      <c r="L21" s="133"/>
+      <c r="M21" s="133"/>
+      <c r="N21" s="133"/>
+      <c r="O21" s="133"/>
+      <c r="P21" s="133"/>
+      <c r="Q21" s="133"/>
+      <c r="R21" s="133"/>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="96"/>
+    </row>
+    <row r="33" s="126" customFormat="1"/>
+    <row r="34" s="126" customFormat="1"/>
+    <row r="35" s="126" customFormat="1"/>
+    <row r="36" s="126" customFormat="1"/>
+    <row r="37" s="126" customFormat="1"/>
+    <row r="38" s="126" customFormat="1"/>
+    <row r="39" s="126" customFormat="1"/>
+    <row r="40" s="126" customFormat="1"/>
+    <row r="41" s="126" customFormat="1"/>
+    <row r="42" s="126" customFormat="1"/>
+    <row r="43" s="126" customFormat="1"/>
+    <row r="44" s="126" customFormat="1"/>
+    <row r="45" s="126" customFormat="1"/>
+    <row r="46" s="126" customFormat="1"/>
+    <row r="47" s="126" customFormat="1"/>
+    <row r="48" s="126" customFormat="1"/>
+    <row r="49" s="126" customFormat="1"/>
+    <row r="50" s="126" customFormat="1"/>
+    <row r="51" s="126" customFormat="1"/>
+    <row r="52" s="126" customFormat="1"/>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="I2:R2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:R3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:R4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:R5"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="L6:R6"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E19:R19 JA19:JN19 SW19:TJ19 ACS19:ADF19 AMO19:ANB19 AWK19:AWX19 BGG19:BGT19 BQC19:BQP19 BZY19:CAL19 CJU19:CKH19 CTQ19:CUD19 DDM19:DDZ19 DNI19:DNV19 DXE19:DXR19 EHA19:EHN19 EQW19:ERJ19 FAS19:FBF19 FKO19:FLB19 FUK19:FUX19 GEG19:GET19 GOC19:GOP19 GXY19:GYL19 HHU19:HIH19 HRQ19:HSD19 IBM19:IBZ19 ILI19:ILV19 IVE19:IVR19 JFA19:JFN19 JOW19:JPJ19 JYS19:JZF19 KIO19:KJB19 KSK19:KSX19 LCG19:LCT19 LMC19:LMP19 LVY19:LWL19 MFU19:MGH19 MPQ19:MQD19 MZM19:MZZ19 NJI19:NJV19 NTE19:NTR19 ODA19:ODN19 OMW19:ONJ19 OWS19:OXF19 PGO19:PHB19 PQK19:PQX19 QAG19:QAT19 QKC19:QKP19 QTY19:QUL19 RDU19:REH19 RNQ19:ROD19 RXM19:RXZ19 SHI19:SHV19 SRE19:SRR19 TBA19:TBN19 TKW19:TLJ19 TUS19:TVF19 UEO19:UFB19 UOK19:UOX19 UYG19:UYT19 VIC19:VIP19 VRY19:VSL19 WBU19:WCH19 WLQ19:WMD19 WVM19:WVZ19 E65555:R65555 JA65555:JN65555 SW65555:TJ65555 ACS65555:ADF65555 AMO65555:ANB65555 AWK65555:AWX65555 BGG65555:BGT65555 BQC65555:BQP65555 BZY65555:CAL65555 CJU65555:CKH65555 CTQ65555:CUD65555 DDM65555:DDZ65555 DNI65555:DNV65555 DXE65555:DXR65555 EHA65555:EHN65555 EQW65555:ERJ65555 FAS65555:FBF65555 FKO65555:FLB65555 FUK65555:FUX65555 GEG65555:GET65555 GOC65555:GOP65555 GXY65555:GYL65555 HHU65555:HIH65555 HRQ65555:HSD65555 IBM65555:IBZ65555 ILI65555:ILV65555 IVE65555:IVR65555 JFA65555:JFN65555 JOW65555:JPJ65555 JYS65555:JZF65555 KIO65555:KJB65555 KSK65555:KSX65555 LCG65555:LCT65555 LMC65555:LMP65555 LVY65555:LWL65555 MFU65555:MGH65555 MPQ65555:MQD65555 MZM65555:MZZ65555 NJI65555:NJV65555 NTE65555:NTR65555 ODA65555:ODN65555 OMW65555:ONJ65555 OWS65555:OXF65555 PGO65555:PHB65555 PQK65555:PQX65555 QAG65555:QAT65555 QKC65555:QKP65555 QTY65555:QUL65555 RDU65555:REH65555 RNQ65555:ROD65555 RXM65555:RXZ65555 SHI65555:SHV65555 SRE65555:SRR65555 TBA65555:TBN65555 TKW65555:TLJ65555 TUS65555:TVF65555 UEO65555:UFB65555 UOK65555:UOX65555 UYG65555:UYT65555 VIC65555:VIP65555 VRY65555:VSL65555 WBU65555:WCH65555 WLQ65555:WMD65555 WVM65555:WVZ65555 E131091:R131091 JA131091:JN131091 SW131091:TJ131091 ACS131091:ADF131091 AMO131091:ANB131091 AWK131091:AWX131091 BGG131091:BGT131091 BQC131091:BQP131091 BZY131091:CAL131091 CJU131091:CKH131091 CTQ131091:CUD131091 DDM131091:DDZ131091 DNI131091:DNV131091 DXE131091:DXR131091 EHA131091:EHN131091 EQW131091:ERJ131091 FAS131091:FBF131091 FKO131091:FLB131091 FUK131091:FUX131091 GEG131091:GET131091 GOC131091:GOP131091 GXY131091:GYL131091 HHU131091:HIH131091 HRQ131091:HSD131091 IBM131091:IBZ131091 ILI131091:ILV131091 IVE131091:IVR131091 JFA131091:JFN131091 JOW131091:JPJ131091 JYS131091:JZF131091 KIO131091:KJB131091 KSK131091:KSX131091 LCG131091:LCT131091 LMC131091:LMP131091 LVY131091:LWL131091 MFU131091:MGH131091 MPQ131091:MQD131091 MZM131091:MZZ131091 NJI131091:NJV131091 NTE131091:NTR131091 ODA131091:ODN131091 OMW131091:ONJ131091 OWS131091:OXF131091 PGO131091:PHB131091 PQK131091:PQX131091 QAG131091:QAT131091 QKC131091:QKP131091 QTY131091:QUL131091 RDU131091:REH131091 RNQ131091:ROD131091 RXM131091:RXZ131091 SHI131091:SHV131091 SRE131091:SRR131091 TBA131091:TBN131091 TKW131091:TLJ131091 TUS131091:TVF131091 UEO131091:UFB131091 UOK131091:UOX131091 UYG131091:UYT131091 VIC131091:VIP131091 VRY131091:VSL131091 WBU131091:WCH131091 WLQ131091:WMD131091 WVM131091:WVZ131091 E196627:R196627 JA196627:JN196627 SW196627:TJ196627 ACS196627:ADF196627 AMO196627:ANB196627 AWK196627:AWX196627 BGG196627:BGT196627 BQC196627:BQP196627 BZY196627:CAL196627 CJU196627:CKH196627 CTQ196627:CUD196627 DDM196627:DDZ196627 DNI196627:DNV196627 DXE196627:DXR196627 EHA196627:EHN196627 EQW196627:ERJ196627 FAS196627:FBF196627 FKO196627:FLB196627 FUK196627:FUX196627 GEG196627:GET196627 GOC196627:GOP196627 GXY196627:GYL196627 HHU196627:HIH196627 HRQ196627:HSD196627 IBM196627:IBZ196627 ILI196627:ILV196627 IVE196627:IVR196627 JFA196627:JFN196627 JOW196627:JPJ196627 JYS196627:JZF196627 KIO196627:KJB196627 KSK196627:KSX196627 LCG196627:LCT196627 LMC196627:LMP196627 LVY196627:LWL196627 MFU196627:MGH196627 MPQ196627:MQD196627 MZM196627:MZZ196627 NJI196627:NJV196627 NTE196627:NTR196627 ODA196627:ODN196627 OMW196627:ONJ196627 OWS196627:OXF196627 PGO196627:PHB196627 PQK196627:PQX196627 QAG196627:QAT196627 QKC196627:QKP196627 QTY196627:QUL196627 RDU196627:REH196627 RNQ196627:ROD196627 RXM196627:RXZ196627 SHI196627:SHV196627 SRE196627:SRR196627 TBA196627:TBN196627 TKW196627:TLJ196627 TUS196627:TVF196627 UEO196627:UFB196627 UOK196627:UOX196627 UYG196627:UYT196627 VIC196627:VIP196627 VRY196627:VSL196627 WBU196627:WCH196627 WLQ196627:WMD196627 WVM196627:WVZ196627 E262163:R262163 JA262163:JN262163 SW262163:TJ262163 ACS262163:ADF262163 AMO262163:ANB262163 AWK262163:AWX262163 BGG262163:BGT262163 BQC262163:BQP262163 BZY262163:CAL262163 CJU262163:CKH262163 CTQ262163:CUD262163 DDM262163:DDZ262163 DNI262163:DNV262163 DXE262163:DXR262163 EHA262163:EHN262163 EQW262163:ERJ262163 FAS262163:FBF262163 FKO262163:FLB262163 FUK262163:FUX262163 GEG262163:GET262163 GOC262163:GOP262163 GXY262163:GYL262163 HHU262163:HIH262163 HRQ262163:HSD262163 IBM262163:IBZ262163 ILI262163:ILV262163 IVE262163:IVR262163 JFA262163:JFN262163 JOW262163:JPJ262163 JYS262163:JZF262163 KIO262163:KJB262163 KSK262163:KSX262163 LCG262163:LCT262163 LMC262163:LMP262163 LVY262163:LWL262163 MFU262163:MGH262163 MPQ262163:MQD262163 MZM262163:MZZ262163 NJI262163:NJV262163 NTE262163:NTR262163 ODA262163:ODN262163 OMW262163:ONJ262163 OWS262163:OXF262163 PGO262163:PHB262163 PQK262163:PQX262163 QAG262163:QAT262163 QKC262163:QKP262163 QTY262163:QUL262163 RDU262163:REH262163 RNQ262163:ROD262163 RXM262163:RXZ262163 SHI262163:SHV262163 SRE262163:SRR262163 TBA262163:TBN262163 TKW262163:TLJ262163 TUS262163:TVF262163 UEO262163:UFB262163 UOK262163:UOX262163 UYG262163:UYT262163 VIC262163:VIP262163 VRY262163:VSL262163 WBU262163:WCH262163 WLQ262163:WMD262163 WVM262163:WVZ262163 E327699:R327699 JA327699:JN327699 SW327699:TJ327699 ACS327699:ADF327699 AMO327699:ANB327699 AWK327699:AWX327699 BGG327699:BGT327699 BQC327699:BQP327699 BZY327699:CAL327699 CJU327699:CKH327699 CTQ327699:CUD327699 DDM327699:DDZ327699 DNI327699:DNV327699 DXE327699:DXR327699 EHA327699:EHN327699 EQW327699:ERJ327699 FAS327699:FBF327699 FKO327699:FLB327699 FUK327699:FUX327699 GEG327699:GET327699 GOC327699:GOP327699 GXY327699:GYL327699 HHU327699:HIH327699 HRQ327699:HSD327699 IBM327699:IBZ327699 ILI327699:ILV327699 IVE327699:IVR327699 JFA327699:JFN327699 JOW327699:JPJ327699 JYS327699:JZF327699 KIO327699:KJB327699 KSK327699:KSX327699 LCG327699:LCT327699 LMC327699:LMP327699 LVY327699:LWL327699 MFU327699:MGH327699 MPQ327699:MQD327699 MZM327699:MZZ327699 NJI327699:NJV327699 NTE327699:NTR327699 ODA327699:ODN327699 OMW327699:ONJ327699 OWS327699:OXF327699 PGO327699:PHB327699 PQK327699:PQX327699 QAG327699:QAT327699 QKC327699:QKP327699 QTY327699:QUL327699 RDU327699:REH327699 RNQ327699:ROD327699 RXM327699:RXZ327699 SHI327699:SHV327699 SRE327699:SRR327699 TBA327699:TBN327699 TKW327699:TLJ327699 TUS327699:TVF327699 UEO327699:UFB327699 UOK327699:UOX327699 UYG327699:UYT327699 VIC327699:VIP327699 VRY327699:VSL327699 WBU327699:WCH327699 WLQ327699:WMD327699 WVM327699:WVZ327699 E393235:R393235 JA393235:JN393235 SW393235:TJ393235 ACS393235:ADF393235 AMO393235:ANB393235 AWK393235:AWX393235 BGG393235:BGT393235 BQC393235:BQP393235 BZY393235:CAL393235 CJU393235:CKH393235 CTQ393235:CUD393235 DDM393235:DDZ393235 DNI393235:DNV393235 DXE393235:DXR393235 EHA393235:EHN393235 EQW393235:ERJ393235 FAS393235:FBF393235 FKO393235:FLB393235 FUK393235:FUX393235 GEG393235:GET393235 GOC393235:GOP393235 GXY393235:GYL393235 HHU393235:HIH393235 HRQ393235:HSD393235 IBM393235:IBZ393235 ILI393235:ILV393235 IVE393235:IVR393235 JFA393235:JFN393235 JOW393235:JPJ393235 JYS393235:JZF393235 KIO393235:KJB393235 KSK393235:KSX393235 LCG393235:LCT393235 LMC393235:LMP393235 LVY393235:LWL393235 MFU393235:MGH393235 MPQ393235:MQD393235 MZM393235:MZZ393235 NJI393235:NJV393235 NTE393235:NTR393235 ODA393235:ODN393235 OMW393235:ONJ393235 OWS393235:OXF393235 PGO393235:PHB393235 PQK393235:PQX393235 QAG393235:QAT393235 QKC393235:QKP393235 QTY393235:QUL393235 RDU393235:REH393235 RNQ393235:ROD393235 RXM393235:RXZ393235 SHI393235:SHV393235 SRE393235:SRR393235 TBA393235:TBN393235 TKW393235:TLJ393235 TUS393235:TVF393235 UEO393235:UFB393235 UOK393235:UOX393235 UYG393235:UYT393235 VIC393235:VIP393235 VRY393235:VSL393235 WBU393235:WCH393235 WLQ393235:WMD393235 WVM393235:WVZ393235 E458771:R458771 JA458771:JN458771 SW458771:TJ458771 ACS458771:ADF458771 AMO458771:ANB458771 AWK458771:AWX458771 BGG458771:BGT458771 BQC458771:BQP458771 BZY458771:CAL458771 CJU458771:CKH458771 CTQ458771:CUD458771 DDM458771:DDZ458771 DNI458771:DNV458771 DXE458771:DXR458771 EHA458771:EHN458771 EQW458771:ERJ458771 FAS458771:FBF458771 FKO458771:FLB458771 FUK458771:FUX458771 GEG458771:GET458771 GOC458771:GOP458771 GXY458771:GYL458771 HHU458771:HIH458771 HRQ458771:HSD458771 IBM458771:IBZ458771 ILI458771:ILV458771 IVE458771:IVR458771 JFA458771:JFN458771 JOW458771:JPJ458771 JYS458771:JZF458771 KIO458771:KJB458771 KSK458771:KSX458771 LCG458771:LCT458771 LMC458771:LMP458771 LVY458771:LWL458771 MFU458771:MGH458771 MPQ458771:MQD458771 MZM458771:MZZ458771 NJI458771:NJV458771 NTE458771:NTR458771 ODA458771:ODN458771 OMW458771:ONJ458771 OWS458771:OXF458771 PGO458771:PHB458771 PQK458771:PQX458771 QAG458771:QAT458771 QKC458771:QKP458771 QTY458771:QUL458771 RDU458771:REH458771 RNQ458771:ROD458771 RXM458771:RXZ458771 SHI458771:SHV458771 SRE458771:SRR458771 TBA458771:TBN458771 TKW458771:TLJ458771 TUS458771:TVF458771 UEO458771:UFB458771 UOK458771:UOX458771 UYG458771:UYT458771 VIC458771:VIP458771 VRY458771:VSL458771 WBU458771:WCH458771 WLQ458771:WMD458771 WVM458771:WVZ458771 E524307:R524307 JA524307:JN524307 SW524307:TJ524307 ACS524307:ADF524307 AMO524307:ANB524307 AWK524307:AWX524307 BGG524307:BGT524307 BQC524307:BQP524307 BZY524307:CAL524307 CJU524307:CKH524307 CTQ524307:CUD524307 DDM524307:DDZ524307 DNI524307:DNV524307 DXE524307:DXR524307 EHA524307:EHN524307 EQW524307:ERJ524307 FAS524307:FBF524307 FKO524307:FLB524307 FUK524307:FUX524307 GEG524307:GET524307 GOC524307:GOP524307 GXY524307:GYL524307 HHU524307:HIH524307 HRQ524307:HSD524307 IBM524307:IBZ524307 ILI524307:ILV524307 IVE524307:IVR524307 JFA524307:JFN524307 JOW524307:JPJ524307 JYS524307:JZF524307 KIO524307:KJB524307 KSK524307:KSX524307 LCG524307:LCT524307 LMC524307:LMP524307 LVY524307:LWL524307 MFU524307:MGH524307 MPQ524307:MQD524307 MZM524307:MZZ524307 NJI524307:NJV524307 NTE524307:NTR524307 ODA524307:ODN524307 OMW524307:ONJ524307 OWS524307:OXF524307 PGO524307:PHB524307 PQK524307:PQX524307 QAG524307:QAT524307 QKC524307:QKP524307 QTY524307:QUL524307 RDU524307:REH524307 RNQ524307:ROD524307 RXM524307:RXZ524307 SHI524307:SHV524307 SRE524307:SRR524307 TBA524307:TBN524307 TKW524307:TLJ524307 TUS524307:TVF524307 UEO524307:UFB524307 UOK524307:UOX524307 UYG524307:UYT524307 VIC524307:VIP524307 VRY524307:VSL524307 WBU524307:WCH524307 WLQ524307:WMD524307 WVM524307:WVZ524307 E589843:R589843 JA589843:JN589843 SW589843:TJ589843 ACS589843:ADF589843 AMO589843:ANB589843 AWK589843:AWX589843 BGG589843:BGT589843 BQC589843:BQP589843 BZY589843:CAL589843 CJU589843:CKH589843 CTQ589843:CUD589843 DDM589843:DDZ589843 DNI589843:DNV589843 DXE589843:DXR589843 EHA589843:EHN589843 EQW589843:ERJ589843 FAS589843:FBF589843 FKO589843:FLB589843 FUK589843:FUX589843 GEG589843:GET589843 GOC589843:GOP589843 GXY589843:GYL589843 HHU589843:HIH589843 HRQ589843:HSD589843 IBM589843:IBZ589843 ILI589843:ILV589843 IVE589843:IVR589843 JFA589843:JFN589843 JOW589843:JPJ589843 JYS589843:JZF589843 KIO589843:KJB589843 KSK589843:KSX589843 LCG589843:LCT589843 LMC589843:LMP589843 LVY589843:LWL589843 MFU589843:MGH589843 MPQ589843:MQD589843 MZM589843:MZZ589843 NJI589843:NJV589843 NTE589843:NTR589843 ODA589843:ODN589843 OMW589843:ONJ589843 OWS589843:OXF589843 PGO589843:PHB589843 PQK589843:PQX589843 QAG589843:QAT589843 QKC589843:QKP589843 QTY589843:QUL589843 RDU589843:REH589843 RNQ589843:ROD589843 RXM589843:RXZ589843 SHI589843:SHV589843 SRE589843:SRR589843 TBA589843:TBN589843 TKW589843:TLJ589843 TUS589843:TVF589843 UEO589843:UFB589843 UOK589843:UOX589843 UYG589843:UYT589843 VIC589843:VIP589843 VRY589843:VSL589843 WBU589843:WCH589843 WLQ589843:WMD589843 WVM589843:WVZ589843 E655379:R655379 JA655379:JN655379 SW655379:TJ655379 ACS655379:ADF655379 AMO655379:ANB655379 AWK655379:AWX655379 BGG655379:BGT655379 BQC655379:BQP655379 BZY655379:CAL655379 CJU655379:CKH655379 CTQ655379:CUD655379 DDM655379:DDZ655379 DNI655379:DNV655379 DXE655379:DXR655379 EHA655379:EHN655379 EQW655379:ERJ655379 FAS655379:FBF655379 FKO655379:FLB655379 FUK655379:FUX655379 GEG655379:GET655379 GOC655379:GOP655379 GXY655379:GYL655379 HHU655379:HIH655379 HRQ655379:HSD655379 IBM655379:IBZ655379 ILI655379:ILV655379 IVE655379:IVR655379 JFA655379:JFN655379 JOW655379:JPJ655379 JYS655379:JZF655379 KIO655379:KJB655379 KSK655379:KSX655379 LCG655379:LCT655379 LMC655379:LMP655379 LVY655379:LWL655379 MFU655379:MGH655379 MPQ655379:MQD655379 MZM655379:MZZ655379 NJI655379:NJV655379 NTE655379:NTR655379 ODA655379:ODN655379 OMW655379:ONJ655379 OWS655379:OXF655379 PGO655379:PHB655379 PQK655379:PQX655379 QAG655379:QAT655379 QKC655379:QKP655379 QTY655379:QUL655379 RDU655379:REH655379 RNQ655379:ROD655379 RXM655379:RXZ655379 SHI655379:SHV655379 SRE655379:SRR655379 TBA655379:TBN655379 TKW655379:TLJ655379 TUS655379:TVF655379 UEO655379:UFB655379 UOK655379:UOX655379 UYG655379:UYT655379 VIC655379:VIP655379 VRY655379:VSL655379 WBU655379:WCH655379 WLQ655379:WMD655379 WVM655379:WVZ655379 E720915:R720915 JA720915:JN720915 SW720915:TJ720915 ACS720915:ADF720915 AMO720915:ANB720915 AWK720915:AWX720915 BGG720915:BGT720915 BQC720915:BQP720915 BZY720915:CAL720915 CJU720915:CKH720915 CTQ720915:CUD720915 DDM720915:DDZ720915 DNI720915:DNV720915 DXE720915:DXR720915 EHA720915:EHN720915 EQW720915:ERJ720915 FAS720915:FBF720915 FKO720915:FLB720915 FUK720915:FUX720915 GEG720915:GET720915 GOC720915:GOP720915 GXY720915:GYL720915 HHU720915:HIH720915 HRQ720915:HSD720915 IBM720915:IBZ720915 ILI720915:ILV720915 IVE720915:IVR720915 JFA720915:JFN720915 JOW720915:JPJ720915 JYS720915:JZF720915 KIO720915:KJB720915 KSK720915:KSX720915 LCG720915:LCT720915 LMC720915:LMP720915 LVY720915:LWL720915 MFU720915:MGH720915 MPQ720915:MQD720915 MZM720915:MZZ720915 NJI720915:NJV720915 NTE720915:NTR720915 ODA720915:ODN720915 OMW720915:ONJ720915 OWS720915:OXF720915 PGO720915:PHB720915 PQK720915:PQX720915 QAG720915:QAT720915 QKC720915:QKP720915 QTY720915:QUL720915 RDU720915:REH720915 RNQ720915:ROD720915 RXM720915:RXZ720915 SHI720915:SHV720915 SRE720915:SRR720915 TBA720915:TBN720915 TKW720915:TLJ720915 TUS720915:TVF720915 UEO720915:UFB720915 UOK720915:UOX720915 UYG720915:UYT720915 VIC720915:VIP720915 VRY720915:VSL720915 WBU720915:WCH720915 WLQ720915:WMD720915 WVM720915:WVZ720915 E786451:R786451 JA786451:JN786451 SW786451:TJ786451 ACS786451:ADF786451 AMO786451:ANB786451 AWK786451:AWX786451 BGG786451:BGT786451 BQC786451:BQP786451 BZY786451:CAL786451 CJU786451:CKH786451 CTQ786451:CUD786451 DDM786451:DDZ786451 DNI786451:DNV786451 DXE786451:DXR786451 EHA786451:EHN786451 EQW786451:ERJ786451 FAS786451:FBF786451 FKO786451:FLB786451 FUK786451:FUX786451 GEG786451:GET786451 GOC786451:GOP786451 GXY786451:GYL786451 HHU786451:HIH786451 HRQ786451:HSD786451 IBM786451:IBZ786451 ILI786451:ILV786451 IVE786451:IVR786451 JFA786451:JFN786451 JOW786451:JPJ786451 JYS786451:JZF786451 KIO786451:KJB786451 KSK786451:KSX786451 LCG786451:LCT786451 LMC786451:LMP786451 LVY786451:LWL786451 MFU786451:MGH786451 MPQ786451:MQD786451 MZM786451:MZZ786451 NJI786451:NJV786451 NTE786451:NTR786451 ODA786451:ODN786451 OMW786451:ONJ786451 OWS786451:OXF786451 PGO786451:PHB786451 PQK786451:PQX786451 QAG786451:QAT786451 QKC786451:QKP786451 QTY786451:QUL786451 RDU786451:REH786451 RNQ786451:ROD786451 RXM786451:RXZ786451 SHI786451:SHV786451 SRE786451:SRR786451 TBA786451:TBN786451 TKW786451:TLJ786451 TUS786451:TVF786451 UEO786451:UFB786451 UOK786451:UOX786451 UYG786451:UYT786451 VIC786451:VIP786451 VRY786451:VSL786451 WBU786451:WCH786451 WLQ786451:WMD786451 WVM786451:WVZ786451 E851987:R851987 JA851987:JN851987 SW851987:TJ851987 ACS851987:ADF851987 AMO851987:ANB851987 AWK851987:AWX851987 BGG851987:BGT851987 BQC851987:BQP851987 BZY851987:CAL851987 CJU851987:CKH851987 CTQ851987:CUD851987 DDM851987:DDZ851987 DNI851987:DNV851987 DXE851987:DXR851987 EHA851987:EHN851987 EQW851987:ERJ851987 FAS851987:FBF851987 FKO851987:FLB851987 FUK851987:FUX851987 GEG851987:GET851987 GOC851987:GOP851987 GXY851987:GYL851987 HHU851987:HIH851987 HRQ851987:HSD851987 IBM851987:IBZ851987 ILI851987:ILV851987 IVE851987:IVR851987 JFA851987:JFN851987 JOW851987:JPJ851987 JYS851987:JZF851987 KIO851987:KJB851987 KSK851987:KSX851987 LCG851987:LCT851987 LMC851987:LMP851987 LVY851987:LWL851987 MFU851987:MGH851987 MPQ851987:MQD851987 MZM851987:MZZ851987 NJI851987:NJV851987 NTE851987:NTR851987 ODA851987:ODN851987 OMW851987:ONJ851987 OWS851987:OXF851987 PGO851987:PHB851987 PQK851987:PQX851987 QAG851987:QAT851987 QKC851987:QKP851987 QTY851987:QUL851987 RDU851987:REH851987 RNQ851987:ROD851987 RXM851987:RXZ851987 SHI851987:SHV851987 SRE851987:SRR851987 TBA851987:TBN851987 TKW851987:TLJ851987 TUS851987:TVF851987 UEO851987:UFB851987 UOK851987:UOX851987 UYG851987:UYT851987 VIC851987:VIP851987 VRY851987:VSL851987 WBU851987:WCH851987 WLQ851987:WMD851987 WVM851987:WVZ851987 E917523:R917523 JA917523:JN917523 SW917523:TJ917523 ACS917523:ADF917523 AMO917523:ANB917523 AWK917523:AWX917523 BGG917523:BGT917523 BQC917523:BQP917523 BZY917523:CAL917523 CJU917523:CKH917523 CTQ917523:CUD917523 DDM917523:DDZ917523 DNI917523:DNV917523 DXE917523:DXR917523 EHA917523:EHN917523 EQW917523:ERJ917523 FAS917523:FBF917523 FKO917523:FLB917523 FUK917523:FUX917523 GEG917523:GET917523 GOC917523:GOP917523 GXY917523:GYL917523 HHU917523:HIH917523 HRQ917523:HSD917523 IBM917523:IBZ917523 ILI917523:ILV917523 IVE917523:IVR917523 JFA917523:JFN917523 JOW917523:JPJ917523 JYS917523:JZF917523 KIO917523:KJB917523 KSK917523:KSX917523 LCG917523:LCT917523 LMC917523:LMP917523 LVY917523:LWL917523 MFU917523:MGH917523 MPQ917523:MQD917523 MZM917523:MZZ917523 NJI917523:NJV917523 NTE917523:NTR917523 ODA917523:ODN917523 OMW917523:ONJ917523 OWS917523:OXF917523 PGO917523:PHB917523 PQK917523:PQX917523 QAG917523:QAT917523 QKC917523:QKP917523 QTY917523:QUL917523 RDU917523:REH917523 RNQ917523:ROD917523 RXM917523:RXZ917523 SHI917523:SHV917523 SRE917523:SRR917523 TBA917523:TBN917523 TKW917523:TLJ917523 TUS917523:TVF917523 UEO917523:UFB917523 UOK917523:UOX917523 UYG917523:UYT917523 VIC917523:VIP917523 VRY917523:VSL917523 WBU917523:WCH917523 WLQ917523:WMD917523 WVM917523:WVZ917523 E983059:R983059 JA983059:JN983059 SW983059:TJ983059 ACS983059:ADF983059 AMO983059:ANB983059 AWK983059:AWX983059 BGG983059:BGT983059 BQC983059:BQP983059 BZY983059:CAL983059 CJU983059:CKH983059 CTQ983059:CUD983059 DDM983059:DDZ983059 DNI983059:DNV983059 DXE983059:DXR983059 EHA983059:EHN983059 EQW983059:ERJ983059 FAS983059:FBF983059 FKO983059:FLB983059 FUK983059:FUX983059 GEG983059:GET983059 GOC983059:GOP983059 GXY983059:GYL983059 HHU983059:HIH983059 HRQ983059:HSD983059 IBM983059:IBZ983059 ILI983059:ILV983059 IVE983059:IVR983059 JFA983059:JFN983059 JOW983059:JPJ983059 JYS983059:JZF983059 KIO983059:KJB983059 KSK983059:KSX983059 LCG983059:LCT983059 LMC983059:LMP983059 LVY983059:LWL983059 MFU983059:MGH983059 MPQ983059:MQD983059 MZM983059:MZZ983059 NJI983059:NJV983059 NTE983059:NTR983059 ODA983059:ODN983059 OMW983059:ONJ983059 OWS983059:OXF983059 PGO983059:PHB983059 PQK983059:PQX983059 QAG983059:QAT983059 QKC983059:QKP983059 QTY983059:QUL983059 RDU983059:REH983059 RNQ983059:ROD983059 RXM983059:RXZ983059 SHI983059:SHV983059 SRE983059:SRR983059 TBA983059:TBN983059 TKW983059:TLJ983059 TUS983059:TVF983059 UEO983059:UFB983059 UOK983059:UOX983059 UYG983059:UYT983059 VIC983059:VIP983059 VRY983059:VSL983059 WBU983059:WCH983059 WLQ983059:WMD983059 WVM983059:WVZ983059">
+      <formula1>"N,A,B, "</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E20:R20 JA20:JN20 SW20:TJ20 ACS20:ADF20 AMO20:ANB20 AWK20:AWX20 BGG20:BGT20 BQC20:BQP20 BZY20:CAL20 CJU20:CKH20 CTQ20:CUD20 DDM20:DDZ20 DNI20:DNV20 DXE20:DXR20 EHA20:EHN20 EQW20:ERJ20 FAS20:FBF20 FKO20:FLB20 FUK20:FUX20 GEG20:GET20 GOC20:GOP20 GXY20:GYL20 HHU20:HIH20 HRQ20:HSD20 IBM20:IBZ20 ILI20:ILV20 IVE20:IVR20 JFA20:JFN20 JOW20:JPJ20 JYS20:JZF20 KIO20:KJB20 KSK20:KSX20 LCG20:LCT20 LMC20:LMP20 LVY20:LWL20 MFU20:MGH20 MPQ20:MQD20 MZM20:MZZ20 NJI20:NJV20 NTE20:NTR20 ODA20:ODN20 OMW20:ONJ20 OWS20:OXF20 PGO20:PHB20 PQK20:PQX20 QAG20:QAT20 QKC20:QKP20 QTY20:QUL20 RDU20:REH20 RNQ20:ROD20 RXM20:RXZ20 SHI20:SHV20 SRE20:SRR20 TBA20:TBN20 TKW20:TLJ20 TUS20:TVF20 UEO20:UFB20 UOK20:UOX20 UYG20:UYT20 VIC20:VIP20 VRY20:VSL20 WBU20:WCH20 WLQ20:WMD20 WVM20:WVZ20 E65556:R65556 JA65556:JN65556 SW65556:TJ65556 ACS65556:ADF65556 AMO65556:ANB65556 AWK65556:AWX65556 BGG65556:BGT65556 BQC65556:BQP65556 BZY65556:CAL65556 CJU65556:CKH65556 CTQ65556:CUD65556 DDM65556:DDZ65556 DNI65556:DNV65556 DXE65556:DXR65556 EHA65556:EHN65556 EQW65556:ERJ65556 FAS65556:FBF65556 FKO65556:FLB65556 FUK65556:FUX65556 GEG65556:GET65556 GOC65556:GOP65556 GXY65556:GYL65556 HHU65556:HIH65556 HRQ65556:HSD65556 IBM65556:IBZ65556 ILI65556:ILV65556 IVE65556:IVR65556 JFA65556:JFN65556 JOW65556:JPJ65556 JYS65556:JZF65556 KIO65556:KJB65556 KSK65556:KSX65556 LCG65556:LCT65556 LMC65556:LMP65556 LVY65556:LWL65556 MFU65556:MGH65556 MPQ65556:MQD65556 MZM65556:MZZ65556 NJI65556:NJV65556 NTE65556:NTR65556 ODA65556:ODN65556 OMW65556:ONJ65556 OWS65556:OXF65556 PGO65556:PHB65556 PQK65556:PQX65556 QAG65556:QAT65556 QKC65556:QKP65556 QTY65556:QUL65556 RDU65556:REH65556 RNQ65556:ROD65556 RXM65556:RXZ65556 SHI65556:SHV65556 SRE65556:SRR65556 TBA65556:TBN65556 TKW65556:TLJ65556 TUS65556:TVF65556 UEO65556:UFB65556 UOK65556:UOX65556 UYG65556:UYT65556 VIC65556:VIP65556 VRY65556:VSL65556 WBU65556:WCH65556 WLQ65556:WMD65556 WVM65556:WVZ65556 E131092:R131092 JA131092:JN131092 SW131092:TJ131092 ACS131092:ADF131092 AMO131092:ANB131092 AWK131092:AWX131092 BGG131092:BGT131092 BQC131092:BQP131092 BZY131092:CAL131092 CJU131092:CKH131092 CTQ131092:CUD131092 DDM131092:DDZ131092 DNI131092:DNV131092 DXE131092:DXR131092 EHA131092:EHN131092 EQW131092:ERJ131092 FAS131092:FBF131092 FKO131092:FLB131092 FUK131092:FUX131092 GEG131092:GET131092 GOC131092:GOP131092 GXY131092:GYL131092 HHU131092:HIH131092 HRQ131092:HSD131092 IBM131092:IBZ131092 ILI131092:ILV131092 IVE131092:IVR131092 JFA131092:JFN131092 JOW131092:JPJ131092 JYS131092:JZF131092 KIO131092:KJB131092 KSK131092:KSX131092 LCG131092:LCT131092 LMC131092:LMP131092 LVY131092:LWL131092 MFU131092:MGH131092 MPQ131092:MQD131092 MZM131092:MZZ131092 NJI131092:NJV131092 NTE131092:NTR131092 ODA131092:ODN131092 OMW131092:ONJ131092 OWS131092:OXF131092 PGO131092:PHB131092 PQK131092:PQX131092 QAG131092:QAT131092 QKC131092:QKP131092 QTY131092:QUL131092 RDU131092:REH131092 RNQ131092:ROD131092 RXM131092:RXZ131092 SHI131092:SHV131092 SRE131092:SRR131092 TBA131092:TBN131092 TKW131092:TLJ131092 TUS131092:TVF131092 UEO131092:UFB131092 UOK131092:UOX131092 UYG131092:UYT131092 VIC131092:VIP131092 VRY131092:VSL131092 WBU131092:WCH131092 WLQ131092:WMD131092 WVM131092:WVZ131092 E196628:R196628 JA196628:JN196628 SW196628:TJ196628 ACS196628:ADF196628 AMO196628:ANB196628 AWK196628:AWX196628 BGG196628:BGT196628 BQC196628:BQP196628 BZY196628:CAL196628 CJU196628:CKH196628 CTQ196628:CUD196628 DDM196628:DDZ196628 DNI196628:DNV196628 DXE196628:DXR196628 EHA196628:EHN196628 EQW196628:ERJ196628 FAS196628:FBF196628 FKO196628:FLB196628 FUK196628:FUX196628 GEG196628:GET196628 GOC196628:GOP196628 GXY196628:GYL196628 HHU196628:HIH196628 HRQ196628:HSD196628 IBM196628:IBZ196628 ILI196628:ILV196628 IVE196628:IVR196628 JFA196628:JFN196628 JOW196628:JPJ196628 JYS196628:JZF196628 KIO196628:KJB196628 KSK196628:KSX196628 LCG196628:LCT196628 LMC196628:LMP196628 LVY196628:LWL196628 MFU196628:MGH196628 MPQ196628:MQD196628 MZM196628:MZZ196628 NJI196628:NJV196628 NTE196628:NTR196628 ODA196628:ODN196628 OMW196628:ONJ196628 OWS196628:OXF196628 PGO196628:PHB196628 PQK196628:PQX196628 QAG196628:QAT196628 QKC196628:QKP196628 QTY196628:QUL196628 RDU196628:REH196628 RNQ196628:ROD196628 RXM196628:RXZ196628 SHI196628:SHV196628 SRE196628:SRR196628 TBA196628:TBN196628 TKW196628:TLJ196628 TUS196628:TVF196628 UEO196628:UFB196628 UOK196628:UOX196628 UYG196628:UYT196628 VIC196628:VIP196628 VRY196628:VSL196628 WBU196628:WCH196628 WLQ196628:WMD196628 WVM196628:WVZ196628 E262164:R262164 JA262164:JN262164 SW262164:TJ262164 ACS262164:ADF262164 AMO262164:ANB262164 AWK262164:AWX262164 BGG262164:BGT262164 BQC262164:BQP262164 BZY262164:CAL262164 CJU262164:CKH262164 CTQ262164:CUD262164 DDM262164:DDZ262164 DNI262164:DNV262164 DXE262164:DXR262164 EHA262164:EHN262164 EQW262164:ERJ262164 FAS262164:FBF262164 FKO262164:FLB262164 FUK262164:FUX262164 GEG262164:GET262164 GOC262164:GOP262164 GXY262164:GYL262164 HHU262164:HIH262164 HRQ262164:HSD262164 IBM262164:IBZ262164 ILI262164:ILV262164 IVE262164:IVR262164 JFA262164:JFN262164 JOW262164:JPJ262164 JYS262164:JZF262164 KIO262164:KJB262164 KSK262164:KSX262164 LCG262164:LCT262164 LMC262164:LMP262164 LVY262164:LWL262164 MFU262164:MGH262164 MPQ262164:MQD262164 MZM262164:MZZ262164 NJI262164:NJV262164 NTE262164:NTR262164 ODA262164:ODN262164 OMW262164:ONJ262164 OWS262164:OXF262164 PGO262164:PHB262164 PQK262164:PQX262164 QAG262164:QAT262164 QKC262164:QKP262164 QTY262164:QUL262164 RDU262164:REH262164 RNQ262164:ROD262164 RXM262164:RXZ262164 SHI262164:SHV262164 SRE262164:SRR262164 TBA262164:TBN262164 TKW262164:TLJ262164 TUS262164:TVF262164 UEO262164:UFB262164 UOK262164:UOX262164 UYG262164:UYT262164 VIC262164:VIP262164 VRY262164:VSL262164 WBU262164:WCH262164 WLQ262164:WMD262164 WVM262164:WVZ262164 E327700:R327700 JA327700:JN327700 SW327700:TJ327700 ACS327700:ADF327700 AMO327700:ANB327700 AWK327700:AWX327700 BGG327700:BGT327700 BQC327700:BQP327700 BZY327700:CAL327700 CJU327700:CKH327700 CTQ327700:CUD327700 DDM327700:DDZ327700 DNI327700:DNV327700 DXE327700:DXR327700 EHA327700:EHN327700 EQW327700:ERJ327700 FAS327700:FBF327700 FKO327700:FLB327700 FUK327700:FUX327700 GEG327700:GET327700 GOC327700:GOP327700 GXY327700:GYL327700 HHU327700:HIH327700 HRQ327700:HSD327700 IBM327700:IBZ327700 ILI327700:ILV327700 IVE327700:IVR327700 JFA327700:JFN327700 JOW327700:JPJ327700 JYS327700:JZF327700 KIO327700:KJB327700 KSK327700:KSX327700 LCG327700:LCT327700 LMC327700:LMP327700 LVY327700:LWL327700 MFU327700:MGH327700 MPQ327700:MQD327700 MZM327700:MZZ327700 NJI327700:NJV327700 NTE327700:NTR327700 ODA327700:ODN327700 OMW327700:ONJ327700 OWS327700:OXF327700 PGO327700:PHB327700 PQK327700:PQX327700 QAG327700:QAT327700 QKC327700:QKP327700 QTY327700:QUL327700 RDU327700:REH327700 RNQ327700:ROD327700 RXM327700:RXZ327700 SHI327700:SHV327700 SRE327700:SRR327700 TBA327700:TBN327700 TKW327700:TLJ327700 TUS327700:TVF327700 UEO327700:UFB327700 UOK327700:UOX327700 UYG327700:UYT327700 VIC327700:VIP327700 VRY327700:VSL327700 WBU327700:WCH327700 WLQ327700:WMD327700 WVM327700:WVZ327700 E393236:R393236 JA393236:JN393236 SW393236:TJ393236 ACS393236:ADF393236 AMO393236:ANB393236 AWK393236:AWX393236 BGG393236:BGT393236 BQC393236:BQP393236 BZY393236:CAL393236 CJU393236:CKH393236 CTQ393236:CUD393236 DDM393236:DDZ393236 DNI393236:DNV393236 DXE393236:DXR393236 EHA393236:EHN393236 EQW393236:ERJ393236 FAS393236:FBF393236 FKO393236:FLB393236 FUK393236:FUX393236 GEG393236:GET393236 GOC393236:GOP393236 GXY393236:GYL393236 HHU393236:HIH393236 HRQ393236:HSD393236 IBM393236:IBZ393236 ILI393236:ILV393236 IVE393236:IVR393236 JFA393236:JFN393236 JOW393236:JPJ393236 JYS393236:JZF393236 KIO393236:KJB393236 KSK393236:KSX393236 LCG393236:LCT393236 LMC393236:LMP393236 LVY393236:LWL393236 MFU393236:MGH393236 MPQ393236:MQD393236 MZM393236:MZZ393236 NJI393236:NJV393236 NTE393236:NTR393236 ODA393236:ODN393236 OMW393236:ONJ393236 OWS393236:OXF393236 PGO393236:PHB393236 PQK393236:PQX393236 QAG393236:QAT393236 QKC393236:QKP393236 QTY393236:QUL393236 RDU393236:REH393236 RNQ393236:ROD393236 RXM393236:RXZ393236 SHI393236:SHV393236 SRE393236:SRR393236 TBA393236:TBN393236 TKW393236:TLJ393236 TUS393236:TVF393236 UEO393236:UFB393236 UOK393236:UOX393236 UYG393236:UYT393236 VIC393236:VIP393236 VRY393236:VSL393236 WBU393236:WCH393236 WLQ393236:WMD393236 WVM393236:WVZ393236 E458772:R458772 JA458772:JN458772 SW458772:TJ458772 ACS458772:ADF458772 AMO458772:ANB458772 AWK458772:AWX458772 BGG458772:BGT458772 BQC458772:BQP458772 BZY458772:CAL458772 CJU458772:CKH458772 CTQ458772:CUD458772 DDM458772:DDZ458772 DNI458772:DNV458772 DXE458772:DXR458772 EHA458772:EHN458772 EQW458772:ERJ458772 FAS458772:FBF458772 FKO458772:FLB458772 FUK458772:FUX458772 GEG458772:GET458772 GOC458772:GOP458772 GXY458772:GYL458772 HHU458772:HIH458772 HRQ458772:HSD458772 IBM458772:IBZ458772 ILI458772:ILV458772 IVE458772:IVR458772 JFA458772:JFN458772 JOW458772:JPJ458772 JYS458772:JZF458772 KIO458772:KJB458772 KSK458772:KSX458772 LCG458772:LCT458772 LMC458772:LMP458772 LVY458772:LWL458772 MFU458772:MGH458772 MPQ458772:MQD458772 MZM458772:MZZ458772 NJI458772:NJV458772 NTE458772:NTR458772 ODA458772:ODN458772 OMW458772:ONJ458772 OWS458772:OXF458772 PGO458772:PHB458772 PQK458772:PQX458772 QAG458772:QAT458772 QKC458772:QKP458772 QTY458772:QUL458772 RDU458772:REH458772 RNQ458772:ROD458772 RXM458772:RXZ458772 SHI458772:SHV458772 SRE458772:SRR458772 TBA458772:TBN458772 TKW458772:TLJ458772 TUS458772:TVF458772 UEO458772:UFB458772 UOK458772:UOX458772 UYG458772:UYT458772 VIC458772:VIP458772 VRY458772:VSL458772 WBU458772:WCH458772 WLQ458772:WMD458772 WVM458772:WVZ458772 E524308:R524308 JA524308:JN524308 SW524308:TJ524308 ACS524308:ADF524308 AMO524308:ANB524308 AWK524308:AWX524308 BGG524308:BGT524308 BQC524308:BQP524308 BZY524308:CAL524308 CJU524308:CKH524308 CTQ524308:CUD524308 DDM524308:DDZ524308 DNI524308:DNV524308 DXE524308:DXR524308 EHA524308:EHN524308 EQW524308:ERJ524308 FAS524308:FBF524308 FKO524308:FLB524308 FUK524308:FUX524308 GEG524308:GET524308 GOC524308:GOP524308 GXY524308:GYL524308 HHU524308:HIH524308 HRQ524308:HSD524308 IBM524308:IBZ524308 ILI524308:ILV524308 IVE524308:IVR524308 JFA524308:JFN524308 JOW524308:JPJ524308 JYS524308:JZF524308 KIO524308:KJB524308 KSK524308:KSX524308 LCG524308:LCT524308 LMC524308:LMP524308 LVY524308:LWL524308 MFU524308:MGH524308 MPQ524308:MQD524308 MZM524308:MZZ524308 NJI524308:NJV524308 NTE524308:NTR524308 ODA524308:ODN524308 OMW524308:ONJ524308 OWS524308:OXF524308 PGO524308:PHB524308 PQK524308:PQX524308 QAG524308:QAT524308 QKC524308:QKP524308 QTY524308:QUL524308 RDU524308:REH524308 RNQ524308:ROD524308 RXM524308:RXZ524308 SHI524308:SHV524308 SRE524308:SRR524308 TBA524308:TBN524308 TKW524308:TLJ524308 TUS524308:TVF524308 UEO524308:UFB524308 UOK524308:UOX524308 UYG524308:UYT524308 VIC524308:VIP524308 VRY524308:VSL524308 WBU524308:WCH524308 WLQ524308:WMD524308 WVM524308:WVZ524308 E589844:R589844 JA589844:JN589844 SW589844:TJ589844 ACS589844:ADF589844 AMO589844:ANB589844 AWK589844:AWX589844 BGG589844:BGT589844 BQC589844:BQP589844 BZY589844:CAL589844 CJU589844:CKH589844 CTQ589844:CUD589844 DDM589844:DDZ589844 DNI589844:DNV589844 DXE589844:DXR589844 EHA589844:EHN589844 EQW589844:ERJ589844 FAS589844:FBF589844 FKO589844:FLB589844 FUK589844:FUX589844 GEG589844:GET589844 GOC589844:GOP589844 GXY589844:GYL589844 HHU589844:HIH589844 HRQ589844:HSD589844 IBM589844:IBZ589844 ILI589844:ILV589844 IVE589844:IVR589844 JFA589844:JFN589844 JOW589844:JPJ589844 JYS589844:JZF589844 KIO589844:KJB589844 KSK589844:KSX589844 LCG589844:LCT589844 LMC589844:LMP589844 LVY589844:LWL589844 MFU589844:MGH589844 MPQ589844:MQD589844 MZM589844:MZZ589844 NJI589844:NJV589844 NTE589844:NTR589844 ODA589844:ODN589844 OMW589844:ONJ589844 OWS589844:OXF589844 PGO589844:PHB589844 PQK589844:PQX589844 QAG589844:QAT589844 QKC589844:QKP589844 QTY589844:QUL589844 RDU589844:REH589844 RNQ589844:ROD589844 RXM589844:RXZ589844 SHI589844:SHV589844 SRE589844:SRR589844 TBA589844:TBN589844 TKW589844:TLJ589844 TUS589844:TVF589844 UEO589844:UFB589844 UOK589844:UOX589844 UYG589844:UYT589844 VIC589844:VIP589844 VRY589844:VSL589844 WBU589844:WCH589844 WLQ589844:WMD589844 WVM589844:WVZ589844 E655380:R655380 JA655380:JN655380 SW655380:TJ655380 ACS655380:ADF655380 AMO655380:ANB655380 AWK655380:AWX655380 BGG655380:BGT655380 BQC655380:BQP655380 BZY655380:CAL655380 CJU655380:CKH655380 CTQ655380:CUD655380 DDM655380:DDZ655380 DNI655380:DNV655380 DXE655380:DXR655380 EHA655380:EHN655380 EQW655380:ERJ655380 FAS655380:FBF655380 FKO655380:FLB655380 FUK655380:FUX655380 GEG655380:GET655380 GOC655380:GOP655380 GXY655380:GYL655380 HHU655380:HIH655380 HRQ655380:HSD655380 IBM655380:IBZ655380 ILI655380:ILV655380 IVE655380:IVR655380 JFA655380:JFN655380 JOW655380:JPJ655380 JYS655380:JZF655380 KIO655380:KJB655380 KSK655380:KSX655380 LCG655380:LCT655380 LMC655380:LMP655380 LVY655380:LWL655380 MFU655380:MGH655380 MPQ655380:MQD655380 MZM655380:MZZ655380 NJI655380:NJV655380 NTE655380:NTR655380 ODA655380:ODN655380 OMW655380:ONJ655380 OWS655380:OXF655380 PGO655380:PHB655380 PQK655380:PQX655380 QAG655380:QAT655380 QKC655380:QKP655380 QTY655380:QUL655380 RDU655380:REH655380 RNQ655380:ROD655380 RXM655380:RXZ655380 SHI655380:SHV655380 SRE655380:SRR655380 TBA655380:TBN655380 TKW655380:TLJ655380 TUS655380:TVF655380 UEO655380:UFB655380 UOK655380:UOX655380 UYG655380:UYT655380 VIC655380:VIP655380 VRY655380:VSL655380 WBU655380:WCH655380 WLQ655380:WMD655380 WVM655380:WVZ655380 E720916:R720916 JA720916:JN720916 SW720916:TJ720916 ACS720916:ADF720916 AMO720916:ANB720916 AWK720916:AWX720916 BGG720916:BGT720916 BQC720916:BQP720916 BZY720916:CAL720916 CJU720916:CKH720916 CTQ720916:CUD720916 DDM720916:DDZ720916 DNI720916:DNV720916 DXE720916:DXR720916 EHA720916:EHN720916 EQW720916:ERJ720916 FAS720916:FBF720916 FKO720916:FLB720916 FUK720916:FUX720916 GEG720916:GET720916 GOC720916:GOP720916 GXY720916:GYL720916 HHU720916:HIH720916 HRQ720916:HSD720916 IBM720916:IBZ720916 ILI720916:ILV720916 IVE720916:IVR720916 JFA720916:JFN720916 JOW720916:JPJ720916 JYS720916:JZF720916 KIO720916:KJB720916 KSK720916:KSX720916 LCG720916:LCT720916 LMC720916:LMP720916 LVY720916:LWL720916 MFU720916:MGH720916 MPQ720916:MQD720916 MZM720916:MZZ720916 NJI720916:NJV720916 NTE720916:NTR720916 ODA720916:ODN720916 OMW720916:ONJ720916 OWS720916:OXF720916 PGO720916:PHB720916 PQK720916:PQX720916 QAG720916:QAT720916 QKC720916:QKP720916 QTY720916:QUL720916 RDU720916:REH720916 RNQ720916:ROD720916 RXM720916:RXZ720916 SHI720916:SHV720916 SRE720916:SRR720916 TBA720916:TBN720916 TKW720916:TLJ720916 TUS720916:TVF720916 UEO720916:UFB720916 UOK720916:UOX720916 UYG720916:UYT720916 VIC720916:VIP720916 VRY720916:VSL720916 WBU720916:WCH720916 WLQ720916:WMD720916 WVM720916:WVZ720916 E786452:R786452 JA786452:JN786452 SW786452:TJ786452 ACS786452:ADF786452 AMO786452:ANB786452 AWK786452:AWX786452 BGG786452:BGT786452 BQC786452:BQP786452 BZY786452:CAL786452 CJU786452:CKH786452 CTQ786452:CUD786452 DDM786452:DDZ786452 DNI786452:DNV786452 DXE786452:DXR786452 EHA786452:EHN786452 EQW786452:ERJ786452 FAS786452:FBF786452 FKO786452:FLB786452 FUK786452:FUX786452 GEG786452:GET786452 GOC786452:GOP786452 GXY786452:GYL786452 HHU786452:HIH786452 HRQ786452:HSD786452 IBM786452:IBZ786452 ILI786452:ILV786452 IVE786452:IVR786452 JFA786452:JFN786452 JOW786452:JPJ786452 JYS786452:JZF786452 KIO786452:KJB786452 KSK786452:KSX786452 LCG786452:LCT786452 LMC786452:LMP786452 LVY786452:LWL786452 MFU786452:MGH786452 MPQ786452:MQD786452 MZM786452:MZZ786452 NJI786452:NJV786452 NTE786452:NTR786452 ODA786452:ODN786452 OMW786452:ONJ786452 OWS786452:OXF786452 PGO786452:PHB786452 PQK786452:PQX786452 QAG786452:QAT786452 QKC786452:QKP786452 QTY786452:QUL786452 RDU786452:REH786452 RNQ786452:ROD786452 RXM786452:RXZ786452 SHI786452:SHV786452 SRE786452:SRR786452 TBA786452:TBN786452 TKW786452:TLJ786452 TUS786452:TVF786452 UEO786452:UFB786452 UOK786452:UOX786452 UYG786452:UYT786452 VIC786452:VIP786452 VRY786452:VSL786452 WBU786452:WCH786452 WLQ786452:WMD786452 WVM786452:WVZ786452 E851988:R851988 JA851988:JN851988 SW851988:TJ851988 ACS851988:ADF851988 AMO851988:ANB851988 AWK851988:AWX851988 BGG851988:BGT851988 BQC851988:BQP851988 BZY851988:CAL851988 CJU851988:CKH851988 CTQ851988:CUD851988 DDM851988:DDZ851988 DNI851988:DNV851988 DXE851988:DXR851988 EHA851988:EHN851988 EQW851988:ERJ851988 FAS851988:FBF851988 FKO851988:FLB851988 FUK851988:FUX851988 GEG851988:GET851988 GOC851988:GOP851988 GXY851988:GYL851988 HHU851988:HIH851988 HRQ851988:HSD851988 IBM851988:IBZ851988 ILI851988:ILV851988 IVE851988:IVR851988 JFA851988:JFN851988 JOW851988:JPJ851988 JYS851988:JZF851988 KIO851988:KJB851988 KSK851988:KSX851988 LCG851988:LCT851988 LMC851988:LMP851988 LVY851988:LWL851988 MFU851988:MGH851988 MPQ851988:MQD851988 MZM851988:MZZ851988 NJI851988:NJV851988 NTE851988:NTR851988 ODA851988:ODN851988 OMW851988:ONJ851988 OWS851988:OXF851988 PGO851988:PHB851988 PQK851988:PQX851988 QAG851988:QAT851988 QKC851988:QKP851988 QTY851988:QUL851988 RDU851988:REH851988 RNQ851988:ROD851988 RXM851988:RXZ851988 SHI851988:SHV851988 SRE851988:SRR851988 TBA851988:TBN851988 TKW851988:TLJ851988 TUS851988:TVF851988 UEO851988:UFB851988 UOK851988:UOX851988 UYG851988:UYT851988 VIC851988:VIP851988 VRY851988:VSL851988 WBU851988:WCH851988 WLQ851988:WMD851988 WVM851988:WVZ851988 E917524:R917524 JA917524:JN917524 SW917524:TJ917524 ACS917524:ADF917524 AMO917524:ANB917524 AWK917524:AWX917524 BGG917524:BGT917524 BQC917524:BQP917524 BZY917524:CAL917524 CJU917524:CKH917524 CTQ917524:CUD917524 DDM917524:DDZ917524 DNI917524:DNV917524 DXE917524:DXR917524 EHA917524:EHN917524 EQW917524:ERJ917524 FAS917524:FBF917524 FKO917524:FLB917524 FUK917524:FUX917524 GEG917524:GET917524 GOC917524:GOP917524 GXY917524:GYL917524 HHU917524:HIH917524 HRQ917524:HSD917524 IBM917524:IBZ917524 ILI917524:ILV917524 IVE917524:IVR917524 JFA917524:JFN917524 JOW917524:JPJ917524 JYS917524:JZF917524 KIO917524:KJB917524 KSK917524:KSX917524 LCG917524:LCT917524 LMC917524:LMP917524 LVY917524:LWL917524 MFU917524:MGH917524 MPQ917524:MQD917524 MZM917524:MZZ917524 NJI917524:NJV917524 NTE917524:NTR917524 ODA917524:ODN917524 OMW917524:ONJ917524 OWS917524:OXF917524 PGO917524:PHB917524 PQK917524:PQX917524 QAG917524:QAT917524 QKC917524:QKP917524 QTY917524:QUL917524 RDU917524:REH917524 RNQ917524:ROD917524 RXM917524:RXZ917524 SHI917524:SHV917524 SRE917524:SRR917524 TBA917524:TBN917524 TKW917524:TLJ917524 TUS917524:TVF917524 UEO917524:UFB917524 UOK917524:UOX917524 UYG917524:UYT917524 VIC917524:VIP917524 VRY917524:VSL917524 WBU917524:WCH917524 WLQ917524:WMD917524 WVM917524:WVZ917524 E983060:R983060 JA983060:JN983060 SW983060:TJ983060 ACS983060:ADF983060 AMO983060:ANB983060 AWK983060:AWX983060 BGG983060:BGT983060 BQC983060:BQP983060 BZY983060:CAL983060 CJU983060:CKH983060 CTQ983060:CUD983060 DDM983060:DDZ983060 DNI983060:DNV983060 DXE983060:DXR983060 EHA983060:EHN983060 EQW983060:ERJ983060 FAS983060:FBF983060 FKO983060:FLB983060 FUK983060:FUX983060 GEG983060:GET983060 GOC983060:GOP983060 GXY983060:GYL983060 HHU983060:HIH983060 HRQ983060:HSD983060 IBM983060:IBZ983060 ILI983060:ILV983060 IVE983060:IVR983060 JFA983060:JFN983060 JOW983060:JPJ983060 JYS983060:JZF983060 KIO983060:KJB983060 KSK983060:KSX983060 LCG983060:LCT983060 LMC983060:LMP983060 LVY983060:LWL983060 MFU983060:MGH983060 MPQ983060:MQD983060 MZM983060:MZZ983060 NJI983060:NJV983060 NTE983060:NTR983060 ODA983060:ODN983060 OMW983060:ONJ983060 OWS983060:OXF983060 PGO983060:PHB983060 PQK983060:PQX983060 QAG983060:QAT983060 QKC983060:QKP983060 QTY983060:QUL983060 RDU983060:REH983060 RNQ983060:ROD983060 RXM983060:RXZ983060 SHI983060:SHV983060 SRE983060:SRR983060 TBA983060:TBN983060 TKW983060:TLJ983060 TUS983060:TVF983060 UEO983060:UFB983060 UOK983060:UOX983060 UYG983060:UYT983060 VIC983060:VIP983060 VRY983060:VSL983060 WBU983060:WCH983060 WLQ983060:WMD983060 WVM983060:WVZ983060">
+      <formula1>"P,F, "</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>"O, "</xm:f>
+          </x14:formula1>
+          <xm:sqref>E9:G10 JA9:JC10 SW9:SY10 ACS9:ACU10 AMO9:AMQ10 AWK9:AWM10 BGG9:BGI10 BQC9:BQE10 BZY9:CAA10 CJU9:CJW10 CTQ9:CTS10 DDM9:DDO10 DNI9:DNK10 DXE9:DXG10 EHA9:EHC10 EQW9:EQY10 FAS9:FAU10 FKO9:FKQ10 FUK9:FUM10 GEG9:GEI10 GOC9:GOE10 GXY9:GYA10 HHU9:HHW10 HRQ9:HRS10 IBM9:IBO10 ILI9:ILK10 IVE9:IVG10 JFA9:JFC10 JOW9:JOY10 JYS9:JYU10 KIO9:KIQ10 KSK9:KSM10 LCG9:LCI10 LMC9:LME10 LVY9:LWA10 MFU9:MFW10 MPQ9:MPS10 MZM9:MZO10 NJI9:NJK10 NTE9:NTG10 ODA9:ODC10 OMW9:OMY10 OWS9:OWU10 PGO9:PGQ10 PQK9:PQM10 QAG9:QAI10 QKC9:QKE10 QTY9:QUA10 RDU9:RDW10 RNQ9:RNS10 RXM9:RXO10 SHI9:SHK10 SRE9:SRG10 TBA9:TBC10 TKW9:TKY10 TUS9:TUU10 UEO9:UEQ10 UOK9:UOM10 UYG9:UYI10 VIC9:VIE10 VRY9:VSA10 WBU9:WBW10 WLQ9:WLS10 WVM9:WVO10 E65541:G65542 JA65541:JC65542 SW65541:SY65542 ACS65541:ACU65542 AMO65541:AMQ65542 AWK65541:AWM65542 BGG65541:BGI65542 BQC65541:BQE65542 BZY65541:CAA65542 CJU65541:CJW65542 CTQ65541:CTS65542 DDM65541:DDO65542 DNI65541:DNK65542 DXE65541:DXG65542 EHA65541:EHC65542 EQW65541:EQY65542 FAS65541:FAU65542 FKO65541:FKQ65542 FUK65541:FUM65542 GEG65541:GEI65542 GOC65541:GOE65542 GXY65541:GYA65542 HHU65541:HHW65542 HRQ65541:HRS65542 IBM65541:IBO65542 ILI65541:ILK65542 IVE65541:IVG65542 JFA65541:JFC65542 JOW65541:JOY65542 JYS65541:JYU65542 KIO65541:KIQ65542 KSK65541:KSM65542 LCG65541:LCI65542 LMC65541:LME65542 LVY65541:LWA65542 MFU65541:MFW65542 MPQ65541:MPS65542 MZM65541:MZO65542 NJI65541:NJK65542 NTE65541:NTG65542 ODA65541:ODC65542 OMW65541:OMY65542 OWS65541:OWU65542 PGO65541:PGQ65542 PQK65541:PQM65542 QAG65541:QAI65542 QKC65541:QKE65542 QTY65541:QUA65542 RDU65541:RDW65542 RNQ65541:RNS65542 RXM65541:RXO65542 SHI65541:SHK65542 SRE65541:SRG65542 TBA65541:TBC65542 TKW65541:TKY65542 TUS65541:TUU65542 UEO65541:UEQ65542 UOK65541:UOM65542 UYG65541:UYI65542 VIC65541:VIE65542 VRY65541:VSA65542 WBU65541:WBW65542 WLQ65541:WLS65542 WVM65541:WVO65542 E131077:G131078 JA131077:JC131078 SW131077:SY131078 ACS131077:ACU131078 AMO131077:AMQ131078 AWK131077:AWM131078 BGG131077:BGI131078 BQC131077:BQE131078 BZY131077:CAA131078 CJU131077:CJW131078 CTQ131077:CTS131078 DDM131077:DDO131078 DNI131077:DNK131078 DXE131077:DXG131078 EHA131077:EHC131078 EQW131077:EQY131078 FAS131077:FAU131078 FKO131077:FKQ131078 FUK131077:FUM131078 GEG131077:GEI131078 GOC131077:GOE131078 GXY131077:GYA131078 HHU131077:HHW131078 HRQ131077:HRS131078 IBM131077:IBO131078 ILI131077:ILK131078 IVE131077:IVG131078 JFA131077:JFC131078 JOW131077:JOY131078 JYS131077:JYU131078 KIO131077:KIQ131078 KSK131077:KSM131078 LCG131077:LCI131078 LMC131077:LME131078 LVY131077:LWA131078 MFU131077:MFW131078 MPQ131077:MPS131078 MZM131077:MZO131078 NJI131077:NJK131078 NTE131077:NTG131078 ODA131077:ODC131078 OMW131077:OMY131078 OWS131077:OWU131078 PGO131077:PGQ131078 PQK131077:PQM131078 QAG131077:QAI131078 QKC131077:QKE131078 QTY131077:QUA131078 RDU131077:RDW131078 RNQ131077:RNS131078 RXM131077:RXO131078 SHI131077:SHK131078 SRE131077:SRG131078 TBA131077:TBC131078 TKW131077:TKY131078 TUS131077:TUU131078 UEO131077:UEQ131078 UOK131077:UOM131078 UYG131077:UYI131078 VIC131077:VIE131078 VRY131077:VSA131078 WBU131077:WBW131078 WLQ131077:WLS131078 WVM131077:WVO131078 E196613:G196614 JA196613:JC196614 SW196613:SY196614 ACS196613:ACU196614 AMO196613:AMQ196614 AWK196613:AWM196614 BGG196613:BGI196614 BQC196613:BQE196614 BZY196613:CAA196614 CJU196613:CJW196614 CTQ196613:CTS196614 DDM196613:DDO196614 DNI196613:DNK196614 DXE196613:DXG196614 EHA196613:EHC196614 EQW196613:EQY196614 FAS196613:FAU196614 FKO196613:FKQ196614 FUK196613:FUM196614 GEG196613:GEI196614 GOC196613:GOE196614 GXY196613:GYA196614 HHU196613:HHW196614 HRQ196613:HRS196614 IBM196613:IBO196614 ILI196613:ILK196614 IVE196613:IVG196614 JFA196613:JFC196614 JOW196613:JOY196614 JYS196613:JYU196614 KIO196613:KIQ196614 KSK196613:KSM196614 LCG196613:LCI196614 LMC196613:LME196614 LVY196613:LWA196614 MFU196613:MFW196614 MPQ196613:MPS196614 MZM196613:MZO196614 NJI196613:NJK196614 NTE196613:NTG196614 ODA196613:ODC196614 OMW196613:OMY196614 OWS196613:OWU196614 PGO196613:PGQ196614 PQK196613:PQM196614 QAG196613:QAI196614 QKC196613:QKE196614 QTY196613:QUA196614 RDU196613:RDW196614 RNQ196613:RNS196614 RXM196613:RXO196614 SHI196613:SHK196614 SRE196613:SRG196614 TBA196613:TBC196614 TKW196613:TKY196614 TUS196613:TUU196614 UEO196613:UEQ196614 UOK196613:UOM196614 UYG196613:UYI196614 VIC196613:VIE196614 VRY196613:VSA196614 WBU196613:WBW196614 WLQ196613:WLS196614 WVM196613:WVO196614 E262149:G262150 JA262149:JC262150 SW262149:SY262150 ACS262149:ACU262150 AMO262149:AMQ262150 AWK262149:AWM262150 BGG262149:BGI262150 BQC262149:BQE262150 BZY262149:CAA262150 CJU262149:CJW262150 CTQ262149:CTS262150 DDM262149:DDO262150 DNI262149:DNK262150 DXE262149:DXG262150 EHA262149:EHC262150 EQW262149:EQY262150 FAS262149:FAU262150 FKO262149:FKQ262150 FUK262149:FUM262150 GEG262149:GEI262150 GOC262149:GOE262150 GXY262149:GYA262150 HHU262149:HHW262150 HRQ262149:HRS262150 IBM262149:IBO262150 ILI262149:ILK262150 IVE262149:IVG262150 JFA262149:JFC262150 JOW262149:JOY262150 JYS262149:JYU262150 KIO262149:KIQ262150 KSK262149:KSM262150 LCG262149:LCI262150 LMC262149:LME262150 LVY262149:LWA262150 MFU262149:MFW262150 MPQ262149:MPS262150 MZM262149:MZO262150 NJI262149:NJK262150 NTE262149:NTG262150 ODA262149:ODC262150 OMW262149:OMY262150 OWS262149:OWU262150 PGO262149:PGQ262150 PQK262149:PQM262150 QAG262149:QAI262150 QKC262149:QKE262150 QTY262149:QUA262150 RDU262149:RDW262150 RNQ262149:RNS262150 RXM262149:RXO262150 SHI262149:SHK262150 SRE262149:SRG262150 TBA262149:TBC262150 TKW262149:TKY262150 TUS262149:TUU262150 UEO262149:UEQ262150 UOK262149:UOM262150 UYG262149:UYI262150 VIC262149:VIE262150 VRY262149:VSA262150 WBU262149:WBW262150 WLQ262149:WLS262150 WVM262149:WVO262150 E327685:G327686 JA327685:JC327686 SW327685:SY327686 ACS327685:ACU327686 AMO327685:AMQ327686 AWK327685:AWM327686 BGG327685:BGI327686 BQC327685:BQE327686 BZY327685:CAA327686 CJU327685:CJW327686 CTQ327685:CTS327686 DDM327685:DDO327686 DNI327685:DNK327686 DXE327685:DXG327686 EHA327685:EHC327686 EQW327685:EQY327686 FAS327685:FAU327686 FKO327685:FKQ327686 FUK327685:FUM327686 GEG327685:GEI327686 GOC327685:GOE327686 GXY327685:GYA327686 HHU327685:HHW327686 HRQ327685:HRS327686 IBM327685:IBO327686 ILI327685:ILK327686 IVE327685:IVG327686 JFA327685:JFC327686 JOW327685:JOY327686 JYS327685:JYU327686 KIO327685:KIQ327686 KSK327685:KSM327686 LCG327685:LCI327686 LMC327685:LME327686 LVY327685:LWA327686 MFU327685:MFW327686 MPQ327685:MPS327686 MZM327685:MZO327686 NJI327685:NJK327686 NTE327685:NTG327686 ODA327685:ODC327686 OMW327685:OMY327686 OWS327685:OWU327686 PGO327685:PGQ327686 PQK327685:PQM327686 QAG327685:QAI327686 QKC327685:QKE327686 QTY327685:QUA327686 RDU327685:RDW327686 RNQ327685:RNS327686 RXM327685:RXO327686 SHI327685:SHK327686 SRE327685:SRG327686 TBA327685:TBC327686 TKW327685:TKY327686 TUS327685:TUU327686 UEO327685:UEQ327686 UOK327685:UOM327686 UYG327685:UYI327686 VIC327685:VIE327686 VRY327685:VSA327686 WBU327685:WBW327686 WLQ327685:WLS327686 WVM327685:WVO327686 E393221:G393222 JA393221:JC393222 SW393221:SY393222 ACS393221:ACU393222 AMO393221:AMQ393222 AWK393221:AWM393222 BGG393221:BGI393222 BQC393221:BQE393222 BZY393221:CAA393222 CJU393221:CJW393222 CTQ393221:CTS393222 DDM393221:DDO393222 DNI393221:DNK393222 DXE393221:DXG393222 EHA393221:EHC393222 EQW393221:EQY393222 FAS393221:FAU393222 FKO393221:FKQ393222 FUK393221:FUM393222 GEG393221:GEI393222 GOC393221:GOE393222 GXY393221:GYA393222 HHU393221:HHW393222 HRQ393221:HRS393222 IBM393221:IBO393222 ILI393221:ILK393222 IVE393221:IVG393222 JFA393221:JFC393222 JOW393221:JOY393222 JYS393221:JYU393222 KIO393221:KIQ393222 KSK393221:KSM393222 LCG393221:LCI393222 LMC393221:LME393222 LVY393221:LWA393222 MFU393221:MFW393222 MPQ393221:MPS393222 MZM393221:MZO393222 NJI393221:NJK393222 NTE393221:NTG393222 ODA393221:ODC393222 OMW393221:OMY393222 OWS393221:OWU393222 PGO393221:PGQ393222 PQK393221:PQM393222 QAG393221:QAI393222 QKC393221:QKE393222 QTY393221:QUA393222 RDU393221:RDW393222 RNQ393221:RNS393222 RXM393221:RXO393222 SHI393221:SHK393222 SRE393221:SRG393222 TBA393221:TBC393222 TKW393221:TKY393222 TUS393221:TUU393222 UEO393221:UEQ393222 UOK393221:UOM393222 UYG393221:UYI393222 VIC393221:VIE393222 VRY393221:VSA393222 WBU393221:WBW393222 WLQ393221:WLS393222 WVM393221:WVO393222 E458757:G458758 JA458757:JC458758 SW458757:SY458758 ACS458757:ACU458758 AMO458757:AMQ458758 AWK458757:AWM458758 BGG458757:BGI458758 BQC458757:BQE458758 BZY458757:CAA458758 CJU458757:CJW458758 CTQ458757:CTS458758 DDM458757:DDO458758 DNI458757:DNK458758 DXE458757:DXG458758 EHA458757:EHC458758 EQW458757:EQY458758 FAS458757:FAU458758 FKO458757:FKQ458758 FUK458757:FUM458758 GEG458757:GEI458758 GOC458757:GOE458758 GXY458757:GYA458758 HHU458757:HHW458758 HRQ458757:HRS458758 IBM458757:IBO458758 ILI458757:ILK458758 IVE458757:IVG458758 JFA458757:JFC458758 JOW458757:JOY458758 JYS458757:JYU458758 KIO458757:KIQ458758 KSK458757:KSM458758 LCG458757:LCI458758 LMC458757:LME458758 LVY458757:LWA458758 MFU458757:MFW458758 MPQ458757:MPS458758 MZM458757:MZO458758 NJI458757:NJK458758 NTE458757:NTG458758 ODA458757:ODC458758 OMW458757:OMY458758 OWS458757:OWU458758 PGO458757:PGQ458758 PQK458757:PQM458758 QAG458757:QAI458758 QKC458757:QKE458758 QTY458757:QUA458758 RDU458757:RDW458758 RNQ458757:RNS458758 RXM458757:RXO458758 SHI458757:SHK458758 SRE458757:SRG458758 TBA458757:TBC458758 TKW458757:TKY458758 TUS458757:TUU458758 UEO458757:UEQ458758 UOK458757:UOM458758 UYG458757:UYI458758 VIC458757:VIE458758 VRY458757:VSA458758 WBU458757:WBW458758 WLQ458757:WLS458758 WVM458757:WVO458758 E524293:G524294 JA524293:JC524294 SW524293:SY524294 ACS524293:ACU524294 AMO524293:AMQ524294 AWK524293:AWM524294 BGG524293:BGI524294 BQC524293:BQE524294 BZY524293:CAA524294 CJU524293:CJW524294 CTQ524293:CTS524294 DDM524293:DDO524294 DNI524293:DNK524294 DXE524293:DXG524294 EHA524293:EHC524294 EQW524293:EQY524294 FAS524293:FAU524294 FKO524293:FKQ524294 FUK524293:FUM524294 GEG524293:GEI524294 GOC524293:GOE524294 GXY524293:GYA524294 HHU524293:HHW524294 HRQ524293:HRS524294 IBM524293:IBO524294 ILI524293:ILK524294 IVE524293:IVG524294 JFA524293:JFC524294 JOW524293:JOY524294 JYS524293:JYU524294 KIO524293:KIQ524294 KSK524293:KSM524294 LCG524293:LCI524294 LMC524293:LME524294 LVY524293:LWA524294 MFU524293:MFW524294 MPQ524293:MPS524294 MZM524293:MZO524294 NJI524293:NJK524294 NTE524293:NTG524294 ODA524293:ODC524294 OMW524293:OMY524294 OWS524293:OWU524294 PGO524293:PGQ524294 PQK524293:PQM524294 QAG524293:QAI524294 QKC524293:QKE524294 QTY524293:QUA524294 RDU524293:RDW524294 RNQ524293:RNS524294 RXM524293:RXO524294 SHI524293:SHK524294 SRE524293:SRG524294 TBA524293:TBC524294 TKW524293:TKY524294 TUS524293:TUU524294 UEO524293:UEQ524294 UOK524293:UOM524294 UYG524293:UYI524294 VIC524293:VIE524294 VRY524293:VSA524294 WBU524293:WBW524294 WLQ524293:WLS524294 WVM524293:WVO524294 E589829:G589830 JA589829:JC589830 SW589829:SY589830 ACS589829:ACU589830 AMO589829:AMQ589830 AWK589829:AWM589830 BGG589829:BGI589830 BQC589829:BQE589830 BZY589829:CAA589830 CJU589829:CJW589830 CTQ589829:CTS589830 DDM589829:DDO589830 DNI589829:DNK589830 DXE589829:DXG589830 EHA589829:EHC589830 EQW589829:EQY589830 FAS589829:FAU589830 FKO589829:FKQ589830 FUK589829:FUM589830 GEG589829:GEI589830 GOC589829:GOE589830 GXY589829:GYA589830 HHU589829:HHW589830 HRQ589829:HRS589830 IBM589829:IBO589830 ILI589829:ILK589830 IVE589829:IVG589830 JFA589829:JFC589830 JOW589829:JOY589830 JYS589829:JYU589830 KIO589829:KIQ589830 KSK589829:KSM589830 LCG589829:LCI589830 LMC589829:LME589830 LVY589829:LWA589830 MFU589829:MFW589830 MPQ589829:MPS589830 MZM589829:MZO589830 NJI589829:NJK589830 NTE589829:NTG589830 ODA589829:ODC589830 OMW589829:OMY589830 OWS589829:OWU589830 PGO589829:PGQ589830 PQK589829:PQM589830 QAG589829:QAI589830 QKC589829:QKE589830 QTY589829:QUA589830 RDU589829:RDW589830 RNQ589829:RNS589830 RXM589829:RXO589830 SHI589829:SHK589830 SRE589829:SRG589830 TBA589829:TBC589830 TKW589829:TKY589830 TUS589829:TUU589830 UEO589829:UEQ589830 UOK589829:UOM589830 UYG589829:UYI589830 VIC589829:VIE589830 VRY589829:VSA589830 WBU589829:WBW589830 WLQ589829:WLS589830 WVM589829:WVO589830 E655365:G655366 JA655365:JC655366 SW655365:SY655366 ACS655365:ACU655366 AMO655365:AMQ655366 AWK655365:AWM655366 BGG655365:BGI655366 BQC655365:BQE655366 BZY655365:CAA655366 CJU655365:CJW655366 CTQ655365:CTS655366 DDM655365:DDO655366 DNI655365:DNK655366 DXE655365:DXG655366 EHA655365:EHC655366 EQW655365:EQY655366 FAS655365:FAU655366 FKO655365:FKQ655366 FUK655365:FUM655366 GEG655365:GEI655366 GOC655365:GOE655366 GXY655365:GYA655366 HHU655365:HHW655366 HRQ655365:HRS655366 IBM655365:IBO655366 ILI655365:ILK655366 IVE655365:IVG655366 JFA655365:JFC655366 JOW655365:JOY655366 JYS655365:JYU655366 KIO655365:KIQ655366 KSK655365:KSM655366 LCG655365:LCI655366 LMC655365:LME655366 LVY655365:LWA655366 MFU655365:MFW655366 MPQ655365:MPS655366 MZM655365:MZO655366 NJI655365:NJK655366 NTE655365:NTG655366 ODA655365:ODC655366 OMW655365:OMY655366 OWS655365:OWU655366 PGO655365:PGQ655366 PQK655365:PQM655366 QAG655365:QAI655366 QKC655365:QKE655366 QTY655365:QUA655366 RDU655365:RDW655366 RNQ655365:RNS655366 RXM655365:RXO655366 SHI655365:SHK655366 SRE655365:SRG655366 TBA655365:TBC655366 TKW655365:TKY655366 TUS655365:TUU655366 UEO655365:UEQ655366 UOK655365:UOM655366 UYG655365:UYI655366 VIC655365:VIE655366 VRY655365:VSA655366 WBU655365:WBW655366 WLQ655365:WLS655366 WVM655365:WVO655366 E720901:G720902 JA720901:JC720902 SW720901:SY720902 ACS720901:ACU720902 AMO720901:AMQ720902 AWK720901:AWM720902 BGG720901:BGI720902 BQC720901:BQE720902 BZY720901:CAA720902 CJU720901:CJW720902 CTQ720901:CTS720902 DDM720901:DDO720902 DNI720901:DNK720902 DXE720901:DXG720902 EHA720901:EHC720902 EQW720901:EQY720902 FAS720901:FAU720902 FKO720901:FKQ720902 FUK720901:FUM720902 GEG720901:GEI720902 GOC720901:GOE720902 GXY720901:GYA720902 HHU720901:HHW720902 HRQ720901:HRS720902 IBM720901:IBO720902 ILI720901:ILK720902 IVE720901:IVG720902 JFA720901:JFC720902 JOW720901:JOY720902 JYS720901:JYU720902 KIO720901:KIQ720902 KSK720901:KSM720902 LCG720901:LCI720902 LMC720901:LME720902 LVY720901:LWA720902 MFU720901:MFW720902 MPQ720901:MPS720902 MZM720901:MZO720902 NJI720901:NJK720902 NTE720901:NTG720902 ODA720901:ODC720902 OMW720901:OMY720902 OWS720901:OWU720902 PGO720901:PGQ720902 PQK720901:PQM720902 QAG720901:QAI720902 QKC720901:QKE720902 QTY720901:QUA720902 RDU720901:RDW720902 RNQ720901:RNS720902 RXM720901:RXO720902 SHI720901:SHK720902 SRE720901:SRG720902 TBA720901:TBC720902 TKW720901:TKY720902 TUS720901:TUU720902 UEO720901:UEQ720902 UOK720901:UOM720902 UYG720901:UYI720902 VIC720901:VIE720902 VRY720901:VSA720902 WBU720901:WBW720902 WLQ720901:WLS720902 WVM720901:WVO720902 E786437:G786438 JA786437:JC786438 SW786437:SY786438 ACS786437:ACU786438 AMO786437:AMQ786438 AWK786437:AWM786438 BGG786437:BGI786438 BQC786437:BQE786438 BZY786437:CAA786438 CJU786437:CJW786438 CTQ786437:CTS786438 DDM786437:DDO786438 DNI786437:DNK786438 DXE786437:DXG786438 EHA786437:EHC786438 EQW786437:EQY786438 FAS786437:FAU786438 FKO786437:FKQ786438 FUK786437:FUM786438 GEG786437:GEI786438 GOC786437:GOE786438 GXY786437:GYA786438 HHU786437:HHW786438 HRQ786437:HRS786438 IBM786437:IBO786438 ILI786437:ILK786438 IVE786437:IVG786438 JFA786437:JFC786438 JOW786437:JOY786438 JYS786437:JYU786438 KIO786437:KIQ786438 KSK786437:KSM786438 LCG786437:LCI786438 LMC786437:LME786438 LVY786437:LWA786438 MFU786437:MFW786438 MPQ786437:MPS786438 MZM786437:MZO786438 NJI786437:NJK786438 NTE786437:NTG786438 ODA786437:ODC786438 OMW786437:OMY786438 OWS786437:OWU786438 PGO786437:PGQ786438 PQK786437:PQM786438 QAG786437:QAI786438 QKC786437:QKE786438 QTY786437:QUA786438 RDU786437:RDW786438 RNQ786437:RNS786438 RXM786437:RXO786438 SHI786437:SHK786438 SRE786437:SRG786438 TBA786437:TBC786438 TKW786437:TKY786438 TUS786437:TUU786438 UEO786437:UEQ786438 UOK786437:UOM786438 UYG786437:UYI786438 VIC786437:VIE786438 VRY786437:VSA786438 WBU786437:WBW786438 WLQ786437:WLS786438 WVM786437:WVO786438 E851973:G851974 JA851973:JC851974 SW851973:SY851974 ACS851973:ACU851974 AMO851973:AMQ851974 AWK851973:AWM851974 BGG851973:BGI851974 BQC851973:BQE851974 BZY851973:CAA851974 CJU851973:CJW851974 CTQ851973:CTS851974 DDM851973:DDO851974 DNI851973:DNK851974 DXE851973:DXG851974 EHA851973:EHC851974 EQW851973:EQY851974 FAS851973:FAU851974 FKO851973:FKQ851974 FUK851973:FUM851974 GEG851973:GEI851974 GOC851973:GOE851974 GXY851973:GYA851974 HHU851973:HHW851974 HRQ851973:HRS851974 IBM851973:IBO851974 ILI851973:ILK851974 IVE851973:IVG851974 JFA851973:JFC851974 JOW851973:JOY851974 JYS851973:JYU851974 KIO851973:KIQ851974 KSK851973:KSM851974 LCG851973:LCI851974 LMC851973:LME851974 LVY851973:LWA851974 MFU851973:MFW851974 MPQ851973:MPS851974 MZM851973:MZO851974 NJI851973:NJK851974 NTE851973:NTG851974 ODA851973:ODC851974 OMW851973:OMY851974 OWS851973:OWU851974 PGO851973:PGQ851974 PQK851973:PQM851974 QAG851973:QAI851974 QKC851973:QKE851974 QTY851973:QUA851974 RDU851973:RDW851974 RNQ851973:RNS851974 RXM851973:RXO851974 SHI851973:SHK851974 SRE851973:SRG851974 TBA851973:TBC851974 TKW851973:TKY851974 TUS851973:TUU851974 UEO851973:UEQ851974 UOK851973:UOM851974 UYG851973:UYI851974 VIC851973:VIE851974 VRY851973:VSA851974 WBU851973:WBW851974 WLQ851973:WLS851974 WVM851973:WVO851974 E917509:G917510 JA917509:JC917510 SW917509:SY917510 ACS917509:ACU917510 AMO917509:AMQ917510 AWK917509:AWM917510 BGG917509:BGI917510 BQC917509:BQE917510 BZY917509:CAA917510 CJU917509:CJW917510 CTQ917509:CTS917510 DDM917509:DDO917510 DNI917509:DNK917510 DXE917509:DXG917510 EHA917509:EHC917510 EQW917509:EQY917510 FAS917509:FAU917510 FKO917509:FKQ917510 FUK917509:FUM917510 GEG917509:GEI917510 GOC917509:GOE917510 GXY917509:GYA917510 HHU917509:HHW917510 HRQ917509:HRS917510 IBM917509:IBO917510 ILI917509:ILK917510 IVE917509:IVG917510 JFA917509:JFC917510 JOW917509:JOY917510 JYS917509:JYU917510 KIO917509:KIQ917510 KSK917509:KSM917510 LCG917509:LCI917510 LMC917509:LME917510 LVY917509:LWA917510 MFU917509:MFW917510 MPQ917509:MPS917510 MZM917509:MZO917510 NJI917509:NJK917510 NTE917509:NTG917510 ODA917509:ODC917510 OMW917509:OMY917510 OWS917509:OWU917510 PGO917509:PGQ917510 PQK917509:PQM917510 QAG917509:QAI917510 QKC917509:QKE917510 QTY917509:QUA917510 RDU917509:RDW917510 RNQ917509:RNS917510 RXM917509:RXO917510 SHI917509:SHK917510 SRE917509:SRG917510 TBA917509:TBC917510 TKW917509:TKY917510 TUS917509:TUU917510 UEO917509:UEQ917510 UOK917509:UOM917510 UYG917509:UYI917510 VIC917509:VIE917510 VRY917509:VSA917510 WBU917509:WBW917510 WLQ917509:WLS917510 WVM917509:WVO917510 E983045:G983046 JA983045:JC983046 SW983045:SY983046 ACS983045:ACU983046 AMO983045:AMQ983046 AWK983045:AWM983046 BGG983045:BGI983046 BQC983045:BQE983046 BZY983045:CAA983046 CJU983045:CJW983046 CTQ983045:CTS983046 DDM983045:DDO983046 DNI983045:DNK983046 DXE983045:DXG983046 EHA983045:EHC983046 EQW983045:EQY983046 FAS983045:FAU983046 FKO983045:FKQ983046 FUK983045:FUM983046 GEG983045:GEI983046 GOC983045:GOE983046 GXY983045:GYA983046 HHU983045:HHW983046 HRQ983045:HRS983046 IBM983045:IBO983046 ILI983045:ILK983046 IVE983045:IVG983046 JFA983045:JFC983046 JOW983045:JOY983046 JYS983045:JYU983046 KIO983045:KIQ983046 KSK983045:KSM983046 LCG983045:LCI983046 LMC983045:LME983046 LVY983045:LWA983046 MFU983045:MFW983046 MPQ983045:MPS983046 MZM983045:MZO983046 NJI983045:NJK983046 NTE983045:NTG983046 ODA983045:ODC983046 OMW983045:OMY983046 OWS983045:OWU983046 PGO983045:PGQ983046 PQK983045:PQM983046 QAG983045:QAI983046 QKC983045:QKE983046 QTY983045:QUA983046 RDU983045:RDW983046 RNQ983045:RNS983046 RXM983045:RXO983046 SHI983045:SHK983046 SRE983045:SRG983046 TBA983045:TBC983046 TKW983045:TKY983046 TUS983045:TUU983046 UEO983045:UEQ983046 UOK983045:UOM983046 UYG983045:UYI983046 VIC983045:VIE983046 VRY983045:VSA983046 WBU983045:WBW983046 WLQ983045:WLS983046 WVM983045:WVO983046 JA11:JN11 SW11:TJ11 ACS11:ADF11 AMO11:ANB11 AWK11:AWX11 BGG11:BGT11 BQC11:BQP11 BZY11:CAL11 CJU11:CKH11 CTQ11:CUD11 DDM11:DDZ11 DNI11:DNV11 DXE11:DXR11 EHA11:EHN11 EQW11:ERJ11 FAS11:FBF11 FKO11:FLB11 FUK11:FUX11 GEG11:GET11 GOC11:GOP11 GXY11:GYL11 HHU11:HIH11 HRQ11:HSD11 IBM11:IBZ11 ILI11:ILV11 IVE11:IVR11 JFA11:JFN11 JOW11:JPJ11 JYS11:JZF11 KIO11:KJB11 KSK11:KSX11 LCG11:LCT11 LMC11:LMP11 LVY11:LWL11 MFU11:MGH11 MPQ11:MQD11 MZM11:MZZ11 NJI11:NJV11 NTE11:NTR11 ODA11:ODN11 OMW11:ONJ11 OWS11:OXF11 PGO11:PHB11 PQK11:PQX11 QAG11:QAT11 QKC11:QKP11 QTY11:QUL11 RDU11:REH11 RNQ11:ROD11 RXM11:RXZ11 SHI11:SHV11 SRE11:SRR11 TBA11:TBN11 TKW11:TLJ11 TUS11:TVF11 UEO11:UFB11 UOK11:UOX11 UYG11:UYT11 VIC11:VIP11 VRY11:VSL11 WBU11:WCH11 WLQ11:WMD11 WVM11:WVZ11 E65543:R65544 JA65543:JN65544 SW65543:TJ65544 ACS65543:ADF65544 AMO65543:ANB65544 AWK65543:AWX65544 BGG65543:BGT65544 BQC65543:BQP65544 BZY65543:CAL65544 CJU65543:CKH65544 CTQ65543:CUD65544 DDM65543:DDZ65544 DNI65543:DNV65544 DXE65543:DXR65544 EHA65543:EHN65544 EQW65543:ERJ65544 FAS65543:FBF65544 FKO65543:FLB65544 FUK65543:FUX65544 GEG65543:GET65544 GOC65543:GOP65544 GXY65543:GYL65544 HHU65543:HIH65544 HRQ65543:HSD65544 IBM65543:IBZ65544 ILI65543:ILV65544 IVE65543:IVR65544 JFA65543:JFN65544 JOW65543:JPJ65544 JYS65543:JZF65544 KIO65543:KJB65544 KSK65543:KSX65544 LCG65543:LCT65544 LMC65543:LMP65544 LVY65543:LWL65544 MFU65543:MGH65544 MPQ65543:MQD65544 MZM65543:MZZ65544 NJI65543:NJV65544 NTE65543:NTR65544 ODA65543:ODN65544 OMW65543:ONJ65544 OWS65543:OXF65544 PGO65543:PHB65544 PQK65543:PQX65544 QAG65543:QAT65544 QKC65543:QKP65544 QTY65543:QUL65544 RDU65543:REH65544 RNQ65543:ROD65544 RXM65543:RXZ65544 SHI65543:SHV65544 SRE65543:SRR65544 TBA65543:TBN65544 TKW65543:TLJ65544 TUS65543:TVF65544 UEO65543:UFB65544 UOK65543:UOX65544 UYG65543:UYT65544 VIC65543:VIP65544 VRY65543:VSL65544 WBU65543:WCH65544 WLQ65543:WMD65544 WVM65543:WVZ65544 E131079:R131080 JA131079:JN131080 SW131079:TJ131080 ACS131079:ADF131080 AMO131079:ANB131080 AWK131079:AWX131080 BGG131079:BGT131080 BQC131079:BQP131080 BZY131079:CAL131080 CJU131079:CKH131080 CTQ131079:CUD131080 DDM131079:DDZ131080 DNI131079:DNV131080 DXE131079:DXR131080 EHA131079:EHN131080 EQW131079:ERJ131080 FAS131079:FBF131080 FKO131079:FLB131080 FUK131079:FUX131080 GEG131079:GET131080 GOC131079:GOP131080 GXY131079:GYL131080 HHU131079:HIH131080 HRQ131079:HSD131080 IBM131079:IBZ131080 ILI131079:ILV131080 IVE131079:IVR131080 JFA131079:JFN131080 JOW131079:JPJ131080 JYS131079:JZF131080 KIO131079:KJB131080 KSK131079:KSX131080 LCG131079:LCT131080 LMC131079:LMP131080 LVY131079:LWL131080 MFU131079:MGH131080 MPQ131079:MQD131080 MZM131079:MZZ131080 NJI131079:NJV131080 NTE131079:NTR131080 ODA131079:ODN131080 OMW131079:ONJ131080 OWS131079:OXF131080 PGO131079:PHB131080 PQK131079:PQX131080 QAG131079:QAT131080 QKC131079:QKP131080 QTY131079:QUL131080 RDU131079:REH131080 RNQ131079:ROD131080 RXM131079:RXZ131080 SHI131079:SHV131080 SRE131079:SRR131080 TBA131079:TBN131080 TKW131079:TLJ131080 TUS131079:TVF131080 UEO131079:UFB131080 UOK131079:UOX131080 UYG131079:UYT131080 VIC131079:VIP131080 VRY131079:VSL131080 WBU131079:WCH131080 WLQ131079:WMD131080 WVM131079:WVZ131080 E196615:R196616 JA196615:JN196616 SW196615:TJ196616 ACS196615:ADF196616 AMO196615:ANB196616 AWK196615:AWX196616 BGG196615:BGT196616 BQC196615:BQP196616 BZY196615:CAL196616 CJU196615:CKH196616 CTQ196615:CUD196616 DDM196615:DDZ196616 DNI196615:DNV196616 DXE196615:DXR196616 EHA196615:EHN196616 EQW196615:ERJ196616 FAS196615:FBF196616 FKO196615:FLB196616 FUK196615:FUX196616 GEG196615:GET196616 GOC196615:GOP196616 GXY196615:GYL196616 HHU196615:HIH196616 HRQ196615:HSD196616 IBM196615:IBZ196616 ILI196615:ILV196616 IVE196615:IVR196616 JFA196615:JFN196616 JOW196615:JPJ196616 JYS196615:JZF196616 KIO196615:KJB196616 KSK196615:KSX196616 LCG196615:LCT196616 LMC196615:LMP196616 LVY196615:LWL196616 MFU196615:MGH196616 MPQ196615:MQD196616 MZM196615:MZZ196616 NJI196615:NJV196616 NTE196615:NTR196616 ODA196615:ODN196616 OMW196615:ONJ196616 OWS196615:OXF196616 PGO196615:PHB196616 PQK196615:PQX196616 QAG196615:QAT196616 QKC196615:QKP196616 QTY196615:QUL196616 RDU196615:REH196616 RNQ196615:ROD196616 RXM196615:RXZ196616 SHI196615:SHV196616 SRE196615:SRR196616 TBA196615:TBN196616 TKW196615:TLJ196616 TUS196615:TVF196616 UEO196615:UFB196616 UOK196615:UOX196616 UYG196615:UYT196616 VIC196615:VIP196616 VRY196615:VSL196616 WBU196615:WCH196616 WLQ196615:WMD196616 WVM196615:WVZ196616 E262151:R262152 JA262151:JN262152 SW262151:TJ262152 ACS262151:ADF262152 AMO262151:ANB262152 AWK262151:AWX262152 BGG262151:BGT262152 BQC262151:BQP262152 BZY262151:CAL262152 CJU262151:CKH262152 CTQ262151:CUD262152 DDM262151:DDZ262152 DNI262151:DNV262152 DXE262151:DXR262152 EHA262151:EHN262152 EQW262151:ERJ262152 FAS262151:FBF262152 FKO262151:FLB262152 FUK262151:FUX262152 GEG262151:GET262152 GOC262151:GOP262152 GXY262151:GYL262152 HHU262151:HIH262152 HRQ262151:HSD262152 IBM262151:IBZ262152 ILI262151:ILV262152 IVE262151:IVR262152 JFA262151:JFN262152 JOW262151:JPJ262152 JYS262151:JZF262152 KIO262151:KJB262152 KSK262151:KSX262152 LCG262151:LCT262152 LMC262151:LMP262152 LVY262151:LWL262152 MFU262151:MGH262152 MPQ262151:MQD262152 MZM262151:MZZ262152 NJI262151:NJV262152 NTE262151:NTR262152 ODA262151:ODN262152 OMW262151:ONJ262152 OWS262151:OXF262152 PGO262151:PHB262152 PQK262151:PQX262152 QAG262151:QAT262152 QKC262151:QKP262152 QTY262151:QUL262152 RDU262151:REH262152 RNQ262151:ROD262152 RXM262151:RXZ262152 SHI262151:SHV262152 SRE262151:SRR262152 TBA262151:TBN262152 TKW262151:TLJ262152 TUS262151:TVF262152 UEO262151:UFB262152 UOK262151:UOX262152 UYG262151:UYT262152 VIC262151:VIP262152 VRY262151:VSL262152 WBU262151:WCH262152 WLQ262151:WMD262152 WVM262151:WVZ262152 E327687:R327688 JA327687:JN327688 SW327687:TJ327688 ACS327687:ADF327688 AMO327687:ANB327688 AWK327687:AWX327688 BGG327687:BGT327688 BQC327687:BQP327688 BZY327687:CAL327688 CJU327687:CKH327688 CTQ327687:CUD327688 DDM327687:DDZ327688 DNI327687:DNV327688 DXE327687:DXR327688 EHA327687:EHN327688 EQW327687:ERJ327688 FAS327687:FBF327688 FKO327687:FLB327688 FUK327687:FUX327688 GEG327687:GET327688 GOC327687:GOP327688 GXY327687:GYL327688 HHU327687:HIH327688 HRQ327687:HSD327688 IBM327687:IBZ327688 ILI327687:ILV327688 IVE327687:IVR327688 JFA327687:JFN327688 JOW327687:JPJ327688 JYS327687:JZF327688 KIO327687:KJB327688 KSK327687:KSX327688 LCG327687:LCT327688 LMC327687:LMP327688 LVY327687:LWL327688 MFU327687:MGH327688 MPQ327687:MQD327688 MZM327687:MZZ327688 NJI327687:NJV327688 NTE327687:NTR327688 ODA327687:ODN327688 OMW327687:ONJ327688 OWS327687:OXF327688 PGO327687:PHB327688 PQK327687:PQX327688 QAG327687:QAT327688 QKC327687:QKP327688 QTY327687:QUL327688 RDU327687:REH327688 RNQ327687:ROD327688 RXM327687:RXZ327688 SHI327687:SHV327688 SRE327687:SRR327688 TBA327687:TBN327688 TKW327687:TLJ327688 TUS327687:TVF327688 UEO327687:UFB327688 UOK327687:UOX327688 UYG327687:UYT327688 VIC327687:VIP327688 VRY327687:VSL327688 WBU327687:WCH327688 WLQ327687:WMD327688 WVM327687:WVZ327688 E393223:R393224 JA393223:JN393224 SW393223:TJ393224 ACS393223:ADF393224 AMO393223:ANB393224 AWK393223:AWX393224 BGG393223:BGT393224 BQC393223:BQP393224 BZY393223:CAL393224 CJU393223:CKH393224 CTQ393223:CUD393224 DDM393223:DDZ393224 DNI393223:DNV393224 DXE393223:DXR393224 EHA393223:EHN393224 EQW393223:ERJ393224 FAS393223:FBF393224 FKO393223:FLB393224 FUK393223:FUX393224 GEG393223:GET393224 GOC393223:GOP393224 GXY393223:GYL393224 HHU393223:HIH393224 HRQ393223:HSD393224 IBM393223:IBZ393224 ILI393223:ILV393224 IVE393223:IVR393224 JFA393223:JFN393224 JOW393223:JPJ393224 JYS393223:JZF393224 KIO393223:KJB393224 KSK393223:KSX393224 LCG393223:LCT393224 LMC393223:LMP393224 LVY393223:LWL393224 MFU393223:MGH393224 MPQ393223:MQD393224 MZM393223:MZZ393224 NJI393223:NJV393224 NTE393223:NTR393224 ODA393223:ODN393224 OMW393223:ONJ393224 OWS393223:OXF393224 PGO393223:PHB393224 PQK393223:PQX393224 QAG393223:QAT393224 QKC393223:QKP393224 QTY393223:QUL393224 RDU393223:REH393224 RNQ393223:ROD393224 RXM393223:RXZ393224 SHI393223:SHV393224 SRE393223:SRR393224 TBA393223:TBN393224 TKW393223:TLJ393224 TUS393223:TVF393224 UEO393223:UFB393224 UOK393223:UOX393224 UYG393223:UYT393224 VIC393223:VIP393224 VRY393223:VSL393224 WBU393223:WCH393224 WLQ393223:WMD393224 WVM393223:WVZ393224 E458759:R458760 JA458759:JN458760 SW458759:TJ458760 ACS458759:ADF458760 AMO458759:ANB458760 AWK458759:AWX458760 BGG458759:BGT458760 BQC458759:BQP458760 BZY458759:CAL458760 CJU458759:CKH458760 CTQ458759:CUD458760 DDM458759:DDZ458760 DNI458759:DNV458760 DXE458759:DXR458760 EHA458759:EHN458760 EQW458759:ERJ458760 FAS458759:FBF458760 FKO458759:FLB458760 FUK458759:FUX458760 GEG458759:GET458760 GOC458759:GOP458760 GXY458759:GYL458760 HHU458759:HIH458760 HRQ458759:HSD458760 IBM458759:IBZ458760 ILI458759:ILV458760 IVE458759:IVR458760 JFA458759:JFN458760 JOW458759:JPJ458760 JYS458759:JZF458760 KIO458759:KJB458760 KSK458759:KSX458760 LCG458759:LCT458760 LMC458759:LMP458760 LVY458759:LWL458760 MFU458759:MGH458760 MPQ458759:MQD458760 MZM458759:MZZ458760 NJI458759:NJV458760 NTE458759:NTR458760 ODA458759:ODN458760 OMW458759:ONJ458760 OWS458759:OXF458760 PGO458759:PHB458760 PQK458759:PQX458760 QAG458759:QAT458760 QKC458759:QKP458760 QTY458759:QUL458760 RDU458759:REH458760 RNQ458759:ROD458760 RXM458759:RXZ458760 SHI458759:SHV458760 SRE458759:SRR458760 TBA458759:TBN458760 TKW458759:TLJ458760 TUS458759:TVF458760 UEO458759:UFB458760 UOK458759:UOX458760 UYG458759:UYT458760 VIC458759:VIP458760 VRY458759:VSL458760 WBU458759:WCH458760 WLQ458759:WMD458760 WVM458759:WVZ458760 E524295:R524296 JA524295:JN524296 SW524295:TJ524296 ACS524295:ADF524296 AMO524295:ANB524296 AWK524295:AWX524296 BGG524295:BGT524296 BQC524295:BQP524296 BZY524295:CAL524296 CJU524295:CKH524296 CTQ524295:CUD524296 DDM524295:DDZ524296 DNI524295:DNV524296 DXE524295:DXR524296 EHA524295:EHN524296 EQW524295:ERJ524296 FAS524295:FBF524296 FKO524295:FLB524296 FUK524295:FUX524296 GEG524295:GET524296 GOC524295:GOP524296 GXY524295:GYL524296 HHU524295:HIH524296 HRQ524295:HSD524296 IBM524295:IBZ524296 ILI524295:ILV524296 IVE524295:IVR524296 JFA524295:JFN524296 JOW524295:JPJ524296 JYS524295:JZF524296 KIO524295:KJB524296 KSK524295:KSX524296 LCG524295:LCT524296 LMC524295:LMP524296 LVY524295:LWL524296 MFU524295:MGH524296 MPQ524295:MQD524296 MZM524295:MZZ524296 NJI524295:NJV524296 NTE524295:NTR524296 ODA524295:ODN524296 OMW524295:ONJ524296 OWS524295:OXF524296 PGO524295:PHB524296 PQK524295:PQX524296 QAG524295:QAT524296 QKC524295:QKP524296 QTY524295:QUL524296 RDU524295:REH524296 RNQ524295:ROD524296 RXM524295:RXZ524296 SHI524295:SHV524296 SRE524295:SRR524296 TBA524295:TBN524296 TKW524295:TLJ524296 TUS524295:TVF524296 UEO524295:UFB524296 UOK524295:UOX524296 UYG524295:UYT524296 VIC524295:VIP524296 VRY524295:VSL524296 WBU524295:WCH524296 WLQ524295:WMD524296 WVM524295:WVZ524296 E589831:R589832 JA589831:JN589832 SW589831:TJ589832 ACS589831:ADF589832 AMO589831:ANB589832 AWK589831:AWX589832 BGG589831:BGT589832 BQC589831:BQP589832 BZY589831:CAL589832 CJU589831:CKH589832 CTQ589831:CUD589832 DDM589831:DDZ589832 DNI589831:DNV589832 DXE589831:DXR589832 EHA589831:EHN589832 EQW589831:ERJ589832 FAS589831:FBF589832 FKO589831:FLB589832 FUK589831:FUX589832 GEG589831:GET589832 GOC589831:GOP589832 GXY589831:GYL589832 HHU589831:HIH589832 HRQ589831:HSD589832 IBM589831:IBZ589832 ILI589831:ILV589832 IVE589831:IVR589832 JFA589831:JFN589832 JOW589831:JPJ589832 JYS589831:JZF589832 KIO589831:KJB589832 KSK589831:KSX589832 LCG589831:LCT589832 LMC589831:LMP589832 LVY589831:LWL589832 MFU589831:MGH589832 MPQ589831:MQD589832 MZM589831:MZZ589832 NJI589831:NJV589832 NTE589831:NTR589832 ODA589831:ODN589832 OMW589831:ONJ589832 OWS589831:OXF589832 PGO589831:PHB589832 PQK589831:PQX589832 QAG589831:QAT589832 QKC589831:QKP589832 QTY589831:QUL589832 RDU589831:REH589832 RNQ589831:ROD589832 RXM589831:RXZ589832 SHI589831:SHV589832 SRE589831:SRR589832 TBA589831:TBN589832 TKW589831:TLJ589832 TUS589831:TVF589832 UEO589831:UFB589832 UOK589831:UOX589832 UYG589831:UYT589832 VIC589831:VIP589832 VRY589831:VSL589832 WBU589831:WCH589832 WLQ589831:WMD589832 WVM589831:WVZ589832 E655367:R655368 JA655367:JN655368 SW655367:TJ655368 ACS655367:ADF655368 AMO655367:ANB655368 AWK655367:AWX655368 BGG655367:BGT655368 BQC655367:BQP655368 BZY655367:CAL655368 CJU655367:CKH655368 CTQ655367:CUD655368 DDM655367:DDZ655368 DNI655367:DNV655368 DXE655367:DXR655368 EHA655367:EHN655368 EQW655367:ERJ655368 FAS655367:FBF655368 FKO655367:FLB655368 FUK655367:FUX655368 GEG655367:GET655368 GOC655367:GOP655368 GXY655367:GYL655368 HHU655367:HIH655368 HRQ655367:HSD655368 IBM655367:IBZ655368 ILI655367:ILV655368 IVE655367:IVR655368 JFA655367:JFN655368 JOW655367:JPJ655368 JYS655367:JZF655368 KIO655367:KJB655368 KSK655367:KSX655368 LCG655367:LCT655368 LMC655367:LMP655368 LVY655367:LWL655368 MFU655367:MGH655368 MPQ655367:MQD655368 MZM655367:MZZ655368 NJI655367:NJV655368 NTE655367:NTR655368 ODA655367:ODN655368 OMW655367:ONJ655368 OWS655367:OXF655368 PGO655367:PHB655368 PQK655367:PQX655368 QAG655367:QAT655368 QKC655367:QKP655368 QTY655367:QUL655368 RDU655367:REH655368 RNQ655367:ROD655368 RXM655367:RXZ655368 SHI655367:SHV655368 SRE655367:SRR655368 TBA655367:TBN655368 TKW655367:TLJ655368 TUS655367:TVF655368 UEO655367:UFB655368 UOK655367:UOX655368 UYG655367:UYT655368 VIC655367:VIP655368 VRY655367:VSL655368 WBU655367:WCH655368 WLQ655367:WMD655368 WVM655367:WVZ655368 E720903:R720904 JA720903:JN720904 SW720903:TJ720904 ACS720903:ADF720904 AMO720903:ANB720904 AWK720903:AWX720904 BGG720903:BGT720904 BQC720903:BQP720904 BZY720903:CAL720904 CJU720903:CKH720904 CTQ720903:CUD720904 DDM720903:DDZ720904 DNI720903:DNV720904 DXE720903:DXR720904 EHA720903:EHN720904 EQW720903:ERJ720904 FAS720903:FBF720904 FKO720903:FLB720904 FUK720903:FUX720904 GEG720903:GET720904 GOC720903:GOP720904 GXY720903:GYL720904 HHU720903:HIH720904 HRQ720903:HSD720904 IBM720903:IBZ720904 ILI720903:ILV720904 IVE720903:IVR720904 JFA720903:JFN720904 JOW720903:JPJ720904 JYS720903:JZF720904 KIO720903:KJB720904 KSK720903:KSX720904 LCG720903:LCT720904 LMC720903:LMP720904 LVY720903:LWL720904 MFU720903:MGH720904 MPQ720903:MQD720904 MZM720903:MZZ720904 NJI720903:NJV720904 NTE720903:NTR720904 ODA720903:ODN720904 OMW720903:ONJ720904 OWS720903:OXF720904 PGO720903:PHB720904 PQK720903:PQX720904 QAG720903:QAT720904 QKC720903:QKP720904 QTY720903:QUL720904 RDU720903:REH720904 RNQ720903:ROD720904 RXM720903:RXZ720904 SHI720903:SHV720904 SRE720903:SRR720904 TBA720903:TBN720904 TKW720903:TLJ720904 TUS720903:TVF720904 UEO720903:UFB720904 UOK720903:UOX720904 UYG720903:UYT720904 VIC720903:VIP720904 VRY720903:VSL720904 WBU720903:WCH720904 WLQ720903:WMD720904 WVM720903:WVZ720904 E786439:R786440 JA786439:JN786440 SW786439:TJ786440 ACS786439:ADF786440 AMO786439:ANB786440 AWK786439:AWX786440 BGG786439:BGT786440 BQC786439:BQP786440 BZY786439:CAL786440 CJU786439:CKH786440 CTQ786439:CUD786440 DDM786439:DDZ786440 DNI786439:DNV786440 DXE786439:DXR786440 EHA786439:EHN786440 EQW786439:ERJ786440 FAS786439:FBF786440 FKO786439:FLB786440 FUK786439:FUX786440 GEG786439:GET786440 GOC786439:GOP786440 GXY786439:GYL786440 HHU786439:HIH786440 HRQ786439:HSD786440 IBM786439:IBZ786440 ILI786439:ILV786440 IVE786439:IVR786440 JFA786439:JFN786440 JOW786439:JPJ786440 JYS786439:JZF786440 KIO786439:KJB786440 KSK786439:KSX786440 LCG786439:LCT786440 LMC786439:LMP786440 LVY786439:LWL786440 MFU786439:MGH786440 MPQ786439:MQD786440 MZM786439:MZZ786440 NJI786439:NJV786440 NTE786439:NTR786440 ODA786439:ODN786440 OMW786439:ONJ786440 OWS786439:OXF786440 PGO786439:PHB786440 PQK786439:PQX786440 QAG786439:QAT786440 QKC786439:QKP786440 QTY786439:QUL786440 RDU786439:REH786440 RNQ786439:ROD786440 RXM786439:RXZ786440 SHI786439:SHV786440 SRE786439:SRR786440 TBA786439:TBN786440 TKW786439:TLJ786440 TUS786439:TVF786440 UEO786439:UFB786440 UOK786439:UOX786440 UYG786439:UYT786440 VIC786439:VIP786440 VRY786439:VSL786440 WBU786439:WCH786440 WLQ786439:WMD786440 WVM786439:WVZ786440 E851975:R851976 JA851975:JN851976 SW851975:TJ851976 ACS851975:ADF851976 AMO851975:ANB851976 AWK851975:AWX851976 BGG851975:BGT851976 BQC851975:BQP851976 BZY851975:CAL851976 CJU851975:CKH851976 CTQ851975:CUD851976 DDM851975:DDZ851976 DNI851975:DNV851976 DXE851975:DXR851976 EHA851975:EHN851976 EQW851975:ERJ851976 FAS851975:FBF851976 FKO851975:FLB851976 FUK851975:FUX851976 GEG851975:GET851976 GOC851975:GOP851976 GXY851975:GYL851976 HHU851975:HIH851976 HRQ851975:HSD851976 IBM851975:IBZ851976 ILI851975:ILV851976 IVE851975:IVR851976 JFA851975:JFN851976 JOW851975:JPJ851976 JYS851975:JZF851976 KIO851975:KJB851976 KSK851975:KSX851976 LCG851975:LCT851976 LMC851975:LMP851976 LVY851975:LWL851976 MFU851975:MGH851976 MPQ851975:MQD851976 MZM851975:MZZ851976 NJI851975:NJV851976 NTE851975:NTR851976 ODA851975:ODN851976 OMW851975:ONJ851976 OWS851975:OXF851976 PGO851975:PHB851976 PQK851975:PQX851976 QAG851975:QAT851976 QKC851975:QKP851976 QTY851975:QUL851976 RDU851975:REH851976 RNQ851975:ROD851976 RXM851975:RXZ851976 SHI851975:SHV851976 SRE851975:SRR851976 TBA851975:TBN851976 TKW851975:TLJ851976 TUS851975:TVF851976 UEO851975:UFB851976 UOK851975:UOX851976 UYG851975:UYT851976 VIC851975:VIP851976 VRY851975:VSL851976 WBU851975:WCH851976 WLQ851975:WMD851976 WVM851975:WVZ851976 E917511:R917512 JA917511:JN917512 SW917511:TJ917512 ACS917511:ADF917512 AMO917511:ANB917512 AWK917511:AWX917512 BGG917511:BGT917512 BQC917511:BQP917512 BZY917511:CAL917512 CJU917511:CKH917512 CTQ917511:CUD917512 DDM917511:DDZ917512 DNI917511:DNV917512 DXE917511:DXR917512 EHA917511:EHN917512 EQW917511:ERJ917512 FAS917511:FBF917512 FKO917511:FLB917512 FUK917511:FUX917512 GEG917511:GET917512 GOC917511:GOP917512 GXY917511:GYL917512 HHU917511:HIH917512 HRQ917511:HSD917512 IBM917511:IBZ917512 ILI917511:ILV917512 IVE917511:IVR917512 JFA917511:JFN917512 JOW917511:JPJ917512 JYS917511:JZF917512 KIO917511:KJB917512 KSK917511:KSX917512 LCG917511:LCT917512 LMC917511:LMP917512 LVY917511:LWL917512 MFU917511:MGH917512 MPQ917511:MQD917512 MZM917511:MZZ917512 NJI917511:NJV917512 NTE917511:NTR917512 ODA917511:ODN917512 OMW917511:ONJ917512 OWS917511:OXF917512 PGO917511:PHB917512 PQK917511:PQX917512 QAG917511:QAT917512 QKC917511:QKP917512 QTY917511:QUL917512 RDU917511:REH917512 RNQ917511:ROD917512 RXM917511:RXZ917512 SHI917511:SHV917512 SRE917511:SRR917512 TBA917511:TBN917512 TKW917511:TLJ917512 TUS917511:TVF917512 UEO917511:UFB917512 UOK917511:UOX917512 UYG917511:UYT917512 VIC917511:VIP917512 VRY917511:VSL917512 WBU917511:WCH917512 WLQ917511:WMD917512 WVM917511:WVZ917512 E983047:R983048 JA983047:JN983048 SW983047:TJ983048 ACS983047:ADF983048 AMO983047:ANB983048 AWK983047:AWX983048 BGG983047:BGT983048 BQC983047:BQP983048 BZY983047:CAL983048 CJU983047:CKH983048 CTQ983047:CUD983048 DDM983047:DDZ983048 DNI983047:DNV983048 DXE983047:DXR983048 EHA983047:EHN983048 EQW983047:ERJ983048 FAS983047:FBF983048 FKO983047:FLB983048 FUK983047:FUX983048 GEG983047:GET983048 GOC983047:GOP983048 GXY983047:GYL983048 HHU983047:HIH983048 HRQ983047:HSD983048 IBM983047:IBZ983048 ILI983047:ILV983048 IVE983047:IVR983048 JFA983047:JFN983048 JOW983047:JPJ983048 JYS983047:JZF983048 KIO983047:KJB983048 KSK983047:KSX983048 LCG983047:LCT983048 LMC983047:LMP983048 LVY983047:LWL983048 MFU983047:MGH983048 MPQ983047:MQD983048 MZM983047:MZZ983048 NJI983047:NJV983048 NTE983047:NTR983048 ODA983047:ODN983048 OMW983047:ONJ983048 OWS983047:OXF983048 PGO983047:PHB983048 PQK983047:PQX983048 QAG983047:QAT983048 QKC983047:QKP983048 QTY983047:QUL983048 RDU983047:REH983048 RNQ983047:ROD983048 RXM983047:RXZ983048 SHI983047:SHV983048 SRE983047:SRR983048 TBA983047:TBN983048 TKW983047:TLJ983048 TUS983047:TVF983048 UEO983047:UFB983048 UOK983047:UOX983048 UYG983047:UYT983048 VIC983047:VIP983048 VRY983047:VSL983048 WBU983047:WCH983048 WLQ983047:WMD983048 WVM983047:WVZ983048 E11:R12 JC12:JN12 SY12:TJ12 ACU12:ADF12 AMQ12:ANB12 AWM12:AWX12 BGI12:BGT12 BQE12:BQP12 CAA12:CAL12 CJW12:CKH12 CTS12:CUD12 DDO12:DDZ12 DNK12:DNV12 DXG12:DXR12 EHC12:EHN12 EQY12:ERJ12 FAU12:FBF12 FKQ12:FLB12 FUM12:FUX12 GEI12:GET12 GOE12:GOP12 GYA12:GYL12 HHW12:HIH12 HRS12:HSD12 IBO12:IBZ12 ILK12:ILV12 IVG12:IVR12 JFC12:JFN12 JOY12:JPJ12 JYU12:JZF12 KIQ12:KJB12 KSM12:KSX12 LCI12:LCT12 LME12:LMP12 LWA12:LWL12 MFW12:MGH12 MPS12:MQD12 MZO12:MZZ12 NJK12:NJV12 NTG12:NTR12 ODC12:ODN12 OMY12:ONJ12 OWU12:OXF12 PGQ12:PHB12 PQM12:PQX12 QAI12:QAT12 QKE12:QKP12 QUA12:QUL12 RDW12:REH12 RNS12:ROD12 RXO12:RXZ12 SHK12:SHV12 SRG12:SRR12 TBC12:TBN12 TKY12:TLJ12 TUU12:TVF12 UEQ12:UFB12 UOM12:UOX12 UYI12:UYT12 VIE12:VIP12 VSA12:VSL12 WBW12:WCH12 WLS12:WMD12 WVO12:WVZ12 G65545:R65545 JC65545:JN65545 SY65545:TJ65545 ACU65545:ADF65545 AMQ65545:ANB65545 AWM65545:AWX65545 BGI65545:BGT65545 BQE65545:BQP65545 CAA65545:CAL65545 CJW65545:CKH65545 CTS65545:CUD65545 DDO65545:DDZ65545 DNK65545:DNV65545 DXG65545:DXR65545 EHC65545:EHN65545 EQY65545:ERJ65545 FAU65545:FBF65545 FKQ65545:FLB65545 FUM65545:FUX65545 GEI65545:GET65545 GOE65545:GOP65545 GYA65545:GYL65545 HHW65545:HIH65545 HRS65545:HSD65545 IBO65545:IBZ65545 ILK65545:ILV65545 IVG65545:IVR65545 JFC65545:JFN65545 JOY65545:JPJ65545 JYU65545:JZF65545 KIQ65545:KJB65545 KSM65545:KSX65545 LCI65545:LCT65545 LME65545:LMP65545 LWA65545:LWL65545 MFW65545:MGH65545 MPS65545:MQD65545 MZO65545:MZZ65545 NJK65545:NJV65545 NTG65545:NTR65545 ODC65545:ODN65545 OMY65545:ONJ65545 OWU65545:OXF65545 PGQ65545:PHB65545 PQM65545:PQX65545 QAI65545:QAT65545 QKE65545:QKP65545 QUA65545:QUL65545 RDW65545:REH65545 RNS65545:ROD65545 RXO65545:RXZ65545 SHK65545:SHV65545 SRG65545:SRR65545 TBC65545:TBN65545 TKY65545:TLJ65545 TUU65545:TVF65545 UEQ65545:UFB65545 UOM65545:UOX65545 UYI65545:UYT65545 VIE65545:VIP65545 VSA65545:VSL65545 WBW65545:WCH65545 WLS65545:WMD65545 WVO65545:WVZ65545 G131081:R131081 JC131081:JN131081 SY131081:TJ131081 ACU131081:ADF131081 AMQ131081:ANB131081 AWM131081:AWX131081 BGI131081:BGT131081 BQE131081:BQP131081 CAA131081:CAL131081 CJW131081:CKH131081 CTS131081:CUD131081 DDO131081:DDZ131081 DNK131081:DNV131081 DXG131081:DXR131081 EHC131081:EHN131081 EQY131081:ERJ131081 FAU131081:FBF131081 FKQ131081:FLB131081 FUM131081:FUX131081 GEI131081:GET131081 GOE131081:GOP131081 GYA131081:GYL131081 HHW131081:HIH131081 HRS131081:HSD131081 IBO131081:IBZ131081 ILK131081:ILV131081 IVG131081:IVR131081 JFC131081:JFN131081 JOY131081:JPJ131081 JYU131081:JZF131081 KIQ131081:KJB131081 KSM131081:KSX131081 LCI131081:LCT131081 LME131081:LMP131081 LWA131081:LWL131081 MFW131081:MGH131081 MPS131081:MQD131081 MZO131081:MZZ131081 NJK131081:NJV131081 NTG131081:NTR131081 ODC131081:ODN131081 OMY131081:ONJ131081 OWU131081:OXF131081 PGQ131081:PHB131081 PQM131081:PQX131081 QAI131081:QAT131081 QKE131081:QKP131081 QUA131081:QUL131081 RDW131081:REH131081 RNS131081:ROD131081 RXO131081:RXZ131081 SHK131081:SHV131081 SRG131081:SRR131081 TBC131081:TBN131081 TKY131081:TLJ131081 TUU131081:TVF131081 UEQ131081:UFB131081 UOM131081:UOX131081 UYI131081:UYT131081 VIE131081:VIP131081 VSA131081:VSL131081 WBW131081:WCH131081 WLS131081:WMD131081 WVO131081:WVZ131081 G196617:R196617 JC196617:JN196617 SY196617:TJ196617 ACU196617:ADF196617 AMQ196617:ANB196617 AWM196617:AWX196617 BGI196617:BGT196617 BQE196617:BQP196617 CAA196617:CAL196617 CJW196617:CKH196617 CTS196617:CUD196617 DDO196617:DDZ196617 DNK196617:DNV196617 DXG196617:DXR196617 EHC196617:EHN196617 EQY196617:ERJ196617 FAU196617:FBF196617 FKQ196617:FLB196617 FUM196617:FUX196617 GEI196617:GET196617 GOE196617:GOP196617 GYA196617:GYL196617 HHW196617:HIH196617 HRS196617:HSD196617 IBO196617:IBZ196617 ILK196617:ILV196617 IVG196617:IVR196617 JFC196617:JFN196617 JOY196617:JPJ196617 JYU196617:JZF196617 KIQ196617:KJB196617 KSM196617:KSX196617 LCI196617:LCT196617 LME196617:LMP196617 LWA196617:LWL196617 MFW196617:MGH196617 MPS196617:MQD196617 MZO196617:MZZ196617 NJK196617:NJV196617 NTG196617:NTR196617 ODC196617:ODN196617 OMY196617:ONJ196617 OWU196617:OXF196617 PGQ196617:PHB196617 PQM196617:PQX196617 QAI196617:QAT196617 QKE196617:QKP196617 QUA196617:QUL196617 RDW196617:REH196617 RNS196617:ROD196617 RXO196617:RXZ196617 SHK196617:SHV196617 SRG196617:SRR196617 TBC196617:TBN196617 TKY196617:TLJ196617 TUU196617:TVF196617 UEQ196617:UFB196617 UOM196617:UOX196617 UYI196617:UYT196617 VIE196617:VIP196617 VSA196617:VSL196617 WBW196617:WCH196617 WLS196617:WMD196617 WVO196617:WVZ196617 G262153:R262153 JC262153:JN262153 SY262153:TJ262153 ACU262153:ADF262153 AMQ262153:ANB262153 AWM262153:AWX262153 BGI262153:BGT262153 BQE262153:BQP262153 CAA262153:CAL262153 CJW262153:CKH262153 CTS262153:CUD262153 DDO262153:DDZ262153 DNK262153:DNV262153 DXG262153:DXR262153 EHC262153:EHN262153 EQY262153:ERJ262153 FAU262153:FBF262153 FKQ262153:FLB262153 FUM262153:FUX262153 GEI262153:GET262153 GOE262153:GOP262153 GYA262153:GYL262153 HHW262153:HIH262153 HRS262153:HSD262153 IBO262153:IBZ262153 ILK262153:ILV262153 IVG262153:IVR262153 JFC262153:JFN262153 JOY262153:JPJ262153 JYU262153:JZF262153 KIQ262153:KJB262153 KSM262153:KSX262153 LCI262153:LCT262153 LME262153:LMP262153 LWA262153:LWL262153 MFW262153:MGH262153 MPS262153:MQD262153 MZO262153:MZZ262153 NJK262153:NJV262153 NTG262153:NTR262153 ODC262153:ODN262153 OMY262153:ONJ262153 OWU262153:OXF262153 PGQ262153:PHB262153 PQM262153:PQX262153 QAI262153:QAT262153 QKE262153:QKP262153 QUA262153:QUL262153 RDW262153:REH262153 RNS262153:ROD262153 RXO262153:RXZ262153 SHK262153:SHV262153 SRG262153:SRR262153 TBC262153:TBN262153 TKY262153:TLJ262153 TUU262153:TVF262153 UEQ262153:UFB262153 UOM262153:UOX262153 UYI262153:UYT262153 VIE262153:VIP262153 VSA262153:VSL262153 WBW262153:WCH262153 WLS262153:WMD262153 WVO262153:WVZ262153 G327689:R327689 JC327689:JN327689 SY327689:TJ327689 ACU327689:ADF327689 AMQ327689:ANB327689 AWM327689:AWX327689 BGI327689:BGT327689 BQE327689:BQP327689 CAA327689:CAL327689 CJW327689:CKH327689 CTS327689:CUD327689 DDO327689:DDZ327689 DNK327689:DNV327689 DXG327689:DXR327689 EHC327689:EHN327689 EQY327689:ERJ327689 FAU327689:FBF327689 FKQ327689:FLB327689 FUM327689:FUX327689 GEI327689:GET327689 GOE327689:GOP327689 GYA327689:GYL327689 HHW327689:HIH327689 HRS327689:HSD327689 IBO327689:IBZ327689 ILK327689:ILV327689 IVG327689:IVR327689 JFC327689:JFN327689 JOY327689:JPJ327689 JYU327689:JZF327689 KIQ327689:KJB327689 KSM327689:KSX327689 LCI327689:LCT327689 LME327689:LMP327689 LWA327689:LWL327689 MFW327689:MGH327689 MPS327689:MQD327689 MZO327689:MZZ327689 NJK327689:NJV327689 NTG327689:NTR327689 ODC327689:ODN327689 OMY327689:ONJ327689 OWU327689:OXF327689 PGQ327689:PHB327689 PQM327689:PQX327689 QAI327689:QAT327689 QKE327689:QKP327689 QUA327689:QUL327689 RDW327689:REH327689 RNS327689:ROD327689 RXO327689:RXZ327689 SHK327689:SHV327689 SRG327689:SRR327689 TBC327689:TBN327689 TKY327689:TLJ327689 TUU327689:TVF327689 UEQ327689:UFB327689 UOM327689:UOX327689 UYI327689:UYT327689 VIE327689:VIP327689 VSA327689:VSL327689 WBW327689:WCH327689 WLS327689:WMD327689 WVO327689:WVZ327689 G393225:R393225 JC393225:JN393225 SY393225:TJ393225 ACU393225:ADF393225 AMQ393225:ANB393225 AWM393225:AWX393225 BGI393225:BGT393225 BQE393225:BQP393225 CAA393225:CAL393225 CJW393225:CKH393225 CTS393225:CUD393225 DDO393225:DDZ393225 DNK393225:DNV393225 DXG393225:DXR393225 EHC393225:EHN393225 EQY393225:ERJ393225 FAU393225:FBF393225 FKQ393225:FLB393225 FUM393225:FUX393225 GEI393225:GET393225 GOE393225:GOP393225 GYA393225:GYL393225 HHW393225:HIH393225 HRS393225:HSD393225 IBO393225:IBZ393225 ILK393225:ILV393225 IVG393225:IVR393225 JFC393225:JFN393225 JOY393225:JPJ393225 JYU393225:JZF393225 KIQ393225:KJB393225 KSM393225:KSX393225 LCI393225:LCT393225 LME393225:LMP393225 LWA393225:LWL393225 MFW393225:MGH393225 MPS393225:MQD393225 MZO393225:MZZ393225 NJK393225:NJV393225 NTG393225:NTR393225 ODC393225:ODN393225 OMY393225:ONJ393225 OWU393225:OXF393225 PGQ393225:PHB393225 PQM393225:PQX393225 QAI393225:QAT393225 QKE393225:QKP393225 QUA393225:QUL393225 RDW393225:REH393225 RNS393225:ROD393225 RXO393225:RXZ393225 SHK393225:SHV393225 SRG393225:SRR393225 TBC393225:TBN393225 TKY393225:TLJ393225 TUU393225:TVF393225 UEQ393225:UFB393225 UOM393225:UOX393225 UYI393225:UYT393225 VIE393225:VIP393225 VSA393225:VSL393225 WBW393225:WCH393225 WLS393225:WMD393225 WVO393225:WVZ393225 G458761:R458761 JC458761:JN458761 SY458761:TJ458761 ACU458761:ADF458761 AMQ458761:ANB458761 AWM458761:AWX458761 BGI458761:BGT458761 BQE458761:BQP458761 CAA458761:CAL458761 CJW458761:CKH458761 CTS458761:CUD458761 DDO458761:DDZ458761 DNK458761:DNV458761 DXG458761:DXR458761 EHC458761:EHN458761 EQY458761:ERJ458761 FAU458761:FBF458761 FKQ458761:FLB458761 FUM458761:FUX458761 GEI458761:GET458761 GOE458761:GOP458761 GYA458761:GYL458761 HHW458761:HIH458761 HRS458761:HSD458761 IBO458761:IBZ458761 ILK458761:ILV458761 IVG458761:IVR458761 JFC458761:JFN458761 JOY458761:JPJ458761 JYU458761:JZF458761 KIQ458761:KJB458761 KSM458761:KSX458761 LCI458761:LCT458761 LME458761:LMP458761 LWA458761:LWL458761 MFW458761:MGH458761 MPS458761:MQD458761 MZO458761:MZZ458761 NJK458761:NJV458761 NTG458761:NTR458761 ODC458761:ODN458761 OMY458761:ONJ458761 OWU458761:OXF458761 PGQ458761:PHB458761 PQM458761:PQX458761 QAI458761:QAT458761 QKE458761:QKP458761 QUA458761:QUL458761 RDW458761:REH458761 RNS458761:ROD458761 RXO458761:RXZ458761 SHK458761:SHV458761 SRG458761:SRR458761 TBC458761:TBN458761 TKY458761:TLJ458761 TUU458761:TVF458761 UEQ458761:UFB458761 UOM458761:UOX458761 UYI458761:UYT458761 VIE458761:VIP458761 VSA458761:VSL458761 WBW458761:WCH458761 WLS458761:WMD458761 WVO458761:WVZ458761 G524297:R524297 JC524297:JN524297 SY524297:TJ524297 ACU524297:ADF524297 AMQ524297:ANB524297 AWM524297:AWX524297 BGI524297:BGT524297 BQE524297:BQP524297 CAA524297:CAL524297 CJW524297:CKH524297 CTS524297:CUD524297 DDO524297:DDZ524297 DNK524297:DNV524297 DXG524297:DXR524297 EHC524297:EHN524297 EQY524297:ERJ524297 FAU524297:FBF524297 FKQ524297:FLB524297 FUM524297:FUX524297 GEI524297:GET524297 GOE524297:GOP524297 GYA524297:GYL524297 HHW524297:HIH524297 HRS524297:HSD524297 IBO524297:IBZ524297 ILK524297:ILV524297 IVG524297:IVR524297 JFC524297:JFN524297 JOY524297:JPJ524297 JYU524297:JZF524297 KIQ524297:KJB524297 KSM524297:KSX524297 LCI524297:LCT524297 LME524297:LMP524297 LWA524297:LWL524297 MFW524297:MGH524297 MPS524297:MQD524297 MZO524297:MZZ524297 NJK524297:NJV524297 NTG524297:NTR524297 ODC524297:ODN524297 OMY524297:ONJ524297 OWU524297:OXF524297 PGQ524297:PHB524297 PQM524297:PQX524297 QAI524297:QAT524297 QKE524297:QKP524297 QUA524297:QUL524297 RDW524297:REH524297 RNS524297:ROD524297 RXO524297:RXZ524297 SHK524297:SHV524297 SRG524297:SRR524297 TBC524297:TBN524297 TKY524297:TLJ524297 TUU524297:TVF524297 UEQ524297:UFB524297 UOM524297:UOX524297 UYI524297:UYT524297 VIE524297:VIP524297 VSA524297:VSL524297 WBW524297:WCH524297 WLS524297:WMD524297 WVO524297:WVZ524297 G589833:R589833 JC589833:JN589833 SY589833:TJ589833 ACU589833:ADF589833 AMQ589833:ANB589833 AWM589833:AWX589833 BGI589833:BGT589833 BQE589833:BQP589833 CAA589833:CAL589833 CJW589833:CKH589833 CTS589833:CUD589833 DDO589833:DDZ589833 DNK589833:DNV589833 DXG589833:DXR589833 EHC589833:EHN589833 EQY589833:ERJ589833 FAU589833:FBF589833 FKQ589833:FLB589833 FUM589833:FUX589833 GEI589833:GET589833 GOE589833:GOP589833 GYA589833:GYL589833 HHW589833:HIH589833 HRS589833:HSD589833 IBO589833:IBZ589833 ILK589833:ILV589833 IVG589833:IVR589833 JFC589833:JFN589833 JOY589833:JPJ589833 JYU589833:JZF589833 KIQ589833:KJB589833 KSM589833:KSX589833 LCI589833:LCT589833 LME589833:LMP589833 LWA589833:LWL589833 MFW589833:MGH589833 MPS589833:MQD589833 MZO589833:MZZ589833 NJK589833:NJV589833 NTG589833:NTR589833 ODC589833:ODN589833 OMY589833:ONJ589833 OWU589833:OXF589833 PGQ589833:PHB589833 PQM589833:PQX589833 QAI589833:QAT589833 QKE589833:QKP589833 QUA589833:QUL589833 RDW589833:REH589833 RNS589833:ROD589833 RXO589833:RXZ589833 SHK589833:SHV589833 SRG589833:SRR589833 TBC589833:TBN589833 TKY589833:TLJ589833 TUU589833:TVF589833 UEQ589833:UFB589833 UOM589833:UOX589833 UYI589833:UYT589833 VIE589833:VIP589833 VSA589833:VSL589833 WBW589833:WCH589833 WLS589833:WMD589833 WVO589833:WVZ589833 G655369:R655369 JC655369:JN655369 SY655369:TJ655369 ACU655369:ADF655369 AMQ655369:ANB655369 AWM655369:AWX655369 BGI655369:BGT655369 BQE655369:BQP655369 CAA655369:CAL655369 CJW655369:CKH655369 CTS655369:CUD655369 DDO655369:DDZ655369 DNK655369:DNV655369 DXG655369:DXR655369 EHC655369:EHN655369 EQY655369:ERJ655369 FAU655369:FBF655369 FKQ655369:FLB655369 FUM655369:FUX655369 GEI655369:GET655369 GOE655369:GOP655369 GYA655369:GYL655369 HHW655369:HIH655369 HRS655369:HSD655369 IBO655369:IBZ655369 ILK655369:ILV655369 IVG655369:IVR655369 JFC655369:JFN655369 JOY655369:JPJ655369 JYU655369:JZF655369 KIQ655369:KJB655369 KSM655369:KSX655369 LCI655369:LCT655369 LME655369:LMP655369 LWA655369:LWL655369 MFW655369:MGH655369 MPS655369:MQD655369 MZO655369:MZZ655369 NJK655369:NJV655369 NTG655369:NTR655369 ODC655369:ODN655369 OMY655369:ONJ655369 OWU655369:OXF655369 PGQ655369:PHB655369 PQM655369:PQX655369 QAI655369:QAT655369 QKE655369:QKP655369 QUA655369:QUL655369 RDW655369:REH655369 RNS655369:ROD655369 RXO655369:RXZ655369 SHK655369:SHV655369 SRG655369:SRR655369 TBC655369:TBN655369 TKY655369:TLJ655369 TUU655369:TVF655369 UEQ655369:UFB655369 UOM655369:UOX655369 UYI655369:UYT655369 VIE655369:VIP655369 VSA655369:VSL655369 WBW655369:WCH655369 WLS655369:WMD655369 WVO655369:WVZ655369 G720905:R720905 JC720905:JN720905 SY720905:TJ720905 ACU720905:ADF720905 AMQ720905:ANB720905 AWM720905:AWX720905 BGI720905:BGT720905 BQE720905:BQP720905 CAA720905:CAL720905 CJW720905:CKH720905 CTS720905:CUD720905 DDO720905:DDZ720905 DNK720905:DNV720905 DXG720905:DXR720905 EHC720905:EHN720905 EQY720905:ERJ720905 FAU720905:FBF720905 FKQ720905:FLB720905 FUM720905:FUX720905 GEI720905:GET720905 GOE720905:GOP720905 GYA720905:GYL720905 HHW720905:HIH720905 HRS720905:HSD720905 IBO720905:IBZ720905 ILK720905:ILV720905 IVG720905:IVR720905 JFC720905:JFN720905 JOY720905:JPJ720905 JYU720905:JZF720905 KIQ720905:KJB720905 KSM720905:KSX720905 LCI720905:LCT720905 LME720905:LMP720905 LWA720905:LWL720905 MFW720905:MGH720905 MPS720905:MQD720905 MZO720905:MZZ720905 NJK720905:NJV720905 NTG720905:NTR720905 ODC720905:ODN720905 OMY720905:ONJ720905 OWU720905:OXF720905 PGQ720905:PHB720905 PQM720905:PQX720905 QAI720905:QAT720905 QKE720905:QKP720905 QUA720905:QUL720905 RDW720905:REH720905 RNS720905:ROD720905 RXO720905:RXZ720905 SHK720905:SHV720905 SRG720905:SRR720905 TBC720905:TBN720905 TKY720905:TLJ720905 TUU720905:TVF720905 UEQ720905:UFB720905 UOM720905:UOX720905 UYI720905:UYT720905 VIE720905:VIP720905 VSA720905:VSL720905 WBW720905:WCH720905 WLS720905:WMD720905 WVO720905:WVZ720905 G786441:R786441 JC786441:JN786441 SY786441:TJ786441 ACU786441:ADF786441 AMQ786441:ANB786441 AWM786441:AWX786441 BGI786441:BGT786441 BQE786441:BQP786441 CAA786441:CAL786441 CJW786441:CKH786441 CTS786441:CUD786441 DDO786441:DDZ786441 DNK786441:DNV786441 DXG786441:DXR786441 EHC786441:EHN786441 EQY786441:ERJ786441 FAU786441:FBF786441 FKQ786441:FLB786441 FUM786441:FUX786441 GEI786441:GET786441 GOE786441:GOP786441 GYA786441:GYL786441 HHW786441:HIH786441 HRS786441:HSD786441 IBO786441:IBZ786441 ILK786441:ILV786441 IVG786441:IVR786441 JFC786441:JFN786441 JOY786441:JPJ786441 JYU786441:JZF786441 KIQ786441:KJB786441 KSM786441:KSX786441 LCI786441:LCT786441 LME786441:LMP786441 LWA786441:LWL786441 MFW786441:MGH786441 MPS786441:MQD786441 MZO786441:MZZ786441 NJK786441:NJV786441 NTG786441:NTR786441 ODC786441:ODN786441 OMY786441:ONJ786441 OWU786441:OXF786441 PGQ786441:PHB786441 PQM786441:PQX786441 QAI786441:QAT786441 QKE786441:QKP786441 QUA786441:QUL786441 RDW786441:REH786441 RNS786441:ROD786441 RXO786441:RXZ786441 SHK786441:SHV786441 SRG786441:SRR786441 TBC786441:TBN786441 TKY786441:TLJ786441 TUU786441:TVF786441 UEQ786441:UFB786441 UOM786441:UOX786441 UYI786441:UYT786441 VIE786441:VIP786441 VSA786441:VSL786441 WBW786441:WCH786441 WLS786441:WMD786441 WVO786441:WVZ786441 G851977:R851977 JC851977:JN851977 SY851977:TJ851977 ACU851977:ADF851977 AMQ851977:ANB851977 AWM851977:AWX851977 BGI851977:BGT851977 BQE851977:BQP851977 CAA851977:CAL851977 CJW851977:CKH851977 CTS851977:CUD851977 DDO851977:DDZ851977 DNK851977:DNV851977 DXG851977:DXR851977 EHC851977:EHN851977 EQY851977:ERJ851977 FAU851977:FBF851977 FKQ851977:FLB851977 FUM851977:FUX851977 GEI851977:GET851977 GOE851977:GOP851977 GYA851977:GYL851977 HHW851977:HIH851977 HRS851977:HSD851977 IBO851977:IBZ851977 ILK851977:ILV851977 IVG851977:IVR851977 JFC851977:JFN851977 JOY851977:JPJ851977 JYU851977:JZF851977 KIQ851977:KJB851977 KSM851977:KSX851977 LCI851977:LCT851977 LME851977:LMP851977 LWA851977:LWL851977 MFW851977:MGH851977 MPS851977:MQD851977 MZO851977:MZZ851977 NJK851977:NJV851977 NTG851977:NTR851977 ODC851977:ODN851977 OMY851977:ONJ851977 OWU851977:OXF851977 PGQ851977:PHB851977 PQM851977:PQX851977 QAI851977:QAT851977 QKE851977:QKP851977 QUA851977:QUL851977 RDW851977:REH851977 RNS851977:ROD851977 RXO851977:RXZ851977 SHK851977:SHV851977 SRG851977:SRR851977 TBC851977:TBN851977 TKY851977:TLJ851977 TUU851977:TVF851977 UEQ851977:UFB851977 UOM851977:UOX851977 UYI851977:UYT851977 VIE851977:VIP851977 VSA851977:VSL851977 WBW851977:WCH851977 WLS851977:WMD851977 WVO851977:WVZ851977 G917513:R917513 JC917513:JN917513 SY917513:TJ917513 ACU917513:ADF917513 AMQ917513:ANB917513 AWM917513:AWX917513 BGI917513:BGT917513 BQE917513:BQP917513 CAA917513:CAL917513 CJW917513:CKH917513 CTS917513:CUD917513 DDO917513:DDZ917513 DNK917513:DNV917513 DXG917513:DXR917513 EHC917513:EHN917513 EQY917513:ERJ917513 FAU917513:FBF917513 FKQ917513:FLB917513 FUM917513:FUX917513 GEI917513:GET917513 GOE917513:GOP917513 GYA917513:GYL917513 HHW917513:HIH917513 HRS917513:HSD917513 IBO917513:IBZ917513 ILK917513:ILV917513 IVG917513:IVR917513 JFC917513:JFN917513 JOY917513:JPJ917513 JYU917513:JZF917513 KIQ917513:KJB917513 KSM917513:KSX917513 LCI917513:LCT917513 LME917513:LMP917513 LWA917513:LWL917513 MFW917513:MGH917513 MPS917513:MQD917513 MZO917513:MZZ917513 NJK917513:NJV917513 NTG917513:NTR917513 ODC917513:ODN917513 OMY917513:ONJ917513 OWU917513:OXF917513 PGQ917513:PHB917513 PQM917513:PQX917513 QAI917513:QAT917513 QKE917513:QKP917513 QUA917513:QUL917513 RDW917513:REH917513 RNS917513:ROD917513 RXO917513:RXZ917513 SHK917513:SHV917513 SRG917513:SRR917513 TBC917513:TBN917513 TKY917513:TLJ917513 TUU917513:TVF917513 UEQ917513:UFB917513 UOM917513:UOX917513 UYI917513:UYT917513 VIE917513:VIP917513 VSA917513:VSL917513 WBW917513:WCH917513 WLS917513:WMD917513 WVO917513:WVZ917513 G983049:R983049 JC983049:JN983049 SY983049:TJ983049 ACU983049:ADF983049 AMQ983049:ANB983049 AWM983049:AWX983049 BGI983049:BGT983049 BQE983049:BQP983049 CAA983049:CAL983049 CJW983049:CKH983049 CTS983049:CUD983049 DDO983049:DDZ983049 DNK983049:DNV983049 DXG983049:DXR983049 EHC983049:EHN983049 EQY983049:ERJ983049 FAU983049:FBF983049 FKQ983049:FLB983049 FUM983049:FUX983049 GEI983049:GET983049 GOE983049:GOP983049 GYA983049:GYL983049 HHW983049:HIH983049 HRS983049:HSD983049 IBO983049:IBZ983049 ILK983049:ILV983049 IVG983049:IVR983049 JFC983049:JFN983049 JOY983049:JPJ983049 JYU983049:JZF983049 KIQ983049:KJB983049 KSM983049:KSX983049 LCI983049:LCT983049 LME983049:LMP983049 LWA983049:LWL983049 MFW983049:MGH983049 MPS983049:MQD983049 MZO983049:MZZ983049 NJK983049:NJV983049 NTG983049:NTR983049 ODC983049:ODN983049 OMY983049:ONJ983049 OWU983049:OXF983049 PGQ983049:PHB983049 PQM983049:PQX983049 QAI983049:QAT983049 QKE983049:QKP983049 QUA983049:QUL983049 RDW983049:REH983049 RNS983049:ROD983049 RXO983049:RXZ983049 SHK983049:SHV983049 SRG983049:SRR983049 TBC983049:TBN983049 TKY983049:TLJ983049 TUU983049:TVF983049 UEQ983049:UFB983049 UOM983049:UOX983049 UYI983049:UYT983049 VIE983049:VIP983049 VSA983049:VSL983049 WBW983049:WCH983049 WLS983049:WMD983049 WVO983049:WVZ983049 H13:R13 JD13:JN13 SZ13:TJ13 ACV13:ADF13 AMR13:ANB13 AWN13:AWX13 BGJ13:BGT13 BQF13:BQP13 CAB13:CAL13 CJX13:CKH13 CTT13:CUD13 DDP13:DDZ13 DNL13:DNV13 DXH13:DXR13 EHD13:EHN13 EQZ13:ERJ13 FAV13:FBF13 FKR13:FLB13 FUN13:FUX13 GEJ13:GET13 GOF13:GOP13 GYB13:GYL13 HHX13:HIH13 HRT13:HSD13 IBP13:IBZ13 ILL13:ILV13 IVH13:IVR13 JFD13:JFN13 JOZ13:JPJ13 JYV13:JZF13 KIR13:KJB13 KSN13:KSX13 LCJ13:LCT13 LMF13:LMP13 LWB13:LWL13 MFX13:MGH13 MPT13:MQD13 MZP13:MZZ13 NJL13:NJV13 NTH13:NTR13 ODD13:ODN13 OMZ13:ONJ13 OWV13:OXF13 PGR13:PHB13 PQN13:PQX13 QAJ13:QAT13 QKF13:QKP13 QUB13:QUL13 RDX13:REH13 RNT13:ROD13 RXP13:RXZ13 SHL13:SHV13 SRH13:SRR13 TBD13:TBN13 TKZ13:TLJ13 TUV13:TVF13 UER13:UFB13 UON13:UOX13 UYJ13:UYT13 VIF13:VIP13 VSB13:VSL13 WBX13:WCH13 WLT13:WMD13 WVP13:WVZ13 H65546:R65546 JD65546:JN65546 SZ65546:TJ65546 ACV65546:ADF65546 AMR65546:ANB65546 AWN65546:AWX65546 BGJ65546:BGT65546 BQF65546:BQP65546 CAB65546:CAL65546 CJX65546:CKH65546 CTT65546:CUD65546 DDP65546:DDZ65546 DNL65546:DNV65546 DXH65546:DXR65546 EHD65546:EHN65546 EQZ65546:ERJ65546 FAV65546:FBF65546 FKR65546:FLB65546 FUN65546:FUX65546 GEJ65546:GET65546 GOF65546:GOP65546 GYB65546:GYL65546 HHX65546:HIH65546 HRT65546:HSD65546 IBP65546:IBZ65546 ILL65546:ILV65546 IVH65546:IVR65546 JFD65546:JFN65546 JOZ65546:JPJ65546 JYV65546:JZF65546 KIR65546:KJB65546 KSN65546:KSX65546 LCJ65546:LCT65546 LMF65546:LMP65546 LWB65546:LWL65546 MFX65546:MGH65546 MPT65546:MQD65546 MZP65546:MZZ65546 NJL65546:NJV65546 NTH65546:NTR65546 ODD65546:ODN65546 OMZ65546:ONJ65546 OWV65546:OXF65546 PGR65546:PHB65546 PQN65546:PQX65546 QAJ65546:QAT65546 QKF65546:QKP65546 QUB65546:QUL65546 RDX65546:REH65546 RNT65546:ROD65546 RXP65546:RXZ65546 SHL65546:SHV65546 SRH65546:SRR65546 TBD65546:TBN65546 TKZ65546:TLJ65546 TUV65546:TVF65546 UER65546:UFB65546 UON65546:UOX65546 UYJ65546:UYT65546 VIF65546:VIP65546 VSB65546:VSL65546 WBX65546:WCH65546 WLT65546:WMD65546 WVP65546:WVZ65546 H131082:R131082 JD131082:JN131082 SZ131082:TJ131082 ACV131082:ADF131082 AMR131082:ANB131082 AWN131082:AWX131082 BGJ131082:BGT131082 BQF131082:BQP131082 CAB131082:CAL131082 CJX131082:CKH131082 CTT131082:CUD131082 DDP131082:DDZ131082 DNL131082:DNV131082 DXH131082:DXR131082 EHD131082:EHN131082 EQZ131082:ERJ131082 FAV131082:FBF131082 FKR131082:FLB131082 FUN131082:FUX131082 GEJ131082:GET131082 GOF131082:GOP131082 GYB131082:GYL131082 HHX131082:HIH131082 HRT131082:HSD131082 IBP131082:IBZ131082 ILL131082:ILV131082 IVH131082:IVR131082 JFD131082:JFN131082 JOZ131082:JPJ131082 JYV131082:JZF131082 KIR131082:KJB131082 KSN131082:KSX131082 LCJ131082:LCT131082 LMF131082:LMP131082 LWB131082:LWL131082 MFX131082:MGH131082 MPT131082:MQD131082 MZP131082:MZZ131082 NJL131082:NJV131082 NTH131082:NTR131082 ODD131082:ODN131082 OMZ131082:ONJ131082 OWV131082:OXF131082 PGR131082:PHB131082 PQN131082:PQX131082 QAJ131082:QAT131082 QKF131082:QKP131082 QUB131082:QUL131082 RDX131082:REH131082 RNT131082:ROD131082 RXP131082:RXZ131082 SHL131082:SHV131082 SRH131082:SRR131082 TBD131082:TBN131082 TKZ131082:TLJ131082 TUV131082:TVF131082 UER131082:UFB131082 UON131082:UOX131082 UYJ131082:UYT131082 VIF131082:VIP131082 VSB131082:VSL131082 WBX131082:WCH131082 WLT131082:WMD131082 WVP131082:WVZ131082 H196618:R196618 JD196618:JN196618 SZ196618:TJ196618 ACV196618:ADF196618 AMR196618:ANB196618 AWN196618:AWX196618 BGJ196618:BGT196618 BQF196618:BQP196618 CAB196618:CAL196618 CJX196618:CKH196618 CTT196618:CUD196618 DDP196618:DDZ196618 DNL196618:DNV196618 DXH196618:DXR196618 EHD196618:EHN196618 EQZ196618:ERJ196618 FAV196618:FBF196618 FKR196618:FLB196618 FUN196618:FUX196618 GEJ196618:GET196618 GOF196618:GOP196618 GYB196618:GYL196618 HHX196618:HIH196618 HRT196618:HSD196618 IBP196618:IBZ196618 ILL196618:ILV196618 IVH196618:IVR196618 JFD196618:JFN196618 JOZ196618:JPJ196618 JYV196618:JZF196618 KIR196618:KJB196618 KSN196618:KSX196618 LCJ196618:LCT196618 LMF196618:LMP196618 LWB196618:LWL196618 MFX196618:MGH196618 MPT196618:MQD196618 MZP196618:MZZ196618 NJL196618:NJV196618 NTH196618:NTR196618 ODD196618:ODN196618 OMZ196618:ONJ196618 OWV196618:OXF196618 PGR196618:PHB196618 PQN196618:PQX196618 QAJ196618:QAT196618 QKF196618:QKP196618 QUB196618:QUL196618 RDX196618:REH196618 RNT196618:ROD196618 RXP196618:RXZ196618 SHL196618:SHV196618 SRH196618:SRR196618 TBD196618:TBN196618 TKZ196618:TLJ196618 TUV196618:TVF196618 UER196618:UFB196618 UON196618:UOX196618 UYJ196618:UYT196618 VIF196618:VIP196618 VSB196618:VSL196618 WBX196618:WCH196618 WLT196618:WMD196618 WVP196618:WVZ196618 H262154:R262154 JD262154:JN262154 SZ262154:TJ262154 ACV262154:ADF262154 AMR262154:ANB262154 AWN262154:AWX262154 BGJ262154:BGT262154 BQF262154:BQP262154 CAB262154:CAL262154 CJX262154:CKH262154 CTT262154:CUD262154 DDP262154:DDZ262154 DNL262154:DNV262154 DXH262154:DXR262154 EHD262154:EHN262154 EQZ262154:ERJ262154 FAV262154:FBF262154 FKR262154:FLB262154 FUN262154:FUX262154 GEJ262154:GET262154 GOF262154:GOP262154 GYB262154:GYL262154 HHX262154:HIH262154 HRT262154:HSD262154 IBP262154:IBZ262154 ILL262154:ILV262154 IVH262154:IVR262154 JFD262154:JFN262154 JOZ262154:JPJ262154 JYV262154:JZF262154 KIR262154:KJB262154 KSN262154:KSX262154 LCJ262154:LCT262154 LMF262154:LMP262154 LWB262154:LWL262154 MFX262154:MGH262154 MPT262154:MQD262154 MZP262154:MZZ262154 NJL262154:NJV262154 NTH262154:NTR262154 ODD262154:ODN262154 OMZ262154:ONJ262154 OWV262154:OXF262154 PGR262154:PHB262154 PQN262154:PQX262154 QAJ262154:QAT262154 QKF262154:QKP262154 QUB262154:QUL262154 RDX262154:REH262154 RNT262154:ROD262154 RXP262154:RXZ262154 SHL262154:SHV262154 SRH262154:SRR262154 TBD262154:TBN262154 TKZ262154:TLJ262154 TUV262154:TVF262154 UER262154:UFB262154 UON262154:UOX262154 UYJ262154:UYT262154 VIF262154:VIP262154 VSB262154:VSL262154 WBX262154:WCH262154 WLT262154:WMD262154 WVP262154:WVZ262154 H327690:R327690 JD327690:JN327690 SZ327690:TJ327690 ACV327690:ADF327690 AMR327690:ANB327690 AWN327690:AWX327690 BGJ327690:BGT327690 BQF327690:BQP327690 CAB327690:CAL327690 CJX327690:CKH327690 CTT327690:CUD327690 DDP327690:DDZ327690 DNL327690:DNV327690 DXH327690:DXR327690 EHD327690:EHN327690 EQZ327690:ERJ327690 FAV327690:FBF327690 FKR327690:FLB327690 FUN327690:FUX327690 GEJ327690:GET327690 GOF327690:GOP327690 GYB327690:GYL327690 HHX327690:HIH327690 HRT327690:HSD327690 IBP327690:IBZ327690 ILL327690:ILV327690 IVH327690:IVR327690 JFD327690:JFN327690 JOZ327690:JPJ327690 JYV327690:JZF327690 KIR327690:KJB327690 KSN327690:KSX327690 LCJ327690:LCT327690 LMF327690:LMP327690 LWB327690:LWL327690 MFX327690:MGH327690 MPT327690:MQD327690 MZP327690:MZZ327690 NJL327690:NJV327690 NTH327690:NTR327690 ODD327690:ODN327690 OMZ327690:ONJ327690 OWV327690:OXF327690 PGR327690:PHB327690 PQN327690:PQX327690 QAJ327690:QAT327690 QKF327690:QKP327690 QUB327690:QUL327690 RDX327690:REH327690 RNT327690:ROD327690 RXP327690:RXZ327690 SHL327690:SHV327690 SRH327690:SRR327690 TBD327690:TBN327690 TKZ327690:TLJ327690 TUV327690:TVF327690 UER327690:UFB327690 UON327690:UOX327690 UYJ327690:UYT327690 VIF327690:VIP327690 VSB327690:VSL327690 WBX327690:WCH327690 WLT327690:WMD327690 WVP327690:WVZ327690 H393226:R393226 JD393226:JN393226 SZ393226:TJ393226 ACV393226:ADF393226 AMR393226:ANB393226 AWN393226:AWX393226 BGJ393226:BGT393226 BQF393226:BQP393226 CAB393226:CAL393226 CJX393226:CKH393226 CTT393226:CUD393226 DDP393226:DDZ393226 DNL393226:DNV393226 DXH393226:DXR393226 EHD393226:EHN393226 EQZ393226:ERJ393226 FAV393226:FBF393226 FKR393226:FLB393226 FUN393226:FUX393226 GEJ393226:GET393226 GOF393226:GOP393226 GYB393226:GYL393226 HHX393226:HIH393226 HRT393226:HSD393226 IBP393226:IBZ393226 ILL393226:ILV393226 IVH393226:IVR393226 JFD393226:JFN393226 JOZ393226:JPJ393226 JYV393226:JZF393226 KIR393226:KJB393226 KSN393226:KSX393226 LCJ393226:LCT393226 LMF393226:LMP393226 LWB393226:LWL393226 MFX393226:MGH393226 MPT393226:MQD393226 MZP393226:MZZ393226 NJL393226:NJV393226 NTH393226:NTR393226 ODD393226:ODN393226 OMZ393226:ONJ393226 OWV393226:OXF393226 PGR393226:PHB393226 PQN393226:PQX393226 QAJ393226:QAT393226 QKF393226:QKP393226 QUB393226:QUL393226 RDX393226:REH393226 RNT393226:ROD393226 RXP393226:RXZ393226 SHL393226:SHV393226 SRH393226:SRR393226 TBD393226:TBN393226 TKZ393226:TLJ393226 TUV393226:TVF393226 UER393226:UFB393226 UON393226:UOX393226 UYJ393226:UYT393226 VIF393226:VIP393226 VSB393226:VSL393226 WBX393226:WCH393226 WLT393226:WMD393226 WVP393226:WVZ393226 H458762:R458762 JD458762:JN458762 SZ458762:TJ458762 ACV458762:ADF458762 AMR458762:ANB458762 AWN458762:AWX458762 BGJ458762:BGT458762 BQF458762:BQP458762 CAB458762:CAL458762 CJX458762:CKH458762 CTT458762:CUD458762 DDP458762:DDZ458762 DNL458762:DNV458762 DXH458762:DXR458762 EHD458762:EHN458762 EQZ458762:ERJ458762 FAV458762:FBF458762 FKR458762:FLB458762 FUN458762:FUX458762 GEJ458762:GET458762 GOF458762:GOP458762 GYB458762:GYL458762 HHX458762:HIH458762 HRT458762:HSD458762 IBP458762:IBZ458762 ILL458762:ILV458762 IVH458762:IVR458762 JFD458762:JFN458762 JOZ458762:JPJ458762 JYV458762:JZF458762 KIR458762:KJB458762 KSN458762:KSX458762 LCJ458762:LCT458762 LMF458762:LMP458762 LWB458762:LWL458762 MFX458762:MGH458762 MPT458762:MQD458762 MZP458762:MZZ458762 NJL458762:NJV458762 NTH458762:NTR458762 ODD458762:ODN458762 OMZ458762:ONJ458762 OWV458762:OXF458762 PGR458762:PHB458762 PQN458762:PQX458762 QAJ458762:QAT458762 QKF458762:QKP458762 QUB458762:QUL458762 RDX458762:REH458762 RNT458762:ROD458762 RXP458762:RXZ458762 SHL458762:SHV458762 SRH458762:SRR458762 TBD458762:TBN458762 TKZ458762:TLJ458762 TUV458762:TVF458762 UER458762:UFB458762 UON458762:UOX458762 UYJ458762:UYT458762 VIF458762:VIP458762 VSB458762:VSL458762 WBX458762:WCH458762 WLT458762:WMD458762 WVP458762:WVZ458762 H524298:R524298 JD524298:JN524298 SZ524298:TJ524298 ACV524298:ADF524298 AMR524298:ANB524298 AWN524298:AWX524298 BGJ524298:BGT524298 BQF524298:BQP524298 CAB524298:CAL524298 CJX524298:CKH524298 CTT524298:CUD524298 DDP524298:DDZ524298 DNL524298:DNV524298 DXH524298:DXR524298 EHD524298:EHN524298 EQZ524298:ERJ524298 FAV524298:FBF524298 FKR524298:FLB524298 FUN524298:FUX524298 GEJ524298:GET524298 GOF524298:GOP524298 GYB524298:GYL524298 HHX524298:HIH524298 HRT524298:HSD524298 IBP524298:IBZ524298 ILL524298:ILV524298 IVH524298:IVR524298 JFD524298:JFN524298 JOZ524298:JPJ524298 JYV524298:JZF524298 KIR524298:KJB524298 KSN524298:KSX524298 LCJ524298:LCT524298 LMF524298:LMP524298 LWB524298:LWL524298 MFX524298:MGH524298 MPT524298:MQD524298 MZP524298:MZZ524298 NJL524298:NJV524298 NTH524298:NTR524298 ODD524298:ODN524298 OMZ524298:ONJ524298 OWV524298:OXF524298 PGR524298:PHB524298 PQN524298:PQX524298 QAJ524298:QAT524298 QKF524298:QKP524298 QUB524298:QUL524298 RDX524298:REH524298 RNT524298:ROD524298 RXP524298:RXZ524298 SHL524298:SHV524298 SRH524298:SRR524298 TBD524298:TBN524298 TKZ524298:TLJ524298 TUV524298:TVF524298 UER524298:UFB524298 UON524298:UOX524298 UYJ524298:UYT524298 VIF524298:VIP524298 VSB524298:VSL524298 WBX524298:WCH524298 WLT524298:WMD524298 WVP524298:WVZ524298 H589834:R589834 JD589834:JN589834 SZ589834:TJ589834 ACV589834:ADF589834 AMR589834:ANB589834 AWN589834:AWX589834 BGJ589834:BGT589834 BQF589834:BQP589834 CAB589834:CAL589834 CJX589834:CKH589834 CTT589834:CUD589834 DDP589834:DDZ589834 DNL589834:DNV589834 DXH589834:DXR589834 EHD589834:EHN589834 EQZ589834:ERJ589834 FAV589834:FBF589834 FKR589834:FLB589834 FUN589834:FUX589834 GEJ589834:GET589834 GOF589834:GOP589834 GYB589834:GYL589834 HHX589834:HIH589834 HRT589834:HSD589834 IBP589834:IBZ589834 ILL589834:ILV589834 IVH589834:IVR589834 JFD589834:JFN589834 JOZ589834:JPJ589834 JYV589834:JZF589834 KIR589834:KJB589834 KSN589834:KSX589834 LCJ589834:LCT589834 LMF589834:LMP589834 LWB589834:LWL589834 MFX589834:MGH589834 MPT589834:MQD589834 MZP589834:MZZ589834 NJL589834:NJV589834 NTH589834:NTR589834 ODD589834:ODN589834 OMZ589834:ONJ589834 OWV589834:OXF589834 PGR589834:PHB589834 PQN589834:PQX589834 QAJ589834:QAT589834 QKF589834:QKP589834 QUB589834:QUL589834 RDX589834:REH589834 RNT589834:ROD589834 RXP589834:RXZ589834 SHL589834:SHV589834 SRH589834:SRR589834 TBD589834:TBN589834 TKZ589834:TLJ589834 TUV589834:TVF589834 UER589834:UFB589834 UON589834:UOX589834 UYJ589834:UYT589834 VIF589834:VIP589834 VSB589834:VSL589834 WBX589834:WCH589834 WLT589834:WMD589834 WVP589834:WVZ589834 H655370:R655370 JD655370:JN655370 SZ655370:TJ655370 ACV655370:ADF655370 AMR655370:ANB655370 AWN655370:AWX655370 BGJ655370:BGT655370 BQF655370:BQP655370 CAB655370:CAL655370 CJX655370:CKH655370 CTT655370:CUD655370 DDP655370:DDZ655370 DNL655370:DNV655370 DXH655370:DXR655370 EHD655370:EHN655370 EQZ655370:ERJ655370 FAV655370:FBF655370 FKR655370:FLB655370 FUN655370:FUX655370 GEJ655370:GET655370 GOF655370:GOP655370 GYB655370:GYL655370 HHX655370:HIH655370 HRT655370:HSD655370 IBP655370:IBZ655370 ILL655370:ILV655370 IVH655370:IVR655370 JFD655370:JFN655370 JOZ655370:JPJ655370 JYV655370:JZF655370 KIR655370:KJB655370 KSN655370:KSX655370 LCJ655370:LCT655370 LMF655370:LMP655370 LWB655370:LWL655370 MFX655370:MGH655370 MPT655370:MQD655370 MZP655370:MZZ655370 NJL655370:NJV655370 NTH655370:NTR655370 ODD655370:ODN655370 OMZ655370:ONJ655370 OWV655370:OXF655370 PGR655370:PHB655370 PQN655370:PQX655370 QAJ655370:QAT655370 QKF655370:QKP655370 QUB655370:QUL655370 RDX655370:REH655370 RNT655370:ROD655370 RXP655370:RXZ655370 SHL655370:SHV655370 SRH655370:SRR655370 TBD655370:TBN655370 TKZ655370:TLJ655370 TUV655370:TVF655370 UER655370:UFB655370 UON655370:UOX655370 UYJ655370:UYT655370 VIF655370:VIP655370 VSB655370:VSL655370 WBX655370:WCH655370 WLT655370:WMD655370 WVP655370:WVZ655370 H720906:R720906 JD720906:JN720906 SZ720906:TJ720906 ACV720906:ADF720906 AMR720906:ANB720906 AWN720906:AWX720906 BGJ720906:BGT720906 BQF720906:BQP720906 CAB720906:CAL720906 CJX720906:CKH720906 CTT720906:CUD720906 DDP720906:DDZ720906 DNL720906:DNV720906 DXH720906:DXR720906 EHD720906:EHN720906 EQZ720906:ERJ720906 FAV720906:FBF720906 FKR720906:FLB720906 FUN720906:FUX720906 GEJ720906:GET720906 GOF720906:GOP720906 GYB720906:GYL720906 HHX720906:HIH720906 HRT720906:HSD720906 IBP720906:IBZ720906 ILL720906:ILV720906 IVH720906:IVR720906 JFD720906:JFN720906 JOZ720906:JPJ720906 JYV720906:JZF720906 KIR720906:KJB720906 KSN720906:KSX720906 LCJ720906:LCT720906 LMF720906:LMP720906 LWB720906:LWL720906 MFX720906:MGH720906 MPT720906:MQD720906 MZP720906:MZZ720906 NJL720906:NJV720906 NTH720906:NTR720906 ODD720906:ODN720906 OMZ720906:ONJ720906 OWV720906:OXF720906 PGR720906:PHB720906 PQN720906:PQX720906 QAJ720906:QAT720906 QKF720906:QKP720906 QUB720906:QUL720906 RDX720906:REH720906 RNT720906:ROD720906 RXP720906:RXZ720906 SHL720906:SHV720906 SRH720906:SRR720906 TBD720906:TBN720906 TKZ720906:TLJ720906 TUV720906:TVF720906 UER720906:UFB720906 UON720906:UOX720906 UYJ720906:UYT720906 VIF720906:VIP720906 VSB720906:VSL720906 WBX720906:WCH720906 WLT720906:WMD720906 WVP720906:WVZ720906 H786442:R786442 JD786442:JN786442 SZ786442:TJ786442 ACV786442:ADF786442 AMR786442:ANB786442 AWN786442:AWX786442 BGJ786442:BGT786442 BQF786442:BQP786442 CAB786442:CAL786442 CJX786442:CKH786442 CTT786442:CUD786442 DDP786442:DDZ786442 DNL786442:DNV786442 DXH786442:DXR786442 EHD786442:EHN786442 EQZ786442:ERJ786442 FAV786442:FBF786442 FKR786442:FLB786442 FUN786442:FUX786442 GEJ786442:GET786442 GOF786442:GOP786442 GYB786442:GYL786442 HHX786442:HIH786442 HRT786442:HSD786442 IBP786442:IBZ786442 ILL786442:ILV786442 IVH786442:IVR786442 JFD786442:JFN786442 JOZ786442:JPJ786442 JYV786442:JZF786442 KIR786442:KJB786442 KSN786442:KSX786442 LCJ786442:LCT786442 LMF786442:LMP786442 LWB786442:LWL786442 MFX786442:MGH786442 MPT786442:MQD786442 MZP786442:MZZ786442 NJL786442:NJV786442 NTH786442:NTR786442 ODD786442:ODN786442 OMZ786442:ONJ786442 OWV786442:OXF786442 PGR786442:PHB786442 PQN786442:PQX786442 QAJ786442:QAT786442 QKF786442:QKP786442 QUB786442:QUL786442 RDX786442:REH786442 RNT786442:ROD786442 RXP786442:RXZ786442 SHL786442:SHV786442 SRH786442:SRR786442 TBD786442:TBN786442 TKZ786442:TLJ786442 TUV786442:TVF786442 UER786442:UFB786442 UON786442:UOX786442 UYJ786442:UYT786442 VIF786442:VIP786442 VSB786442:VSL786442 WBX786442:WCH786442 WLT786442:WMD786442 WVP786442:WVZ786442 H851978:R851978 JD851978:JN851978 SZ851978:TJ851978 ACV851978:ADF851978 AMR851978:ANB851978 AWN851978:AWX851978 BGJ851978:BGT851978 BQF851978:BQP851978 CAB851978:CAL851978 CJX851978:CKH851978 CTT851978:CUD851978 DDP851978:DDZ851978 DNL851978:DNV851978 DXH851978:DXR851978 EHD851978:EHN851978 EQZ851978:ERJ851978 FAV851978:FBF851978 FKR851978:FLB851978 FUN851978:FUX851978 GEJ851978:GET851978 GOF851978:GOP851978 GYB851978:GYL851978 HHX851978:HIH851978 HRT851978:HSD851978 IBP851978:IBZ851978 ILL851978:ILV851978 IVH851978:IVR851978 JFD851978:JFN851978 JOZ851978:JPJ851978 JYV851978:JZF851978 KIR851978:KJB851978 KSN851978:KSX851978 LCJ851978:LCT851978 LMF851978:LMP851978 LWB851978:LWL851978 MFX851978:MGH851978 MPT851978:MQD851978 MZP851978:MZZ851978 NJL851978:NJV851978 NTH851978:NTR851978 ODD851978:ODN851978 OMZ851978:ONJ851978 OWV851978:OXF851978 PGR851978:PHB851978 PQN851978:PQX851978 QAJ851978:QAT851978 QKF851978:QKP851978 QUB851978:QUL851978 RDX851978:REH851978 RNT851978:ROD851978 RXP851978:RXZ851978 SHL851978:SHV851978 SRH851978:SRR851978 TBD851978:TBN851978 TKZ851978:TLJ851978 TUV851978:TVF851978 UER851978:UFB851978 UON851978:UOX851978 UYJ851978:UYT851978 VIF851978:VIP851978 VSB851978:VSL851978 WBX851978:WCH851978 WLT851978:WMD851978 WVP851978:WVZ851978 H917514:R917514 JD917514:JN917514 SZ917514:TJ917514 ACV917514:ADF917514 AMR917514:ANB917514 AWN917514:AWX917514 BGJ917514:BGT917514 BQF917514:BQP917514 CAB917514:CAL917514 CJX917514:CKH917514 CTT917514:CUD917514 DDP917514:DDZ917514 DNL917514:DNV917514 DXH917514:DXR917514 EHD917514:EHN917514 EQZ917514:ERJ917514 FAV917514:FBF917514 FKR917514:FLB917514 FUN917514:FUX917514 GEJ917514:GET917514 GOF917514:GOP917514 GYB917514:GYL917514 HHX917514:HIH917514 HRT917514:HSD917514 IBP917514:IBZ917514 ILL917514:ILV917514 IVH917514:IVR917514 JFD917514:JFN917514 JOZ917514:JPJ917514 JYV917514:JZF917514 KIR917514:KJB917514 KSN917514:KSX917514 LCJ917514:LCT917514 LMF917514:LMP917514 LWB917514:LWL917514 MFX917514:MGH917514 MPT917514:MQD917514 MZP917514:MZZ917514 NJL917514:NJV917514 NTH917514:NTR917514 ODD917514:ODN917514 OMZ917514:ONJ917514 OWV917514:OXF917514 PGR917514:PHB917514 PQN917514:PQX917514 QAJ917514:QAT917514 QKF917514:QKP917514 QUB917514:QUL917514 RDX917514:REH917514 RNT917514:ROD917514 RXP917514:RXZ917514 SHL917514:SHV917514 SRH917514:SRR917514 TBD917514:TBN917514 TKZ917514:TLJ917514 TUV917514:TVF917514 UER917514:UFB917514 UON917514:UOX917514 UYJ917514:UYT917514 VIF917514:VIP917514 VSB917514:VSL917514 WBX917514:WCH917514 WLT917514:WMD917514 WVP917514:WVZ917514 H983050:R983050 JD983050:JN983050 SZ983050:TJ983050 ACV983050:ADF983050 AMR983050:ANB983050 AWN983050:AWX983050 BGJ983050:BGT983050 BQF983050:BQP983050 CAB983050:CAL983050 CJX983050:CKH983050 CTT983050:CUD983050 DDP983050:DDZ983050 DNL983050:DNV983050 DXH983050:DXR983050 EHD983050:EHN983050 EQZ983050:ERJ983050 FAV983050:FBF983050 FKR983050:FLB983050 FUN983050:FUX983050 GEJ983050:GET983050 GOF983050:GOP983050 GYB983050:GYL983050 HHX983050:HIH983050 HRT983050:HSD983050 IBP983050:IBZ983050 ILL983050:ILV983050 IVH983050:IVR983050 JFD983050:JFN983050 JOZ983050:JPJ983050 JYV983050:JZF983050 KIR983050:KJB983050 KSN983050:KSX983050 LCJ983050:LCT983050 LMF983050:LMP983050 LWB983050:LWL983050 MFX983050:MGH983050 MPT983050:MQD983050 MZP983050:MZZ983050 NJL983050:NJV983050 NTH983050:NTR983050 ODD983050:ODN983050 OMZ983050:ONJ983050 OWV983050:OXF983050 PGR983050:PHB983050 PQN983050:PQX983050 QAJ983050:QAT983050 QKF983050:QKP983050 QUB983050:QUL983050 RDX983050:REH983050 RNT983050:ROD983050 RXP983050:RXZ983050 SHL983050:SHV983050 SRH983050:SRR983050 TBD983050:TBN983050 TKZ983050:TLJ983050 TUV983050:TVF983050 UER983050:UFB983050 UON983050:UOX983050 UYJ983050:UYT983050 VIF983050:VIP983050 VSB983050:VSL983050 WBX983050:WCH983050 WLT983050:WMD983050 WVP983050:WVZ983050 F13 JB13 SX13 ACT13 AMP13 AWL13 BGH13 BQD13 BZZ13 CJV13 CTR13 DDN13 DNJ13 DXF13 EHB13 EQX13 FAT13 FKP13 FUL13 GEH13 GOD13 GXZ13 HHV13 HRR13 IBN13 ILJ13 IVF13 JFB13 JOX13 JYT13 KIP13 KSL13 LCH13 LMD13 LVZ13 MFV13 MPR13 MZN13 NJJ13 NTF13 ODB13 OMX13 OWT13 PGP13 PQL13 QAH13 QKD13 QTZ13 RDV13 RNR13 RXN13 SHJ13 SRF13 TBB13 TKX13 TUT13 UEP13 UOL13 UYH13 VID13 VRZ13 WBV13 WLR13 WVN13 F65546 JB65546 SX65546 ACT65546 AMP65546 AWL65546 BGH65546 BQD65546 BZZ65546 CJV65546 CTR65546 DDN65546 DNJ65546 DXF65546 EHB65546 EQX65546 FAT65546 FKP65546 FUL65546 GEH65546 GOD65546 GXZ65546 HHV65546 HRR65546 IBN65546 ILJ65546 IVF65546 JFB65546 JOX65546 JYT65546 KIP65546 KSL65546 LCH65546 LMD65546 LVZ65546 MFV65546 MPR65546 MZN65546 NJJ65546 NTF65546 ODB65546 OMX65546 OWT65546 PGP65546 PQL65546 QAH65546 QKD65546 QTZ65546 RDV65546 RNR65546 RXN65546 SHJ65546 SRF65546 TBB65546 TKX65546 TUT65546 UEP65546 UOL65546 UYH65546 VID65546 VRZ65546 WBV65546 WLR65546 WVN65546 F131082 JB131082 SX131082 ACT131082 AMP131082 AWL131082 BGH131082 BQD131082 BZZ131082 CJV131082 CTR131082 DDN131082 DNJ131082 DXF131082 EHB131082 EQX131082 FAT131082 FKP131082 FUL131082 GEH131082 GOD131082 GXZ131082 HHV131082 HRR131082 IBN131082 ILJ131082 IVF131082 JFB131082 JOX131082 JYT131082 KIP131082 KSL131082 LCH131082 LMD131082 LVZ131082 MFV131082 MPR131082 MZN131082 NJJ131082 NTF131082 ODB131082 OMX131082 OWT131082 PGP131082 PQL131082 QAH131082 QKD131082 QTZ131082 RDV131082 RNR131082 RXN131082 SHJ131082 SRF131082 TBB131082 TKX131082 TUT131082 UEP131082 UOL131082 UYH131082 VID131082 VRZ131082 WBV131082 WLR131082 WVN131082 F196618 JB196618 SX196618 ACT196618 AMP196618 AWL196618 BGH196618 BQD196618 BZZ196618 CJV196618 CTR196618 DDN196618 DNJ196618 DXF196618 EHB196618 EQX196618 FAT196618 FKP196618 FUL196618 GEH196618 GOD196618 GXZ196618 HHV196618 HRR196618 IBN196618 ILJ196618 IVF196618 JFB196618 JOX196618 JYT196618 KIP196618 KSL196618 LCH196618 LMD196618 LVZ196618 MFV196618 MPR196618 MZN196618 NJJ196618 NTF196618 ODB196618 OMX196618 OWT196618 PGP196618 PQL196618 QAH196618 QKD196618 QTZ196618 RDV196618 RNR196618 RXN196618 SHJ196618 SRF196618 TBB196618 TKX196618 TUT196618 UEP196618 UOL196618 UYH196618 VID196618 VRZ196618 WBV196618 WLR196618 WVN196618 F262154 JB262154 SX262154 ACT262154 AMP262154 AWL262154 BGH262154 BQD262154 BZZ262154 CJV262154 CTR262154 DDN262154 DNJ262154 DXF262154 EHB262154 EQX262154 FAT262154 FKP262154 FUL262154 GEH262154 GOD262154 GXZ262154 HHV262154 HRR262154 IBN262154 ILJ262154 IVF262154 JFB262154 JOX262154 JYT262154 KIP262154 KSL262154 LCH262154 LMD262154 LVZ262154 MFV262154 MPR262154 MZN262154 NJJ262154 NTF262154 ODB262154 OMX262154 OWT262154 PGP262154 PQL262154 QAH262154 QKD262154 QTZ262154 RDV262154 RNR262154 RXN262154 SHJ262154 SRF262154 TBB262154 TKX262154 TUT262154 UEP262154 UOL262154 UYH262154 VID262154 VRZ262154 WBV262154 WLR262154 WVN262154 F327690 JB327690 SX327690 ACT327690 AMP327690 AWL327690 BGH327690 BQD327690 BZZ327690 CJV327690 CTR327690 DDN327690 DNJ327690 DXF327690 EHB327690 EQX327690 FAT327690 FKP327690 FUL327690 GEH327690 GOD327690 GXZ327690 HHV327690 HRR327690 IBN327690 ILJ327690 IVF327690 JFB327690 JOX327690 JYT327690 KIP327690 KSL327690 LCH327690 LMD327690 LVZ327690 MFV327690 MPR327690 MZN327690 NJJ327690 NTF327690 ODB327690 OMX327690 OWT327690 PGP327690 PQL327690 QAH327690 QKD327690 QTZ327690 RDV327690 RNR327690 RXN327690 SHJ327690 SRF327690 TBB327690 TKX327690 TUT327690 UEP327690 UOL327690 UYH327690 VID327690 VRZ327690 WBV327690 WLR327690 WVN327690 F393226 JB393226 SX393226 ACT393226 AMP393226 AWL393226 BGH393226 BQD393226 BZZ393226 CJV393226 CTR393226 DDN393226 DNJ393226 DXF393226 EHB393226 EQX393226 FAT393226 FKP393226 FUL393226 GEH393226 GOD393226 GXZ393226 HHV393226 HRR393226 IBN393226 ILJ393226 IVF393226 JFB393226 JOX393226 JYT393226 KIP393226 KSL393226 LCH393226 LMD393226 LVZ393226 MFV393226 MPR393226 MZN393226 NJJ393226 NTF393226 ODB393226 OMX393226 OWT393226 PGP393226 PQL393226 QAH393226 QKD393226 QTZ393226 RDV393226 RNR393226 RXN393226 SHJ393226 SRF393226 TBB393226 TKX393226 TUT393226 UEP393226 UOL393226 UYH393226 VID393226 VRZ393226 WBV393226 WLR393226 WVN393226 F458762 JB458762 SX458762 ACT458762 AMP458762 AWL458762 BGH458762 BQD458762 BZZ458762 CJV458762 CTR458762 DDN458762 DNJ458762 DXF458762 EHB458762 EQX458762 FAT458762 FKP458762 FUL458762 GEH458762 GOD458762 GXZ458762 HHV458762 HRR458762 IBN458762 ILJ458762 IVF458762 JFB458762 JOX458762 JYT458762 KIP458762 KSL458762 LCH458762 LMD458762 LVZ458762 MFV458762 MPR458762 MZN458762 NJJ458762 NTF458762 ODB458762 OMX458762 OWT458762 PGP458762 PQL458762 QAH458762 QKD458762 QTZ458762 RDV458762 RNR458762 RXN458762 SHJ458762 SRF458762 TBB458762 TKX458762 TUT458762 UEP458762 UOL458762 UYH458762 VID458762 VRZ458762 WBV458762 WLR458762 WVN458762 F524298 JB524298 SX524298 ACT524298 AMP524298 AWL524298 BGH524298 BQD524298 BZZ524298 CJV524298 CTR524298 DDN524298 DNJ524298 DXF524298 EHB524298 EQX524298 FAT524298 FKP524298 FUL524298 GEH524298 GOD524298 GXZ524298 HHV524298 HRR524298 IBN524298 ILJ524298 IVF524298 JFB524298 JOX524298 JYT524298 KIP524298 KSL524298 LCH524298 LMD524298 LVZ524298 MFV524298 MPR524298 MZN524298 NJJ524298 NTF524298 ODB524298 OMX524298 OWT524298 PGP524298 PQL524298 QAH524298 QKD524298 QTZ524298 RDV524298 RNR524298 RXN524298 SHJ524298 SRF524298 TBB524298 TKX524298 TUT524298 UEP524298 UOL524298 UYH524298 VID524298 VRZ524298 WBV524298 WLR524298 WVN524298 F589834 JB589834 SX589834 ACT589834 AMP589834 AWL589834 BGH589834 BQD589834 BZZ589834 CJV589834 CTR589834 DDN589834 DNJ589834 DXF589834 EHB589834 EQX589834 FAT589834 FKP589834 FUL589834 GEH589834 GOD589834 GXZ589834 HHV589834 HRR589834 IBN589834 ILJ589834 IVF589834 JFB589834 JOX589834 JYT589834 KIP589834 KSL589834 LCH589834 LMD589834 LVZ589834 MFV589834 MPR589834 MZN589834 NJJ589834 NTF589834 ODB589834 OMX589834 OWT589834 PGP589834 PQL589834 QAH589834 QKD589834 QTZ589834 RDV589834 RNR589834 RXN589834 SHJ589834 SRF589834 TBB589834 TKX589834 TUT589834 UEP589834 UOL589834 UYH589834 VID589834 VRZ589834 WBV589834 WLR589834 WVN589834 F655370 JB655370 SX655370 ACT655370 AMP655370 AWL655370 BGH655370 BQD655370 BZZ655370 CJV655370 CTR655370 DDN655370 DNJ655370 DXF655370 EHB655370 EQX655370 FAT655370 FKP655370 FUL655370 GEH655370 GOD655370 GXZ655370 HHV655370 HRR655370 IBN655370 ILJ655370 IVF655370 JFB655370 JOX655370 JYT655370 KIP655370 KSL655370 LCH655370 LMD655370 LVZ655370 MFV655370 MPR655370 MZN655370 NJJ655370 NTF655370 ODB655370 OMX655370 OWT655370 PGP655370 PQL655370 QAH655370 QKD655370 QTZ655370 RDV655370 RNR655370 RXN655370 SHJ655370 SRF655370 TBB655370 TKX655370 TUT655370 UEP655370 UOL655370 UYH655370 VID655370 VRZ655370 WBV655370 WLR655370 WVN655370 F720906 JB720906 SX720906 ACT720906 AMP720906 AWL720906 BGH720906 BQD720906 BZZ720906 CJV720906 CTR720906 DDN720906 DNJ720906 DXF720906 EHB720906 EQX720906 FAT720906 FKP720906 FUL720906 GEH720906 GOD720906 GXZ720906 HHV720906 HRR720906 IBN720906 ILJ720906 IVF720906 JFB720906 JOX720906 JYT720906 KIP720906 KSL720906 LCH720906 LMD720906 LVZ720906 MFV720906 MPR720906 MZN720906 NJJ720906 NTF720906 ODB720906 OMX720906 OWT720906 PGP720906 PQL720906 QAH720906 QKD720906 QTZ720906 RDV720906 RNR720906 RXN720906 SHJ720906 SRF720906 TBB720906 TKX720906 TUT720906 UEP720906 UOL720906 UYH720906 VID720906 VRZ720906 WBV720906 WLR720906 WVN720906 F786442 JB786442 SX786442 ACT786442 AMP786442 AWL786442 BGH786442 BQD786442 BZZ786442 CJV786442 CTR786442 DDN786442 DNJ786442 DXF786442 EHB786442 EQX786442 FAT786442 FKP786442 FUL786442 GEH786442 GOD786442 GXZ786442 HHV786442 HRR786442 IBN786442 ILJ786442 IVF786442 JFB786442 JOX786442 JYT786442 KIP786442 KSL786442 LCH786442 LMD786442 LVZ786442 MFV786442 MPR786442 MZN786442 NJJ786442 NTF786442 ODB786442 OMX786442 OWT786442 PGP786442 PQL786442 QAH786442 QKD786442 QTZ786442 RDV786442 RNR786442 RXN786442 SHJ786442 SRF786442 TBB786442 TKX786442 TUT786442 UEP786442 UOL786442 UYH786442 VID786442 VRZ786442 WBV786442 WLR786442 WVN786442 F851978 JB851978 SX851978 ACT851978 AMP851978 AWL851978 BGH851978 BQD851978 BZZ851978 CJV851978 CTR851978 DDN851978 DNJ851978 DXF851978 EHB851978 EQX851978 FAT851978 FKP851978 FUL851978 GEH851978 GOD851978 GXZ851978 HHV851978 HRR851978 IBN851978 ILJ851978 IVF851978 JFB851978 JOX851978 JYT851978 KIP851978 KSL851978 LCH851978 LMD851978 LVZ851978 MFV851978 MPR851978 MZN851978 NJJ851978 NTF851978 ODB851978 OMX851978 OWT851978 PGP851978 PQL851978 QAH851978 QKD851978 QTZ851978 RDV851978 RNR851978 RXN851978 SHJ851978 SRF851978 TBB851978 TKX851978 TUT851978 UEP851978 UOL851978 UYH851978 VID851978 VRZ851978 WBV851978 WLR851978 WVN851978 F917514 JB917514 SX917514 ACT917514 AMP917514 AWL917514 BGH917514 BQD917514 BZZ917514 CJV917514 CTR917514 DDN917514 DNJ917514 DXF917514 EHB917514 EQX917514 FAT917514 FKP917514 FUL917514 GEH917514 GOD917514 GXZ917514 HHV917514 HRR917514 IBN917514 ILJ917514 IVF917514 JFB917514 JOX917514 JYT917514 KIP917514 KSL917514 LCH917514 LMD917514 LVZ917514 MFV917514 MPR917514 MZN917514 NJJ917514 NTF917514 ODB917514 OMX917514 OWT917514 PGP917514 PQL917514 QAH917514 QKD917514 QTZ917514 RDV917514 RNR917514 RXN917514 SHJ917514 SRF917514 TBB917514 TKX917514 TUT917514 UEP917514 UOL917514 UYH917514 VID917514 VRZ917514 WBV917514 WLR917514 WVN917514 F983050 JB983050 SX983050 ACT983050 AMP983050 AWL983050 BGH983050 BQD983050 BZZ983050 CJV983050 CTR983050 DDN983050 DNJ983050 DXF983050 EHB983050 EQX983050 FAT983050 FKP983050 FUL983050 GEH983050 GOD983050 GXZ983050 HHV983050 HRR983050 IBN983050 ILJ983050 IVF983050 JFB983050 JOX983050 JYT983050 KIP983050 KSL983050 LCH983050 LMD983050 LVZ983050 MFV983050 MPR983050 MZN983050 NJJ983050 NTF983050 ODB983050 OMX983050 OWT983050 PGP983050 PQL983050 QAH983050 QKD983050 QTZ983050 RDV983050 RNR983050 RXN983050 SHJ983050 SRF983050 TBB983050 TKX983050 TUT983050 UEP983050 UOL983050 UYH983050 VID983050 VRZ983050 WBV983050 WLR983050 WVN983050 E65551:E65553 JA65551:JA65553 SW65551:SW65553 ACS65551:ACS65553 AMO65551:AMO65553 AWK65551:AWK65553 BGG65551:BGG65553 BQC65551:BQC65553 BZY65551:BZY65553 CJU65551:CJU65553 CTQ65551:CTQ65553 DDM65551:DDM65553 DNI65551:DNI65553 DXE65551:DXE65553 EHA65551:EHA65553 EQW65551:EQW65553 FAS65551:FAS65553 FKO65551:FKO65553 FUK65551:FUK65553 GEG65551:GEG65553 GOC65551:GOC65553 GXY65551:GXY65553 HHU65551:HHU65553 HRQ65551:HRQ65553 IBM65551:IBM65553 ILI65551:ILI65553 IVE65551:IVE65553 JFA65551:JFA65553 JOW65551:JOW65553 JYS65551:JYS65553 KIO65551:KIO65553 KSK65551:KSK65553 LCG65551:LCG65553 LMC65551:LMC65553 LVY65551:LVY65553 MFU65551:MFU65553 MPQ65551:MPQ65553 MZM65551:MZM65553 NJI65551:NJI65553 NTE65551:NTE65553 ODA65551:ODA65553 OMW65551:OMW65553 OWS65551:OWS65553 PGO65551:PGO65553 PQK65551:PQK65553 QAG65551:QAG65553 QKC65551:QKC65553 QTY65551:QTY65553 RDU65551:RDU65553 RNQ65551:RNQ65553 RXM65551:RXM65553 SHI65551:SHI65553 SRE65551:SRE65553 TBA65551:TBA65553 TKW65551:TKW65553 TUS65551:TUS65553 UEO65551:UEO65553 UOK65551:UOK65553 UYG65551:UYG65553 VIC65551:VIC65553 VRY65551:VRY65553 WBU65551:WBU65553 WLQ65551:WLQ65553 WVM65551:WVM65553 E131087:E131089 JA131087:JA131089 SW131087:SW131089 ACS131087:ACS131089 AMO131087:AMO131089 AWK131087:AWK131089 BGG131087:BGG131089 BQC131087:BQC131089 BZY131087:BZY131089 CJU131087:CJU131089 CTQ131087:CTQ131089 DDM131087:DDM131089 DNI131087:DNI131089 DXE131087:DXE131089 EHA131087:EHA131089 EQW131087:EQW131089 FAS131087:FAS131089 FKO131087:FKO131089 FUK131087:FUK131089 GEG131087:GEG131089 GOC131087:GOC131089 GXY131087:GXY131089 HHU131087:HHU131089 HRQ131087:HRQ131089 IBM131087:IBM131089 ILI131087:ILI131089 IVE131087:IVE131089 JFA131087:JFA131089 JOW131087:JOW131089 JYS131087:JYS131089 KIO131087:KIO131089 KSK131087:KSK131089 LCG131087:LCG131089 LMC131087:LMC131089 LVY131087:LVY131089 MFU131087:MFU131089 MPQ131087:MPQ131089 MZM131087:MZM131089 NJI131087:NJI131089 NTE131087:NTE131089 ODA131087:ODA131089 OMW131087:OMW131089 OWS131087:OWS131089 PGO131087:PGO131089 PQK131087:PQK131089 QAG131087:QAG131089 QKC131087:QKC131089 QTY131087:QTY131089 RDU131087:RDU131089 RNQ131087:RNQ131089 RXM131087:RXM131089 SHI131087:SHI131089 SRE131087:SRE131089 TBA131087:TBA131089 TKW131087:TKW131089 TUS131087:TUS131089 UEO131087:UEO131089 UOK131087:UOK131089 UYG131087:UYG131089 VIC131087:VIC131089 VRY131087:VRY131089 WBU131087:WBU131089 WLQ131087:WLQ131089 WVM131087:WVM131089 E196623:E196625 JA196623:JA196625 SW196623:SW196625 ACS196623:ACS196625 AMO196623:AMO196625 AWK196623:AWK196625 BGG196623:BGG196625 BQC196623:BQC196625 BZY196623:BZY196625 CJU196623:CJU196625 CTQ196623:CTQ196625 DDM196623:DDM196625 DNI196623:DNI196625 DXE196623:DXE196625 EHA196623:EHA196625 EQW196623:EQW196625 FAS196623:FAS196625 FKO196623:FKO196625 FUK196623:FUK196625 GEG196623:GEG196625 GOC196623:GOC196625 GXY196623:GXY196625 HHU196623:HHU196625 HRQ196623:HRQ196625 IBM196623:IBM196625 ILI196623:ILI196625 IVE196623:IVE196625 JFA196623:JFA196625 JOW196623:JOW196625 JYS196623:JYS196625 KIO196623:KIO196625 KSK196623:KSK196625 LCG196623:LCG196625 LMC196623:LMC196625 LVY196623:LVY196625 MFU196623:MFU196625 MPQ196623:MPQ196625 MZM196623:MZM196625 NJI196623:NJI196625 NTE196623:NTE196625 ODA196623:ODA196625 OMW196623:OMW196625 OWS196623:OWS196625 PGO196623:PGO196625 PQK196623:PQK196625 QAG196623:QAG196625 QKC196623:QKC196625 QTY196623:QTY196625 RDU196623:RDU196625 RNQ196623:RNQ196625 RXM196623:RXM196625 SHI196623:SHI196625 SRE196623:SRE196625 TBA196623:TBA196625 TKW196623:TKW196625 TUS196623:TUS196625 UEO196623:UEO196625 UOK196623:UOK196625 UYG196623:UYG196625 VIC196623:VIC196625 VRY196623:VRY196625 WBU196623:WBU196625 WLQ196623:WLQ196625 WVM196623:WVM196625 E262159:E262161 JA262159:JA262161 SW262159:SW262161 ACS262159:ACS262161 AMO262159:AMO262161 AWK262159:AWK262161 BGG262159:BGG262161 BQC262159:BQC262161 BZY262159:BZY262161 CJU262159:CJU262161 CTQ262159:CTQ262161 DDM262159:DDM262161 DNI262159:DNI262161 DXE262159:DXE262161 EHA262159:EHA262161 EQW262159:EQW262161 FAS262159:FAS262161 FKO262159:FKO262161 FUK262159:FUK262161 GEG262159:GEG262161 GOC262159:GOC262161 GXY262159:GXY262161 HHU262159:HHU262161 HRQ262159:HRQ262161 IBM262159:IBM262161 ILI262159:ILI262161 IVE262159:IVE262161 JFA262159:JFA262161 JOW262159:JOW262161 JYS262159:JYS262161 KIO262159:KIO262161 KSK262159:KSK262161 LCG262159:LCG262161 LMC262159:LMC262161 LVY262159:LVY262161 MFU262159:MFU262161 MPQ262159:MPQ262161 MZM262159:MZM262161 NJI262159:NJI262161 NTE262159:NTE262161 ODA262159:ODA262161 OMW262159:OMW262161 OWS262159:OWS262161 PGO262159:PGO262161 PQK262159:PQK262161 QAG262159:QAG262161 QKC262159:QKC262161 QTY262159:QTY262161 RDU262159:RDU262161 RNQ262159:RNQ262161 RXM262159:RXM262161 SHI262159:SHI262161 SRE262159:SRE262161 TBA262159:TBA262161 TKW262159:TKW262161 TUS262159:TUS262161 UEO262159:UEO262161 UOK262159:UOK262161 UYG262159:UYG262161 VIC262159:VIC262161 VRY262159:VRY262161 WBU262159:WBU262161 WLQ262159:WLQ262161 WVM262159:WVM262161 E327695:E327697 JA327695:JA327697 SW327695:SW327697 ACS327695:ACS327697 AMO327695:AMO327697 AWK327695:AWK327697 BGG327695:BGG327697 BQC327695:BQC327697 BZY327695:BZY327697 CJU327695:CJU327697 CTQ327695:CTQ327697 DDM327695:DDM327697 DNI327695:DNI327697 DXE327695:DXE327697 EHA327695:EHA327697 EQW327695:EQW327697 FAS327695:FAS327697 FKO327695:FKO327697 FUK327695:FUK327697 GEG327695:GEG327697 GOC327695:GOC327697 GXY327695:GXY327697 HHU327695:HHU327697 HRQ327695:HRQ327697 IBM327695:IBM327697 ILI327695:ILI327697 IVE327695:IVE327697 JFA327695:JFA327697 JOW327695:JOW327697 JYS327695:JYS327697 KIO327695:KIO327697 KSK327695:KSK327697 LCG327695:LCG327697 LMC327695:LMC327697 LVY327695:LVY327697 MFU327695:MFU327697 MPQ327695:MPQ327697 MZM327695:MZM327697 NJI327695:NJI327697 NTE327695:NTE327697 ODA327695:ODA327697 OMW327695:OMW327697 OWS327695:OWS327697 PGO327695:PGO327697 PQK327695:PQK327697 QAG327695:QAG327697 QKC327695:QKC327697 QTY327695:QTY327697 RDU327695:RDU327697 RNQ327695:RNQ327697 RXM327695:RXM327697 SHI327695:SHI327697 SRE327695:SRE327697 TBA327695:TBA327697 TKW327695:TKW327697 TUS327695:TUS327697 UEO327695:UEO327697 UOK327695:UOK327697 UYG327695:UYG327697 VIC327695:VIC327697 VRY327695:VRY327697 WBU327695:WBU327697 WLQ327695:WLQ327697 WVM327695:WVM327697 E393231:E393233 JA393231:JA393233 SW393231:SW393233 ACS393231:ACS393233 AMO393231:AMO393233 AWK393231:AWK393233 BGG393231:BGG393233 BQC393231:BQC393233 BZY393231:BZY393233 CJU393231:CJU393233 CTQ393231:CTQ393233 DDM393231:DDM393233 DNI393231:DNI393233 DXE393231:DXE393233 EHA393231:EHA393233 EQW393231:EQW393233 FAS393231:FAS393233 FKO393231:FKO393233 FUK393231:FUK393233 GEG393231:GEG393233 GOC393231:GOC393233 GXY393231:GXY393233 HHU393231:HHU393233 HRQ393231:HRQ393233 IBM393231:IBM393233 ILI393231:ILI393233 IVE393231:IVE393233 JFA393231:JFA393233 JOW393231:JOW393233 JYS393231:JYS393233 KIO393231:KIO393233 KSK393231:KSK393233 LCG393231:LCG393233 LMC393231:LMC393233 LVY393231:LVY393233 MFU393231:MFU393233 MPQ393231:MPQ393233 MZM393231:MZM393233 NJI393231:NJI393233 NTE393231:NTE393233 ODA393231:ODA393233 OMW393231:OMW393233 OWS393231:OWS393233 PGO393231:PGO393233 PQK393231:PQK393233 QAG393231:QAG393233 QKC393231:QKC393233 QTY393231:QTY393233 RDU393231:RDU393233 RNQ393231:RNQ393233 RXM393231:RXM393233 SHI393231:SHI393233 SRE393231:SRE393233 TBA393231:TBA393233 TKW393231:TKW393233 TUS393231:TUS393233 UEO393231:UEO393233 UOK393231:UOK393233 UYG393231:UYG393233 VIC393231:VIC393233 VRY393231:VRY393233 WBU393231:WBU393233 WLQ393231:WLQ393233 WVM393231:WVM393233 E458767:E458769 JA458767:JA458769 SW458767:SW458769 ACS458767:ACS458769 AMO458767:AMO458769 AWK458767:AWK458769 BGG458767:BGG458769 BQC458767:BQC458769 BZY458767:BZY458769 CJU458767:CJU458769 CTQ458767:CTQ458769 DDM458767:DDM458769 DNI458767:DNI458769 DXE458767:DXE458769 EHA458767:EHA458769 EQW458767:EQW458769 FAS458767:FAS458769 FKO458767:FKO458769 FUK458767:FUK458769 GEG458767:GEG458769 GOC458767:GOC458769 GXY458767:GXY458769 HHU458767:HHU458769 HRQ458767:HRQ458769 IBM458767:IBM458769 ILI458767:ILI458769 IVE458767:IVE458769 JFA458767:JFA458769 JOW458767:JOW458769 JYS458767:JYS458769 KIO458767:KIO458769 KSK458767:KSK458769 LCG458767:LCG458769 LMC458767:LMC458769 LVY458767:LVY458769 MFU458767:MFU458769 MPQ458767:MPQ458769 MZM458767:MZM458769 NJI458767:NJI458769 NTE458767:NTE458769 ODA458767:ODA458769 OMW458767:OMW458769 OWS458767:OWS458769 PGO458767:PGO458769 PQK458767:PQK458769 QAG458767:QAG458769 QKC458767:QKC458769 QTY458767:QTY458769 RDU458767:RDU458769 RNQ458767:RNQ458769 RXM458767:RXM458769 SHI458767:SHI458769 SRE458767:SRE458769 TBA458767:TBA458769 TKW458767:TKW458769 TUS458767:TUS458769 UEO458767:UEO458769 UOK458767:UOK458769 UYG458767:UYG458769 VIC458767:VIC458769 VRY458767:VRY458769 WBU458767:WBU458769 WLQ458767:WLQ458769 WVM458767:WVM458769 E524303:E524305 JA524303:JA524305 SW524303:SW524305 ACS524303:ACS524305 AMO524303:AMO524305 AWK524303:AWK524305 BGG524303:BGG524305 BQC524303:BQC524305 BZY524303:BZY524305 CJU524303:CJU524305 CTQ524303:CTQ524305 DDM524303:DDM524305 DNI524303:DNI524305 DXE524303:DXE524305 EHA524303:EHA524305 EQW524303:EQW524305 FAS524303:FAS524305 FKO524303:FKO524305 FUK524303:FUK524305 GEG524303:GEG524305 GOC524303:GOC524305 GXY524303:GXY524305 HHU524303:HHU524305 HRQ524303:HRQ524305 IBM524303:IBM524305 ILI524303:ILI524305 IVE524303:IVE524305 JFA524303:JFA524305 JOW524303:JOW524305 JYS524303:JYS524305 KIO524303:KIO524305 KSK524303:KSK524305 LCG524303:LCG524305 LMC524303:LMC524305 LVY524303:LVY524305 MFU524303:MFU524305 MPQ524303:MPQ524305 MZM524303:MZM524305 NJI524303:NJI524305 NTE524303:NTE524305 ODA524303:ODA524305 OMW524303:OMW524305 OWS524303:OWS524305 PGO524303:PGO524305 PQK524303:PQK524305 QAG524303:QAG524305 QKC524303:QKC524305 QTY524303:QTY524305 RDU524303:RDU524305 RNQ524303:RNQ524305 RXM524303:RXM524305 SHI524303:SHI524305 SRE524303:SRE524305 TBA524303:TBA524305 TKW524303:TKW524305 TUS524303:TUS524305 UEO524303:UEO524305 UOK524303:UOK524305 UYG524303:UYG524305 VIC524303:VIC524305 VRY524303:VRY524305 WBU524303:WBU524305 WLQ524303:WLQ524305 WVM524303:WVM524305 E589839:E589841 JA589839:JA589841 SW589839:SW589841 ACS589839:ACS589841 AMO589839:AMO589841 AWK589839:AWK589841 BGG589839:BGG589841 BQC589839:BQC589841 BZY589839:BZY589841 CJU589839:CJU589841 CTQ589839:CTQ589841 DDM589839:DDM589841 DNI589839:DNI589841 DXE589839:DXE589841 EHA589839:EHA589841 EQW589839:EQW589841 FAS589839:FAS589841 FKO589839:FKO589841 FUK589839:FUK589841 GEG589839:GEG589841 GOC589839:GOC589841 GXY589839:GXY589841 HHU589839:HHU589841 HRQ589839:HRQ589841 IBM589839:IBM589841 ILI589839:ILI589841 IVE589839:IVE589841 JFA589839:JFA589841 JOW589839:JOW589841 JYS589839:JYS589841 KIO589839:KIO589841 KSK589839:KSK589841 LCG589839:LCG589841 LMC589839:LMC589841 LVY589839:LVY589841 MFU589839:MFU589841 MPQ589839:MPQ589841 MZM589839:MZM589841 NJI589839:NJI589841 NTE589839:NTE589841 ODA589839:ODA589841 OMW589839:OMW589841 OWS589839:OWS589841 PGO589839:PGO589841 PQK589839:PQK589841 QAG589839:QAG589841 QKC589839:QKC589841 QTY589839:QTY589841 RDU589839:RDU589841 RNQ589839:RNQ589841 RXM589839:RXM589841 SHI589839:SHI589841 SRE589839:SRE589841 TBA589839:TBA589841 TKW589839:TKW589841 TUS589839:TUS589841 UEO589839:UEO589841 UOK589839:UOK589841 UYG589839:UYG589841 VIC589839:VIC589841 VRY589839:VRY589841 WBU589839:WBU589841 WLQ589839:WLQ589841 WVM589839:WVM589841 E655375:E655377 JA655375:JA655377 SW655375:SW655377 ACS655375:ACS655377 AMO655375:AMO655377 AWK655375:AWK655377 BGG655375:BGG655377 BQC655375:BQC655377 BZY655375:BZY655377 CJU655375:CJU655377 CTQ655375:CTQ655377 DDM655375:DDM655377 DNI655375:DNI655377 DXE655375:DXE655377 EHA655375:EHA655377 EQW655375:EQW655377 FAS655375:FAS655377 FKO655375:FKO655377 FUK655375:FUK655377 GEG655375:GEG655377 GOC655375:GOC655377 GXY655375:GXY655377 HHU655375:HHU655377 HRQ655375:HRQ655377 IBM655375:IBM655377 ILI655375:ILI655377 IVE655375:IVE655377 JFA655375:JFA655377 JOW655375:JOW655377 JYS655375:JYS655377 KIO655375:KIO655377 KSK655375:KSK655377 LCG655375:LCG655377 LMC655375:LMC655377 LVY655375:LVY655377 MFU655375:MFU655377 MPQ655375:MPQ655377 MZM655375:MZM655377 NJI655375:NJI655377 NTE655375:NTE655377 ODA655375:ODA655377 OMW655375:OMW655377 OWS655375:OWS655377 PGO655375:PGO655377 PQK655375:PQK655377 QAG655375:QAG655377 QKC655375:QKC655377 QTY655375:QTY655377 RDU655375:RDU655377 RNQ655375:RNQ655377 RXM655375:RXM655377 SHI655375:SHI655377 SRE655375:SRE655377 TBA655375:TBA655377 TKW655375:TKW655377 TUS655375:TUS655377 UEO655375:UEO655377 UOK655375:UOK655377 UYG655375:UYG655377 VIC655375:VIC655377 VRY655375:VRY655377 WBU655375:WBU655377 WLQ655375:WLQ655377 WVM655375:WVM655377 E720911:E720913 JA720911:JA720913 SW720911:SW720913 ACS720911:ACS720913 AMO720911:AMO720913 AWK720911:AWK720913 BGG720911:BGG720913 BQC720911:BQC720913 BZY720911:BZY720913 CJU720911:CJU720913 CTQ720911:CTQ720913 DDM720911:DDM720913 DNI720911:DNI720913 DXE720911:DXE720913 EHA720911:EHA720913 EQW720911:EQW720913 FAS720911:FAS720913 FKO720911:FKO720913 FUK720911:FUK720913 GEG720911:GEG720913 GOC720911:GOC720913 GXY720911:GXY720913 HHU720911:HHU720913 HRQ720911:HRQ720913 IBM720911:IBM720913 ILI720911:ILI720913 IVE720911:IVE720913 JFA720911:JFA720913 JOW720911:JOW720913 JYS720911:JYS720913 KIO720911:KIO720913 KSK720911:KSK720913 LCG720911:LCG720913 LMC720911:LMC720913 LVY720911:LVY720913 MFU720911:MFU720913 MPQ720911:MPQ720913 MZM720911:MZM720913 NJI720911:NJI720913 NTE720911:NTE720913 ODA720911:ODA720913 OMW720911:OMW720913 OWS720911:OWS720913 PGO720911:PGO720913 PQK720911:PQK720913 QAG720911:QAG720913 QKC720911:QKC720913 QTY720911:QTY720913 RDU720911:RDU720913 RNQ720911:RNQ720913 RXM720911:RXM720913 SHI720911:SHI720913 SRE720911:SRE720913 TBA720911:TBA720913 TKW720911:TKW720913 TUS720911:TUS720913 UEO720911:UEO720913 UOK720911:UOK720913 UYG720911:UYG720913 VIC720911:VIC720913 VRY720911:VRY720913 WBU720911:WBU720913 WLQ720911:WLQ720913 WVM720911:WVM720913 E786447:E786449 JA786447:JA786449 SW786447:SW786449 ACS786447:ACS786449 AMO786447:AMO786449 AWK786447:AWK786449 BGG786447:BGG786449 BQC786447:BQC786449 BZY786447:BZY786449 CJU786447:CJU786449 CTQ786447:CTQ786449 DDM786447:DDM786449 DNI786447:DNI786449 DXE786447:DXE786449 EHA786447:EHA786449 EQW786447:EQW786449 FAS786447:FAS786449 FKO786447:FKO786449 FUK786447:FUK786449 GEG786447:GEG786449 GOC786447:GOC786449 GXY786447:GXY786449 HHU786447:HHU786449 HRQ786447:HRQ786449 IBM786447:IBM786449 ILI786447:ILI786449 IVE786447:IVE786449 JFA786447:JFA786449 JOW786447:JOW786449 JYS786447:JYS786449 KIO786447:KIO786449 KSK786447:KSK786449 LCG786447:LCG786449 LMC786447:LMC786449 LVY786447:LVY786449 MFU786447:MFU786449 MPQ786447:MPQ786449 MZM786447:MZM786449 NJI786447:NJI786449 NTE786447:NTE786449 ODA786447:ODA786449 OMW786447:OMW786449 OWS786447:OWS786449 PGO786447:PGO786449 PQK786447:PQK786449 QAG786447:QAG786449 QKC786447:QKC786449 QTY786447:QTY786449 RDU786447:RDU786449 RNQ786447:RNQ786449 RXM786447:RXM786449 SHI786447:SHI786449 SRE786447:SRE786449 TBA786447:TBA786449 TKW786447:TKW786449 TUS786447:TUS786449 UEO786447:UEO786449 UOK786447:UOK786449 UYG786447:UYG786449 VIC786447:VIC786449 VRY786447:VRY786449 WBU786447:WBU786449 WLQ786447:WLQ786449 WVM786447:WVM786449 E851983:E851985 JA851983:JA851985 SW851983:SW851985 ACS851983:ACS851985 AMO851983:AMO851985 AWK851983:AWK851985 BGG851983:BGG851985 BQC851983:BQC851985 BZY851983:BZY851985 CJU851983:CJU851985 CTQ851983:CTQ851985 DDM851983:DDM851985 DNI851983:DNI851985 DXE851983:DXE851985 EHA851983:EHA851985 EQW851983:EQW851985 FAS851983:FAS851985 FKO851983:FKO851985 FUK851983:FUK851985 GEG851983:GEG851985 GOC851983:GOC851985 GXY851983:GXY851985 HHU851983:HHU851985 HRQ851983:HRQ851985 IBM851983:IBM851985 ILI851983:ILI851985 IVE851983:IVE851985 JFA851983:JFA851985 JOW851983:JOW851985 JYS851983:JYS851985 KIO851983:KIO851985 KSK851983:KSK851985 LCG851983:LCG851985 LMC851983:LMC851985 LVY851983:LVY851985 MFU851983:MFU851985 MPQ851983:MPQ851985 MZM851983:MZM851985 NJI851983:NJI851985 NTE851983:NTE851985 ODA851983:ODA851985 OMW851983:OMW851985 OWS851983:OWS851985 PGO851983:PGO851985 PQK851983:PQK851985 QAG851983:QAG851985 QKC851983:QKC851985 QTY851983:QTY851985 RDU851983:RDU851985 RNQ851983:RNQ851985 RXM851983:RXM851985 SHI851983:SHI851985 SRE851983:SRE851985 TBA851983:TBA851985 TKW851983:TKW851985 TUS851983:TUS851985 UEO851983:UEO851985 UOK851983:UOK851985 UYG851983:UYG851985 VIC851983:VIC851985 VRY851983:VRY851985 WBU851983:WBU851985 WLQ851983:WLQ851985 WVM851983:WVM851985 E917519:E917521 JA917519:JA917521 SW917519:SW917521 ACS917519:ACS917521 AMO917519:AMO917521 AWK917519:AWK917521 BGG917519:BGG917521 BQC917519:BQC917521 BZY917519:BZY917521 CJU917519:CJU917521 CTQ917519:CTQ917521 DDM917519:DDM917521 DNI917519:DNI917521 DXE917519:DXE917521 EHA917519:EHA917521 EQW917519:EQW917521 FAS917519:FAS917521 FKO917519:FKO917521 FUK917519:FUK917521 GEG917519:GEG917521 GOC917519:GOC917521 GXY917519:GXY917521 HHU917519:HHU917521 HRQ917519:HRQ917521 IBM917519:IBM917521 ILI917519:ILI917521 IVE917519:IVE917521 JFA917519:JFA917521 JOW917519:JOW917521 JYS917519:JYS917521 KIO917519:KIO917521 KSK917519:KSK917521 LCG917519:LCG917521 LMC917519:LMC917521 LVY917519:LVY917521 MFU917519:MFU917521 MPQ917519:MPQ917521 MZM917519:MZM917521 NJI917519:NJI917521 NTE917519:NTE917521 ODA917519:ODA917521 OMW917519:OMW917521 OWS917519:OWS917521 PGO917519:PGO917521 PQK917519:PQK917521 QAG917519:QAG917521 QKC917519:QKC917521 QTY917519:QTY917521 RDU917519:RDU917521 RNQ917519:RNQ917521 RXM917519:RXM917521 SHI917519:SHI917521 SRE917519:SRE917521 TBA917519:TBA917521 TKW917519:TKW917521 TUS917519:TUS917521 UEO917519:UEO917521 UOK917519:UOK917521 UYG917519:UYG917521 VIC917519:VIC917521 VRY917519:VRY917521 WBU917519:WBU917521 WLQ917519:WLQ917521 WVM917519:WVM917521 E983055:E983057 JA983055:JA983057 SW983055:SW983057 ACS983055:ACS983057 AMO983055:AMO983057 AWK983055:AWK983057 BGG983055:BGG983057 BQC983055:BQC983057 BZY983055:BZY983057 CJU983055:CJU983057 CTQ983055:CTQ983057 DDM983055:DDM983057 DNI983055:DNI983057 DXE983055:DXE983057 EHA983055:EHA983057 EQW983055:EQW983057 FAS983055:FAS983057 FKO983055:FKO983057 FUK983055:FUK983057 GEG983055:GEG983057 GOC983055:GOC983057 GXY983055:GXY983057 HHU983055:HHU983057 HRQ983055:HRQ983057 IBM983055:IBM983057 ILI983055:ILI983057 IVE983055:IVE983057 JFA983055:JFA983057 JOW983055:JOW983057 JYS983055:JYS983057 KIO983055:KIO983057 KSK983055:KSK983057 LCG983055:LCG983057 LMC983055:LMC983057 LVY983055:LVY983057 MFU983055:MFU983057 MPQ983055:MPQ983057 MZM983055:MZM983057 NJI983055:NJI983057 NTE983055:NTE983057 ODA983055:ODA983057 OMW983055:OMW983057 OWS983055:OWS983057 PGO983055:PGO983057 PQK983055:PQK983057 QAG983055:QAG983057 QKC983055:QKC983057 QTY983055:QTY983057 RDU983055:RDU983057 RNQ983055:RNQ983057 RXM983055:RXM983057 SHI983055:SHI983057 SRE983055:SRE983057 TBA983055:TBA983057 TKW983055:TKW983057 TUS983055:TUS983057 UEO983055:UEO983057 UOK983055:UOK983057 UYG983055:UYG983057 VIC983055:VIC983057 VRY983055:VRY983057 WBU983055:WBU983057 WLQ983055:WLQ983057 WVM983055:WVM983057 F65547:R65553 JB65547:JN65553 SX65547:TJ65553 ACT65547:ADF65553 AMP65547:ANB65553 AWL65547:AWX65553 BGH65547:BGT65553 BQD65547:BQP65553 BZZ65547:CAL65553 CJV65547:CKH65553 CTR65547:CUD65553 DDN65547:DDZ65553 DNJ65547:DNV65553 DXF65547:DXR65553 EHB65547:EHN65553 EQX65547:ERJ65553 FAT65547:FBF65553 FKP65547:FLB65553 FUL65547:FUX65553 GEH65547:GET65553 GOD65547:GOP65553 GXZ65547:GYL65553 HHV65547:HIH65553 HRR65547:HSD65553 IBN65547:IBZ65553 ILJ65547:ILV65553 IVF65547:IVR65553 JFB65547:JFN65553 JOX65547:JPJ65553 JYT65547:JZF65553 KIP65547:KJB65553 KSL65547:KSX65553 LCH65547:LCT65553 LMD65547:LMP65553 LVZ65547:LWL65553 MFV65547:MGH65553 MPR65547:MQD65553 MZN65547:MZZ65553 NJJ65547:NJV65553 NTF65547:NTR65553 ODB65547:ODN65553 OMX65547:ONJ65553 OWT65547:OXF65553 PGP65547:PHB65553 PQL65547:PQX65553 QAH65547:QAT65553 QKD65547:QKP65553 QTZ65547:QUL65553 RDV65547:REH65553 RNR65547:ROD65553 RXN65547:RXZ65553 SHJ65547:SHV65553 SRF65547:SRR65553 TBB65547:TBN65553 TKX65547:TLJ65553 TUT65547:TVF65553 UEP65547:UFB65553 UOL65547:UOX65553 UYH65547:UYT65553 VID65547:VIP65553 VRZ65547:VSL65553 WBV65547:WCH65553 WLR65547:WMD65553 WVN65547:WVZ65553 F131083:R131089 JB131083:JN131089 SX131083:TJ131089 ACT131083:ADF131089 AMP131083:ANB131089 AWL131083:AWX131089 BGH131083:BGT131089 BQD131083:BQP131089 BZZ131083:CAL131089 CJV131083:CKH131089 CTR131083:CUD131089 DDN131083:DDZ131089 DNJ131083:DNV131089 DXF131083:DXR131089 EHB131083:EHN131089 EQX131083:ERJ131089 FAT131083:FBF131089 FKP131083:FLB131089 FUL131083:FUX131089 GEH131083:GET131089 GOD131083:GOP131089 GXZ131083:GYL131089 HHV131083:HIH131089 HRR131083:HSD131089 IBN131083:IBZ131089 ILJ131083:ILV131089 IVF131083:IVR131089 JFB131083:JFN131089 JOX131083:JPJ131089 JYT131083:JZF131089 KIP131083:KJB131089 KSL131083:KSX131089 LCH131083:LCT131089 LMD131083:LMP131089 LVZ131083:LWL131089 MFV131083:MGH131089 MPR131083:MQD131089 MZN131083:MZZ131089 NJJ131083:NJV131089 NTF131083:NTR131089 ODB131083:ODN131089 OMX131083:ONJ131089 OWT131083:OXF131089 PGP131083:PHB131089 PQL131083:PQX131089 QAH131083:QAT131089 QKD131083:QKP131089 QTZ131083:QUL131089 RDV131083:REH131089 RNR131083:ROD131089 RXN131083:RXZ131089 SHJ131083:SHV131089 SRF131083:SRR131089 TBB131083:TBN131089 TKX131083:TLJ131089 TUT131083:TVF131089 UEP131083:UFB131089 UOL131083:UOX131089 UYH131083:UYT131089 VID131083:VIP131089 VRZ131083:VSL131089 WBV131083:WCH131089 WLR131083:WMD131089 WVN131083:WVZ131089 F196619:R196625 JB196619:JN196625 SX196619:TJ196625 ACT196619:ADF196625 AMP196619:ANB196625 AWL196619:AWX196625 BGH196619:BGT196625 BQD196619:BQP196625 BZZ196619:CAL196625 CJV196619:CKH196625 CTR196619:CUD196625 DDN196619:DDZ196625 DNJ196619:DNV196625 DXF196619:DXR196625 EHB196619:EHN196625 EQX196619:ERJ196625 FAT196619:FBF196625 FKP196619:FLB196625 FUL196619:FUX196625 GEH196619:GET196625 GOD196619:GOP196625 GXZ196619:GYL196625 HHV196619:HIH196625 HRR196619:HSD196625 IBN196619:IBZ196625 ILJ196619:ILV196625 IVF196619:IVR196625 JFB196619:JFN196625 JOX196619:JPJ196625 JYT196619:JZF196625 KIP196619:KJB196625 KSL196619:KSX196625 LCH196619:LCT196625 LMD196619:LMP196625 LVZ196619:LWL196625 MFV196619:MGH196625 MPR196619:MQD196625 MZN196619:MZZ196625 NJJ196619:NJV196625 NTF196619:NTR196625 ODB196619:ODN196625 OMX196619:ONJ196625 OWT196619:OXF196625 PGP196619:PHB196625 PQL196619:PQX196625 QAH196619:QAT196625 QKD196619:QKP196625 QTZ196619:QUL196625 RDV196619:REH196625 RNR196619:ROD196625 RXN196619:RXZ196625 SHJ196619:SHV196625 SRF196619:SRR196625 TBB196619:TBN196625 TKX196619:TLJ196625 TUT196619:TVF196625 UEP196619:UFB196625 UOL196619:UOX196625 UYH196619:UYT196625 VID196619:VIP196625 VRZ196619:VSL196625 WBV196619:WCH196625 WLR196619:WMD196625 WVN196619:WVZ196625 F262155:R262161 JB262155:JN262161 SX262155:TJ262161 ACT262155:ADF262161 AMP262155:ANB262161 AWL262155:AWX262161 BGH262155:BGT262161 BQD262155:BQP262161 BZZ262155:CAL262161 CJV262155:CKH262161 CTR262155:CUD262161 DDN262155:DDZ262161 DNJ262155:DNV262161 DXF262155:DXR262161 EHB262155:EHN262161 EQX262155:ERJ262161 FAT262155:FBF262161 FKP262155:FLB262161 FUL262155:FUX262161 GEH262155:GET262161 GOD262155:GOP262161 GXZ262155:GYL262161 HHV262155:HIH262161 HRR262155:HSD262161 IBN262155:IBZ262161 ILJ262155:ILV262161 IVF262155:IVR262161 JFB262155:JFN262161 JOX262155:JPJ262161 JYT262155:JZF262161 KIP262155:KJB262161 KSL262155:KSX262161 LCH262155:LCT262161 LMD262155:LMP262161 LVZ262155:LWL262161 MFV262155:MGH262161 MPR262155:MQD262161 MZN262155:MZZ262161 NJJ262155:NJV262161 NTF262155:NTR262161 ODB262155:ODN262161 OMX262155:ONJ262161 OWT262155:OXF262161 PGP262155:PHB262161 PQL262155:PQX262161 QAH262155:QAT262161 QKD262155:QKP262161 QTZ262155:QUL262161 RDV262155:REH262161 RNR262155:ROD262161 RXN262155:RXZ262161 SHJ262155:SHV262161 SRF262155:SRR262161 TBB262155:TBN262161 TKX262155:TLJ262161 TUT262155:TVF262161 UEP262155:UFB262161 UOL262155:UOX262161 UYH262155:UYT262161 VID262155:VIP262161 VRZ262155:VSL262161 WBV262155:WCH262161 WLR262155:WMD262161 WVN262155:WVZ262161 F327691:R327697 JB327691:JN327697 SX327691:TJ327697 ACT327691:ADF327697 AMP327691:ANB327697 AWL327691:AWX327697 BGH327691:BGT327697 BQD327691:BQP327697 BZZ327691:CAL327697 CJV327691:CKH327697 CTR327691:CUD327697 DDN327691:DDZ327697 DNJ327691:DNV327697 DXF327691:DXR327697 EHB327691:EHN327697 EQX327691:ERJ327697 FAT327691:FBF327697 FKP327691:FLB327697 FUL327691:FUX327697 GEH327691:GET327697 GOD327691:GOP327697 GXZ327691:GYL327697 HHV327691:HIH327697 HRR327691:HSD327697 IBN327691:IBZ327697 ILJ327691:ILV327697 IVF327691:IVR327697 JFB327691:JFN327697 JOX327691:JPJ327697 JYT327691:JZF327697 KIP327691:KJB327697 KSL327691:KSX327697 LCH327691:LCT327697 LMD327691:LMP327697 LVZ327691:LWL327697 MFV327691:MGH327697 MPR327691:MQD327697 MZN327691:MZZ327697 NJJ327691:NJV327697 NTF327691:NTR327697 ODB327691:ODN327697 OMX327691:ONJ327697 OWT327691:OXF327697 PGP327691:PHB327697 PQL327691:PQX327697 QAH327691:QAT327697 QKD327691:QKP327697 QTZ327691:QUL327697 RDV327691:REH327697 RNR327691:ROD327697 RXN327691:RXZ327697 SHJ327691:SHV327697 SRF327691:SRR327697 TBB327691:TBN327697 TKX327691:TLJ327697 TUT327691:TVF327697 UEP327691:UFB327697 UOL327691:UOX327697 UYH327691:UYT327697 VID327691:VIP327697 VRZ327691:VSL327697 WBV327691:WCH327697 WLR327691:WMD327697 WVN327691:WVZ327697 F393227:R393233 JB393227:JN393233 SX393227:TJ393233 ACT393227:ADF393233 AMP393227:ANB393233 AWL393227:AWX393233 BGH393227:BGT393233 BQD393227:BQP393233 BZZ393227:CAL393233 CJV393227:CKH393233 CTR393227:CUD393233 DDN393227:DDZ393233 DNJ393227:DNV393233 DXF393227:DXR393233 EHB393227:EHN393233 EQX393227:ERJ393233 FAT393227:FBF393233 FKP393227:FLB393233 FUL393227:FUX393233 GEH393227:GET393233 GOD393227:GOP393233 GXZ393227:GYL393233 HHV393227:HIH393233 HRR393227:HSD393233 IBN393227:IBZ393233 ILJ393227:ILV393233 IVF393227:IVR393233 JFB393227:JFN393233 JOX393227:JPJ393233 JYT393227:JZF393233 KIP393227:KJB393233 KSL393227:KSX393233 LCH393227:LCT393233 LMD393227:LMP393233 LVZ393227:LWL393233 MFV393227:MGH393233 MPR393227:MQD393233 MZN393227:MZZ393233 NJJ393227:NJV393233 NTF393227:NTR393233 ODB393227:ODN393233 OMX393227:ONJ393233 OWT393227:OXF393233 PGP393227:PHB393233 PQL393227:PQX393233 QAH393227:QAT393233 QKD393227:QKP393233 QTZ393227:QUL393233 RDV393227:REH393233 RNR393227:ROD393233 RXN393227:RXZ393233 SHJ393227:SHV393233 SRF393227:SRR393233 TBB393227:TBN393233 TKX393227:TLJ393233 TUT393227:TVF393233 UEP393227:UFB393233 UOL393227:UOX393233 UYH393227:UYT393233 VID393227:VIP393233 VRZ393227:VSL393233 WBV393227:WCH393233 WLR393227:WMD393233 WVN393227:WVZ393233 F458763:R458769 JB458763:JN458769 SX458763:TJ458769 ACT458763:ADF458769 AMP458763:ANB458769 AWL458763:AWX458769 BGH458763:BGT458769 BQD458763:BQP458769 BZZ458763:CAL458769 CJV458763:CKH458769 CTR458763:CUD458769 DDN458763:DDZ458769 DNJ458763:DNV458769 DXF458763:DXR458769 EHB458763:EHN458769 EQX458763:ERJ458769 FAT458763:FBF458769 FKP458763:FLB458769 FUL458763:FUX458769 GEH458763:GET458769 GOD458763:GOP458769 GXZ458763:GYL458769 HHV458763:HIH458769 HRR458763:HSD458769 IBN458763:IBZ458769 ILJ458763:ILV458769 IVF458763:IVR458769 JFB458763:JFN458769 JOX458763:JPJ458769 JYT458763:JZF458769 KIP458763:KJB458769 KSL458763:KSX458769 LCH458763:LCT458769 LMD458763:LMP458769 LVZ458763:LWL458769 MFV458763:MGH458769 MPR458763:MQD458769 MZN458763:MZZ458769 NJJ458763:NJV458769 NTF458763:NTR458769 ODB458763:ODN458769 OMX458763:ONJ458769 OWT458763:OXF458769 PGP458763:PHB458769 PQL458763:PQX458769 QAH458763:QAT458769 QKD458763:QKP458769 QTZ458763:QUL458769 RDV458763:REH458769 RNR458763:ROD458769 RXN458763:RXZ458769 SHJ458763:SHV458769 SRF458763:SRR458769 TBB458763:TBN458769 TKX458763:TLJ458769 TUT458763:TVF458769 UEP458763:UFB458769 UOL458763:UOX458769 UYH458763:UYT458769 VID458763:VIP458769 VRZ458763:VSL458769 WBV458763:WCH458769 WLR458763:WMD458769 WVN458763:WVZ458769 F524299:R524305 JB524299:JN524305 SX524299:TJ524305 ACT524299:ADF524305 AMP524299:ANB524305 AWL524299:AWX524305 BGH524299:BGT524305 BQD524299:BQP524305 BZZ524299:CAL524305 CJV524299:CKH524305 CTR524299:CUD524305 DDN524299:DDZ524305 DNJ524299:DNV524305 DXF524299:DXR524305 EHB524299:EHN524305 EQX524299:ERJ524305 FAT524299:FBF524305 FKP524299:FLB524305 FUL524299:FUX524305 GEH524299:GET524305 GOD524299:GOP524305 GXZ524299:GYL524305 HHV524299:HIH524305 HRR524299:HSD524305 IBN524299:IBZ524305 ILJ524299:ILV524305 IVF524299:IVR524305 JFB524299:JFN524305 JOX524299:JPJ524305 JYT524299:JZF524305 KIP524299:KJB524305 KSL524299:KSX524305 LCH524299:LCT524305 LMD524299:LMP524305 LVZ524299:LWL524305 MFV524299:MGH524305 MPR524299:MQD524305 MZN524299:MZZ524305 NJJ524299:NJV524305 NTF524299:NTR524305 ODB524299:ODN524305 OMX524299:ONJ524305 OWT524299:OXF524305 PGP524299:PHB524305 PQL524299:PQX524305 QAH524299:QAT524305 QKD524299:QKP524305 QTZ524299:QUL524305 RDV524299:REH524305 RNR524299:ROD524305 RXN524299:RXZ524305 SHJ524299:SHV524305 SRF524299:SRR524305 TBB524299:TBN524305 TKX524299:TLJ524305 TUT524299:TVF524305 UEP524299:UFB524305 UOL524299:UOX524305 UYH524299:UYT524305 VID524299:VIP524305 VRZ524299:VSL524305 WBV524299:WCH524305 WLR524299:WMD524305 WVN524299:WVZ524305 F589835:R589841 JB589835:JN589841 SX589835:TJ589841 ACT589835:ADF589841 AMP589835:ANB589841 AWL589835:AWX589841 BGH589835:BGT589841 BQD589835:BQP589841 BZZ589835:CAL589841 CJV589835:CKH589841 CTR589835:CUD589841 DDN589835:DDZ589841 DNJ589835:DNV589841 DXF589835:DXR589841 EHB589835:EHN589841 EQX589835:ERJ589841 FAT589835:FBF589841 FKP589835:FLB589841 FUL589835:FUX589841 GEH589835:GET589841 GOD589835:GOP589841 GXZ589835:GYL589841 HHV589835:HIH589841 HRR589835:HSD589841 IBN589835:IBZ589841 ILJ589835:ILV589841 IVF589835:IVR589841 JFB589835:JFN589841 JOX589835:JPJ589841 JYT589835:JZF589841 KIP589835:KJB589841 KSL589835:KSX589841 LCH589835:LCT589841 LMD589835:LMP589841 LVZ589835:LWL589841 MFV589835:MGH589841 MPR589835:MQD589841 MZN589835:MZZ589841 NJJ589835:NJV589841 NTF589835:NTR589841 ODB589835:ODN589841 OMX589835:ONJ589841 OWT589835:OXF589841 PGP589835:PHB589841 PQL589835:PQX589841 QAH589835:QAT589841 QKD589835:QKP589841 QTZ589835:QUL589841 RDV589835:REH589841 RNR589835:ROD589841 RXN589835:RXZ589841 SHJ589835:SHV589841 SRF589835:SRR589841 TBB589835:TBN589841 TKX589835:TLJ589841 TUT589835:TVF589841 UEP589835:UFB589841 UOL589835:UOX589841 UYH589835:UYT589841 VID589835:VIP589841 VRZ589835:VSL589841 WBV589835:WCH589841 WLR589835:WMD589841 WVN589835:WVZ589841 F655371:R655377 JB655371:JN655377 SX655371:TJ655377 ACT655371:ADF655377 AMP655371:ANB655377 AWL655371:AWX655377 BGH655371:BGT655377 BQD655371:BQP655377 BZZ655371:CAL655377 CJV655371:CKH655377 CTR655371:CUD655377 DDN655371:DDZ655377 DNJ655371:DNV655377 DXF655371:DXR655377 EHB655371:EHN655377 EQX655371:ERJ655377 FAT655371:FBF655377 FKP655371:FLB655377 FUL655371:FUX655377 GEH655371:GET655377 GOD655371:GOP655377 GXZ655371:GYL655377 HHV655371:HIH655377 HRR655371:HSD655377 IBN655371:IBZ655377 ILJ655371:ILV655377 IVF655371:IVR655377 JFB655371:JFN655377 JOX655371:JPJ655377 JYT655371:JZF655377 KIP655371:KJB655377 KSL655371:KSX655377 LCH655371:LCT655377 LMD655371:LMP655377 LVZ655371:LWL655377 MFV655371:MGH655377 MPR655371:MQD655377 MZN655371:MZZ655377 NJJ655371:NJV655377 NTF655371:NTR655377 ODB655371:ODN655377 OMX655371:ONJ655377 OWT655371:OXF655377 PGP655371:PHB655377 PQL655371:PQX655377 QAH655371:QAT655377 QKD655371:QKP655377 QTZ655371:QUL655377 RDV655371:REH655377 RNR655371:ROD655377 RXN655371:RXZ655377 SHJ655371:SHV655377 SRF655371:SRR655377 TBB655371:TBN655377 TKX655371:TLJ655377 TUT655371:TVF655377 UEP655371:UFB655377 UOL655371:UOX655377 UYH655371:UYT655377 VID655371:VIP655377 VRZ655371:VSL655377 WBV655371:WCH655377 WLR655371:WMD655377 WVN655371:WVZ655377 F720907:R720913 JB720907:JN720913 SX720907:TJ720913 ACT720907:ADF720913 AMP720907:ANB720913 AWL720907:AWX720913 BGH720907:BGT720913 BQD720907:BQP720913 BZZ720907:CAL720913 CJV720907:CKH720913 CTR720907:CUD720913 DDN720907:DDZ720913 DNJ720907:DNV720913 DXF720907:DXR720913 EHB720907:EHN720913 EQX720907:ERJ720913 FAT720907:FBF720913 FKP720907:FLB720913 FUL720907:FUX720913 GEH720907:GET720913 GOD720907:GOP720913 GXZ720907:GYL720913 HHV720907:HIH720913 HRR720907:HSD720913 IBN720907:IBZ720913 ILJ720907:ILV720913 IVF720907:IVR720913 JFB720907:JFN720913 JOX720907:JPJ720913 JYT720907:JZF720913 KIP720907:KJB720913 KSL720907:KSX720913 LCH720907:LCT720913 LMD720907:LMP720913 LVZ720907:LWL720913 MFV720907:MGH720913 MPR720907:MQD720913 MZN720907:MZZ720913 NJJ720907:NJV720913 NTF720907:NTR720913 ODB720907:ODN720913 OMX720907:ONJ720913 OWT720907:OXF720913 PGP720907:PHB720913 PQL720907:PQX720913 QAH720907:QAT720913 QKD720907:QKP720913 QTZ720907:QUL720913 RDV720907:REH720913 RNR720907:ROD720913 RXN720907:RXZ720913 SHJ720907:SHV720913 SRF720907:SRR720913 TBB720907:TBN720913 TKX720907:TLJ720913 TUT720907:TVF720913 UEP720907:UFB720913 UOL720907:UOX720913 UYH720907:UYT720913 VID720907:VIP720913 VRZ720907:VSL720913 WBV720907:WCH720913 WLR720907:WMD720913 WVN720907:WVZ720913 F786443:R786449 JB786443:JN786449 SX786443:TJ786449 ACT786443:ADF786449 AMP786443:ANB786449 AWL786443:AWX786449 BGH786443:BGT786449 BQD786443:BQP786449 BZZ786443:CAL786449 CJV786443:CKH786449 CTR786443:CUD786449 DDN786443:DDZ786449 DNJ786443:DNV786449 DXF786443:DXR786449 EHB786443:EHN786449 EQX786443:ERJ786449 FAT786443:FBF786449 FKP786443:FLB786449 FUL786443:FUX786449 GEH786443:GET786449 GOD786443:GOP786449 GXZ786443:GYL786449 HHV786443:HIH786449 HRR786443:HSD786449 IBN786443:IBZ786449 ILJ786443:ILV786449 IVF786443:IVR786449 JFB786443:JFN786449 JOX786443:JPJ786449 JYT786443:JZF786449 KIP786443:KJB786449 KSL786443:KSX786449 LCH786443:LCT786449 LMD786443:LMP786449 LVZ786443:LWL786449 MFV786443:MGH786449 MPR786443:MQD786449 MZN786443:MZZ786449 NJJ786443:NJV786449 NTF786443:NTR786449 ODB786443:ODN786449 OMX786443:ONJ786449 OWT786443:OXF786449 PGP786443:PHB786449 PQL786443:PQX786449 QAH786443:QAT786449 QKD786443:QKP786449 QTZ786443:QUL786449 RDV786443:REH786449 RNR786443:ROD786449 RXN786443:RXZ786449 SHJ786443:SHV786449 SRF786443:SRR786449 TBB786443:TBN786449 TKX786443:TLJ786449 TUT786443:TVF786449 UEP786443:UFB786449 UOL786443:UOX786449 UYH786443:UYT786449 VID786443:VIP786449 VRZ786443:VSL786449 WBV786443:WCH786449 WLR786443:WMD786449 WVN786443:WVZ786449 F851979:R851985 JB851979:JN851985 SX851979:TJ851985 ACT851979:ADF851985 AMP851979:ANB851985 AWL851979:AWX851985 BGH851979:BGT851985 BQD851979:BQP851985 BZZ851979:CAL851985 CJV851979:CKH851985 CTR851979:CUD851985 DDN851979:DDZ851985 DNJ851979:DNV851985 DXF851979:DXR851985 EHB851979:EHN851985 EQX851979:ERJ851985 FAT851979:FBF851985 FKP851979:FLB851985 FUL851979:FUX851985 GEH851979:GET851985 GOD851979:GOP851985 GXZ851979:GYL851985 HHV851979:HIH851985 HRR851979:HSD851985 IBN851979:IBZ851985 ILJ851979:ILV851985 IVF851979:IVR851985 JFB851979:JFN851985 JOX851979:JPJ851985 JYT851979:JZF851985 KIP851979:KJB851985 KSL851979:KSX851985 LCH851979:LCT851985 LMD851979:LMP851985 LVZ851979:LWL851985 MFV851979:MGH851985 MPR851979:MQD851985 MZN851979:MZZ851985 NJJ851979:NJV851985 NTF851979:NTR851985 ODB851979:ODN851985 OMX851979:ONJ851985 OWT851979:OXF851985 PGP851979:PHB851985 PQL851979:PQX851985 QAH851979:QAT851985 QKD851979:QKP851985 QTZ851979:QUL851985 RDV851979:REH851985 RNR851979:ROD851985 RXN851979:RXZ851985 SHJ851979:SHV851985 SRF851979:SRR851985 TBB851979:TBN851985 TKX851979:TLJ851985 TUT851979:TVF851985 UEP851979:UFB851985 UOL851979:UOX851985 UYH851979:UYT851985 VID851979:VIP851985 VRZ851979:VSL851985 WBV851979:WCH851985 WLR851979:WMD851985 WVN851979:WVZ851985 F917515:R917521 JB917515:JN917521 SX917515:TJ917521 ACT917515:ADF917521 AMP917515:ANB917521 AWL917515:AWX917521 BGH917515:BGT917521 BQD917515:BQP917521 BZZ917515:CAL917521 CJV917515:CKH917521 CTR917515:CUD917521 DDN917515:DDZ917521 DNJ917515:DNV917521 DXF917515:DXR917521 EHB917515:EHN917521 EQX917515:ERJ917521 FAT917515:FBF917521 FKP917515:FLB917521 FUL917515:FUX917521 GEH917515:GET917521 GOD917515:GOP917521 GXZ917515:GYL917521 HHV917515:HIH917521 HRR917515:HSD917521 IBN917515:IBZ917521 ILJ917515:ILV917521 IVF917515:IVR917521 JFB917515:JFN917521 JOX917515:JPJ917521 JYT917515:JZF917521 KIP917515:KJB917521 KSL917515:KSX917521 LCH917515:LCT917521 LMD917515:LMP917521 LVZ917515:LWL917521 MFV917515:MGH917521 MPR917515:MQD917521 MZN917515:MZZ917521 NJJ917515:NJV917521 NTF917515:NTR917521 ODB917515:ODN917521 OMX917515:ONJ917521 OWT917515:OXF917521 PGP917515:PHB917521 PQL917515:PQX917521 QAH917515:QAT917521 QKD917515:QKP917521 QTZ917515:QUL917521 RDV917515:REH917521 RNR917515:ROD917521 RXN917515:RXZ917521 SHJ917515:SHV917521 SRF917515:SRR917521 TBB917515:TBN917521 TKX917515:TLJ917521 TUT917515:TVF917521 UEP917515:UFB917521 UOL917515:UOX917521 UYH917515:UYT917521 VID917515:VIP917521 VRZ917515:VSL917521 WBV917515:WCH917521 WLR917515:WMD917521 WVN917515:WVZ917521 F983051:R983057 JB983051:JN983057 SX983051:TJ983057 ACT983051:ADF983057 AMP983051:ANB983057 AWL983051:AWX983057 BGH983051:BGT983057 BQD983051:BQP983057 BZZ983051:CAL983057 CJV983051:CKH983057 CTR983051:CUD983057 DDN983051:DDZ983057 DNJ983051:DNV983057 DXF983051:DXR983057 EHB983051:EHN983057 EQX983051:ERJ983057 FAT983051:FBF983057 FKP983051:FLB983057 FUL983051:FUX983057 GEH983051:GET983057 GOD983051:GOP983057 GXZ983051:GYL983057 HHV983051:HIH983057 HRR983051:HSD983057 IBN983051:IBZ983057 ILJ983051:ILV983057 IVF983051:IVR983057 JFB983051:JFN983057 JOX983051:JPJ983057 JYT983051:JZF983057 KIP983051:KJB983057 KSL983051:KSX983057 LCH983051:LCT983057 LMD983051:LMP983057 LVZ983051:LWL983057 MFV983051:MGH983057 MPR983051:MQD983057 MZN983051:MZZ983057 NJJ983051:NJV983057 NTF983051:NTR983057 ODB983051:ODN983057 OMX983051:ONJ983057 OWT983051:OXF983057 PGP983051:PHB983057 PQL983051:PQX983057 QAH983051:QAT983057 QKD983051:QKP983057 QTZ983051:QUL983057 RDV983051:REH983057 RNR983051:ROD983057 RXN983051:RXZ983057 SHJ983051:SHV983057 SRF983051:SRR983057 TBB983051:TBN983057 TKX983051:TLJ983057 TUT983051:TVF983057 UEP983051:UFB983057 UOL983051:UOX983057 UYH983051:UYT983057 VID983051:VIP983057 VRZ983051:VSL983057 WBV983051:WCH983057 WLR983051:WMD983057 WVN983051:WVZ983057 E65545:E65549 JA65545:JA65549 SW65545:SW65549 ACS65545:ACS65549 AMO65545:AMO65549 AWK65545:AWK65549 BGG65545:BGG65549 BQC65545:BQC65549 BZY65545:BZY65549 CJU65545:CJU65549 CTQ65545:CTQ65549 DDM65545:DDM65549 DNI65545:DNI65549 DXE65545:DXE65549 EHA65545:EHA65549 EQW65545:EQW65549 FAS65545:FAS65549 FKO65545:FKO65549 FUK65545:FUK65549 GEG65545:GEG65549 GOC65545:GOC65549 GXY65545:GXY65549 HHU65545:HHU65549 HRQ65545:HRQ65549 IBM65545:IBM65549 ILI65545:ILI65549 IVE65545:IVE65549 JFA65545:JFA65549 JOW65545:JOW65549 JYS65545:JYS65549 KIO65545:KIO65549 KSK65545:KSK65549 LCG65545:LCG65549 LMC65545:LMC65549 LVY65545:LVY65549 MFU65545:MFU65549 MPQ65545:MPQ65549 MZM65545:MZM65549 NJI65545:NJI65549 NTE65545:NTE65549 ODA65545:ODA65549 OMW65545:OMW65549 OWS65545:OWS65549 PGO65545:PGO65549 PQK65545:PQK65549 QAG65545:QAG65549 QKC65545:QKC65549 QTY65545:QTY65549 RDU65545:RDU65549 RNQ65545:RNQ65549 RXM65545:RXM65549 SHI65545:SHI65549 SRE65545:SRE65549 TBA65545:TBA65549 TKW65545:TKW65549 TUS65545:TUS65549 UEO65545:UEO65549 UOK65545:UOK65549 UYG65545:UYG65549 VIC65545:VIC65549 VRY65545:VRY65549 WBU65545:WBU65549 WLQ65545:WLQ65549 WVM65545:WVM65549 E131081:E131085 JA131081:JA131085 SW131081:SW131085 ACS131081:ACS131085 AMO131081:AMO131085 AWK131081:AWK131085 BGG131081:BGG131085 BQC131081:BQC131085 BZY131081:BZY131085 CJU131081:CJU131085 CTQ131081:CTQ131085 DDM131081:DDM131085 DNI131081:DNI131085 DXE131081:DXE131085 EHA131081:EHA131085 EQW131081:EQW131085 FAS131081:FAS131085 FKO131081:FKO131085 FUK131081:FUK131085 GEG131081:GEG131085 GOC131081:GOC131085 GXY131081:GXY131085 HHU131081:HHU131085 HRQ131081:HRQ131085 IBM131081:IBM131085 ILI131081:ILI131085 IVE131081:IVE131085 JFA131081:JFA131085 JOW131081:JOW131085 JYS131081:JYS131085 KIO131081:KIO131085 KSK131081:KSK131085 LCG131081:LCG131085 LMC131081:LMC131085 LVY131081:LVY131085 MFU131081:MFU131085 MPQ131081:MPQ131085 MZM131081:MZM131085 NJI131081:NJI131085 NTE131081:NTE131085 ODA131081:ODA131085 OMW131081:OMW131085 OWS131081:OWS131085 PGO131081:PGO131085 PQK131081:PQK131085 QAG131081:QAG131085 QKC131081:QKC131085 QTY131081:QTY131085 RDU131081:RDU131085 RNQ131081:RNQ131085 RXM131081:RXM131085 SHI131081:SHI131085 SRE131081:SRE131085 TBA131081:TBA131085 TKW131081:TKW131085 TUS131081:TUS131085 UEO131081:UEO131085 UOK131081:UOK131085 UYG131081:UYG131085 VIC131081:VIC131085 VRY131081:VRY131085 WBU131081:WBU131085 WLQ131081:WLQ131085 WVM131081:WVM131085 E196617:E196621 JA196617:JA196621 SW196617:SW196621 ACS196617:ACS196621 AMO196617:AMO196621 AWK196617:AWK196621 BGG196617:BGG196621 BQC196617:BQC196621 BZY196617:BZY196621 CJU196617:CJU196621 CTQ196617:CTQ196621 DDM196617:DDM196621 DNI196617:DNI196621 DXE196617:DXE196621 EHA196617:EHA196621 EQW196617:EQW196621 FAS196617:FAS196621 FKO196617:FKO196621 FUK196617:FUK196621 GEG196617:GEG196621 GOC196617:GOC196621 GXY196617:GXY196621 HHU196617:HHU196621 HRQ196617:HRQ196621 IBM196617:IBM196621 ILI196617:ILI196621 IVE196617:IVE196621 JFA196617:JFA196621 JOW196617:JOW196621 JYS196617:JYS196621 KIO196617:KIO196621 KSK196617:KSK196621 LCG196617:LCG196621 LMC196617:LMC196621 LVY196617:LVY196621 MFU196617:MFU196621 MPQ196617:MPQ196621 MZM196617:MZM196621 NJI196617:NJI196621 NTE196617:NTE196621 ODA196617:ODA196621 OMW196617:OMW196621 OWS196617:OWS196621 PGO196617:PGO196621 PQK196617:PQK196621 QAG196617:QAG196621 QKC196617:QKC196621 QTY196617:QTY196621 RDU196617:RDU196621 RNQ196617:RNQ196621 RXM196617:RXM196621 SHI196617:SHI196621 SRE196617:SRE196621 TBA196617:TBA196621 TKW196617:TKW196621 TUS196617:TUS196621 UEO196617:UEO196621 UOK196617:UOK196621 UYG196617:UYG196621 VIC196617:VIC196621 VRY196617:VRY196621 WBU196617:WBU196621 WLQ196617:WLQ196621 WVM196617:WVM196621 E262153:E262157 JA262153:JA262157 SW262153:SW262157 ACS262153:ACS262157 AMO262153:AMO262157 AWK262153:AWK262157 BGG262153:BGG262157 BQC262153:BQC262157 BZY262153:BZY262157 CJU262153:CJU262157 CTQ262153:CTQ262157 DDM262153:DDM262157 DNI262153:DNI262157 DXE262153:DXE262157 EHA262153:EHA262157 EQW262153:EQW262157 FAS262153:FAS262157 FKO262153:FKO262157 FUK262153:FUK262157 GEG262153:GEG262157 GOC262153:GOC262157 GXY262153:GXY262157 HHU262153:HHU262157 HRQ262153:HRQ262157 IBM262153:IBM262157 ILI262153:ILI262157 IVE262153:IVE262157 JFA262153:JFA262157 JOW262153:JOW262157 JYS262153:JYS262157 KIO262153:KIO262157 KSK262153:KSK262157 LCG262153:LCG262157 LMC262153:LMC262157 LVY262153:LVY262157 MFU262153:MFU262157 MPQ262153:MPQ262157 MZM262153:MZM262157 NJI262153:NJI262157 NTE262153:NTE262157 ODA262153:ODA262157 OMW262153:OMW262157 OWS262153:OWS262157 PGO262153:PGO262157 PQK262153:PQK262157 QAG262153:QAG262157 QKC262153:QKC262157 QTY262153:QTY262157 RDU262153:RDU262157 RNQ262153:RNQ262157 RXM262153:RXM262157 SHI262153:SHI262157 SRE262153:SRE262157 TBA262153:TBA262157 TKW262153:TKW262157 TUS262153:TUS262157 UEO262153:UEO262157 UOK262153:UOK262157 UYG262153:UYG262157 VIC262153:VIC262157 VRY262153:VRY262157 WBU262153:WBU262157 WLQ262153:WLQ262157 WVM262153:WVM262157 E327689:E327693 JA327689:JA327693 SW327689:SW327693 ACS327689:ACS327693 AMO327689:AMO327693 AWK327689:AWK327693 BGG327689:BGG327693 BQC327689:BQC327693 BZY327689:BZY327693 CJU327689:CJU327693 CTQ327689:CTQ327693 DDM327689:DDM327693 DNI327689:DNI327693 DXE327689:DXE327693 EHA327689:EHA327693 EQW327689:EQW327693 FAS327689:FAS327693 FKO327689:FKO327693 FUK327689:FUK327693 GEG327689:GEG327693 GOC327689:GOC327693 GXY327689:GXY327693 HHU327689:HHU327693 HRQ327689:HRQ327693 IBM327689:IBM327693 ILI327689:ILI327693 IVE327689:IVE327693 JFA327689:JFA327693 JOW327689:JOW327693 JYS327689:JYS327693 KIO327689:KIO327693 KSK327689:KSK327693 LCG327689:LCG327693 LMC327689:LMC327693 LVY327689:LVY327693 MFU327689:MFU327693 MPQ327689:MPQ327693 MZM327689:MZM327693 NJI327689:NJI327693 NTE327689:NTE327693 ODA327689:ODA327693 OMW327689:OMW327693 OWS327689:OWS327693 PGO327689:PGO327693 PQK327689:PQK327693 QAG327689:QAG327693 QKC327689:QKC327693 QTY327689:QTY327693 RDU327689:RDU327693 RNQ327689:RNQ327693 RXM327689:RXM327693 SHI327689:SHI327693 SRE327689:SRE327693 TBA327689:TBA327693 TKW327689:TKW327693 TUS327689:TUS327693 UEO327689:UEO327693 UOK327689:UOK327693 UYG327689:UYG327693 VIC327689:VIC327693 VRY327689:VRY327693 WBU327689:WBU327693 WLQ327689:WLQ327693 WVM327689:WVM327693 E393225:E393229 JA393225:JA393229 SW393225:SW393229 ACS393225:ACS393229 AMO393225:AMO393229 AWK393225:AWK393229 BGG393225:BGG393229 BQC393225:BQC393229 BZY393225:BZY393229 CJU393225:CJU393229 CTQ393225:CTQ393229 DDM393225:DDM393229 DNI393225:DNI393229 DXE393225:DXE393229 EHA393225:EHA393229 EQW393225:EQW393229 FAS393225:FAS393229 FKO393225:FKO393229 FUK393225:FUK393229 GEG393225:GEG393229 GOC393225:GOC393229 GXY393225:GXY393229 HHU393225:HHU393229 HRQ393225:HRQ393229 IBM393225:IBM393229 ILI393225:ILI393229 IVE393225:IVE393229 JFA393225:JFA393229 JOW393225:JOW393229 JYS393225:JYS393229 KIO393225:KIO393229 KSK393225:KSK393229 LCG393225:LCG393229 LMC393225:LMC393229 LVY393225:LVY393229 MFU393225:MFU393229 MPQ393225:MPQ393229 MZM393225:MZM393229 NJI393225:NJI393229 NTE393225:NTE393229 ODA393225:ODA393229 OMW393225:OMW393229 OWS393225:OWS393229 PGO393225:PGO393229 PQK393225:PQK393229 QAG393225:QAG393229 QKC393225:QKC393229 QTY393225:QTY393229 RDU393225:RDU393229 RNQ393225:RNQ393229 RXM393225:RXM393229 SHI393225:SHI393229 SRE393225:SRE393229 TBA393225:TBA393229 TKW393225:TKW393229 TUS393225:TUS393229 UEO393225:UEO393229 UOK393225:UOK393229 UYG393225:UYG393229 VIC393225:VIC393229 VRY393225:VRY393229 WBU393225:WBU393229 WLQ393225:WLQ393229 WVM393225:WVM393229 E458761:E458765 JA458761:JA458765 SW458761:SW458765 ACS458761:ACS458765 AMO458761:AMO458765 AWK458761:AWK458765 BGG458761:BGG458765 BQC458761:BQC458765 BZY458761:BZY458765 CJU458761:CJU458765 CTQ458761:CTQ458765 DDM458761:DDM458765 DNI458761:DNI458765 DXE458761:DXE458765 EHA458761:EHA458765 EQW458761:EQW458765 FAS458761:FAS458765 FKO458761:FKO458765 FUK458761:FUK458765 GEG458761:GEG458765 GOC458761:GOC458765 GXY458761:GXY458765 HHU458761:HHU458765 HRQ458761:HRQ458765 IBM458761:IBM458765 ILI458761:ILI458765 IVE458761:IVE458765 JFA458761:JFA458765 JOW458761:JOW458765 JYS458761:JYS458765 KIO458761:KIO458765 KSK458761:KSK458765 LCG458761:LCG458765 LMC458761:LMC458765 LVY458761:LVY458765 MFU458761:MFU458765 MPQ458761:MPQ458765 MZM458761:MZM458765 NJI458761:NJI458765 NTE458761:NTE458765 ODA458761:ODA458765 OMW458761:OMW458765 OWS458761:OWS458765 PGO458761:PGO458765 PQK458761:PQK458765 QAG458761:QAG458765 QKC458761:QKC458765 QTY458761:QTY458765 RDU458761:RDU458765 RNQ458761:RNQ458765 RXM458761:RXM458765 SHI458761:SHI458765 SRE458761:SRE458765 TBA458761:TBA458765 TKW458761:TKW458765 TUS458761:TUS458765 UEO458761:UEO458765 UOK458761:UOK458765 UYG458761:UYG458765 VIC458761:VIC458765 VRY458761:VRY458765 WBU458761:WBU458765 WLQ458761:WLQ458765 WVM458761:WVM458765 E524297:E524301 JA524297:JA524301 SW524297:SW524301 ACS524297:ACS524301 AMO524297:AMO524301 AWK524297:AWK524301 BGG524297:BGG524301 BQC524297:BQC524301 BZY524297:BZY524301 CJU524297:CJU524301 CTQ524297:CTQ524301 DDM524297:DDM524301 DNI524297:DNI524301 DXE524297:DXE524301 EHA524297:EHA524301 EQW524297:EQW524301 FAS524297:FAS524301 FKO524297:FKO524301 FUK524297:FUK524301 GEG524297:GEG524301 GOC524297:GOC524301 GXY524297:GXY524301 HHU524297:HHU524301 HRQ524297:HRQ524301 IBM524297:IBM524301 ILI524297:ILI524301 IVE524297:IVE524301 JFA524297:JFA524301 JOW524297:JOW524301 JYS524297:JYS524301 KIO524297:KIO524301 KSK524297:KSK524301 LCG524297:LCG524301 LMC524297:LMC524301 LVY524297:LVY524301 MFU524297:MFU524301 MPQ524297:MPQ524301 MZM524297:MZM524301 NJI524297:NJI524301 NTE524297:NTE524301 ODA524297:ODA524301 OMW524297:OMW524301 OWS524297:OWS524301 PGO524297:PGO524301 PQK524297:PQK524301 QAG524297:QAG524301 QKC524297:QKC524301 QTY524297:QTY524301 RDU524297:RDU524301 RNQ524297:RNQ524301 RXM524297:RXM524301 SHI524297:SHI524301 SRE524297:SRE524301 TBA524297:TBA524301 TKW524297:TKW524301 TUS524297:TUS524301 UEO524297:UEO524301 UOK524297:UOK524301 UYG524297:UYG524301 VIC524297:VIC524301 VRY524297:VRY524301 WBU524297:WBU524301 WLQ524297:WLQ524301 WVM524297:WVM524301 E589833:E589837 JA589833:JA589837 SW589833:SW589837 ACS589833:ACS589837 AMO589833:AMO589837 AWK589833:AWK589837 BGG589833:BGG589837 BQC589833:BQC589837 BZY589833:BZY589837 CJU589833:CJU589837 CTQ589833:CTQ589837 DDM589833:DDM589837 DNI589833:DNI589837 DXE589833:DXE589837 EHA589833:EHA589837 EQW589833:EQW589837 FAS589833:FAS589837 FKO589833:FKO589837 FUK589833:FUK589837 GEG589833:GEG589837 GOC589833:GOC589837 GXY589833:GXY589837 HHU589833:HHU589837 HRQ589833:HRQ589837 IBM589833:IBM589837 ILI589833:ILI589837 IVE589833:IVE589837 JFA589833:JFA589837 JOW589833:JOW589837 JYS589833:JYS589837 KIO589833:KIO589837 KSK589833:KSK589837 LCG589833:LCG589837 LMC589833:LMC589837 LVY589833:LVY589837 MFU589833:MFU589837 MPQ589833:MPQ589837 MZM589833:MZM589837 NJI589833:NJI589837 NTE589833:NTE589837 ODA589833:ODA589837 OMW589833:OMW589837 OWS589833:OWS589837 PGO589833:PGO589837 PQK589833:PQK589837 QAG589833:QAG589837 QKC589833:QKC589837 QTY589833:QTY589837 RDU589833:RDU589837 RNQ589833:RNQ589837 RXM589833:RXM589837 SHI589833:SHI589837 SRE589833:SRE589837 TBA589833:TBA589837 TKW589833:TKW589837 TUS589833:TUS589837 UEO589833:UEO589837 UOK589833:UOK589837 UYG589833:UYG589837 VIC589833:VIC589837 VRY589833:VRY589837 WBU589833:WBU589837 WLQ589833:WLQ589837 WVM589833:WVM589837 E655369:E655373 JA655369:JA655373 SW655369:SW655373 ACS655369:ACS655373 AMO655369:AMO655373 AWK655369:AWK655373 BGG655369:BGG655373 BQC655369:BQC655373 BZY655369:BZY655373 CJU655369:CJU655373 CTQ655369:CTQ655373 DDM655369:DDM655373 DNI655369:DNI655373 DXE655369:DXE655373 EHA655369:EHA655373 EQW655369:EQW655373 FAS655369:FAS655373 FKO655369:FKO655373 FUK655369:FUK655373 GEG655369:GEG655373 GOC655369:GOC655373 GXY655369:GXY655373 HHU655369:HHU655373 HRQ655369:HRQ655373 IBM655369:IBM655373 ILI655369:ILI655373 IVE655369:IVE655373 JFA655369:JFA655373 JOW655369:JOW655373 JYS655369:JYS655373 KIO655369:KIO655373 KSK655369:KSK655373 LCG655369:LCG655373 LMC655369:LMC655373 LVY655369:LVY655373 MFU655369:MFU655373 MPQ655369:MPQ655373 MZM655369:MZM655373 NJI655369:NJI655373 NTE655369:NTE655373 ODA655369:ODA655373 OMW655369:OMW655373 OWS655369:OWS655373 PGO655369:PGO655373 PQK655369:PQK655373 QAG655369:QAG655373 QKC655369:QKC655373 QTY655369:QTY655373 RDU655369:RDU655373 RNQ655369:RNQ655373 RXM655369:RXM655373 SHI655369:SHI655373 SRE655369:SRE655373 TBA655369:TBA655373 TKW655369:TKW655373 TUS655369:TUS655373 UEO655369:UEO655373 UOK655369:UOK655373 UYG655369:UYG655373 VIC655369:VIC655373 VRY655369:VRY655373 WBU655369:WBU655373 WLQ655369:WLQ655373 WVM655369:WVM655373 E720905:E720909 JA720905:JA720909 SW720905:SW720909 ACS720905:ACS720909 AMO720905:AMO720909 AWK720905:AWK720909 BGG720905:BGG720909 BQC720905:BQC720909 BZY720905:BZY720909 CJU720905:CJU720909 CTQ720905:CTQ720909 DDM720905:DDM720909 DNI720905:DNI720909 DXE720905:DXE720909 EHA720905:EHA720909 EQW720905:EQW720909 FAS720905:FAS720909 FKO720905:FKO720909 FUK720905:FUK720909 GEG720905:GEG720909 GOC720905:GOC720909 GXY720905:GXY720909 HHU720905:HHU720909 HRQ720905:HRQ720909 IBM720905:IBM720909 ILI720905:ILI720909 IVE720905:IVE720909 JFA720905:JFA720909 JOW720905:JOW720909 JYS720905:JYS720909 KIO720905:KIO720909 KSK720905:KSK720909 LCG720905:LCG720909 LMC720905:LMC720909 LVY720905:LVY720909 MFU720905:MFU720909 MPQ720905:MPQ720909 MZM720905:MZM720909 NJI720905:NJI720909 NTE720905:NTE720909 ODA720905:ODA720909 OMW720905:OMW720909 OWS720905:OWS720909 PGO720905:PGO720909 PQK720905:PQK720909 QAG720905:QAG720909 QKC720905:QKC720909 QTY720905:QTY720909 RDU720905:RDU720909 RNQ720905:RNQ720909 RXM720905:RXM720909 SHI720905:SHI720909 SRE720905:SRE720909 TBA720905:TBA720909 TKW720905:TKW720909 TUS720905:TUS720909 UEO720905:UEO720909 UOK720905:UOK720909 UYG720905:UYG720909 VIC720905:VIC720909 VRY720905:VRY720909 WBU720905:WBU720909 WLQ720905:WLQ720909 WVM720905:WVM720909 E786441:E786445 JA786441:JA786445 SW786441:SW786445 ACS786441:ACS786445 AMO786441:AMO786445 AWK786441:AWK786445 BGG786441:BGG786445 BQC786441:BQC786445 BZY786441:BZY786445 CJU786441:CJU786445 CTQ786441:CTQ786445 DDM786441:DDM786445 DNI786441:DNI786445 DXE786441:DXE786445 EHA786441:EHA786445 EQW786441:EQW786445 FAS786441:FAS786445 FKO786441:FKO786445 FUK786441:FUK786445 GEG786441:GEG786445 GOC786441:GOC786445 GXY786441:GXY786445 HHU786441:HHU786445 HRQ786441:HRQ786445 IBM786441:IBM786445 ILI786441:ILI786445 IVE786441:IVE786445 JFA786441:JFA786445 JOW786441:JOW786445 JYS786441:JYS786445 KIO786441:KIO786445 KSK786441:KSK786445 LCG786441:LCG786445 LMC786441:LMC786445 LVY786441:LVY786445 MFU786441:MFU786445 MPQ786441:MPQ786445 MZM786441:MZM786445 NJI786441:NJI786445 NTE786441:NTE786445 ODA786441:ODA786445 OMW786441:OMW786445 OWS786441:OWS786445 PGO786441:PGO786445 PQK786441:PQK786445 QAG786441:QAG786445 QKC786441:QKC786445 QTY786441:QTY786445 RDU786441:RDU786445 RNQ786441:RNQ786445 RXM786441:RXM786445 SHI786441:SHI786445 SRE786441:SRE786445 TBA786441:TBA786445 TKW786441:TKW786445 TUS786441:TUS786445 UEO786441:UEO786445 UOK786441:UOK786445 UYG786441:UYG786445 VIC786441:VIC786445 VRY786441:VRY786445 WBU786441:WBU786445 WLQ786441:WLQ786445 WVM786441:WVM786445 E851977:E851981 JA851977:JA851981 SW851977:SW851981 ACS851977:ACS851981 AMO851977:AMO851981 AWK851977:AWK851981 BGG851977:BGG851981 BQC851977:BQC851981 BZY851977:BZY851981 CJU851977:CJU851981 CTQ851977:CTQ851981 DDM851977:DDM851981 DNI851977:DNI851981 DXE851977:DXE851981 EHA851977:EHA851981 EQW851977:EQW851981 FAS851977:FAS851981 FKO851977:FKO851981 FUK851977:FUK851981 GEG851977:GEG851981 GOC851977:GOC851981 GXY851977:GXY851981 HHU851977:HHU851981 HRQ851977:HRQ851981 IBM851977:IBM851981 ILI851977:ILI851981 IVE851977:IVE851981 JFA851977:JFA851981 JOW851977:JOW851981 JYS851977:JYS851981 KIO851977:KIO851981 KSK851977:KSK851981 LCG851977:LCG851981 LMC851977:LMC851981 LVY851977:LVY851981 MFU851977:MFU851981 MPQ851977:MPQ851981 MZM851977:MZM851981 NJI851977:NJI851981 NTE851977:NTE851981 ODA851977:ODA851981 OMW851977:OMW851981 OWS851977:OWS851981 PGO851977:PGO851981 PQK851977:PQK851981 QAG851977:QAG851981 QKC851977:QKC851981 QTY851977:QTY851981 RDU851977:RDU851981 RNQ851977:RNQ851981 RXM851977:RXM851981 SHI851977:SHI851981 SRE851977:SRE851981 TBA851977:TBA851981 TKW851977:TKW851981 TUS851977:TUS851981 UEO851977:UEO851981 UOK851977:UOK851981 UYG851977:UYG851981 VIC851977:VIC851981 VRY851977:VRY851981 WBU851977:WBU851981 WLQ851977:WLQ851981 WVM851977:WVM851981 E917513:E917517 JA917513:JA917517 SW917513:SW917517 ACS917513:ACS917517 AMO917513:AMO917517 AWK917513:AWK917517 BGG917513:BGG917517 BQC917513:BQC917517 BZY917513:BZY917517 CJU917513:CJU917517 CTQ917513:CTQ917517 DDM917513:DDM917517 DNI917513:DNI917517 DXE917513:DXE917517 EHA917513:EHA917517 EQW917513:EQW917517 FAS917513:FAS917517 FKO917513:FKO917517 FUK917513:FUK917517 GEG917513:GEG917517 GOC917513:GOC917517 GXY917513:GXY917517 HHU917513:HHU917517 HRQ917513:HRQ917517 IBM917513:IBM917517 ILI917513:ILI917517 IVE917513:IVE917517 JFA917513:JFA917517 JOW917513:JOW917517 JYS917513:JYS917517 KIO917513:KIO917517 KSK917513:KSK917517 LCG917513:LCG917517 LMC917513:LMC917517 LVY917513:LVY917517 MFU917513:MFU917517 MPQ917513:MPQ917517 MZM917513:MZM917517 NJI917513:NJI917517 NTE917513:NTE917517 ODA917513:ODA917517 OMW917513:OMW917517 OWS917513:OWS917517 PGO917513:PGO917517 PQK917513:PQK917517 QAG917513:QAG917517 QKC917513:QKC917517 QTY917513:QTY917517 RDU917513:RDU917517 RNQ917513:RNQ917517 RXM917513:RXM917517 SHI917513:SHI917517 SRE917513:SRE917517 TBA917513:TBA917517 TKW917513:TKW917517 TUS917513:TUS917517 UEO917513:UEO917517 UOK917513:UOK917517 UYG917513:UYG917517 VIC917513:VIC917517 VRY917513:VRY917517 WBU917513:WBU917517 WLQ917513:WLQ917517 WVM917513:WVM917517 E983049:E983053 JA983049:JA983053 SW983049:SW983053 ACS983049:ACS983053 AMO983049:AMO983053 AWK983049:AWK983053 BGG983049:BGG983053 BQC983049:BQC983053 BZY983049:BZY983053 CJU983049:CJU983053 CTQ983049:CTQ983053 DDM983049:DDM983053 DNI983049:DNI983053 DXE983049:DXE983053 EHA983049:EHA983053 EQW983049:EQW983053 FAS983049:FAS983053 FKO983049:FKO983053 FUK983049:FUK983053 GEG983049:GEG983053 GOC983049:GOC983053 GXY983049:GXY983053 HHU983049:HHU983053 HRQ983049:HRQ983053 IBM983049:IBM983053 ILI983049:ILI983053 IVE983049:IVE983053 JFA983049:JFA983053 JOW983049:JOW983053 JYS983049:JYS983053 KIO983049:KIO983053 KSK983049:KSK983053 LCG983049:LCG983053 LMC983049:LMC983053 LVY983049:LVY983053 MFU983049:MFU983053 MPQ983049:MPQ983053 MZM983049:MZM983053 NJI983049:NJI983053 NTE983049:NTE983053 ODA983049:ODA983053 OMW983049:OMW983053 OWS983049:OWS983053 PGO983049:PGO983053 PQK983049:PQK983053 QAG983049:QAG983053 QKC983049:QKC983053 QTY983049:QTY983053 RDU983049:RDU983053 RNQ983049:RNQ983053 RXM983049:RXM983053 SHI983049:SHI983053 SRE983049:SRE983053 TBA983049:TBA983053 TKW983049:TKW983053 TUS983049:TUS983053 UEO983049:UEO983053 UOK983049:UOK983053 UYG983049:UYG983053 VIC983049:VIC983053 VRY983049:VRY983053 WBU983049:WBU983053 WLQ983049:WLQ983053 WVM983049:WVM983053 E18:R18 E65554:R65554 JA65554:JN65554 SW65554:TJ65554 ACS65554:ADF65554 AMO65554:ANB65554 AWK65554:AWX65554 BGG65554:BGT65554 BQC65554:BQP65554 BZY65554:CAL65554 CJU65554:CKH65554 CTQ65554:CUD65554 DDM65554:DDZ65554 DNI65554:DNV65554 DXE65554:DXR65554 EHA65554:EHN65554 EQW65554:ERJ65554 FAS65554:FBF65554 FKO65554:FLB65554 FUK65554:FUX65554 GEG65554:GET65554 GOC65554:GOP65554 GXY65554:GYL65554 HHU65554:HIH65554 HRQ65554:HSD65554 IBM65554:IBZ65554 ILI65554:ILV65554 IVE65554:IVR65554 JFA65554:JFN65554 JOW65554:JPJ65554 JYS65554:JZF65554 KIO65554:KJB65554 KSK65554:KSX65554 LCG65554:LCT65554 LMC65554:LMP65554 LVY65554:LWL65554 MFU65554:MGH65554 MPQ65554:MQD65554 MZM65554:MZZ65554 NJI65554:NJV65554 NTE65554:NTR65554 ODA65554:ODN65554 OMW65554:ONJ65554 OWS65554:OXF65554 PGO65554:PHB65554 PQK65554:PQX65554 QAG65554:QAT65554 QKC65554:QKP65554 QTY65554:QUL65554 RDU65554:REH65554 RNQ65554:ROD65554 RXM65554:RXZ65554 SHI65554:SHV65554 SRE65554:SRR65554 TBA65554:TBN65554 TKW65554:TLJ65554 TUS65554:TVF65554 UEO65554:UFB65554 UOK65554:UOX65554 UYG65554:UYT65554 VIC65554:VIP65554 VRY65554:VSL65554 WBU65554:WCH65554 WLQ65554:WMD65554 WVM65554:WVZ65554 E131090:R131090 JA131090:JN131090 SW131090:TJ131090 ACS131090:ADF131090 AMO131090:ANB131090 AWK131090:AWX131090 BGG131090:BGT131090 BQC131090:BQP131090 BZY131090:CAL131090 CJU131090:CKH131090 CTQ131090:CUD131090 DDM131090:DDZ131090 DNI131090:DNV131090 DXE131090:DXR131090 EHA131090:EHN131090 EQW131090:ERJ131090 FAS131090:FBF131090 FKO131090:FLB131090 FUK131090:FUX131090 GEG131090:GET131090 GOC131090:GOP131090 GXY131090:GYL131090 HHU131090:HIH131090 HRQ131090:HSD131090 IBM131090:IBZ131090 ILI131090:ILV131090 IVE131090:IVR131090 JFA131090:JFN131090 JOW131090:JPJ131090 JYS131090:JZF131090 KIO131090:KJB131090 KSK131090:KSX131090 LCG131090:LCT131090 LMC131090:LMP131090 LVY131090:LWL131090 MFU131090:MGH131090 MPQ131090:MQD131090 MZM131090:MZZ131090 NJI131090:NJV131090 NTE131090:NTR131090 ODA131090:ODN131090 OMW131090:ONJ131090 OWS131090:OXF131090 PGO131090:PHB131090 PQK131090:PQX131090 QAG131090:QAT131090 QKC131090:QKP131090 QTY131090:QUL131090 RDU131090:REH131090 RNQ131090:ROD131090 RXM131090:RXZ131090 SHI131090:SHV131090 SRE131090:SRR131090 TBA131090:TBN131090 TKW131090:TLJ131090 TUS131090:TVF131090 UEO131090:UFB131090 UOK131090:UOX131090 UYG131090:UYT131090 VIC131090:VIP131090 VRY131090:VSL131090 WBU131090:WCH131090 WLQ131090:WMD131090 WVM131090:WVZ131090 E196626:R196626 JA196626:JN196626 SW196626:TJ196626 ACS196626:ADF196626 AMO196626:ANB196626 AWK196626:AWX196626 BGG196626:BGT196626 BQC196626:BQP196626 BZY196626:CAL196626 CJU196626:CKH196626 CTQ196626:CUD196626 DDM196626:DDZ196626 DNI196626:DNV196626 DXE196626:DXR196626 EHA196626:EHN196626 EQW196626:ERJ196626 FAS196626:FBF196626 FKO196626:FLB196626 FUK196626:FUX196626 GEG196626:GET196626 GOC196626:GOP196626 GXY196626:GYL196626 HHU196626:HIH196626 HRQ196626:HSD196626 IBM196626:IBZ196626 ILI196626:ILV196626 IVE196626:IVR196626 JFA196626:JFN196626 JOW196626:JPJ196626 JYS196626:JZF196626 KIO196626:KJB196626 KSK196626:KSX196626 LCG196626:LCT196626 LMC196626:LMP196626 LVY196626:LWL196626 MFU196626:MGH196626 MPQ196626:MQD196626 MZM196626:MZZ196626 NJI196626:NJV196626 NTE196626:NTR196626 ODA196626:ODN196626 OMW196626:ONJ196626 OWS196626:OXF196626 PGO196626:PHB196626 PQK196626:PQX196626 QAG196626:QAT196626 QKC196626:QKP196626 QTY196626:QUL196626 RDU196626:REH196626 RNQ196626:ROD196626 RXM196626:RXZ196626 SHI196626:SHV196626 SRE196626:SRR196626 TBA196626:TBN196626 TKW196626:TLJ196626 TUS196626:TVF196626 UEO196626:UFB196626 UOK196626:UOX196626 UYG196626:UYT196626 VIC196626:VIP196626 VRY196626:VSL196626 WBU196626:WCH196626 WLQ196626:WMD196626 WVM196626:WVZ196626 E262162:R262162 JA262162:JN262162 SW262162:TJ262162 ACS262162:ADF262162 AMO262162:ANB262162 AWK262162:AWX262162 BGG262162:BGT262162 BQC262162:BQP262162 BZY262162:CAL262162 CJU262162:CKH262162 CTQ262162:CUD262162 DDM262162:DDZ262162 DNI262162:DNV262162 DXE262162:DXR262162 EHA262162:EHN262162 EQW262162:ERJ262162 FAS262162:FBF262162 FKO262162:FLB262162 FUK262162:FUX262162 GEG262162:GET262162 GOC262162:GOP262162 GXY262162:GYL262162 HHU262162:HIH262162 HRQ262162:HSD262162 IBM262162:IBZ262162 ILI262162:ILV262162 IVE262162:IVR262162 JFA262162:JFN262162 JOW262162:JPJ262162 JYS262162:JZF262162 KIO262162:KJB262162 KSK262162:KSX262162 LCG262162:LCT262162 LMC262162:LMP262162 LVY262162:LWL262162 MFU262162:MGH262162 MPQ262162:MQD262162 MZM262162:MZZ262162 NJI262162:NJV262162 NTE262162:NTR262162 ODA262162:ODN262162 OMW262162:ONJ262162 OWS262162:OXF262162 PGO262162:PHB262162 PQK262162:PQX262162 QAG262162:QAT262162 QKC262162:QKP262162 QTY262162:QUL262162 RDU262162:REH262162 RNQ262162:ROD262162 RXM262162:RXZ262162 SHI262162:SHV262162 SRE262162:SRR262162 TBA262162:TBN262162 TKW262162:TLJ262162 TUS262162:TVF262162 UEO262162:UFB262162 UOK262162:UOX262162 UYG262162:UYT262162 VIC262162:VIP262162 VRY262162:VSL262162 WBU262162:WCH262162 WLQ262162:WMD262162 WVM262162:WVZ262162 E327698:R327698 JA327698:JN327698 SW327698:TJ327698 ACS327698:ADF327698 AMO327698:ANB327698 AWK327698:AWX327698 BGG327698:BGT327698 BQC327698:BQP327698 BZY327698:CAL327698 CJU327698:CKH327698 CTQ327698:CUD327698 DDM327698:DDZ327698 DNI327698:DNV327698 DXE327698:DXR327698 EHA327698:EHN327698 EQW327698:ERJ327698 FAS327698:FBF327698 FKO327698:FLB327698 FUK327698:FUX327698 GEG327698:GET327698 GOC327698:GOP327698 GXY327698:GYL327698 HHU327698:HIH327698 HRQ327698:HSD327698 IBM327698:IBZ327698 ILI327698:ILV327698 IVE327698:IVR327698 JFA327698:JFN327698 JOW327698:JPJ327698 JYS327698:JZF327698 KIO327698:KJB327698 KSK327698:KSX327698 LCG327698:LCT327698 LMC327698:LMP327698 LVY327698:LWL327698 MFU327698:MGH327698 MPQ327698:MQD327698 MZM327698:MZZ327698 NJI327698:NJV327698 NTE327698:NTR327698 ODA327698:ODN327698 OMW327698:ONJ327698 OWS327698:OXF327698 PGO327698:PHB327698 PQK327698:PQX327698 QAG327698:QAT327698 QKC327698:QKP327698 QTY327698:QUL327698 RDU327698:REH327698 RNQ327698:ROD327698 RXM327698:RXZ327698 SHI327698:SHV327698 SRE327698:SRR327698 TBA327698:TBN327698 TKW327698:TLJ327698 TUS327698:TVF327698 UEO327698:UFB327698 UOK327698:UOX327698 UYG327698:UYT327698 VIC327698:VIP327698 VRY327698:VSL327698 WBU327698:WCH327698 WLQ327698:WMD327698 WVM327698:WVZ327698 E393234:R393234 JA393234:JN393234 SW393234:TJ393234 ACS393234:ADF393234 AMO393234:ANB393234 AWK393234:AWX393234 BGG393234:BGT393234 BQC393234:BQP393234 BZY393234:CAL393234 CJU393234:CKH393234 CTQ393234:CUD393234 DDM393234:DDZ393234 DNI393234:DNV393234 DXE393234:DXR393234 EHA393234:EHN393234 EQW393234:ERJ393234 FAS393234:FBF393234 FKO393234:FLB393234 FUK393234:FUX393234 GEG393234:GET393234 GOC393234:GOP393234 GXY393234:GYL393234 HHU393234:HIH393234 HRQ393234:HSD393234 IBM393234:IBZ393234 ILI393234:ILV393234 IVE393234:IVR393234 JFA393234:JFN393234 JOW393234:JPJ393234 JYS393234:JZF393234 KIO393234:KJB393234 KSK393234:KSX393234 LCG393234:LCT393234 LMC393234:LMP393234 LVY393234:LWL393234 MFU393234:MGH393234 MPQ393234:MQD393234 MZM393234:MZZ393234 NJI393234:NJV393234 NTE393234:NTR393234 ODA393234:ODN393234 OMW393234:ONJ393234 OWS393234:OXF393234 PGO393234:PHB393234 PQK393234:PQX393234 QAG393234:QAT393234 QKC393234:QKP393234 QTY393234:QUL393234 RDU393234:REH393234 RNQ393234:ROD393234 RXM393234:RXZ393234 SHI393234:SHV393234 SRE393234:SRR393234 TBA393234:TBN393234 TKW393234:TLJ393234 TUS393234:TVF393234 UEO393234:UFB393234 UOK393234:UOX393234 UYG393234:UYT393234 VIC393234:VIP393234 VRY393234:VSL393234 WBU393234:WCH393234 WLQ393234:WMD393234 WVM393234:WVZ393234 E458770:R458770 JA458770:JN458770 SW458770:TJ458770 ACS458770:ADF458770 AMO458770:ANB458770 AWK458770:AWX458770 BGG458770:BGT458770 BQC458770:BQP458770 BZY458770:CAL458770 CJU458770:CKH458770 CTQ458770:CUD458770 DDM458770:DDZ458770 DNI458770:DNV458770 DXE458770:DXR458770 EHA458770:EHN458770 EQW458770:ERJ458770 FAS458770:FBF458770 FKO458770:FLB458770 FUK458770:FUX458770 GEG458770:GET458770 GOC458770:GOP458770 GXY458770:GYL458770 HHU458770:HIH458770 HRQ458770:HSD458770 IBM458770:IBZ458770 ILI458770:ILV458770 IVE458770:IVR458770 JFA458770:JFN458770 JOW458770:JPJ458770 JYS458770:JZF458770 KIO458770:KJB458770 KSK458770:KSX458770 LCG458770:LCT458770 LMC458770:LMP458770 LVY458770:LWL458770 MFU458770:MGH458770 MPQ458770:MQD458770 MZM458770:MZZ458770 NJI458770:NJV458770 NTE458770:NTR458770 ODA458770:ODN458770 OMW458770:ONJ458770 OWS458770:OXF458770 PGO458770:PHB458770 PQK458770:PQX458770 QAG458770:QAT458770 QKC458770:QKP458770 QTY458770:QUL458770 RDU458770:REH458770 RNQ458770:ROD458770 RXM458770:RXZ458770 SHI458770:SHV458770 SRE458770:SRR458770 TBA458770:TBN458770 TKW458770:TLJ458770 TUS458770:TVF458770 UEO458770:UFB458770 UOK458770:UOX458770 UYG458770:UYT458770 VIC458770:VIP458770 VRY458770:VSL458770 WBU458770:WCH458770 WLQ458770:WMD458770 WVM458770:WVZ458770 E524306:R524306 JA524306:JN524306 SW524306:TJ524306 ACS524306:ADF524306 AMO524306:ANB524306 AWK524306:AWX524306 BGG524306:BGT524306 BQC524306:BQP524306 BZY524306:CAL524306 CJU524306:CKH524306 CTQ524306:CUD524306 DDM524306:DDZ524306 DNI524306:DNV524306 DXE524306:DXR524306 EHA524306:EHN524306 EQW524306:ERJ524306 FAS524306:FBF524306 FKO524306:FLB524306 FUK524306:FUX524306 GEG524306:GET524306 GOC524306:GOP524306 GXY524306:GYL524306 HHU524306:HIH524306 HRQ524306:HSD524306 IBM524306:IBZ524306 ILI524306:ILV524306 IVE524306:IVR524306 JFA524306:JFN524306 JOW524306:JPJ524306 JYS524306:JZF524306 KIO524306:KJB524306 KSK524306:KSX524306 LCG524306:LCT524306 LMC524306:LMP524306 LVY524306:LWL524306 MFU524306:MGH524306 MPQ524306:MQD524306 MZM524306:MZZ524306 NJI524306:NJV524306 NTE524306:NTR524306 ODA524306:ODN524306 OMW524306:ONJ524306 OWS524306:OXF524306 PGO524306:PHB524306 PQK524306:PQX524306 QAG524306:QAT524306 QKC524306:QKP524306 QTY524306:QUL524306 RDU524306:REH524306 RNQ524306:ROD524306 RXM524306:RXZ524306 SHI524306:SHV524306 SRE524306:SRR524306 TBA524306:TBN524306 TKW524306:TLJ524306 TUS524306:TVF524306 UEO524306:UFB524306 UOK524306:UOX524306 UYG524306:UYT524306 VIC524306:VIP524306 VRY524306:VSL524306 WBU524306:WCH524306 WLQ524306:WMD524306 WVM524306:WVZ524306 E589842:R589842 JA589842:JN589842 SW589842:TJ589842 ACS589842:ADF589842 AMO589842:ANB589842 AWK589842:AWX589842 BGG589842:BGT589842 BQC589842:BQP589842 BZY589842:CAL589842 CJU589842:CKH589842 CTQ589842:CUD589842 DDM589842:DDZ589842 DNI589842:DNV589842 DXE589842:DXR589842 EHA589842:EHN589842 EQW589842:ERJ589842 FAS589842:FBF589842 FKO589842:FLB589842 FUK589842:FUX589842 GEG589842:GET589842 GOC589842:GOP589842 GXY589842:GYL589842 HHU589842:HIH589842 HRQ589842:HSD589842 IBM589842:IBZ589842 ILI589842:ILV589842 IVE589842:IVR589842 JFA589842:JFN589842 JOW589842:JPJ589842 JYS589842:JZF589842 KIO589842:KJB589842 KSK589842:KSX589842 LCG589842:LCT589842 LMC589842:LMP589842 LVY589842:LWL589842 MFU589842:MGH589842 MPQ589842:MQD589842 MZM589842:MZZ589842 NJI589842:NJV589842 NTE589842:NTR589842 ODA589842:ODN589842 OMW589842:ONJ589842 OWS589842:OXF589842 PGO589842:PHB589842 PQK589842:PQX589842 QAG589842:QAT589842 QKC589842:QKP589842 QTY589842:QUL589842 RDU589842:REH589842 RNQ589842:ROD589842 RXM589842:RXZ589842 SHI589842:SHV589842 SRE589842:SRR589842 TBA589842:TBN589842 TKW589842:TLJ589842 TUS589842:TVF589842 UEO589842:UFB589842 UOK589842:UOX589842 UYG589842:UYT589842 VIC589842:VIP589842 VRY589842:VSL589842 WBU589842:WCH589842 WLQ589842:WMD589842 WVM589842:WVZ589842 E655378:R655378 JA655378:JN655378 SW655378:TJ655378 ACS655378:ADF655378 AMO655378:ANB655378 AWK655378:AWX655378 BGG655378:BGT655378 BQC655378:BQP655378 BZY655378:CAL655378 CJU655378:CKH655378 CTQ655378:CUD655378 DDM655378:DDZ655378 DNI655378:DNV655378 DXE655378:DXR655378 EHA655378:EHN655378 EQW655378:ERJ655378 FAS655378:FBF655378 FKO655378:FLB655378 FUK655378:FUX655378 GEG655378:GET655378 GOC655378:GOP655378 GXY655378:GYL655378 HHU655378:HIH655378 HRQ655378:HSD655378 IBM655378:IBZ655378 ILI655378:ILV655378 IVE655378:IVR655378 JFA655378:JFN655378 JOW655378:JPJ655378 JYS655378:JZF655378 KIO655378:KJB655378 KSK655378:KSX655378 LCG655378:LCT655378 LMC655378:LMP655378 LVY655378:LWL655378 MFU655378:MGH655378 MPQ655378:MQD655378 MZM655378:MZZ655378 NJI655378:NJV655378 NTE655378:NTR655378 ODA655378:ODN655378 OMW655378:ONJ655378 OWS655378:OXF655378 PGO655378:PHB655378 PQK655378:PQX655378 QAG655378:QAT655378 QKC655378:QKP655378 QTY655378:QUL655378 RDU655378:REH655378 RNQ655378:ROD655378 RXM655378:RXZ655378 SHI655378:SHV655378 SRE655378:SRR655378 TBA655378:TBN655378 TKW655378:TLJ655378 TUS655378:TVF655378 UEO655378:UFB655378 UOK655378:UOX655378 UYG655378:UYT655378 VIC655378:VIP655378 VRY655378:VSL655378 WBU655378:WCH655378 WLQ655378:WMD655378 WVM655378:WVZ655378 E720914:R720914 JA720914:JN720914 SW720914:TJ720914 ACS720914:ADF720914 AMO720914:ANB720914 AWK720914:AWX720914 BGG720914:BGT720914 BQC720914:BQP720914 BZY720914:CAL720914 CJU720914:CKH720914 CTQ720914:CUD720914 DDM720914:DDZ720914 DNI720914:DNV720914 DXE720914:DXR720914 EHA720914:EHN720914 EQW720914:ERJ720914 FAS720914:FBF720914 FKO720914:FLB720914 FUK720914:FUX720914 GEG720914:GET720914 GOC720914:GOP720914 GXY720914:GYL720914 HHU720914:HIH720914 HRQ720914:HSD720914 IBM720914:IBZ720914 ILI720914:ILV720914 IVE720914:IVR720914 JFA720914:JFN720914 JOW720914:JPJ720914 JYS720914:JZF720914 KIO720914:KJB720914 KSK720914:KSX720914 LCG720914:LCT720914 LMC720914:LMP720914 LVY720914:LWL720914 MFU720914:MGH720914 MPQ720914:MQD720914 MZM720914:MZZ720914 NJI720914:NJV720914 NTE720914:NTR720914 ODA720914:ODN720914 OMW720914:ONJ720914 OWS720914:OXF720914 PGO720914:PHB720914 PQK720914:PQX720914 QAG720914:QAT720914 QKC720914:QKP720914 QTY720914:QUL720914 RDU720914:REH720914 RNQ720914:ROD720914 RXM720914:RXZ720914 SHI720914:SHV720914 SRE720914:SRR720914 TBA720914:TBN720914 TKW720914:TLJ720914 TUS720914:TVF720914 UEO720914:UFB720914 UOK720914:UOX720914 UYG720914:UYT720914 VIC720914:VIP720914 VRY720914:VSL720914 WBU720914:WCH720914 WLQ720914:WMD720914 WVM720914:WVZ720914 E786450:R786450 JA786450:JN786450 SW786450:TJ786450 ACS786450:ADF786450 AMO786450:ANB786450 AWK786450:AWX786450 BGG786450:BGT786450 BQC786450:BQP786450 BZY786450:CAL786450 CJU786450:CKH786450 CTQ786450:CUD786450 DDM786450:DDZ786450 DNI786450:DNV786450 DXE786450:DXR786450 EHA786450:EHN786450 EQW786450:ERJ786450 FAS786450:FBF786450 FKO786450:FLB786450 FUK786450:FUX786450 GEG786450:GET786450 GOC786450:GOP786450 GXY786450:GYL786450 HHU786450:HIH786450 HRQ786450:HSD786450 IBM786450:IBZ786450 ILI786450:ILV786450 IVE786450:IVR786450 JFA786450:JFN786450 JOW786450:JPJ786450 JYS786450:JZF786450 KIO786450:KJB786450 KSK786450:KSX786450 LCG786450:LCT786450 LMC786450:LMP786450 LVY786450:LWL786450 MFU786450:MGH786450 MPQ786450:MQD786450 MZM786450:MZZ786450 NJI786450:NJV786450 NTE786450:NTR786450 ODA786450:ODN786450 OMW786450:ONJ786450 OWS786450:OXF786450 PGO786450:PHB786450 PQK786450:PQX786450 QAG786450:QAT786450 QKC786450:QKP786450 QTY786450:QUL786450 RDU786450:REH786450 RNQ786450:ROD786450 RXM786450:RXZ786450 SHI786450:SHV786450 SRE786450:SRR786450 TBA786450:TBN786450 TKW786450:TLJ786450 TUS786450:TVF786450 UEO786450:UFB786450 UOK786450:UOX786450 UYG786450:UYT786450 VIC786450:VIP786450 VRY786450:VSL786450 WBU786450:WCH786450 WLQ786450:WMD786450 WVM786450:WVZ786450 E851986:R851986 JA851986:JN851986 SW851986:TJ851986 ACS851986:ADF851986 AMO851986:ANB851986 AWK851986:AWX851986 BGG851986:BGT851986 BQC851986:BQP851986 BZY851986:CAL851986 CJU851986:CKH851986 CTQ851986:CUD851986 DDM851986:DDZ851986 DNI851986:DNV851986 DXE851986:DXR851986 EHA851986:EHN851986 EQW851986:ERJ851986 FAS851986:FBF851986 FKO851986:FLB851986 FUK851986:FUX851986 GEG851986:GET851986 GOC851986:GOP851986 GXY851986:GYL851986 HHU851986:HIH851986 HRQ851986:HSD851986 IBM851986:IBZ851986 ILI851986:ILV851986 IVE851986:IVR851986 JFA851986:JFN851986 JOW851986:JPJ851986 JYS851986:JZF851986 KIO851986:KJB851986 KSK851986:KSX851986 LCG851986:LCT851986 LMC851986:LMP851986 LVY851986:LWL851986 MFU851986:MGH851986 MPQ851986:MQD851986 MZM851986:MZZ851986 NJI851986:NJV851986 NTE851986:NTR851986 ODA851986:ODN851986 OMW851986:ONJ851986 OWS851986:OXF851986 PGO851986:PHB851986 PQK851986:PQX851986 QAG851986:QAT851986 QKC851986:QKP851986 QTY851986:QUL851986 RDU851986:REH851986 RNQ851986:ROD851986 RXM851986:RXZ851986 SHI851986:SHV851986 SRE851986:SRR851986 TBA851986:TBN851986 TKW851986:TLJ851986 TUS851986:TVF851986 UEO851986:UFB851986 UOK851986:UOX851986 UYG851986:UYT851986 VIC851986:VIP851986 VRY851986:VSL851986 WBU851986:WCH851986 WLQ851986:WMD851986 WVM851986:WVZ851986 E917522:R917522 JA917522:JN917522 SW917522:TJ917522 ACS917522:ADF917522 AMO917522:ANB917522 AWK917522:AWX917522 BGG917522:BGT917522 BQC917522:BQP917522 BZY917522:CAL917522 CJU917522:CKH917522 CTQ917522:CUD917522 DDM917522:DDZ917522 DNI917522:DNV917522 DXE917522:DXR917522 EHA917522:EHN917522 EQW917522:ERJ917522 FAS917522:FBF917522 FKO917522:FLB917522 FUK917522:FUX917522 GEG917522:GET917522 GOC917522:GOP917522 GXY917522:GYL917522 HHU917522:HIH917522 HRQ917522:HSD917522 IBM917522:IBZ917522 ILI917522:ILV917522 IVE917522:IVR917522 JFA917522:JFN917522 JOW917522:JPJ917522 JYS917522:JZF917522 KIO917522:KJB917522 KSK917522:KSX917522 LCG917522:LCT917522 LMC917522:LMP917522 LVY917522:LWL917522 MFU917522:MGH917522 MPQ917522:MQD917522 MZM917522:MZZ917522 NJI917522:NJV917522 NTE917522:NTR917522 ODA917522:ODN917522 OMW917522:ONJ917522 OWS917522:OXF917522 PGO917522:PHB917522 PQK917522:PQX917522 QAG917522:QAT917522 QKC917522:QKP917522 QTY917522:QUL917522 RDU917522:REH917522 RNQ917522:ROD917522 RXM917522:RXZ917522 SHI917522:SHV917522 SRE917522:SRR917522 TBA917522:TBN917522 TKW917522:TLJ917522 TUS917522:TVF917522 UEO917522:UFB917522 UOK917522:UOX917522 UYG917522:UYT917522 VIC917522:VIP917522 VRY917522:VSL917522 WBU917522:WCH917522 WLQ917522:WMD917522 WVM917522:WVZ917522 E983058:R983058 JA983058:JN983058 SW983058:TJ983058 ACS983058:ADF983058 AMO983058:ANB983058 AWK983058:AWX983058 BGG983058:BGT983058 BQC983058:BQP983058 BZY983058:CAL983058 CJU983058:CKH983058 CTQ983058:CUD983058 DDM983058:DDZ983058 DNI983058:DNV983058 DXE983058:DXR983058 EHA983058:EHN983058 EQW983058:ERJ983058 FAS983058:FBF983058 FKO983058:FLB983058 FUK983058:FUX983058 GEG983058:GET983058 GOC983058:GOP983058 GXY983058:GYL983058 HHU983058:HIH983058 HRQ983058:HSD983058 IBM983058:IBZ983058 ILI983058:ILV983058 IVE983058:IVR983058 JFA983058:JFN983058 JOW983058:JPJ983058 JYS983058:JZF983058 KIO983058:KJB983058 KSK983058:KSX983058 LCG983058:LCT983058 LMC983058:LMP983058 LVY983058:LWL983058 MFU983058:MGH983058 MPQ983058:MQD983058 MZM983058:MZZ983058 NJI983058:NJV983058 NTE983058:NTR983058 ODA983058:ODN983058 OMW983058:ONJ983058 OWS983058:OXF983058 PGO983058:PHB983058 PQK983058:PQX983058 QAG983058:QAT983058 QKC983058:QKP983058 QTY983058:QUL983058 RDU983058:REH983058 RNQ983058:ROD983058 RXM983058:RXZ983058 SHI983058:SHV983058 SRE983058:SRR983058 TBA983058:TBN983058 TKW983058:TLJ983058 TUS983058:TVF983058 UEO983058:UFB983058 UOK983058:UOX983058 UYG983058:UYT983058 VIC983058:VIP983058 VRY983058:VSL983058 WBU983058:WCH983058 WLQ983058:WMD983058 WVM983058:WVZ983058 WVM12:WVM15 WLQ12:WLQ15 WBU12:WBU15 VRY12:VRY15 VIC12:VIC15 UYG12:UYG15 UOK12:UOK15 UEO12:UEO15 TUS12:TUS15 TKW12:TKW15 TBA12:TBA15 SRE12:SRE15 SHI12:SHI15 RXM12:RXM15 RNQ12:RNQ15 RDU12:RDU15 QTY12:QTY15 QKC12:QKC15 QAG12:QAG15 PQK12:PQK15 PGO12:PGO15 OWS12:OWS15 OMW12:OMW15 ODA12:ODA15 NTE12:NTE15 NJI12:NJI15 MZM12:MZM15 MPQ12:MPQ15 MFU12:MFU15 LVY12:LVY15 LMC12:LMC15 LCG12:LCG15 KSK12:KSK15 KIO12:KIO15 JYS12:JYS15 JOW12:JOW15 JFA12:JFA15 IVE12:IVE15 ILI12:ILI15 IBM12:IBM15 HRQ12:HRQ15 HHU12:HHU15 GXY12:GXY15 GOC12:GOC15 GEG12:GEG15 FUK12:FUK15 FKO12:FKO15 FAS12:FAS15 EQW12:EQW15 EHA12:EHA15 DXE12:DXE15 DNI12:DNI15 DDM12:DDM15 CTQ12:CTQ15 CJU12:CJU15 BZY12:BZY15 BQC12:BQC15 BGG12:BGG15 AWK12:AWK15 AMO12:AMO15 ACS12:ACS15 SW12:SW15 JA12:JA15 F14:R17 JB14:JN16 SX14:TJ16 ACT14:ADF16 AMP14:ANB16 AWL14:AWX16 BGH14:BGT16 BQD14:BQP16 BZZ14:CAL16 CJV14:CKH16 CTR14:CUD16 DDN14:DDZ16 DNJ14:DNV16 DXF14:DXR16 EHB14:EHN16 EQX14:ERJ16 FAT14:FBF16 FKP14:FLB16 FUL14:FUX16 GEH14:GET16 GOD14:GOP16 GXZ14:GYL16 HHV14:HIH16 HRR14:HSD16 IBN14:IBZ16 ILJ14:ILV16 IVF14:IVR16 JFB14:JFN16 JOX14:JPJ16 JYT14:JZF16 KIP14:KJB16 KSL14:KSX16 LCH14:LCT16 LMD14:LMP16 LVZ14:LWL16 MFV14:MGH16 MPR14:MQD16 MZN14:MZZ16 NJJ14:NJV16 NTF14:NTR16 ODB14:ODN16 OMX14:ONJ16 OWT14:OXF16 PGP14:PHB16 PQL14:PQX16 QAH14:QAT16 QKD14:QKP16 QTZ14:QUL16 RDV14:REH16 RNR14:ROD16 RXN14:RXZ16 SHJ14:SHV16 SRF14:SRR16 TBB14:TBN16 TKX14:TLJ16 TUT14:TVF16 UEP14:UFB16 UOL14:UOX16 UYH14:UYT16 VID14:VIP16 VRZ14:VSL16 WBV14:WCH16 WLR14:WMD16 WVN14:WVZ16 JA17:JN18 WVM17:WVZ18 WLQ17:WMD18 WBU17:WCH18 VRY17:VSL18 VIC17:VIP18 UYG17:UYT18 UOK17:UOX18 UEO17:UFB18 TUS17:TVF18 TKW17:TLJ18 TBA17:TBN18 SRE17:SRR18 SHI17:SHV18 RXM17:RXZ18 RNQ17:ROD18 RDU17:REH18 QTY17:QUL18 QKC17:QKP18 QAG17:QAT18 PQK17:PQX18 PGO17:PHB18 OWS17:OXF18 OMW17:ONJ18 ODA17:ODN18 NTE17:NTR18 NJI17:NJV18 MZM17:MZZ18 MPQ17:MQD18 MFU17:MGH18 LVY17:LWL18 LMC17:LMP18 LCG17:LCT18 KSK17:KSX18 KIO17:KJB18 JYS17:JZF18 JOW17:JPJ18 JFA17:JFN18 IVE17:IVR18 ILI17:ILV18 IBM17:IBZ18 HRQ17:HSD18 HHU17:HIH18 GXY17:GYL18 GOC17:GOP18 GEG17:GET18 FUK17:FUX18 FKO17:FLB18 FAS17:FBF18 EQW17:ERJ18 EHA17:EHN18 DXE17:DXR18 DNI17:DNV18 DDM17:DDZ18 CTQ17:CUD18 CJU17:CKH18 BZY17:CAL18 BQC17:BQP18 BGG17:BGT18 AWK17:AWX18 AMO17:ANB18 ACS17:ADF18 SW17:TJ18 E13:E17</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="10.5"/>
+  <cols>
+    <col min="1" max="1" width="10.5" style="126" customWidth="1"/>
+    <col min="2" max="2" width="13.375" style="74" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="126" customWidth="1"/>
+    <col min="4" max="4" width="36.125" style="72" customWidth="1"/>
+    <col min="5" max="6" width="2.875" style="126" customWidth="1"/>
+    <col min="7" max="7" width="2.625" style="126" customWidth="1"/>
+    <col min="8" max="19" width="2.875" style="126" customWidth="1"/>
+    <col min="20" max="256" width="9" style="126"/>
+    <col min="257" max="257" width="10.5" style="126" customWidth="1"/>
+    <col min="258" max="258" width="13.375" style="126" customWidth="1"/>
+    <col min="259" max="259" width="15.375" style="126" customWidth="1"/>
+    <col min="260" max="260" width="20.5" style="126" customWidth="1"/>
+    <col min="261" max="262" width="2.875" style="126" customWidth="1"/>
+    <col min="263" max="263" width="2.625" style="126" customWidth="1"/>
+    <col min="264" max="275" width="2.875" style="126" customWidth="1"/>
+    <col min="276" max="512" width="9" style="126"/>
+    <col min="513" max="513" width="10.5" style="126" customWidth="1"/>
+    <col min="514" max="514" width="13.375" style="126" customWidth="1"/>
+    <col min="515" max="515" width="15.375" style="126" customWidth="1"/>
+    <col min="516" max="516" width="20.5" style="126" customWidth="1"/>
+    <col min="517" max="518" width="2.875" style="126" customWidth="1"/>
+    <col min="519" max="519" width="2.625" style="126" customWidth="1"/>
+    <col min="520" max="531" width="2.875" style="126" customWidth="1"/>
+    <col min="532" max="768" width="9" style="126"/>
+    <col min="769" max="769" width="10.5" style="126" customWidth="1"/>
+    <col min="770" max="770" width="13.375" style="126" customWidth="1"/>
+    <col min="771" max="771" width="15.375" style="126" customWidth="1"/>
+    <col min="772" max="772" width="20.5" style="126" customWidth="1"/>
+    <col min="773" max="774" width="2.875" style="126" customWidth="1"/>
+    <col min="775" max="775" width="2.625" style="126" customWidth="1"/>
+    <col min="776" max="787" width="2.875" style="126" customWidth="1"/>
+    <col min="788" max="1024" width="9" style="126"/>
+    <col min="1025" max="1025" width="10.5" style="126" customWidth="1"/>
+    <col min="1026" max="1026" width="13.375" style="126" customWidth="1"/>
+    <col min="1027" max="1027" width="15.375" style="126" customWidth="1"/>
+    <col min="1028" max="1028" width="20.5" style="126" customWidth="1"/>
+    <col min="1029" max="1030" width="2.875" style="126" customWidth="1"/>
+    <col min="1031" max="1031" width="2.625" style="126" customWidth="1"/>
+    <col min="1032" max="1043" width="2.875" style="126" customWidth="1"/>
+    <col min="1044" max="1280" width="9" style="126"/>
+    <col min="1281" max="1281" width="10.5" style="126" customWidth="1"/>
+    <col min="1282" max="1282" width="13.375" style="126" customWidth="1"/>
+    <col min="1283" max="1283" width="15.375" style="126" customWidth="1"/>
+    <col min="1284" max="1284" width="20.5" style="126" customWidth="1"/>
+    <col min="1285" max="1286" width="2.875" style="126" customWidth="1"/>
+    <col min="1287" max="1287" width="2.625" style="126" customWidth="1"/>
+    <col min="1288" max="1299" width="2.875" style="126" customWidth="1"/>
+    <col min="1300" max="1536" width="9" style="126"/>
+    <col min="1537" max="1537" width="10.5" style="126" customWidth="1"/>
+    <col min="1538" max="1538" width="13.375" style="126" customWidth="1"/>
+    <col min="1539" max="1539" width="15.375" style="126" customWidth="1"/>
+    <col min="1540" max="1540" width="20.5" style="126" customWidth="1"/>
+    <col min="1541" max="1542" width="2.875" style="126" customWidth="1"/>
+    <col min="1543" max="1543" width="2.625" style="126" customWidth="1"/>
+    <col min="1544" max="1555" width="2.875" style="126" customWidth="1"/>
+    <col min="1556" max="1792" width="9" style="126"/>
+    <col min="1793" max="1793" width="10.5" style="126" customWidth="1"/>
+    <col min="1794" max="1794" width="13.375" style="126" customWidth="1"/>
+    <col min="1795" max="1795" width="15.375" style="126" customWidth="1"/>
+    <col min="1796" max="1796" width="20.5" style="126" customWidth="1"/>
+    <col min="1797" max="1798" width="2.875" style="126" customWidth="1"/>
+    <col min="1799" max="1799" width="2.625" style="126" customWidth="1"/>
+    <col min="1800" max="1811" width="2.875" style="126" customWidth="1"/>
+    <col min="1812" max="2048" width="9" style="126"/>
+    <col min="2049" max="2049" width="10.5" style="126" customWidth="1"/>
+    <col min="2050" max="2050" width="13.375" style="126" customWidth="1"/>
+    <col min="2051" max="2051" width="15.375" style="126" customWidth="1"/>
+    <col min="2052" max="2052" width="20.5" style="126" customWidth="1"/>
+    <col min="2053" max="2054" width="2.875" style="126" customWidth="1"/>
+    <col min="2055" max="2055" width="2.625" style="126" customWidth="1"/>
+    <col min="2056" max="2067" width="2.875" style="126" customWidth="1"/>
+    <col min="2068" max="2304" width="9" style="126"/>
+    <col min="2305" max="2305" width="10.5" style="126" customWidth="1"/>
+    <col min="2306" max="2306" width="13.375" style="126" customWidth="1"/>
+    <col min="2307" max="2307" width="15.375" style="126" customWidth="1"/>
+    <col min="2308" max="2308" width="20.5" style="126" customWidth="1"/>
+    <col min="2309" max="2310" width="2.875" style="126" customWidth="1"/>
+    <col min="2311" max="2311" width="2.625" style="126" customWidth="1"/>
+    <col min="2312" max="2323" width="2.875" style="126" customWidth="1"/>
+    <col min="2324" max="2560" width="9" style="126"/>
+    <col min="2561" max="2561" width="10.5" style="126" customWidth="1"/>
+    <col min="2562" max="2562" width="13.375" style="126" customWidth="1"/>
+    <col min="2563" max="2563" width="15.375" style="126" customWidth="1"/>
+    <col min="2564" max="2564" width="20.5" style="126" customWidth="1"/>
+    <col min="2565" max="2566" width="2.875" style="126" customWidth="1"/>
+    <col min="2567" max="2567" width="2.625" style="126" customWidth="1"/>
+    <col min="2568" max="2579" width="2.875" style="126" customWidth="1"/>
+    <col min="2580" max="2816" width="9" style="126"/>
+    <col min="2817" max="2817" width="10.5" style="126" customWidth="1"/>
+    <col min="2818" max="2818" width="13.375" style="126" customWidth="1"/>
+    <col min="2819" max="2819" width="15.375" style="126" customWidth="1"/>
+    <col min="2820" max="2820" width="20.5" style="126" customWidth="1"/>
+    <col min="2821" max="2822" width="2.875" style="126" customWidth="1"/>
+    <col min="2823" max="2823" width="2.625" style="126" customWidth="1"/>
+    <col min="2824" max="2835" width="2.875" style="126" customWidth="1"/>
+    <col min="2836" max="3072" width="9" style="126"/>
+    <col min="3073" max="3073" width="10.5" style="126" customWidth="1"/>
+    <col min="3074" max="3074" width="13.375" style="126" customWidth="1"/>
+    <col min="3075" max="3075" width="15.375" style="126" customWidth="1"/>
+    <col min="3076" max="3076" width="20.5" style="126" customWidth="1"/>
+    <col min="3077" max="3078" width="2.875" style="126" customWidth="1"/>
+    <col min="3079" max="3079" width="2.625" style="126" customWidth="1"/>
+    <col min="3080" max="3091" width="2.875" style="126" customWidth="1"/>
+    <col min="3092" max="3328" width="9" style="126"/>
+    <col min="3329" max="3329" width="10.5" style="126" customWidth="1"/>
+    <col min="3330" max="3330" width="13.375" style="126" customWidth="1"/>
+    <col min="3331" max="3331" width="15.375" style="126" customWidth="1"/>
+    <col min="3332" max="3332" width="20.5" style="126" customWidth="1"/>
+    <col min="3333" max="3334" width="2.875" style="126" customWidth="1"/>
+    <col min="3335" max="3335" width="2.625" style="126" customWidth="1"/>
+    <col min="3336" max="3347" width="2.875" style="126" customWidth="1"/>
+    <col min="3348" max="3584" width="9" style="126"/>
+    <col min="3585" max="3585" width="10.5" style="126" customWidth="1"/>
+    <col min="3586" max="3586" width="13.375" style="126" customWidth="1"/>
+    <col min="3587" max="3587" width="15.375" style="126" customWidth="1"/>
+    <col min="3588" max="3588" width="20.5" style="126" customWidth="1"/>
+    <col min="3589" max="3590" width="2.875" style="126" customWidth="1"/>
+    <col min="3591" max="3591" width="2.625" style="126" customWidth="1"/>
+    <col min="3592" max="3603" width="2.875" style="126" customWidth="1"/>
+    <col min="3604" max="3840" width="9" style="126"/>
+    <col min="3841" max="3841" width="10.5" style="126" customWidth="1"/>
+    <col min="3842" max="3842" width="13.375" style="126" customWidth="1"/>
+    <col min="3843" max="3843" width="15.375" style="126" customWidth="1"/>
+    <col min="3844" max="3844" width="20.5" style="126" customWidth="1"/>
+    <col min="3845" max="3846" width="2.875" style="126" customWidth="1"/>
+    <col min="3847" max="3847" width="2.625" style="126" customWidth="1"/>
+    <col min="3848" max="3859" width="2.875" style="126" customWidth="1"/>
+    <col min="3860" max="4096" width="9" style="126"/>
+    <col min="4097" max="4097" width="10.5" style="126" customWidth="1"/>
+    <col min="4098" max="4098" width="13.375" style="126" customWidth="1"/>
+    <col min="4099" max="4099" width="15.375" style="126" customWidth="1"/>
+    <col min="4100" max="4100" width="20.5" style="126" customWidth="1"/>
+    <col min="4101" max="4102" width="2.875" style="126" customWidth="1"/>
+    <col min="4103" max="4103" width="2.625" style="126" customWidth="1"/>
+    <col min="4104" max="4115" width="2.875" style="126" customWidth="1"/>
+    <col min="4116" max="4352" width="9" style="126"/>
+    <col min="4353" max="4353" width="10.5" style="126" customWidth="1"/>
+    <col min="4354" max="4354" width="13.375" style="126" customWidth="1"/>
+    <col min="4355" max="4355" width="15.375" style="126" customWidth="1"/>
+    <col min="4356" max="4356" width="20.5" style="126" customWidth="1"/>
+    <col min="4357" max="4358" width="2.875" style="126" customWidth="1"/>
+    <col min="4359" max="4359" width="2.625" style="126" customWidth="1"/>
+    <col min="4360" max="4371" width="2.875" style="126" customWidth="1"/>
+    <col min="4372" max="4608" width="9" style="126"/>
+    <col min="4609" max="4609" width="10.5" style="126" customWidth="1"/>
+    <col min="4610" max="4610" width="13.375" style="126" customWidth="1"/>
+    <col min="4611" max="4611" width="15.375" style="126" customWidth="1"/>
+    <col min="4612" max="4612" width="20.5" style="126" customWidth="1"/>
+    <col min="4613" max="4614" width="2.875" style="126" customWidth="1"/>
+    <col min="4615" max="4615" width="2.625" style="126" customWidth="1"/>
+    <col min="4616" max="4627" width="2.875" style="126" customWidth="1"/>
+    <col min="4628" max="4864" width="9" style="126"/>
+    <col min="4865" max="4865" width="10.5" style="126" customWidth="1"/>
+    <col min="4866" max="4866" width="13.375" style="126" customWidth="1"/>
+    <col min="4867" max="4867" width="15.375" style="126" customWidth="1"/>
+    <col min="4868" max="4868" width="20.5" style="126" customWidth="1"/>
+    <col min="4869" max="4870" width="2.875" style="126" customWidth="1"/>
+    <col min="4871" max="4871" width="2.625" style="126" customWidth="1"/>
+    <col min="4872" max="4883" width="2.875" style="126" customWidth="1"/>
+    <col min="4884" max="5120" width="9" style="126"/>
+    <col min="5121" max="5121" width="10.5" style="126" customWidth="1"/>
+    <col min="5122" max="5122" width="13.375" style="126" customWidth="1"/>
+    <col min="5123" max="5123" width="15.375" style="126" customWidth="1"/>
+    <col min="5124" max="5124" width="20.5" style="126" customWidth="1"/>
+    <col min="5125" max="5126" width="2.875" style="126" customWidth="1"/>
+    <col min="5127" max="5127" width="2.625" style="126" customWidth="1"/>
+    <col min="5128" max="5139" width="2.875" style="126" customWidth="1"/>
+    <col min="5140" max="5376" width="9" style="126"/>
+    <col min="5377" max="5377" width="10.5" style="126" customWidth="1"/>
+    <col min="5378" max="5378" width="13.375" style="126" customWidth="1"/>
+    <col min="5379" max="5379" width="15.375" style="126" customWidth="1"/>
+    <col min="5380" max="5380" width="20.5" style="126" customWidth="1"/>
+    <col min="5381" max="5382" width="2.875" style="126" customWidth="1"/>
+    <col min="5383" max="5383" width="2.625" style="126" customWidth="1"/>
+    <col min="5384" max="5395" width="2.875" style="126" customWidth="1"/>
+    <col min="5396" max="5632" width="9" style="126"/>
+    <col min="5633" max="5633" width="10.5" style="126" customWidth="1"/>
+    <col min="5634" max="5634" width="13.375" style="126" customWidth="1"/>
+    <col min="5635" max="5635" width="15.375" style="126" customWidth="1"/>
+    <col min="5636" max="5636" width="20.5" style="126" customWidth="1"/>
+    <col min="5637" max="5638" width="2.875" style="126" customWidth="1"/>
+    <col min="5639" max="5639" width="2.625" style="126" customWidth="1"/>
+    <col min="5640" max="5651" width="2.875" style="126" customWidth="1"/>
+    <col min="5652" max="5888" width="9" style="126"/>
+    <col min="5889" max="5889" width="10.5" style="126" customWidth="1"/>
+    <col min="5890" max="5890" width="13.375" style="126" customWidth="1"/>
+    <col min="5891" max="5891" width="15.375" style="126" customWidth="1"/>
+    <col min="5892" max="5892" width="20.5" style="126" customWidth="1"/>
+    <col min="5893" max="5894" width="2.875" style="126" customWidth="1"/>
+    <col min="5895" max="5895" width="2.625" style="126" customWidth="1"/>
+    <col min="5896" max="5907" width="2.875" style="126" customWidth="1"/>
+    <col min="5908" max="6144" width="9" style="126"/>
+    <col min="6145" max="6145" width="10.5" style="126" customWidth="1"/>
+    <col min="6146" max="6146" width="13.375" style="126" customWidth="1"/>
+    <col min="6147" max="6147" width="15.375" style="126" customWidth="1"/>
+    <col min="6148" max="6148" width="20.5" style="126" customWidth="1"/>
+    <col min="6149" max="6150" width="2.875" style="126" customWidth="1"/>
+    <col min="6151" max="6151" width="2.625" style="126" customWidth="1"/>
+    <col min="6152" max="6163" width="2.875" style="126" customWidth="1"/>
+    <col min="6164" max="6400" width="9" style="126"/>
+    <col min="6401" max="6401" width="10.5" style="126" customWidth="1"/>
+    <col min="6402" max="6402" width="13.375" style="126" customWidth="1"/>
+    <col min="6403" max="6403" width="15.375" style="126" customWidth="1"/>
+    <col min="6404" max="6404" width="20.5" style="126" customWidth="1"/>
+    <col min="6405" max="6406" width="2.875" style="126" customWidth="1"/>
+    <col min="6407" max="6407" width="2.625" style="126" customWidth="1"/>
+    <col min="6408" max="6419" width="2.875" style="126" customWidth="1"/>
+    <col min="6420" max="6656" width="9" style="126"/>
+    <col min="6657" max="6657" width="10.5" style="126" customWidth="1"/>
+    <col min="6658" max="6658" width="13.375" style="126" customWidth="1"/>
+    <col min="6659" max="6659" width="15.375" style="126" customWidth="1"/>
+    <col min="6660" max="6660" width="20.5" style="126" customWidth="1"/>
+    <col min="6661" max="6662" width="2.875" style="126" customWidth="1"/>
+    <col min="6663" max="6663" width="2.625" style="126" customWidth="1"/>
+    <col min="6664" max="6675" width="2.875" style="126" customWidth="1"/>
+    <col min="6676" max="6912" width="9" style="126"/>
+    <col min="6913" max="6913" width="10.5" style="126" customWidth="1"/>
+    <col min="6914" max="6914" width="13.375" style="126" customWidth="1"/>
+    <col min="6915" max="6915" width="15.375" style="126" customWidth="1"/>
+    <col min="6916" max="6916" width="20.5" style="126" customWidth="1"/>
+    <col min="6917" max="6918" width="2.875" style="126" customWidth="1"/>
+    <col min="6919" max="6919" width="2.625" style="126" customWidth="1"/>
+    <col min="6920" max="6931" width="2.875" style="126" customWidth="1"/>
+    <col min="6932" max="7168" width="9" style="126"/>
+    <col min="7169" max="7169" width="10.5" style="126" customWidth="1"/>
+    <col min="7170" max="7170" width="13.375" style="126" customWidth="1"/>
+    <col min="7171" max="7171" width="15.375" style="126" customWidth="1"/>
+    <col min="7172" max="7172" width="20.5" style="126" customWidth="1"/>
+    <col min="7173" max="7174" width="2.875" style="126" customWidth="1"/>
+    <col min="7175" max="7175" width="2.625" style="126" customWidth="1"/>
+    <col min="7176" max="7187" width="2.875" style="126" customWidth="1"/>
+    <col min="7188" max="7424" width="9" style="126"/>
+    <col min="7425" max="7425" width="10.5" style="126" customWidth="1"/>
+    <col min="7426" max="7426" width="13.375" style="126" customWidth="1"/>
+    <col min="7427" max="7427" width="15.375" style="126" customWidth="1"/>
+    <col min="7428" max="7428" width="20.5" style="126" customWidth="1"/>
+    <col min="7429" max="7430" width="2.875" style="126" customWidth="1"/>
+    <col min="7431" max="7431" width="2.625" style="126" customWidth="1"/>
+    <col min="7432" max="7443" width="2.875" style="126" customWidth="1"/>
+    <col min="7444" max="7680" width="9" style="126"/>
+    <col min="7681" max="7681" width="10.5" style="126" customWidth="1"/>
+    <col min="7682" max="7682" width="13.375" style="126" customWidth="1"/>
+    <col min="7683" max="7683" width="15.375" style="126" customWidth="1"/>
+    <col min="7684" max="7684" width="20.5" style="126" customWidth="1"/>
+    <col min="7685" max="7686" width="2.875" style="126" customWidth="1"/>
+    <col min="7687" max="7687" width="2.625" style="126" customWidth="1"/>
+    <col min="7688" max="7699" width="2.875" style="126" customWidth="1"/>
+    <col min="7700" max="7936" width="9" style="126"/>
+    <col min="7937" max="7937" width="10.5" style="126" customWidth="1"/>
+    <col min="7938" max="7938" width="13.375" style="126" customWidth="1"/>
+    <col min="7939" max="7939" width="15.375" style="126" customWidth="1"/>
+    <col min="7940" max="7940" width="20.5" style="126" customWidth="1"/>
+    <col min="7941" max="7942" width="2.875" style="126" customWidth="1"/>
+    <col min="7943" max="7943" width="2.625" style="126" customWidth="1"/>
+    <col min="7944" max="7955" width="2.875" style="126" customWidth="1"/>
+    <col min="7956" max="8192" width="9" style="126"/>
+    <col min="8193" max="8193" width="10.5" style="126" customWidth="1"/>
+    <col min="8194" max="8194" width="13.375" style="126" customWidth="1"/>
+    <col min="8195" max="8195" width="15.375" style="126" customWidth="1"/>
+    <col min="8196" max="8196" width="20.5" style="126" customWidth="1"/>
+    <col min="8197" max="8198" width="2.875" style="126" customWidth="1"/>
+    <col min="8199" max="8199" width="2.625" style="126" customWidth="1"/>
+    <col min="8200" max="8211" width="2.875" style="126" customWidth="1"/>
+    <col min="8212" max="8448" width="9" style="126"/>
+    <col min="8449" max="8449" width="10.5" style="126" customWidth="1"/>
+    <col min="8450" max="8450" width="13.375" style="126" customWidth="1"/>
+    <col min="8451" max="8451" width="15.375" style="126" customWidth="1"/>
+    <col min="8452" max="8452" width="20.5" style="126" customWidth="1"/>
+    <col min="8453" max="8454" width="2.875" style="126" customWidth="1"/>
+    <col min="8455" max="8455" width="2.625" style="126" customWidth="1"/>
+    <col min="8456" max="8467" width="2.875" style="126" customWidth="1"/>
+    <col min="8468" max="8704" width="9" style="126"/>
+    <col min="8705" max="8705" width="10.5" style="126" customWidth="1"/>
+    <col min="8706" max="8706" width="13.375" style="126" customWidth="1"/>
+    <col min="8707" max="8707" width="15.375" style="126" customWidth="1"/>
+    <col min="8708" max="8708" width="20.5" style="126" customWidth="1"/>
+    <col min="8709" max="8710" width="2.875" style="126" customWidth="1"/>
+    <col min="8711" max="8711" width="2.625" style="126" customWidth="1"/>
+    <col min="8712" max="8723" width="2.875" style="126" customWidth="1"/>
+    <col min="8724" max="8960" width="9" style="126"/>
+    <col min="8961" max="8961" width="10.5" style="126" customWidth="1"/>
+    <col min="8962" max="8962" width="13.375" style="126" customWidth="1"/>
+    <col min="8963" max="8963" width="15.375" style="126" customWidth="1"/>
+    <col min="8964" max="8964" width="20.5" style="126" customWidth="1"/>
+    <col min="8965" max="8966" width="2.875" style="126" customWidth="1"/>
+    <col min="8967" max="8967" width="2.625" style="126" customWidth="1"/>
+    <col min="8968" max="8979" width="2.875" style="126" customWidth="1"/>
+    <col min="8980" max="9216" width="9" style="126"/>
+    <col min="9217" max="9217" width="10.5" style="126" customWidth="1"/>
+    <col min="9218" max="9218" width="13.375" style="126" customWidth="1"/>
+    <col min="9219" max="9219" width="15.375" style="126" customWidth="1"/>
+    <col min="9220" max="9220" width="20.5" style="126" customWidth="1"/>
+    <col min="9221" max="9222" width="2.875" style="126" customWidth="1"/>
+    <col min="9223" max="9223" width="2.625" style="126" customWidth="1"/>
+    <col min="9224" max="9235" width="2.875" style="126" customWidth="1"/>
+    <col min="9236" max="9472" width="9" style="126"/>
+    <col min="9473" max="9473" width="10.5" style="126" customWidth="1"/>
+    <col min="9474" max="9474" width="13.375" style="126" customWidth="1"/>
+    <col min="9475" max="9475" width="15.375" style="126" customWidth="1"/>
+    <col min="9476" max="9476" width="20.5" style="126" customWidth="1"/>
+    <col min="9477" max="9478" width="2.875" style="126" customWidth="1"/>
+    <col min="9479" max="9479" width="2.625" style="126" customWidth="1"/>
+    <col min="9480" max="9491" width="2.875" style="126" customWidth="1"/>
+    <col min="9492" max="9728" width="9" style="126"/>
+    <col min="9729" max="9729" width="10.5" style="126" customWidth="1"/>
+    <col min="9730" max="9730" width="13.375" style="126" customWidth="1"/>
+    <col min="9731" max="9731" width="15.375" style="126" customWidth="1"/>
+    <col min="9732" max="9732" width="20.5" style="126" customWidth="1"/>
+    <col min="9733" max="9734" width="2.875" style="126" customWidth="1"/>
+    <col min="9735" max="9735" width="2.625" style="126" customWidth="1"/>
+    <col min="9736" max="9747" width="2.875" style="126" customWidth="1"/>
+    <col min="9748" max="9984" width="9" style="126"/>
+    <col min="9985" max="9985" width="10.5" style="126" customWidth="1"/>
+    <col min="9986" max="9986" width="13.375" style="126" customWidth="1"/>
+    <col min="9987" max="9987" width="15.375" style="126" customWidth="1"/>
+    <col min="9988" max="9988" width="20.5" style="126" customWidth="1"/>
+    <col min="9989" max="9990" width="2.875" style="126" customWidth="1"/>
+    <col min="9991" max="9991" width="2.625" style="126" customWidth="1"/>
+    <col min="9992" max="10003" width="2.875" style="126" customWidth="1"/>
+    <col min="10004" max="10240" width="9" style="126"/>
+    <col min="10241" max="10241" width="10.5" style="126" customWidth="1"/>
+    <col min="10242" max="10242" width="13.375" style="126" customWidth="1"/>
+    <col min="10243" max="10243" width="15.375" style="126" customWidth="1"/>
+    <col min="10244" max="10244" width="20.5" style="126" customWidth="1"/>
+    <col min="10245" max="10246" width="2.875" style="126" customWidth="1"/>
+    <col min="10247" max="10247" width="2.625" style="126" customWidth="1"/>
+    <col min="10248" max="10259" width="2.875" style="126" customWidth="1"/>
+    <col min="10260" max="10496" width="9" style="126"/>
+    <col min="10497" max="10497" width="10.5" style="126" customWidth="1"/>
+    <col min="10498" max="10498" width="13.375" style="126" customWidth="1"/>
+    <col min="10499" max="10499" width="15.375" style="126" customWidth="1"/>
+    <col min="10500" max="10500" width="20.5" style="126" customWidth="1"/>
+    <col min="10501" max="10502" width="2.875" style="126" customWidth="1"/>
+    <col min="10503" max="10503" width="2.625" style="126" customWidth="1"/>
+    <col min="10504" max="10515" width="2.875" style="126" customWidth="1"/>
+    <col min="10516" max="10752" width="9" style="126"/>
+    <col min="10753" max="10753" width="10.5" style="126" customWidth="1"/>
+    <col min="10754" max="10754" width="13.375" style="126" customWidth="1"/>
+    <col min="10755" max="10755" width="15.375" style="126" customWidth="1"/>
+    <col min="10756" max="10756" width="20.5" style="126" customWidth="1"/>
+    <col min="10757" max="10758" width="2.875" style="126" customWidth="1"/>
+    <col min="10759" max="10759" width="2.625" style="126" customWidth="1"/>
+    <col min="10760" max="10771" width="2.875" style="126" customWidth="1"/>
+    <col min="10772" max="11008" width="9" style="126"/>
+    <col min="11009" max="11009" width="10.5" style="126" customWidth="1"/>
+    <col min="11010" max="11010" width="13.375" style="126" customWidth="1"/>
+    <col min="11011" max="11011" width="15.375" style="126" customWidth="1"/>
+    <col min="11012" max="11012" width="20.5" style="126" customWidth="1"/>
+    <col min="11013" max="11014" width="2.875" style="126" customWidth="1"/>
+    <col min="11015" max="11015" width="2.625" style="126" customWidth="1"/>
+    <col min="11016" max="11027" width="2.875" style="126" customWidth="1"/>
+    <col min="11028" max="11264" width="9" style="126"/>
+    <col min="11265" max="11265" width="10.5" style="126" customWidth="1"/>
+    <col min="11266" max="11266" width="13.375" style="126" customWidth="1"/>
+    <col min="11267" max="11267" width="15.375" style="126" customWidth="1"/>
+    <col min="11268" max="11268" width="20.5" style="126" customWidth="1"/>
+    <col min="11269" max="11270" width="2.875" style="126" customWidth="1"/>
+    <col min="11271" max="11271" width="2.625" style="126" customWidth="1"/>
+    <col min="11272" max="11283" width="2.875" style="126" customWidth="1"/>
+    <col min="11284" max="11520" width="9" style="126"/>
+    <col min="11521" max="11521" width="10.5" style="126" customWidth="1"/>
+    <col min="11522" max="11522" width="13.375" style="126" customWidth="1"/>
+    <col min="11523" max="11523" width="15.375" style="126" customWidth="1"/>
+    <col min="11524" max="11524" width="20.5" style="126" customWidth="1"/>
+    <col min="11525" max="11526" width="2.875" style="126" customWidth="1"/>
+    <col min="11527" max="11527" width="2.625" style="126" customWidth="1"/>
+    <col min="11528" max="11539" width="2.875" style="126" customWidth="1"/>
+    <col min="11540" max="11776" width="9" style="126"/>
+    <col min="11777" max="11777" width="10.5" style="126" customWidth="1"/>
+    <col min="11778" max="11778" width="13.375" style="126" customWidth="1"/>
+    <col min="11779" max="11779" width="15.375" style="126" customWidth="1"/>
+    <col min="11780" max="11780" width="20.5" style="126" customWidth="1"/>
+    <col min="11781" max="11782" width="2.875" style="126" customWidth="1"/>
+    <col min="11783" max="11783" width="2.625" style="126" customWidth="1"/>
+    <col min="11784" max="11795" width="2.875" style="126" customWidth="1"/>
+    <col min="11796" max="12032" width="9" style="126"/>
+    <col min="12033" max="12033" width="10.5" style="126" customWidth="1"/>
+    <col min="12034" max="12034" width="13.375" style="126" customWidth="1"/>
+    <col min="12035" max="12035" width="15.375" style="126" customWidth="1"/>
+    <col min="12036" max="12036" width="20.5" style="126" customWidth="1"/>
+    <col min="12037" max="12038" width="2.875" style="126" customWidth="1"/>
+    <col min="12039" max="12039" width="2.625" style="126" customWidth="1"/>
+    <col min="12040" max="12051" width="2.875" style="126" customWidth="1"/>
+    <col min="12052" max="12288" width="9" style="126"/>
+    <col min="12289" max="12289" width="10.5" style="126" customWidth="1"/>
+    <col min="12290" max="12290" width="13.375" style="126" customWidth="1"/>
+    <col min="12291" max="12291" width="15.375" style="126" customWidth="1"/>
+    <col min="12292" max="12292" width="20.5" style="126" customWidth="1"/>
+    <col min="12293" max="12294" width="2.875" style="126" customWidth="1"/>
+    <col min="12295" max="12295" width="2.625" style="126" customWidth="1"/>
+    <col min="12296" max="12307" width="2.875" style="126" customWidth="1"/>
+    <col min="12308" max="12544" width="9" style="126"/>
+    <col min="12545" max="12545" width="10.5" style="126" customWidth="1"/>
+    <col min="12546" max="12546" width="13.375" style="126" customWidth="1"/>
+    <col min="12547" max="12547" width="15.375" style="126" customWidth="1"/>
+    <col min="12548" max="12548" width="20.5" style="126" customWidth="1"/>
+    <col min="12549" max="12550" width="2.875" style="126" customWidth="1"/>
+    <col min="12551" max="12551" width="2.625" style="126" customWidth="1"/>
+    <col min="12552" max="12563" width="2.875" style="126" customWidth="1"/>
+    <col min="12564" max="12800" width="9" style="126"/>
+    <col min="12801" max="12801" width="10.5" style="126" customWidth="1"/>
+    <col min="12802" max="12802" width="13.375" style="126" customWidth="1"/>
+    <col min="12803" max="12803" width="15.375" style="126" customWidth="1"/>
+    <col min="12804" max="12804" width="20.5" style="126" customWidth="1"/>
+    <col min="12805" max="12806" width="2.875" style="126" customWidth="1"/>
+    <col min="12807" max="12807" width="2.625" style="126" customWidth="1"/>
+    <col min="12808" max="12819" width="2.875" style="126" customWidth="1"/>
+    <col min="12820" max="13056" width="9" style="126"/>
+    <col min="13057" max="13057" width="10.5" style="126" customWidth="1"/>
+    <col min="13058" max="13058" width="13.375" style="126" customWidth="1"/>
+    <col min="13059" max="13059" width="15.375" style="126" customWidth="1"/>
+    <col min="13060" max="13060" width="20.5" style="126" customWidth="1"/>
+    <col min="13061" max="13062" width="2.875" style="126" customWidth="1"/>
+    <col min="13063" max="13063" width="2.625" style="126" customWidth="1"/>
+    <col min="13064" max="13075" width="2.875" style="126" customWidth="1"/>
+    <col min="13076" max="13312" width="9" style="126"/>
+    <col min="13313" max="13313" width="10.5" style="126" customWidth="1"/>
+    <col min="13314" max="13314" width="13.375" style="126" customWidth="1"/>
+    <col min="13315" max="13315" width="15.375" style="126" customWidth="1"/>
+    <col min="13316" max="13316" width="20.5" style="126" customWidth="1"/>
+    <col min="13317" max="13318" width="2.875" style="126" customWidth="1"/>
+    <col min="13319" max="13319" width="2.625" style="126" customWidth="1"/>
+    <col min="13320" max="13331" width="2.875" style="126" customWidth="1"/>
+    <col min="13332" max="13568" width="9" style="126"/>
+    <col min="13569" max="13569" width="10.5" style="126" customWidth="1"/>
+    <col min="13570" max="13570" width="13.375" style="126" customWidth="1"/>
+    <col min="13571" max="13571" width="15.375" style="126" customWidth="1"/>
+    <col min="13572" max="13572" width="20.5" style="126" customWidth="1"/>
+    <col min="13573" max="13574" width="2.875" style="126" customWidth="1"/>
+    <col min="13575" max="13575" width="2.625" style="126" customWidth="1"/>
+    <col min="13576" max="13587" width="2.875" style="126" customWidth="1"/>
+    <col min="13588" max="13824" width="9" style="126"/>
+    <col min="13825" max="13825" width="10.5" style="126" customWidth="1"/>
+    <col min="13826" max="13826" width="13.375" style="126" customWidth="1"/>
+    <col min="13827" max="13827" width="15.375" style="126" customWidth="1"/>
+    <col min="13828" max="13828" width="20.5" style="126" customWidth="1"/>
+    <col min="13829" max="13830" width="2.875" style="126" customWidth="1"/>
+    <col min="13831" max="13831" width="2.625" style="126" customWidth="1"/>
+    <col min="13832" max="13843" width="2.875" style="126" customWidth="1"/>
+    <col min="13844" max="14080" width="9" style="126"/>
+    <col min="14081" max="14081" width="10.5" style="126" customWidth="1"/>
+    <col min="14082" max="14082" width="13.375" style="126" customWidth="1"/>
+    <col min="14083" max="14083" width="15.375" style="126" customWidth="1"/>
+    <col min="14084" max="14084" width="20.5" style="126" customWidth="1"/>
+    <col min="14085" max="14086" width="2.875" style="126" customWidth="1"/>
+    <col min="14087" max="14087" width="2.625" style="126" customWidth="1"/>
+    <col min="14088" max="14099" width="2.875" style="126" customWidth="1"/>
+    <col min="14100" max="14336" width="9" style="126"/>
+    <col min="14337" max="14337" width="10.5" style="126" customWidth="1"/>
+    <col min="14338" max="14338" width="13.375" style="126" customWidth="1"/>
+    <col min="14339" max="14339" width="15.375" style="126" customWidth="1"/>
+    <col min="14340" max="14340" width="20.5" style="126" customWidth="1"/>
+    <col min="14341" max="14342" width="2.875" style="126" customWidth="1"/>
+    <col min="14343" max="14343" width="2.625" style="126" customWidth="1"/>
+    <col min="14344" max="14355" width="2.875" style="126" customWidth="1"/>
+    <col min="14356" max="14592" width="9" style="126"/>
+    <col min="14593" max="14593" width="10.5" style="126" customWidth="1"/>
+    <col min="14594" max="14594" width="13.375" style="126" customWidth="1"/>
+    <col min="14595" max="14595" width="15.375" style="126" customWidth="1"/>
+    <col min="14596" max="14596" width="20.5" style="126" customWidth="1"/>
+    <col min="14597" max="14598" width="2.875" style="126" customWidth="1"/>
+    <col min="14599" max="14599" width="2.625" style="126" customWidth="1"/>
+    <col min="14600" max="14611" width="2.875" style="126" customWidth="1"/>
+    <col min="14612" max="14848" width="9" style="126"/>
+    <col min="14849" max="14849" width="10.5" style="126" customWidth="1"/>
+    <col min="14850" max="14850" width="13.375" style="126" customWidth="1"/>
+    <col min="14851" max="14851" width="15.375" style="126" customWidth="1"/>
+    <col min="14852" max="14852" width="20.5" style="126" customWidth="1"/>
+    <col min="14853" max="14854" width="2.875" style="126" customWidth="1"/>
+    <col min="14855" max="14855" width="2.625" style="126" customWidth="1"/>
+    <col min="14856" max="14867" width="2.875" style="126" customWidth="1"/>
+    <col min="14868" max="15104" width="9" style="126"/>
+    <col min="15105" max="15105" width="10.5" style="126" customWidth="1"/>
+    <col min="15106" max="15106" width="13.375" style="126" customWidth="1"/>
+    <col min="15107" max="15107" width="15.375" style="126" customWidth="1"/>
+    <col min="15108" max="15108" width="20.5" style="126" customWidth="1"/>
+    <col min="15109" max="15110" width="2.875" style="126" customWidth="1"/>
+    <col min="15111" max="15111" width="2.625" style="126" customWidth="1"/>
+    <col min="15112" max="15123" width="2.875" style="126" customWidth="1"/>
+    <col min="15124" max="15360" width="9" style="126"/>
+    <col min="15361" max="15361" width="10.5" style="126" customWidth="1"/>
+    <col min="15362" max="15362" width="13.375" style="126" customWidth="1"/>
+    <col min="15363" max="15363" width="15.375" style="126" customWidth="1"/>
+    <col min="15364" max="15364" width="20.5" style="126" customWidth="1"/>
+    <col min="15365" max="15366" width="2.875" style="126" customWidth="1"/>
+    <col min="15367" max="15367" width="2.625" style="126" customWidth="1"/>
+    <col min="15368" max="15379" width="2.875" style="126" customWidth="1"/>
+    <col min="15380" max="15616" width="9" style="126"/>
+    <col min="15617" max="15617" width="10.5" style="126" customWidth="1"/>
+    <col min="15618" max="15618" width="13.375" style="126" customWidth="1"/>
+    <col min="15619" max="15619" width="15.375" style="126" customWidth="1"/>
+    <col min="15620" max="15620" width="20.5" style="126" customWidth="1"/>
+    <col min="15621" max="15622" width="2.875" style="126" customWidth="1"/>
+    <col min="15623" max="15623" width="2.625" style="126" customWidth="1"/>
+    <col min="15624" max="15635" width="2.875" style="126" customWidth="1"/>
+    <col min="15636" max="15872" width="9" style="126"/>
+    <col min="15873" max="15873" width="10.5" style="126" customWidth="1"/>
+    <col min="15874" max="15874" width="13.375" style="126" customWidth="1"/>
+    <col min="15875" max="15875" width="15.375" style="126" customWidth="1"/>
+    <col min="15876" max="15876" width="20.5" style="126" customWidth="1"/>
+    <col min="15877" max="15878" width="2.875" style="126" customWidth="1"/>
+    <col min="15879" max="15879" width="2.625" style="126" customWidth="1"/>
+    <col min="15880" max="15891" width="2.875" style="126" customWidth="1"/>
+    <col min="15892" max="16128" width="9" style="126"/>
+    <col min="16129" max="16129" width="10.5" style="126" customWidth="1"/>
+    <col min="16130" max="16130" width="13.375" style="126" customWidth="1"/>
+    <col min="16131" max="16131" width="15.375" style="126" customWidth="1"/>
+    <col min="16132" max="16132" width="20.5" style="126" customWidth="1"/>
+    <col min="16133" max="16134" width="2.875" style="126" customWidth="1"/>
+    <col min="16135" max="16135" width="2.625" style="126" customWidth="1"/>
+    <col min="16136" max="16147" width="2.875" style="126" customWidth="1"/>
+    <col min="16148" max="16384" width="9" style="126"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A1" s="70"/>
+      <c r="B1" s="71"/>
+    </row>
+    <row r="2" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A2" s="222" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="223"/>
+      <c r="C2" s="224" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="225"/>
+      <c r="E2" s="226" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="227"/>
+      <c r="G2" s="227"/>
+      <c r="H2" s="228"/>
+      <c r="I2" s="229" t="str">
+        <f>C2</f>
+        <v>GetTopRecentlyDonator</v>
+      </c>
+      <c r="J2" s="230"/>
+      <c r="K2" s="230"/>
+      <c r="L2" s="230"/>
+      <c r="M2" s="230"/>
+      <c r="N2" s="230"/>
+      <c r="O2" s="230"/>
+      <c r="P2" s="230"/>
+      <c r="Q2" s="230"/>
+      <c r="R2" s="231"/>
+      <c r="T2" s="73"/>
+    </row>
+    <row r="3" spans="1:20" ht="30" customHeight="1">
+      <c r="A3" s="210" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="211"/>
+      <c r="C3" s="232" t="str">
+        <f>Cover!F4</f>
+        <v>TuanhaSE03108</v>
+      </c>
+      <c r="D3" s="233"/>
+      <c r="E3" s="234" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="235"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="237" t="str">
+        <f>C3</f>
+        <v>TuanhaSE03108</v>
+      </c>
+      <c r="J3" s="238"/>
+      <c r="K3" s="238"/>
+      <c r="L3" s="238"/>
+      <c r="M3" s="238"/>
+      <c r="N3" s="238"/>
+      <c r="O3" s="238"/>
+      <c r="P3" s="238"/>
+      <c r="Q3" s="238"/>
+      <c r="R3" s="239"/>
+    </row>
+    <row r="4" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A4" s="210" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="211"/>
+      <c r="C4" s="212"/>
+      <c r="D4" s="212"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="213"/>
+      <c r="G4" s="213"/>
+      <c r="H4" s="213"/>
+      <c r="I4" s="212"/>
+      <c r="J4" s="212"/>
+      <c r="K4" s="212"/>
+      <c r="L4" s="212"/>
+      <c r="M4" s="212"/>
+      <c r="N4" s="212"/>
+      <c r="O4" s="212"/>
+      <c r="P4" s="212"/>
+      <c r="Q4" s="212"/>
+      <c r="R4" s="214"/>
+    </row>
+    <row r="5" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A5" s="215" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="216"/>
+      <c r="C5" s="217" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="218"/>
+      <c r="E5" s="219" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="218"/>
+      <c r="G5" s="218"/>
+      <c r="H5" s="220"/>
+      <c r="I5" s="218" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="218"/>
+      <c r="K5" s="218"/>
+      <c r="L5" s="219" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="218"/>
+      <c r="N5" s="218"/>
+      <c r="O5" s="218"/>
+      <c r="P5" s="218"/>
+      <c r="Q5" s="218"/>
+      <c r="R5" s="221"/>
+      <c r="T5" s="73"/>
+    </row>
+    <row r="6" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A6" s="197">
+        <f>COUNTIF(E21:HM21,"P")</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="198"/>
+      <c r="C6" s="199">
+        <f>COUNTIF(E21:HO21,"F")</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="200"/>
+      <c r="E6" s="201">
+        <f>SUM(L6,- A6,- C6)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="200"/>
+      <c r="G6" s="200"/>
+      <c r="H6" s="202"/>
+      <c r="I6" s="117">
+        <f>COUNTIF(E20:HM20,"N")</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="117">
+        <f>COUNTIF(E20:HM20,"A")</f>
+        <v>2</v>
+      </c>
+      <c r="K6" s="117">
+        <f>COUNTIF(E20:HM20,"B")</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="201">
+        <f>COUNTA(E8:P8)</f>
+        <v>2</v>
+      </c>
+      <c r="M6" s="200"/>
+      <c r="N6" s="200"/>
+      <c r="O6" s="200"/>
+      <c r="P6" s="200"/>
+      <c r="Q6" s="200"/>
+      <c r="R6" s="203"/>
+      <c r="S6" s="118"/>
+    </row>
+    <row r="7" spans="1:20" ht="11.25" thickBot="1"/>
+    <row r="8" spans="1:20" ht="46.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A8" s="146"/>
+      <c r="B8" s="142"/>
+      <c r="C8" s="143"/>
+      <c r="D8" s="144"/>
+      <c r="E8" s="145" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="145" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" s="145"/>
+      <c r="H8" s="145"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="145"/>
+      <c r="K8" s="145"/>
+      <c r="L8" s="145"/>
+      <c r="M8" s="145"/>
+      <c r="N8" s="145"/>
+      <c r="O8" s="145"/>
+      <c r="P8" s="145"/>
+      <c r="Q8" s="145"/>
+      <c r="R8" s="158"/>
+      <c r="S8" s="118"/>
+    </row>
+    <row r="9" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A9" s="135" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="139" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="140"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="134" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="134" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="134"/>
+      <c r="H9" s="134"/>
+      <c r="I9" s="134"/>
+      <c r="J9" s="134"/>
+      <c r="K9" s="134"/>
+      <c r="L9" s="147"/>
+      <c r="M9" s="149"/>
+      <c r="N9" s="149"/>
+      <c r="O9" s="149"/>
+      <c r="P9" s="149"/>
+      <c r="Q9" s="149"/>
+      <c r="R9" s="147"/>
+    </row>
+    <row r="10" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A10" s="135"/>
+      <c r="B10" s="139"/>
+      <c r="C10" s="140"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="148"/>
+      <c r="F10" s="148"/>
+      <c r="G10" s="148"/>
+      <c r="H10" s="148"/>
+      <c r="I10" s="148"/>
+      <c r="J10" s="148"/>
+      <c r="K10" s="148"/>
+      <c r="L10" s="147"/>
+      <c r="M10" s="149"/>
+      <c r="N10" s="149"/>
+      <c r="O10" s="149"/>
+      <c r="P10" s="149"/>
+      <c r="Q10" s="149"/>
+      <c r="R10" s="147"/>
+    </row>
+    <row r="11" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A11" s="138" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="166" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="125"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="148"/>
+      <c r="F11" s="148"/>
+      <c r="G11" s="148"/>
+      <c r="H11" s="148"/>
+      <c r="I11" s="147"/>
+      <c r="J11" s="147"/>
+      <c r="K11" s="147"/>
+      <c r="L11" s="147"/>
+      <c r="M11" s="149"/>
+      <c r="N11" s="149"/>
+      <c r="O11" s="149"/>
+      <c r="P11" s="149"/>
+      <c r="Q11" s="149"/>
+      <c r="R11" s="147"/>
+    </row>
+    <row r="12" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A12" s="135"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="141">
+        <v>5</v>
+      </c>
+      <c r="E12" s="134" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="148"/>
+      <c r="G12" s="148"/>
+      <c r="H12" s="148"/>
+      <c r="I12" s="147"/>
+      <c r="J12" s="147"/>
+      <c r="K12" s="147"/>
+      <c r="L12" s="147"/>
+      <c r="M12" s="149"/>
+      <c r="N12" s="149"/>
+      <c r="O12" s="149"/>
+      <c r="P12" s="149"/>
+      <c r="Q12" s="149"/>
+      <c r="R12" s="147"/>
+    </row>
+    <row r="13" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A13" s="135"/>
+      <c r="B13" s="170"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="141">
+        <v>10</v>
+      </c>
+      <c r="E13" s="148"/>
+      <c r="F13" s="134" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="148"/>
+      <c r="H13" s="148"/>
+      <c r="I13" s="148"/>
+      <c r="J13" s="148"/>
+      <c r="K13" s="148"/>
+      <c r="L13" s="147"/>
+      <c r="M13" s="149"/>
+      <c r="N13" s="149"/>
+      <c r="O13" s="149"/>
+      <c r="P13" s="149"/>
+      <c r="Q13" s="149"/>
+      <c r="R13" s="147"/>
+    </row>
+    <row r="14" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A14" s="137" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="127"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="148"/>
+      <c r="F14" s="148"/>
+      <c r="G14" s="148"/>
+      <c r="H14" s="148"/>
+      <c r="I14" s="148"/>
+      <c r="J14" s="148"/>
+      <c r="K14" s="148"/>
+      <c r="L14" s="148"/>
+      <c r="M14" s="151"/>
+      <c r="N14" s="151"/>
+      <c r="O14" s="151"/>
+      <c r="P14" s="151"/>
+      <c r="Q14" s="151"/>
+      <c r="R14" s="148"/>
+    </row>
+    <row r="15" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A15" s="136"/>
+      <c r="B15" s="130" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="128"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="148"/>
+      <c r="F15" s="148"/>
+      <c r="G15" s="148"/>
+      <c r="H15" s="148"/>
+      <c r="I15" s="148"/>
+      <c r="J15" s="148"/>
+      <c r="K15" s="148"/>
+      <c r="L15" s="148"/>
+      <c r="M15" s="151"/>
+      <c r="N15" s="151"/>
+      <c r="O15" s="151"/>
+      <c r="P15" s="151"/>
+      <c r="Q15" s="151"/>
+      <c r="R15" s="148"/>
+    </row>
+    <row r="16" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A16" s="136"/>
+      <c r="B16" s="130" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="131"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="134" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="134" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="134"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="134"/>
+      <c r="J16" s="148"/>
+      <c r="K16" s="134"/>
+      <c r="L16" s="134"/>
+      <c r="M16" s="150"/>
+      <c r="N16" s="150"/>
+      <c r="O16" s="150"/>
+      <c r="P16" s="150"/>
+      <c r="Q16" s="150"/>
+      <c r="R16" s="134"/>
+    </row>
+    <row r="17" spans="1:18" ht="13.5" customHeight="1">
+      <c r="A17" s="136"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="134"/>
+      <c r="G17" s="134"/>
+      <c r="H17" s="134"/>
+      <c r="I17" s="134"/>
+      <c r="J17" s="134"/>
+      <c r="K17" s="134"/>
+      <c r="L17" s="134"/>
+      <c r="M17" s="150"/>
+      <c r="N17" s="150"/>
+      <c r="O17" s="150"/>
+      <c r="P17" s="150"/>
+      <c r="Q17" s="150"/>
+      <c r="R17" s="134"/>
+    </row>
+    <row r="18" spans="1:18" ht="13.5" customHeight="1">
+      <c r="A18" s="136"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="131"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="134"/>
+      <c r="H18" s="134"/>
+      <c r="I18" s="134"/>
+      <c r="J18" s="134"/>
+      <c r="K18" s="134"/>
+      <c r="L18" s="134"/>
+      <c r="M18" s="153"/>
+      <c r="N18" s="153"/>
+      <c r="O18" s="153"/>
+      <c r="P18" s="153"/>
+      <c r="Q18" s="153"/>
+      <c r="R18" s="154"/>
+    </row>
+    <row r="19" spans="1:18" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A19" s="136"/>
+      <c r="B19" s="130"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="152"/>
+      <c r="I19" s="152"/>
+      <c r="J19" s="152"/>
+      <c r="K19" s="152"/>
+      <c r="L19" s="152"/>
+      <c r="M19" s="155"/>
+      <c r="N19" s="155"/>
+      <c r="O19" s="155"/>
+      <c r="P19" s="155"/>
+      <c r="Q19" s="155"/>
+      <c r="R19" s="156"/>
+    </row>
+    <row r="20" spans="1:18" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A20" s="137" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="240" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="241"/>
+      <c r="D20" s="242"/>
+      <c r="E20" s="157" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="157" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="157"/>
+      <c r="H20" s="157"/>
+      <c r="I20" s="157"/>
+      <c r="J20" s="157"/>
+      <c r="K20" s="157"/>
+      <c r="L20" s="157"/>
+      <c r="M20" s="157"/>
+      <c r="N20" s="157"/>
+      <c r="O20" s="157"/>
+      <c r="P20" s="157"/>
+      <c r="Q20" s="157"/>
+      <c r="R20" s="157"/>
+    </row>
+    <row r="21" spans="1:18" ht="13.5" customHeight="1">
+      <c r="A21" s="136"/>
+      <c r="B21" s="207" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="208"/>
+      <c r="D21" s="209"/>
+      <c r="E21" s="134" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="134" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="134"/>
+      <c r="H21" s="134"/>
+      <c r="I21" s="134"/>
+      <c r="J21" s="134"/>
+      <c r="K21" s="134"/>
+      <c r="L21" s="134"/>
+      <c r="M21" s="134"/>
+      <c r="N21" s="134"/>
+      <c r="O21" s="134"/>
+      <c r="P21" s="134"/>
+      <c r="Q21" s="134"/>
+      <c r="R21" s="134"/>
+    </row>
+    <row r="22" spans="1:18" ht="64.5" customHeight="1">
+      <c r="A22" s="136"/>
+      <c r="B22" s="194" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="195"/>
+      <c r="D22" s="196"/>
+      <c r="E22" s="133">
+        <v>42594</v>
+      </c>
+      <c r="F22" s="133">
+        <v>42594</v>
+      </c>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="133"/>
+      <c r="J22" s="133"/>
+      <c r="K22" s="133"/>
+      <c r="L22" s="133"/>
+      <c r="M22" s="133"/>
+      <c r="N22" s="133"/>
+      <c r="O22" s="133"/>
+      <c r="P22" s="133"/>
+      <c r="Q22" s="133"/>
+      <c r="R22" s="133"/>
+    </row>
+    <row r="23" spans="1:18" ht="13.5" customHeight="1">
+      <c r="A23" s="96"/>
+    </row>
+    <row r="24" spans="1:18" ht="13.5" customHeight="1"/>
+    <row r="25" spans="1:18" ht="13.5" customHeight="1"/>
+    <row r="26" spans="1:18" ht="13.5" customHeight="1"/>
+    <row r="27" spans="1:18" ht="13.5" customHeight="1"/>
+    <row r="28" spans="1:18" ht="13.5" customHeight="1">
+      <c r="B28" s="126"/>
+      <c r="D28" s="126"/>
+    </row>
+    <row r="29" spans="1:18" ht="13.5" customHeight="1">
+      <c r="B29" s="126"/>
+      <c r="D29" s="126"/>
+    </row>
+    <row r="30" spans="1:18" ht="13.5" customHeight="1">
+      <c r="B30" s="126"/>
+      <c r="D30" s="126"/>
+    </row>
+    <row r="31" spans="1:18" ht="13.5" customHeight="1">
+      <c r="B31" s="126"/>
+      <c r="D31" s="126"/>
+    </row>
+    <row r="32" spans="1:18" ht="13.5" customHeight="1">
+      <c r="B32" s="126"/>
+      <c r="D32" s="126"/>
+    </row>
+    <row r="33" spans="2:4" ht="13.5" customHeight="1">
+      <c r="B33" s="126"/>
+      <c r="D33" s="126"/>
+    </row>
+    <row r="34" spans="2:4" ht="13.5" customHeight="1">
+      <c r="B34" s="126"/>
+      <c r="D34" s="126"/>
+    </row>
+    <row r="35" spans="2:4" ht="13.5" customHeight="1">
+      <c r="B35" s="126"/>
+      <c r="D35" s="126"/>
+    </row>
+    <row r="36" spans="2:4" ht="13.5" customHeight="1">
+      <c r="B36" s="126"/>
+      <c r="D36" s="126"/>
+    </row>
+    <row r="37" spans="2:4" ht="13.5" customHeight="1">
+      <c r="B37" s="126"/>
+      <c r="D37" s="126"/>
+    </row>
+    <row r="38" spans="2:4" ht="13.5" customHeight="1">
+      <c r="B38" s="126"/>
+      <c r="D38" s="126"/>
+    </row>
+    <row r="39" spans="2:4" ht="13.5" customHeight="1">
+      <c r="B39" s="126"/>
+      <c r="D39" s="126"/>
+    </row>
+    <row r="40" spans="2:4" ht="24" customHeight="1">
+      <c r="B40" s="126"/>
+      <c r="D40" s="126"/>
+    </row>
+    <row r="41" spans="2:4" ht="39" customHeight="1">
+      <c r="B41" s="126"/>
+      <c r="D41" s="126"/>
+    </row>
+    <row r="42" spans="2:4" ht="13.5" customHeight="1">
+      <c r="B42" s="126"/>
+      <c r="D42" s="126"/>
+    </row>
+    <row r="43" spans="2:4" ht="13.5" customHeight="1">
+      <c r="B43" s="126"/>
+      <c r="D43" s="126"/>
+    </row>
+    <row r="44" spans="2:4" ht="13.5" customHeight="1">
+      <c r="B44" s="126"/>
+      <c r="D44" s="126"/>
+    </row>
+    <row r="45" spans="2:4" ht="13.5" customHeight="1">
+      <c r="B45" s="126"/>
+      <c r="D45" s="126"/>
+    </row>
+    <row r="46" spans="2:4" ht="13.5" customHeight="1">
+      <c r="B46" s="126"/>
+      <c r="D46" s="126"/>
+    </row>
+    <row r="47" spans="2:4" ht="13.5" customHeight="1">
+      <c r="B47" s="126"/>
+      <c r="D47" s="126"/>
+    </row>
+    <row r="48" spans="2:4" ht="13.5" customHeight="1">
+      <c r="B48" s="126"/>
+      <c r="D48" s="126"/>
+    </row>
+    <row r="49" spans="2:4" ht="13.5" customHeight="1">
+      <c r="B49" s="126"/>
+      <c r="D49" s="126"/>
+    </row>
+    <row r="50" spans="2:4" ht="13.5" customHeight="1">
+      <c r="B50" s="126"/>
+      <c r="D50" s="126"/>
+    </row>
+    <row r="51" spans="2:4" ht="13.5" customHeight="1">
+      <c r="B51" s="126"/>
+      <c r="D51" s="126"/>
+    </row>
+    <row r="52" spans="2:4" ht="13.5" customHeight="1">
+      <c r="B52" s="126"/>
+      <c r="D52" s="126"/>
+    </row>
+    <row r="53" spans="2:4" ht="57" customHeight="1">
+      <c r="B53" s="126"/>
+      <c r="D53" s="126"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="L6:R6"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:R4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:R5"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="I2:R2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:R3"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVM983061:WVZ983061 JA21:JN21 SW21:TJ21 ACS21:ADF21 AMO21:ANB21 AWK21:AWX21 BGG21:BGT21 BQC21:BQP21 BZY21:CAL21 CJU21:CKH21 CTQ21:CUD21 DDM21:DDZ21 DNI21:DNV21 DXE21:DXR21 EHA21:EHN21 EQW21:ERJ21 FAS21:FBF21 FKO21:FLB21 FUK21:FUX21 GEG21:GET21 GOC21:GOP21 GXY21:GYL21 HHU21:HIH21 HRQ21:HSD21 IBM21:IBZ21 ILI21:ILV21 IVE21:IVR21 JFA21:JFN21 JOW21:JPJ21 JYS21:JZF21 KIO21:KJB21 KSK21:KSX21 LCG21:LCT21 LMC21:LMP21 LVY21:LWL21 MFU21:MGH21 MPQ21:MQD21 MZM21:MZZ21 NJI21:NJV21 NTE21:NTR21 ODA21:ODN21 OMW21:ONJ21 OWS21:OXF21 PGO21:PHB21 PQK21:PQX21 QAG21:QAT21 QKC21:QKP21 QTY21:QUL21 RDU21:REH21 RNQ21:ROD21 RXM21:RXZ21 SHI21:SHV21 SRE21:SRR21 TBA21:TBN21 TKW21:TLJ21 TUS21:TVF21 UEO21:UFB21 UOK21:UOX21 UYG21:UYT21 VIC21:VIP21 VRY21:VSL21 WBU21:WCH21 WLQ21:WMD21 WVM21:WVZ21 E65557:R65557 JA65557:JN65557 SW65557:TJ65557 ACS65557:ADF65557 AMO65557:ANB65557 AWK65557:AWX65557 BGG65557:BGT65557 BQC65557:BQP65557 BZY65557:CAL65557 CJU65557:CKH65557 CTQ65557:CUD65557 DDM65557:DDZ65557 DNI65557:DNV65557 DXE65557:DXR65557 EHA65557:EHN65557 EQW65557:ERJ65557 FAS65557:FBF65557 FKO65557:FLB65557 FUK65557:FUX65557 GEG65557:GET65557 GOC65557:GOP65557 GXY65557:GYL65557 HHU65557:HIH65557 HRQ65557:HSD65557 IBM65557:IBZ65557 ILI65557:ILV65557 IVE65557:IVR65557 JFA65557:JFN65557 JOW65557:JPJ65557 JYS65557:JZF65557 KIO65557:KJB65557 KSK65557:KSX65557 LCG65557:LCT65557 LMC65557:LMP65557 LVY65557:LWL65557 MFU65557:MGH65557 MPQ65557:MQD65557 MZM65557:MZZ65557 NJI65557:NJV65557 NTE65557:NTR65557 ODA65557:ODN65557 OMW65557:ONJ65557 OWS65557:OXF65557 PGO65557:PHB65557 PQK65557:PQX65557 QAG65557:QAT65557 QKC65557:QKP65557 QTY65557:QUL65557 RDU65557:REH65557 RNQ65557:ROD65557 RXM65557:RXZ65557 SHI65557:SHV65557 SRE65557:SRR65557 TBA65557:TBN65557 TKW65557:TLJ65557 TUS65557:TVF65557 UEO65557:UFB65557 UOK65557:UOX65557 UYG65557:UYT65557 VIC65557:VIP65557 VRY65557:VSL65557 WBU65557:WCH65557 WLQ65557:WMD65557 WVM65557:WVZ65557 E131093:R131093 JA131093:JN131093 SW131093:TJ131093 ACS131093:ADF131093 AMO131093:ANB131093 AWK131093:AWX131093 BGG131093:BGT131093 BQC131093:BQP131093 BZY131093:CAL131093 CJU131093:CKH131093 CTQ131093:CUD131093 DDM131093:DDZ131093 DNI131093:DNV131093 DXE131093:DXR131093 EHA131093:EHN131093 EQW131093:ERJ131093 FAS131093:FBF131093 FKO131093:FLB131093 FUK131093:FUX131093 GEG131093:GET131093 GOC131093:GOP131093 GXY131093:GYL131093 HHU131093:HIH131093 HRQ131093:HSD131093 IBM131093:IBZ131093 ILI131093:ILV131093 IVE131093:IVR131093 JFA131093:JFN131093 JOW131093:JPJ131093 JYS131093:JZF131093 KIO131093:KJB131093 KSK131093:KSX131093 LCG131093:LCT131093 LMC131093:LMP131093 LVY131093:LWL131093 MFU131093:MGH131093 MPQ131093:MQD131093 MZM131093:MZZ131093 NJI131093:NJV131093 NTE131093:NTR131093 ODA131093:ODN131093 OMW131093:ONJ131093 OWS131093:OXF131093 PGO131093:PHB131093 PQK131093:PQX131093 QAG131093:QAT131093 QKC131093:QKP131093 QTY131093:QUL131093 RDU131093:REH131093 RNQ131093:ROD131093 RXM131093:RXZ131093 SHI131093:SHV131093 SRE131093:SRR131093 TBA131093:TBN131093 TKW131093:TLJ131093 TUS131093:TVF131093 UEO131093:UFB131093 UOK131093:UOX131093 UYG131093:UYT131093 VIC131093:VIP131093 VRY131093:VSL131093 WBU131093:WCH131093 WLQ131093:WMD131093 WVM131093:WVZ131093 E196629:R196629 JA196629:JN196629 SW196629:TJ196629 ACS196629:ADF196629 AMO196629:ANB196629 AWK196629:AWX196629 BGG196629:BGT196629 BQC196629:BQP196629 BZY196629:CAL196629 CJU196629:CKH196629 CTQ196629:CUD196629 DDM196629:DDZ196629 DNI196629:DNV196629 DXE196629:DXR196629 EHA196629:EHN196629 EQW196629:ERJ196629 FAS196629:FBF196629 FKO196629:FLB196629 FUK196629:FUX196629 GEG196629:GET196629 GOC196629:GOP196629 GXY196629:GYL196629 HHU196629:HIH196629 HRQ196629:HSD196629 IBM196629:IBZ196629 ILI196629:ILV196629 IVE196629:IVR196629 JFA196629:JFN196629 JOW196629:JPJ196629 JYS196629:JZF196629 KIO196629:KJB196629 KSK196629:KSX196629 LCG196629:LCT196629 LMC196629:LMP196629 LVY196629:LWL196629 MFU196629:MGH196629 MPQ196629:MQD196629 MZM196629:MZZ196629 NJI196629:NJV196629 NTE196629:NTR196629 ODA196629:ODN196629 OMW196629:ONJ196629 OWS196629:OXF196629 PGO196629:PHB196629 PQK196629:PQX196629 QAG196629:QAT196629 QKC196629:QKP196629 QTY196629:QUL196629 RDU196629:REH196629 RNQ196629:ROD196629 RXM196629:RXZ196629 SHI196629:SHV196629 SRE196629:SRR196629 TBA196629:TBN196629 TKW196629:TLJ196629 TUS196629:TVF196629 UEO196629:UFB196629 UOK196629:UOX196629 UYG196629:UYT196629 VIC196629:VIP196629 VRY196629:VSL196629 WBU196629:WCH196629 WLQ196629:WMD196629 WVM196629:WVZ196629 E262165:R262165 JA262165:JN262165 SW262165:TJ262165 ACS262165:ADF262165 AMO262165:ANB262165 AWK262165:AWX262165 BGG262165:BGT262165 BQC262165:BQP262165 BZY262165:CAL262165 CJU262165:CKH262165 CTQ262165:CUD262165 DDM262165:DDZ262165 DNI262165:DNV262165 DXE262165:DXR262165 EHA262165:EHN262165 EQW262165:ERJ262165 FAS262165:FBF262165 FKO262165:FLB262165 FUK262165:FUX262165 GEG262165:GET262165 GOC262165:GOP262165 GXY262165:GYL262165 HHU262165:HIH262165 HRQ262165:HSD262165 IBM262165:IBZ262165 ILI262165:ILV262165 IVE262165:IVR262165 JFA262165:JFN262165 JOW262165:JPJ262165 JYS262165:JZF262165 KIO262165:KJB262165 KSK262165:KSX262165 LCG262165:LCT262165 LMC262165:LMP262165 LVY262165:LWL262165 MFU262165:MGH262165 MPQ262165:MQD262165 MZM262165:MZZ262165 NJI262165:NJV262165 NTE262165:NTR262165 ODA262165:ODN262165 OMW262165:ONJ262165 OWS262165:OXF262165 PGO262165:PHB262165 PQK262165:PQX262165 QAG262165:QAT262165 QKC262165:QKP262165 QTY262165:QUL262165 RDU262165:REH262165 RNQ262165:ROD262165 RXM262165:RXZ262165 SHI262165:SHV262165 SRE262165:SRR262165 TBA262165:TBN262165 TKW262165:TLJ262165 TUS262165:TVF262165 UEO262165:UFB262165 UOK262165:UOX262165 UYG262165:UYT262165 VIC262165:VIP262165 VRY262165:VSL262165 WBU262165:WCH262165 WLQ262165:WMD262165 WVM262165:WVZ262165 E327701:R327701 JA327701:JN327701 SW327701:TJ327701 ACS327701:ADF327701 AMO327701:ANB327701 AWK327701:AWX327701 BGG327701:BGT327701 BQC327701:BQP327701 BZY327701:CAL327701 CJU327701:CKH327701 CTQ327701:CUD327701 DDM327701:DDZ327701 DNI327701:DNV327701 DXE327701:DXR327701 EHA327701:EHN327701 EQW327701:ERJ327701 FAS327701:FBF327701 FKO327701:FLB327701 FUK327701:FUX327701 GEG327701:GET327701 GOC327701:GOP327701 GXY327701:GYL327701 HHU327701:HIH327701 HRQ327701:HSD327701 IBM327701:IBZ327701 ILI327701:ILV327701 IVE327701:IVR327701 JFA327701:JFN327701 JOW327701:JPJ327701 JYS327701:JZF327701 KIO327701:KJB327701 KSK327701:KSX327701 LCG327701:LCT327701 LMC327701:LMP327701 LVY327701:LWL327701 MFU327701:MGH327701 MPQ327701:MQD327701 MZM327701:MZZ327701 NJI327701:NJV327701 NTE327701:NTR327701 ODA327701:ODN327701 OMW327701:ONJ327701 OWS327701:OXF327701 PGO327701:PHB327701 PQK327701:PQX327701 QAG327701:QAT327701 QKC327701:QKP327701 QTY327701:QUL327701 RDU327701:REH327701 RNQ327701:ROD327701 RXM327701:RXZ327701 SHI327701:SHV327701 SRE327701:SRR327701 TBA327701:TBN327701 TKW327701:TLJ327701 TUS327701:TVF327701 UEO327701:UFB327701 UOK327701:UOX327701 UYG327701:UYT327701 VIC327701:VIP327701 VRY327701:VSL327701 WBU327701:WCH327701 WLQ327701:WMD327701 WVM327701:WVZ327701 E393237:R393237 JA393237:JN393237 SW393237:TJ393237 ACS393237:ADF393237 AMO393237:ANB393237 AWK393237:AWX393237 BGG393237:BGT393237 BQC393237:BQP393237 BZY393237:CAL393237 CJU393237:CKH393237 CTQ393237:CUD393237 DDM393237:DDZ393237 DNI393237:DNV393237 DXE393237:DXR393237 EHA393237:EHN393237 EQW393237:ERJ393237 FAS393237:FBF393237 FKO393237:FLB393237 FUK393237:FUX393237 GEG393237:GET393237 GOC393237:GOP393237 GXY393237:GYL393237 HHU393237:HIH393237 HRQ393237:HSD393237 IBM393237:IBZ393237 ILI393237:ILV393237 IVE393237:IVR393237 JFA393237:JFN393237 JOW393237:JPJ393237 JYS393237:JZF393237 KIO393237:KJB393237 KSK393237:KSX393237 LCG393237:LCT393237 LMC393237:LMP393237 LVY393237:LWL393237 MFU393237:MGH393237 MPQ393237:MQD393237 MZM393237:MZZ393237 NJI393237:NJV393237 NTE393237:NTR393237 ODA393237:ODN393237 OMW393237:ONJ393237 OWS393237:OXF393237 PGO393237:PHB393237 PQK393237:PQX393237 QAG393237:QAT393237 QKC393237:QKP393237 QTY393237:QUL393237 RDU393237:REH393237 RNQ393237:ROD393237 RXM393237:RXZ393237 SHI393237:SHV393237 SRE393237:SRR393237 TBA393237:TBN393237 TKW393237:TLJ393237 TUS393237:TVF393237 UEO393237:UFB393237 UOK393237:UOX393237 UYG393237:UYT393237 VIC393237:VIP393237 VRY393237:VSL393237 WBU393237:WCH393237 WLQ393237:WMD393237 WVM393237:WVZ393237 E458773:R458773 JA458773:JN458773 SW458773:TJ458773 ACS458773:ADF458773 AMO458773:ANB458773 AWK458773:AWX458773 BGG458773:BGT458773 BQC458773:BQP458773 BZY458773:CAL458773 CJU458773:CKH458773 CTQ458773:CUD458773 DDM458773:DDZ458773 DNI458773:DNV458773 DXE458773:DXR458773 EHA458773:EHN458773 EQW458773:ERJ458773 FAS458773:FBF458773 FKO458773:FLB458773 FUK458773:FUX458773 GEG458773:GET458773 GOC458773:GOP458773 GXY458773:GYL458773 HHU458773:HIH458773 HRQ458773:HSD458773 IBM458773:IBZ458773 ILI458773:ILV458773 IVE458773:IVR458773 JFA458773:JFN458773 JOW458773:JPJ458773 JYS458773:JZF458773 KIO458773:KJB458773 KSK458773:KSX458773 LCG458773:LCT458773 LMC458773:LMP458773 LVY458773:LWL458773 MFU458773:MGH458773 MPQ458773:MQD458773 MZM458773:MZZ458773 NJI458773:NJV458773 NTE458773:NTR458773 ODA458773:ODN458773 OMW458773:ONJ458773 OWS458773:OXF458773 PGO458773:PHB458773 PQK458773:PQX458773 QAG458773:QAT458773 QKC458773:QKP458773 QTY458773:QUL458773 RDU458773:REH458773 RNQ458773:ROD458773 RXM458773:RXZ458773 SHI458773:SHV458773 SRE458773:SRR458773 TBA458773:TBN458773 TKW458773:TLJ458773 TUS458773:TVF458773 UEO458773:UFB458773 UOK458773:UOX458773 UYG458773:UYT458773 VIC458773:VIP458773 VRY458773:VSL458773 WBU458773:WCH458773 WLQ458773:WMD458773 WVM458773:WVZ458773 E524309:R524309 JA524309:JN524309 SW524309:TJ524309 ACS524309:ADF524309 AMO524309:ANB524309 AWK524309:AWX524309 BGG524309:BGT524309 BQC524309:BQP524309 BZY524309:CAL524309 CJU524309:CKH524309 CTQ524309:CUD524309 DDM524309:DDZ524309 DNI524309:DNV524309 DXE524309:DXR524309 EHA524309:EHN524309 EQW524309:ERJ524309 FAS524309:FBF524309 FKO524309:FLB524309 FUK524309:FUX524309 GEG524309:GET524309 GOC524309:GOP524309 GXY524309:GYL524309 HHU524309:HIH524309 HRQ524309:HSD524309 IBM524309:IBZ524309 ILI524309:ILV524309 IVE524309:IVR524309 JFA524309:JFN524309 JOW524309:JPJ524309 JYS524309:JZF524309 KIO524309:KJB524309 KSK524309:KSX524309 LCG524309:LCT524309 LMC524309:LMP524309 LVY524309:LWL524309 MFU524309:MGH524309 MPQ524309:MQD524309 MZM524309:MZZ524309 NJI524309:NJV524309 NTE524309:NTR524309 ODA524309:ODN524309 OMW524309:ONJ524309 OWS524309:OXF524309 PGO524309:PHB524309 PQK524309:PQX524309 QAG524309:QAT524309 QKC524309:QKP524309 QTY524309:QUL524309 RDU524309:REH524309 RNQ524309:ROD524309 RXM524309:RXZ524309 SHI524309:SHV524309 SRE524309:SRR524309 TBA524309:TBN524309 TKW524309:TLJ524309 TUS524309:TVF524309 UEO524309:UFB524309 UOK524309:UOX524309 UYG524309:UYT524309 VIC524309:VIP524309 VRY524309:VSL524309 WBU524309:WCH524309 WLQ524309:WMD524309 WVM524309:WVZ524309 E589845:R589845 JA589845:JN589845 SW589845:TJ589845 ACS589845:ADF589845 AMO589845:ANB589845 AWK589845:AWX589845 BGG589845:BGT589845 BQC589845:BQP589845 BZY589845:CAL589845 CJU589845:CKH589845 CTQ589845:CUD589845 DDM589845:DDZ589845 DNI589845:DNV589845 DXE589845:DXR589845 EHA589845:EHN589845 EQW589845:ERJ589845 FAS589845:FBF589845 FKO589845:FLB589845 FUK589845:FUX589845 GEG589845:GET589845 GOC589845:GOP589845 GXY589845:GYL589845 HHU589845:HIH589845 HRQ589845:HSD589845 IBM589845:IBZ589845 ILI589845:ILV589845 IVE589845:IVR589845 JFA589845:JFN589845 JOW589845:JPJ589845 JYS589845:JZF589845 KIO589845:KJB589845 KSK589845:KSX589845 LCG589845:LCT589845 LMC589845:LMP589845 LVY589845:LWL589845 MFU589845:MGH589845 MPQ589845:MQD589845 MZM589845:MZZ589845 NJI589845:NJV589845 NTE589845:NTR589845 ODA589845:ODN589845 OMW589845:ONJ589845 OWS589845:OXF589845 PGO589845:PHB589845 PQK589845:PQX589845 QAG589845:QAT589845 QKC589845:QKP589845 QTY589845:QUL589845 RDU589845:REH589845 RNQ589845:ROD589845 RXM589845:RXZ589845 SHI589845:SHV589845 SRE589845:SRR589845 TBA589845:TBN589845 TKW589845:TLJ589845 TUS589845:TVF589845 UEO589845:UFB589845 UOK589845:UOX589845 UYG589845:UYT589845 VIC589845:VIP589845 VRY589845:VSL589845 WBU589845:WCH589845 WLQ589845:WMD589845 WVM589845:WVZ589845 E655381:R655381 JA655381:JN655381 SW655381:TJ655381 ACS655381:ADF655381 AMO655381:ANB655381 AWK655381:AWX655381 BGG655381:BGT655381 BQC655381:BQP655381 BZY655381:CAL655381 CJU655381:CKH655381 CTQ655381:CUD655381 DDM655381:DDZ655381 DNI655381:DNV655381 DXE655381:DXR655381 EHA655381:EHN655381 EQW655381:ERJ655381 FAS655381:FBF655381 FKO655381:FLB655381 FUK655381:FUX655381 GEG655381:GET655381 GOC655381:GOP655381 GXY655381:GYL655381 HHU655381:HIH655381 HRQ655381:HSD655381 IBM655381:IBZ655381 ILI655381:ILV655381 IVE655381:IVR655381 JFA655381:JFN655381 JOW655381:JPJ655381 JYS655381:JZF655381 KIO655381:KJB655381 KSK655381:KSX655381 LCG655381:LCT655381 LMC655381:LMP655381 LVY655381:LWL655381 MFU655381:MGH655381 MPQ655381:MQD655381 MZM655381:MZZ655381 NJI655381:NJV655381 NTE655381:NTR655381 ODA655381:ODN655381 OMW655381:ONJ655381 OWS655381:OXF655381 PGO655381:PHB655381 PQK655381:PQX655381 QAG655381:QAT655381 QKC655381:QKP655381 QTY655381:QUL655381 RDU655381:REH655381 RNQ655381:ROD655381 RXM655381:RXZ655381 SHI655381:SHV655381 SRE655381:SRR655381 TBA655381:TBN655381 TKW655381:TLJ655381 TUS655381:TVF655381 UEO655381:UFB655381 UOK655381:UOX655381 UYG655381:UYT655381 VIC655381:VIP655381 VRY655381:VSL655381 WBU655381:WCH655381 WLQ655381:WMD655381 WVM655381:WVZ655381 E720917:R720917 JA720917:JN720917 SW720917:TJ720917 ACS720917:ADF720917 AMO720917:ANB720917 AWK720917:AWX720917 BGG720917:BGT720917 BQC720917:BQP720917 BZY720917:CAL720917 CJU720917:CKH720917 CTQ720917:CUD720917 DDM720917:DDZ720917 DNI720917:DNV720917 DXE720917:DXR720917 EHA720917:EHN720917 EQW720917:ERJ720917 FAS720917:FBF720917 FKO720917:FLB720917 FUK720917:FUX720917 GEG720917:GET720917 GOC720917:GOP720917 GXY720917:GYL720917 HHU720917:HIH720917 HRQ720917:HSD720917 IBM720917:IBZ720917 ILI720917:ILV720917 IVE720917:IVR720917 JFA720917:JFN720917 JOW720917:JPJ720917 JYS720917:JZF720917 KIO720917:KJB720917 KSK720917:KSX720917 LCG720917:LCT720917 LMC720917:LMP720917 LVY720917:LWL720917 MFU720917:MGH720917 MPQ720917:MQD720917 MZM720917:MZZ720917 NJI720917:NJV720917 NTE720917:NTR720917 ODA720917:ODN720917 OMW720917:ONJ720917 OWS720917:OXF720917 PGO720917:PHB720917 PQK720917:PQX720917 QAG720917:QAT720917 QKC720917:QKP720917 QTY720917:QUL720917 RDU720917:REH720917 RNQ720917:ROD720917 RXM720917:RXZ720917 SHI720917:SHV720917 SRE720917:SRR720917 TBA720917:TBN720917 TKW720917:TLJ720917 TUS720917:TVF720917 UEO720917:UFB720917 UOK720917:UOX720917 UYG720917:UYT720917 VIC720917:VIP720917 VRY720917:VSL720917 WBU720917:WCH720917 WLQ720917:WMD720917 WVM720917:WVZ720917 E786453:R786453 JA786453:JN786453 SW786453:TJ786453 ACS786453:ADF786453 AMO786453:ANB786453 AWK786453:AWX786453 BGG786453:BGT786453 BQC786453:BQP786453 BZY786453:CAL786453 CJU786453:CKH786453 CTQ786453:CUD786453 DDM786453:DDZ786453 DNI786453:DNV786453 DXE786453:DXR786453 EHA786453:EHN786453 EQW786453:ERJ786453 FAS786453:FBF786453 FKO786453:FLB786453 FUK786453:FUX786453 GEG786453:GET786453 GOC786453:GOP786453 GXY786453:GYL786453 HHU786453:HIH786453 HRQ786453:HSD786453 IBM786453:IBZ786453 ILI786453:ILV786453 IVE786453:IVR786453 JFA786453:JFN786453 JOW786453:JPJ786453 JYS786453:JZF786453 KIO786453:KJB786453 KSK786453:KSX786453 LCG786453:LCT786453 LMC786453:LMP786453 LVY786453:LWL786453 MFU786453:MGH786453 MPQ786453:MQD786453 MZM786453:MZZ786453 NJI786453:NJV786453 NTE786453:NTR786453 ODA786453:ODN786453 OMW786453:ONJ786453 OWS786453:OXF786453 PGO786453:PHB786453 PQK786453:PQX786453 QAG786453:QAT786453 QKC786453:QKP786453 QTY786453:QUL786453 RDU786453:REH786453 RNQ786453:ROD786453 RXM786453:RXZ786453 SHI786453:SHV786453 SRE786453:SRR786453 TBA786453:TBN786453 TKW786453:TLJ786453 TUS786453:TVF786453 UEO786453:UFB786453 UOK786453:UOX786453 UYG786453:UYT786453 VIC786453:VIP786453 VRY786453:VSL786453 WBU786453:WCH786453 WLQ786453:WMD786453 WVM786453:WVZ786453 E851989:R851989 JA851989:JN851989 SW851989:TJ851989 ACS851989:ADF851989 AMO851989:ANB851989 AWK851989:AWX851989 BGG851989:BGT851989 BQC851989:BQP851989 BZY851989:CAL851989 CJU851989:CKH851989 CTQ851989:CUD851989 DDM851989:DDZ851989 DNI851989:DNV851989 DXE851989:DXR851989 EHA851989:EHN851989 EQW851989:ERJ851989 FAS851989:FBF851989 FKO851989:FLB851989 FUK851989:FUX851989 GEG851989:GET851989 GOC851989:GOP851989 GXY851989:GYL851989 HHU851989:HIH851989 HRQ851989:HSD851989 IBM851989:IBZ851989 ILI851989:ILV851989 IVE851989:IVR851989 JFA851989:JFN851989 JOW851989:JPJ851989 JYS851989:JZF851989 KIO851989:KJB851989 KSK851989:KSX851989 LCG851989:LCT851989 LMC851989:LMP851989 LVY851989:LWL851989 MFU851989:MGH851989 MPQ851989:MQD851989 MZM851989:MZZ851989 NJI851989:NJV851989 NTE851989:NTR851989 ODA851989:ODN851989 OMW851989:ONJ851989 OWS851989:OXF851989 PGO851989:PHB851989 PQK851989:PQX851989 QAG851989:QAT851989 QKC851989:QKP851989 QTY851989:QUL851989 RDU851989:REH851989 RNQ851989:ROD851989 RXM851989:RXZ851989 SHI851989:SHV851989 SRE851989:SRR851989 TBA851989:TBN851989 TKW851989:TLJ851989 TUS851989:TVF851989 UEO851989:UFB851989 UOK851989:UOX851989 UYG851989:UYT851989 VIC851989:VIP851989 VRY851989:VSL851989 WBU851989:WCH851989 WLQ851989:WMD851989 WVM851989:WVZ851989 E917525:R917525 JA917525:JN917525 SW917525:TJ917525 ACS917525:ADF917525 AMO917525:ANB917525 AWK917525:AWX917525 BGG917525:BGT917525 BQC917525:BQP917525 BZY917525:CAL917525 CJU917525:CKH917525 CTQ917525:CUD917525 DDM917525:DDZ917525 DNI917525:DNV917525 DXE917525:DXR917525 EHA917525:EHN917525 EQW917525:ERJ917525 FAS917525:FBF917525 FKO917525:FLB917525 FUK917525:FUX917525 GEG917525:GET917525 GOC917525:GOP917525 GXY917525:GYL917525 HHU917525:HIH917525 HRQ917525:HSD917525 IBM917525:IBZ917525 ILI917525:ILV917525 IVE917525:IVR917525 JFA917525:JFN917525 JOW917525:JPJ917525 JYS917525:JZF917525 KIO917525:KJB917525 KSK917525:KSX917525 LCG917525:LCT917525 LMC917525:LMP917525 LVY917525:LWL917525 MFU917525:MGH917525 MPQ917525:MQD917525 MZM917525:MZZ917525 NJI917525:NJV917525 NTE917525:NTR917525 ODA917525:ODN917525 OMW917525:ONJ917525 OWS917525:OXF917525 PGO917525:PHB917525 PQK917525:PQX917525 QAG917525:QAT917525 QKC917525:QKP917525 QTY917525:QUL917525 RDU917525:REH917525 RNQ917525:ROD917525 RXM917525:RXZ917525 SHI917525:SHV917525 SRE917525:SRR917525 TBA917525:TBN917525 TKW917525:TLJ917525 TUS917525:TVF917525 UEO917525:UFB917525 UOK917525:UOX917525 UYG917525:UYT917525 VIC917525:VIP917525 VRY917525:VSL917525 WBU917525:WCH917525 WLQ917525:WMD917525 WVM917525:WVZ917525 E983061:R983061 JA983061:JN983061 SW983061:TJ983061 ACS983061:ADF983061 AMO983061:ANB983061 AWK983061:AWX983061 BGG983061:BGT983061 BQC983061:BQP983061 BZY983061:CAL983061 CJU983061:CKH983061 CTQ983061:CUD983061 DDM983061:DDZ983061 DNI983061:DNV983061 DXE983061:DXR983061 EHA983061:EHN983061 EQW983061:ERJ983061 FAS983061:FBF983061 FKO983061:FLB983061 FUK983061:FUX983061 GEG983061:GET983061 GOC983061:GOP983061 GXY983061:GYL983061 HHU983061:HIH983061 HRQ983061:HSD983061 IBM983061:IBZ983061 ILI983061:ILV983061 IVE983061:IVR983061 JFA983061:JFN983061 JOW983061:JPJ983061 JYS983061:JZF983061 KIO983061:KJB983061 KSK983061:KSX983061 LCG983061:LCT983061 LMC983061:LMP983061 LVY983061:LWL983061 MFU983061:MGH983061 MPQ983061:MQD983061 MZM983061:MZZ983061 NJI983061:NJV983061 NTE983061:NTR983061 ODA983061:ODN983061 OMW983061:ONJ983061 OWS983061:OXF983061 PGO983061:PHB983061 PQK983061:PQX983061 QAG983061:QAT983061 QKC983061:QKP983061 QTY983061:QUL983061 RDU983061:REH983061 RNQ983061:ROD983061 RXM983061:RXZ983061 SHI983061:SHV983061 SRE983061:SRR983061 TBA983061:TBN983061 TKW983061:TLJ983061 TUS983061:TVF983061 UEO983061:UFB983061 UOK983061:UOX983061 UYG983061:UYT983061 VIC983061:VIP983061 VRY983061:VSL983061 WBU983061:WCH983061 WLQ983061:WMD983061 E21:R21">
+      <formula1>"P,F, "</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVM983060:WVZ983060 JA20:JN20 SW20:TJ20 ACS20:ADF20 AMO20:ANB20 AWK20:AWX20 BGG20:BGT20 BQC20:BQP20 BZY20:CAL20 CJU20:CKH20 CTQ20:CUD20 DDM20:DDZ20 DNI20:DNV20 DXE20:DXR20 EHA20:EHN20 EQW20:ERJ20 FAS20:FBF20 FKO20:FLB20 FUK20:FUX20 GEG20:GET20 GOC20:GOP20 GXY20:GYL20 HHU20:HIH20 HRQ20:HSD20 IBM20:IBZ20 ILI20:ILV20 IVE20:IVR20 JFA20:JFN20 JOW20:JPJ20 JYS20:JZF20 KIO20:KJB20 KSK20:KSX20 LCG20:LCT20 LMC20:LMP20 LVY20:LWL20 MFU20:MGH20 MPQ20:MQD20 MZM20:MZZ20 NJI20:NJV20 NTE20:NTR20 ODA20:ODN20 OMW20:ONJ20 OWS20:OXF20 PGO20:PHB20 PQK20:PQX20 QAG20:QAT20 QKC20:QKP20 QTY20:QUL20 RDU20:REH20 RNQ20:ROD20 RXM20:RXZ20 SHI20:SHV20 SRE20:SRR20 TBA20:TBN20 TKW20:TLJ20 TUS20:TVF20 UEO20:UFB20 UOK20:UOX20 UYG20:UYT20 VIC20:VIP20 VRY20:VSL20 WBU20:WCH20 WLQ20:WMD20 WVM20:WVZ20 E65556:R65556 JA65556:JN65556 SW65556:TJ65556 ACS65556:ADF65556 AMO65556:ANB65556 AWK65556:AWX65556 BGG65556:BGT65556 BQC65556:BQP65556 BZY65556:CAL65556 CJU65556:CKH65556 CTQ65556:CUD65556 DDM65556:DDZ65556 DNI65556:DNV65556 DXE65556:DXR65556 EHA65556:EHN65556 EQW65556:ERJ65556 FAS65556:FBF65556 FKO65556:FLB65556 FUK65556:FUX65556 GEG65556:GET65556 GOC65556:GOP65556 GXY65556:GYL65556 HHU65556:HIH65556 HRQ65556:HSD65556 IBM65556:IBZ65556 ILI65556:ILV65556 IVE65556:IVR65556 JFA65556:JFN65556 JOW65556:JPJ65556 JYS65556:JZF65556 KIO65556:KJB65556 KSK65556:KSX65556 LCG65556:LCT65556 LMC65556:LMP65556 LVY65556:LWL65556 MFU65556:MGH65556 MPQ65556:MQD65556 MZM65556:MZZ65556 NJI65556:NJV65556 NTE65556:NTR65556 ODA65556:ODN65556 OMW65556:ONJ65556 OWS65556:OXF65556 PGO65556:PHB65556 PQK65556:PQX65556 QAG65556:QAT65556 QKC65556:QKP65556 QTY65556:QUL65556 RDU65556:REH65556 RNQ65556:ROD65556 RXM65556:RXZ65556 SHI65556:SHV65556 SRE65556:SRR65556 TBA65556:TBN65556 TKW65556:TLJ65556 TUS65556:TVF65556 UEO65556:UFB65556 UOK65556:UOX65556 UYG65556:UYT65556 VIC65556:VIP65556 VRY65556:VSL65556 WBU65556:WCH65556 WLQ65556:WMD65556 WVM65556:WVZ65556 E131092:R131092 JA131092:JN131092 SW131092:TJ131092 ACS131092:ADF131092 AMO131092:ANB131092 AWK131092:AWX131092 BGG131092:BGT131092 BQC131092:BQP131092 BZY131092:CAL131092 CJU131092:CKH131092 CTQ131092:CUD131092 DDM131092:DDZ131092 DNI131092:DNV131092 DXE131092:DXR131092 EHA131092:EHN131092 EQW131092:ERJ131092 FAS131092:FBF131092 FKO131092:FLB131092 FUK131092:FUX131092 GEG131092:GET131092 GOC131092:GOP131092 GXY131092:GYL131092 HHU131092:HIH131092 HRQ131092:HSD131092 IBM131092:IBZ131092 ILI131092:ILV131092 IVE131092:IVR131092 JFA131092:JFN131092 JOW131092:JPJ131092 JYS131092:JZF131092 KIO131092:KJB131092 KSK131092:KSX131092 LCG131092:LCT131092 LMC131092:LMP131092 LVY131092:LWL131092 MFU131092:MGH131092 MPQ131092:MQD131092 MZM131092:MZZ131092 NJI131092:NJV131092 NTE131092:NTR131092 ODA131092:ODN131092 OMW131092:ONJ131092 OWS131092:OXF131092 PGO131092:PHB131092 PQK131092:PQX131092 QAG131092:QAT131092 QKC131092:QKP131092 QTY131092:QUL131092 RDU131092:REH131092 RNQ131092:ROD131092 RXM131092:RXZ131092 SHI131092:SHV131092 SRE131092:SRR131092 TBA131092:TBN131092 TKW131092:TLJ131092 TUS131092:TVF131092 UEO131092:UFB131092 UOK131092:UOX131092 UYG131092:UYT131092 VIC131092:VIP131092 VRY131092:VSL131092 WBU131092:WCH131092 WLQ131092:WMD131092 WVM131092:WVZ131092 E196628:R196628 JA196628:JN196628 SW196628:TJ196628 ACS196628:ADF196628 AMO196628:ANB196628 AWK196628:AWX196628 BGG196628:BGT196628 BQC196628:BQP196628 BZY196628:CAL196628 CJU196628:CKH196628 CTQ196628:CUD196628 DDM196628:DDZ196628 DNI196628:DNV196628 DXE196628:DXR196628 EHA196628:EHN196628 EQW196628:ERJ196628 FAS196628:FBF196628 FKO196628:FLB196628 FUK196628:FUX196628 GEG196628:GET196628 GOC196628:GOP196628 GXY196628:GYL196628 HHU196628:HIH196628 HRQ196628:HSD196628 IBM196628:IBZ196628 ILI196628:ILV196628 IVE196628:IVR196628 JFA196628:JFN196628 JOW196628:JPJ196628 JYS196628:JZF196628 KIO196628:KJB196628 KSK196628:KSX196628 LCG196628:LCT196628 LMC196628:LMP196628 LVY196628:LWL196628 MFU196628:MGH196628 MPQ196628:MQD196628 MZM196628:MZZ196628 NJI196628:NJV196628 NTE196628:NTR196628 ODA196628:ODN196628 OMW196628:ONJ196628 OWS196628:OXF196628 PGO196628:PHB196628 PQK196628:PQX196628 QAG196628:QAT196628 QKC196628:QKP196628 QTY196628:QUL196628 RDU196628:REH196628 RNQ196628:ROD196628 RXM196628:RXZ196628 SHI196628:SHV196628 SRE196628:SRR196628 TBA196628:TBN196628 TKW196628:TLJ196628 TUS196628:TVF196628 UEO196628:UFB196628 UOK196628:UOX196628 UYG196628:UYT196628 VIC196628:VIP196628 VRY196628:VSL196628 WBU196628:WCH196628 WLQ196628:WMD196628 WVM196628:WVZ196628 E262164:R262164 JA262164:JN262164 SW262164:TJ262164 ACS262164:ADF262164 AMO262164:ANB262164 AWK262164:AWX262164 BGG262164:BGT262164 BQC262164:BQP262164 BZY262164:CAL262164 CJU262164:CKH262164 CTQ262164:CUD262164 DDM262164:DDZ262164 DNI262164:DNV262164 DXE262164:DXR262164 EHA262164:EHN262164 EQW262164:ERJ262164 FAS262164:FBF262164 FKO262164:FLB262164 FUK262164:FUX262164 GEG262164:GET262164 GOC262164:GOP262164 GXY262164:GYL262164 HHU262164:HIH262164 HRQ262164:HSD262164 IBM262164:IBZ262164 ILI262164:ILV262164 IVE262164:IVR262164 JFA262164:JFN262164 JOW262164:JPJ262164 JYS262164:JZF262164 KIO262164:KJB262164 KSK262164:KSX262164 LCG262164:LCT262164 LMC262164:LMP262164 LVY262164:LWL262164 MFU262164:MGH262164 MPQ262164:MQD262164 MZM262164:MZZ262164 NJI262164:NJV262164 NTE262164:NTR262164 ODA262164:ODN262164 OMW262164:ONJ262164 OWS262164:OXF262164 PGO262164:PHB262164 PQK262164:PQX262164 QAG262164:QAT262164 QKC262164:QKP262164 QTY262164:QUL262164 RDU262164:REH262164 RNQ262164:ROD262164 RXM262164:RXZ262164 SHI262164:SHV262164 SRE262164:SRR262164 TBA262164:TBN262164 TKW262164:TLJ262164 TUS262164:TVF262164 UEO262164:UFB262164 UOK262164:UOX262164 UYG262164:UYT262164 VIC262164:VIP262164 VRY262164:VSL262164 WBU262164:WCH262164 WLQ262164:WMD262164 WVM262164:WVZ262164 E327700:R327700 JA327700:JN327700 SW327700:TJ327700 ACS327700:ADF327700 AMO327700:ANB327700 AWK327700:AWX327700 BGG327700:BGT327700 BQC327700:BQP327700 BZY327700:CAL327700 CJU327700:CKH327700 CTQ327700:CUD327700 DDM327700:DDZ327700 DNI327700:DNV327700 DXE327700:DXR327700 EHA327700:EHN327700 EQW327700:ERJ327700 FAS327700:FBF327700 FKO327700:FLB327700 FUK327700:FUX327700 GEG327700:GET327700 GOC327700:GOP327700 GXY327700:GYL327700 HHU327700:HIH327700 HRQ327700:HSD327700 IBM327700:IBZ327700 ILI327700:ILV327700 IVE327700:IVR327700 JFA327700:JFN327700 JOW327700:JPJ327700 JYS327700:JZF327700 KIO327700:KJB327700 KSK327700:KSX327700 LCG327700:LCT327700 LMC327700:LMP327700 LVY327700:LWL327700 MFU327700:MGH327700 MPQ327700:MQD327700 MZM327700:MZZ327700 NJI327700:NJV327700 NTE327700:NTR327700 ODA327700:ODN327700 OMW327700:ONJ327700 OWS327700:OXF327700 PGO327700:PHB327700 PQK327700:PQX327700 QAG327700:QAT327700 QKC327700:QKP327700 QTY327700:QUL327700 RDU327700:REH327700 RNQ327700:ROD327700 RXM327700:RXZ327700 SHI327700:SHV327700 SRE327700:SRR327700 TBA327700:TBN327700 TKW327700:TLJ327700 TUS327700:TVF327700 UEO327700:UFB327700 UOK327700:UOX327700 UYG327700:UYT327700 VIC327700:VIP327700 VRY327700:VSL327700 WBU327700:WCH327700 WLQ327700:WMD327700 WVM327700:WVZ327700 E393236:R393236 JA393236:JN393236 SW393236:TJ393236 ACS393236:ADF393236 AMO393236:ANB393236 AWK393236:AWX393236 BGG393236:BGT393236 BQC393236:BQP393236 BZY393236:CAL393236 CJU393236:CKH393236 CTQ393236:CUD393236 DDM393236:DDZ393236 DNI393236:DNV393236 DXE393236:DXR393236 EHA393236:EHN393236 EQW393236:ERJ393236 FAS393236:FBF393236 FKO393236:FLB393236 FUK393236:FUX393236 GEG393236:GET393236 GOC393236:GOP393236 GXY393236:GYL393236 HHU393236:HIH393236 HRQ393236:HSD393236 IBM393236:IBZ393236 ILI393236:ILV393236 IVE393236:IVR393236 JFA393236:JFN393236 JOW393236:JPJ393236 JYS393236:JZF393236 KIO393236:KJB393236 KSK393236:KSX393236 LCG393236:LCT393236 LMC393236:LMP393236 LVY393236:LWL393236 MFU393236:MGH393236 MPQ393236:MQD393236 MZM393236:MZZ393236 NJI393236:NJV393236 NTE393236:NTR393236 ODA393236:ODN393236 OMW393236:ONJ393236 OWS393236:OXF393236 PGO393236:PHB393236 PQK393236:PQX393236 QAG393236:QAT393236 QKC393236:QKP393236 QTY393236:QUL393236 RDU393236:REH393236 RNQ393236:ROD393236 RXM393236:RXZ393236 SHI393236:SHV393236 SRE393236:SRR393236 TBA393236:TBN393236 TKW393236:TLJ393236 TUS393236:TVF393236 UEO393236:UFB393236 UOK393236:UOX393236 UYG393236:UYT393236 VIC393236:VIP393236 VRY393236:VSL393236 WBU393236:WCH393236 WLQ393236:WMD393236 WVM393236:WVZ393236 E458772:R458772 JA458772:JN458772 SW458772:TJ458772 ACS458772:ADF458772 AMO458772:ANB458772 AWK458772:AWX458772 BGG458772:BGT458772 BQC458772:BQP458772 BZY458772:CAL458772 CJU458772:CKH458772 CTQ458772:CUD458772 DDM458772:DDZ458772 DNI458772:DNV458772 DXE458772:DXR458772 EHA458772:EHN458772 EQW458772:ERJ458772 FAS458772:FBF458772 FKO458772:FLB458772 FUK458772:FUX458772 GEG458772:GET458772 GOC458772:GOP458772 GXY458772:GYL458772 HHU458772:HIH458772 HRQ458772:HSD458772 IBM458772:IBZ458772 ILI458772:ILV458772 IVE458772:IVR458772 JFA458772:JFN458772 JOW458772:JPJ458772 JYS458772:JZF458772 KIO458772:KJB458772 KSK458772:KSX458772 LCG458772:LCT458772 LMC458772:LMP458772 LVY458772:LWL458772 MFU458772:MGH458772 MPQ458772:MQD458772 MZM458772:MZZ458772 NJI458772:NJV458772 NTE458772:NTR458772 ODA458772:ODN458772 OMW458772:ONJ458772 OWS458772:OXF458772 PGO458772:PHB458772 PQK458772:PQX458772 QAG458772:QAT458772 QKC458772:QKP458772 QTY458772:QUL458772 RDU458772:REH458772 RNQ458772:ROD458772 RXM458772:RXZ458772 SHI458772:SHV458772 SRE458772:SRR458772 TBA458772:TBN458772 TKW458772:TLJ458772 TUS458772:TVF458772 UEO458772:UFB458772 UOK458772:UOX458772 UYG458772:UYT458772 VIC458772:VIP458772 VRY458772:VSL458772 WBU458772:WCH458772 WLQ458772:WMD458772 WVM458772:WVZ458772 E524308:R524308 JA524308:JN524308 SW524308:TJ524308 ACS524308:ADF524308 AMO524308:ANB524308 AWK524308:AWX524308 BGG524308:BGT524308 BQC524308:BQP524308 BZY524308:CAL524308 CJU524308:CKH524308 CTQ524308:CUD524308 DDM524308:DDZ524308 DNI524308:DNV524308 DXE524308:DXR524308 EHA524308:EHN524308 EQW524308:ERJ524308 FAS524308:FBF524308 FKO524308:FLB524308 FUK524308:FUX524308 GEG524308:GET524308 GOC524308:GOP524308 GXY524308:GYL524308 HHU524308:HIH524308 HRQ524308:HSD524308 IBM524308:IBZ524308 ILI524308:ILV524308 IVE524308:IVR524308 JFA524308:JFN524308 JOW524308:JPJ524308 JYS524308:JZF524308 KIO524308:KJB524308 KSK524308:KSX524308 LCG524308:LCT524308 LMC524308:LMP524308 LVY524308:LWL524308 MFU524308:MGH524308 MPQ524308:MQD524308 MZM524308:MZZ524308 NJI524308:NJV524308 NTE524308:NTR524308 ODA524308:ODN524308 OMW524308:ONJ524308 OWS524308:OXF524308 PGO524308:PHB524308 PQK524308:PQX524308 QAG524308:QAT524308 QKC524308:QKP524308 QTY524308:QUL524308 RDU524308:REH524308 RNQ524308:ROD524308 RXM524308:RXZ524308 SHI524308:SHV524308 SRE524308:SRR524308 TBA524308:TBN524308 TKW524308:TLJ524308 TUS524308:TVF524308 UEO524308:UFB524308 UOK524308:UOX524308 UYG524308:UYT524308 VIC524308:VIP524308 VRY524308:VSL524308 WBU524308:WCH524308 WLQ524308:WMD524308 WVM524308:WVZ524308 E589844:R589844 JA589844:JN589844 SW589844:TJ589844 ACS589844:ADF589844 AMO589844:ANB589844 AWK589844:AWX589844 BGG589844:BGT589844 BQC589844:BQP589844 BZY589844:CAL589844 CJU589844:CKH589844 CTQ589844:CUD589844 DDM589844:DDZ589844 DNI589844:DNV589844 DXE589844:DXR589844 EHA589844:EHN589844 EQW589844:ERJ589844 FAS589844:FBF589844 FKO589844:FLB589844 FUK589844:FUX589844 GEG589844:GET589844 GOC589844:GOP589844 GXY589844:GYL589844 HHU589844:HIH589844 HRQ589844:HSD589844 IBM589844:IBZ589844 ILI589844:ILV589844 IVE589844:IVR589844 JFA589844:JFN589844 JOW589844:JPJ589844 JYS589844:JZF589844 KIO589844:KJB589844 KSK589844:KSX589844 LCG589844:LCT589844 LMC589844:LMP589844 LVY589844:LWL589844 MFU589844:MGH589844 MPQ589844:MQD589844 MZM589844:MZZ589844 NJI589844:NJV589844 NTE589844:NTR589844 ODA589844:ODN589844 OMW589844:ONJ589844 OWS589844:OXF589844 PGO589844:PHB589844 PQK589844:PQX589844 QAG589844:QAT589844 QKC589844:QKP589844 QTY589844:QUL589844 RDU589844:REH589844 RNQ589844:ROD589844 RXM589844:RXZ589844 SHI589844:SHV589844 SRE589844:SRR589844 TBA589844:TBN589844 TKW589844:TLJ589844 TUS589844:TVF589844 UEO589844:UFB589844 UOK589844:UOX589844 UYG589844:UYT589844 VIC589844:VIP589844 VRY589844:VSL589844 WBU589844:WCH589844 WLQ589844:WMD589844 WVM589844:WVZ589844 E655380:R655380 JA655380:JN655380 SW655380:TJ655380 ACS655380:ADF655380 AMO655380:ANB655380 AWK655380:AWX655380 BGG655380:BGT655380 BQC655380:BQP655380 BZY655380:CAL655380 CJU655380:CKH655380 CTQ655380:CUD655380 DDM655380:DDZ655380 DNI655380:DNV655380 DXE655380:DXR655380 EHA655380:EHN655380 EQW655380:ERJ655380 FAS655380:FBF655380 FKO655380:FLB655380 FUK655380:FUX655380 GEG655380:GET655380 GOC655380:GOP655380 GXY655380:GYL655380 HHU655380:HIH655380 HRQ655380:HSD655380 IBM655380:IBZ655380 ILI655380:ILV655380 IVE655380:IVR655380 JFA655380:JFN655380 JOW655380:JPJ655380 JYS655380:JZF655380 KIO655380:KJB655380 KSK655380:KSX655380 LCG655380:LCT655380 LMC655380:LMP655380 LVY655380:LWL655380 MFU655380:MGH655380 MPQ655380:MQD655380 MZM655380:MZZ655380 NJI655380:NJV655380 NTE655380:NTR655380 ODA655380:ODN655380 OMW655380:ONJ655380 OWS655380:OXF655380 PGO655380:PHB655380 PQK655380:PQX655380 QAG655380:QAT655380 QKC655380:QKP655380 QTY655380:QUL655380 RDU655380:REH655380 RNQ655380:ROD655380 RXM655380:RXZ655380 SHI655380:SHV655380 SRE655380:SRR655380 TBA655380:TBN655380 TKW655380:TLJ655380 TUS655380:TVF655380 UEO655380:UFB655380 UOK655380:UOX655380 UYG655380:UYT655380 VIC655380:VIP655380 VRY655380:VSL655380 WBU655380:WCH655380 WLQ655380:WMD655380 WVM655380:WVZ655380 E720916:R720916 JA720916:JN720916 SW720916:TJ720916 ACS720916:ADF720916 AMO720916:ANB720916 AWK720916:AWX720916 BGG720916:BGT720916 BQC720916:BQP720916 BZY720916:CAL720916 CJU720916:CKH720916 CTQ720916:CUD720916 DDM720916:DDZ720916 DNI720916:DNV720916 DXE720916:DXR720916 EHA720916:EHN720916 EQW720916:ERJ720916 FAS720916:FBF720916 FKO720916:FLB720916 FUK720916:FUX720916 GEG720916:GET720916 GOC720916:GOP720916 GXY720916:GYL720916 HHU720916:HIH720916 HRQ720916:HSD720916 IBM720916:IBZ720916 ILI720916:ILV720916 IVE720916:IVR720916 JFA720916:JFN720916 JOW720916:JPJ720916 JYS720916:JZF720916 KIO720916:KJB720916 KSK720916:KSX720916 LCG720916:LCT720916 LMC720916:LMP720916 LVY720916:LWL720916 MFU720916:MGH720916 MPQ720916:MQD720916 MZM720916:MZZ720916 NJI720916:NJV720916 NTE720916:NTR720916 ODA720916:ODN720916 OMW720916:ONJ720916 OWS720916:OXF720916 PGO720916:PHB720916 PQK720916:PQX720916 QAG720916:QAT720916 QKC720916:QKP720916 QTY720916:QUL720916 RDU720916:REH720916 RNQ720916:ROD720916 RXM720916:RXZ720916 SHI720916:SHV720916 SRE720916:SRR720916 TBA720916:TBN720916 TKW720916:TLJ720916 TUS720916:TVF720916 UEO720916:UFB720916 UOK720916:UOX720916 UYG720916:UYT720916 VIC720916:VIP720916 VRY720916:VSL720916 WBU720916:WCH720916 WLQ720916:WMD720916 WVM720916:WVZ720916 E786452:R786452 JA786452:JN786452 SW786452:TJ786452 ACS786452:ADF786452 AMO786452:ANB786452 AWK786452:AWX786452 BGG786452:BGT786452 BQC786452:BQP786452 BZY786452:CAL786452 CJU786452:CKH786452 CTQ786452:CUD786452 DDM786452:DDZ786452 DNI786452:DNV786452 DXE786452:DXR786452 EHA786452:EHN786452 EQW786452:ERJ786452 FAS786452:FBF786452 FKO786452:FLB786452 FUK786452:FUX786452 GEG786452:GET786452 GOC786452:GOP786452 GXY786452:GYL786452 HHU786452:HIH786452 HRQ786452:HSD786452 IBM786452:IBZ786452 ILI786452:ILV786452 IVE786452:IVR786452 JFA786452:JFN786452 JOW786452:JPJ786452 JYS786452:JZF786452 KIO786452:KJB786452 KSK786452:KSX786452 LCG786452:LCT786452 LMC786452:LMP786452 LVY786452:LWL786452 MFU786452:MGH786452 MPQ786452:MQD786452 MZM786452:MZZ786452 NJI786452:NJV786452 NTE786452:NTR786452 ODA786452:ODN786452 OMW786452:ONJ786452 OWS786452:OXF786452 PGO786452:PHB786452 PQK786452:PQX786452 QAG786452:QAT786452 QKC786452:QKP786452 QTY786452:QUL786452 RDU786452:REH786452 RNQ786452:ROD786452 RXM786452:RXZ786452 SHI786452:SHV786452 SRE786452:SRR786452 TBA786452:TBN786452 TKW786452:TLJ786452 TUS786452:TVF786452 UEO786452:UFB786452 UOK786452:UOX786452 UYG786452:UYT786452 VIC786452:VIP786452 VRY786452:VSL786452 WBU786452:WCH786452 WLQ786452:WMD786452 WVM786452:WVZ786452 E851988:R851988 JA851988:JN851988 SW851988:TJ851988 ACS851988:ADF851988 AMO851988:ANB851988 AWK851988:AWX851988 BGG851988:BGT851988 BQC851988:BQP851988 BZY851988:CAL851988 CJU851988:CKH851988 CTQ851988:CUD851988 DDM851988:DDZ851988 DNI851988:DNV851988 DXE851988:DXR851988 EHA851988:EHN851988 EQW851988:ERJ851988 FAS851988:FBF851988 FKO851988:FLB851988 FUK851988:FUX851988 GEG851988:GET851988 GOC851988:GOP851988 GXY851988:GYL851988 HHU851988:HIH851988 HRQ851988:HSD851988 IBM851988:IBZ851988 ILI851988:ILV851988 IVE851988:IVR851988 JFA851988:JFN851988 JOW851988:JPJ851988 JYS851988:JZF851988 KIO851988:KJB851988 KSK851988:KSX851988 LCG851988:LCT851988 LMC851988:LMP851988 LVY851988:LWL851988 MFU851988:MGH851988 MPQ851988:MQD851988 MZM851988:MZZ851988 NJI851988:NJV851988 NTE851988:NTR851988 ODA851988:ODN851988 OMW851988:ONJ851988 OWS851988:OXF851988 PGO851988:PHB851988 PQK851988:PQX851988 QAG851988:QAT851988 QKC851988:QKP851988 QTY851988:QUL851988 RDU851988:REH851988 RNQ851988:ROD851988 RXM851988:RXZ851988 SHI851988:SHV851988 SRE851988:SRR851988 TBA851988:TBN851988 TKW851988:TLJ851988 TUS851988:TVF851988 UEO851988:UFB851988 UOK851988:UOX851988 UYG851988:UYT851988 VIC851988:VIP851988 VRY851988:VSL851988 WBU851988:WCH851988 WLQ851988:WMD851988 WVM851988:WVZ851988 E917524:R917524 JA917524:JN917524 SW917524:TJ917524 ACS917524:ADF917524 AMO917524:ANB917524 AWK917524:AWX917524 BGG917524:BGT917524 BQC917524:BQP917524 BZY917524:CAL917524 CJU917524:CKH917524 CTQ917524:CUD917524 DDM917524:DDZ917524 DNI917524:DNV917524 DXE917524:DXR917524 EHA917524:EHN917524 EQW917524:ERJ917524 FAS917524:FBF917524 FKO917524:FLB917524 FUK917524:FUX917524 GEG917524:GET917524 GOC917524:GOP917524 GXY917524:GYL917524 HHU917524:HIH917524 HRQ917524:HSD917524 IBM917524:IBZ917524 ILI917524:ILV917524 IVE917524:IVR917524 JFA917524:JFN917524 JOW917524:JPJ917524 JYS917524:JZF917524 KIO917524:KJB917524 KSK917524:KSX917524 LCG917524:LCT917524 LMC917524:LMP917524 LVY917524:LWL917524 MFU917524:MGH917524 MPQ917524:MQD917524 MZM917524:MZZ917524 NJI917524:NJV917524 NTE917524:NTR917524 ODA917524:ODN917524 OMW917524:ONJ917524 OWS917524:OXF917524 PGO917524:PHB917524 PQK917524:PQX917524 QAG917524:QAT917524 QKC917524:QKP917524 QTY917524:QUL917524 RDU917524:REH917524 RNQ917524:ROD917524 RXM917524:RXZ917524 SHI917524:SHV917524 SRE917524:SRR917524 TBA917524:TBN917524 TKW917524:TLJ917524 TUS917524:TVF917524 UEO917524:UFB917524 UOK917524:UOX917524 UYG917524:UYT917524 VIC917524:VIP917524 VRY917524:VSL917524 WBU917524:WCH917524 WLQ917524:WMD917524 WVM917524:WVZ917524 E983060:R983060 JA983060:JN983060 SW983060:TJ983060 ACS983060:ADF983060 AMO983060:ANB983060 AWK983060:AWX983060 BGG983060:BGT983060 BQC983060:BQP983060 BZY983060:CAL983060 CJU983060:CKH983060 CTQ983060:CUD983060 DDM983060:DDZ983060 DNI983060:DNV983060 DXE983060:DXR983060 EHA983060:EHN983060 EQW983060:ERJ983060 FAS983060:FBF983060 FKO983060:FLB983060 FUK983060:FUX983060 GEG983060:GET983060 GOC983060:GOP983060 GXY983060:GYL983060 HHU983060:HIH983060 HRQ983060:HSD983060 IBM983060:IBZ983060 ILI983060:ILV983060 IVE983060:IVR983060 JFA983060:JFN983060 JOW983060:JPJ983060 JYS983060:JZF983060 KIO983060:KJB983060 KSK983060:KSX983060 LCG983060:LCT983060 LMC983060:LMP983060 LVY983060:LWL983060 MFU983060:MGH983060 MPQ983060:MQD983060 MZM983060:MZZ983060 NJI983060:NJV983060 NTE983060:NTR983060 ODA983060:ODN983060 OMW983060:ONJ983060 OWS983060:OXF983060 PGO983060:PHB983060 PQK983060:PQX983060 QAG983060:QAT983060 QKC983060:QKP983060 QTY983060:QUL983060 RDU983060:REH983060 RNQ983060:ROD983060 RXM983060:RXZ983060 SHI983060:SHV983060 SRE983060:SRR983060 TBA983060:TBN983060 TKW983060:TLJ983060 TUS983060:TVF983060 UEO983060:UFB983060 UOK983060:UOX983060 UYG983060:UYT983060 VIC983060:VIP983060 VRY983060:VSL983060 WBU983060:WCH983060 WLQ983060:WMD983060 E20:R20">
+      <formula1>"N,A,B, "</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:K10 JA9:JC10 SW9:SY10 ACS9:ACU10 AMO9:AMQ10 AWK9:AWM10 BGG9:BGI10 BQC9:BQE10 BZY9:CAA10 CJU9:CJW10 CTQ9:CTS10 DDM9:DDO10 DNI9:DNK10 DXE9:DXG10 EHA9:EHC10 EQW9:EQY10 FAS9:FAU10 FKO9:FKQ10 FUK9:FUM10 GEG9:GEI10 GOC9:GOE10 GXY9:GYA10 HHU9:HHW10 HRQ9:HRS10 IBM9:IBO10 ILI9:ILK10 IVE9:IVG10 JFA9:JFC10 JOW9:JOY10 JYS9:JYU10 KIO9:KIQ10 KSK9:KSM10 LCG9:LCI10 LMC9:LME10 LVY9:LWA10 MFU9:MFW10 MPQ9:MPS10 MZM9:MZO10 NJI9:NJK10 NTE9:NTG10 ODA9:ODC10 OMW9:OMY10 OWS9:OWU10 PGO9:PGQ10 PQK9:PQM10 QAG9:QAI10 QKC9:QKE10 QTY9:QUA10 RDU9:RDW10 RNQ9:RNS10 RXM9:RXO10 SHI9:SHK10 SRE9:SRG10 TBA9:TBC10 TKW9:TKY10 TUS9:TUU10 UEO9:UEQ10 UOK9:UOM10 UYG9:UYI10 VIC9:VIE10 VRY9:VSA10 WBU9:WBW10 WLQ9:WLS10 WVM9:WVO10 E65544:G65545 JA65544:JC65545 SW65544:SY65545 ACS65544:ACU65545 AMO65544:AMQ65545 AWK65544:AWM65545 BGG65544:BGI65545 BQC65544:BQE65545 BZY65544:CAA65545 CJU65544:CJW65545 CTQ65544:CTS65545 DDM65544:DDO65545 DNI65544:DNK65545 DXE65544:DXG65545 EHA65544:EHC65545 EQW65544:EQY65545 FAS65544:FAU65545 FKO65544:FKQ65545 FUK65544:FUM65545 GEG65544:GEI65545 GOC65544:GOE65545 GXY65544:GYA65545 HHU65544:HHW65545 HRQ65544:HRS65545 IBM65544:IBO65545 ILI65544:ILK65545 IVE65544:IVG65545 JFA65544:JFC65545 JOW65544:JOY65545 JYS65544:JYU65545 KIO65544:KIQ65545 KSK65544:KSM65545 LCG65544:LCI65545 LMC65544:LME65545 LVY65544:LWA65545 MFU65544:MFW65545 MPQ65544:MPS65545 MZM65544:MZO65545 NJI65544:NJK65545 NTE65544:NTG65545 ODA65544:ODC65545 OMW65544:OMY65545 OWS65544:OWU65545 PGO65544:PGQ65545 PQK65544:PQM65545 QAG65544:QAI65545 QKC65544:QKE65545 QTY65544:QUA65545 RDU65544:RDW65545 RNQ65544:RNS65545 RXM65544:RXO65545 SHI65544:SHK65545 SRE65544:SRG65545 TBA65544:TBC65545 TKW65544:TKY65545 TUS65544:TUU65545 UEO65544:UEQ65545 UOK65544:UOM65545 UYG65544:UYI65545 VIC65544:VIE65545 VRY65544:VSA65545 WBU65544:WBW65545 WLQ65544:WLS65545 WVM65544:WVO65545 E131080:G131081 JA131080:JC131081 SW131080:SY131081 ACS131080:ACU131081 AMO131080:AMQ131081 AWK131080:AWM131081 BGG131080:BGI131081 BQC131080:BQE131081 BZY131080:CAA131081 CJU131080:CJW131081 CTQ131080:CTS131081 DDM131080:DDO131081 DNI131080:DNK131081 DXE131080:DXG131081 EHA131080:EHC131081 EQW131080:EQY131081 FAS131080:FAU131081 FKO131080:FKQ131081 FUK131080:FUM131081 GEG131080:GEI131081 GOC131080:GOE131081 GXY131080:GYA131081 HHU131080:HHW131081 HRQ131080:HRS131081 IBM131080:IBO131081 ILI131080:ILK131081 IVE131080:IVG131081 JFA131080:JFC131081 JOW131080:JOY131081 JYS131080:JYU131081 KIO131080:KIQ131081 KSK131080:KSM131081 LCG131080:LCI131081 LMC131080:LME131081 LVY131080:LWA131081 MFU131080:MFW131081 MPQ131080:MPS131081 MZM131080:MZO131081 NJI131080:NJK131081 NTE131080:NTG131081 ODA131080:ODC131081 OMW131080:OMY131081 OWS131080:OWU131081 PGO131080:PGQ131081 PQK131080:PQM131081 QAG131080:QAI131081 QKC131080:QKE131081 QTY131080:QUA131081 RDU131080:RDW131081 RNQ131080:RNS131081 RXM131080:RXO131081 SHI131080:SHK131081 SRE131080:SRG131081 TBA131080:TBC131081 TKW131080:TKY131081 TUS131080:TUU131081 UEO131080:UEQ131081 UOK131080:UOM131081 UYG131080:UYI131081 VIC131080:VIE131081 VRY131080:VSA131081 WBU131080:WBW131081 WLQ131080:WLS131081 WVM131080:WVO131081 E196616:G196617 JA196616:JC196617 SW196616:SY196617 ACS196616:ACU196617 AMO196616:AMQ196617 AWK196616:AWM196617 BGG196616:BGI196617 BQC196616:BQE196617 BZY196616:CAA196617 CJU196616:CJW196617 CTQ196616:CTS196617 DDM196616:DDO196617 DNI196616:DNK196617 DXE196616:DXG196617 EHA196616:EHC196617 EQW196616:EQY196617 FAS196616:FAU196617 FKO196616:FKQ196617 FUK196616:FUM196617 GEG196616:GEI196617 GOC196616:GOE196617 GXY196616:GYA196617 HHU196616:HHW196617 HRQ196616:HRS196617 IBM196616:IBO196617 ILI196616:ILK196617 IVE196616:IVG196617 JFA196616:JFC196617 JOW196616:JOY196617 JYS196616:JYU196617 KIO196616:KIQ196617 KSK196616:KSM196617 LCG196616:LCI196617 LMC196616:LME196617 LVY196616:LWA196617 MFU196616:MFW196617 MPQ196616:MPS196617 MZM196616:MZO196617 NJI196616:NJK196617 NTE196616:NTG196617 ODA196616:ODC196617 OMW196616:OMY196617 OWS196616:OWU196617 PGO196616:PGQ196617 PQK196616:PQM196617 QAG196616:QAI196617 QKC196616:QKE196617 QTY196616:QUA196617 RDU196616:RDW196617 RNQ196616:RNS196617 RXM196616:RXO196617 SHI196616:SHK196617 SRE196616:SRG196617 TBA196616:TBC196617 TKW196616:TKY196617 TUS196616:TUU196617 UEO196616:UEQ196617 UOK196616:UOM196617 UYG196616:UYI196617 VIC196616:VIE196617 VRY196616:VSA196617 WBU196616:WBW196617 WLQ196616:WLS196617 WVM196616:WVO196617 E262152:G262153 JA262152:JC262153 SW262152:SY262153 ACS262152:ACU262153 AMO262152:AMQ262153 AWK262152:AWM262153 BGG262152:BGI262153 BQC262152:BQE262153 BZY262152:CAA262153 CJU262152:CJW262153 CTQ262152:CTS262153 DDM262152:DDO262153 DNI262152:DNK262153 DXE262152:DXG262153 EHA262152:EHC262153 EQW262152:EQY262153 FAS262152:FAU262153 FKO262152:FKQ262153 FUK262152:FUM262153 GEG262152:GEI262153 GOC262152:GOE262153 GXY262152:GYA262153 HHU262152:HHW262153 HRQ262152:HRS262153 IBM262152:IBO262153 ILI262152:ILK262153 IVE262152:IVG262153 JFA262152:JFC262153 JOW262152:JOY262153 JYS262152:JYU262153 KIO262152:KIQ262153 KSK262152:KSM262153 LCG262152:LCI262153 LMC262152:LME262153 LVY262152:LWA262153 MFU262152:MFW262153 MPQ262152:MPS262153 MZM262152:MZO262153 NJI262152:NJK262153 NTE262152:NTG262153 ODA262152:ODC262153 OMW262152:OMY262153 OWS262152:OWU262153 PGO262152:PGQ262153 PQK262152:PQM262153 QAG262152:QAI262153 QKC262152:QKE262153 QTY262152:QUA262153 RDU262152:RDW262153 RNQ262152:RNS262153 RXM262152:RXO262153 SHI262152:SHK262153 SRE262152:SRG262153 TBA262152:TBC262153 TKW262152:TKY262153 TUS262152:TUU262153 UEO262152:UEQ262153 UOK262152:UOM262153 UYG262152:UYI262153 VIC262152:VIE262153 VRY262152:VSA262153 WBU262152:WBW262153 WLQ262152:WLS262153 WVM262152:WVO262153 E327688:G327689 JA327688:JC327689 SW327688:SY327689 ACS327688:ACU327689 AMO327688:AMQ327689 AWK327688:AWM327689 BGG327688:BGI327689 BQC327688:BQE327689 BZY327688:CAA327689 CJU327688:CJW327689 CTQ327688:CTS327689 DDM327688:DDO327689 DNI327688:DNK327689 DXE327688:DXG327689 EHA327688:EHC327689 EQW327688:EQY327689 FAS327688:FAU327689 FKO327688:FKQ327689 FUK327688:FUM327689 GEG327688:GEI327689 GOC327688:GOE327689 GXY327688:GYA327689 HHU327688:HHW327689 HRQ327688:HRS327689 IBM327688:IBO327689 ILI327688:ILK327689 IVE327688:IVG327689 JFA327688:JFC327689 JOW327688:JOY327689 JYS327688:JYU327689 KIO327688:KIQ327689 KSK327688:KSM327689 LCG327688:LCI327689 LMC327688:LME327689 LVY327688:LWA327689 MFU327688:MFW327689 MPQ327688:MPS327689 MZM327688:MZO327689 NJI327688:NJK327689 NTE327688:NTG327689 ODA327688:ODC327689 OMW327688:OMY327689 OWS327688:OWU327689 PGO327688:PGQ327689 PQK327688:PQM327689 QAG327688:QAI327689 QKC327688:QKE327689 QTY327688:QUA327689 RDU327688:RDW327689 RNQ327688:RNS327689 RXM327688:RXO327689 SHI327688:SHK327689 SRE327688:SRG327689 TBA327688:TBC327689 TKW327688:TKY327689 TUS327688:TUU327689 UEO327688:UEQ327689 UOK327688:UOM327689 UYG327688:UYI327689 VIC327688:VIE327689 VRY327688:VSA327689 WBU327688:WBW327689 WLQ327688:WLS327689 WVM327688:WVO327689 E393224:G393225 JA393224:JC393225 SW393224:SY393225 ACS393224:ACU393225 AMO393224:AMQ393225 AWK393224:AWM393225 BGG393224:BGI393225 BQC393224:BQE393225 BZY393224:CAA393225 CJU393224:CJW393225 CTQ393224:CTS393225 DDM393224:DDO393225 DNI393224:DNK393225 DXE393224:DXG393225 EHA393224:EHC393225 EQW393224:EQY393225 FAS393224:FAU393225 FKO393224:FKQ393225 FUK393224:FUM393225 GEG393224:GEI393225 GOC393224:GOE393225 GXY393224:GYA393225 HHU393224:HHW393225 HRQ393224:HRS393225 IBM393224:IBO393225 ILI393224:ILK393225 IVE393224:IVG393225 JFA393224:JFC393225 JOW393224:JOY393225 JYS393224:JYU393225 KIO393224:KIQ393225 KSK393224:KSM393225 LCG393224:LCI393225 LMC393224:LME393225 LVY393224:LWA393225 MFU393224:MFW393225 MPQ393224:MPS393225 MZM393224:MZO393225 NJI393224:NJK393225 NTE393224:NTG393225 ODA393224:ODC393225 OMW393224:OMY393225 OWS393224:OWU393225 PGO393224:PGQ393225 PQK393224:PQM393225 QAG393224:QAI393225 QKC393224:QKE393225 QTY393224:QUA393225 RDU393224:RDW393225 RNQ393224:RNS393225 RXM393224:RXO393225 SHI393224:SHK393225 SRE393224:SRG393225 TBA393224:TBC393225 TKW393224:TKY393225 TUS393224:TUU393225 UEO393224:UEQ393225 UOK393224:UOM393225 UYG393224:UYI393225 VIC393224:VIE393225 VRY393224:VSA393225 WBU393224:WBW393225 WLQ393224:WLS393225 WVM393224:WVO393225 E458760:G458761 JA458760:JC458761 SW458760:SY458761 ACS458760:ACU458761 AMO458760:AMQ458761 AWK458760:AWM458761 BGG458760:BGI458761 BQC458760:BQE458761 BZY458760:CAA458761 CJU458760:CJW458761 CTQ458760:CTS458761 DDM458760:DDO458761 DNI458760:DNK458761 DXE458760:DXG458761 EHA458760:EHC458761 EQW458760:EQY458761 FAS458760:FAU458761 FKO458760:FKQ458761 FUK458760:FUM458761 GEG458760:GEI458761 GOC458760:GOE458761 GXY458760:GYA458761 HHU458760:HHW458761 HRQ458760:HRS458761 IBM458760:IBO458761 ILI458760:ILK458761 IVE458760:IVG458761 JFA458760:JFC458761 JOW458760:JOY458761 JYS458760:JYU458761 KIO458760:KIQ458761 KSK458760:KSM458761 LCG458760:LCI458761 LMC458760:LME458761 LVY458760:LWA458761 MFU458760:MFW458761 MPQ458760:MPS458761 MZM458760:MZO458761 NJI458760:NJK458761 NTE458760:NTG458761 ODA458760:ODC458761 OMW458760:OMY458761 OWS458760:OWU458761 PGO458760:PGQ458761 PQK458760:PQM458761 QAG458760:QAI458761 QKC458760:QKE458761 QTY458760:QUA458761 RDU458760:RDW458761 RNQ458760:RNS458761 RXM458760:RXO458761 SHI458760:SHK458761 SRE458760:SRG458761 TBA458760:TBC458761 TKW458760:TKY458761 TUS458760:TUU458761 UEO458760:UEQ458761 UOK458760:UOM458761 UYG458760:UYI458761 VIC458760:VIE458761 VRY458760:VSA458761 WBU458760:WBW458761 WLQ458760:WLS458761 WVM458760:WVO458761 E524296:G524297 JA524296:JC524297 SW524296:SY524297 ACS524296:ACU524297 AMO524296:AMQ524297 AWK524296:AWM524297 BGG524296:BGI524297 BQC524296:BQE524297 BZY524296:CAA524297 CJU524296:CJW524297 CTQ524296:CTS524297 DDM524296:DDO524297 DNI524296:DNK524297 DXE524296:DXG524297 EHA524296:EHC524297 EQW524296:EQY524297 FAS524296:FAU524297 FKO524296:FKQ524297 FUK524296:FUM524297 GEG524296:GEI524297 GOC524296:GOE524297 GXY524296:GYA524297 HHU524296:HHW524297 HRQ524296:HRS524297 IBM524296:IBO524297 ILI524296:ILK524297 IVE524296:IVG524297 JFA524296:JFC524297 JOW524296:JOY524297 JYS524296:JYU524297 KIO524296:KIQ524297 KSK524296:KSM524297 LCG524296:LCI524297 LMC524296:LME524297 LVY524296:LWA524297 MFU524296:MFW524297 MPQ524296:MPS524297 MZM524296:MZO524297 NJI524296:NJK524297 NTE524296:NTG524297 ODA524296:ODC524297 OMW524296:OMY524297 OWS524296:OWU524297 PGO524296:PGQ524297 PQK524296:PQM524297 QAG524296:QAI524297 QKC524296:QKE524297 QTY524296:QUA524297 RDU524296:RDW524297 RNQ524296:RNS524297 RXM524296:RXO524297 SHI524296:SHK524297 SRE524296:SRG524297 TBA524296:TBC524297 TKW524296:TKY524297 TUS524296:TUU524297 UEO524296:UEQ524297 UOK524296:UOM524297 UYG524296:UYI524297 VIC524296:VIE524297 VRY524296:VSA524297 WBU524296:WBW524297 WLQ524296:WLS524297 WVM524296:WVO524297 E589832:G589833 JA589832:JC589833 SW589832:SY589833 ACS589832:ACU589833 AMO589832:AMQ589833 AWK589832:AWM589833 BGG589832:BGI589833 BQC589832:BQE589833 BZY589832:CAA589833 CJU589832:CJW589833 CTQ589832:CTS589833 DDM589832:DDO589833 DNI589832:DNK589833 DXE589832:DXG589833 EHA589832:EHC589833 EQW589832:EQY589833 FAS589832:FAU589833 FKO589832:FKQ589833 FUK589832:FUM589833 GEG589832:GEI589833 GOC589832:GOE589833 GXY589832:GYA589833 HHU589832:HHW589833 HRQ589832:HRS589833 IBM589832:IBO589833 ILI589832:ILK589833 IVE589832:IVG589833 JFA589832:JFC589833 JOW589832:JOY589833 JYS589832:JYU589833 KIO589832:KIQ589833 KSK589832:KSM589833 LCG589832:LCI589833 LMC589832:LME589833 LVY589832:LWA589833 MFU589832:MFW589833 MPQ589832:MPS589833 MZM589832:MZO589833 NJI589832:NJK589833 NTE589832:NTG589833 ODA589832:ODC589833 OMW589832:OMY589833 OWS589832:OWU589833 PGO589832:PGQ589833 PQK589832:PQM589833 QAG589832:QAI589833 QKC589832:QKE589833 QTY589832:QUA589833 RDU589832:RDW589833 RNQ589832:RNS589833 RXM589832:RXO589833 SHI589832:SHK589833 SRE589832:SRG589833 TBA589832:TBC589833 TKW589832:TKY589833 TUS589832:TUU589833 UEO589832:UEQ589833 UOK589832:UOM589833 UYG589832:UYI589833 VIC589832:VIE589833 VRY589832:VSA589833 WBU589832:WBW589833 WLQ589832:WLS589833 WVM589832:WVO589833 E655368:G655369 JA655368:JC655369 SW655368:SY655369 ACS655368:ACU655369 AMO655368:AMQ655369 AWK655368:AWM655369 BGG655368:BGI655369 BQC655368:BQE655369 BZY655368:CAA655369 CJU655368:CJW655369 CTQ655368:CTS655369 DDM655368:DDO655369 DNI655368:DNK655369 DXE655368:DXG655369 EHA655368:EHC655369 EQW655368:EQY655369 FAS655368:FAU655369 FKO655368:FKQ655369 FUK655368:FUM655369 GEG655368:GEI655369 GOC655368:GOE655369 GXY655368:GYA655369 HHU655368:HHW655369 HRQ655368:HRS655369 IBM655368:IBO655369 ILI655368:ILK655369 IVE655368:IVG655369 JFA655368:JFC655369 JOW655368:JOY655369 JYS655368:JYU655369 KIO655368:KIQ655369 KSK655368:KSM655369 LCG655368:LCI655369 LMC655368:LME655369 LVY655368:LWA655369 MFU655368:MFW655369 MPQ655368:MPS655369 MZM655368:MZO655369 NJI655368:NJK655369 NTE655368:NTG655369 ODA655368:ODC655369 OMW655368:OMY655369 OWS655368:OWU655369 PGO655368:PGQ655369 PQK655368:PQM655369 QAG655368:QAI655369 QKC655368:QKE655369 QTY655368:QUA655369 RDU655368:RDW655369 RNQ655368:RNS655369 RXM655368:RXO655369 SHI655368:SHK655369 SRE655368:SRG655369 TBA655368:TBC655369 TKW655368:TKY655369 TUS655368:TUU655369 UEO655368:UEQ655369 UOK655368:UOM655369 UYG655368:UYI655369 VIC655368:VIE655369 VRY655368:VSA655369 WBU655368:WBW655369 WLQ655368:WLS655369 WVM655368:WVO655369 E720904:G720905 JA720904:JC720905 SW720904:SY720905 ACS720904:ACU720905 AMO720904:AMQ720905 AWK720904:AWM720905 BGG720904:BGI720905 BQC720904:BQE720905 BZY720904:CAA720905 CJU720904:CJW720905 CTQ720904:CTS720905 DDM720904:DDO720905 DNI720904:DNK720905 DXE720904:DXG720905 EHA720904:EHC720905 EQW720904:EQY720905 FAS720904:FAU720905 FKO720904:FKQ720905 FUK720904:FUM720905 GEG720904:GEI720905 GOC720904:GOE720905 GXY720904:GYA720905 HHU720904:HHW720905 HRQ720904:HRS720905 IBM720904:IBO720905 ILI720904:ILK720905 IVE720904:IVG720905 JFA720904:JFC720905 JOW720904:JOY720905 JYS720904:JYU720905 KIO720904:KIQ720905 KSK720904:KSM720905 LCG720904:LCI720905 LMC720904:LME720905 LVY720904:LWA720905 MFU720904:MFW720905 MPQ720904:MPS720905 MZM720904:MZO720905 NJI720904:NJK720905 NTE720904:NTG720905 ODA720904:ODC720905 OMW720904:OMY720905 OWS720904:OWU720905 PGO720904:PGQ720905 PQK720904:PQM720905 QAG720904:QAI720905 QKC720904:QKE720905 QTY720904:QUA720905 RDU720904:RDW720905 RNQ720904:RNS720905 RXM720904:RXO720905 SHI720904:SHK720905 SRE720904:SRG720905 TBA720904:TBC720905 TKW720904:TKY720905 TUS720904:TUU720905 UEO720904:UEQ720905 UOK720904:UOM720905 UYG720904:UYI720905 VIC720904:VIE720905 VRY720904:VSA720905 WBU720904:WBW720905 WLQ720904:WLS720905 WVM720904:WVO720905 E786440:G786441 JA786440:JC786441 SW786440:SY786441 ACS786440:ACU786441 AMO786440:AMQ786441 AWK786440:AWM786441 BGG786440:BGI786441 BQC786440:BQE786441 BZY786440:CAA786441 CJU786440:CJW786441 CTQ786440:CTS786441 DDM786440:DDO786441 DNI786440:DNK786441 DXE786440:DXG786441 EHA786440:EHC786441 EQW786440:EQY786441 FAS786440:FAU786441 FKO786440:FKQ786441 FUK786440:FUM786441 GEG786440:GEI786441 GOC786440:GOE786441 GXY786440:GYA786441 HHU786440:HHW786441 HRQ786440:HRS786441 IBM786440:IBO786441 ILI786440:ILK786441 IVE786440:IVG786441 JFA786440:JFC786441 JOW786440:JOY786441 JYS786440:JYU786441 KIO786440:KIQ786441 KSK786440:KSM786441 LCG786440:LCI786441 LMC786440:LME786441 LVY786440:LWA786441 MFU786440:MFW786441 MPQ786440:MPS786441 MZM786440:MZO786441 NJI786440:NJK786441 NTE786440:NTG786441 ODA786440:ODC786441 OMW786440:OMY786441 OWS786440:OWU786441 PGO786440:PGQ786441 PQK786440:PQM786441 QAG786440:QAI786441 QKC786440:QKE786441 QTY786440:QUA786441 RDU786440:RDW786441 RNQ786440:RNS786441 RXM786440:RXO786441 SHI786440:SHK786441 SRE786440:SRG786441 TBA786440:TBC786441 TKW786440:TKY786441 TUS786440:TUU786441 UEO786440:UEQ786441 UOK786440:UOM786441 UYG786440:UYI786441 VIC786440:VIE786441 VRY786440:VSA786441 WBU786440:WBW786441 WLQ786440:WLS786441 WVM786440:WVO786441 E851976:G851977 JA851976:JC851977 SW851976:SY851977 ACS851976:ACU851977 AMO851976:AMQ851977 AWK851976:AWM851977 BGG851976:BGI851977 BQC851976:BQE851977 BZY851976:CAA851977 CJU851976:CJW851977 CTQ851976:CTS851977 DDM851976:DDO851977 DNI851976:DNK851977 DXE851976:DXG851977 EHA851976:EHC851977 EQW851976:EQY851977 FAS851976:FAU851977 FKO851976:FKQ851977 FUK851976:FUM851977 GEG851976:GEI851977 GOC851976:GOE851977 GXY851976:GYA851977 HHU851976:HHW851977 HRQ851976:HRS851977 IBM851976:IBO851977 ILI851976:ILK851977 IVE851976:IVG851977 JFA851976:JFC851977 JOW851976:JOY851977 JYS851976:JYU851977 KIO851976:KIQ851977 KSK851976:KSM851977 LCG851976:LCI851977 LMC851976:LME851977 LVY851976:LWA851977 MFU851976:MFW851977 MPQ851976:MPS851977 MZM851976:MZO851977 NJI851976:NJK851977 NTE851976:NTG851977 ODA851976:ODC851977 OMW851976:OMY851977 OWS851976:OWU851977 PGO851976:PGQ851977 PQK851976:PQM851977 QAG851976:QAI851977 QKC851976:QKE851977 QTY851976:QUA851977 RDU851976:RDW851977 RNQ851976:RNS851977 RXM851976:RXO851977 SHI851976:SHK851977 SRE851976:SRG851977 TBA851976:TBC851977 TKW851976:TKY851977 TUS851976:TUU851977 UEO851976:UEQ851977 UOK851976:UOM851977 UYG851976:UYI851977 VIC851976:VIE851977 VRY851976:VSA851977 WBU851976:WBW851977 WLQ851976:WLS851977 WVM851976:WVO851977 E917512:G917513 JA917512:JC917513 SW917512:SY917513 ACS917512:ACU917513 AMO917512:AMQ917513 AWK917512:AWM917513 BGG917512:BGI917513 BQC917512:BQE917513 BZY917512:CAA917513 CJU917512:CJW917513 CTQ917512:CTS917513 DDM917512:DDO917513 DNI917512:DNK917513 DXE917512:DXG917513 EHA917512:EHC917513 EQW917512:EQY917513 FAS917512:FAU917513 FKO917512:FKQ917513 FUK917512:FUM917513 GEG917512:GEI917513 GOC917512:GOE917513 GXY917512:GYA917513 HHU917512:HHW917513 HRQ917512:HRS917513 IBM917512:IBO917513 ILI917512:ILK917513 IVE917512:IVG917513 JFA917512:JFC917513 JOW917512:JOY917513 JYS917512:JYU917513 KIO917512:KIQ917513 KSK917512:KSM917513 LCG917512:LCI917513 LMC917512:LME917513 LVY917512:LWA917513 MFU917512:MFW917513 MPQ917512:MPS917513 MZM917512:MZO917513 NJI917512:NJK917513 NTE917512:NTG917513 ODA917512:ODC917513 OMW917512:OMY917513 OWS917512:OWU917513 PGO917512:PGQ917513 PQK917512:PQM917513 QAG917512:QAI917513 QKC917512:QKE917513 QTY917512:QUA917513 RDU917512:RDW917513 RNQ917512:RNS917513 RXM917512:RXO917513 SHI917512:SHK917513 SRE917512:SRG917513 TBA917512:TBC917513 TKW917512:TKY917513 TUS917512:TUU917513 UEO917512:UEQ917513 UOK917512:UOM917513 UYG917512:UYI917513 VIC917512:VIE917513 VRY917512:VSA917513 WBU917512:WBW917513 WLQ917512:WLS917513 WVM917512:WVO917513 E983048:G983049 JA983048:JC983049 SW983048:SY983049 ACS983048:ACU983049 AMO983048:AMQ983049 AWK983048:AWM983049 BGG983048:BGI983049 BQC983048:BQE983049 BZY983048:CAA983049 CJU983048:CJW983049 CTQ983048:CTS983049 DDM983048:DDO983049 DNI983048:DNK983049 DXE983048:DXG983049 EHA983048:EHC983049 EQW983048:EQY983049 FAS983048:FAU983049 FKO983048:FKQ983049 FUK983048:FUM983049 GEG983048:GEI983049 GOC983048:GOE983049 GXY983048:GYA983049 HHU983048:HHW983049 HRQ983048:HRS983049 IBM983048:IBO983049 ILI983048:ILK983049 IVE983048:IVG983049 JFA983048:JFC983049 JOW983048:JOY983049 JYS983048:JYU983049 KIO983048:KIQ983049 KSK983048:KSM983049 LCG983048:LCI983049 LMC983048:LME983049 LVY983048:LWA983049 MFU983048:MFW983049 MPQ983048:MPS983049 MZM983048:MZO983049 NJI983048:NJK983049 NTE983048:NTG983049 ODA983048:ODC983049 OMW983048:OMY983049 OWS983048:OWU983049 PGO983048:PGQ983049 PQK983048:PQM983049 QAG983048:QAI983049 QKC983048:QKE983049 QTY983048:QUA983049 RDU983048:RDW983049 RNQ983048:RNS983049 RXM983048:RXO983049 SHI983048:SHK983049 SRE983048:SRG983049 TBA983048:TBC983049 TKW983048:TKY983049 TUS983048:TUU983049 UEO983048:UEQ983049 UOK983048:UOM983049 UYG983048:UYI983049 VIC983048:VIE983049 VRY983048:VSA983049 WBU983048:WBW983049 WLQ983048:WLS983049 WVM983048:WVO983049 WVM983050:WVZ983059 E65546:R65555 JA65546:JN65555 SW65546:TJ65555 ACS65546:ADF65555 AMO65546:ANB65555 AWK65546:AWX65555 BGG65546:BGT65555 BQC65546:BQP65555 BZY65546:CAL65555 CJU65546:CKH65555 CTQ65546:CUD65555 DDM65546:DDZ65555 DNI65546:DNV65555 DXE65546:DXR65555 EHA65546:EHN65555 EQW65546:ERJ65555 FAS65546:FBF65555 FKO65546:FLB65555 FUK65546:FUX65555 GEG65546:GET65555 GOC65546:GOP65555 GXY65546:GYL65555 HHU65546:HIH65555 HRQ65546:HSD65555 IBM65546:IBZ65555 ILI65546:ILV65555 IVE65546:IVR65555 JFA65546:JFN65555 JOW65546:JPJ65555 JYS65546:JZF65555 KIO65546:KJB65555 KSK65546:KSX65555 LCG65546:LCT65555 LMC65546:LMP65555 LVY65546:LWL65555 MFU65546:MGH65555 MPQ65546:MQD65555 MZM65546:MZZ65555 NJI65546:NJV65555 NTE65546:NTR65555 ODA65546:ODN65555 OMW65546:ONJ65555 OWS65546:OXF65555 PGO65546:PHB65555 PQK65546:PQX65555 QAG65546:QAT65555 QKC65546:QKP65555 QTY65546:QUL65555 RDU65546:REH65555 RNQ65546:ROD65555 RXM65546:RXZ65555 SHI65546:SHV65555 SRE65546:SRR65555 TBA65546:TBN65555 TKW65546:TLJ65555 TUS65546:TVF65555 UEO65546:UFB65555 UOK65546:UOX65555 UYG65546:UYT65555 VIC65546:VIP65555 VRY65546:VSL65555 WBU65546:WCH65555 WLQ65546:WMD65555 WVM65546:WVZ65555 E131082:R131091 JA131082:JN131091 SW131082:TJ131091 ACS131082:ADF131091 AMO131082:ANB131091 AWK131082:AWX131091 BGG131082:BGT131091 BQC131082:BQP131091 BZY131082:CAL131091 CJU131082:CKH131091 CTQ131082:CUD131091 DDM131082:DDZ131091 DNI131082:DNV131091 DXE131082:DXR131091 EHA131082:EHN131091 EQW131082:ERJ131091 FAS131082:FBF131091 FKO131082:FLB131091 FUK131082:FUX131091 GEG131082:GET131091 GOC131082:GOP131091 GXY131082:GYL131091 HHU131082:HIH131091 HRQ131082:HSD131091 IBM131082:IBZ131091 ILI131082:ILV131091 IVE131082:IVR131091 JFA131082:JFN131091 JOW131082:JPJ131091 JYS131082:JZF131091 KIO131082:KJB131091 KSK131082:KSX131091 LCG131082:LCT131091 LMC131082:LMP131091 LVY131082:LWL131091 MFU131082:MGH131091 MPQ131082:MQD131091 MZM131082:MZZ131091 NJI131082:NJV131091 NTE131082:NTR131091 ODA131082:ODN131091 OMW131082:ONJ131091 OWS131082:OXF131091 PGO131082:PHB131091 PQK131082:PQX131091 QAG131082:QAT131091 QKC131082:QKP131091 QTY131082:QUL131091 RDU131082:REH131091 RNQ131082:ROD131091 RXM131082:RXZ131091 SHI131082:SHV131091 SRE131082:SRR131091 TBA131082:TBN131091 TKW131082:TLJ131091 TUS131082:TVF131091 UEO131082:UFB131091 UOK131082:UOX131091 UYG131082:UYT131091 VIC131082:VIP131091 VRY131082:VSL131091 WBU131082:WCH131091 WLQ131082:WMD131091 WVM131082:WVZ131091 E196618:R196627 JA196618:JN196627 SW196618:TJ196627 ACS196618:ADF196627 AMO196618:ANB196627 AWK196618:AWX196627 BGG196618:BGT196627 BQC196618:BQP196627 BZY196618:CAL196627 CJU196618:CKH196627 CTQ196618:CUD196627 DDM196618:DDZ196627 DNI196618:DNV196627 DXE196618:DXR196627 EHA196618:EHN196627 EQW196618:ERJ196627 FAS196618:FBF196627 FKO196618:FLB196627 FUK196618:FUX196627 GEG196618:GET196627 GOC196618:GOP196627 GXY196618:GYL196627 HHU196618:HIH196627 HRQ196618:HSD196627 IBM196618:IBZ196627 ILI196618:ILV196627 IVE196618:IVR196627 JFA196618:JFN196627 JOW196618:JPJ196627 JYS196618:JZF196627 KIO196618:KJB196627 KSK196618:KSX196627 LCG196618:LCT196627 LMC196618:LMP196627 LVY196618:LWL196627 MFU196618:MGH196627 MPQ196618:MQD196627 MZM196618:MZZ196627 NJI196618:NJV196627 NTE196618:NTR196627 ODA196618:ODN196627 OMW196618:ONJ196627 OWS196618:OXF196627 PGO196618:PHB196627 PQK196618:PQX196627 QAG196618:QAT196627 QKC196618:QKP196627 QTY196618:QUL196627 RDU196618:REH196627 RNQ196618:ROD196627 RXM196618:RXZ196627 SHI196618:SHV196627 SRE196618:SRR196627 TBA196618:TBN196627 TKW196618:TLJ196627 TUS196618:TVF196627 UEO196618:UFB196627 UOK196618:UOX196627 UYG196618:UYT196627 VIC196618:VIP196627 VRY196618:VSL196627 WBU196618:WCH196627 WLQ196618:WMD196627 WVM196618:WVZ196627 E262154:R262163 JA262154:JN262163 SW262154:TJ262163 ACS262154:ADF262163 AMO262154:ANB262163 AWK262154:AWX262163 BGG262154:BGT262163 BQC262154:BQP262163 BZY262154:CAL262163 CJU262154:CKH262163 CTQ262154:CUD262163 DDM262154:DDZ262163 DNI262154:DNV262163 DXE262154:DXR262163 EHA262154:EHN262163 EQW262154:ERJ262163 FAS262154:FBF262163 FKO262154:FLB262163 FUK262154:FUX262163 GEG262154:GET262163 GOC262154:GOP262163 GXY262154:GYL262163 HHU262154:HIH262163 HRQ262154:HSD262163 IBM262154:IBZ262163 ILI262154:ILV262163 IVE262154:IVR262163 JFA262154:JFN262163 JOW262154:JPJ262163 JYS262154:JZF262163 KIO262154:KJB262163 KSK262154:KSX262163 LCG262154:LCT262163 LMC262154:LMP262163 LVY262154:LWL262163 MFU262154:MGH262163 MPQ262154:MQD262163 MZM262154:MZZ262163 NJI262154:NJV262163 NTE262154:NTR262163 ODA262154:ODN262163 OMW262154:ONJ262163 OWS262154:OXF262163 PGO262154:PHB262163 PQK262154:PQX262163 QAG262154:QAT262163 QKC262154:QKP262163 QTY262154:QUL262163 RDU262154:REH262163 RNQ262154:ROD262163 RXM262154:RXZ262163 SHI262154:SHV262163 SRE262154:SRR262163 TBA262154:TBN262163 TKW262154:TLJ262163 TUS262154:TVF262163 UEO262154:UFB262163 UOK262154:UOX262163 UYG262154:UYT262163 VIC262154:VIP262163 VRY262154:VSL262163 WBU262154:WCH262163 WLQ262154:WMD262163 WVM262154:WVZ262163 E327690:R327699 JA327690:JN327699 SW327690:TJ327699 ACS327690:ADF327699 AMO327690:ANB327699 AWK327690:AWX327699 BGG327690:BGT327699 BQC327690:BQP327699 BZY327690:CAL327699 CJU327690:CKH327699 CTQ327690:CUD327699 DDM327690:DDZ327699 DNI327690:DNV327699 DXE327690:DXR327699 EHA327690:EHN327699 EQW327690:ERJ327699 FAS327690:FBF327699 FKO327690:FLB327699 FUK327690:FUX327699 GEG327690:GET327699 GOC327690:GOP327699 GXY327690:GYL327699 HHU327690:HIH327699 HRQ327690:HSD327699 IBM327690:IBZ327699 ILI327690:ILV327699 IVE327690:IVR327699 JFA327690:JFN327699 JOW327690:JPJ327699 JYS327690:JZF327699 KIO327690:KJB327699 KSK327690:KSX327699 LCG327690:LCT327699 LMC327690:LMP327699 LVY327690:LWL327699 MFU327690:MGH327699 MPQ327690:MQD327699 MZM327690:MZZ327699 NJI327690:NJV327699 NTE327690:NTR327699 ODA327690:ODN327699 OMW327690:ONJ327699 OWS327690:OXF327699 PGO327690:PHB327699 PQK327690:PQX327699 QAG327690:QAT327699 QKC327690:QKP327699 QTY327690:QUL327699 RDU327690:REH327699 RNQ327690:ROD327699 RXM327690:RXZ327699 SHI327690:SHV327699 SRE327690:SRR327699 TBA327690:TBN327699 TKW327690:TLJ327699 TUS327690:TVF327699 UEO327690:UFB327699 UOK327690:UOX327699 UYG327690:UYT327699 VIC327690:VIP327699 VRY327690:VSL327699 WBU327690:WCH327699 WLQ327690:WMD327699 WVM327690:WVZ327699 E393226:R393235 JA393226:JN393235 SW393226:TJ393235 ACS393226:ADF393235 AMO393226:ANB393235 AWK393226:AWX393235 BGG393226:BGT393235 BQC393226:BQP393235 BZY393226:CAL393235 CJU393226:CKH393235 CTQ393226:CUD393235 DDM393226:DDZ393235 DNI393226:DNV393235 DXE393226:DXR393235 EHA393226:EHN393235 EQW393226:ERJ393235 FAS393226:FBF393235 FKO393226:FLB393235 FUK393226:FUX393235 GEG393226:GET393235 GOC393226:GOP393235 GXY393226:GYL393235 HHU393226:HIH393235 HRQ393226:HSD393235 IBM393226:IBZ393235 ILI393226:ILV393235 IVE393226:IVR393235 JFA393226:JFN393235 JOW393226:JPJ393235 JYS393226:JZF393235 KIO393226:KJB393235 KSK393226:KSX393235 LCG393226:LCT393235 LMC393226:LMP393235 LVY393226:LWL393235 MFU393226:MGH393235 MPQ393226:MQD393235 MZM393226:MZZ393235 NJI393226:NJV393235 NTE393226:NTR393235 ODA393226:ODN393235 OMW393226:ONJ393235 OWS393226:OXF393235 PGO393226:PHB393235 PQK393226:PQX393235 QAG393226:QAT393235 QKC393226:QKP393235 QTY393226:QUL393235 RDU393226:REH393235 RNQ393226:ROD393235 RXM393226:RXZ393235 SHI393226:SHV393235 SRE393226:SRR393235 TBA393226:TBN393235 TKW393226:TLJ393235 TUS393226:TVF393235 UEO393226:UFB393235 UOK393226:UOX393235 UYG393226:UYT393235 VIC393226:VIP393235 VRY393226:VSL393235 WBU393226:WCH393235 WLQ393226:WMD393235 WVM393226:WVZ393235 E458762:R458771 JA458762:JN458771 SW458762:TJ458771 ACS458762:ADF458771 AMO458762:ANB458771 AWK458762:AWX458771 BGG458762:BGT458771 BQC458762:BQP458771 BZY458762:CAL458771 CJU458762:CKH458771 CTQ458762:CUD458771 DDM458762:DDZ458771 DNI458762:DNV458771 DXE458762:DXR458771 EHA458762:EHN458771 EQW458762:ERJ458771 FAS458762:FBF458771 FKO458762:FLB458771 FUK458762:FUX458771 GEG458762:GET458771 GOC458762:GOP458771 GXY458762:GYL458771 HHU458762:HIH458771 HRQ458762:HSD458771 IBM458762:IBZ458771 ILI458762:ILV458771 IVE458762:IVR458771 JFA458762:JFN458771 JOW458762:JPJ458771 JYS458762:JZF458771 KIO458762:KJB458771 KSK458762:KSX458771 LCG458762:LCT458771 LMC458762:LMP458771 LVY458762:LWL458771 MFU458762:MGH458771 MPQ458762:MQD458771 MZM458762:MZZ458771 NJI458762:NJV458771 NTE458762:NTR458771 ODA458762:ODN458771 OMW458762:ONJ458771 OWS458762:OXF458771 PGO458762:PHB458771 PQK458762:PQX458771 QAG458762:QAT458771 QKC458762:QKP458771 QTY458762:QUL458771 RDU458762:REH458771 RNQ458762:ROD458771 RXM458762:RXZ458771 SHI458762:SHV458771 SRE458762:SRR458771 TBA458762:TBN458771 TKW458762:TLJ458771 TUS458762:TVF458771 UEO458762:UFB458771 UOK458762:UOX458771 UYG458762:UYT458771 VIC458762:VIP458771 VRY458762:VSL458771 WBU458762:WCH458771 WLQ458762:WMD458771 WVM458762:WVZ458771 E524298:R524307 JA524298:JN524307 SW524298:TJ524307 ACS524298:ADF524307 AMO524298:ANB524307 AWK524298:AWX524307 BGG524298:BGT524307 BQC524298:BQP524307 BZY524298:CAL524307 CJU524298:CKH524307 CTQ524298:CUD524307 DDM524298:DDZ524307 DNI524298:DNV524307 DXE524298:DXR524307 EHA524298:EHN524307 EQW524298:ERJ524307 FAS524298:FBF524307 FKO524298:FLB524307 FUK524298:FUX524307 GEG524298:GET524307 GOC524298:GOP524307 GXY524298:GYL524307 HHU524298:HIH524307 HRQ524298:HSD524307 IBM524298:IBZ524307 ILI524298:ILV524307 IVE524298:IVR524307 JFA524298:JFN524307 JOW524298:JPJ524307 JYS524298:JZF524307 KIO524298:KJB524307 KSK524298:KSX524307 LCG524298:LCT524307 LMC524298:LMP524307 LVY524298:LWL524307 MFU524298:MGH524307 MPQ524298:MQD524307 MZM524298:MZZ524307 NJI524298:NJV524307 NTE524298:NTR524307 ODA524298:ODN524307 OMW524298:ONJ524307 OWS524298:OXF524307 PGO524298:PHB524307 PQK524298:PQX524307 QAG524298:QAT524307 QKC524298:QKP524307 QTY524298:QUL524307 RDU524298:REH524307 RNQ524298:ROD524307 RXM524298:RXZ524307 SHI524298:SHV524307 SRE524298:SRR524307 TBA524298:TBN524307 TKW524298:TLJ524307 TUS524298:TVF524307 UEO524298:UFB524307 UOK524298:UOX524307 UYG524298:UYT524307 VIC524298:VIP524307 VRY524298:VSL524307 WBU524298:WCH524307 WLQ524298:WMD524307 WVM524298:WVZ524307 E589834:R589843 JA589834:JN589843 SW589834:TJ589843 ACS589834:ADF589843 AMO589834:ANB589843 AWK589834:AWX589843 BGG589834:BGT589843 BQC589834:BQP589843 BZY589834:CAL589843 CJU589834:CKH589843 CTQ589834:CUD589843 DDM589834:DDZ589843 DNI589834:DNV589843 DXE589834:DXR589843 EHA589834:EHN589843 EQW589834:ERJ589843 FAS589834:FBF589843 FKO589834:FLB589843 FUK589834:FUX589843 GEG589834:GET589843 GOC589834:GOP589843 GXY589834:GYL589843 HHU589834:HIH589843 HRQ589834:HSD589843 IBM589834:IBZ589843 ILI589834:ILV589843 IVE589834:IVR589843 JFA589834:JFN589843 JOW589834:JPJ589843 JYS589834:JZF589843 KIO589834:KJB589843 KSK589834:KSX589843 LCG589834:LCT589843 LMC589834:LMP589843 LVY589834:LWL589843 MFU589834:MGH589843 MPQ589834:MQD589843 MZM589834:MZZ589843 NJI589834:NJV589843 NTE589834:NTR589843 ODA589834:ODN589843 OMW589834:ONJ589843 OWS589834:OXF589843 PGO589834:PHB589843 PQK589834:PQX589843 QAG589834:QAT589843 QKC589834:QKP589843 QTY589834:QUL589843 RDU589834:REH589843 RNQ589834:ROD589843 RXM589834:RXZ589843 SHI589834:SHV589843 SRE589834:SRR589843 TBA589834:TBN589843 TKW589834:TLJ589843 TUS589834:TVF589843 UEO589834:UFB589843 UOK589834:UOX589843 UYG589834:UYT589843 VIC589834:VIP589843 VRY589834:VSL589843 WBU589834:WCH589843 WLQ589834:WMD589843 WVM589834:WVZ589843 E655370:R655379 JA655370:JN655379 SW655370:TJ655379 ACS655370:ADF655379 AMO655370:ANB655379 AWK655370:AWX655379 BGG655370:BGT655379 BQC655370:BQP655379 BZY655370:CAL655379 CJU655370:CKH655379 CTQ655370:CUD655379 DDM655370:DDZ655379 DNI655370:DNV655379 DXE655370:DXR655379 EHA655370:EHN655379 EQW655370:ERJ655379 FAS655370:FBF655379 FKO655370:FLB655379 FUK655370:FUX655379 GEG655370:GET655379 GOC655370:GOP655379 GXY655370:GYL655379 HHU655370:HIH655379 HRQ655370:HSD655379 IBM655370:IBZ655379 ILI655370:ILV655379 IVE655370:IVR655379 JFA655370:JFN655379 JOW655370:JPJ655379 JYS655370:JZF655379 KIO655370:KJB655379 KSK655370:KSX655379 LCG655370:LCT655379 LMC655370:LMP655379 LVY655370:LWL655379 MFU655370:MGH655379 MPQ655370:MQD655379 MZM655370:MZZ655379 NJI655370:NJV655379 NTE655370:NTR655379 ODA655370:ODN655379 OMW655370:ONJ655379 OWS655370:OXF655379 PGO655370:PHB655379 PQK655370:PQX655379 QAG655370:QAT655379 QKC655370:QKP655379 QTY655370:QUL655379 RDU655370:REH655379 RNQ655370:ROD655379 RXM655370:RXZ655379 SHI655370:SHV655379 SRE655370:SRR655379 TBA655370:TBN655379 TKW655370:TLJ655379 TUS655370:TVF655379 UEO655370:UFB655379 UOK655370:UOX655379 UYG655370:UYT655379 VIC655370:VIP655379 VRY655370:VSL655379 WBU655370:WCH655379 WLQ655370:WMD655379 WVM655370:WVZ655379 E720906:R720915 JA720906:JN720915 SW720906:TJ720915 ACS720906:ADF720915 AMO720906:ANB720915 AWK720906:AWX720915 BGG720906:BGT720915 BQC720906:BQP720915 BZY720906:CAL720915 CJU720906:CKH720915 CTQ720906:CUD720915 DDM720906:DDZ720915 DNI720906:DNV720915 DXE720906:DXR720915 EHA720906:EHN720915 EQW720906:ERJ720915 FAS720906:FBF720915 FKO720906:FLB720915 FUK720906:FUX720915 GEG720906:GET720915 GOC720906:GOP720915 GXY720906:GYL720915 HHU720906:HIH720915 HRQ720906:HSD720915 IBM720906:IBZ720915 ILI720906:ILV720915 IVE720906:IVR720915 JFA720906:JFN720915 JOW720906:JPJ720915 JYS720906:JZF720915 KIO720906:KJB720915 KSK720906:KSX720915 LCG720906:LCT720915 LMC720906:LMP720915 LVY720906:LWL720915 MFU720906:MGH720915 MPQ720906:MQD720915 MZM720906:MZZ720915 NJI720906:NJV720915 NTE720906:NTR720915 ODA720906:ODN720915 OMW720906:ONJ720915 OWS720906:OXF720915 PGO720906:PHB720915 PQK720906:PQX720915 QAG720906:QAT720915 QKC720906:QKP720915 QTY720906:QUL720915 RDU720906:REH720915 RNQ720906:ROD720915 RXM720906:RXZ720915 SHI720906:SHV720915 SRE720906:SRR720915 TBA720906:TBN720915 TKW720906:TLJ720915 TUS720906:TVF720915 UEO720906:UFB720915 UOK720906:UOX720915 UYG720906:UYT720915 VIC720906:VIP720915 VRY720906:VSL720915 WBU720906:WCH720915 WLQ720906:WMD720915 WVM720906:WVZ720915 E786442:R786451 JA786442:JN786451 SW786442:TJ786451 ACS786442:ADF786451 AMO786442:ANB786451 AWK786442:AWX786451 BGG786442:BGT786451 BQC786442:BQP786451 BZY786442:CAL786451 CJU786442:CKH786451 CTQ786442:CUD786451 DDM786442:DDZ786451 DNI786442:DNV786451 DXE786442:DXR786451 EHA786442:EHN786451 EQW786442:ERJ786451 FAS786442:FBF786451 FKO786442:FLB786451 FUK786442:FUX786451 GEG786442:GET786451 GOC786442:GOP786451 GXY786442:GYL786451 HHU786442:HIH786451 HRQ786442:HSD786451 IBM786442:IBZ786451 ILI786442:ILV786451 IVE786442:IVR786451 JFA786442:JFN786451 JOW786442:JPJ786451 JYS786442:JZF786451 KIO786442:KJB786451 KSK786442:KSX786451 LCG786442:LCT786451 LMC786442:LMP786451 LVY786442:LWL786451 MFU786442:MGH786451 MPQ786442:MQD786451 MZM786442:MZZ786451 NJI786442:NJV786451 NTE786442:NTR786451 ODA786442:ODN786451 OMW786442:ONJ786451 OWS786442:OXF786451 PGO786442:PHB786451 PQK786442:PQX786451 QAG786442:QAT786451 QKC786442:QKP786451 QTY786442:QUL786451 RDU786442:REH786451 RNQ786442:ROD786451 RXM786442:RXZ786451 SHI786442:SHV786451 SRE786442:SRR786451 TBA786442:TBN786451 TKW786442:TLJ786451 TUS786442:TVF786451 UEO786442:UFB786451 UOK786442:UOX786451 UYG786442:UYT786451 VIC786442:VIP786451 VRY786442:VSL786451 WBU786442:WCH786451 WLQ786442:WMD786451 WVM786442:WVZ786451 E851978:R851987 JA851978:JN851987 SW851978:TJ851987 ACS851978:ADF851987 AMO851978:ANB851987 AWK851978:AWX851987 BGG851978:BGT851987 BQC851978:BQP851987 BZY851978:CAL851987 CJU851978:CKH851987 CTQ851978:CUD851987 DDM851978:DDZ851987 DNI851978:DNV851987 DXE851978:DXR851987 EHA851978:EHN851987 EQW851978:ERJ851987 FAS851978:FBF851987 FKO851978:FLB851987 FUK851978:FUX851987 GEG851978:GET851987 GOC851978:GOP851987 GXY851978:GYL851987 HHU851978:HIH851987 HRQ851978:HSD851987 IBM851978:IBZ851987 ILI851978:ILV851987 IVE851978:IVR851987 JFA851978:JFN851987 JOW851978:JPJ851987 JYS851978:JZF851987 KIO851978:KJB851987 KSK851978:KSX851987 LCG851978:LCT851987 LMC851978:LMP851987 LVY851978:LWL851987 MFU851978:MGH851987 MPQ851978:MQD851987 MZM851978:MZZ851987 NJI851978:NJV851987 NTE851978:NTR851987 ODA851978:ODN851987 OMW851978:ONJ851987 OWS851978:OXF851987 PGO851978:PHB851987 PQK851978:PQX851987 QAG851978:QAT851987 QKC851978:QKP851987 QTY851978:QUL851987 RDU851978:REH851987 RNQ851978:ROD851987 RXM851978:RXZ851987 SHI851978:SHV851987 SRE851978:SRR851987 TBA851978:TBN851987 TKW851978:TLJ851987 TUS851978:TVF851987 UEO851978:UFB851987 UOK851978:UOX851987 UYG851978:UYT851987 VIC851978:VIP851987 VRY851978:VSL851987 WBU851978:WCH851987 WLQ851978:WMD851987 WVM851978:WVZ851987 E917514:R917523 JA917514:JN917523 SW917514:TJ917523 ACS917514:ADF917523 AMO917514:ANB917523 AWK917514:AWX917523 BGG917514:BGT917523 BQC917514:BQP917523 BZY917514:CAL917523 CJU917514:CKH917523 CTQ917514:CUD917523 DDM917514:DDZ917523 DNI917514:DNV917523 DXE917514:DXR917523 EHA917514:EHN917523 EQW917514:ERJ917523 FAS917514:FBF917523 FKO917514:FLB917523 FUK917514:FUX917523 GEG917514:GET917523 GOC917514:GOP917523 GXY917514:GYL917523 HHU917514:HIH917523 HRQ917514:HSD917523 IBM917514:IBZ917523 ILI917514:ILV917523 IVE917514:IVR917523 JFA917514:JFN917523 JOW917514:JPJ917523 JYS917514:JZF917523 KIO917514:KJB917523 KSK917514:KSX917523 LCG917514:LCT917523 LMC917514:LMP917523 LVY917514:LWL917523 MFU917514:MGH917523 MPQ917514:MQD917523 MZM917514:MZZ917523 NJI917514:NJV917523 NTE917514:NTR917523 ODA917514:ODN917523 OMW917514:ONJ917523 OWS917514:OXF917523 PGO917514:PHB917523 PQK917514:PQX917523 QAG917514:QAT917523 QKC917514:QKP917523 QTY917514:QUL917523 RDU917514:REH917523 RNQ917514:ROD917523 RXM917514:RXZ917523 SHI917514:SHV917523 SRE917514:SRR917523 TBA917514:TBN917523 TKW917514:TLJ917523 TUS917514:TVF917523 UEO917514:UFB917523 UOK917514:UOX917523 UYG917514:UYT917523 VIC917514:VIP917523 VRY917514:VSL917523 WBU917514:WCH917523 WLQ917514:WMD917523 WVM917514:WVZ917523 E983050:R983059 JA983050:JN983059 SW983050:TJ983059 ACS983050:ADF983059 AMO983050:ANB983059 AWK983050:AWX983059 BGG983050:BGT983059 BQC983050:BQP983059 BZY983050:CAL983059 CJU983050:CKH983059 CTQ983050:CUD983059 DDM983050:DDZ983059 DNI983050:DNV983059 DXE983050:DXR983059 EHA983050:EHN983059 EQW983050:ERJ983059 FAS983050:FBF983059 FKO983050:FLB983059 FUK983050:FUX983059 GEG983050:GET983059 GOC983050:GOP983059 GXY983050:GYL983059 HHU983050:HIH983059 HRQ983050:HSD983059 IBM983050:IBZ983059 ILI983050:ILV983059 IVE983050:IVR983059 JFA983050:JFN983059 JOW983050:JPJ983059 JYS983050:JZF983059 KIO983050:KJB983059 KSK983050:KSX983059 LCG983050:LCT983059 LMC983050:LMP983059 LVY983050:LWL983059 MFU983050:MGH983059 MPQ983050:MQD983059 MZM983050:MZZ983059 NJI983050:NJV983059 NTE983050:NTR983059 ODA983050:ODN983059 OMW983050:ONJ983059 OWS983050:OXF983059 PGO983050:PHB983059 PQK983050:PQX983059 QAG983050:QAT983059 QKC983050:QKP983059 QTY983050:QUL983059 RDU983050:REH983059 RNQ983050:ROD983059 RXM983050:RXZ983059 SHI983050:SHV983059 SRE983050:SRR983059 TBA983050:TBN983059 TKW983050:TLJ983059 TUS983050:TVF983059 UEO983050:UFB983059 UOK983050:UOX983059 UYG983050:UYT983059 VIC983050:VIP983059 VRY983050:VSL983059 WBU983050:WCH983059 WLQ983050:WMD983059 JA11:JN19 WVM11:WVZ19 WLQ11:WMD19 WBU11:WCH19 VRY11:VSL19 VIC11:VIP19 UYG11:UYT19 UOK11:UOX19 UEO11:UFB19 TUS11:TVF19 TKW11:TLJ19 TBA11:TBN19 SRE11:SRR19 SHI11:SHV19 RXM11:RXZ19 RNQ11:ROD19 RDU11:REH19 QTY11:QUL19 QKC11:QKP19 QAG11:QAT19 PQK11:PQX19 PGO11:PHB19 OWS11:OXF19 OMW11:ONJ19 ODA11:ODN19 NTE11:NTR19 NJI11:NJV19 MZM11:MZZ19 MPQ11:MQD19 MFU11:MGH19 LVY11:LWL19 LMC11:LMP19 LCG11:LCT19 KSK11:KSX19 KIO11:KJB19 JYS11:JZF19 JOW11:JPJ19 JFA11:JFN19 IVE11:IVR19 ILI11:ILV19 IBM11:IBZ19 HRQ11:HSD19 HHU11:HIH19 GXY11:GYL19 GOC11:GOP19 GEG11:GET19 FUK11:FUX19 FKO11:FLB19 FAS11:FBF19 EQW11:ERJ19 EHA11:EHN19 DXE11:DXR19 DNI11:DNV19 DDM11:DDZ19 CTQ11:CUD19 CJU11:CKH19 BZY11:CAL19 BQC11:BQP19 BGG11:BGT19 AWK11:AWX19 AMO11:ANB19 ACS11:ADF19 SW11:TJ19 E11:R19">
+      <formula1>"O, "</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T55"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="10.5"/>
+  <cols>
+    <col min="1" max="1" width="10.5" style="126" customWidth="1"/>
+    <col min="2" max="2" width="13.375" style="74" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="126" customWidth="1"/>
+    <col min="4" max="4" width="20.5" style="72" customWidth="1"/>
+    <col min="5" max="6" width="2.875" style="126" customWidth="1"/>
+    <col min="7" max="7" width="2.625" style="126" customWidth="1"/>
+    <col min="8" max="19" width="2.875" style="126" customWidth="1"/>
+    <col min="20" max="256" width="9" style="126"/>
+    <col min="257" max="257" width="10.5" style="126" customWidth="1"/>
+    <col min="258" max="258" width="13.375" style="126" customWidth="1"/>
+    <col min="259" max="259" width="15.375" style="126" customWidth="1"/>
+    <col min="260" max="260" width="20.5" style="126" customWidth="1"/>
+    <col min="261" max="262" width="2.875" style="126" customWidth="1"/>
+    <col min="263" max="263" width="2.625" style="126" customWidth="1"/>
+    <col min="264" max="275" width="2.875" style="126" customWidth="1"/>
+    <col min="276" max="512" width="9" style="126"/>
+    <col min="513" max="513" width="10.5" style="126" customWidth="1"/>
+    <col min="514" max="514" width="13.375" style="126" customWidth="1"/>
+    <col min="515" max="515" width="15.375" style="126" customWidth="1"/>
+    <col min="516" max="516" width="20.5" style="126" customWidth="1"/>
+    <col min="517" max="518" width="2.875" style="126" customWidth="1"/>
+    <col min="519" max="519" width="2.625" style="126" customWidth="1"/>
+    <col min="520" max="531" width="2.875" style="126" customWidth="1"/>
+    <col min="532" max="768" width="9" style="126"/>
+    <col min="769" max="769" width="10.5" style="126" customWidth="1"/>
+    <col min="770" max="770" width="13.375" style="126" customWidth="1"/>
+    <col min="771" max="771" width="15.375" style="126" customWidth="1"/>
+    <col min="772" max="772" width="20.5" style="126" customWidth="1"/>
+    <col min="773" max="774" width="2.875" style="126" customWidth="1"/>
+    <col min="775" max="775" width="2.625" style="126" customWidth="1"/>
+    <col min="776" max="787" width="2.875" style="126" customWidth="1"/>
+    <col min="788" max="1024" width="9" style="126"/>
+    <col min="1025" max="1025" width="10.5" style="126" customWidth="1"/>
+    <col min="1026" max="1026" width="13.375" style="126" customWidth="1"/>
+    <col min="1027" max="1027" width="15.375" style="126" customWidth="1"/>
+    <col min="1028" max="1028" width="20.5" style="126" customWidth="1"/>
+    <col min="1029" max="1030" width="2.875" style="126" customWidth="1"/>
+    <col min="1031" max="1031" width="2.625" style="126" customWidth="1"/>
+    <col min="1032" max="1043" width="2.875" style="126" customWidth="1"/>
+    <col min="1044" max="1280" width="9" style="126"/>
+    <col min="1281" max="1281" width="10.5" style="126" customWidth="1"/>
+    <col min="1282" max="1282" width="13.375" style="126" customWidth="1"/>
+    <col min="1283" max="1283" width="15.375" style="126" customWidth="1"/>
+    <col min="1284" max="1284" width="20.5" style="126" customWidth="1"/>
+    <col min="1285" max="1286" width="2.875" style="126" customWidth="1"/>
+    <col min="1287" max="1287" width="2.625" style="126" customWidth="1"/>
+    <col min="1288" max="1299" width="2.875" style="126" customWidth="1"/>
+    <col min="1300" max="1536" width="9" style="126"/>
+    <col min="1537" max="1537" width="10.5" style="126" customWidth="1"/>
+    <col min="1538" max="1538" width="13.375" style="126" customWidth="1"/>
+    <col min="1539" max="1539" width="15.375" style="126" customWidth="1"/>
+    <col min="1540" max="1540" width="20.5" style="126" customWidth="1"/>
+    <col min="1541" max="1542" width="2.875" style="126" customWidth="1"/>
+    <col min="1543" max="1543" width="2.625" style="126" customWidth="1"/>
+    <col min="1544" max="1555" width="2.875" style="126" customWidth="1"/>
+    <col min="1556" max="1792" width="9" style="126"/>
+    <col min="1793" max="1793" width="10.5" style="126" customWidth="1"/>
+    <col min="1794" max="1794" width="13.375" style="126" customWidth="1"/>
+    <col min="1795" max="1795" width="15.375" style="126" customWidth="1"/>
+    <col min="1796" max="1796" width="20.5" style="126" customWidth="1"/>
+    <col min="1797" max="1798" width="2.875" style="126" customWidth="1"/>
+    <col min="1799" max="1799" width="2.625" style="126" customWidth="1"/>
+    <col min="1800" max="1811" width="2.875" style="126" customWidth="1"/>
+    <col min="1812" max="2048" width="9" style="126"/>
+    <col min="2049" max="2049" width="10.5" style="126" customWidth="1"/>
+    <col min="2050" max="2050" width="13.375" style="126" customWidth="1"/>
+    <col min="2051" max="2051" width="15.375" style="126" customWidth="1"/>
+    <col min="2052" max="2052" width="20.5" style="126" customWidth="1"/>
+    <col min="2053" max="2054" width="2.875" style="126" customWidth="1"/>
+    <col min="2055" max="2055" width="2.625" style="126" customWidth="1"/>
+    <col min="2056" max="2067" width="2.875" style="126" customWidth="1"/>
+    <col min="2068" max="2304" width="9" style="126"/>
+    <col min="2305" max="2305" width="10.5" style="126" customWidth="1"/>
+    <col min="2306" max="2306" width="13.375" style="126" customWidth="1"/>
+    <col min="2307" max="2307" width="15.375" style="126" customWidth="1"/>
+    <col min="2308" max="2308" width="20.5" style="126" customWidth="1"/>
+    <col min="2309" max="2310" width="2.875" style="126" customWidth="1"/>
+    <col min="2311" max="2311" width="2.625" style="126" customWidth="1"/>
+    <col min="2312" max="2323" width="2.875" style="126" customWidth="1"/>
+    <col min="2324" max="2560" width="9" style="126"/>
+    <col min="2561" max="2561" width="10.5" style="126" customWidth="1"/>
+    <col min="2562" max="2562" width="13.375" style="126" customWidth="1"/>
+    <col min="2563" max="2563" width="15.375" style="126" customWidth="1"/>
+    <col min="2564" max="2564" width="20.5" style="126" customWidth="1"/>
+    <col min="2565" max="2566" width="2.875" style="126" customWidth="1"/>
+    <col min="2567" max="2567" width="2.625" style="126" customWidth="1"/>
+    <col min="2568" max="2579" width="2.875" style="126" customWidth="1"/>
+    <col min="2580" max="2816" width="9" style="126"/>
+    <col min="2817" max="2817" width="10.5" style="126" customWidth="1"/>
+    <col min="2818" max="2818" width="13.375" style="126" customWidth="1"/>
+    <col min="2819" max="2819" width="15.375" style="126" customWidth="1"/>
+    <col min="2820" max="2820" width="20.5" style="126" customWidth="1"/>
+    <col min="2821" max="2822" width="2.875" style="126" customWidth="1"/>
+    <col min="2823" max="2823" width="2.625" style="126" customWidth="1"/>
+    <col min="2824" max="2835" width="2.875" style="126" customWidth="1"/>
+    <col min="2836" max="3072" width="9" style="126"/>
+    <col min="3073" max="3073" width="10.5" style="126" customWidth="1"/>
+    <col min="3074" max="3074" width="13.375" style="126" customWidth="1"/>
+    <col min="3075" max="3075" width="15.375" style="126" customWidth="1"/>
+    <col min="3076" max="3076" width="20.5" style="126" customWidth="1"/>
+    <col min="3077" max="3078" width="2.875" style="126" customWidth="1"/>
+    <col min="3079" max="3079" width="2.625" style="126" customWidth="1"/>
+    <col min="3080" max="3091" width="2.875" style="126" customWidth="1"/>
+    <col min="3092" max="3328" width="9" style="126"/>
+    <col min="3329" max="3329" width="10.5" style="126" customWidth="1"/>
+    <col min="3330" max="3330" width="13.375" style="126" customWidth="1"/>
+    <col min="3331" max="3331" width="15.375" style="126" customWidth="1"/>
+    <col min="3332" max="3332" width="20.5" style="126" customWidth="1"/>
+    <col min="3333" max="3334" width="2.875" style="126" customWidth="1"/>
+    <col min="3335" max="3335" width="2.625" style="126" customWidth="1"/>
+    <col min="3336" max="3347" width="2.875" style="126" customWidth="1"/>
+    <col min="3348" max="3584" width="9" style="126"/>
+    <col min="3585" max="3585" width="10.5" style="126" customWidth="1"/>
+    <col min="3586" max="3586" width="13.375" style="126" customWidth="1"/>
+    <col min="3587" max="3587" width="15.375" style="126" customWidth="1"/>
+    <col min="3588" max="3588" width="20.5" style="126" customWidth="1"/>
+    <col min="3589" max="3590" width="2.875" style="126" customWidth="1"/>
+    <col min="3591" max="3591" width="2.625" style="126" customWidth="1"/>
+    <col min="3592" max="3603" width="2.875" style="126" customWidth="1"/>
+    <col min="3604" max="3840" width="9" style="126"/>
+    <col min="3841" max="3841" width="10.5" style="126" customWidth="1"/>
+    <col min="3842" max="3842" width="13.375" style="126" customWidth="1"/>
+    <col min="3843" max="3843" width="15.375" style="126" customWidth="1"/>
+    <col min="3844" max="3844" width="20.5" style="126" customWidth="1"/>
+    <col min="3845" max="3846" width="2.875" style="126" customWidth="1"/>
+    <col min="3847" max="3847" width="2.625" style="126" customWidth="1"/>
+    <col min="3848" max="3859" width="2.875" style="126" customWidth="1"/>
+    <col min="3860" max="4096" width="9" style="126"/>
+    <col min="4097" max="4097" width="10.5" style="126" customWidth="1"/>
+    <col min="4098" max="4098" width="13.375" style="126" customWidth="1"/>
+    <col min="4099" max="4099" width="15.375" style="126" customWidth="1"/>
+    <col min="4100" max="4100" width="20.5" style="126" customWidth="1"/>
+    <col min="4101" max="4102" width="2.875" style="126" customWidth="1"/>
+    <col min="4103" max="4103" width="2.625" style="126" customWidth="1"/>
+    <col min="4104" max="4115" width="2.875" style="126" customWidth="1"/>
+    <col min="4116" max="4352" width="9" style="126"/>
+    <col min="4353" max="4353" width="10.5" style="126" customWidth="1"/>
+    <col min="4354" max="4354" width="13.375" style="126" customWidth="1"/>
+    <col min="4355" max="4355" width="15.375" style="126" customWidth="1"/>
+    <col min="4356" max="4356" width="20.5" style="126" customWidth="1"/>
+    <col min="4357" max="4358" width="2.875" style="126" customWidth="1"/>
+    <col min="4359" max="4359" width="2.625" style="126" customWidth="1"/>
+    <col min="4360" max="4371" width="2.875" style="126" customWidth="1"/>
+    <col min="4372" max="4608" width="9" style="126"/>
+    <col min="4609" max="4609" width="10.5" style="126" customWidth="1"/>
+    <col min="4610" max="4610" width="13.375" style="126" customWidth="1"/>
+    <col min="4611" max="4611" width="15.375" style="126" customWidth="1"/>
+    <col min="4612" max="4612" width="20.5" style="126" customWidth="1"/>
+    <col min="4613" max="4614" width="2.875" style="126" customWidth="1"/>
+    <col min="4615" max="4615" width="2.625" style="126" customWidth="1"/>
+    <col min="4616" max="4627" width="2.875" style="126" customWidth="1"/>
+    <col min="4628" max="4864" width="9" style="126"/>
+    <col min="4865" max="4865" width="10.5" style="126" customWidth="1"/>
+    <col min="4866" max="4866" width="13.375" style="126" customWidth="1"/>
+    <col min="4867" max="4867" width="15.375" style="126" customWidth="1"/>
+    <col min="4868" max="4868" width="20.5" style="126" customWidth="1"/>
+    <col min="4869" max="4870" width="2.875" style="126" customWidth="1"/>
+    <col min="4871" max="4871" width="2.625" style="126" customWidth="1"/>
+    <col min="4872" max="4883" width="2.875" style="126" customWidth="1"/>
+    <col min="4884" max="5120" width="9" style="126"/>
+    <col min="5121" max="5121" width="10.5" style="126" customWidth="1"/>
+    <col min="5122" max="5122" width="13.375" style="126" customWidth="1"/>
+    <col min="5123" max="5123" width="15.375" style="126" customWidth="1"/>
+    <col min="5124" max="5124" width="20.5" style="126" customWidth="1"/>
+    <col min="5125" max="5126" width="2.875" style="126" customWidth="1"/>
+    <col min="5127" max="5127" width="2.625" style="126" customWidth="1"/>
+    <col min="5128" max="5139" width="2.875" style="126" customWidth="1"/>
+    <col min="5140" max="5376" width="9" style="126"/>
+    <col min="5377" max="5377" width="10.5" style="126" customWidth="1"/>
+    <col min="5378" max="5378" width="13.375" style="126" customWidth="1"/>
+    <col min="5379" max="5379" width="15.375" style="126" customWidth="1"/>
+    <col min="5380" max="5380" width="20.5" style="126" customWidth="1"/>
+    <col min="5381" max="5382" width="2.875" style="126" customWidth="1"/>
+    <col min="5383" max="5383" width="2.625" style="126" customWidth="1"/>
+    <col min="5384" max="5395" width="2.875" style="126" customWidth="1"/>
+    <col min="5396" max="5632" width="9" style="126"/>
+    <col min="5633" max="5633" width="10.5" style="126" customWidth="1"/>
+    <col min="5634" max="5634" width="13.375" style="126" customWidth="1"/>
+    <col min="5635" max="5635" width="15.375" style="126" customWidth="1"/>
+    <col min="5636" max="5636" width="20.5" style="126" customWidth="1"/>
+    <col min="5637" max="5638" width="2.875" style="126" customWidth="1"/>
+    <col min="5639" max="5639" width="2.625" style="126" customWidth="1"/>
+    <col min="5640" max="5651" width="2.875" style="126" customWidth="1"/>
+    <col min="5652" max="5888" width="9" style="126"/>
+    <col min="5889" max="5889" width="10.5" style="126" customWidth="1"/>
+    <col min="5890" max="5890" width="13.375" style="126" customWidth="1"/>
+    <col min="5891" max="5891" width="15.375" style="126" customWidth="1"/>
+    <col min="5892" max="5892" width="20.5" style="126" customWidth="1"/>
+    <col min="5893" max="5894" width="2.875" style="126" customWidth="1"/>
+    <col min="5895" max="5895" width="2.625" style="126" customWidth="1"/>
+    <col min="5896" max="5907" width="2.875" style="126" customWidth="1"/>
+    <col min="5908" max="6144" width="9" style="126"/>
+    <col min="6145" max="6145" width="10.5" style="126" customWidth="1"/>
+    <col min="6146" max="6146" width="13.375" style="126" customWidth="1"/>
+    <col min="6147" max="6147" width="15.375" style="126" customWidth="1"/>
+    <col min="6148" max="6148" width="20.5" style="126" customWidth="1"/>
+    <col min="6149" max="6150" width="2.875" style="126" customWidth="1"/>
+    <col min="6151" max="6151" width="2.625" style="126" customWidth="1"/>
+    <col min="6152" max="6163" width="2.875" style="126" customWidth="1"/>
+    <col min="6164" max="6400" width="9" style="126"/>
+    <col min="6401" max="6401" width="10.5" style="126" customWidth="1"/>
+    <col min="6402" max="6402" width="13.375" style="126" customWidth="1"/>
+    <col min="6403" max="6403" width="15.375" style="126" customWidth="1"/>
+    <col min="6404" max="6404" width="20.5" style="126" customWidth="1"/>
+    <col min="6405" max="6406" width="2.875" style="126" customWidth="1"/>
+    <col min="6407" max="6407" width="2.625" style="126" customWidth="1"/>
+    <col min="6408" max="6419" width="2.875" style="126" customWidth="1"/>
+    <col min="6420" max="6656" width="9" style="126"/>
+    <col min="6657" max="6657" width="10.5" style="126" customWidth="1"/>
+    <col min="6658" max="6658" width="13.375" style="126" customWidth="1"/>
+    <col min="6659" max="6659" width="15.375" style="126" customWidth="1"/>
+    <col min="6660" max="6660" width="20.5" style="126" customWidth="1"/>
+    <col min="6661" max="6662" width="2.875" style="126" customWidth="1"/>
+    <col min="6663" max="6663" width="2.625" style="126" customWidth="1"/>
+    <col min="6664" max="6675" width="2.875" style="126" customWidth="1"/>
+    <col min="6676" max="6912" width="9" style="126"/>
+    <col min="6913" max="6913" width="10.5" style="126" customWidth="1"/>
+    <col min="6914" max="6914" width="13.375" style="126" customWidth="1"/>
+    <col min="6915" max="6915" width="15.375" style="126" customWidth="1"/>
+    <col min="6916" max="6916" width="20.5" style="126" customWidth="1"/>
+    <col min="6917" max="6918" width="2.875" style="126" customWidth="1"/>
+    <col min="6919" max="6919" width="2.625" style="126" customWidth="1"/>
+    <col min="6920" max="6931" width="2.875" style="126" customWidth="1"/>
+    <col min="6932" max="7168" width="9" style="126"/>
+    <col min="7169" max="7169" width="10.5" style="126" customWidth="1"/>
+    <col min="7170" max="7170" width="13.375" style="126" customWidth="1"/>
+    <col min="7171" max="7171" width="15.375" style="126" customWidth="1"/>
+    <col min="7172" max="7172" width="20.5" style="126" customWidth="1"/>
+    <col min="7173" max="7174" width="2.875" style="126" customWidth="1"/>
+    <col min="7175" max="7175" width="2.625" style="126" customWidth="1"/>
+    <col min="7176" max="7187" width="2.875" style="126" customWidth="1"/>
+    <col min="7188" max="7424" width="9" style="126"/>
+    <col min="7425" max="7425" width="10.5" style="126" customWidth="1"/>
+    <col min="7426" max="7426" width="13.375" style="126" customWidth="1"/>
+    <col min="7427" max="7427" width="15.375" style="126" customWidth="1"/>
+    <col min="7428" max="7428" width="20.5" style="126" customWidth="1"/>
+    <col min="7429" max="7430" width="2.875" style="126" customWidth="1"/>
+    <col min="7431" max="7431" width="2.625" style="126" customWidth="1"/>
+    <col min="7432" max="7443" width="2.875" style="126" customWidth="1"/>
+    <col min="7444" max="7680" width="9" style="126"/>
+    <col min="7681" max="7681" width="10.5" style="126" customWidth="1"/>
+    <col min="7682" max="7682" width="13.375" style="126" customWidth="1"/>
+    <col min="7683" max="7683" width="15.375" style="126" customWidth="1"/>
+    <col min="7684" max="7684" width="20.5" style="126" customWidth="1"/>
+    <col min="7685" max="7686" width="2.875" style="126" customWidth="1"/>
+    <col min="7687" max="7687" width="2.625" style="126" customWidth="1"/>
+    <col min="7688" max="7699" width="2.875" style="126" customWidth="1"/>
+    <col min="7700" max="7936" width="9" style="126"/>
+    <col min="7937" max="7937" width="10.5" style="126" customWidth="1"/>
+    <col min="7938" max="7938" width="13.375" style="126" customWidth="1"/>
+    <col min="7939" max="7939" width="15.375" style="126" customWidth="1"/>
+    <col min="7940" max="7940" width="20.5" style="126" customWidth="1"/>
+    <col min="7941" max="7942" width="2.875" style="126" customWidth="1"/>
+    <col min="7943" max="7943" width="2.625" style="126" customWidth="1"/>
+    <col min="7944" max="7955" width="2.875" style="126" customWidth="1"/>
+    <col min="7956" max="8192" width="9" style="126"/>
+    <col min="8193" max="8193" width="10.5" style="126" customWidth="1"/>
+    <col min="8194" max="8194" width="13.375" style="126" customWidth="1"/>
+    <col min="8195" max="8195" width="15.375" style="126" customWidth="1"/>
+    <col min="8196" max="8196" width="20.5" style="126" customWidth="1"/>
+    <col min="8197" max="8198" width="2.875" style="126" customWidth="1"/>
+    <col min="8199" max="8199" width="2.625" style="126" customWidth="1"/>
+    <col min="8200" max="8211" width="2.875" style="126" customWidth="1"/>
+    <col min="8212" max="8448" width="9" style="126"/>
+    <col min="8449" max="8449" width="10.5" style="126" customWidth="1"/>
+    <col min="8450" max="8450" width="13.375" style="126" customWidth="1"/>
+    <col min="8451" max="8451" width="15.375" style="126" customWidth="1"/>
+    <col min="8452" max="8452" width="20.5" style="126" customWidth="1"/>
+    <col min="8453" max="8454" width="2.875" style="126" customWidth="1"/>
+    <col min="8455" max="8455" width="2.625" style="126" customWidth="1"/>
+    <col min="8456" max="8467" width="2.875" style="126" customWidth="1"/>
+    <col min="8468" max="8704" width="9" style="126"/>
+    <col min="8705" max="8705" width="10.5" style="126" customWidth="1"/>
+    <col min="8706" max="8706" width="13.375" style="126" customWidth="1"/>
+    <col min="8707" max="8707" width="15.375" style="126" customWidth="1"/>
+    <col min="8708" max="8708" width="20.5" style="126" customWidth="1"/>
+    <col min="8709" max="8710" width="2.875" style="126" customWidth="1"/>
+    <col min="8711" max="8711" width="2.625" style="126" customWidth="1"/>
+    <col min="8712" max="8723" width="2.875" style="126" customWidth="1"/>
+    <col min="8724" max="8960" width="9" style="126"/>
+    <col min="8961" max="8961" width="10.5" style="126" customWidth="1"/>
+    <col min="8962" max="8962" width="13.375" style="126" customWidth="1"/>
+    <col min="8963" max="8963" width="15.375" style="126" customWidth="1"/>
+    <col min="8964" max="8964" width="20.5" style="126" customWidth="1"/>
+    <col min="8965" max="8966" width="2.875" style="126" customWidth="1"/>
+    <col min="8967" max="8967" width="2.625" style="126" customWidth="1"/>
+    <col min="8968" max="8979" width="2.875" style="126" customWidth="1"/>
+    <col min="8980" max="9216" width="9" style="126"/>
+    <col min="9217" max="9217" width="10.5" style="126" customWidth="1"/>
+    <col min="9218" max="9218" width="13.375" style="126" customWidth="1"/>
+    <col min="9219" max="9219" width="15.375" style="126" customWidth="1"/>
+    <col min="9220" max="9220" width="20.5" style="126" customWidth="1"/>
+    <col min="9221" max="9222" width="2.875" style="126" customWidth="1"/>
+    <col min="9223" max="9223" width="2.625" style="126" customWidth="1"/>
+    <col min="9224" max="9235" width="2.875" style="126" customWidth="1"/>
+    <col min="9236" max="9472" width="9" style="126"/>
+    <col min="9473" max="9473" width="10.5" style="126" customWidth="1"/>
+    <col min="9474" max="9474" width="13.375" style="126" customWidth="1"/>
+    <col min="9475" max="9475" width="15.375" style="126" customWidth="1"/>
+    <col min="9476" max="9476" width="20.5" style="126" customWidth="1"/>
+    <col min="9477" max="9478" width="2.875" style="126" customWidth="1"/>
+    <col min="9479" max="9479" width="2.625" style="126" customWidth="1"/>
+    <col min="9480" max="9491" width="2.875" style="126" customWidth="1"/>
+    <col min="9492" max="9728" width="9" style="126"/>
+    <col min="9729" max="9729" width="10.5" style="126" customWidth="1"/>
+    <col min="9730" max="9730" width="13.375" style="126" customWidth="1"/>
+    <col min="9731" max="9731" width="15.375" style="126" customWidth="1"/>
+    <col min="9732" max="9732" width="20.5" style="126" customWidth="1"/>
+    <col min="9733" max="9734" width="2.875" style="126" customWidth="1"/>
+    <col min="9735" max="9735" width="2.625" style="126" customWidth="1"/>
+    <col min="9736" max="9747" width="2.875" style="126" customWidth="1"/>
+    <col min="9748" max="9984" width="9" style="126"/>
+    <col min="9985" max="9985" width="10.5" style="126" customWidth="1"/>
+    <col min="9986" max="9986" width="13.375" style="126" customWidth="1"/>
+    <col min="9987" max="9987" width="15.375" style="126" customWidth="1"/>
+    <col min="9988" max="9988" width="20.5" style="126" customWidth="1"/>
+    <col min="9989" max="9990" width="2.875" style="126" customWidth="1"/>
+    <col min="9991" max="9991" width="2.625" style="126" customWidth="1"/>
+    <col min="9992" max="10003" width="2.875" style="126" customWidth="1"/>
+    <col min="10004" max="10240" width="9" style="126"/>
+    <col min="10241" max="10241" width="10.5" style="126" customWidth="1"/>
+    <col min="10242" max="10242" width="13.375" style="126" customWidth="1"/>
+    <col min="10243" max="10243" width="15.375" style="126" customWidth="1"/>
+    <col min="10244" max="10244" width="20.5" style="126" customWidth="1"/>
+    <col min="10245" max="10246" width="2.875" style="126" customWidth="1"/>
+    <col min="10247" max="10247" width="2.625" style="126" customWidth="1"/>
+    <col min="10248" max="10259" width="2.875" style="126" customWidth="1"/>
+    <col min="10260" max="10496" width="9" style="126"/>
+    <col min="10497" max="10497" width="10.5" style="126" customWidth="1"/>
+    <col min="10498" max="10498" width="13.375" style="126" customWidth="1"/>
+    <col min="10499" max="10499" width="15.375" style="126" customWidth="1"/>
+    <col min="10500" max="10500" width="20.5" style="126" customWidth="1"/>
+    <col min="10501" max="10502" width="2.875" style="126" customWidth="1"/>
+    <col min="10503" max="10503" width="2.625" style="126" customWidth="1"/>
+    <col min="10504" max="10515" width="2.875" style="126" customWidth="1"/>
+    <col min="10516" max="10752" width="9" style="126"/>
+    <col min="10753" max="10753" width="10.5" style="126" customWidth="1"/>
+    <col min="10754" max="10754" width="13.375" style="126" customWidth="1"/>
+    <col min="10755" max="10755" width="15.375" style="126" customWidth="1"/>
+    <col min="10756" max="10756" width="20.5" style="126" customWidth="1"/>
+    <col min="10757" max="10758" width="2.875" style="126" customWidth="1"/>
+    <col min="10759" max="10759" width="2.625" style="126" customWidth="1"/>
+    <col min="10760" max="10771" width="2.875" style="126" customWidth="1"/>
+    <col min="10772" max="11008" width="9" style="126"/>
+    <col min="11009" max="11009" width="10.5" style="126" customWidth="1"/>
+    <col min="11010" max="11010" width="13.375" style="126" customWidth="1"/>
+    <col min="11011" max="11011" width="15.375" style="126" customWidth="1"/>
+    <col min="11012" max="11012" width="20.5" style="126" customWidth="1"/>
+    <col min="11013" max="11014" width="2.875" style="126" customWidth="1"/>
+    <col min="11015" max="11015" width="2.625" style="126" customWidth="1"/>
+    <col min="11016" max="11027" width="2.875" style="126" customWidth="1"/>
+    <col min="11028" max="11264" width="9" style="126"/>
+    <col min="11265" max="11265" width="10.5" style="126" customWidth="1"/>
+    <col min="11266" max="11266" width="13.375" style="126" customWidth="1"/>
+    <col min="11267" max="11267" width="15.375" style="126" customWidth="1"/>
+    <col min="11268" max="11268" width="20.5" style="126" customWidth="1"/>
+    <col min="11269" max="11270" width="2.875" style="126" customWidth="1"/>
+    <col min="11271" max="11271" width="2.625" style="126" customWidth="1"/>
+    <col min="11272" max="11283" width="2.875" style="126" customWidth="1"/>
+    <col min="11284" max="11520" width="9" style="126"/>
+    <col min="11521" max="11521" width="10.5" style="126" customWidth="1"/>
+    <col min="11522" max="11522" width="13.375" style="126" customWidth="1"/>
+    <col min="11523" max="11523" width="15.375" style="126" customWidth="1"/>
+    <col min="11524" max="11524" width="20.5" style="126" customWidth="1"/>
+    <col min="11525" max="11526" width="2.875" style="126" customWidth="1"/>
+    <col min="11527" max="11527" width="2.625" style="126" customWidth="1"/>
+    <col min="11528" max="11539" width="2.875" style="126" customWidth="1"/>
+    <col min="11540" max="11776" width="9" style="126"/>
+    <col min="11777" max="11777" width="10.5" style="126" customWidth="1"/>
+    <col min="11778" max="11778" width="13.375" style="126" customWidth="1"/>
+    <col min="11779" max="11779" width="15.375" style="126" customWidth="1"/>
+    <col min="11780" max="11780" width="20.5" style="126" customWidth="1"/>
+    <col min="11781" max="11782" width="2.875" style="126" customWidth="1"/>
+    <col min="11783" max="11783" width="2.625" style="126" customWidth="1"/>
+    <col min="11784" max="11795" width="2.875" style="126" customWidth="1"/>
+    <col min="11796" max="12032" width="9" style="126"/>
+    <col min="12033" max="12033" width="10.5" style="126" customWidth="1"/>
+    <col min="12034" max="12034" width="13.375" style="126" customWidth="1"/>
+    <col min="12035" max="12035" width="15.375" style="126" customWidth="1"/>
+    <col min="12036" max="12036" width="20.5" style="126" customWidth="1"/>
+    <col min="12037" max="12038" width="2.875" style="126" customWidth="1"/>
+    <col min="12039" max="12039" width="2.625" style="126" customWidth="1"/>
+    <col min="12040" max="12051" width="2.875" style="126" customWidth="1"/>
+    <col min="12052" max="12288" width="9" style="126"/>
+    <col min="12289" max="12289" width="10.5" style="126" customWidth="1"/>
+    <col min="12290" max="12290" width="13.375" style="126" customWidth="1"/>
+    <col min="12291" max="12291" width="15.375" style="126" customWidth="1"/>
+    <col min="12292" max="12292" width="20.5" style="126" customWidth="1"/>
+    <col min="12293" max="12294" width="2.875" style="126" customWidth="1"/>
+    <col min="12295" max="12295" width="2.625" style="126" customWidth="1"/>
+    <col min="12296" max="12307" width="2.875" style="126" customWidth="1"/>
+    <col min="12308" max="12544" width="9" style="126"/>
+    <col min="12545" max="12545" width="10.5" style="126" customWidth="1"/>
+    <col min="12546" max="12546" width="13.375" style="126" customWidth="1"/>
+    <col min="12547" max="12547" width="15.375" style="126" customWidth="1"/>
+    <col min="12548" max="12548" width="20.5" style="126" customWidth="1"/>
+    <col min="12549" max="12550" width="2.875" style="126" customWidth="1"/>
+    <col min="12551" max="12551" width="2.625" style="126" customWidth="1"/>
+    <col min="12552" max="12563" width="2.875" style="126" customWidth="1"/>
+    <col min="12564" max="12800" width="9" style="126"/>
+    <col min="12801" max="12801" width="10.5" style="126" customWidth="1"/>
+    <col min="12802" max="12802" width="13.375" style="126" customWidth="1"/>
+    <col min="12803" max="12803" width="15.375" style="126" customWidth="1"/>
+    <col min="12804" max="12804" width="20.5" style="126" customWidth="1"/>
+    <col min="12805" max="12806" width="2.875" style="126" customWidth="1"/>
+    <col min="12807" max="12807" width="2.625" style="126" customWidth="1"/>
+    <col min="12808" max="12819" width="2.875" style="126" customWidth="1"/>
+    <col min="12820" max="13056" width="9" style="126"/>
+    <col min="13057" max="13057" width="10.5" style="126" customWidth="1"/>
+    <col min="13058" max="13058" width="13.375" style="126" customWidth="1"/>
+    <col min="13059" max="13059" width="15.375" style="126" customWidth="1"/>
+    <col min="13060" max="13060" width="20.5" style="126" customWidth="1"/>
+    <col min="13061" max="13062" width="2.875" style="126" customWidth="1"/>
+    <col min="13063" max="13063" width="2.625" style="126" customWidth="1"/>
+    <col min="13064" max="13075" width="2.875" style="126" customWidth="1"/>
+    <col min="13076" max="13312" width="9" style="126"/>
+    <col min="13313" max="13313" width="10.5" style="126" customWidth="1"/>
+    <col min="13314" max="13314" width="13.375" style="126" customWidth="1"/>
+    <col min="13315" max="13315" width="15.375" style="126" customWidth="1"/>
+    <col min="13316" max="13316" width="20.5" style="126" customWidth="1"/>
+    <col min="13317" max="13318" width="2.875" style="126" customWidth="1"/>
+    <col min="13319" max="13319" width="2.625" style="126" customWidth="1"/>
+    <col min="13320" max="13331" width="2.875" style="126" customWidth="1"/>
+    <col min="13332" max="13568" width="9" style="126"/>
+    <col min="13569" max="13569" width="10.5" style="126" customWidth="1"/>
+    <col min="13570" max="13570" width="13.375" style="126" customWidth="1"/>
+    <col min="13571" max="13571" width="15.375" style="126" customWidth="1"/>
+    <col min="13572" max="13572" width="20.5" style="126" customWidth="1"/>
+    <col min="13573" max="13574" width="2.875" style="126" customWidth="1"/>
+    <col min="13575" max="13575" width="2.625" style="126" customWidth="1"/>
+    <col min="13576" max="13587" width="2.875" style="126" customWidth="1"/>
+    <col min="13588" max="13824" width="9" style="126"/>
+    <col min="13825" max="13825" width="10.5" style="126" customWidth="1"/>
+    <col min="13826" max="13826" width="13.375" style="126" customWidth="1"/>
+    <col min="13827" max="13827" width="15.375" style="126" customWidth="1"/>
+    <col min="13828" max="13828" width="20.5" style="126" customWidth="1"/>
+    <col min="13829" max="13830" width="2.875" style="126" customWidth="1"/>
+    <col min="13831" max="13831" width="2.625" style="126" customWidth="1"/>
+    <col min="13832" max="13843" width="2.875" style="126" customWidth="1"/>
+    <col min="13844" max="14080" width="9" style="126"/>
+    <col min="14081" max="14081" width="10.5" style="126" customWidth="1"/>
+    <col min="14082" max="14082" width="13.375" style="126" customWidth="1"/>
+    <col min="14083" max="14083" width="15.375" style="126" customWidth="1"/>
+    <col min="14084" max="14084" width="20.5" style="126" customWidth="1"/>
+    <col min="14085" max="14086" width="2.875" style="126" customWidth="1"/>
+    <col min="14087" max="14087" width="2.625" style="126" customWidth="1"/>
+    <col min="14088" max="14099" width="2.875" style="126" customWidth="1"/>
+    <col min="14100" max="14336" width="9" style="126"/>
+    <col min="14337" max="14337" width="10.5" style="126" customWidth="1"/>
+    <col min="14338" max="14338" width="13.375" style="126" customWidth="1"/>
+    <col min="14339" max="14339" width="15.375" style="126" customWidth="1"/>
+    <col min="14340" max="14340" width="20.5" style="126" customWidth="1"/>
+    <col min="14341" max="14342" width="2.875" style="126" customWidth="1"/>
+    <col min="14343" max="14343" width="2.625" style="126" customWidth="1"/>
+    <col min="14344" max="14355" width="2.875" style="126" customWidth="1"/>
+    <col min="14356" max="14592" width="9" style="126"/>
+    <col min="14593" max="14593" width="10.5" style="126" customWidth="1"/>
+    <col min="14594" max="14594" width="13.375" style="126" customWidth="1"/>
+    <col min="14595" max="14595" width="15.375" style="126" customWidth="1"/>
+    <col min="14596" max="14596" width="20.5" style="126" customWidth="1"/>
+    <col min="14597" max="14598" width="2.875" style="126" customWidth="1"/>
+    <col min="14599" max="14599" width="2.625" style="126" customWidth="1"/>
+    <col min="14600" max="14611" width="2.875" style="126" customWidth="1"/>
+    <col min="14612" max="14848" width="9" style="126"/>
+    <col min="14849" max="14849" width="10.5" style="126" customWidth="1"/>
+    <col min="14850" max="14850" width="13.375" style="126" customWidth="1"/>
+    <col min="14851" max="14851" width="15.375" style="126" customWidth="1"/>
+    <col min="14852" max="14852" width="20.5" style="126" customWidth="1"/>
+    <col min="14853" max="14854" width="2.875" style="126" customWidth="1"/>
+    <col min="14855" max="14855" width="2.625" style="126" customWidth="1"/>
+    <col min="14856" max="14867" width="2.875" style="126" customWidth="1"/>
+    <col min="14868" max="15104" width="9" style="126"/>
+    <col min="15105" max="15105" width="10.5" style="126" customWidth="1"/>
+    <col min="15106" max="15106" width="13.375" style="126" customWidth="1"/>
+    <col min="15107" max="15107" width="15.375" style="126" customWidth="1"/>
+    <col min="15108" max="15108" width="20.5" style="126" customWidth="1"/>
+    <col min="15109" max="15110" width="2.875" style="126" customWidth="1"/>
+    <col min="15111" max="15111" width="2.625" style="126" customWidth="1"/>
+    <col min="15112" max="15123" width="2.875" style="126" customWidth="1"/>
+    <col min="15124" max="15360" width="9" style="126"/>
+    <col min="15361" max="15361" width="10.5" style="126" customWidth="1"/>
+    <col min="15362" max="15362" width="13.375" style="126" customWidth="1"/>
+    <col min="15363" max="15363" width="15.375" style="126" customWidth="1"/>
+    <col min="15364" max="15364" width="20.5" style="126" customWidth="1"/>
+    <col min="15365" max="15366" width="2.875" style="126" customWidth="1"/>
+    <col min="15367" max="15367" width="2.625" style="126" customWidth="1"/>
+    <col min="15368" max="15379" width="2.875" style="126" customWidth="1"/>
+    <col min="15380" max="15616" width="9" style="126"/>
+    <col min="15617" max="15617" width="10.5" style="126" customWidth="1"/>
+    <col min="15618" max="15618" width="13.375" style="126" customWidth="1"/>
+    <col min="15619" max="15619" width="15.375" style="126" customWidth="1"/>
+    <col min="15620" max="15620" width="20.5" style="126" customWidth="1"/>
+    <col min="15621" max="15622" width="2.875" style="126" customWidth="1"/>
+    <col min="15623" max="15623" width="2.625" style="126" customWidth="1"/>
+    <col min="15624" max="15635" width="2.875" style="126" customWidth="1"/>
+    <col min="15636" max="15872" width="9" style="126"/>
+    <col min="15873" max="15873" width="10.5" style="126" customWidth="1"/>
+    <col min="15874" max="15874" width="13.375" style="126" customWidth="1"/>
+    <col min="15875" max="15875" width="15.375" style="126" customWidth="1"/>
+    <col min="15876" max="15876" width="20.5" style="126" customWidth="1"/>
+    <col min="15877" max="15878" width="2.875" style="126" customWidth="1"/>
+    <col min="15879" max="15879" width="2.625" style="126" customWidth="1"/>
+    <col min="15880" max="15891" width="2.875" style="126" customWidth="1"/>
+    <col min="15892" max="16128" width="9" style="126"/>
+    <col min="16129" max="16129" width="10.5" style="126" customWidth="1"/>
+    <col min="16130" max="16130" width="13.375" style="126" customWidth="1"/>
+    <col min="16131" max="16131" width="15.375" style="126" customWidth="1"/>
+    <col min="16132" max="16132" width="20.5" style="126" customWidth="1"/>
+    <col min="16133" max="16134" width="2.875" style="126" customWidth="1"/>
+    <col min="16135" max="16135" width="2.625" style="126" customWidth="1"/>
+    <col min="16136" max="16147" width="2.875" style="126" customWidth="1"/>
+    <col min="16148" max="16384" width="9" style="126"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A1" s="70"/>
+      <c r="B1" s="71"/>
+    </row>
+    <row r="2" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A2" s="222" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="223"/>
+      <c r="C2" s="224" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="225"/>
+      <c r="E2" s="226" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="227"/>
+      <c r="G2" s="227"/>
+      <c r="H2" s="228"/>
+      <c r="I2" s="229" t="str">
+        <f>C2</f>
+        <v>GetTotalMoneyDonatedInByUsingUserId</v>
+      </c>
+      <c r="J2" s="230"/>
+      <c r="K2" s="230"/>
+      <c r="L2" s="230"/>
+      <c r="M2" s="230"/>
+      <c r="N2" s="230"/>
+      <c r="O2" s="230"/>
+      <c r="P2" s="230"/>
+      <c r="Q2" s="230"/>
+      <c r="R2" s="231"/>
+      <c r="T2" s="73"/>
+    </row>
+    <row r="3" spans="1:20" ht="30" customHeight="1">
+      <c r="A3" s="210" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="211"/>
+      <c r="C3" s="232" t="str">
+        <f>Cover!F4</f>
+        <v>TuanhaSE03108</v>
+      </c>
+      <c r="D3" s="233"/>
+      <c r="E3" s="234" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="235"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="237" t="str">
+        <f>C3</f>
+        <v>TuanhaSE03108</v>
+      </c>
+      <c r="J3" s="238"/>
+      <c r="K3" s="238"/>
+      <c r="L3" s="238"/>
+      <c r="M3" s="238"/>
+      <c r="N3" s="238"/>
+      <c r="O3" s="238"/>
+      <c r="P3" s="238"/>
+      <c r="Q3" s="238"/>
+      <c r="R3" s="239"/>
+    </row>
+    <row r="4" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A4" s="210" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="211"/>
+      <c r="C4" s="212"/>
+      <c r="D4" s="212"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="213"/>
+      <c r="G4" s="213"/>
+      <c r="H4" s="213"/>
+      <c r="I4" s="212"/>
+      <c r="J4" s="212"/>
+      <c r="K4" s="212"/>
+      <c r="L4" s="212"/>
+      <c r="M4" s="212"/>
+      <c r="N4" s="212"/>
+      <c r="O4" s="212"/>
+      <c r="P4" s="212"/>
+      <c r="Q4" s="212"/>
+      <c r="R4" s="214"/>
+    </row>
+    <row r="5" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A5" s="215" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="216"/>
+      <c r="C5" s="217" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="218"/>
+      <c r="E5" s="219" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="218"/>
+      <c r="G5" s="218"/>
+      <c r="H5" s="220"/>
+      <c r="I5" s="218" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="218"/>
+      <c r="K5" s="218"/>
+      <c r="L5" s="219" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="218"/>
+      <c r="N5" s="218"/>
+      <c r="O5" s="218"/>
+      <c r="P5" s="218"/>
+      <c r="Q5" s="218"/>
+      <c r="R5" s="221"/>
+      <c r="T5" s="73"/>
+    </row>
+    <row r="6" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A6" s="197">
+        <f>COUNTIF(E23:HM23,"P")</f>
+        <v>3</v>
+      </c>
+      <c r="B6" s="198"/>
+      <c r="C6" s="199">
+        <f>COUNTIF(E23:HO23,"F")</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="200"/>
+      <c r="E6" s="201">
+        <f>SUM(L6,- A6,- C6)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="200"/>
+      <c r="G6" s="200"/>
+      <c r="H6" s="202"/>
+      <c r="I6" s="117">
+        <f>COUNTIF(E22:HM22,"N")</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="117">
+        <f>COUNTIF(E22:HM22,"A")</f>
+        <v>3</v>
+      </c>
+      <c r="K6" s="117">
+        <f>COUNTIF(E22:HM22,"B")</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="201">
+        <f>COUNTA(E8:P8)</f>
+        <v>3</v>
+      </c>
+      <c r="M6" s="200"/>
+      <c r="N6" s="200"/>
+      <c r="O6" s="200"/>
+      <c r="P6" s="200"/>
+      <c r="Q6" s="200"/>
+      <c r="R6" s="203"/>
+      <c r="S6" s="118"/>
+    </row>
+    <row r="7" spans="1:20" ht="11.25" thickBot="1"/>
+    <row r="8" spans="1:20" ht="46.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A8" s="146"/>
+      <c r="B8" s="142"/>
+      <c r="C8" s="143"/>
+      <c r="D8" s="144"/>
+      <c r="E8" s="145" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="145" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" s="145" t="s">
+        <v>137</v>
+      </c>
+      <c r="H8" s="145"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="145"/>
+      <c r="K8" s="145"/>
+      <c r="L8" s="145"/>
+      <c r="M8" s="145"/>
+      <c r="N8" s="145"/>
+      <c r="O8" s="145"/>
+      <c r="P8" s="145"/>
+      <c r="Q8" s="145"/>
+      <c r="R8" s="158"/>
+      <c r="S8" s="118"/>
+    </row>
+    <row r="9" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A9" s="135" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="139" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="140"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="134" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="134" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="134" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="147"/>
+      <c r="I9" s="147"/>
+      <c r="J9" s="147"/>
+      <c r="K9" s="147"/>
+      <c r="L9" s="147"/>
+      <c r="M9" s="149"/>
+      <c r="N9" s="149"/>
+      <c r="O9" s="149"/>
+      <c r="P9" s="149"/>
+      <c r="Q9" s="149"/>
+      <c r="R9" s="147"/>
+    </row>
+    <row r="10" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A10" s="135"/>
+      <c r="B10" s="139" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="140"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="134" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="134" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="134" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="147"/>
+      <c r="I10" s="147"/>
+      <c r="J10" s="147"/>
+      <c r="K10" s="147"/>
+      <c r="L10" s="147"/>
+      <c r="M10" s="149"/>
+      <c r="N10" s="149"/>
+      <c r="O10" s="149"/>
+      <c r="P10" s="149"/>
+      <c r="Q10" s="149"/>
+      <c r="R10" s="147"/>
+    </row>
+    <row r="11" spans="1:20" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A11" s="135"/>
+      <c r="B11" s="139" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="140"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="134" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="134" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="134" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="147"/>
+      <c r="I11" s="147"/>
+      <c r="J11" s="147"/>
+      <c r="K11" s="147"/>
+      <c r="L11" s="147"/>
+      <c r="M11" s="149"/>
+      <c r="N11" s="149"/>
+      <c r="O11" s="149"/>
+      <c r="P11" s="149"/>
+      <c r="Q11" s="149"/>
+      <c r="R11" s="147"/>
+    </row>
+    <row r="12" spans="1:20" ht="13.5" customHeight="1">
       <c r="A12" s="138" t="s">
         <v>50</v>
       </c>
       <c r="B12" s="139" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C12" s="140"/>
       <c r="D12" s="141"/>
@@ -13305,7 +13311,7 @@
     <row r="18" spans="1:18">
       <c r="A18" s="136"/>
       <c r="B18" s="130" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C18" s="131"/>
       <c r="D18" s="132"/>
@@ -13400,11 +13406,11 @@
       <c r="A22" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="233" t="s">
+      <c r="B22" s="204" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="234"/>
-      <c r="D22" s="235"/>
+      <c r="C22" s="205"/>
+      <c r="D22" s="206"/>
       <c r="E22" s="157" t="s">
         <v>36</v>
       </c>
@@ -13428,11 +13434,11 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="136"/>
-      <c r="B23" s="236" t="s">
+      <c r="B23" s="207" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="237"/>
-      <c r="D23" s="238"/>
+      <c r="C23" s="208"/>
+      <c r="D23" s="209"/>
       <c r="E23" s="134" t="s">
         <v>38</v>
       </c>
@@ -13456,11 +13462,11 @@
     </row>
     <row r="24" spans="1:18" ht="54">
       <c r="A24" s="136"/>
-      <c r="B24" s="223" t="s">
+      <c r="B24" s="194" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="224"/>
-      <c r="D24" s="225"/>
+      <c r="C24" s="195"/>
+      <c r="D24" s="196"/>
       <c r="E24" s="133">
         <v>42594</v>
       </c>
@@ -13567,20 +13573,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="L6:R6"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:R4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:R5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:H2"/>
@@ -13589,6 +13581,20 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I3:R3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:R4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:R5"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="L6:R6"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVM983062:WVZ983062 JA22:JN22 SW22:TJ22 ACS22:ADF22 AMO22:ANB22 AWK22:AWX22 BGG22:BGT22 BQC22:BQP22 BZY22:CAL22 CJU22:CKH22 CTQ22:CUD22 DDM22:DDZ22 DNI22:DNV22 DXE22:DXR22 EHA22:EHN22 EQW22:ERJ22 FAS22:FBF22 FKO22:FLB22 FUK22:FUX22 GEG22:GET22 GOC22:GOP22 GXY22:GYL22 HHU22:HIH22 HRQ22:HSD22 IBM22:IBZ22 ILI22:ILV22 IVE22:IVR22 JFA22:JFN22 JOW22:JPJ22 JYS22:JZF22 KIO22:KJB22 KSK22:KSX22 LCG22:LCT22 LMC22:LMP22 LVY22:LWL22 MFU22:MGH22 MPQ22:MQD22 MZM22:MZZ22 NJI22:NJV22 NTE22:NTR22 ODA22:ODN22 OMW22:ONJ22 OWS22:OXF22 PGO22:PHB22 PQK22:PQX22 QAG22:QAT22 QKC22:QKP22 QTY22:QUL22 RDU22:REH22 RNQ22:ROD22 RXM22:RXZ22 SHI22:SHV22 SRE22:SRR22 TBA22:TBN22 TKW22:TLJ22 TUS22:TVF22 UEO22:UFB22 UOK22:UOX22 UYG22:UYT22 VIC22:VIP22 VRY22:VSL22 WBU22:WCH22 WLQ22:WMD22 WVM22:WVZ22 E65558:R65558 JA65558:JN65558 SW65558:TJ65558 ACS65558:ADF65558 AMO65558:ANB65558 AWK65558:AWX65558 BGG65558:BGT65558 BQC65558:BQP65558 BZY65558:CAL65558 CJU65558:CKH65558 CTQ65558:CUD65558 DDM65558:DDZ65558 DNI65558:DNV65558 DXE65558:DXR65558 EHA65558:EHN65558 EQW65558:ERJ65558 FAS65558:FBF65558 FKO65558:FLB65558 FUK65558:FUX65558 GEG65558:GET65558 GOC65558:GOP65558 GXY65558:GYL65558 HHU65558:HIH65558 HRQ65558:HSD65558 IBM65558:IBZ65558 ILI65558:ILV65558 IVE65558:IVR65558 JFA65558:JFN65558 JOW65558:JPJ65558 JYS65558:JZF65558 KIO65558:KJB65558 KSK65558:KSX65558 LCG65558:LCT65558 LMC65558:LMP65558 LVY65558:LWL65558 MFU65558:MGH65558 MPQ65558:MQD65558 MZM65558:MZZ65558 NJI65558:NJV65558 NTE65558:NTR65558 ODA65558:ODN65558 OMW65558:ONJ65558 OWS65558:OXF65558 PGO65558:PHB65558 PQK65558:PQX65558 QAG65558:QAT65558 QKC65558:QKP65558 QTY65558:QUL65558 RDU65558:REH65558 RNQ65558:ROD65558 RXM65558:RXZ65558 SHI65558:SHV65558 SRE65558:SRR65558 TBA65558:TBN65558 TKW65558:TLJ65558 TUS65558:TVF65558 UEO65558:UFB65558 UOK65558:UOX65558 UYG65558:UYT65558 VIC65558:VIP65558 VRY65558:VSL65558 WBU65558:WCH65558 WLQ65558:WMD65558 WVM65558:WVZ65558 E131094:R131094 JA131094:JN131094 SW131094:TJ131094 ACS131094:ADF131094 AMO131094:ANB131094 AWK131094:AWX131094 BGG131094:BGT131094 BQC131094:BQP131094 BZY131094:CAL131094 CJU131094:CKH131094 CTQ131094:CUD131094 DDM131094:DDZ131094 DNI131094:DNV131094 DXE131094:DXR131094 EHA131094:EHN131094 EQW131094:ERJ131094 FAS131094:FBF131094 FKO131094:FLB131094 FUK131094:FUX131094 GEG131094:GET131094 GOC131094:GOP131094 GXY131094:GYL131094 HHU131094:HIH131094 HRQ131094:HSD131094 IBM131094:IBZ131094 ILI131094:ILV131094 IVE131094:IVR131094 JFA131094:JFN131094 JOW131094:JPJ131094 JYS131094:JZF131094 KIO131094:KJB131094 KSK131094:KSX131094 LCG131094:LCT131094 LMC131094:LMP131094 LVY131094:LWL131094 MFU131094:MGH131094 MPQ131094:MQD131094 MZM131094:MZZ131094 NJI131094:NJV131094 NTE131094:NTR131094 ODA131094:ODN131094 OMW131094:ONJ131094 OWS131094:OXF131094 PGO131094:PHB131094 PQK131094:PQX131094 QAG131094:QAT131094 QKC131094:QKP131094 QTY131094:QUL131094 RDU131094:REH131094 RNQ131094:ROD131094 RXM131094:RXZ131094 SHI131094:SHV131094 SRE131094:SRR131094 TBA131094:TBN131094 TKW131094:TLJ131094 TUS131094:TVF131094 UEO131094:UFB131094 UOK131094:UOX131094 UYG131094:UYT131094 VIC131094:VIP131094 VRY131094:VSL131094 WBU131094:WCH131094 WLQ131094:WMD131094 WVM131094:WVZ131094 E196630:R196630 JA196630:JN196630 SW196630:TJ196630 ACS196630:ADF196630 AMO196630:ANB196630 AWK196630:AWX196630 BGG196630:BGT196630 BQC196630:BQP196630 BZY196630:CAL196630 CJU196630:CKH196630 CTQ196630:CUD196630 DDM196630:DDZ196630 DNI196630:DNV196630 DXE196630:DXR196630 EHA196630:EHN196630 EQW196630:ERJ196630 FAS196630:FBF196630 FKO196630:FLB196630 FUK196630:FUX196630 GEG196630:GET196630 GOC196630:GOP196630 GXY196630:GYL196630 HHU196630:HIH196630 HRQ196630:HSD196630 IBM196630:IBZ196630 ILI196630:ILV196630 IVE196630:IVR196630 JFA196630:JFN196630 JOW196630:JPJ196630 JYS196630:JZF196630 KIO196630:KJB196630 KSK196630:KSX196630 LCG196630:LCT196630 LMC196630:LMP196630 LVY196630:LWL196630 MFU196630:MGH196630 MPQ196630:MQD196630 MZM196630:MZZ196630 NJI196630:NJV196630 NTE196630:NTR196630 ODA196630:ODN196630 OMW196630:ONJ196630 OWS196630:OXF196630 PGO196630:PHB196630 PQK196630:PQX196630 QAG196630:QAT196630 QKC196630:QKP196630 QTY196630:QUL196630 RDU196630:REH196630 RNQ196630:ROD196630 RXM196630:RXZ196630 SHI196630:SHV196630 SRE196630:SRR196630 TBA196630:TBN196630 TKW196630:TLJ196630 TUS196630:TVF196630 UEO196630:UFB196630 UOK196630:UOX196630 UYG196630:UYT196630 VIC196630:VIP196630 VRY196630:VSL196630 WBU196630:WCH196630 WLQ196630:WMD196630 WVM196630:WVZ196630 E262166:R262166 JA262166:JN262166 SW262166:TJ262166 ACS262166:ADF262166 AMO262166:ANB262166 AWK262166:AWX262166 BGG262166:BGT262166 BQC262166:BQP262166 BZY262166:CAL262166 CJU262166:CKH262166 CTQ262166:CUD262166 DDM262166:DDZ262166 DNI262166:DNV262166 DXE262166:DXR262166 EHA262166:EHN262166 EQW262166:ERJ262166 FAS262166:FBF262166 FKO262166:FLB262166 FUK262166:FUX262166 GEG262166:GET262166 GOC262166:GOP262166 GXY262166:GYL262166 HHU262166:HIH262166 HRQ262166:HSD262166 IBM262166:IBZ262166 ILI262166:ILV262166 IVE262166:IVR262166 JFA262166:JFN262166 JOW262166:JPJ262166 JYS262166:JZF262166 KIO262166:KJB262166 KSK262166:KSX262166 LCG262166:LCT262166 LMC262166:LMP262166 LVY262166:LWL262166 MFU262166:MGH262166 MPQ262166:MQD262166 MZM262166:MZZ262166 NJI262166:NJV262166 NTE262166:NTR262166 ODA262166:ODN262166 OMW262166:ONJ262166 OWS262166:OXF262166 PGO262166:PHB262166 PQK262166:PQX262166 QAG262166:QAT262166 QKC262166:QKP262166 QTY262166:QUL262166 RDU262166:REH262166 RNQ262166:ROD262166 RXM262166:RXZ262166 SHI262166:SHV262166 SRE262166:SRR262166 TBA262166:TBN262166 TKW262166:TLJ262166 TUS262166:TVF262166 UEO262166:UFB262166 UOK262166:UOX262166 UYG262166:UYT262166 VIC262166:VIP262166 VRY262166:VSL262166 WBU262166:WCH262166 WLQ262166:WMD262166 WVM262166:WVZ262166 E327702:R327702 JA327702:JN327702 SW327702:TJ327702 ACS327702:ADF327702 AMO327702:ANB327702 AWK327702:AWX327702 BGG327702:BGT327702 BQC327702:BQP327702 BZY327702:CAL327702 CJU327702:CKH327702 CTQ327702:CUD327702 DDM327702:DDZ327702 DNI327702:DNV327702 DXE327702:DXR327702 EHA327702:EHN327702 EQW327702:ERJ327702 FAS327702:FBF327702 FKO327702:FLB327702 FUK327702:FUX327702 GEG327702:GET327702 GOC327702:GOP327702 GXY327702:GYL327702 HHU327702:HIH327702 HRQ327702:HSD327702 IBM327702:IBZ327702 ILI327702:ILV327702 IVE327702:IVR327702 JFA327702:JFN327702 JOW327702:JPJ327702 JYS327702:JZF327702 KIO327702:KJB327702 KSK327702:KSX327702 LCG327702:LCT327702 LMC327702:LMP327702 LVY327702:LWL327702 MFU327702:MGH327702 MPQ327702:MQD327702 MZM327702:MZZ327702 NJI327702:NJV327702 NTE327702:NTR327702 ODA327702:ODN327702 OMW327702:ONJ327702 OWS327702:OXF327702 PGO327702:PHB327702 PQK327702:PQX327702 QAG327702:QAT327702 QKC327702:QKP327702 QTY327702:QUL327702 RDU327702:REH327702 RNQ327702:ROD327702 RXM327702:RXZ327702 SHI327702:SHV327702 SRE327702:SRR327702 TBA327702:TBN327702 TKW327702:TLJ327702 TUS327702:TVF327702 UEO327702:UFB327702 UOK327702:UOX327702 UYG327702:UYT327702 VIC327702:VIP327702 VRY327702:VSL327702 WBU327702:WCH327702 WLQ327702:WMD327702 WVM327702:WVZ327702 E393238:R393238 JA393238:JN393238 SW393238:TJ393238 ACS393238:ADF393238 AMO393238:ANB393238 AWK393238:AWX393238 BGG393238:BGT393238 BQC393238:BQP393238 BZY393238:CAL393238 CJU393238:CKH393238 CTQ393238:CUD393238 DDM393238:DDZ393238 DNI393238:DNV393238 DXE393238:DXR393238 EHA393238:EHN393238 EQW393238:ERJ393238 FAS393238:FBF393238 FKO393238:FLB393238 FUK393238:FUX393238 GEG393238:GET393238 GOC393238:GOP393238 GXY393238:GYL393238 HHU393238:HIH393238 HRQ393238:HSD393238 IBM393238:IBZ393238 ILI393238:ILV393238 IVE393238:IVR393238 JFA393238:JFN393238 JOW393238:JPJ393238 JYS393238:JZF393238 KIO393238:KJB393238 KSK393238:KSX393238 LCG393238:LCT393238 LMC393238:LMP393238 LVY393238:LWL393238 MFU393238:MGH393238 MPQ393238:MQD393238 MZM393238:MZZ393238 NJI393238:NJV393238 NTE393238:NTR393238 ODA393238:ODN393238 OMW393238:ONJ393238 OWS393238:OXF393238 PGO393238:PHB393238 PQK393238:PQX393238 QAG393238:QAT393238 QKC393238:QKP393238 QTY393238:QUL393238 RDU393238:REH393238 RNQ393238:ROD393238 RXM393238:RXZ393238 SHI393238:SHV393238 SRE393238:SRR393238 TBA393238:TBN393238 TKW393238:TLJ393238 TUS393238:TVF393238 UEO393238:UFB393238 UOK393238:UOX393238 UYG393238:UYT393238 VIC393238:VIP393238 VRY393238:VSL393238 WBU393238:WCH393238 WLQ393238:WMD393238 WVM393238:WVZ393238 E458774:R458774 JA458774:JN458774 SW458774:TJ458774 ACS458774:ADF458774 AMO458774:ANB458774 AWK458774:AWX458774 BGG458774:BGT458774 BQC458774:BQP458774 BZY458774:CAL458774 CJU458774:CKH458774 CTQ458774:CUD458774 DDM458774:DDZ458774 DNI458774:DNV458774 DXE458774:DXR458774 EHA458774:EHN458774 EQW458774:ERJ458774 FAS458774:FBF458774 FKO458774:FLB458774 FUK458774:FUX458774 GEG458774:GET458774 GOC458774:GOP458774 GXY458774:GYL458774 HHU458774:HIH458774 HRQ458774:HSD458774 IBM458774:IBZ458774 ILI458774:ILV458774 IVE458774:IVR458774 JFA458774:JFN458774 JOW458774:JPJ458774 JYS458774:JZF458774 KIO458774:KJB458774 KSK458774:KSX458774 LCG458774:LCT458774 LMC458774:LMP458774 LVY458774:LWL458774 MFU458774:MGH458774 MPQ458774:MQD458774 MZM458774:MZZ458774 NJI458774:NJV458774 NTE458774:NTR458774 ODA458774:ODN458774 OMW458774:ONJ458774 OWS458774:OXF458774 PGO458774:PHB458774 PQK458774:PQX458774 QAG458774:QAT458774 QKC458774:QKP458774 QTY458774:QUL458774 RDU458774:REH458774 RNQ458774:ROD458774 RXM458774:RXZ458774 SHI458774:SHV458774 SRE458774:SRR458774 TBA458774:TBN458774 TKW458774:TLJ458774 TUS458774:TVF458774 UEO458774:UFB458774 UOK458774:UOX458774 UYG458774:UYT458774 VIC458774:VIP458774 VRY458774:VSL458774 WBU458774:WCH458774 WLQ458774:WMD458774 WVM458774:WVZ458774 E524310:R524310 JA524310:JN524310 SW524310:TJ524310 ACS524310:ADF524310 AMO524310:ANB524310 AWK524310:AWX524310 BGG524310:BGT524310 BQC524310:BQP524310 BZY524310:CAL524310 CJU524310:CKH524310 CTQ524310:CUD524310 DDM524310:DDZ524310 DNI524310:DNV524310 DXE524310:DXR524310 EHA524310:EHN524310 EQW524310:ERJ524310 FAS524310:FBF524310 FKO524310:FLB524310 FUK524310:FUX524310 GEG524310:GET524310 GOC524310:GOP524310 GXY524310:GYL524310 HHU524310:HIH524310 HRQ524310:HSD524310 IBM524310:IBZ524310 ILI524310:ILV524310 IVE524310:IVR524310 JFA524310:JFN524310 JOW524310:JPJ524310 JYS524310:JZF524310 KIO524310:KJB524310 KSK524310:KSX524310 LCG524310:LCT524310 LMC524310:LMP524310 LVY524310:LWL524310 MFU524310:MGH524310 MPQ524310:MQD524310 MZM524310:MZZ524310 NJI524310:NJV524310 NTE524310:NTR524310 ODA524310:ODN524310 OMW524310:ONJ524310 OWS524310:OXF524310 PGO524310:PHB524310 PQK524310:PQX524310 QAG524310:QAT524310 QKC524310:QKP524310 QTY524310:QUL524310 RDU524310:REH524310 RNQ524310:ROD524310 RXM524310:RXZ524310 SHI524310:SHV524310 SRE524310:SRR524310 TBA524310:TBN524310 TKW524310:TLJ524310 TUS524310:TVF524310 UEO524310:UFB524310 UOK524310:UOX524310 UYG524310:UYT524310 VIC524310:VIP524310 VRY524310:VSL524310 WBU524310:WCH524310 WLQ524310:WMD524310 WVM524310:WVZ524310 E589846:R589846 JA589846:JN589846 SW589846:TJ589846 ACS589846:ADF589846 AMO589846:ANB589846 AWK589846:AWX589846 BGG589846:BGT589846 BQC589846:BQP589846 BZY589846:CAL589846 CJU589846:CKH589846 CTQ589846:CUD589846 DDM589846:DDZ589846 DNI589846:DNV589846 DXE589846:DXR589846 EHA589846:EHN589846 EQW589846:ERJ589846 FAS589846:FBF589846 FKO589846:FLB589846 FUK589846:FUX589846 GEG589846:GET589846 GOC589846:GOP589846 GXY589846:GYL589846 HHU589846:HIH589846 HRQ589846:HSD589846 IBM589846:IBZ589846 ILI589846:ILV589846 IVE589846:IVR589846 JFA589846:JFN589846 JOW589846:JPJ589846 JYS589846:JZF589846 KIO589846:KJB589846 KSK589846:KSX589846 LCG589846:LCT589846 LMC589846:LMP589846 LVY589846:LWL589846 MFU589846:MGH589846 MPQ589846:MQD589846 MZM589846:MZZ589846 NJI589846:NJV589846 NTE589846:NTR589846 ODA589846:ODN589846 OMW589846:ONJ589846 OWS589846:OXF589846 PGO589846:PHB589846 PQK589846:PQX589846 QAG589846:QAT589846 QKC589846:QKP589846 QTY589846:QUL589846 RDU589846:REH589846 RNQ589846:ROD589846 RXM589846:RXZ589846 SHI589846:SHV589846 SRE589846:SRR589846 TBA589846:TBN589846 TKW589846:TLJ589846 TUS589846:TVF589846 UEO589846:UFB589846 UOK589846:UOX589846 UYG589846:UYT589846 VIC589846:VIP589846 VRY589846:VSL589846 WBU589846:WCH589846 WLQ589846:WMD589846 WVM589846:WVZ589846 E655382:R655382 JA655382:JN655382 SW655382:TJ655382 ACS655382:ADF655382 AMO655382:ANB655382 AWK655382:AWX655382 BGG655382:BGT655382 BQC655382:BQP655382 BZY655382:CAL655382 CJU655382:CKH655382 CTQ655382:CUD655382 DDM655382:DDZ655382 DNI655382:DNV655382 DXE655382:DXR655382 EHA655382:EHN655382 EQW655382:ERJ655382 FAS655382:FBF655382 FKO655382:FLB655382 FUK655382:FUX655382 GEG655382:GET655382 GOC655382:GOP655382 GXY655382:GYL655382 HHU655382:HIH655382 HRQ655382:HSD655382 IBM655382:IBZ655382 ILI655382:ILV655382 IVE655382:IVR655382 JFA655382:JFN655382 JOW655382:JPJ655382 JYS655382:JZF655382 KIO655382:KJB655382 KSK655382:KSX655382 LCG655382:LCT655382 LMC655382:LMP655382 LVY655382:LWL655382 MFU655382:MGH655382 MPQ655382:MQD655382 MZM655382:MZZ655382 NJI655382:NJV655382 NTE655382:NTR655382 ODA655382:ODN655382 OMW655382:ONJ655382 OWS655382:OXF655382 PGO655382:PHB655382 PQK655382:PQX655382 QAG655382:QAT655382 QKC655382:QKP655382 QTY655382:QUL655382 RDU655382:REH655382 RNQ655382:ROD655382 RXM655382:RXZ655382 SHI655382:SHV655382 SRE655382:SRR655382 TBA655382:TBN655382 TKW655382:TLJ655382 TUS655382:TVF655382 UEO655382:UFB655382 UOK655382:UOX655382 UYG655382:UYT655382 VIC655382:VIP655382 VRY655382:VSL655382 WBU655382:WCH655382 WLQ655382:WMD655382 WVM655382:WVZ655382 E720918:R720918 JA720918:JN720918 SW720918:TJ720918 ACS720918:ADF720918 AMO720918:ANB720918 AWK720918:AWX720918 BGG720918:BGT720918 BQC720918:BQP720918 BZY720918:CAL720918 CJU720918:CKH720918 CTQ720918:CUD720918 DDM720918:DDZ720918 DNI720918:DNV720918 DXE720918:DXR720918 EHA720918:EHN720918 EQW720918:ERJ720918 FAS720918:FBF720918 FKO720918:FLB720918 FUK720918:FUX720918 GEG720918:GET720918 GOC720918:GOP720918 GXY720918:GYL720918 HHU720918:HIH720918 HRQ720918:HSD720918 IBM720918:IBZ720918 ILI720918:ILV720918 IVE720918:IVR720918 JFA720918:JFN720918 JOW720918:JPJ720918 JYS720918:JZF720918 KIO720918:KJB720918 KSK720918:KSX720918 LCG720918:LCT720918 LMC720918:LMP720918 LVY720918:LWL720918 MFU720918:MGH720918 MPQ720918:MQD720918 MZM720918:MZZ720918 NJI720918:NJV720918 NTE720918:NTR720918 ODA720918:ODN720918 OMW720918:ONJ720918 OWS720918:OXF720918 PGO720918:PHB720918 PQK720918:PQX720918 QAG720918:QAT720918 QKC720918:QKP720918 QTY720918:QUL720918 RDU720918:REH720918 RNQ720918:ROD720918 RXM720918:RXZ720918 SHI720918:SHV720918 SRE720918:SRR720918 TBA720918:TBN720918 TKW720918:TLJ720918 TUS720918:TVF720918 UEO720918:UFB720918 UOK720918:UOX720918 UYG720918:UYT720918 VIC720918:VIP720918 VRY720918:VSL720918 WBU720918:WCH720918 WLQ720918:WMD720918 WVM720918:WVZ720918 E786454:R786454 JA786454:JN786454 SW786454:TJ786454 ACS786454:ADF786454 AMO786454:ANB786454 AWK786454:AWX786454 BGG786454:BGT786454 BQC786454:BQP786454 BZY786454:CAL786454 CJU786454:CKH786454 CTQ786454:CUD786454 DDM786454:DDZ786454 DNI786454:DNV786454 DXE786454:DXR786454 EHA786454:EHN786454 EQW786454:ERJ786454 FAS786454:FBF786454 FKO786454:FLB786454 FUK786454:FUX786454 GEG786454:GET786454 GOC786454:GOP786454 GXY786454:GYL786454 HHU786454:HIH786454 HRQ786454:HSD786454 IBM786454:IBZ786454 ILI786454:ILV786454 IVE786454:IVR786454 JFA786454:JFN786454 JOW786454:JPJ786454 JYS786454:JZF786454 KIO786454:KJB786454 KSK786454:KSX786454 LCG786454:LCT786454 LMC786454:LMP786454 LVY786454:LWL786454 MFU786454:MGH786454 MPQ786454:MQD786454 MZM786454:MZZ786454 NJI786454:NJV786454 NTE786454:NTR786454 ODA786454:ODN786454 OMW786454:ONJ786454 OWS786454:OXF786454 PGO786454:PHB786454 PQK786454:PQX786454 QAG786454:QAT786454 QKC786454:QKP786454 QTY786454:QUL786454 RDU786454:REH786454 RNQ786454:ROD786454 RXM786454:RXZ786454 SHI786454:SHV786454 SRE786454:SRR786454 TBA786454:TBN786454 TKW786454:TLJ786454 TUS786454:TVF786454 UEO786454:UFB786454 UOK786454:UOX786454 UYG786454:UYT786454 VIC786454:VIP786454 VRY786454:VSL786454 WBU786454:WCH786454 WLQ786454:WMD786454 WVM786454:WVZ786454 E851990:R851990 JA851990:JN851990 SW851990:TJ851990 ACS851990:ADF851990 AMO851990:ANB851990 AWK851990:AWX851990 BGG851990:BGT851990 BQC851990:BQP851990 BZY851990:CAL851990 CJU851990:CKH851990 CTQ851990:CUD851990 DDM851990:DDZ851990 DNI851990:DNV851990 DXE851990:DXR851990 EHA851990:EHN851990 EQW851990:ERJ851990 FAS851990:FBF851990 FKO851990:FLB851990 FUK851990:FUX851990 GEG851990:GET851990 GOC851990:GOP851990 GXY851990:GYL851990 HHU851990:HIH851990 HRQ851990:HSD851990 IBM851990:IBZ851990 ILI851990:ILV851990 IVE851990:IVR851990 JFA851990:JFN851990 JOW851990:JPJ851990 JYS851990:JZF851990 KIO851990:KJB851990 KSK851990:KSX851990 LCG851990:LCT851990 LMC851990:LMP851990 LVY851990:LWL851990 MFU851990:MGH851990 MPQ851990:MQD851990 MZM851990:MZZ851990 NJI851990:NJV851990 NTE851990:NTR851990 ODA851990:ODN851990 OMW851990:ONJ851990 OWS851990:OXF851990 PGO851990:PHB851990 PQK851990:PQX851990 QAG851990:QAT851990 QKC851990:QKP851990 QTY851990:QUL851990 RDU851990:REH851990 RNQ851990:ROD851990 RXM851990:RXZ851990 SHI851990:SHV851990 SRE851990:SRR851990 TBA851990:TBN851990 TKW851990:TLJ851990 TUS851990:TVF851990 UEO851990:UFB851990 UOK851990:UOX851990 UYG851990:UYT851990 VIC851990:VIP851990 VRY851990:VSL851990 WBU851990:WCH851990 WLQ851990:WMD851990 WVM851990:WVZ851990 E917526:R917526 JA917526:JN917526 SW917526:TJ917526 ACS917526:ADF917526 AMO917526:ANB917526 AWK917526:AWX917526 BGG917526:BGT917526 BQC917526:BQP917526 BZY917526:CAL917526 CJU917526:CKH917526 CTQ917526:CUD917526 DDM917526:DDZ917526 DNI917526:DNV917526 DXE917526:DXR917526 EHA917526:EHN917526 EQW917526:ERJ917526 FAS917526:FBF917526 FKO917526:FLB917526 FUK917526:FUX917526 GEG917526:GET917526 GOC917526:GOP917526 GXY917526:GYL917526 HHU917526:HIH917526 HRQ917526:HSD917526 IBM917526:IBZ917526 ILI917526:ILV917526 IVE917526:IVR917526 JFA917526:JFN917526 JOW917526:JPJ917526 JYS917526:JZF917526 KIO917526:KJB917526 KSK917526:KSX917526 LCG917526:LCT917526 LMC917526:LMP917526 LVY917526:LWL917526 MFU917526:MGH917526 MPQ917526:MQD917526 MZM917526:MZZ917526 NJI917526:NJV917526 NTE917526:NTR917526 ODA917526:ODN917526 OMW917526:ONJ917526 OWS917526:OXF917526 PGO917526:PHB917526 PQK917526:PQX917526 QAG917526:QAT917526 QKC917526:QKP917526 QTY917526:QUL917526 RDU917526:REH917526 RNQ917526:ROD917526 RXM917526:RXZ917526 SHI917526:SHV917526 SRE917526:SRR917526 TBA917526:TBN917526 TKW917526:TLJ917526 TUS917526:TVF917526 UEO917526:UFB917526 UOK917526:UOX917526 UYG917526:UYT917526 VIC917526:VIP917526 VRY917526:VSL917526 WBU917526:WCH917526 WLQ917526:WMD917526 WVM917526:WVZ917526 E983062:R983062 JA983062:JN983062 SW983062:TJ983062 ACS983062:ADF983062 AMO983062:ANB983062 AWK983062:AWX983062 BGG983062:BGT983062 BQC983062:BQP983062 BZY983062:CAL983062 CJU983062:CKH983062 CTQ983062:CUD983062 DDM983062:DDZ983062 DNI983062:DNV983062 DXE983062:DXR983062 EHA983062:EHN983062 EQW983062:ERJ983062 FAS983062:FBF983062 FKO983062:FLB983062 FUK983062:FUX983062 GEG983062:GET983062 GOC983062:GOP983062 GXY983062:GYL983062 HHU983062:HIH983062 HRQ983062:HSD983062 IBM983062:IBZ983062 ILI983062:ILV983062 IVE983062:IVR983062 JFA983062:JFN983062 JOW983062:JPJ983062 JYS983062:JZF983062 KIO983062:KJB983062 KSK983062:KSX983062 LCG983062:LCT983062 LMC983062:LMP983062 LVY983062:LWL983062 MFU983062:MGH983062 MPQ983062:MQD983062 MZM983062:MZZ983062 NJI983062:NJV983062 NTE983062:NTR983062 ODA983062:ODN983062 OMW983062:ONJ983062 OWS983062:OXF983062 PGO983062:PHB983062 PQK983062:PQX983062 QAG983062:QAT983062 QKC983062:QKP983062 QTY983062:QUL983062 RDU983062:REH983062 RNQ983062:ROD983062 RXM983062:RXZ983062 SHI983062:SHV983062 SRE983062:SRR983062 TBA983062:TBN983062 TKW983062:TLJ983062 TUS983062:TVF983062 UEO983062:UFB983062 UOK983062:UOX983062 UYG983062:UYT983062 VIC983062:VIP983062 VRY983062:VSL983062 WBU983062:WCH983062 WLQ983062:WMD983062 E22:R22">
